--- a/QuantLibXL/Data2/XLS/EUR_SynthQuotesFeed.xlsx
+++ b/QuantLibXL/Data2/XLS/EUR_SynthQuotesFeed.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-2100" yWindow="135" windowWidth="15315" windowHeight="19395" tabRatio="695"/>
+    <workbookView xWindow="-2100" yWindow="135" windowWidth="15315" windowHeight="19395" tabRatio="695" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="General Settings" sheetId="29" r:id="rId1"/>
@@ -148,7 +148,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="141">
   <si>
     <t>General Settings</t>
   </si>
@@ -193,9 +193,6 @@
   </si>
   <si>
     <t>SerializationPath</t>
-  </si>
-  <si>
-    <t>C:\Projects\quantlib\QuantLibXL\Data2\XML\</t>
   </si>
   <si>
     <t>OisEngine</t>
@@ -2138,12 +2135,12 @@
       <sheetData sheetId="0">
         <row r="6">
           <cell r="D6">
-            <v>91</v>
+            <v>1151</v>
           </cell>
         </row>
         <row r="7">
           <cell r="D7">
-            <v>2</v>
+            <v>1</v>
           </cell>
         </row>
       </sheetData>
@@ -2661,8 +2658,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AJ46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -2795,7 +2792,7 @@
         <v>12</v>
       </c>
       <c r="J6" s="14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K6" s="15"/>
       <c r="L6" s="1"/>
@@ -2838,9 +2835,7 @@
       <c r="I7" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="J7" s="18" t="s">
-        <v>15</v>
-      </c>
+      <c r="J7" s="18"/>
       <c r="K7" s="15"/>
     </row>
     <row r="8" spans="1:36" x14ac:dyDescent="0.2">
@@ -2856,7 +2851,7 @@
       <c r="F8" s="4"/>
       <c r="H8" s="9"/>
       <c r="I8" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J8" s="19" t="b">
         <v>1</v>
@@ -2877,7 +2872,7 @@
     <row r="10" spans="1:36" x14ac:dyDescent="0.2">
       <c r="B10" s="2"/>
       <c r="C10" s="279" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" s="281">
         <v>41732.453043981484</v>
@@ -2886,17 +2881,17 @@
       <c r="F10" s="4"/>
       <c r="H10" s="9"/>
       <c r="I10" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="J10" s="19" t="s">
         <v>21</v>
-      </c>
-      <c r="J10" s="19" t="s">
-        <v>22</v>
       </c>
       <c r="K10" s="15"/>
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.2">
       <c r="B11" s="2"/>
       <c r="C11" s="279" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D11" s="366" t="b">
         <v>1</v>
@@ -2905,7 +2900,7 @@
       <c r="F11" s="4"/>
       <c r="H11" s="9"/>
       <c r="I11" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J11" s="20">
         <v>1E-4</v>
@@ -2920,7 +2915,7 @@
       <c r="F12" s="4"/>
       <c r="H12" s="9"/>
       <c r="I12" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J12" s="22">
         <v>-0.01</v>
@@ -2957,7 +2952,7 @@
     </row>
     <row r="17" spans="2:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="367" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C17" s="368"/>
       <c r="D17" s="368"/>
@@ -2978,7 +2973,7 @@
       </c>
       <c r="D19" s="16">
         <f>_xll.qlCalendarAdvance(Calendar,EvaluationDate,"2D","f")</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="4"/>
@@ -2986,11 +2981,11 @@
     <row r="20" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B20" s="2"/>
       <c r="C20" s="262" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D20" s="17" t="str">
         <f>_xll.qlDiscountingSwapEngine(,OisCurve,,,,,EvaluationDate)</f>
-        <v>obj_00372#0000</v>
+        <v>obj_0035d#0001</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="4"/>
@@ -2998,7 +2993,7 @@
     <row r="21" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B21" s="2"/>
       <c r="C21" s="262" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D21" s="260">
         <f>_xll.qlCalendarAdjust(Calendar,DATE(YEAR(SettlementDate),12,31),"Preceding")</f>
@@ -3010,7 +3005,7 @@
     <row r="22" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B22" s="2"/>
       <c r="C22" s="262" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D22" s="260">
         <f>_xll.qlCalendarAdjust(Calendar,DATE(YEAR(SettlementDate)+1,12,31),"Preceding")</f>
@@ -3029,7 +3024,7 @@
     <row r="25" spans="2:6" ht="12" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="26" spans="2:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B26" s="367" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C26" s="368"/>
       <c r="D26" s="368"/>
@@ -3046,10 +3041,10 @@
     <row r="28" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B28" s="2"/>
       <c r="C28" s="262" t="s">
+        <v>31</v>
+      </c>
+      <c r="D28" s="6" t="s">
         <v>32</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>33</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="4"/>
@@ -3057,7 +3052,7 @@
     <row r="29" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B29" s="2"/>
       <c r="C29" s="262" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D29" s="259">
         <v>2</v>
@@ -3068,7 +3063,7 @@
     <row r="30" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B30" s="2"/>
       <c r="C30" s="262" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D30" s="7" t="e">
         <v>#N/A</v>
@@ -3079,10 +3074,10 @@
     <row r="31" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B31" s="2"/>
       <c r="C31" s="262" t="s">
+        <v>36</v>
+      </c>
+      <c r="D31" s="12" t="s">
         <v>37</v>
-      </c>
-      <c r="D31" s="12" t="s">
-        <v>38</v>
       </c>
       <c r="E31" s="3"/>
       <c r="F31" s="4"/>
@@ -3090,10 +3085,10 @@
     <row r="32" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B32" s="2"/>
       <c r="C32" s="262" t="s">
+        <v>38</v>
+      </c>
+      <c r="D32" s="17" t="s">
         <v>39</v>
-      </c>
-      <c r="D32" s="17" t="s">
-        <v>40</v>
       </c>
       <c r="E32" s="3"/>
       <c r="F32" s="4"/>
@@ -3108,7 +3103,7 @@
     <row r="34" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B34" s="2"/>
       <c r="C34" s="262" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D34" s="261" t="b">
         <f>_xll.qlExtrapolatorEnableExtrapolation(YieldCurve,TRUE)</f>
@@ -3127,11 +3122,11 @@
     <row r="36" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B36" s="2"/>
       <c r="C36" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D36" s="263" t="str">
         <f>_xll.qlEuribor(,IborTenor,YieldCurve,,D34)</f>
-        <v>obj_003ad#0000</v>
+        <v>obj_00387#0001</v>
       </c>
       <c r="E36" s="29"/>
       <c r="F36" s="4"/>
@@ -3139,10 +3134,10 @@
     <row r="37" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B37" s="2"/>
       <c r="C37" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D37" s="261" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E37" s="29"/>
       <c r="F37" s="4"/>
@@ -3150,11 +3145,11 @@
     <row r="38" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B38" s="2"/>
       <c r="C38" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D38" s="264" t="str">
         <f>_xll.qlInterpolation(,BasisInterpolation,SynthFra!I2:I6,SynthFra!O2:O6)</f>
-        <v>obj_003ab#0000</v>
+        <v>obj_00385#0001</v>
       </c>
       <c r="E38" s="29"/>
       <c r="F38" s="4"/>
@@ -3162,10 +3157,10 @@
     <row r="39" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B39" s="2"/>
       <c r="C39" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D39" s="258" t="s">
         <v>18</v>
-      </c>
-      <c r="D39" s="258" t="s">
-        <v>19</v>
       </c>
       <c r="E39" s="3"/>
       <c r="F39" s="4"/>
@@ -3173,11 +3168,11 @@
     <row r="40" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B40" s="2"/>
       <c r="C40" s="269" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D40" s="270" t="str">
         <f>_xll.qlPiecewiseYieldCurve(,NDays,Calendar,_xll.ohPack(SynthFra!A3:A127),DayCounter,,,Accuracy,TraitsID,InterpolatorID)</f>
-        <v>obj_003ac#0000</v>
+        <v>obj_00386#0001</v>
       </c>
       <c r="E40" s="29"/>
       <c r="F40" s="4"/>
@@ -3185,7 +3180,7 @@
     <row r="41" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B41" s="2"/>
       <c r="C41" s="271" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D41" s="272" t="str">
         <f>_xll.ohRangeRetrieveError(YieldCurve)</f>
@@ -3205,7 +3200,7 @@
       <c r="B43" s="2"/>
       <c r="C43" s="265">
         <f>_xll.qlTermStructureReferenceDate(YieldCurve)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="D43" s="266">
         <f ca="1">MAX(_xll.ohPack(SynthFra!E2:E127))</f>
@@ -3218,11 +3213,11 @@
       <c r="B44" s="2"/>
       <c r="C44" s="267">
         <f>MAX(_xll.ohPack(SynthFra!D3:D127))</f>
-        <v>43563</v>
+        <v>43565</v>
       </c>
       <c r="D44" s="268">
         <f ca="1">MIN(_xll.ohPack(SynthFra!E2:E127))</f>
-        <v>0.94403360238596556</v>
+        <v>0.94668086751036251</v>
       </c>
       <c r="E44" s="29"/>
       <c r="F44" s="4"/>
@@ -3291,7 +3286,7 @@
   <dimension ref="A1:Z197"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -3333,11 +3328,9 @@
     <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A2" s="39"/>
       <c r="B2" s="40" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" s="41">
-        <v>41733.448287037034</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="C2" s="41"/>
       <c r="D2" s="36"/>
       <c r="E2" s="37"/>
       <c r="F2" s="37"/>
@@ -3365,11 +3358,11 @@
     <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3" s="39"/>
       <c r="B3" s="40" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C3" s="42">
         <f>_xll.qlSettingsEvaluationDate(Trigger)</f>
-        <v>41733</v>
+        <v>41737</v>
       </c>
       <c r="D3" s="36"/>
       <c r="E3" s="37"/>
@@ -3426,11 +3419,11 @@
     <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="39"/>
       <c r="B5" s="40" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C5" s="43">
         <f ca="1">[1]!TriggerCounter</f>
-        <v>91</v>
+        <v>1151</v>
       </c>
       <c r="D5" s="36"/>
       <c r="E5" s="37"/>
@@ -3459,11 +3452,11 @@
     <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A6" s="39"/>
       <c r="B6" s="40" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C6" s="43">
         <f>[1]!LastFixingsTrigger</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6" s="36"/>
       <c r="E6" s="37"/>
@@ -3492,11 +3485,11 @@
     <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A7" s="39"/>
       <c r="B7" s="40" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C7" s="43">
         <f ca="1">_xll.ohTrigger(Contribution!P2,Contribution!P8,Contribution!P15,Contribution!P25,Contribution!P41)</f>
-        <v>75</v>
+        <v>1117</v>
       </c>
       <c r="D7" s="36"/>
       <c r="E7" s="37"/>
@@ -8832,8 +8825,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:AJ51"/>
   <sheetViews>
-    <sheetView topLeftCell="G22" workbookViewId="0">
-      <selection activeCell="J34" sqref="J34"/>
+    <sheetView tabSelected="1" topLeftCell="D31" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -8875,42 +8868,42 @@
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.2">
       <c r="B1" s="47" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C1" s="48"/>
       <c r="D1" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="E1" s="48" t="s">
+      <c r="F1" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="F1" s="49" t="s">
+      <c r="G1" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="G1" s="48" t="s">
+      <c r="H1" s="48" t="s">
         <v>45</v>
       </c>
-      <c r="H1" s="48" t="s">
+      <c r="I1" s="50" t="s">
         <v>46</v>
       </c>
-      <c r="I1" s="50" t="s">
+      <c r="K1" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="K1" s="51" t="s">
+      <c r="L1" s="51" t="s">
         <v>48</v>
-      </c>
-      <c r="L1" s="51" t="s">
-        <v>49</v>
       </c>
       <c r="M1" s="51"/>
       <c r="N1" s="52" t="s">
+        <v>49</v>
+      </c>
+      <c r="O1" s="52" t="s">
         <v>50</v>
       </c>
-      <c r="O1" s="52" t="s">
+      <c r="P1" s="52" t="s">
         <v>51</v>
-      </c>
-      <c r="P1" s="52" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.2">
@@ -8919,7 +8912,7 @@
       </c>
       <c r="B2" s="53" t="str">
         <f>_xll.qlMakeDatedOIS(,E2,F2,OvernightIndex,0,,,,Trigger)</f>
-        <v>obj_003a6#0000</v>
+        <v>obj_0037e#0001</v>
       </c>
       <c r="C2" s="54" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B2,OisEngine)</f>
@@ -8931,11 +8924,11 @@
       </c>
       <c r="E2" s="56">
         <f>SettlementDate</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="F2" s="57">
         <f>_xll.qlCalendarAdvance(Calendar,E2,A3,"mf")</f>
-        <v>41767</v>
+        <v>41771</v>
       </c>
       <c r="G2" s="58">
         <f ca="1">_xll.qlQuoteValue($D2,AllTriggers)</f>
@@ -8943,11 +8936,11 @@
       </c>
       <c r="H2" s="59">
         <f ca="1">_xll.qlOvernightIndexedSwapFairRate(B2,_xll.ohTrigger(C2,InterestRatesTrigger))</f>
-        <v>2.2500000000000853E-3</v>
+        <v>2.0999999999987691E-3</v>
       </c>
       <c r="I2" s="60">
         <f ca="1">G2-H2</f>
-        <v>4.4999999999991488E-4</v>
+        <v>6.0000000000123106E-4</v>
       </c>
       <c r="J2" s="61" t="b">
         <v>0</v>
@@ -8961,22 +8954,22 @@
       </c>
       <c r="O2" s="63">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="P2" s="62">
         <f>(O2^2-N2^2)/(O2-N2)</f>
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Q2" s="61"/>
       <c r="R2" s="61"/>
       <c r="S2" s="61"/>
       <c r="T2" s="64">
         <f>(O2^3-N2^3)/3/(O2-N2)</f>
-        <v>300</v>
+        <v>341.33333333333331</v>
       </c>
       <c r="U2" s="64">
         <f>(O2+N2)/2</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="V2" s="64">
         <v>1</v>
@@ -8989,7 +8982,7 @@
       </c>
       <c r="B3" s="65" t="str">
         <f>_xll.qlMakeDatedOIS(,E3,F3,OvernightIndex,0,,,,Trigger)</f>
-        <v>obj_0032a#0003</v>
+        <v>obj_00305#0003</v>
       </c>
       <c r="C3" s="66" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B3,OisEngine)</f>
@@ -9001,23 +8994,23 @@
       </c>
       <c r="E3" s="68">
         <f>_xll.qlCalendarAdvance(Calendar,_xll.qlLastFixingQuoteReferenceDate(D3),_xll.qlInterestRateIndexFixingDays(A4)&amp;"D","f",,LastFixingsTrigger)</f>
-        <v>41736</v>
+        <v>41739</v>
       </c>
       <c r="F3" s="69">
         <f>_xll.qlInterestRateIndexMaturity(A4,E3)</f>
-        <v>41766</v>
+        <v>41771</v>
       </c>
       <c r="G3" s="70">
         <f ca="1">_xll.qlQuoteValue(D3,AllTriggers)</f>
-        <v>2.3999999999999998E-3</v>
+        <v>2.5100000000000001E-3</v>
       </c>
       <c r="H3" s="71">
         <f ca="1">_xll.qlOvernightIndexedSwapFairRate(B3,_xll.ohTrigger(C3,InterestRatesTrigger))</f>
-        <v>2.2671431900995746E-3</v>
+        <v>2.0999999999987691E-3</v>
       </c>
       <c r="I3" s="72">
         <f t="shared" ref="I3:I27" ca="1" si="1">G3-H3</f>
-        <v>1.3285680990042514E-4</v>
+        <v>4.1000000000123099E-4</v>
       </c>
       <c r="J3" s="61" t="b">
         <f ca="1">NOT(ISERROR(I3))</f>
@@ -9025,35 +9018,35 @@
       </c>
       <c r="K3" s="73">
         <f ca="1">K4</f>
-        <v>7.2460682061358734E-6</v>
+        <v>3.7896798245206622E-6</v>
       </c>
       <c r="L3" s="71">
         <f ca="1">_xll.ohFilter($I$2:$I$3,$J$2:$J$3)-K3*_xll.ohFilter($P$2:$P$3,$J$2:$J$3)</f>
-        <v>-7.0033099871379313E-5</v>
+        <v>2.8873024561656979E-4</v>
       </c>
       <c r="M3" s="62"/>
       <c r="N3" s="63">
         <f t="shared" si="0"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="O3" s="63">
         <f t="shared" si="0"/>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="P3" s="62">
         <f>(O3^2-N3^2)/(O3-N3)</f>
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="Q3" s="61"/>
       <c r="R3" s="61"/>
       <c r="S3" s="61"/>
       <c r="T3" s="64">
         <f>(O3^3-N3^3)/3/(O3-N3)</f>
-        <v>271</v>
+        <v>341.33333333333331</v>
       </c>
       <c r="U3" s="64">
         <f>(O3+N3)/2</f>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="V3" s="64">
         <v>1</v>
@@ -9066,34 +9059,34 @@
       </c>
       <c r="B4" s="65" t="str">
         <f>_xll.qlMakeDatedOIS(,E4,F4,OvernightIndex,0,,,,Trigger)</f>
-        <v>obj_0032c#0003</v>
+        <v>obj_00306#0003</v>
       </c>
       <c r="C4" s="66" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B4,OisEngine)</f>
         <v>1</v>
       </c>
       <c r="D4" s="74" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E4" s="75">
         <f>F3</f>
-        <v>41766</v>
+        <v>41771</v>
       </c>
       <c r="F4" s="76">
         <f>F5</f>
-        <v>41799</v>
+        <v>41800</v>
       </c>
       <c r="G4" s="77">
         <f ca="1">((1+G5*(F5-E5)/360)/(1+G3*(F3-E3)/360)-1)/(F4-E4)*360</f>
-        <v>2.3831597316916549E-3</v>
+        <v>2.4463507436920306E-3</v>
       </c>
       <c r="H4" s="78">
         <f ca="1">_xll.qlOvernightIndexedSwapFairRate(B4,_xll.ohTrigger(C4,InterestRatesTrigger))</f>
-        <v>1.7938006248046697E-3</v>
+        <v>1.8051802743950392E-3</v>
       </c>
       <c r="I4" s="79">
         <f ca="1">G4-H4</f>
-        <v>5.8935910688698518E-4</v>
+        <v>6.4117046929699139E-4</v>
       </c>
       <c r="J4" s="38" t="b">
         <f ca="1">NOT(ISERROR(I4))</f>
@@ -9101,32 +9094,32 @@
       </c>
       <c r="K4" s="78">
         <f ca="1">(I4-_xll.ohFilter($I$2:$I$3,$J$2:$J$3))/(P4-_xll.ohFilter($P$2:$P$3,$J$2:$J$3))</f>
-        <v>7.2460682061358734E-6</v>
+        <v>3.7896798245206622E-6</v>
       </c>
       <c r="L4" s="78">
         <f ca="1">_xll.ohFilter($I$2:$I$3,$J$2:$J$3)-K4*_xll.ohFilter($P$2:$P$3,$J$2:$J$3)</f>
-        <v>-7.0033099871379313E-5</v>
+        <v>2.8873024561656979E-4</v>
       </c>
       <c r="M4" s="80"/>
       <c r="N4" s="81">
         <f t="shared" si="0"/>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O4" s="81">
         <f t="shared" si="0"/>
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="P4" s="80">
         <f>(O4^2-N4^2)/(O4-N4)</f>
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="T4" s="82">
         <f>(O4^3-N4^3)/3/(O4-N4)</f>
-        <v>2161</v>
+        <v>2232.333333333333</v>
       </c>
       <c r="U4" s="82">
         <f>(O4+N4)/2</f>
-        <v>45.5</v>
+        <v>46.5</v>
       </c>
       <c r="V4" s="82">
         <v>1</v>
@@ -9141,15 +9134,15 @@
       </c>
       <c r="E5" s="75">
         <f>SettlementDate</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="F5" s="76">
         <f>_xll.qlCalendarAdvance(Calendar,E5,"2M","mf")</f>
-        <v>41799</v>
+        <v>41800</v>
       </c>
       <c r="G5" s="84">
         <f ca="1">_xll.qlQuoteValue($D5,AllTriggers)</f>
-        <v>2.4299999999999999E-3</v>
+        <v>2.48E-3</v>
       </c>
       <c r="H5" s="78"/>
       <c r="I5" s="79"/>
@@ -9172,7 +9165,7 @@
       </c>
       <c r="B6" s="53" t="str">
         <f>_xll.qlMakeDatedOIS(,E6,F6,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003a9#0000</v>
+        <v>obj_00376#0001</v>
       </c>
       <c r="C6" s="54" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B6,OisEngine)</f>
@@ -9184,23 +9177,23 @@
       </c>
       <c r="E6" s="56">
         <f>SettlementDate</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="F6" s="57">
         <f>_xll.qlCalendarAdvance(Calendar,E6,A7,"mf")</f>
-        <v>41828</v>
+        <v>41830</v>
       </c>
       <c r="G6" s="58">
         <f ca="1">_xll.qlQuoteValue($D6,AllTriggers)</f>
-        <v>3.3E-3</v>
+        <v>3.4000000000000002E-3</v>
       </c>
       <c r="H6" s="59">
         <f ca="1">_xll.qlOvernightIndexedSwapFairRate(B6,_xll.ohTrigger(C6,InterestRatesTrigger))</f>
-        <v>1.919999999996064E-3</v>
+        <v>1.8599999999999754E-3</v>
       </c>
       <c r="I6" s="60">
         <f t="shared" ca="1" si="1"/>
-        <v>1.380000000003936E-3</v>
+        <v>1.5400000000000249E-3</v>
       </c>
       <c r="J6" s="61" t="b">
         <v>0</v>
@@ -9242,7 +9235,7 @@
       </c>
       <c r="B7" s="65" t="str">
         <f>_xll.qlMakeDatedOIS(,E7,F7,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_0032b#0003</v>
+        <v>obj_00304#0003</v>
       </c>
       <c r="C7" s="66" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B7,OisEngine)</f>
@@ -9254,23 +9247,23 @@
       </c>
       <c r="E7" s="68">
         <f>_xll.qlCalendarAdvance(Calendar,_xll.qlLastFixingQuoteReferenceDate(D7),_xll.qlInterestRateIndexFixingDays(A8)&amp;"D","f",,LastFixingsTrigger)</f>
-        <v>41736</v>
+        <v>41739</v>
       </c>
       <c r="F7" s="69">
         <f>_xll.qlInterestRateIndexMaturity(A8,E7)</f>
-        <v>41827</v>
+        <v>41830</v>
       </c>
       <c r="G7" s="70">
         <f ca="1">_xll.qlQuoteValue(D7,AllTriggers)</f>
-        <v>3.1900000000000001E-3</v>
+        <v>3.2700000000000003E-3</v>
       </c>
       <c r="H7" s="71">
         <f ca="1">_xll.qlOvernightIndexedSwapFairRate(B7,_xll.ohTrigger(C7,InterestRatesTrigger))</f>
-        <v>1.9299052893443688E-3</v>
+        <v>1.8599999999999754E-3</v>
       </c>
       <c r="I7" s="72">
         <f t="shared" ca="1" si="1"/>
-        <v>1.2600947106556314E-3</v>
+        <v>1.4100000000000249E-3</v>
       </c>
       <c r="J7" s="61" t="b">
         <f ca="1">AND(ISERROR(I8),ISERROR(I9),NOT(ISERROR(I7)))</f>
@@ -9281,26 +9274,26 @@
       <c r="M7" s="62"/>
       <c r="N7" s="63">
         <f t="shared" si="2"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="O7" s="63">
         <f t="shared" si="3"/>
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="P7" s="62">
         <f t="shared" ref="P7:P27" si="6">(O7^2-N7^2)/(O7-N7)</f>
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="Q7" s="61"/>
       <c r="R7" s="61"/>
       <c r="S7" s="61"/>
       <c r="T7" s="64">
         <f t="shared" si="4"/>
-        <v>2670.3333333333335</v>
+        <v>2760.3333333333335</v>
       </c>
       <c r="U7" s="64">
         <f t="shared" si="5"/>
-        <v>44.5</v>
+        <v>45.5</v>
       </c>
       <c r="V7" s="64">
         <v>1</v>
@@ -9333,34 +9326,34 @@
       </c>
       <c r="O8" s="63">
         <f t="shared" si="3"/>
-        <v>-41737</v>
+        <v>-41739</v>
       </c>
       <c r="P8" s="62">
         <f t="shared" si="6"/>
-        <v>-41737</v>
+        <v>-41739</v>
       </c>
       <c r="Q8" s="61"/>
       <c r="R8" s="61"/>
       <c r="S8" s="61"/>
       <c r="T8" s="64">
         <f t="shared" si="4"/>
-        <v>580659056.33333325</v>
+        <v>580714707</v>
       </c>
       <c r="U8" s="64">
         <f t="shared" si="5"/>
-        <v>-20868.5</v>
+        <v>-20869.5</v>
       </c>
       <c r="V8" s="64">
         <v>1</v>
       </c>
       <c r="AB8" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="AF8" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="AF8" s="38" t="s">
+      <c r="AJ8" s="38" t="s">
         <v>55</v>
-      </c>
-      <c r="AJ8" s="38" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.2">
@@ -9380,20 +9373,20 @@
       </c>
       <c r="K9" s="71">
         <f ca="1">AVERAGE(_xll.ohFilter(K10:K12,J10:J12))</f>
-        <v>5.6596487595227171E-6</v>
+        <v>1.9776626199524396E-6</v>
       </c>
       <c r="L9" s="71">
         <f ca="1">_xll.ohFilter($I$6:$I$9,$J$6:$J$9)-K9*_xll.ohFilter($P$6:$P$9,$J$6:$J$9)</f>
-        <v>7.5638597105810951E-4</v>
+        <v>1.2300327015843529E-3</v>
       </c>
       <c r="M9" s="62"/>
       <c r="N9" s="63">
         <f t="shared" si="2"/>
-        <v>-41737</v>
+        <v>-41739</v>
       </c>
       <c r="O9" s="63">
         <f t="shared" si="3"/>
-        <v>-41737</v>
+        <v>-41739</v>
       </c>
       <c r="P9" s="62" t="e">
         <f t="shared" si="6"/>
@@ -9408,18 +9401,18 @@
       </c>
       <c r="U9" s="64">
         <f t="shared" si="5"/>
-        <v>-41737</v>
+        <v>-41739</v>
       </c>
       <c r="V9" s="64">
         <v>1</v>
       </c>
       <c r="X9" s="91">
         <f t="array" aca="1" ref="X9:X11" ca="1">_xll.ohFilter(T6:T14,$J6:$J14)</f>
-        <v>2670.3333333333335</v>
+        <v>2760.3333333333335</v>
       </c>
       <c r="Y9" s="94">
         <f t="array" aca="1" ref="Y9:Y11" ca="1">_xll.ohFilter(U6:U14,$J6:$J14)</f>
-        <v>44.5</v>
+        <v>45.5</v>
       </c>
       <c r="Z9" s="97">
         <f t="array" aca="1" ref="Z9:Z11" ca="1">_xll.ohFilter(V6:V14,$J6:$J14)</f>
@@ -9427,27 +9420,27 @@
       </c>
       <c r="AB9" s="100">
         <f t="array" aca="1" ref="AB9:AB11" ca="1">MMULT(AF9:AH11,AD9:AD11)</f>
-        <v>-3.1186466138234793E-7</v>
+        <v>-1.0672619131344492E-7</v>
       </c>
       <c r="AD9" s="100">
         <f t="array" aca="1" ref="AD9:AD11" ca="1">_xll.ohFilter(I6:I14,$J6:$J14)</f>
-        <v>1.2600947106556314E-3</v>
+        <v>1.4100000000000249E-3</v>
       </c>
       <c r="AF9" s="103">
         <f t="array" aca="1" ref="AF9:AH11" ca="1">MINVERSE(X9:Z11)</f>
-        <v>1.5275071564311634E-3</v>
+        <v>2.3898234917767457E-3</v>
       </c>
       <c r="AG9" s="104">
         <f ca="1"/>
-        <v>-1.7440042337206194E-3</v>
+        <v>-2.6156335854879346E-3</v>
       </c>
       <c r="AH9" s="105">
         <f ca="1"/>
-        <v>2.1649707728945629E-4</v>
+        <v>2.2581009371118869E-4</v>
       </c>
       <c r="AJ9" s="112">
         <f t="array" aca="1" ref="AJ9:AJ11" ca="1">MMULT(X9:Z11,AB9:AB11)-AD9:AD11</f>
-        <v>0</v>
+        <v>4.1199682554449168E-18</v>
       </c>
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.2">
@@ -9457,7 +9450,7 @@
       </c>
       <c r="B10" s="89" t="str">
         <f>_xll.qlMakeDatedOIS(,E10,F10,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_0038f#0000</v>
+        <v>obj_00368#0001</v>
       </c>
       <c r="C10" s="66" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B10,OisEngine)</f>
@@ -9477,15 +9470,15 @@
       </c>
       <c r="G10" s="84">
         <f ca="1">1-_xll.qlQuoteValue($D10,AllTriggers)/100</f>
-        <v>3.3249999999999114E-3</v>
+        <v>3.2750000000000279E-3</v>
       </c>
       <c r="H10" s="78">
         <f ca="1">_xll.qlOvernightIndexedSwapFairRate(B10,_xll.ohTrigger(C10,InterestRatesTrigger))</f>
-        <v>1.8670645969566357E-3</v>
+        <v>1.8230262284821125E-3</v>
       </c>
       <c r="I10" s="79">
         <f t="shared" ca="1" si="1"/>
-        <v>1.4579354030432757E-3</v>
+        <v>1.4519737715179154E-3</v>
       </c>
       <c r="J10" s="38" t="b">
         <f ca="1">AND(NOT(ISERROR(I10)),E10&lt;&gt;$E$9,E10&lt;&gt;SettlementDate)</f>
@@ -9493,77 +9486,77 @@
       </c>
       <c r="K10" s="78">
         <f ca="1">(I10-_xll.ohFilter($I$6:$I$9,$J$6:$J$9))/(P10-_xll.ohFilter($P$6:$P$9,$J$6:$J$9))</f>
-        <v>1.0991149577091351E-5</v>
+        <v>3.4978142931575357E-6</v>
       </c>
       <c r="L10" s="78">
         <f ca="1">_xll.ohFilter($I$6:$I$9,$J$6:$J$9)-K10*_xll.ohFilter($P$6:$P$9,$J$6:$J$9)</f>
-        <v>2.8188239829450112E-4</v>
+        <v>1.0916988993226891E-3</v>
       </c>
       <c r="M10" s="80"/>
       <c r="N10" s="81">
         <f t="shared" ref="N10:N18" si="7">E10-SettlementDate</f>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="O10" s="81">
         <f t="shared" ref="O10:O18" si="8">F10-SettlementDate</f>
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="P10" s="80">
         <f t="shared" si="6"/>
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="T10" s="82">
         <f t="shared" si="4"/>
-        <v>3552.333333333333</v>
+        <v>3342.333333333333</v>
       </c>
       <c r="U10" s="82">
         <f t="shared" si="5"/>
-        <v>53.5</v>
+        <v>51.5</v>
       </c>
       <c r="V10" s="82">
         <v>1</v>
       </c>
       <c r="X10" s="92">
         <f ca="1"/>
-        <v>3552.333333333333</v>
+        <v>3342.333333333333</v>
       </c>
       <c r="Y10" s="95">
         <f ca="1"/>
-        <v>53.5</v>
+        <v>51.5</v>
       </c>
       <c r="Z10" s="98">
         <f ca="1"/>
         <v>1</v>
       </c>
       <c r="AA10" s="51" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB10" s="101">
+        <f ca="1"/>
+        <v>1.7348069143719305E-5</v>
+      </c>
+      <c r="AC10" s="51" t="s">
         <v>57</v>
       </c>
-      <c r="AB10" s="101">
-        <f ca="1"/>
-        <v>5.2545035969652745E-5</v>
-      </c>
-      <c r="AC10" s="51" t="s">
-        <v>58</v>
-      </c>
       <c r="AD10" s="101">
         <f ca="1"/>
-        <v>1.4579354030432757E-3</v>
+        <v>1.4519737715179154E-3</v>
       </c>
       <c r="AF10" s="106">
         <f ca="1"/>
-        <v>-0.26080681244136494</v>
+        <v>-0.39847954536901076</v>
       </c>
       <c r="AG10" s="107">
         <f ca="1"/>
-        <v>0.28202352601573161</v>
+        <v>0.42038312445899612</v>
       </c>
       <c r="AH10" s="108">
         <f ca="1"/>
-        <v>-2.1216713574366691E-2</v>
+        <v>-2.1903579089985293E-2</v>
       </c>
       <c r="AJ10" s="113">
         <f ca="1"/>
-        <v>-2.1684043449710089E-19</v>
+        <v>4.7704895589362195E-18</v>
       </c>
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.2">
@@ -9573,7 +9566,7 @@
       </c>
       <c r="B11" s="89" t="str">
         <f>_xll.qlMakeDatedOIS(,E11,F11,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_0039c#0000</v>
+        <v>obj_00384#0001</v>
       </c>
       <c r="C11" s="66" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B11,OisEngine)</f>
@@ -9593,15 +9586,15 @@
       </c>
       <c r="G11" s="84">
         <f ca="1">1-_xll.qlQuoteValue($D11,AllTriggers)/100</f>
-        <v>3.0750000000000499E-3</v>
+        <v>2.9250000000000664E-3</v>
       </c>
       <c r="H11" s="78">
         <f ca="1">_xll.qlOvernightIndexedSwapFairRate(B11,_xll.ohTrigger(C11,InterestRatesTrigger))</f>
-        <v>1.6616914715912412E-3</v>
+        <v>1.5014407514827347E-3</v>
       </c>
       <c r="I11" s="79">
         <f t="shared" ca="1" si="1"/>
-        <v>1.4133085284088087E-3</v>
+        <v>1.4235592485173317E-3</v>
       </c>
       <c r="J11" s="38" t="b">
         <f ca="1">NOT(ISERROR(I11))</f>
@@ -9609,43 +9602,43 @@
       </c>
       <c r="K11" s="78">
         <f ca="1">(I11-_xll.ohFilter($I$6:$I$9,$J$6:$J$9))/(P11-_xll.ohFilter($P$6:$P$9,$J$6:$J$9))</f>
-        <v>1.0566470189874302E-6</v>
+        <v>9.754855048422149E-8</v>
       </c>
       <c r="L11" s="78">
         <f ca="1">_xll.ohFilter($I$6:$I$9,$J$6:$J$9)-K11*_xll.ohFilter($P$6:$P$9,$J$6:$J$9)</f>
-        <v>1.16605312596575E-3</v>
+        <v>1.4011230819059607E-3</v>
       </c>
       <c r="M11" s="80"/>
       <c r="N11" s="81">
         <f t="shared" si="7"/>
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="O11" s="81">
         <f t="shared" si="8"/>
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="P11" s="80">
         <f t="shared" si="6"/>
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="T11" s="82">
         <f t="shared" si="4"/>
-        <v>14394.333333333334</v>
+        <v>13930.333333333334</v>
       </c>
       <c r="U11" s="82">
         <f t="shared" si="5"/>
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="V11" s="82">
         <v>1</v>
       </c>
       <c r="X11" s="93">
         <f ca="1"/>
-        <v>14394.333333333334</v>
+        <v>13930.333333333334</v>
       </c>
       <c r="Y11" s="96">
         <f ca="1"/>
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="Z11" s="99">
         <f ca="1"/>
@@ -9653,27 +9646,27 @@
       </c>
       <c r="AB11" s="102">
         <f ca="1"/>
-        <v>-2.4537678921591891E-4</v>
+        <v>9.1526271738301326E-4</v>
       </c>
       <c r="AD11" s="102">
         <f ca="1"/>
-        <v>1.4133085284088087E-3</v>
+        <v>1.4235592485173317E-3</v>
       </c>
       <c r="AF11" s="109">
         <f ca="1"/>
-        <v>8.5269498769173886</v>
+        <v>12.53410986915558</v>
       </c>
       <c r="AG11" s="110">
         <f ca="1"/>
-        <v>-7.8929742689214279</v>
+        <v>-11.907411589075794</v>
       </c>
       <c r="AH11" s="111">
         <f ca="1"/>
-        <v>0.36602439200403952</v>
+        <v>0.37330171992021299</v>
       </c>
       <c r="AJ11" s="114">
         <f ca="1"/>
-        <v>0</v>
+        <v>9.540979117872439E-18</v>
       </c>
     </row>
     <row r="12" spans="1:36" x14ac:dyDescent="0.2">
@@ -9682,7 +9675,7 @@
       </c>
       <c r="B12" s="89" t="str">
         <f>_xll.qlMakeDatedOIS(,E12,F12,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_0039d#0000</v>
+        <v>obj_0037a#0001</v>
       </c>
       <c r="C12" s="66" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B12,OisEngine)</f>
@@ -9694,23 +9687,23 @@
       </c>
       <c r="E12" s="75">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A12&amp;"M","mf")</f>
-        <v>41767</v>
+        <v>41771</v>
       </c>
       <c r="F12" s="76">
         <f>_xll.qlInterestRateIndexMaturity($A$8,E12)</f>
-        <v>41859</v>
+        <v>41863</v>
       </c>
       <c r="G12" s="84">
         <f ca="1">_xll.qlQuoteValue(D12,AllTriggers)</f>
-        <v>3.2899999999999995E-3</v>
+        <v>3.1999999999999997E-3</v>
       </c>
       <c r="H12" s="78">
         <f ca="1">_xll.qlOvernightIndexedSwapFairRate(B12,_xll.ohTrigger(C12,InterestRatesTrigger))</f>
-        <v>1.719242859347538E-3</v>
+        <v>1.6380543739459633E-3</v>
       </c>
       <c r="I12" s="79">
         <f ca="1">G12-H12</f>
-        <v>1.5707571406524616E-3</v>
+        <v>1.5619456260540364E-3</v>
       </c>
       <c r="J12" s="38" t="b">
         <f ca="1">AND(NOT(ISERROR(I12)),E12&lt;&gt;$E$11,E12&lt;&gt;$E$10)</f>
@@ -9718,32 +9711,32 @@
       </c>
       <c r="K12" s="78">
         <f ca="1">(I12-_xll.ohFilter($I$6:$I$9,$J$6:$J$9))/(P12-_xll.ohFilter($P$6:$P$9,$J$6:$J$9))</f>
-        <v>4.9311496824893679E-6</v>
+        <v>2.3376250162155614E-6</v>
       </c>
       <c r="L12" s="78">
         <f ca="1">_xll.ohFilter($I$6:$I$9,$J$6:$J$9)-K12*_xll.ohFilter($P$6:$P$9,$J$6:$J$9)</f>
-        <v>8.2122238891407762E-4</v>
+        <v>1.197276123524409E-3</v>
       </c>
       <c r="M12" s="80"/>
       <c r="N12" s="81">
         <f t="shared" si="7"/>
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="O12" s="81">
         <f t="shared" si="8"/>
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="P12" s="80">
         <f t="shared" si="6"/>
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="T12" s="82">
         <f t="shared" si="4"/>
-        <v>6481.333333333333</v>
+        <v>6789.333333333333</v>
       </c>
       <c r="U12" s="82">
         <f t="shared" si="5"/>
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="V12" s="82">
         <v>1</v>
@@ -9758,7 +9751,7 @@
       </c>
       <c r="B13" s="89" t="str">
         <f>_xll.qlMakeDatedOIS(,E13,F13,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003a1#0000</v>
+        <v>obj_00381#0001</v>
       </c>
       <c r="C13" s="66" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B13,OisEngine)</f>
@@ -9770,23 +9763,23 @@
       </c>
       <c r="E13" s="75">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A13&amp;"M","mf")</f>
-        <v>41799</v>
+        <v>41800</v>
       </c>
       <c r="F13" s="76">
         <f>_xll.qlInterestRateIndexMaturity($A$8,E13)</f>
-        <v>41891</v>
+        <v>41892</v>
       </c>
       <c r="G13" s="84">
         <f ca="1">_xll.qlQuoteValue(D13,AllTriggers)</f>
-        <v>3.1099999999999999E-3</v>
+        <v>2.9600000000000004E-3</v>
       </c>
       <c r="H13" s="78">
         <f ca="1">_xll.qlOvernightIndexedSwapFairRate(B13,_xll.ohTrigger(C13,InterestRatesTrigger))</f>
-        <v>1.6726482647492263E-3</v>
+        <v>1.5271015282670574E-3</v>
       </c>
       <c r="I13" s="79">
         <f ca="1">G13-H13</f>
-        <v>1.4373517352507736E-3</v>
+        <v>1.432898471732943E-3</v>
       </c>
       <c r="J13" s="38" t="b">
         <f ca="1">AND(NOT(ISERROR(I13)),E13&lt;&gt;$E$11,E13&lt;&gt;$E$10)</f>
@@ -9794,32 +9787,32 @@
       </c>
       <c r="K13" s="78">
         <f ca="1">(I13-_xll.ohFilter($I$6:$I$9,$J$6:$J$9))/(P13-_xll.ohFilter($P$6:$P$9,$J$6:$J$9))</f>
-        <v>1.3957246031113561E-6</v>
+        <v>1.861664368529924E-7</v>
       </c>
       <c r="L13" s="78">
         <f ca="1">_xll.ohFilter($I$6:$I$9,$J$6:$J$9)-K13*_xll.ohFilter($P$6:$P$9,$J$6:$J$9)</f>
-        <v>1.1358752209787207E-3</v>
+        <v>1.3930588542464025E-3</v>
       </c>
       <c r="M13" s="80"/>
       <c r="N13" s="81">
         <f t="shared" si="7"/>
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O13" s="81">
         <f t="shared" si="8"/>
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="P13" s="80">
         <f t="shared" si="6"/>
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="T13" s="82">
         <f t="shared" si="4"/>
-        <v>12369.333333333334</v>
+        <v>12154.333333333334</v>
       </c>
       <c r="U13" s="82">
         <f t="shared" si="5"/>
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="V13" s="82">
         <v>1</v>
@@ -9834,7 +9827,7 @@
       </c>
       <c r="B14" s="89" t="str">
         <f>_xll.qlMakeDatedOIS(,E14,F14,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003a8#0000</v>
+        <v>obj_00382#0001</v>
       </c>
       <c r="C14" s="66" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B14,OisEngine)</f>
@@ -9846,23 +9839,23 @@
       </c>
       <c r="E14" s="75">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A14&amp;"M","mf")</f>
-        <v>41828</v>
+        <v>41830</v>
       </c>
       <c r="F14" s="76">
         <f>_xll.qlInterestRateIndexMaturity($A$8,E14)</f>
-        <v>41920</v>
+        <v>41922</v>
       </c>
       <c r="G14" s="84">
         <f ca="1">_xll.qlQuoteValue(D14,AllTriggers)</f>
-        <v>3.0600000000000007E-3</v>
+        <v>2.8900000000000002E-3</v>
       </c>
       <c r="H14" s="78">
         <f ca="1">_xll.qlOvernightIndexedSwapFairRate(B14,_xll.ohTrigger(C14,InterestRatesTrigger))</f>
-        <v>1.6208437852578514E-3</v>
+        <v>1.4416048141656067E-3</v>
       </c>
       <c r="I14" s="79">
         <f ca="1">G14-H14</f>
-        <v>1.4391562147421492E-3</v>
+        <v>1.4483951858343936E-3</v>
       </c>
       <c r="J14" s="38" t="b">
         <f ca="1">AND(NOT(ISERROR(I14)),E14&lt;&gt;$E$11,E14&lt;&gt;$E$10)</f>
@@ -9870,11 +9863,11 @@
       </c>
       <c r="K14" s="78">
         <f ca="1">(I14-_xll.ohFilter($I$6:$I$9,$J$6:$J$9))/(P14-_xll.ohFilter($P$6:$P$9,$J$6:$J$9))</f>
-        <v>9.679000220892857E-7</v>
+        <v>2.0980975865775194E-7</v>
       </c>
       <c r="L14" s="78">
         <f ca="1">_xll.ohFilter($I$6:$I$9,$J$6:$J$9)-K14*_xll.ohFilter($P$6:$P$9,$J$6:$J$9)</f>
-        <v>1.1739516086896849E-3</v>
+        <v>1.3909073119621695E-3</v>
       </c>
       <c r="M14" s="80"/>
       <c r="N14" s="81">
@@ -9910,7 +9903,7 @@
       </c>
       <c r="B15" s="53" t="str">
         <f>_xll.qlMakeDatedOIS(,E15,F15,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003a3#0000</v>
+        <v>obj_00379#0001</v>
       </c>
       <c r="C15" s="54" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B15,OisEngine)</f>
@@ -9922,11 +9915,11 @@
       </c>
       <c r="E15" s="56">
         <f>SettlementDate</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="F15" s="57">
         <f>_xll.qlCalendarAdvance(Calendar,E15,A16,"mf")</f>
-        <v>41920</v>
+        <v>41922</v>
       </c>
       <c r="G15" s="58">
         <f ca="1">_xll.qlQuoteValue($D15,AllTriggers)</f>
@@ -9934,11 +9927,11 @@
       </c>
       <c r="H15" s="59">
         <f ca="1">_xll.qlOvernightIndexedSwapFairRate(B15,_xll.ohTrigger(C15,InterestRatesTrigger))</f>
-        <v>1.7699999999940578E-3</v>
+        <v>1.6499999999999987E-3</v>
       </c>
       <c r="I15" s="60">
         <f t="shared" ca="1" si="1"/>
-        <v>2.5300000000059424E-3</v>
+        <v>2.6500000000000013E-3</v>
       </c>
       <c r="J15" s="61" t="b">
         <v>0</v>
@@ -9980,7 +9973,7 @@
       </c>
       <c r="B16" s="65" t="str">
         <f>_xll.qlMakeDatedOIS(,E16,F16,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_00329#0003</v>
+        <v>obj_00302#0003</v>
       </c>
       <c r="C16" s="66" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B16,OisEngine)</f>
@@ -9992,23 +9985,23 @@
       </c>
       <c r="E16" s="68">
         <f>_xll.qlCalendarAdvance(Calendar,_xll.qlLastFixingQuoteReferenceDate(D16),_xll.qlInterestRateIndexFixingDays(A17)&amp;"D","f",,LastFixingsTrigger)</f>
-        <v>41736</v>
+        <v>41739</v>
       </c>
       <c r="F16" s="69">
         <f>_xll.qlInterestRateIndexMaturity(A17,E16)</f>
-        <v>41919</v>
+        <v>41922</v>
       </c>
       <c r="G16" s="70">
         <f ca="1">_xll.qlQuoteValue(D16,AllTriggers)</f>
-        <v>4.2300000000000003E-3</v>
+        <v>4.2599999999999999E-3</v>
       </c>
       <c r="H16" s="71">
         <f ca="1">_xll.qlOvernightIndexedSwapFairRate(B16,_xll.ohTrigger(C16,InterestRatesTrigger))</f>
-        <v>1.776025529312835E-3</v>
+        <v>1.6499999999999987E-3</v>
       </c>
       <c r="I16" s="72">
         <f t="shared" ca="1" si="1"/>
-        <v>2.4539744706871653E-3</v>
+        <v>2.6100000000000012E-3</v>
       </c>
       <c r="J16" s="61" t="b">
         <f ca="1">AND(ISERROR(I17),ISERROR(I18),NOT(ISERROR(I16)))</f>
@@ -10019,26 +10012,26 @@
       <c r="M16" s="62"/>
       <c r="N16" s="63">
         <f t="shared" si="7"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="O16" s="63">
         <f t="shared" si="8"/>
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="P16" s="62">
         <f t="shared" si="6"/>
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q16" s="61"/>
       <c r="R16" s="61"/>
       <c r="S16" s="61"/>
       <c r="T16" s="64">
         <f t="shared" si="4"/>
-        <v>10981</v>
+        <v>11163</v>
       </c>
       <c r="U16" s="64">
         <f t="shared" si="5"/>
-        <v>90.5</v>
+        <v>91.5</v>
       </c>
       <c r="V16" s="64">
         <v>1</v>
@@ -10068,11 +10061,11 @@
       <c r="M17" s="62"/>
       <c r="N17" s="63">
         <f t="shared" si="7"/>
-        <v>-41737</v>
+        <v>-41739</v>
       </c>
       <c r="O17" s="63">
         <f t="shared" si="8"/>
-        <v>-41737</v>
+        <v>-41739</v>
       </c>
       <c r="P17" s="62" t="e">
         <f t="shared" si="6"/>
@@ -10087,16 +10080,16 @@
       </c>
       <c r="U17" s="64">
         <f t="shared" si="5"/>
-        <v>-41737</v>
+        <v>-41739</v>
       </c>
       <c r="V17" s="64">
         <v>1</v>
       </c>
       <c r="AF17" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ17" s="38" t="s">
         <v>55</v>
-      </c>
-      <c r="AJ17" s="38" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:36" x14ac:dyDescent="0.2">
@@ -10116,20 +10109,20 @@
       </c>
       <c r="K18" s="71">
         <f ca="1">AVERAGE(_xll.ohFilter(K19:K21,J19:J21))</f>
-        <v>1.5785238036510304E-6</v>
+        <v>1.3475157681380049E-7</v>
       </c>
       <c r="L18" s="71">
         <f ca="1">_xll.ohFilter($I$15:$I$18,$J$15:$J$18)-K18*_xll.ohFilter($P$15:$P$18,$J$15:$J$18)</f>
-        <v>2.1682616622263288E-3</v>
+        <v>2.5853404614430758E-3</v>
       </c>
       <c r="M18" s="62"/>
       <c r="N18" s="63">
         <f t="shared" si="7"/>
-        <v>-41737</v>
+        <v>-41739</v>
       </c>
       <c r="O18" s="63">
         <f t="shared" si="8"/>
-        <v>-41737</v>
+        <v>-41739</v>
       </c>
       <c r="P18" s="62" t="e">
         <f t="shared" si="6"/>
@@ -10144,18 +10137,18 @@
       </c>
       <c r="U18" s="64">
         <f t="shared" si="5"/>
-        <v>-41737</v>
+        <v>-41739</v>
       </c>
       <c r="V18" s="64">
         <v>1</v>
       </c>
       <c r="X18" s="91">
         <f t="array" aca="1" ref="X18:X20" ca="1">_xll.ohFilter(T15:T24,$J15:$J24)</f>
-        <v>10981</v>
+        <v>11163</v>
       </c>
       <c r="Y18" s="94">
         <f t="array" aca="1" ref="Y18:Y20" ca="1">_xll.ohFilter(U15:U24,$J15:$J24)</f>
-        <v>90.5</v>
+        <v>91.5</v>
       </c>
       <c r="Z18" s="97">
         <f t="array" aca="1" ref="Z18:Z20" ca="1">_xll.ohFilter(V15:V24,$J15:$J24)</f>
@@ -10163,27 +10156,27 @@
       </c>
       <c r="AB18" s="100">
         <f t="array" aca="1" ref="AB18:AB20" ca="1">MMULT(AF18:AH20,AD18:AD20)</f>
-        <v>-1.4119419196884435E-7</v>
+        <v>-6.7614094654224197E-8</v>
       </c>
       <c r="AD18" s="100">
         <f t="array" aca="1" ref="AD18:AD20" ca="1">_xll.ohFilter(I15:I24,$J15:$J24)</f>
-        <v>2.4539744706871653E-3</v>
+        <v>2.6100000000000012E-3</v>
       </c>
       <c r="AF18" s="103">
         <f t="array" aca="1" ref="AF18:AH20" ca="1">MINVERSE(X18:Z20)</f>
-        <v>5.3851722372300645E-4</v>
+        <v>5.2163726991525815E-4</v>
       </c>
       <c r="AG18" s="104">
         <f ca="1"/>
-        <v>-1.1123470522803088E-3</v>
+        <v>-1.1164867882396757E-3</v>
       </c>
       <c r="AH18" s="105">
         <f ca="1"/>
-        <v>5.7382982855730207E-4</v>
+        <v>5.948495183244174E-4</v>
       </c>
       <c r="AJ18" s="112">
         <f t="array" aca="1" ref="AJ18:AJ20" ca="1">MMULT(X18:Z20,AB18:AB20)-AD18:AD20</f>
-        <v>1.0842021724855044E-17</v>
+        <v>-2.1684043449710089E-18</v>
       </c>
     </row>
     <row r="19" spans="1:36" x14ac:dyDescent="0.2">
@@ -10192,7 +10185,7 @@
       </c>
       <c r="B19" s="89" t="str">
         <f>_xll.qlMakeDatedOIS(,E19,F19,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003a2#0000</v>
+        <v>obj_00377#0001</v>
       </c>
       <c r="C19" s="66" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B19,OisEngine)</f>
@@ -10204,23 +10197,23 @@
       </c>
       <c r="E19" s="75">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A19&amp;"M","mf")</f>
-        <v>41767</v>
+        <v>41771</v>
       </c>
       <c r="F19" s="76">
         <f>_xll.qlInterestRateIndexMaturity($A$17,E19)</f>
-        <v>41953</v>
+        <v>41955</v>
       </c>
       <c r="G19" s="77">
         <f ca="1">_xll.qlQuoteValue(D19,AllTriggers)</f>
-        <v>4.2800000000000008E-3</v>
+        <v>4.15E-3</v>
       </c>
       <c r="H19" s="78">
         <f ca="1">_xll.qlOvernightIndexedSwapFairRate(B19,_xll.ohTrigger(C19,InterestRatesTrigger))</f>
-        <v>1.6342097147110798E-3</v>
+        <v>1.496949873608812E-3</v>
       </c>
       <c r="I19" s="79">
         <f t="shared" ca="1" si="1"/>
-        <v>2.6457902852889213E-3</v>
+        <v>2.653050126391188E-3</v>
       </c>
       <c r="J19" s="38" t="b">
         <f t="shared" ref="J19:J24" ca="1" si="10">NOT(ISERROR(I19))</f>
@@ -10228,16 +10221,16 @@
       </c>
       <c r="K19" s="78">
         <f ca="1">(I19-_xll.ohFilter($I$15:$I$18,$J$15:$J$18))/(P19-_xll.ohFilter($P$15:$P$18,$J$15:$J$18))</f>
-        <v>2.9510125323347071E-6</v>
+        <v>6.6230963678748898E-7</v>
       </c>
       <c r="L19" s="78">
         <f ca="1">_xll.ohFilter($I$15:$I$18,$J$15:$J$18)-K19*_xll.ohFilter($P$15:$P$18,$J$15:$J$18)</f>
-        <v>1.9198412023345834E-3</v>
+        <v>2.4887973364678909E-3</v>
       </c>
       <c r="M19" s="80"/>
       <c r="N19" s="81">
         <f t="shared" ref="N19:N27" si="11">E19-SettlementDate</f>
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="O19" s="81">
         <f t="shared" ref="O19:O27" si="12">F19-SettlementDate</f>
@@ -10245,60 +10238,60 @@
       </c>
       <c r="P19" s="80">
         <f t="shared" si="6"/>
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="T19" s="82">
         <f t="shared" si="4"/>
-        <v>18012</v>
+        <v>18197.333333333336</v>
       </c>
       <c r="U19" s="82">
         <f t="shared" si="5"/>
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="V19" s="82">
         <v>1</v>
       </c>
       <c r="X19" s="92">
         <f ca="1"/>
-        <v>18012</v>
+        <v>18197.333333333336</v>
       </c>
       <c r="Y19" s="95">
         <f ca="1"/>
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Z19" s="98">
         <f ca="1"/>
         <v>1</v>
       </c>
       <c r="AA19" s="51" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB19" s="101">
+        <f ca="1"/>
+        <v>1.595908326832465E-5</v>
+      </c>
+      <c r="AC19" s="51" t="s">
         <v>57</v>
       </c>
-      <c r="AB19" s="101">
-        <f ca="1"/>
-        <v>3.6447759333375473E-5</v>
-      </c>
-      <c r="AC19" s="51" t="s">
-        <v>58</v>
-      </c>
       <c r="AD19" s="101">
         <f ca="1"/>
-        <v>2.6457902852889213E-3</v>
+        <v>2.653050126391188E-3</v>
       </c>
       <c r="AF19" s="106">
         <f ca="1"/>
-        <v>-0.14727121846142946</v>
+        <v>-0.14367293648227383</v>
       </c>
       <c r="AG19" s="107">
         <f ca="1"/>
-        <v>0.27141268075639535</v>
+        <v>0.2724227763304809</v>
       </c>
       <c r="AH19" s="108">
         <f ca="1"/>
-        <v>-0.12414146229496584</v>
+        <v>-0.12874983984820704</v>
       </c>
       <c r="AJ19" s="113">
         <f ca="1"/>
-        <v>1.214306433183765E-17</v>
+        <v>-2.1684043449710089E-18</v>
       </c>
     </row>
     <row r="20" spans="1:36" x14ac:dyDescent="0.2">
@@ -10307,7 +10300,7 @@
       </c>
       <c r="B20" s="89" t="str">
         <f>_xll.qlMakeDatedOIS(,E20,F20,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_0039e#0000</v>
+        <v>obj_00378#0001</v>
       </c>
       <c r="C20" s="66" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B20,OisEngine)</f>
@@ -10319,23 +10312,23 @@
       </c>
       <c r="E20" s="75">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A20&amp;"M","mf")</f>
-        <v>41799</v>
+        <v>41800</v>
       </c>
       <c r="F20" s="76">
         <f>_xll.qlInterestRateIndexMaturity($A$17,E20)</f>
-        <v>41982</v>
+        <v>41983</v>
       </c>
       <c r="G20" s="77">
         <f ca="1">_xll.qlQuoteValue(D20,AllTriggers)</f>
-        <v>4.1600000000000005E-3</v>
+        <v>3.9900000000000005E-3</v>
       </c>
       <c r="H20" s="78">
         <f ca="1">_xll.qlOvernightIndexedSwapFairRate(B20,_xll.ohTrigger(C20,InterestRatesTrigger))</f>
-        <v>1.5802538102552596E-3</v>
+        <v>1.4128641054656675E-3</v>
       </c>
       <c r="I20" s="79">
         <f t="shared" ca="1" si="1"/>
-        <v>2.5797461897447407E-3</v>
+        <v>2.5771358945343333E-3</v>
       </c>
       <c r="J20" s="38" t="b">
         <f t="shared" ca="1" si="10"/>
@@ -10343,43 +10336,43 @@
       </c>
       <c r="K20" s="78">
         <f ca="1">(I20-_xll.ohFilter($I$15:$I$18,$J$15:$J$18))/(P20-_xll.ohFilter($P$15:$P$18,$J$15:$J$18))</f>
-        <v>9.9818824648869371E-7</v>
+        <v>-2.6937791365301602E-7</v>
       </c>
       <c r="L20" s="78">
         <f ca="1">_xll.ohFilter($I$15:$I$18,$J$15:$J$18)-K20*_xll.ohFilter($P$15:$P$18,$J$15:$J$18)</f>
-        <v>2.2733023980727116E-3</v>
+        <v>2.6592961581985031E-3</v>
       </c>
       <c r="M20" s="80"/>
       <c r="N20" s="81">
         <f t="shared" si="11"/>
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O20" s="81">
         <f t="shared" si="12"/>
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="P20" s="80">
         <f t="shared" si="6"/>
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="T20" s="82">
         <f t="shared" si="4"/>
-        <v>26353</v>
+        <v>26047</v>
       </c>
       <c r="U20" s="82">
         <f t="shared" si="5"/>
-        <v>153.5</v>
+        <v>152.5</v>
       </c>
       <c r="V20" s="82">
         <v>1</v>
       </c>
       <c r="X20" s="93">
         <f ca="1"/>
-        <v>26353</v>
+        <v>26047</v>
       </c>
       <c r="Y20" s="96">
         <f ca="1"/>
-        <v>153.5</v>
+        <v>152.5</v>
       </c>
       <c r="Z20" s="99">
         <f ca="1"/>
@@ -10387,27 +10380,27 @@
       </c>
       <c r="AB20" s="102">
         <f ca="1"/>
-        <v>7.0590567302657517E-4</v>
+        <v>1.9045200195733983E-3</v>
       </c>
       <c r="AD20" s="102">
         <f ca="1"/>
-        <v>2.5797461897447407E-3</v>
+        <v>2.5771358945343333E-3</v>
       </c>
       <c r="AF20" s="109">
         <f ca="1"/>
-        <v>8.4145876370570321</v>
+        <v>8.3230368440640312</v>
       </c>
       <c r="AG20" s="110">
         <f ca="1"/>
-        <v>-12.348164627363705</v>
+        <v>-12.463342017119507</v>
       </c>
       <c r="AH20" s="111">
         <f ca="1"/>
-        <v>4.9335769903066735</v>
+        <v>5.1403051730554745</v>
       </c>
       <c r="AJ20" s="114">
         <f ca="1"/>
-        <v>1.4311468676808659E-17</v>
+        <v>-3.4694469519536142E-18</v>
       </c>
     </row>
     <row r="21" spans="1:36" x14ac:dyDescent="0.2">
@@ -10416,7 +10409,7 @@
       </c>
       <c r="B21" s="89" t="str">
         <f>_xll.qlMakeDatedOIS(,E21,F21,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003a0#0000</v>
+        <v>obj_00380#0001</v>
       </c>
       <c r="C21" s="66" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B21,OisEngine)</f>
@@ -10428,23 +10421,23 @@
       </c>
       <c r="E21" s="75">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A21&amp;"M","mf")</f>
-        <v>41828</v>
+        <v>41830</v>
       </c>
       <c r="F21" s="76">
         <f>_xll.qlInterestRateIndexMaturity($A$17,E21)</f>
-        <v>42012</v>
+        <v>42016</v>
       </c>
       <c r="G21" s="77">
         <f ca="1">_xll.qlQuoteValue(D21,AllTriggers)</f>
-        <v>4.1600000000000005E-3</v>
+        <v>3.98E-3</v>
       </c>
       <c r="H21" s="78">
         <f ca="1">_xll.qlOvernightIndexedSwapFairRate(B21,_xll.ohTrigger(C21,InterestRatesTrigger))</f>
-        <v>1.5605469623688425E-3</v>
+        <v>1.3679052436482168E-3</v>
       </c>
       <c r="I21" s="79">
         <f t="shared" ca="1" si="1"/>
-        <v>2.599453037631158E-3</v>
+        <v>2.612094756351783E-3</v>
       </c>
       <c r="J21" s="38" t="b">
         <f t="shared" ca="1" si="10"/>
@@ -10452,11 +10445,11 @@
       </c>
       <c r="K21" s="78">
         <f ca="1">(I21-_xll.ohFilter($I$15:$I$18,$J$15:$J$18))/(P21-_xll.ohFilter($P$15:$P$18,$J$15:$J$18))</f>
-        <v>7.8637063212969036E-7</v>
+        <v>1.1323007306928543E-8</v>
       </c>
       <c r="L21" s="78">
         <f ca="1">_xll.ohFilter($I$15:$I$18,$J$15:$J$18)-K21*_xll.ohFilter($P$15:$P$18,$J$15:$J$18)</f>
-        <v>2.3116413862716914E-3</v>
+        <v>2.6079278896628333E-3</v>
       </c>
       <c r="M21" s="80"/>
       <c r="N21" s="81">
@@ -10465,19 +10458,19 @@
       </c>
       <c r="O21" s="81">
         <f t="shared" si="12"/>
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="P21" s="80">
         <f t="shared" si="6"/>
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="T21" s="82">
         <f t="shared" si="4"/>
-        <v>36310.333333333328</v>
+        <v>36739</v>
       </c>
       <c r="U21" s="82">
         <f t="shared" si="5"/>
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="V21" s="82">
         <v>1</v>
@@ -10493,7 +10486,7 @@
       </c>
       <c r="B22" s="89" t="str">
         <f>_xll.qlMakeDatedOIS(,E22,F22,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003aa#0000</v>
+        <v>obj_00383#0001</v>
       </c>
       <c r="C22" s="66" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B22,OisEngine)</f>
@@ -10505,23 +10498,23 @@
       </c>
       <c r="E22" s="75">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A22&amp;"M","mf")</f>
-        <v>41859</v>
+        <v>41862</v>
       </c>
       <c r="F22" s="76">
         <f>_xll.qlInterestRateIndexMaturity($A$17,E22)</f>
-        <v>42044</v>
+        <v>42046</v>
       </c>
       <c r="G22" s="77">
         <f ca="1">_xll.qlQuoteValue(D22,AllTriggers)</f>
-        <v>4.1200000000000004E-3</v>
+        <v>3.9399999999999999E-3</v>
       </c>
       <c r="H22" s="78">
         <f ca="1">_xll.qlOvernightIndexedSwapFairRate(B22,_xll.ohTrigger(C22,InterestRatesTrigger))</f>
-        <v>1.5337411322195594E-3</v>
+        <v>1.3411193592573745E-3</v>
       </c>
       <c r="I22" s="79">
         <f t="shared" ca="1" si="1"/>
-        <v>2.586258867780441E-3</v>
+        <v>2.5988806407426252E-3</v>
       </c>
       <c r="J22" s="38" t="b">
         <f t="shared" ca="1" si="10"/>
@@ -10529,16 +10522,16 @@
       </c>
       <c r="K22" s="78">
         <f ca="1">(I22-_xll.ohFilter($I$15:$I$18,$J$15:$J$18))/(P22-_xll.ohFilter($P$15:$P$18,$J$15:$J$18))</f>
-        <v>5.3340482698901482E-7</v>
+        <v>-4.501764881528741E-8</v>
       </c>
       <c r="L22" s="78">
         <f ca="1">_xll.ohFilter($I$15:$I$18,$J$15:$J$18)-K22*_xll.ohFilter($P$15:$P$18,$J$15:$J$18)</f>
-        <v>2.3574281970021537E-3</v>
+        <v>2.6182382297331988E-3</v>
       </c>
       <c r="M22" s="80"/>
       <c r="N22" s="81">
         <f t="shared" si="11"/>
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="O22" s="81">
         <f t="shared" si="12"/>
@@ -10546,15 +10539,15 @@
       </c>
       <c r="P22" s="80">
         <f t="shared" si="6"/>
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="T22" s="82">
         <f t="shared" si="4"/>
-        <v>48862.333333333328</v>
+        <v>49046.333333333336</v>
       </c>
       <c r="U22" s="82">
         <f t="shared" si="5"/>
-        <v>214.5</v>
+        <v>215</v>
       </c>
       <c r="V22" s="82">
         <v>1</v>
@@ -10570,7 +10563,7 @@
       </c>
       <c r="B23" s="89" t="str">
         <f>_xll.qlMakeDatedOIS(,E23,F23,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_0039f#0000</v>
+        <v>obj_0037d#0001</v>
       </c>
       <c r="C23" s="66" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B23,OisEngine)</f>
@@ -10582,23 +10575,23 @@
       </c>
       <c r="E23" s="75">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A23&amp;"M","mf")</f>
-        <v>41890</v>
+        <v>41892</v>
       </c>
       <c r="F23" s="76">
         <f>_xll.qlInterestRateIndexMaturity($A$17,E23)</f>
-        <v>42072</v>
+        <v>42073</v>
       </c>
       <c r="G23" s="77">
         <f ca="1">_xll.qlQuoteValue(D23,AllTriggers)</f>
-        <v>4.0899999999999999E-3</v>
+        <v>3.9100000000000003E-3</v>
       </c>
       <c r="H23" s="78">
         <f ca="1">_xll.qlOvernightIndexedSwapFairRate(B23,_xll.ohTrigger(C23,InterestRatesTrigger))</f>
-        <v>1.495937162430933E-3</v>
+        <v>1.3299783171850218E-3</v>
       </c>
       <c r="I23" s="79">
         <f t="shared" ca="1" si="1"/>
-        <v>2.5940628375690669E-3</v>
+        <v>2.5800216828149782E-3</v>
       </c>
       <c r="J23" s="38" t="b">
         <f t="shared" ca="1" si="10"/>
@@ -10606,11 +10599,11 @@
       </c>
       <c r="K23" s="78">
         <f ca="1">(I23-_xll.ohFilter($I$15:$I$18,$J$15:$J$18))/(P23-_xll.ohFilter($P$15:$P$18,$J$15:$J$18))</f>
-        <v>4.5631389863811602E-7</v>
+        <v>-9.8612885477049304E-8</v>
       </c>
       <c r="L23" s="78">
         <f ca="1">_xll.ohFilter($I$15:$I$18,$J$15:$J$18)-K23*_xll.ohFilter($P$15:$P$18,$J$15:$J$18)</f>
-        <v>2.3713816550336663E-3</v>
+        <v>2.6280461580423012E-3</v>
       </c>
       <c r="M23" s="80"/>
       <c r="N23" s="81">
@@ -10619,19 +10612,19 @@
       </c>
       <c r="O23" s="81">
         <f t="shared" si="12"/>
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="P23" s="80">
         <f t="shared" si="6"/>
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="T23" s="82">
         <f t="shared" si="4"/>
-        <v>62296.333333333328</v>
+        <v>62022.333333333336</v>
       </c>
       <c r="U23" s="82">
         <f t="shared" si="5"/>
-        <v>244</v>
+        <v>243.5</v>
       </c>
       <c r="V23" s="82">
         <v>1</v>
@@ -10647,7 +10640,7 @@
       </c>
       <c r="B24" s="89" t="str">
         <f>_xll.qlMakeDatedOIS(,E24,F24,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003a7#0000</v>
+        <v>obj_0037f#0001</v>
       </c>
       <c r="C24" s="66" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B24,OisEngine)</f>
@@ -10659,23 +10652,23 @@
       </c>
       <c r="E24" s="75">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A24&amp;"M","mf")</f>
-        <v>41920</v>
+        <v>41922</v>
       </c>
       <c r="F24" s="76">
         <f>_xll.qlInterestRateIndexMaturity($A$17,E24)</f>
-        <v>42102</v>
+        <v>42104</v>
       </c>
       <c r="G24" s="77">
         <f ca="1">_xll.qlQuoteValue(D24,AllTriggers)</f>
-        <v>4.1099999999999999E-3</v>
+        <v>3.9399999999999999E-3</v>
       </c>
       <c r="H24" s="78">
         <f ca="1">_xll.qlOvernightIndexedSwapFairRate(B24,_xll.ohTrigger(C24,InterestRatesTrigger))</f>
-        <v>1.5079289552125637E-3</v>
+        <v>1.3480451512391726E-3</v>
       </c>
       <c r="I24" s="79">
         <f t="shared" ca="1" si="1"/>
-        <v>2.602071044787436E-3</v>
+        <v>2.5919548487608273E-3</v>
       </c>
       <c r="J24" s="38" t="b">
         <f t="shared" ca="1" si="10"/>
@@ -10683,11 +10676,11 @@
       </c>
       <c r="K24" s="78">
         <f ca="1">(I24-_xll.ohFilter($I$15:$I$18,$J$15:$J$18))/(P24-_xll.ohFilter($P$15:$P$18,$J$15:$J$18))</f>
-        <v>4.0353289945577847E-7</v>
+        <v>-4.94387705182847E-8</v>
       </c>
       <c r="L24" s="78">
         <f ca="1">_xll.ohFilter($I$15:$I$18,$J$15:$J$18)-K24*_xll.ohFilter($P$15:$P$18,$J$15:$J$18)</f>
-        <v>2.3809350158856693E-3</v>
+        <v>2.6190472950048472E-3</v>
       </c>
       <c r="M24" s="80"/>
       <c r="N24" s="81">
@@ -10720,7 +10713,7 @@
       </c>
       <c r="B25" s="53" t="str">
         <f>_xll.qlMakeDatedOIS(,E25,F25,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003a4#0000</v>
+        <v>obj_0037b#0001</v>
       </c>
       <c r="C25" s="54" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B25,OisEngine)</f>
@@ -10732,11 +10725,11 @@
       </c>
       <c r="E25" s="56">
         <f>SettlementDate</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="F25" s="57">
         <f>_xll.qlCalendarAdvance(Calendar,E25,A26,"mf")</f>
-        <v>42102</v>
+        <v>42104</v>
       </c>
       <c r="G25" s="58">
         <f ca="1">_xll.qlQuoteValue($D25,AllTriggers)</f>
@@ -10744,11 +10737,11 @@
       </c>
       <c r="H25" s="59">
         <f ca="1">_xll.qlOvernightIndexedSwapFairRate(B25,_xll.ohTrigger(C25,InterestRatesTrigger))</f>
-        <v>1.6399999999993562E-3</v>
+        <v>1.4999999999670119E-3</v>
       </c>
       <c r="I25" s="60">
         <f t="shared" ca="1" si="1"/>
-        <v>4.3600000000006437E-3</v>
+        <v>4.500000000032988E-3</v>
       </c>
       <c r="J25" s="61" t="b">
         <v>0</v>
@@ -10790,7 +10783,7 @@
       </c>
       <c r="B26" s="89" t="str">
         <f>_xll.qlMakeDatedOIS(,E26,F26,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_00328#0003</v>
+        <v>obj_00303#0003</v>
       </c>
       <c r="C26" s="66" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B26,OisEngine)</f>
@@ -10802,23 +10795,23 @@
       </c>
       <c r="E26" s="68">
         <f>_xll.qlCalendarAdvance(Calendar,_xll.qlLastFixingQuoteReferenceDate(D26),_xll.qlInterestRateIndexFixingDays(A27)&amp;"D","f",,LastFixingsTrigger)</f>
-        <v>41736</v>
+        <v>41739</v>
       </c>
       <c r="F26" s="69">
         <f>_xll.qlInterestRateIndexMaturity(A27,E26)</f>
-        <v>42101</v>
+        <v>42104</v>
       </c>
       <c r="G26" s="70">
         <f ca="1">_xll.qlQuoteValue(D26,AllTriggers)</f>
-        <v>6.0000000000000001E-3</v>
+        <v>5.9899999999999997E-3</v>
       </c>
       <c r="H26" s="71">
         <f ca="1">_xll.qlOvernightIndexedSwapFairRate(B26,_xll.ohTrigger(C26,InterestRatesTrigger))</f>
-        <v>1.6425102461985353E-3</v>
+        <v>1.4999999999670119E-3</v>
       </c>
       <c r="I26" s="72">
         <f t="shared" ca="1" si="1"/>
-        <v>4.3574897538014648E-3</v>
+        <v>4.4900000000329876E-3</v>
       </c>
       <c r="J26" s="61" t="b">
         <f ca="1">NOT(ISERROR(I26))</f>
@@ -10826,35 +10819,35 @@
       </c>
       <c r="K26" s="73">
         <f ca="1">K27</f>
-        <v>-1.0069638990340138E-8</v>
+        <v>-2.3070073443172969E-7</v>
       </c>
       <c r="L26" s="71">
         <f ca="1">_xll.ohFilter($I$25:$I$26,$J$25:$J$26)-K26*_xll.ohFilter($P$25:$P$26,$J$25:$J$26)</f>
-        <v>4.3611450327549579E-3</v>
+        <v>4.5742057681005689E-3</v>
       </c>
       <c r="M26" s="62"/>
       <c r="N26" s="63">
         <f t="shared" si="11"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="O26" s="63">
         <f t="shared" si="12"/>
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="P26" s="62">
         <f t="shared" si="6"/>
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="Q26" s="61"/>
       <c r="R26" s="61"/>
       <c r="S26" s="61"/>
       <c r="T26" s="64">
         <f t="shared" si="4"/>
-        <v>44044.333333333328</v>
+        <v>44408.333333333328</v>
       </c>
       <c r="U26" s="64">
         <f t="shared" si="5"/>
-        <v>181.5</v>
+        <v>182.5</v>
       </c>
       <c r="V26" s="64">
         <v>1</v>
@@ -10867,7 +10860,7 @@
       </c>
       <c r="B27" s="89" t="str">
         <f>_xll.qlMakeDatedOIS(,E27,F27,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003a5#0000</v>
+        <v>obj_0037c#0001</v>
       </c>
       <c r="C27" s="66" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B27,OisEngine)</f>
@@ -10879,23 +10872,23 @@
       </c>
       <c r="E27" s="75">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,"12M","mf")</f>
-        <v>42102</v>
+        <v>42104</v>
       </c>
       <c r="F27" s="76">
         <f>_xll.qlInterestRateIndexMaturity(A27,E27)</f>
-        <v>42468</v>
+        <v>42471</v>
       </c>
       <c r="G27" s="77">
         <f ca="1">_xll.qlQuoteValue(D27,AllTriggers)</f>
-        <v>6.7700000000000008E-3</v>
+        <v>6.5200000000000006E-3</v>
       </c>
       <c r="H27" s="78">
         <f ca="1">_xll.qlOvernightIndexedSwapFairRate(B27,_xll.ohTrigger(C27,InterestRatesTrigger))</f>
-        <v>2.4198912915784549E-3</v>
+        <v>2.1988729375710392E-3</v>
       </c>
       <c r="I27" s="79">
         <f t="shared" ca="1" si="1"/>
-        <v>4.3501087084215455E-3</v>
+        <v>4.3211270624289614E-3</v>
       </c>
       <c r="J27" s="38" t="b">
         <f ca="1">NOT(ISERROR(I27))</f>
@@ -10903,11 +10896,11 @@
       </c>
       <c r="K27" s="78">
         <f ca="1">(I27-_xll.ohFilter($I$25:$I$26,$J$25:$J$26))/(P27-_xll.ohFilter($P$25:$P$26,$J$25:$J$26))</f>
-        <v>-1.0069638990340138E-8</v>
+        <v>-2.3070073443172969E-7</v>
       </c>
       <c r="L27" s="78">
         <f ca="1">_xll.ohFilter($I$25:$I$26,$J$25:$J$26)-K27*_xll.ohFilter($P$25:$P$26,$J$25:$J$26)</f>
-        <v>4.3611450327549579E-3</v>
+        <v>4.5742057681005689E-3</v>
       </c>
       <c r="M27" s="80"/>
       <c r="N27" s="81">
@@ -10916,19 +10909,19 @@
       </c>
       <c r="O27" s="81">
         <f t="shared" si="12"/>
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="P27" s="80">
         <f t="shared" si="6"/>
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="T27" s="82">
         <f t="shared" si="4"/>
-        <v>311467</v>
+        <v>312076.33333333331</v>
       </c>
       <c r="U27" s="82">
         <f t="shared" si="5"/>
-        <v>548</v>
+        <v>548.5</v>
       </c>
       <c r="V27" s="82">
         <v>1</v>
@@ -10957,16 +10950,16 @@
     </row>
     <row r="29" spans="1:36" x14ac:dyDescent="0.2">
       <c r="G29" s="51" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H29" s="51" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I29" s="51" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J29" s="51" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="30" spans="1:36" x14ac:dyDescent="0.2">
@@ -10989,7 +10982,7 @@
         <v>0</v>
       </c>
       <c r="M30" s="38" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O30" s="51" t="b">
         <v>0</v>
@@ -10998,211 +10991,211 @@
         <v>0</v>
       </c>
       <c r="S30" s="121" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="T30" s="122">
         <f ca="1">AB9</f>
-        <v>-3.1186466138234793E-7</v>
+        <v>-1.0672619131344492E-7</v>
       </c>
       <c r="U30" s="123">
         <f ca="1">AB18</f>
-        <v>-1.4119419196884435E-7</v>
+        <v>-6.7614094654224197E-8</v>
       </c>
     </row>
     <row r="31" spans="1:36" x14ac:dyDescent="0.2">
       <c r="E31" s="52"/>
       <c r="F31" s="52" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G31" s="124">
         <f ca="1">_xll.ohFilter(I2:I3,J2:J3)</f>
-        <v>1.3285680990042514E-4</v>
+        <v>4.1000000000123099E-4</v>
       </c>
       <c r="H31" s="125">
         <f ca="1">_xll.ohFilter(I6:I9,J6:J9)</f>
-        <v>1.2600947106556314E-3</v>
+        <v>1.4100000000000249E-3</v>
       </c>
       <c r="I31" s="125">
         <f ca="1">_xll.ohFilter(I15:I18,J15:J18)</f>
-        <v>2.4539744706871653E-3</v>
+        <v>2.6100000000000012E-3</v>
       </c>
       <c r="J31" s="126">
         <f ca="1">_xll.ohFilter(I25:I26,J25:J26)</f>
-        <v>4.3574897538014648E-3</v>
+        <v>4.4900000000329876E-3</v>
       </c>
       <c r="M31" s="51" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N31" s="115">
         <f ca="1">K4</f>
-        <v>7.2460682061358734E-6</v>
+        <v>3.7896798245206622E-6</v>
       </c>
       <c r="O31" s="115">
         <f ca="1">K9</f>
-        <v>5.6596487595227171E-6</v>
+        <v>1.9776626199524396E-6</v>
       </c>
       <c r="P31" s="115">
         <f ca="1">AVERAGE(K19:K21)</f>
-        <v>1.5785238036510304E-6</v>
+        <v>1.3475157681380049E-7</v>
       </c>
       <c r="Q31" s="115">
         <f ca="1">K26</f>
-        <v>-1.0069638990340138E-8</v>
+        <v>-2.3070073443172969E-7</v>
       </c>
       <c r="R31" s="115"/>
       <c r="S31" s="127" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="T31" s="128">
         <f ca="1">AB10</f>
-        <v>5.2545035969652745E-5</v>
+        <v>1.7348069143719305E-5</v>
       </c>
       <c r="U31" s="79">
         <f ca="1">AB19</f>
-        <v>3.6447759333375473E-5</v>
+        <v>1.595908326832465E-5</v>
       </c>
     </row>
     <row r="32" spans="1:36" x14ac:dyDescent="0.2">
       <c r="E32" s="52"/>
       <c r="F32" s="52" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G32" s="124">
         <f ca="1">IF(G31&lt;H31,G31,H31)</f>
-        <v>1.3285680990042514E-4</v>
+        <v>4.1000000000123099E-4</v>
       </c>
       <c r="H32" s="125">
         <f ca="1">H31</f>
-        <v>1.2600947106556314E-3</v>
+        <v>1.4100000000000249E-3</v>
       </c>
       <c r="I32" s="125">
         <f ca="1">IF(I31&lt;H31,H31,I31)</f>
-        <v>2.4539744706871653E-3</v>
+        <v>2.6100000000000012E-3</v>
       </c>
       <c r="J32" s="126">
         <f ca="1">IF(J31&lt;I31,I31,J31)</f>
-        <v>4.3574897538014648E-3</v>
+        <v>4.4900000000329876E-3</v>
       </c>
       <c r="M32" s="51" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N32" s="115">
         <f ca="1">L4</f>
-        <v>-7.0033099871379313E-5</v>
+        <v>2.8873024561656979E-4</v>
       </c>
       <c r="O32" s="115">
         <f ca="1">L9</f>
-        <v>7.5638597105810951E-4</v>
+        <v>1.2300327015843529E-3</v>
       </c>
       <c r="P32" s="115">
         <f ca="1">L18</f>
-        <v>2.1682616622263288E-3</v>
+        <v>2.5853404614430758E-3</v>
       </c>
       <c r="Q32" s="115">
         <f ca="1">L26</f>
-        <v>4.3611450327549579E-3</v>
+        <v>4.5742057681005689E-3</v>
       </c>
       <c r="R32" s="115"/>
       <c r="S32" s="127" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="T32" s="128">
         <f ca="1">AB11</f>
-        <v>-2.4537678921591891E-4</v>
+        <v>9.1526271738301326E-4</v>
       </c>
       <c r="U32" s="79">
         <f ca="1">AB20</f>
-        <v>7.0590567302657517E-4</v>
+        <v>1.9045200195733983E-3</v>
       </c>
     </row>
     <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B33" s="47" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C33" s="48"/>
       <c r="D33" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="E33" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="E33" s="48" t="s">
+      <c r="F33" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="F33" s="49" t="s">
-        <v>44</v>
-      </c>
       <c r="G33" s="47" t="s">
+        <v>62</v>
+      </c>
+      <c r="H33" s="48" t="s">
         <v>63</v>
       </c>
-      <c r="H33" s="48" t="s">
+      <c r="I33" s="48" t="s">
         <v>64</v>
       </c>
-      <c r="I33" s="48" t="s">
+      <c r="J33" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="K33" s="47" t="s">
         <v>65</v>
       </c>
-      <c r="J33" s="50" t="s">
-        <v>33</v>
-      </c>
-      <c r="K33" s="47" t="s">
-        <v>66</v>
-      </c>
       <c r="L33" s="50" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N33" s="47" t="s">
+        <v>62</v>
+      </c>
+      <c r="O33" s="48" t="s">
         <v>63</v>
       </c>
-      <c r="O33" s="48" t="s">
+      <c r="P33" s="48" t="s">
         <v>64</v>
       </c>
-      <c r="P33" s="48" t="s">
-        <v>65</v>
-      </c>
       <c r="Q33" s="50" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R33" s="48"/>
       <c r="S33" s="129"/>
       <c r="T33" s="48" t="s">
+        <v>63</v>
+      </c>
+      <c r="U33" s="50" t="s">
         <v>64</v>
-      </c>
-      <c r="U33" s="50" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B34" s="53" t="str">
         <f>_xll.qlMakeDatedOIS(,E34,F34,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_00390#0000</v>
+        <v>obj_0036d#0001</v>
       </c>
       <c r="C34" s="116" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B34,OisEngine)</f>
         <v>1</v>
       </c>
       <c r="D34" s="130" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E34" s="131">
         <f t="shared" ref="E34:E49" si="13">SettlementDate</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="F34" s="132">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D34,"Following")</f>
-        <v>41738</v>
+        <v>41740</v>
       </c>
       <c r="G34" s="133">
         <f t="shared" ref="G34:J49" ca="1" si="14">$L34+IF(G$30,G$32,N34)</f>
-        <v>2.5372129656339639E-3</v>
+        <v>2.7925199254175003E-3</v>
       </c>
       <c r="H34" s="133">
         <f t="shared" ca="1" si="14"/>
-        <v>3.3620456171168395E-3</v>
+        <v>3.7320103641807151E-3</v>
       </c>
       <c r="I34" s="133">
         <f t="shared" ca="1" si="14"/>
-        <v>4.7698401833291869E-3</v>
+        <v>5.0854752129963002E-3</v>
       </c>
       <c r="J34" s="133">
         <f t="shared" ca="1" si="14"/>
-        <v>6.9611349604151744E-3</v>
+        <v>7.073975067342547E-3</v>
       </c>
       <c r="K34" s="282">
         <f t="shared" ref="K34:K49" si="15">F34-SettlementDate</f>
@@ -11210,72 +11203,72 @@
       </c>
       <c r="L34" s="135">
         <f ca="1">_xll.qlOvernightIndexedSwapFairRate(B34,_xll.ohTrigger(C34,InterestRatesTrigger))</f>
-        <v>2.5999999972992072E-3</v>
+        <v>2.49999999997641E-3</v>
       </c>
       <c r="N34" s="136">
         <f ca="1">N$31*$K34+N$32</f>
-        <v>-6.2787031665243446E-5</v>
+        <v>2.9251992544109044E-4</v>
       </c>
       <c r="O34" s="128">
         <f t="shared" ref="O34:P40" ca="1" si="16">IF(O$30,T34,O$31*$K34+O$32)</f>
-        <v>7.6204561981763226E-4</v>
+        <v>1.2320103642043053E-3</v>
       </c>
       <c r="P34" s="128">
         <f t="shared" ca="1" si="16"/>
-        <v>2.1698401860299798E-3</v>
+        <v>2.5854752130198898E-3</v>
       </c>
       <c r="Q34" s="79">
         <f t="shared" ref="Q34:Q49" ca="1" si="17">Q$31*$K34+Q$32</f>
-        <v>4.3611349631159672E-3</v>
+        <v>4.5739750673661371E-3</v>
       </c>
       <c r="R34" s="128"/>
       <c r="S34" s="137" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="T34" s="128">
         <f t="shared" ref="T34:U40" ca="1" si="18">$K34*$K34/3*T$30+$K34/2*T$31+T$32</f>
-        <v>-2.1920822611821999E-4</v>
+        <v>9.2390117655776838E-4</v>
       </c>
       <c r="U34" s="79">
         <f t="shared" ca="1" si="18"/>
-        <v>7.2408248796260665E-4</v>
+        <v>1.9124770231760092E-3</v>
       </c>
     </row>
     <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B35" s="89" t="str">
         <f>_xll.qlMakeDatedOIS(,E35,F35,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_0038d#0000</v>
+        <v>obj_00370#0001</v>
       </c>
       <c r="C35" s="80" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B35,OisEngine)</f>
         <v>1</v>
       </c>
       <c r="D35" s="138" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E35" s="75">
         <f t="shared" si="13"/>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="F35" s="139">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D35,"Following")</f>
-        <v>41744</v>
+        <v>41746</v>
       </c>
       <c r="G35" s="133">
         <f t="shared" ca="1" si="14"/>
-        <v>2.2406893703087699E-3</v>
+        <v>2.3852580043920686E-3</v>
       </c>
       <c r="H35" s="133">
         <f t="shared" ca="1" si="14"/>
-        <v>3.0560035051119664E-3</v>
+        <v>3.3138763399278744E-3</v>
       </c>
       <c r="I35" s="133">
         <f t="shared" ca="1" si="14"/>
-        <v>4.439311321589084E-3</v>
+        <v>4.6562837224846266E-3</v>
       </c>
       <c r="J35" s="133">
         <f t="shared" ca="1" si="14"/>
-        <v>6.621074538019224E-3</v>
+        <v>6.6425908629634007E-3</v>
       </c>
       <c r="K35" s="140">
         <f t="shared" si="15"/>
@@ -11283,72 +11276,72 @@
       </c>
       <c r="L35" s="141">
         <f ca="1">_xll.qlOvernightIndexedSwapFairRate(B35,_xll.ohTrigger(C35,InterestRatesTrigger))</f>
-        <v>2.259999992737198E-3</v>
+        <v>2.0700000000038543E-3</v>
       </c>
       <c r="N35" s="136">
         <f ca="1">N$31*$K35+N$32</f>
-        <v>-1.9310622428428199E-5</v>
+        <v>3.1525800438821441E-4</v>
       </c>
       <c r="O35" s="128">
         <f t="shared" ca="1" si="16"/>
-        <v>7.9600351237476858E-4</v>
+        <v>1.24387633992402E-3</v>
       </c>
       <c r="P35" s="128">
         <f t="shared" ca="1" si="16"/>
-        <v>2.179311328851886E-3</v>
+        <v>2.5862837224807722E-3</v>
       </c>
       <c r="Q35" s="79">
         <f t="shared" ca="1" si="17"/>
-        <v>4.3610745452820256E-3</v>
+        <v>4.5725908629595463E-3</v>
       </c>
       <c r="R35" s="128"/>
       <c r="S35" s="142" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="T35" s="128">
         <f t="shared" ca="1" si="18"/>
-        <v>-6.6562952791379313E-5</v>
+        <v>9.7423776492791124E-4</v>
       </c>
       <c r="U35" s="79">
         <f t="shared" ca="1" si="18"/>
-        <v>8.3116665889123155E-4</v>
+        <v>1.9592724474665154E-3</v>
       </c>
     </row>
     <row r="36" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B36" s="89" t="str">
         <f>_xll.qlMakeDatedOIS(,E36,F36,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_00394#0000</v>
+        <v>obj_00367#0001</v>
       </c>
       <c r="C36" s="80" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B36,OisEngine)</f>
         <v>1</v>
       </c>
       <c r="D36" s="138" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E36" s="75">
         <f t="shared" si="13"/>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="F36" s="139">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D36,"Following")</f>
-        <v>41751</v>
+        <v>41753</v>
       </c>
       <c r="G36" s="133">
         <f t="shared" ca="1" si="14"/>
-        <v>2.4314118550131168E-3</v>
+        <v>2.5517857632822503E-3</v>
       </c>
       <c r="H36" s="133">
         <f t="shared" ca="1" si="14"/>
-        <v>3.2356210536900213E-3</v>
+        <v>3.4677199783860785E-3</v>
       </c>
       <c r="I36" s="133">
         <f t="shared" ca="1" si="14"/>
-        <v>4.5903609954760366E-3</v>
+        <v>4.7972269836408605E-3</v>
       </c>
       <c r="J36" s="133">
         <f t="shared" ca="1" si="14"/>
-        <v>6.7610040578076867E-3</v>
+        <v>6.7809759579409157E-3</v>
       </c>
       <c r="K36" s="140">
         <f t="shared" si="15"/>
@@ -11356,282 +11349,282 @@
       </c>
       <c r="L36" s="141">
         <f ca="1">_xll.qlOvernightIndexedSwapFairRate(B36,_xll.ohTrigger(C36,InterestRatesTrigger))</f>
-        <v>2.3999999999985938E-3</v>
+        <v>2.2100000001223914E-3</v>
       </c>
       <c r="N36" s="136">
         <f ca="1">N$31*$K36+N$32</f>
-        <v>3.1411855014522915E-5</v>
+        <v>3.4178576315985903E-4</v>
       </c>
       <c r="O36" s="128">
         <f t="shared" ca="1" si="16"/>
-        <v>8.3562105369142754E-4</v>
+        <v>1.2577199782636871E-3</v>
       </c>
       <c r="P36" s="128">
         <f t="shared" ca="1" si="16"/>
-        <v>2.1903609954774432E-3</v>
+        <v>2.5872269835184691E-3</v>
       </c>
       <c r="Q36" s="79">
         <f t="shared" ca="1" si="17"/>
-        <v>4.3610040578090934E-3</v>
+        <v>4.5709759578185247E-3</v>
       </c>
       <c r="R36" s="128"/>
       <c r="S36" s="142" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="T36" s="128">
         <f t="shared" ca="1" si="18"/>
-        <v>1.0206330469467021E-4</v>
+        <v>1.0297264235565699E-3</v>
       </c>
       <c r="U36" s="79">
         <f t="shared" ca="1" si="18"/>
-        <v>9.5181530115157238E-4</v>
+        <v>2.0118161482675949E-3</v>
       </c>
     </row>
     <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="143" t="str">
         <f>_xll.qlMakeDatedOIS(,E37,F37,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_00387#0000</v>
+        <v>obj_0036f#0001</v>
       </c>
       <c r="C37" s="144" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B37,OisEngine)</f>
         <v>1</v>
       </c>
       <c r="D37" s="145" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E37" s="146">
         <f t="shared" si="13"/>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="F37" s="147">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D37,"Following")</f>
-        <v>41758</v>
+        <v>41761</v>
       </c>
       <c r="G37" s="148">
         <f t="shared" ca="1" si="14"/>
-        <v>2.392134332456811E-3</v>
+        <v>2.5821032015187042E-3</v>
       </c>
       <c r="H37" s="148">
         <f t="shared" ca="1" si="14"/>
-        <v>3.1852385950074235E-3</v>
+        <v>3.4835412789859868E-3</v>
       </c>
       <c r="I37" s="148">
         <f t="shared" ca="1" si="14"/>
-        <v>4.5114106621023369E-3</v>
+        <v>4.7983049958956591E-3</v>
       </c>
       <c r="J37" s="148">
         <f t="shared" ca="1" si="14"/>
-        <v>6.670933570335498E-3</v>
+        <v>6.7791303517057509E-3</v>
       </c>
       <c r="K37" s="149">
         <f t="shared" si="15"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L37" s="150">
         <f ca="1">_xll.qlOvernightIndexedSwapFairRate(B37,_xll.ohTrigger(C37,InterestRatesTrigger))</f>
-        <v>2.3099999999993369E-3</v>
+        <v>2.20999999976268E-3</v>
       </c>
       <c r="N37" s="151">
         <f ca="1">N$31*$K37+N$32</f>
-        <v>8.2134332457474023E-5</v>
+        <v>3.7210320175602436E-4</v>
       </c>
       <c r="O37" s="152">
         <f t="shared" ca="1" si="16"/>
-        <v>8.7523859500808661E-4</v>
+        <v>1.2735412792233066E-3</v>
       </c>
       <c r="P37" s="152">
         <f t="shared" ca="1" si="16"/>
-        <v>2.2014106621030005E-3</v>
+        <v>2.5883049961329795E-3</v>
       </c>
       <c r="Q37" s="153">
         <f t="shared" ca="1" si="17"/>
-        <v>4.3609335703361611E-3</v>
+        <v>4.5691303519430704E-3</v>
       </c>
       <c r="R37" s="152"/>
       <c r="S37" s="154" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="T37" s="152">
         <f t="shared" ca="1" si="18"/>
-        <v>2.6050198324222983E-4</v>
+        <v>1.0888729857653566E-3</v>
       </c>
       <c r="U37" s="153">
         <f t="shared" ca="1" si="18"/>
-        <v>1.0678515998075976E-3</v>
+        <v>2.069161528254088E-3</v>
       </c>
     </row>
     <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B38" s="89" t="str">
         <f>_xll.qlMakeDatedOIS(,E38,F38,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_0038e#0000</v>
+        <v>obj_00372#0001</v>
       </c>
       <c r="C38" s="80" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B38,OisEngine)</f>
         <v>1</v>
       </c>
       <c r="D38" s="138" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E38" s="75">
         <f t="shared" si="13"/>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="F38" s="139">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D38,"mf",TRUE)</f>
-        <v>41767</v>
+        <v>41771</v>
       </c>
       <c r="G38" s="155">
         <f t="shared" ca="1" si="14"/>
-        <v>2.3973489463127821E-3</v>
+        <v>2.5100000000000001E-3</v>
       </c>
       <c r="H38" s="155">
         <f t="shared" ca="1" si="14"/>
-        <v>3.1761754338438765E-3</v>
+        <v>3.3933179054216004E-3</v>
       </c>
       <c r="I38" s="155">
         <f t="shared" ca="1" si="14"/>
-        <v>4.4656173763359449E-3</v>
+        <v>4.6896525118998861E-3</v>
       </c>
       <c r="J38" s="155">
         <f t="shared" ca="1" si="14"/>
-        <v>6.6108429435853327E-3</v>
+        <v>6.6668233445975229E-3</v>
       </c>
       <c r="K38" s="134">
         <f t="shared" si="15"/>
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="L38" s="141">
         <f ca="1">_xll.qlOvernightIndexedSwapFairRate(B38,_xll.ohTrigger(C38,InterestRatesTrigger))</f>
-        <v>2.2500000000000853E-3</v>
+        <v>2.0999999999987691E-3</v>
       </c>
       <c r="N38" s="136">
         <f ca="1">N$31*$K38+N$32</f>
-        <v>1.473489463126969E-4</v>
+        <v>4.1000000000123099E-4</v>
       </c>
       <c r="O38" s="128">
         <f t="shared" ca="1" si="16"/>
-        <v>9.2617543384379097E-4</v>
+        <v>1.2933179054228311E-3</v>
       </c>
       <c r="P38" s="128">
         <f t="shared" ca="1" si="16"/>
-        <v>2.2156173763358596E-3</v>
+        <v>2.5896525119011174E-3</v>
       </c>
       <c r="Q38" s="79">
         <f t="shared" ca="1" si="17"/>
-        <v>4.3608429435852475E-3</v>
+        <v>4.5668233445987534E-3</v>
       </c>
       <c r="R38" s="128"/>
       <c r="S38" s="142" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="T38" s="128">
         <f t="shared" ca="1" si="18"/>
-        <v>4.4923935191416788E-4</v>
+        <v>1.156402617047533E-3</v>
       </c>
       <c r="U38" s="79">
         <f t="shared" ca="1" si="18"/>
-        <v>1.2102638054365539E-3</v>
+        <v>2.1367864075579508E-3</v>
       </c>
     </row>
     <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B39" s="89" t="str">
         <f>_xll.qlMakeDatedOIS(,E39,F39,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_0039a#0000</v>
+        <v>obj_00374#0001</v>
       </c>
       <c r="C39" s="80" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B39,OisEngine)</f>
         <v>1</v>
       </c>
       <c r="D39" s="138" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E39" s="75">
         <f t="shared" si="13"/>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="F39" s="139">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D39,"mf",TRUE)</f>
-        <v>41799</v>
+        <v>41800</v>
       </c>
       <c r="G39" s="156"/>
       <c r="H39" s="133">
         <f t="shared" ca="1" si="14"/>
-        <v>3.1172841941458276E-3</v>
+        <v>3.3106701214006638E-3</v>
       </c>
       <c r="I39" s="133">
         <f t="shared" ca="1" si="14"/>
-        <v>4.2761301380500024E-3</v>
+        <v>4.55356030762793E-3</v>
       </c>
       <c r="J39" s="133">
         <f t="shared" ca="1" si="14"/>
-        <v>6.3705207151348656E-3</v>
+        <v>6.5201330232994448E-3</v>
       </c>
       <c r="K39" s="140">
         <f t="shared" si="15"/>
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L39" s="141">
         <f ca="1">_xll.qlOvernightIndexedSwapFairRate(B39,_xll.ohTrigger(C39,InterestRatesTrigger))</f>
-        <v>2.0099999999973095E-3</v>
+        <v>1.9599999999992119E-3</v>
       </c>
       <c r="N39" s="156"/>
       <c r="O39" s="128">
         <f t="shared" ca="1" si="16"/>
-        <v>1.1072841941485181E-3</v>
+        <v>1.3506701214014518E-3</v>
       </c>
       <c r="P39" s="128">
         <f t="shared" ca="1" si="16"/>
-        <v>2.2661301380526929E-3</v>
+        <v>2.5935603076287176E-3</v>
       </c>
       <c r="Q39" s="79">
         <f t="shared" ca="1" si="17"/>
-        <v>4.3605207151375565E-3</v>
+        <v>4.5601330233002333E-3</v>
       </c>
       <c r="R39" s="128"/>
       <c r="S39" s="142" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T39" s="128">
         <f t="shared" ca="1" si="18"/>
-        <v>9.839167397254012E-4</v>
+        <v>1.3120027736406759E-3</v>
       </c>
       <c r="U39" s="79">
         <f t="shared" ca="1" si="18"/>
-        <v>1.6548693877184689E-3</v>
+        <v>2.3074080438545107E-3</v>
       </c>
     </row>
     <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B40" s="89" t="str">
         <f>_xll.qlMakeDatedOIS(,E40,F40,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_00388#0000</v>
+        <v>obj_0036b#0001</v>
       </c>
       <c r="C40" s="80" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B40,OisEngine)</f>
         <v>1</v>
       </c>
       <c r="D40" s="138" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E40" s="75">
         <f t="shared" si="13"/>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="F40" s="139">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D40,"mf",TRUE)</f>
-        <v>41828</v>
+        <v>41830</v>
       </c>
       <c r="G40" s="157"/>
       <c r="H40" s="133">
         <f t="shared" ca="1" si="14"/>
-        <v>3.191414008170741E-3</v>
+        <v>3.2700000000000003E-3</v>
       </c>
       <c r="I40" s="133">
         <f t="shared" ca="1" si="14"/>
-        <v>4.2319073283546369E-3</v>
+        <v>4.4576028549331067E-3</v>
       </c>
       <c r="J40" s="133">
         <f t="shared" ca="1" si="14"/>
-        <v>6.2802286956029005E-3</v>
+        <v>6.4132120012672569E-3</v>
       </c>
       <c r="K40" s="140">
         <f t="shared" si="15"/>
@@ -11639,121 +11632,121 @@
       </c>
       <c r="L40" s="141">
         <f ca="1">_xll.qlOvernightIndexedSwapFairRate(B40,_xll.ohTrigger(C40,InterestRatesTrigger))</f>
-        <v>1.919999999996064E-3</v>
+        <v>1.8599999999999754E-3</v>
       </c>
       <c r="N40" s="157"/>
       <c r="O40" s="128">
         <f t="shared" ca="1" si="16"/>
-        <v>1.2714140081746769E-3</v>
+        <v>1.4100000000000249E-3</v>
       </c>
       <c r="P40" s="128">
         <f t="shared" ca="1" si="16"/>
-        <v>2.3119073283585727E-3</v>
+        <v>2.5976028549331317E-3</v>
       </c>
       <c r="Q40" s="79">
         <f t="shared" ca="1" si="17"/>
-        <v>4.3602286956068367E-3</v>
+        <v>4.5532120012672815E-3</v>
       </c>
       <c r="R40" s="128"/>
       <c r="S40" s="142" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="T40" s="128">
         <f t="shared" ca="1" si="18"/>
-        <v>1.284571927100873E-3</v>
+        <v>1.4100000000000291E-3</v>
       </c>
       <c r="U40" s="79">
         <f t="shared" ca="1" si="18"/>
-        <v>1.9745356881304922E-3</v>
+        <v>2.4440208690049599E-3</v>
       </c>
     </row>
     <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B41" s="89" t="str">
         <f>_xll.qlMakeDatedOIS(,E41,F41,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_00398#0000</v>
+        <v>obj_00371#0001</v>
       </c>
       <c r="C41" s="80" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B41,OisEngine)</f>
         <v>1</v>
       </c>
       <c r="D41" s="138" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E41" s="75">
         <f t="shared" si="13"/>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="F41" s="139">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D41,"mf",TRUE)</f>
-        <v>41859</v>
+        <v>41862</v>
       </c>
       <c r="G41" s="158"/>
       <c r="H41" s="159"/>
       <c r="I41" s="133">
         <f t="shared" ca="1" si="14"/>
-        <v>4.2108415662658561E-3</v>
+        <v>4.3619149053915254E-3</v>
       </c>
       <c r="J41" s="133">
         <f t="shared" ca="1" si="14"/>
-        <v>6.2099165367922376E-3</v>
+        <v>6.3058295777658176E-3</v>
       </c>
       <c r="K41" s="140">
         <f t="shared" si="15"/>
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L41" s="141">
         <f ca="1">_xll.qlOvernightIndexedSwapFairRate(B41,_xll.ohTrigger(C41,InterestRatesTrigger))</f>
-        <v>1.8499999999941014E-3</v>
+        <v>1.7600000000003518E-3</v>
       </c>
       <c r="N41" s="158"/>
       <c r="O41" s="159"/>
       <c r="P41" s="128">
         <f ca="1">IF(P$30,U41,P$31*$K41+P$32)</f>
-        <v>2.3608415662717546E-3</v>
+        <v>2.6019149053911734E-3</v>
       </c>
       <c r="Q41" s="79">
         <f t="shared" ca="1" si="17"/>
-        <v>4.3599165367981365E-3</v>
+        <v>4.545829577765466E-3</v>
       </c>
       <c r="R41" s="128"/>
       <c r="S41" s="142" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="T41" s="159"/>
       <c r="U41" s="79">
         <f ca="1">$K41*$K41/3*U$30+$K41/2*U$31+U$32</f>
-        <v>2.2287075412743859E-3</v>
+        <v>2.5450257612341116E-3</v>
       </c>
     </row>
     <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B42" s="89" t="str">
         <f>_xll.qlMakeDatedOIS(,E42,F42,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_00399#0000</v>
+        <v>obj_00369#0001</v>
       </c>
       <c r="C42" s="80" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B42,OisEngine)</f>
         <v>1</v>
       </c>
       <c r="D42" s="138" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E42" s="75">
         <f t="shared" si="13"/>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="F42" s="139">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D42,"mf",TRUE)</f>
-        <v>41890</v>
+        <v>41892</v>
       </c>
       <c r="G42" s="158"/>
       <c r="H42" s="160"/>
       <c r="I42" s="133">
         <f t="shared" ca="1" si="14"/>
-        <v>4.2197758041782728E-3</v>
+        <v>4.3059574526954913E-3</v>
       </c>
       <c r="J42" s="133">
         <f t="shared" ca="1" si="14"/>
-        <v>6.1696043779827731E-3</v>
+        <v>6.238908555732418E-3</v>
       </c>
       <c r="K42" s="140">
         <f t="shared" si="15"/>
@@ -11761,57 +11754,57 @@
       </c>
       <c r="L42" s="141">
         <f ca="1">_xll.qlOvernightIndexedSwapFairRate(B42,_xll.ohTrigger(C42,InterestRatesTrigger))</f>
-        <v>1.8099999999933367E-3</v>
+        <v>1.6999999999999043E-3</v>
       </c>
       <c r="N42" s="158"/>
       <c r="O42" s="160"/>
       <c r="P42" s="128">
         <f ca="1">IF(P$30,U42,P$31*$K42+P$32)</f>
-        <v>2.4097758041849364E-3</v>
+        <v>2.6059574526955871E-3</v>
       </c>
       <c r="Q42" s="79">
         <f t="shared" ca="1" si="17"/>
-        <v>4.3596043779894362E-3</v>
+        <v>4.5389085557325142E-3</v>
       </c>
       <c r="R42" s="128"/>
       <c r="S42" s="142" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="T42" s="160"/>
       <c r="U42" s="79">
         <f ca="1">$K42*$K42/3*U$30+$K42/2*U$31+U$32</f>
-        <v>2.3924209820969065E-3</v>
+        <v>2.5977971090133225E-3</v>
       </c>
     </row>
     <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B43" s="89" t="str">
         <f>_xll.qlMakeDatedOIS(,E43,F43,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_00389#0000</v>
+        <v>obj_00362#0001</v>
       </c>
       <c r="C43" s="80" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B43,OisEngine)</f>
         <v>1</v>
       </c>
       <c r="D43" s="161" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E43" s="75">
         <f t="shared" si="13"/>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="F43" s="139">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D43,"mf",TRUE)</f>
-        <v>41920</v>
+        <v>41922</v>
       </c>
       <c r="G43" s="158"/>
       <c r="H43" s="160"/>
       <c r="I43" s="133">
         <f t="shared" ca="1" si="14"/>
-        <v>4.2271315182885252E-3</v>
+        <v>4.2599999999999999E-3</v>
       </c>
       <c r="J43" s="133">
         <f t="shared" ca="1" si="14"/>
-        <v>6.1293022888137833E-3</v>
+        <v>6.181987533699561E-3</v>
       </c>
       <c r="K43" s="140">
         <f t="shared" si="15"/>
@@ -11819,43 +11812,43 @@
       </c>
       <c r="L43" s="141">
         <f ca="1">_xll.qlOvernightIndexedSwapFairRate(B43,_xll.ohTrigger(C43,InterestRatesTrigger))</f>
-        <v>1.7699999999940578E-3</v>
+        <v>1.6499999999999987E-3</v>
       </c>
       <c r="N43" s="158"/>
       <c r="O43" s="160"/>
       <c r="P43" s="128">
         <f ca="1">IF(P$30,U43,P$31*$K43+P$32)</f>
-        <v>2.4571315182944672E-3</v>
+        <v>2.6100000000000012E-3</v>
       </c>
       <c r="Q43" s="79">
         <f t="shared" ca="1" si="17"/>
-        <v>4.3593022888197257E-3</v>
+        <v>4.5319875336995623E-3</v>
       </c>
       <c r="R43" s="128"/>
       <c r="S43" s="162" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="T43" s="163"/>
       <c r="U43" s="153">
         <f ca="1">$K43*$K43/3*U$30+$K43/2*U$31+U$32</f>
-        <v>2.4647248870822212E-3</v>
+        <v>2.609999999999999E-3</v>
       </c>
     </row>
     <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B44" s="89" t="str">
         <f>_xll.qlMakeDatedOIS(,E44,F44,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_0038c#0000</v>
+        <v>obj_0036a#0001</v>
       </c>
       <c r="C44" s="80" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B44,OisEngine)</f>
         <v>1</v>
       </c>
       <c r="D44" s="161" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E44" s="75">
         <f t="shared" si="13"/>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="F44" s="139">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D44,"mf",TRUE)</f>
@@ -11866,24 +11859,24 @@
       <c r="I44" s="159"/>
       <c r="J44" s="133">
         <f t="shared" ca="1" si="14"/>
-        <v>6.0789699907332836E-3</v>
+        <v>6.1148358109321737E-3</v>
       </c>
       <c r="K44" s="140">
         <f t="shared" si="15"/>
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="L44" s="141">
         <f ca="1">_xll.qlOvernightIndexedSwapFairRate(B44,_xll.ohTrigger(C44,InterestRatesTrigger))</f>
-        <v>1.72000000000024E-3</v>
+        <v>1.5899999999999948E-3</v>
       </c>
       <c r="N44" s="165" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O44" s="166"/>
       <c r="P44" s="159"/>
       <c r="Q44" s="79">
         <f t="shared" ca="1" si="17"/>
-        <v>4.3589699907330441E-3</v>
+        <v>4.5248358109321787E-3</v>
       </c>
       <c r="R44" s="128"/>
       <c r="S44" s="128"/>
@@ -11891,29 +11884,29 @@
     <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B45" s="89" t="str">
         <f>_xll.qlMakeDatedOIS(,E45,F45,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_00386#0000</v>
+        <v>obj_00360#0001</v>
       </c>
       <c r="C45" s="80" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B45,OisEngine)</f>
         <v>1</v>
       </c>
       <c r="D45" s="161" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E45" s="75">
         <f t="shared" si="13"/>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="F45" s="139">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D45,"mf",TRUE)</f>
-        <v>41981</v>
+        <v>41983</v>
       </c>
       <c r="G45" s="158"/>
       <c r="H45" s="164"/>
       <c r="I45" s="160"/>
       <c r="J45" s="133">
         <f t="shared" ca="1" si="14"/>
-        <v>6.048688040837513E-3</v>
+        <v>6.0679147888992252E-3</v>
       </c>
       <c r="K45" s="140">
         <f t="shared" si="15"/>
@@ -11921,16 +11914,16 @@
       </c>
       <c r="L45" s="141">
         <f ca="1">_xll.qlOvernightIndexedSwapFairRate(B45,_xll.ohTrigger(C45,InterestRatesTrigger))</f>
-        <v>1.6899999999961982E-3</v>
+        <v>1.5499999999999982E-3</v>
       </c>
       <c r="N45" s="167"/>
       <c r="O45" s="168" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="P45" s="169"/>
       <c r="Q45" s="79">
         <f t="shared" ca="1" si="17"/>
-        <v>4.358688040841315E-3</v>
+        <v>4.5179147888992268E-3</v>
       </c>
       <c r="R45" s="128"/>
       <c r="S45" s="128"/>
@@ -11938,46 +11931,46 @@
     <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B46" s="89" t="str">
         <f>_xll.qlMakeDatedOIS(,E46,F46,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_00395#0000</v>
+        <v>obj_00373#0001</v>
       </c>
       <c r="C46" s="80" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B46,OisEngine)</f>
         <v>1</v>
       </c>
       <c r="D46" s="161" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E46" s="75">
         <f t="shared" si="13"/>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="F46" s="139">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D46,"mf",TRUE)</f>
-        <v>42012</v>
+        <v>42016</v>
       </c>
       <c r="G46" s="158"/>
       <c r="H46" s="164"/>
       <c r="I46" s="160"/>
       <c r="J46" s="133">
         <f t="shared" ca="1" si="14"/>
-        <v>6.0383758820325749E-3</v>
+        <v>6.0403016646630031E-3</v>
       </c>
       <c r="K46" s="140">
         <f t="shared" si="15"/>
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="L46" s="141">
         <f ca="1">_xll.qlOvernightIndexedSwapFairRate(B46,_xll.ohTrigger(C46,InterestRatesTrigger))</f>
-        <v>1.6799999999999604E-3</v>
+        <v>1.530000000000024E-3</v>
       </c>
       <c r="N46" s="158"/>
       <c r="O46" s="166"/>
       <c r="P46" s="170" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q46" s="79">
         <f t="shared" ca="1" si="17"/>
-        <v>4.3583758820326148E-3</v>
+        <v>4.5103016646629796E-3</v>
       </c>
       <c r="R46" s="128"/>
       <c r="S46" s="128"/>
@@ -11985,44 +11978,44 @@
     <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B47" s="89" t="str">
         <f>_xll.qlMakeDatedOIS(,E47,F47,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_00393#0000</v>
+        <v>obj_0036e#0001</v>
       </c>
       <c r="C47" s="80" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B47,OisEngine)</f>
         <v>1</v>
       </c>
       <c r="D47" s="161" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E47" s="75">
         <f t="shared" si="13"/>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="F47" s="139">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D47,"mf",TRUE)</f>
-        <v>42044</v>
+        <v>42045</v>
       </c>
       <c r="G47" s="158"/>
       <c r="H47" s="164"/>
       <c r="I47" s="160"/>
       <c r="J47" s="133">
         <f t="shared" ca="1" si="14"/>
-        <v>6.0180536535821812E-3</v>
+        <v>6.0136113433644509E-3</v>
       </c>
       <c r="K47" s="140">
         <f t="shared" si="15"/>
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="L47" s="141">
         <f ca="1">_xll.qlOvernightIndexedSwapFairRate(B47,_xll.ohTrigger(C47,InterestRatesTrigger))</f>
-        <v>1.6599999999972574E-3</v>
+        <v>1.5099999999999916E-3</v>
       </c>
       <c r="N47" s="158"/>
       <c r="O47" s="164"/>
       <c r="P47" s="160"/>
       <c r="Q47" s="79">
         <f t="shared" ca="1" si="17"/>
-        <v>4.3580536535849238E-3</v>
+        <v>4.5036113433644595E-3</v>
       </c>
       <c r="R47" s="128"/>
       <c r="S47" s="128"/>
@@ -12030,44 +12023,44 @@
     <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B48" s="89" t="str">
         <f>_xll.qlMakeDatedOIS(,E48,F48,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_00396#0000</v>
+        <v>obj_0036c#0001</v>
       </c>
       <c r="C48" s="80" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B48,OisEngine)</f>
         <v>1</v>
       </c>
       <c r="D48" s="161" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E48" s="75">
         <f t="shared" si="13"/>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="F48" s="139">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D48,"mf",TRUE)</f>
-        <v>42072</v>
+        <v>42073</v>
       </c>
       <c r="G48" s="158"/>
       <c r="H48" s="164"/>
       <c r="I48" s="160"/>
       <c r="J48" s="133">
         <f t="shared" ca="1" si="14"/>
-        <v>5.9977717036931999E-3</v>
+        <v>5.9971517228001462E-3</v>
       </c>
       <c r="K48" s="140">
         <f t="shared" si="15"/>
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="L48" s="141">
         <f ca="1">_xll.qlOvernightIndexedSwapFairRate(B48,_xll.ohTrigger(C48,InterestRatesTrigger))</f>
-        <v>1.6400000000000063E-3</v>
+        <v>1.499999999999775E-3</v>
       </c>
       <c r="N48" s="158"/>
       <c r="O48" s="164"/>
       <c r="P48" s="160"/>
       <c r="Q48" s="79">
         <f t="shared" ca="1" si="17"/>
-        <v>4.3577717036931939E-3</v>
+        <v>4.4971517228003712E-3</v>
       </c>
       <c r="R48" s="128"/>
       <c r="S48" s="128"/>
@@ -12075,29 +12068,29 @@
     <row r="49" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B49" s="143" t="str">
         <f>_xll.qlMakeDatedOIS(,E49,F49,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_00391#0000</v>
+        <v>obj_00364#0001</v>
       </c>
       <c r="C49" s="144" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B49,OisEngine)</f>
         <v>1</v>
       </c>
       <c r="D49" s="161" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E49" s="75">
         <f t="shared" si="13"/>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="F49" s="139">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D49,"mf",TRUE)</f>
-        <v>42102</v>
+        <v>42104</v>
       </c>
       <c r="G49" s="158"/>
       <c r="H49" s="164"/>
       <c r="I49" s="160"/>
       <c r="J49" s="133">
         <f t="shared" ca="1" si="14"/>
-        <v>5.9974696145228398E-3</v>
+        <v>5.9899999999999997E-3</v>
       </c>
       <c r="K49" s="140">
         <f t="shared" si="15"/>
@@ -12105,14 +12098,14 @@
       </c>
       <c r="L49" s="141">
         <f ca="1">_xll.qlOvernightIndexedSwapFairRate(B49,_xll.ohTrigger(C49,InterestRatesTrigger))</f>
-        <v>1.6399999999993562E-3</v>
+        <v>1.4999999999670119E-3</v>
       </c>
       <c r="N49" s="171"/>
       <c r="O49" s="172"/>
       <c r="P49" s="163"/>
       <c r="Q49" s="153">
         <f t="shared" ca="1" si="17"/>
-        <v>4.3574696145234834E-3</v>
+        <v>4.4900000000329876E-3</v>
       </c>
       <c r="R49" s="128"/>
       <c r="S49" s="128"/>
@@ -12154,7 +12147,7 @@
   <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="B1" sqref="B1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -12173,54 +12166,54 @@
   <sheetData>
     <row r="1" spans="2:13" ht="22.5" x14ac:dyDescent="0.2">
       <c r="B1" s="373" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C1" s="374"/>
       <c r="D1" s="374"/>
       <c r="E1" s="203" t="s">
+        <v>104</v>
+      </c>
+      <c r="F1" s="203" t="s">
         <v>105</v>
       </c>
-      <c r="F1" s="203" t="s">
+      <c r="G1" s="203" t="s">
         <v>106</v>
       </c>
-      <c r="G1" s="203" t="s">
+      <c r="H1" s="203" t="s">
         <v>107</v>
       </c>
-      <c r="H1" s="203" t="s">
+      <c r="I1" s="203" t="s">
         <v>108</v>
       </c>
-      <c r="I1" s="203" t="s">
+      <c r="J1" s="203" t="s">
         <v>109</v>
       </c>
-      <c r="J1" s="203" t="s">
+      <c r="K1" s="203" t="s">
         <v>110</v>
       </c>
-      <c r="K1" s="203" t="s">
+      <c r="L1" s="204" t="s">
         <v>111</v>
-      </c>
-      <c r="L1" s="204" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="2" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B2" s="206"/>
       <c r="C2" s="207" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D2" s="208" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E2" s="275" t="str">
         <f>Contribution!$D$40</f>
-        <v>EUR1YD_SYNTH1Y_Quote#0000</v>
+        <v>EUR1YD_SYNTH1Y_Quote#0001</v>
       </c>
       <c r="F2" s="275" t="str">
         <f>_xll.qlDepositRateHelper(,E2,$F$10,)</f>
-        <v>obj_0038b#0000</v>
+        <v>obj_00361#0001</v>
       </c>
       <c r="G2" s="209">
         <f ca="1">_xll.qlRateHelperQuoteValue(F2,InterestRatesTrigger)</f>
-        <v>5.9969999999999997E-3</v>
+        <v>5.9899999999999997E-3</v>
       </c>
       <c r="H2" s="210" t="b">
         <v>1</v>
@@ -12233,11 +12226,11 @@
       </c>
       <c r="K2" s="211">
         <f ca="1">_xll.qlRateHelperEarliestDate($F2,InterestRatesTrigger)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="L2" s="212">
         <f ca="1">_xll.qlRateHelperLatestDate($F2,InterestRatesTrigger)</f>
-        <v>42102</v>
+        <v>42104</v>
       </c>
     </row>
     <row r="3" spans="2:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -12245,21 +12238,21 @@
         <v>12</v>
       </c>
       <c r="C3" s="214" t="s">
+        <v>113</v>
+      </c>
+      <c r="D3" s="214" t="s">
         <v>114</v>
       </c>
-      <c r="D3" s="214" t="s">
+      <c r="E3" s="276" t="s">
         <v>115</v>
-      </c>
-      <c r="E3" s="276" t="s">
-        <v>116</v>
       </c>
       <c r="F3" s="276" t="str">
         <f>_xll.qlFraRateHelper(,E3,B3&amp;"M",$F$10)</f>
-        <v>obj_0038a#0000</v>
+        <v>obj_00375#0001</v>
       </c>
       <c r="G3" s="215">
         <f ca="1">_xll.qlRateHelperQuoteValue(F3,InterestRatesTrigger)</f>
-        <v>6.7700000000000008E-3</v>
+        <v>6.5200000000000006E-3</v>
       </c>
       <c r="H3" s="216" t="b">
         <v>1</v>
@@ -12272,34 +12265,34 @@
       </c>
       <c r="K3" s="217">
         <f ca="1">_xll.qlRateHelperEarliestDate($F3,InterestRatesTrigger)</f>
-        <v>42102</v>
+        <v>42104</v>
       </c>
       <c r="L3" s="218">
         <f ca="1">_xll.qlRateHelperLatestDate($F3,InterestRatesTrigger)</f>
-        <v>42468</v>
+        <v>42471</v>
       </c>
       <c r="M3" s="219"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B4" s="220" t="s">
+        <v>116</v>
+      </c>
+      <c r="C4" s="221" t="s">
         <v>117</v>
       </c>
-      <c r="C4" s="221" t="s">
+      <c r="D4" s="222" t="s">
         <v>118</v>
       </c>
-      <c r="D4" s="222" t="s">
+      <c r="E4" s="277" t="s">
         <v>119</v>
-      </c>
-      <c r="E4" s="277" t="s">
-        <v>120</v>
       </c>
       <c r="F4" s="277" t="str">
         <f>_xll.qlSwapRateHelper2(,E4,D4,Calendar,"annual","mf","30/360 (Bond Basis)",$F$10,0,"0D",OisCurve)</f>
-        <v>obj_0039b#0000</v>
+        <v>obj_00363#0001</v>
       </c>
       <c r="G4" s="223">
         <f ca="1">_xll.qlRateHelperQuoteValue(F4,InterestRatesTrigger)</f>
-        <v>7.8399999999999997E-3</v>
+        <v>7.5099999999999993E-3</v>
       </c>
       <c r="H4" s="224" t="b">
         <v>1</v>
@@ -12312,7 +12305,7 @@
       </c>
       <c r="K4" s="225">
         <f ca="1">_xll.qlRateHelperEarliestDate($F4,InterestRatesTrigger)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="L4" s="226">
         <f ca="1">_xll.qlRateHelperLatestDate($F4,InterestRatesTrigger)</f>
@@ -12321,24 +12314,24 @@
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B5" s="227" t="s">
+        <v>116</v>
+      </c>
+      <c r="C5" s="228" t="s">
         <v>117</v>
       </c>
-      <c r="C5" s="228" t="s">
-        <v>118</v>
-      </c>
       <c r="D5" s="229" t="s">
+        <v>120</v>
+      </c>
+      <c r="E5" s="278" t="s">
         <v>121</v>
-      </c>
-      <c r="E5" s="278" t="s">
-        <v>122</v>
       </c>
       <c r="F5" s="278" t="str">
         <f>_xll.qlSwapRateHelper2(,E5,D5,Calendar,"annual","mf","30/360 (Bond Basis)",$F$10,0,"0D",OisCurve)</f>
-        <v>obj_00397#0000</v>
+        <v>obj_00366#0001</v>
       </c>
       <c r="G5" s="230">
         <f ca="1">_xll.qlRateHelperQuoteValue(F5,InterestRatesTrigger)</f>
-        <v>9.6399999999999993E-3</v>
+        <v>9.1599999999999997E-3</v>
       </c>
       <c r="H5" s="231" t="b">
         <v>1</v>
@@ -12351,33 +12344,33 @@
       </c>
       <c r="K5" s="232">
         <f ca="1">_xll.qlRateHelperEarliestDate($F5,InterestRatesTrigger)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="L5" s="233">
         <f ca="1">_xll.qlRateHelperLatestDate($F5,InterestRatesTrigger)</f>
-        <v>43199</v>
+        <v>43200</v>
       </c>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B6" s="234" t="s">
+        <v>116</v>
+      </c>
+      <c r="C6" s="207" t="s">
         <v>117</v>
       </c>
-      <c r="C6" s="207" t="s">
-        <v>118</v>
-      </c>
       <c r="D6" s="208" t="s">
+        <v>122</v>
+      </c>
+      <c r="E6" s="275" t="s">
         <v>123</v>
-      </c>
-      <c r="E6" s="275" t="s">
-        <v>124</v>
       </c>
       <c r="F6" s="275" t="str">
         <f>_xll.qlSwapRateHelper2(,E6,D6,Calendar,"annual","mf","30/360 (Bond Basis)",$F$10,0,"0D",OisCurve)</f>
-        <v>obj_00392#0000</v>
+        <v>obj_00365#0001</v>
       </c>
       <c r="G6" s="209">
         <f ca="1">_xll.qlRateHelperQuoteValue(F6,InterestRatesTrigger)</f>
-        <v>1.1539999999999998E-2</v>
+        <v>1.098E-2</v>
       </c>
       <c r="H6" s="210" t="b">
         <v>1</v>
@@ -12390,17 +12383,17 @@
       </c>
       <c r="K6" s="211">
         <f ca="1">_xll.qlRateHelperEarliestDate($F6,InterestRatesTrigger)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="L6" s="212">
         <f ca="1">_xll.qlRateHelperLatestDate($F6,InterestRatesTrigger)</f>
-        <v>43563</v>
+        <v>43565</v>
       </c>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.2">
       <c r="F10" s="205" t="str">
         <f>_xll.qlEuribor(,IborTenor,,,EvaluationDate)</f>
-        <v>obj_0036e#0000</v>
+        <v>obj_00356#0001</v>
       </c>
     </row>
   </sheetData>
@@ -12421,9 +12414,7 @@
   </sheetPr>
   <dimension ref="A1:P127"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -12445,42 +12436,42 @@
   <sheetData>
     <row r="1" spans="1:16" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A1" s="236" t="s">
+        <v>124</v>
+      </c>
+      <c r="B1" s="203" t="s">
         <v>125</v>
       </c>
-      <c r="B1" s="203" t="s">
-        <v>126</v>
-      </c>
       <c r="C1" s="203" t="s">
+        <v>110</v>
+      </c>
+      <c r="D1" s="204" t="s">
         <v>111</v>
       </c>
-      <c r="D1" s="204" t="s">
-        <v>112</v>
-      </c>
       <c r="E1" s="237" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F1" s="237"/>
       <c r="G1" s="237" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H1" s="237"/>
       <c r="I1" s="237" t="s">
+        <v>127</v>
+      </c>
+      <c r="J1" s="237" t="s">
         <v>128</v>
       </c>
-      <c r="J1" s="237" t="s">
+      <c r="K1" s="237" t="s">
         <v>129</v>
       </c>
-      <c r="K1" s="237" t="s">
+      <c r="L1" s="237" t="s">
+        <v>45</v>
+      </c>
+      <c r="M1" s="237" t="s">
         <v>130</v>
       </c>
-      <c r="L1" s="237" t="s">
-        <v>46</v>
-      </c>
-      <c r="M1" s="237" t="s">
+      <c r="N1" s="237" t="s">
         <v>131</v>
-      </c>
-      <c r="N1" s="237" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
@@ -12489,7 +12480,7 @@
       <c r="C2" s="240"/>
       <c r="D2" s="241">
         <f>SettlementDate</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="E2" s="242">
         <f t="array" aca="1" ref="E2:E127" ca="1">_xll.qlPiecewiseYieldCurveData(YieldCurve,InterestRatesTrigger)</f>
@@ -12500,36 +12491,36 @@
       </c>
       <c r="G2" s="243">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I2)</f>
-        <v>41733</v>
+        <v>41737</v>
       </c>
       <c r="H2" s="205" t="str">
         <f>_xll.qlMakeDatedOIS(,I2,J2,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_003d3#0000</v>
+        <v>obj_00391#0001</v>
       </c>
       <c r="I2" s="243">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F2&amp;"M","mf")</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="J2" s="243">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I2)</f>
-        <v>42102</v>
+        <v>42104</v>
       </c>
       <c r="K2" s="242">
         <f ca="1">_xll.qlIndexFixing(IborIndex,G2,TRUE,InterestRatesTrigger)</f>
-        <v>5.9970000000004534E-3</v>
+        <v>5.9899999999998765E-3</v>
       </c>
       <c r="L2" s="242">
         <f ca="1">_xll.qlOvernightIndexedSwapFairRate(H2,Contribution!$P$25)</f>
-        <v>1.6399999999993562E-3</v>
+        <v>1.4999999999670119E-3</v>
       </c>
       <c r="M2" s="219">
         <f ca="1">ROUND(K2-L2,6)</f>
-        <v>4.3569999999999998E-3</v>
+        <v>4.4900000000000001E-3</v>
       </c>
       <c r="N2" s="242"/>
       <c r="O2" s="205" t="str">
         <f>_xll.qlSimpleQuote(,,,,EvaluationDate)</f>
-        <v>obj_0036a#0000</v>
+        <v>obj_0034b#0001</v>
       </c>
       <c r="P2" s="242">
         <f ca="1">_xll.qlSimpleQuoteSetValue(O2,M2)</f>
@@ -12539,59 +12530,59 @@
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="244" t="str">
         <f>RateHelpersFra!F2</f>
-        <v>obj_0038b#0000</v>
+        <v>obj_00361#0001</v>
       </c>
       <c r="B3" s="245">
         <f ca="1">_xll.qlRateHelperRate($A3,InterestRatesTrigger)</f>
-        <v>5.9969999999999997E-3</v>
+        <v>5.9899999999999997E-3</v>
       </c>
       <c r="C3" s="246">
         <f>_xll.qlRateHelperEarliestDate($A3)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="D3" s="241">
         <f>_xll.qlRateHelperLatestDate($A3)</f>
-        <v>42102</v>
+        <v>42104</v>
       </c>
       <c r="E3" s="242">
         <f ca="1"/>
-        <v>0.99395645485054229</v>
+        <v>0.99396346659668433</v>
       </c>
       <c r="F3" s="205">
         <v>12</v>
       </c>
       <c r="G3" s="243">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I3)</f>
-        <v>42096</v>
+        <v>42102</v>
       </c>
       <c r="H3" s="205" t="str">
         <f>_xll.qlMakeDatedOIS(,I3,J3,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_003bd#0000</v>
+        <v>obj_003b4#0001</v>
       </c>
       <c r="I3" s="243">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F3&amp;"M","mf")</f>
-        <v>42102</v>
+        <v>42104</v>
       </c>
       <c r="J3" s="243">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I3)</f>
-        <v>42468</v>
+        <v>42471</v>
       </c>
       <c r="K3" s="242">
         <f ca="1">_xll.qlIndexFixing(IborIndex,G3,TRUE,InterestRatesTrigger)</f>
-        <v>6.7699999999999505E-3</v>
+        <v>6.5199999999998931E-3</v>
       </c>
       <c r="L3" s="242">
         <f ca="1">_xll.qlOvernightIndexedSwapFairRate(H3,Contribution!$P$25)</f>
-        <v>2.4198912915784549E-3</v>
+        <v>2.1988729375710392E-3</v>
       </c>
       <c r="M3" s="219">
         <f ca="1">ROUND(K3-L3,6)</f>
-        <v>4.3499999999999997E-3</v>
+        <v>4.3210000000000002E-3</v>
       </c>
       <c r="N3" s="242"/>
       <c r="O3" s="205" t="str">
         <f>_xll.qlSimpleQuote(,,,,EvaluationDate)</f>
-        <v>obj_00380#0000</v>
+        <v>obj_00350#0001</v>
       </c>
       <c r="P3" s="242">
         <f ca="1">_xll.qlSimpleQuoteSetValue(O3,M3)</f>
@@ -12601,59 +12592,59 @@
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="244" t="str">
         <f>RateHelpersFra!F3</f>
-        <v>obj_0038a#0000</v>
+        <v>obj_00375#0001</v>
       </c>
       <c r="B4" s="245">
         <f ca="1">_xll.qlRateHelperRate($A4,InterestRatesTrigger)</f>
-        <v>6.7700000000000008E-3</v>
+        <v>6.5200000000000006E-3</v>
       </c>
       <c r="C4" s="246">
         <f>_xll.qlRateHelperEarliestDate($A4)</f>
-        <v>42102</v>
+        <v>42104</v>
       </c>
       <c r="D4" s="241">
         <f>_xll.qlRateHelperLatestDate($A4)</f>
-        <v>42468</v>
+        <v>42471</v>
       </c>
       <c r="E4" s="242">
         <f ca="1"/>
-        <v>0.98716198344548434</v>
+        <v>0.98740043532539545</v>
       </c>
       <c r="F4" s="205">
         <v>24</v>
       </c>
       <c r="G4" s="243">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I4)</f>
-        <v>42466</v>
+        <v>42467</v>
       </c>
       <c r="H4" s="205" t="str">
         <f>_xll.qlMakeDatedOIS(,I4,J4,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_003dd#0000</v>
+        <v>obj_0038d#0001</v>
       </c>
       <c r="I4" s="243">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F4&amp;"M","mf")</f>
-        <v>42468</v>
+        <v>42471</v>
       </c>
       <c r="J4" s="243">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I4)</f>
-        <v>42835</v>
+        <v>42836</v>
       </c>
       <c r="K4" s="242">
         <f ca="1">_xll.qlIndexFixing(IborIndex,G4,TRUE,InterestRatesTrigger)</f>
-        <v>1.0417582344436583E-2</v>
+        <v>9.7225916520282743E-3</v>
       </c>
       <c r="L4" s="242">
         <f ca="1">_xll.qlOvernightIndexedSwapFairRate(H4,Contribution!$P$25)</f>
-        <v>5.5464920070457157E-3</v>
+        <v>4.9691292706806516E-3</v>
       </c>
       <c r="M4" s="219">
         <f ca="1">ROUND(K4-L4,6)</f>
-        <v>4.8710000000000003E-3</v>
+        <v>4.7530000000000003E-3</v>
       </c>
       <c r="N4" s="242"/>
       <c r="O4" s="205" t="str">
         <f>_xll.qlSimpleQuote(,,,,EvaluationDate)</f>
-        <v>obj_00368#0000</v>
+        <v>obj_00334#0001</v>
       </c>
       <c r="P4" s="242">
         <f ca="1">_xll.qlSimpleQuoteSetValue(O4,M4)</f>
@@ -12663,15 +12654,15 @@
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="244" t="str">
         <f>RateHelpersFra!F4</f>
-        <v>obj_0039b#0000</v>
+        <v>obj_00363#0001</v>
       </c>
       <c r="B5" s="245">
         <f ca="1">_xll.qlRateHelperRate($A5,InterestRatesTrigger)</f>
-        <v>7.8399999999999997E-3</v>
+        <v>7.5099999999999993E-3</v>
       </c>
       <c r="C5" s="246">
         <f>_xll.qlRateHelperEarliestDate($A5)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="D5" s="241">
         <f>_xll.qlRateHelperLatestDate($A5)</f>
@@ -12679,7 +12670,7 @@
       </c>
       <c r="E5" s="242">
         <f ca="1"/>
-        <v>0.97678834814188298</v>
+        <v>0.97779369661158588</v>
       </c>
       <c r="F5" s="205">
         <v>36</v>
@@ -12690,7 +12681,7 @@
       </c>
       <c r="H5" s="205" t="str">
         <f>_xll.qlMakeDatedOIS(,I5,J5,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_003b9#0000</v>
+        <v>obj_00395#0001</v>
       </c>
       <c r="I5" s="243">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F5&amp;"M","mf")</f>
@@ -12702,20 +12693,20 @@
       </c>
       <c r="K5" s="242">
         <f ca="1">_xll.qlIndexFixing(IborIndex,G5,TRUE,InterestRatesTrigger)</f>
-        <v>1.4942378170646146E-2</v>
+        <v>1.3980584723746615E-2</v>
       </c>
       <c r="L5" s="242">
         <f ca="1">_xll.qlOvernightIndexedSwapFairRate(H5,Contribution!$P$25)</f>
-        <v>9.7019268879584893E-3</v>
+        <v>8.8217783689064581E-3</v>
       </c>
       <c r="M5" s="219">
         <f ca="1">ROUND(K5-L5,6)</f>
-        <v>5.2399999999999999E-3</v>
+        <v>5.1590000000000004E-3</v>
       </c>
       <c r="N5" s="242"/>
       <c r="O5" s="205" t="str">
         <f>_xll.qlSimpleQuote(,,,,EvaluationDate)</f>
-        <v>obj_0037f#0000</v>
+        <v>obj_0033b#0001</v>
       </c>
       <c r="P5" s="242">
         <f ca="1">_xll.qlSimpleQuoteSetValue(O5,M5)</f>
@@ -12725,59 +12716,59 @@
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="244" t="str">
         <f>RateHelpersFra!F5</f>
-        <v>obj_00397#0000</v>
+        <v>obj_00366#0001</v>
       </c>
       <c r="B6" s="245">
         <f ca="1">_xll.qlRateHelperRate($A6,InterestRatesTrigger)</f>
-        <v>9.6399999999999993E-3</v>
+        <v>9.1599999999999997E-3</v>
       </c>
       <c r="C6" s="246">
         <f>_xll.qlRateHelperEarliestDate($A6)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="D6" s="241">
         <f>_xll.qlRateHelperLatestDate($A6)</f>
-        <v>43199</v>
+        <v>43200</v>
       </c>
       <c r="E6" s="242">
         <f ca="1"/>
-        <v>0.96225700398028813</v>
+        <v>0.96412742226249892</v>
       </c>
       <c r="F6" s="205">
         <v>48</v>
       </c>
       <c r="G6" s="243">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I6)</f>
-        <v>43195</v>
+        <v>43196</v>
       </c>
       <c r="H6" s="205" t="str">
         <f>_xll.qlMakeDatedOIS(,I6,J6,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_003ba#0000</v>
+        <v>obj_00399#0001</v>
       </c>
       <c r="I6" s="243">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F6&amp;"M","mf")</f>
-        <v>43199</v>
+        <v>43200</v>
       </c>
       <c r="J6" s="243">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I6)</f>
-        <v>43564</v>
+        <v>43565</v>
       </c>
       <c r="K6" s="242">
         <f ca="1">_xll.qlIndexFixing(IborIndex,G6,TRUE,InterestRatesTrigger)</f>
-        <v>1.909448609238542E-2</v>
+        <v>1.8176728232266626E-2</v>
       </c>
       <c r="L6" s="242">
         <f ca="1">_xll.qlOvernightIndexedSwapFairRate(H6,Contribution!$P$25)</f>
-        <v>1.3914634708465637E-2</v>
+        <v>1.3114728575390625E-2</v>
       </c>
       <c r="M6" s="219">
         <f ca="1">ROUND(K6-L6,6)</f>
-        <v>5.1799999999999997E-3</v>
+        <v>5.0619999999999997E-3</v>
       </c>
       <c r="N6" s="242"/>
       <c r="O6" s="205" t="str">
         <f>_xll.qlSimpleQuote(,,,,EvaluationDate)</f>
-        <v>obj_0035f#0000</v>
+        <v>obj_00355#0001</v>
       </c>
       <c r="P6" s="242">
         <f ca="1">_xll.qlSimpleQuoteSetValue(O6,M6)</f>
@@ -12787,23 +12778,23 @@
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="244" t="str">
         <f>RateHelpersFra!F6</f>
-        <v>obj_00392#0000</v>
+        <v>obj_00365#0001</v>
       </c>
       <c r="B7" s="245">
         <f ca="1">_xll.qlRateHelperRate($A7,InterestRatesTrigger)</f>
-        <v>1.1539999999999998E-2</v>
+        <v>1.098E-2</v>
       </c>
       <c r="C7" s="246">
         <f>_xll.qlRateHelperEarliestDate($A7)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="D7" s="241">
         <f>_xll.qlRateHelperLatestDate($A7)</f>
-        <v>43563</v>
+        <v>43565</v>
       </c>
       <c r="E7" s="242">
         <f ca="1"/>
-        <v>0.94403360238596556</v>
+        <v>0.94668086751036251</v>
       </c>
       <c r="G7" s="243"/>
       <c r="I7" s="243"/>
@@ -12826,31 +12817,31 @@
       </c>
       <c r="G8" s="243">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I8)</f>
-        <v>41765</v>
+        <v>41767</v>
       </c>
       <c r="H8" s="205" t="str">
         <f>_xll.qlMakeDatedOIS(,I8,J8,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_003d7#0000</v>
+        <v>obj_0038b#0001</v>
       </c>
       <c r="I8" s="243">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F8&amp;"M","mf")</f>
-        <v>41767</v>
+        <v>41771</v>
       </c>
       <c r="J8" s="243">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I8)</f>
-        <v>42132</v>
+        <v>42136</v>
       </c>
       <c r="L8" s="242">
         <f ca="1">_xll.qlOvernightIndexedSwapFairRate(H8,_xll.ohTrigger($P$2:$P$6))</f>
-        <v>1.5925180412750656E-3</v>
+        <v>1.4541347749978128E-3</v>
       </c>
       <c r="M8" s="219">
         <f ca="1">_xll.qlInterpolationInterpolate(BasisInterpolator,I8,,L8)</f>
-        <v>4.3552817460419469E-3</v>
+        <v>4.4619080832996871E-3</v>
       </c>
       <c r="N8" s="242">
         <f ca="1">L8+M8</f>
-        <v>5.9477997873170121E-3</v>
+        <v>5.9160428582974997E-3</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
@@ -12867,31 +12858,31 @@
       </c>
       <c r="G9" s="243">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I9)</f>
-        <v>41795</v>
+        <v>41796</v>
       </c>
       <c r="H9" s="205" t="str">
         <f>_xll.qlMakeDatedOIS(,I9,J9,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_003b6#0000</v>
+        <v>obj_003ae#0001</v>
       </c>
       <c r="I9" s="243">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F9&amp;"M","mf")</f>
-        <v>41799</v>
+        <v>41800</v>
       </c>
       <c r="J9" s="243">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I9)</f>
-        <v>42164</v>
+        <v>42165</v>
       </c>
       <c r="L9" s="242">
         <f ca="1">_xll.qlOvernightIndexedSwapFairRate(H9,_xll.ohTrigger($P$2:$P$6))</f>
-        <v>1.5861301935334543E-3</v>
+        <v>1.4418477453156738E-3</v>
       </c>
       <c r="M9" s="219">
         <f ca="1">_xll.qlInterpolationInterpolate(BasisInterpolator,I9,,L9)</f>
-        <v>4.3535014925723042E-3</v>
+        <v>4.4369660530199197E-3</v>
       </c>
       <c r="N9" s="242">
         <f t="shared" ref="N9:N51" ca="1" si="0">L9+M9</f>
-        <v>5.939631686105758E-3</v>
+        <v>5.8788137983355939E-3</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
@@ -12908,31 +12899,31 @@
       </c>
       <c r="G10" s="243">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I10)</f>
-        <v>41824</v>
+        <v>41828</v>
       </c>
       <c r="H10" s="205" t="str">
         <f>_xll.qlMakeDatedOIS(,I10,J10,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_003b8#0000</v>
+        <v>obj_003b5#0001</v>
       </c>
       <c r="I10" s="243">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F10&amp;"M","mf")</f>
-        <v>41828</v>
+        <v>41830</v>
       </c>
       <c r="J10" s="243">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I10)</f>
-        <v>42193</v>
+        <v>42195</v>
       </c>
       <c r="L10" s="242">
         <f ca="1">_xll.qlOvernightIndexedSwapFairRate(H10,_xll.ohTrigger($P$2:$P$6))</f>
-        <v>1.5951341407861145E-3</v>
+        <v>1.4476836592113706E-3</v>
       </c>
       <c r="M10" s="219">
         <f ca="1">_xll.qlInterpolationInterpolate(BasisInterpolator,I10,,L10)</f>
-        <v>4.3519813405378171E-3</v>
+        <v>4.4121859660348484E-3</v>
       </c>
       <c r="N10" s="242">
         <f t="shared" ca="1" si="0"/>
-        <v>5.9471154813239314E-3</v>
+        <v>5.8598696252462187E-3</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
@@ -12949,31 +12940,31 @@
       </c>
       <c r="G11" s="243">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I11)</f>
-        <v>41857</v>
+        <v>41858</v>
       </c>
       <c r="H11" s="205" t="str">
         <f>_xll.qlMakeDatedOIS(,I11,J11,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_003d1#0000</v>
+        <v>obj_003aa#0001</v>
       </c>
       <c r="I11" s="243">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F11&amp;"M","mf")</f>
-        <v>41859</v>
+        <v>41862</v>
       </c>
       <c r="J11" s="243">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I11)</f>
-        <v>42226</v>
+        <v>42227</v>
       </c>
       <c r="L11" s="242">
         <f ca="1">_xll.qlOvernightIndexedSwapFairRate(H11,_xll.ohTrigger($P$2:$P$6))</f>
-        <v>1.6310448597623905E-3</v>
+        <v>1.4776843265861613E-3</v>
       </c>
       <c r="M11" s="219">
         <f ca="1">_xll.qlInterpolationInterpolate(BasisInterpolator,I11,,L11)</f>
-        <v>4.3505036139191858E-3</v>
+        <v>4.3874660154113289E-3</v>
       </c>
       <c r="N11" s="242">
         <f t="shared" ca="1" si="0"/>
-        <v>5.9815484736815763E-3</v>
+        <v>5.8651503419974906E-3</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
@@ -12990,31 +12981,31 @@
       </c>
       <c r="G12" s="243">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I12)</f>
-        <v>41886</v>
+        <v>41890</v>
       </c>
       <c r="H12" s="205" t="str">
         <f>_xll.qlMakeDatedOIS(,I12,J12,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_003dc#0000</v>
+        <v>obj_00389#0001</v>
       </c>
       <c r="I12" s="243">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F12&amp;"M","mf")</f>
-        <v>41890</v>
+        <v>41892</v>
       </c>
       <c r="J12" s="243">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I12)</f>
-        <v>42255</v>
+        <v>42257</v>
       </c>
       <c r="L12" s="242">
         <f ca="1">_xll.qlOvernightIndexedSwapFairRate(H12,_xll.ohTrigger($P$2:$P$6))</f>
-        <v>1.6758959436511552E-3</v>
+        <v>1.5168944558000019E-3</v>
       </c>
       <c r="M12" s="219">
         <f ca="1">_xll.qlInterpolationInterpolate(BasisInterpolator,I12,,L12)</f>
-        <v>4.3492284147582235E-3</v>
+        <v>4.3664331850185667E-3</v>
       </c>
       <c r="N12" s="242">
         <f t="shared" ca="1" si="0"/>
-        <v>6.0251243584093783E-3</v>
+        <v>5.883327640818569E-3</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
@@ -13031,31 +13022,31 @@
       </c>
       <c r="G13" s="243">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I13)</f>
-        <v>41918</v>
+        <v>41920</v>
       </c>
       <c r="H13" s="205" t="str">
         <f>_xll.qlMakeDatedOIS(,I13,J13,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_003b5#0000</v>
+        <v>obj_003a2#0001</v>
       </c>
       <c r="I13" s="243">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F13&amp;"M","mf")</f>
-        <v>41920</v>
+        <v>41922</v>
       </c>
       <c r="J13" s="243">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I13)</f>
-        <v>42285</v>
+        <v>42289</v>
       </c>
       <c r="L13" s="242">
         <f ca="1">_xll.qlOvernightIndexedSwapFairRate(H13,_xll.ohTrigger($P$2:$P$6))</f>
-        <v>1.7401590345079846E-3</v>
+        <v>1.5752167803382575E-3</v>
       </c>
       <c r="M13" s="219">
         <f ca="1">_xll.qlInterpolationInterpolate(BasisInterpolator,I13,,L13)</f>
-        <v>4.348235655881362E-3</v>
+        <v>4.3479930449723068E-3</v>
       </c>
       <c r="N13" s="242">
         <f t="shared" ca="1" si="0"/>
-        <v>6.0883946903893468E-3</v>
+        <v>5.9232098253105643E-3</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
@@ -13076,7 +13067,7 @@
       </c>
       <c r="H14" s="205" t="str">
         <f>_xll.qlMakeDatedOIS(,I14,J14,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_003d0#0000</v>
+        <v>obj_00392#0001</v>
       </c>
       <c r="I14" s="243">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F14&amp;"M","mf")</f>
@@ -13088,15 +13079,15 @@
       </c>
       <c r="L14" s="242">
         <f ca="1">_xll.qlOvernightIndexedSwapFairRate(H14,_xll.ohTrigger($P$2:$P$6))</f>
-        <v>1.831837637175139E-3</v>
+        <v>1.6559995732469974E-3</v>
       </c>
       <c r="M14" s="219">
         <f ca="1">_xll.qlInterpolationInterpolate(BasisInterpolator,I14,,L14)</f>
-        <v>4.3474740233768704E-3</v>
+        <v>4.3322020045847322E-3</v>
       </c>
       <c r="N14" s="242">
         <f t="shared" ca="1" si="0"/>
-        <v>6.1793116605520096E-3</v>
+        <v>5.9882015778317298E-3</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
@@ -13113,31 +13104,31 @@
       </c>
       <c r="G15" s="243">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I15)</f>
-        <v>41977</v>
+        <v>41981</v>
       </c>
       <c r="H15" s="205" t="str">
         <f>_xll.qlMakeDatedOIS(,I15,J15,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_003ae#0000</v>
+        <v>obj_003b3#0001</v>
       </c>
       <c r="I15" s="243">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F15&amp;"M","mf")</f>
-        <v>41981</v>
+        <v>41983</v>
       </c>
       <c r="J15" s="243">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I15)</f>
-        <v>42346</v>
+        <v>42348</v>
       </c>
       <c r="L15" s="242">
         <f ca="1">_xll.qlOvernightIndexedSwapFairRate(H15,_xll.ohTrigger($P$2:$P$6))</f>
-        <v>1.9179019229654678E-3</v>
+        <v>1.7471911890197249E-3</v>
       </c>
       <c r="M15" s="219">
         <f ca="1">_xll.qlInterpolationInterpolate(BasisInterpolator,I15,,L15)</f>
-        <v>4.3471439798466391E-3</v>
+        <v>4.3206014268610494E-3</v>
       </c>
       <c r="N15" s="242">
         <f t="shared" ca="1" si="0"/>
-        <v>6.2650459028121067E-3</v>
+        <v>6.0677926158807741E-3</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
@@ -13154,31 +13145,31 @@
       </c>
       <c r="G16" s="243">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I16)</f>
-        <v>42010</v>
+        <v>42012</v>
       </c>
       <c r="H16" s="205" t="str">
         <f>_xll.qlMakeDatedOIS(,I16,J16,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_003da#0000</v>
+        <v>obj_00388#0001</v>
       </c>
       <c r="I16" s="243">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F16&amp;"M","mf")</f>
-        <v>42012</v>
+        <v>42016</v>
       </c>
       <c r="J16" s="243">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I16)</f>
-        <v>42377</v>
+        <v>42381</v>
       </c>
       <c r="L16" s="242">
         <f ca="1">_xll.qlOvernightIndexedSwapFairRate(H16,_xll.ohTrigger($P$2:$P$6))</f>
-        <v>2.0136745107539448E-3</v>
+        <v>1.8494205528353585E-3</v>
       </c>
       <c r="M16" s="219">
         <f ca="1">_xll.qlInterpolationInterpolate(BasisInterpolator,I16,,L16)</f>
-        <v>4.3471656097291379E-3</v>
+        <v>4.3126359975793867E-3</v>
       </c>
       <c r="N16" s="242">
         <f t="shared" ca="1" si="0"/>
-        <v>6.3608401204830831E-3</v>
+        <v>6.162056550414745E-3</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
@@ -13195,31 +13186,31 @@
       </c>
       <c r="G17" s="243">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I17)</f>
-        <v>42040</v>
+        <v>42041</v>
       </c>
       <c r="H17" s="205" t="str">
         <f>_xll.qlMakeDatedOIS(,I17,J17,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_003bb#0000</v>
+        <v>obj_00397#0001</v>
       </c>
       <c r="I17" s="243">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F17&amp;"M","mf")</f>
-        <v>42044</v>
+        <v>42045</v>
       </c>
       <c r="J17" s="243">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I17)</f>
-        <v>42409</v>
+        <v>42410</v>
       </c>
       <c r="L17" s="242">
         <f ca="1">_xll.qlOvernightIndexedSwapFairRate(H17,_xll.ohTrigger($P$2:$P$6))</f>
-        <v>2.1393020667165624E-3</v>
+        <v>1.9548354690287107E-3</v>
       </c>
       <c r="M17" s="219">
         <f ca="1">_xll.qlInterpolationInterpolate(BasisInterpolator,I17,,L17)</f>
-        <v>4.3476673616217286E-3</v>
+        <v>4.3103022459496636E-3</v>
       </c>
       <c r="N17" s="242">
         <f t="shared" ca="1" si="0"/>
-        <v>6.4869694283382906E-3</v>
+        <v>6.2651377149783739E-3</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
@@ -13236,31 +13227,31 @@
       </c>
       <c r="G18" s="243">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I18)</f>
-        <v>42068</v>
+        <v>42069</v>
       </c>
       <c r="H18" s="205" t="str">
         <f>_xll.qlMakeDatedOIS(,I18,J18,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_003de#0000</v>
+        <v>obj_0038a#0001</v>
       </c>
       <c r="I18" s="243">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F18&amp;"M","mf")</f>
-        <v>42072</v>
+        <v>42073</v>
       </c>
       <c r="J18" s="243">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I18)</f>
-        <v>42438</v>
+        <v>42439</v>
       </c>
       <c r="L18" s="242">
         <f ca="1">_xll.qlOvernightIndexedSwapFairRate(H18,_xll.ohTrigger($P$2:$P$6))</f>
-        <v>2.2743743954137209E-3</v>
+        <v>2.0659007380593505E-3</v>
       </c>
       <c r="M18" s="219">
         <f ca="1">_xll.qlInterpolationInterpolate(BasisInterpolator,I18,,L18)</f>
-        <v>4.3485499296945888E-3</v>
+        <v>4.3126416643361433E-3</v>
       </c>
       <c r="N18" s="242">
         <f t="shared" ca="1" si="0"/>
-        <v>6.6229243251083097E-3</v>
+        <v>6.3785424023954937E-3</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
@@ -13277,31 +13268,31 @@
       </c>
       <c r="G19" s="243">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I19)</f>
-        <v>42130</v>
+        <v>42131</v>
       </c>
       <c r="H19" s="205" t="str">
         <f>_xll.qlMakeDatedOIS(,I19,J19,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_003b7#0000</v>
+        <v>obj_00398#0001</v>
       </c>
       <c r="I19" s="243">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F19&amp;"M","mf")</f>
-        <v>42132</v>
+        <v>42135</v>
       </c>
       <c r="J19" s="243">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I19)</f>
-        <v>42499</v>
+        <v>42501</v>
       </c>
       <c r="L19" s="242">
         <f ca="1">_xll.qlOvernightIndexedSwapFairRate(H19,_xll.ohTrigger($P$2:$P$6))</f>
-        <v>2.5911210962909952E-3</v>
+        <v>2.3437978559758465E-3</v>
       </c>
       <c r="M19" s="219">
         <f ca="1">_xll.qlInterpolationInterpolate(BasisInterpolator,I19,,L19)</f>
-        <v>4.3579005356095364E-3</v>
+        <v>4.3357681379399939E-3</v>
       </c>
       <c r="N19" s="242">
         <f t="shared" ca="1" si="0"/>
-        <v>6.9490216319005316E-3</v>
+        <v>6.6795659939158404E-3</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
@@ -13318,31 +13309,31 @@
       </c>
       <c r="G20" s="243">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I20)</f>
-        <v>42159</v>
+        <v>42163</v>
       </c>
       <c r="H20" s="205" t="str">
         <f>_xll.qlMakeDatedOIS(,I20,J20,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_003d5#0000</v>
+        <v>obj_00396#0001</v>
       </c>
       <c r="I20" s="243">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F20&amp;"M","mf")</f>
-        <v>42163</v>
+        <v>42165</v>
       </c>
       <c r="J20" s="243">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I20)</f>
-        <v>42529</v>
+        <v>42531</v>
       </c>
       <c r="L20" s="242">
         <f ca="1">_xll.qlOvernightIndexedSwapFairRate(H20,_xll.ohTrigger($P$2:$P$6))</f>
-        <v>2.7849173486404486E-3</v>
+        <v>2.5044985936374916E-3</v>
       </c>
       <c r="M20" s="219">
         <f ca="1">_xll.qlInterpolationInterpolate(BasisInterpolator,I20,,L20)</f>
-        <v>4.3779637413347882E-3</v>
+        <v>4.3557767667678536E-3</v>
       </c>
       <c r="N20" s="242">
         <f t="shared" ca="1" si="0"/>
-        <v>7.1628810899752367E-3</v>
+        <v>6.8602753604053452E-3</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
@@ -13359,31 +13350,31 @@
       </c>
       <c r="G21" s="243">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I21)</f>
-        <v>42191</v>
+        <v>42193</v>
       </c>
       <c r="H21" s="205" t="str">
         <f>_xll.qlMakeDatedOIS(,I21,J21,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_003c6#0000</v>
+        <v>obj_003a0#0001</v>
       </c>
       <c r="I21" s="243">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F21&amp;"M","mf")</f>
-        <v>42193</v>
+        <v>42195</v>
       </c>
       <c r="J21" s="243">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I21)</f>
-        <v>42559</v>
+        <v>42562</v>
       </c>
       <c r="L21" s="242">
         <f ca="1">_xll.qlOvernightIndexedSwapFairRate(H21,_xll.ohTrigger($P$2:$P$6))</f>
-        <v>2.9919871347875568E-3</v>
+        <v>2.6862388278802969E-3</v>
       </c>
       <c r="M21" s="219">
         <f ca="1">_xll.qlInterpolationInterpolate(BasisInterpolator,I21,,L21)</f>
-        <v>4.4073446910278934E-3</v>
+        <v>4.3808526542190463E-3</v>
       </c>
       <c r="N21" s="242">
         <f t="shared" ca="1" si="0"/>
-        <v>7.3993318258154502E-3</v>
+        <v>7.0670914820993433E-3</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
@@ -13404,7 +13395,7 @@
       </c>
       <c r="H22" s="205" t="str">
         <f>_xll.qlMakeDatedOIS(,I22,J22,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_003b4#0000</v>
+        <v>obj_003b6#0001</v>
       </c>
       <c r="I22" s="243">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F22&amp;"M","mf")</f>
@@ -13416,15 +13407,15 @@
       </c>
       <c r="L22" s="242">
         <f ca="1">_xll.qlOvernightIndexedSwapFairRate(H22,_xll.ohTrigger($P$2:$P$6))</f>
-        <v>3.2319565440664744E-3</v>
+        <v>2.8840535106233749E-3</v>
       </c>
       <c r="M22" s="219">
         <f ca="1">_xll.qlInterpolationInterpolate(BasisInterpolator,I22,,L22)</f>
-        <v>4.4491649953341417E-3</v>
+        <v>4.411503832799508E-3</v>
       </c>
       <c r="N22" s="242">
         <f t="shared" ca="1" si="0"/>
-        <v>7.6811215394006161E-3</v>
+        <v>7.2955573434228833E-3</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
@@ -13441,31 +13432,31 @@
       </c>
       <c r="G23" s="243">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I23)</f>
-        <v>42251</v>
+        <v>42255</v>
       </c>
       <c r="H23" s="205" t="str">
         <f>_xll.qlMakeDatedOIS(,I23,J23,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_003bc#0000</v>
+        <v>obj_003a6#0001</v>
       </c>
       <c r="I23" s="243">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F23&amp;"M","mf")</f>
-        <v>42255</v>
+        <v>42257</v>
       </c>
       <c r="J23" s="243">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I23)</f>
-        <v>42621</v>
+        <v>42625</v>
       </c>
       <c r="L23" s="242">
         <f ca="1">_xll.qlOvernightIndexedSwapFairRate(H23,_xll.ohTrigger($P$2:$P$6))</f>
-        <v>3.4552987594008659E-3</v>
+        <v>3.1102536576519692E-3</v>
       </c>
       <c r="M23" s="219">
         <f ca="1">_xll.qlInterpolationInterpolate(BasisInterpolator,I23,,L23)</f>
-        <v>4.4925930768916385E-3</v>
+        <v>4.4463720298617265E-3</v>
       </c>
       <c r="N23" s="242">
         <f t="shared" ca="1" si="0"/>
-        <v>7.9478918362925043E-3</v>
+        <v>7.5566256875136961E-3</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
@@ -13482,31 +13473,31 @@
       </c>
       <c r="G24" s="243">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I24)</f>
-        <v>42283</v>
+        <v>42285</v>
       </c>
       <c r="H24" s="205" t="str">
         <f>_xll.qlMakeDatedOIS(,I24,J24,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_003c9#0000</v>
+        <v>obj_003b8#0001</v>
       </c>
       <c r="I24" s="243">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F24&amp;"M","mf")</f>
-        <v>42285</v>
+        <v>42289</v>
       </c>
       <c r="J24" s="243">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I24)</f>
-        <v>42653</v>
+        <v>42655</v>
       </c>
       <c r="L24" s="242">
         <f ca="1">_xll.qlOvernightIndexedSwapFairRate(H24,_xll.ohTrigger($P$2:$P$6))</f>
-        <v>3.7121286768733983E-3</v>
+        <v>3.3412264361960074E-3</v>
       </c>
       <c r="M24" s="219">
         <f ca="1">_xll.qlInterpolationInterpolate(BasisInterpolator,I24,,L24)</f>
-        <v>4.5425754360845713E-3</v>
+        <v>4.4861451306558182E-3</v>
       </c>
       <c r="N24" s="242">
         <f t="shared" ca="1" si="0"/>
-        <v>8.2547041129579692E-3</v>
+        <v>7.8273715668518255E-3</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
@@ -13523,31 +13514,31 @@
       </c>
       <c r="G25" s="243">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I25)</f>
-        <v>42313</v>
+        <v>42314</v>
       </c>
       <c r="H25" s="205" t="str">
         <f>_xll.qlMakeDatedOIS(,I25,J25,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_003be#0000</v>
+        <v>obj_003b1#0001</v>
       </c>
       <c r="I25" s="243">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F25&amp;"M","mf")</f>
-        <v>42317</v>
+        <v>42318</v>
       </c>
       <c r="J25" s="243">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I25)</f>
-        <v>42683</v>
+        <v>42684</v>
       </c>
       <c r="L25" s="242">
         <f ca="1">_xll.qlOvernightIndexedSwapFairRate(H25,_xll.ohTrigger($P$2:$P$6))</f>
-        <v>3.9859012874895339E-3</v>
+        <v>3.5698205722370325E-3</v>
       </c>
       <c r="M25" s="219">
         <f ca="1">_xll.qlInterpolationInterpolate(BasisInterpolator,I25,,L25)</f>
-        <v>4.5998770849460698E-3</v>
+        <v>4.5249541521904671E-3</v>
       </c>
       <c r="N25" s="242">
         <f t="shared" ca="1" si="0"/>
-        <v>8.5857783724356037E-3</v>
+        <v>8.0947747244274997E-3</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
@@ -13564,31 +13555,31 @@
       </c>
       <c r="G26" s="243">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I26)</f>
-        <v>42342</v>
+        <v>42346</v>
       </c>
       <c r="H26" s="205" t="str">
         <f>_xll.qlMakeDatedOIS(,I26,J26,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_003cc#0000</v>
+        <v>obj_003a5#0001</v>
       </c>
       <c r="I26" s="243">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F26&amp;"M","mf")</f>
-        <v>42346</v>
+        <v>42348</v>
       </c>
       <c r="J26" s="243">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I26)</f>
-        <v>42712</v>
+        <v>42716</v>
       </c>
       <c r="L26" s="242">
         <f ca="1">_xll.qlOvernightIndexedSwapFairRate(H26,_xll.ohTrigger($P$2:$P$6))</f>
-        <v>4.2601003640526719E-3</v>
+        <v>3.8282498230040435E-3</v>
       </c>
       <c r="M26" s="219">
         <f ca="1">_xll.qlInterpolationInterpolate(BasisInterpolator,I26,,L26)</f>
-        <v>4.6538629217115976E-3</v>
+        <v>4.5673209882654778E-3</v>
       </c>
       <c r="N26" s="242">
         <f t="shared" ca="1" si="0"/>
-        <v>8.9139632857642703E-3</v>
+        <v>8.3955708112695218E-3</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
@@ -13605,31 +13596,31 @@
       </c>
       <c r="G27" s="243">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I27)</f>
-        <v>42375</v>
+        <v>42376</v>
       </c>
       <c r="H27" s="205" t="str">
         <f>_xll.qlMakeDatedOIS(,I27,J27,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_003db#0000</v>
+        <v>obj_0038f#0001</v>
       </c>
       <c r="I27" s="243">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F27&amp;"M","mf")</f>
-        <v>42377</v>
+        <v>42380</v>
       </c>
       <c r="J27" s="243">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I27)</f>
-        <v>42744</v>
+        <v>42746</v>
       </c>
       <c r="L27" s="242">
         <f ca="1">_xll.qlOvernightIndexedSwapFairRate(H27,_xll.ohTrigger($P$2:$P$6))</f>
-        <v>4.5743062852416604E-3</v>
+        <v>4.0996294359910103E-3</v>
       </c>
       <c r="M27" s="219">
         <f ca="1">_xll.qlInterpolationInterpolate(BasisInterpolator,I27,,L27)</f>
-        <v>4.7121406497118356E-3</v>
+        <v>4.6143874773679943E-3</v>
       </c>
       <c r="N27" s="242">
         <f t="shared" ca="1" si="0"/>
-        <v>9.2864469349534969E-3</v>
+        <v>8.7140169133590045E-3</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
@@ -13646,31 +13637,31 @@
       </c>
       <c r="G28" s="243">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I28)</f>
-        <v>42404</v>
+        <v>42408</v>
       </c>
       <c r="H28" s="205" t="str">
         <f>_xll.qlMakeDatedOIS(,I28,J28,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_003c2#0000</v>
+        <v>obj_003a3#0001</v>
       </c>
       <c r="I28" s="243">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F28&amp;"M","mf")</f>
-        <v>42408</v>
+        <v>42410</v>
       </c>
       <c r="J28" s="243">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I28)</f>
-        <v>42774</v>
+        <v>42776</v>
       </c>
       <c r="L28" s="242">
         <f ca="1">_xll.qlOvernightIndexedSwapFairRate(H28,_xll.ohTrigger($P$2:$P$6))</f>
-        <v>4.8912986093511083E-3</v>
+        <v>4.3780773844495583E-3</v>
       </c>
       <c r="M28" s="219">
         <f ca="1">_xll.qlInterpolationInterpolate(BasisInterpolator,I28,,L28)</f>
-        <v>4.7693775897514846E-3</v>
+        <v>4.6596895613179763E-3</v>
       </c>
       <c r="N28" s="242">
         <f t="shared" ca="1" si="0"/>
-        <v>9.660676199102592E-3</v>
+        <v>9.0377669457675346E-3</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
@@ -13687,31 +13678,31 @@
       </c>
       <c r="G29" s="243">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I29)</f>
-        <v>42433</v>
+        <v>42437</v>
       </c>
       <c r="H29" s="205" t="str">
         <f>_xll.qlMakeDatedOIS(,I29,J29,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_003c1#0000</v>
+        <v>obj_003a1#0001</v>
       </c>
       <c r="I29" s="243">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F29&amp;"M","mf")</f>
-        <v>42437</v>
+        <v>42439</v>
       </c>
       <c r="J29" s="243">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I29)</f>
-        <v>42802</v>
+        <v>42804</v>
       </c>
       <c r="L29" s="242">
         <f ca="1">_xll.qlOvernightIndexedSwapFairRate(H29,_xll.ohTrigger($P$2:$P$6))</f>
-        <v>5.1966099849654057E-3</v>
+        <v>4.6529053165576019E-3</v>
       </c>
       <c r="M29" s="219">
         <f ca="1">_xll.qlInterpolationInterpolate(BasisInterpolator,I29,,L29)</f>
-        <v>4.8205053209727945E-3</v>
+        <v>4.7040361015586868E-3</v>
       </c>
       <c r="N29" s="242">
         <f t="shared" ca="1" si="0"/>
-        <v>1.00171153059382E-2</v>
+        <v>9.3569414181162887E-3</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
@@ -13728,31 +13719,31 @@
       </c>
       <c r="G30" s="243">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I30)</f>
-        <v>42495</v>
+        <v>42496</v>
       </c>
       <c r="H30" s="205" t="str">
         <f>_xll.qlMakeDatedOIS(,I30,J30,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_003cb#0000</v>
+        <v>obj_003ad#0001</v>
       </c>
       <c r="I30" s="243">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F30&amp;"M","mf")</f>
-        <v>42499</v>
+        <v>42500</v>
       </c>
       <c r="J30" s="243">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I30)</f>
-        <v>42864</v>
+        <v>42865</v>
       </c>
       <c r="L30" s="242">
         <f ca="1">_xll.qlOvernightIndexedSwapFairRate(H30,_xll.ohTrigger($P$2:$P$6))</f>
-        <v>5.8773606698627389E-3</v>
+        <v>5.2588823921239144E-3</v>
       </c>
       <c r="M30" s="219">
         <f ca="1">_xll.qlInterpolationInterpolate(BasisInterpolator,I30,,L30)</f>
-        <v>4.9176909611593636E-3</v>
+        <v>4.7968878828711561E-3</v>
       </c>
       <c r="N30" s="242">
         <f t="shared" ca="1" si="0"/>
-        <v>1.0795051631022103E-2</v>
+        <v>1.005577027499507E-2</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
@@ -13769,31 +13760,31 @@
       </c>
       <c r="G31" s="243">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I31)</f>
-        <v>42527</v>
+        <v>42529</v>
       </c>
       <c r="H31" s="205" t="str">
         <f>_xll.qlMakeDatedOIS(,I31,J31,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_003d6#0000</v>
+        <v>obj_00390#0001</v>
       </c>
       <c r="I31" s="243">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F31&amp;"M","mf")</f>
-        <v>42529</v>
+        <v>42531</v>
       </c>
       <c r="J31" s="243">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I31)</f>
-        <v>42894</v>
+        <v>42898</v>
       </c>
       <c r="L31" s="242">
         <f ca="1">_xll.qlOvernightIndexedSwapFairRate(H31,_xll.ohTrigger($P$2:$P$6))</f>
-        <v>6.2109856181069142E-3</v>
+        <v>5.5816555655468746E-3</v>
       </c>
       <c r="M31" s="219">
         <f ca="1">_xll.qlInterpolationInterpolate(BasisInterpolator,I31,,L31)</f>
-        <v>4.9606473974032478E-3</v>
+        <v>4.8428699336607768E-3</v>
       </c>
       <c r="N31" s="242">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1171633015510163E-2</v>
+        <v>1.0424525499207651E-2</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
@@ -13810,31 +13801,31 @@
       </c>
       <c r="G32" s="243">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I32)</f>
-        <v>42557</v>
+        <v>42558</v>
       </c>
       <c r="H32" s="205" t="str">
         <f>_xll.qlMakeDatedOIS(,I32,J32,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_003c7#0000</v>
+        <v>obj_0039d#0001</v>
       </c>
       <c r="I32" s="243">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F32&amp;"M","mf")</f>
-        <v>42559</v>
+        <v>42562</v>
       </c>
       <c r="J32" s="243">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I32)</f>
-        <v>42926</v>
+        <v>42927</v>
       </c>
       <c r="L32" s="242">
         <f ca="1">_xll.qlOvernightIndexedSwapFairRate(H32,_xll.ohTrigger($P$2:$P$6))</f>
-        <v>6.5583695745729635E-3</v>
+        <v>5.8866131187178174E-3</v>
       </c>
       <c r="M32" s="219">
         <f ca="1">_xll.qlInterpolationInterpolate(BasisInterpolator,I32,,L32)</f>
-        <v>5.0012661188813179E-3</v>
+        <v>4.8874932654533821E-3</v>
       </c>
       <c r="N32" s="242">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1559635693454282E-2</v>
+        <v>1.07741063841712E-2</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
@@ -13851,31 +13842,31 @@
       </c>
       <c r="G33" s="243">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I33)</f>
-        <v>42586</v>
+        <v>42590</v>
       </c>
       <c r="H33" s="205" t="str">
         <f>_xll.qlMakeDatedOIS(,I33,J33,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_003d8#0000</v>
+        <v>obj_0038e#0001</v>
       </c>
       <c r="I33" s="243">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F33&amp;"M","mf")</f>
-        <v>42590</v>
+        <v>42592</v>
       </c>
       <c r="J33" s="243">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I33)</f>
-        <v>42955</v>
+        <v>42957</v>
       </c>
       <c r="L33" s="242">
         <f ca="1">_xll.qlOvernightIndexedSwapFairRate(H33,_xll.ohTrigger($P$2:$P$6))</f>
-        <v>6.8960777698487937E-3</v>
+        <v>6.1947664763551827E-3</v>
       </c>
       <c r="M33" s="219">
         <f ca="1">_xll.qlInterpolationInterpolate(BasisInterpolator,I33,,L33)</f>
-        <v>5.0406296429802797E-3</v>
+        <v>4.929003179568907E-3</v>
       </c>
       <c r="N33" s="242">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1936707412829074E-2</v>
+        <v>1.112376965592409E-2</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
@@ -13892,31 +13883,31 @@
       </c>
       <c r="G34" s="243">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I34)</f>
-        <v>42619</v>
+        <v>42621</v>
       </c>
       <c r="H34" s="205" t="str">
         <f>_xll.qlMakeDatedOIS(,I34,J34,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_003b1#0000</v>
+        <v>obj_003ab#0001</v>
       </c>
       <c r="I34" s="243">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F34&amp;"M","mf")</f>
-        <v>42621</v>
+        <v>42625</v>
       </c>
       <c r="J34" s="243">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I34)</f>
-        <v>42986</v>
+        <v>42990</v>
       </c>
       <c r="L34" s="242">
         <f ca="1">_xll.qlOvernightIndexedSwapFairRate(H34,_xll.ohTrigger($P$2:$P$6))</f>
-        <v>7.2471893529671054E-3</v>
+        <v>6.5373496000533937E-3</v>
       </c>
       <c r="M34" s="219">
         <f ca="1">_xll.qlInterpolationInterpolate(BasisInterpolator,I34,,L34)</f>
-        <v>5.0771837596404745E-3</v>
+        <v>4.9723209542953265E-3</v>
       </c>
       <c r="N34" s="242">
         <f t="shared" ca="1" si="0"/>
-        <v>1.2324373112607579E-2</v>
+        <v>1.1509670554348719E-2</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.2">
@@ -13937,7 +13928,7 @@
       </c>
       <c r="H35" s="205" t="str">
         <f>_xll.qlMakeDatedOIS(,I35,J35,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_003d4#0000</v>
+        <v>obj_003af#0001</v>
       </c>
       <c r="I35" s="243">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F35&amp;"M","mf")</f>
@@ -13949,15 +13940,15 @@
       </c>
       <c r="L35" s="242">
         <f ca="1">_xll.qlOvernightIndexedSwapFairRate(H35,_xll.ohTrigger($P$2:$P$6))</f>
-        <v>7.6113501390099939E-3</v>
+        <v>6.8311696895764435E-3</v>
       </c>
       <c r="M35" s="219">
         <f ca="1">_xll.qlInterpolationInterpolate(BasisInterpolator,I35,,L35)</f>
-        <v>5.1118014606653384E-3</v>
+        <v>5.0067993690153913E-3</v>
       </c>
       <c r="N35" s="242">
         <f t="shared" ca="1" si="0"/>
-        <v>1.2723151599675332E-2</v>
+        <v>1.1837969058591835E-2</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
@@ -13974,31 +13965,31 @@
       </c>
       <c r="G36" s="243">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I36)</f>
-        <v>42678</v>
+        <v>42682</v>
       </c>
       <c r="H36" s="205" t="str">
         <f>_xll.qlMakeDatedOIS(,I36,J36,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_003c5#0000</v>
+        <v>obj_003b0#0001</v>
       </c>
       <c r="I36" s="243">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F36&amp;"M","mf")</f>
-        <v>42682</v>
+        <v>42684</v>
       </c>
       <c r="J36" s="243">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I36)</f>
-        <v>43047</v>
+        <v>43049</v>
       </c>
       <c r="L36" s="242">
         <f ca="1">_xll.qlOvernightIndexedSwapFairRate(H36,_xll.ohTrigger($P$2:$P$6))</f>
-        <v>7.9426465282036052E-3</v>
+        <v>7.1600254193792991E-3</v>
       </c>
       <c r="M36" s="219">
         <f ca="1">_xll.qlInterpolationInterpolate(BasisInterpolator,I36,,L36)</f>
-        <v>5.1402949484345506E-3</v>
+        <v>5.0421545295073521E-3</v>
       </c>
       <c r="N36" s="242">
         <f t="shared" ca="1" si="0"/>
-        <v>1.3082941476638157E-2</v>
+        <v>1.220217994888665E-2</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.2">
@@ -14015,31 +14006,31 @@
       </c>
       <c r="G37" s="243">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I37)</f>
-        <v>42710</v>
+        <v>42712</v>
       </c>
       <c r="H37" s="205" t="str">
         <f>_xll.qlMakeDatedOIS(,I37,J37,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_003cd#0000</v>
+        <v>obj_003b7#0001</v>
       </c>
       <c r="I37" s="243">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F37&amp;"M","mf")</f>
-        <v>42712</v>
+        <v>42716</v>
       </c>
       <c r="J37" s="243">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I37)</f>
-        <v>43077</v>
+        <v>43081</v>
       </c>
       <c r="L37" s="242">
         <f ca="1">_xll.qlOvernightIndexedSwapFairRate(H37,_xll.ohTrigger($P$2:$P$6))</f>
-        <v>8.2864091990488969E-3</v>
+        <v>7.5036138407518762E-3</v>
       </c>
       <c r="M37" s="219">
         <f ca="1">_xll.qlInterpolationInterpolate(BasisInterpolator,I37,,L37)</f>
-        <v>5.1667470899994551E-3</v>
+        <v>5.0751303851927993E-3</v>
       </c>
       <c r="N37" s="242">
         <f t="shared" ca="1" si="0"/>
-        <v>1.3453156289048352E-2</v>
+        <v>1.2578744225944676E-2</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.2">
@@ -14056,31 +14047,31 @@
       </c>
       <c r="G38" s="243">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I38)</f>
-        <v>42740</v>
+        <v>42741</v>
       </c>
       <c r="H38" s="205" t="str">
         <f>_xll.qlMakeDatedOIS(,I38,J38,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_003cf#0000</v>
+        <v>obj_0039a#0001</v>
       </c>
       <c r="I38" s="243">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F38&amp;"M","mf")</f>
-        <v>42744</v>
+        <v>42745</v>
       </c>
       <c r="J38" s="243">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I38)</f>
-        <v>43109</v>
+        <v>43110</v>
       </c>
       <c r="L38" s="242">
         <f ca="1">_xll.qlOvernightIndexedSwapFairRate(H38,_xll.ohTrigger($P$2:$P$6))</f>
-        <v>8.6539948574903963E-3</v>
+        <v>7.818793041550854E-3</v>
       </c>
       <c r="M38" s="219">
         <f ca="1">_xll.qlInterpolationInterpolate(BasisInterpolator,I38,,L38)</f>
-        <v>5.1914124356361932E-3</v>
+        <v>5.1015586070321884E-3</v>
       </c>
       <c r="N38" s="242">
         <f t="shared" ca="1" si="0"/>
-        <v>1.384540729312659E-2</v>
+        <v>1.2920351648583041E-2</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.2">
@@ -14097,31 +14088,31 @@
       </c>
       <c r="G39" s="243">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I39)</f>
-        <v>42772</v>
+        <v>42774</v>
       </c>
       <c r="H39" s="205" t="str">
         <f>_xll.qlMakeDatedOIS(,I39,J39,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_003bf#0000</v>
+        <v>obj_0039b#0001</v>
       </c>
       <c r="I39" s="243">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F39&amp;"M","mf")</f>
-        <v>42774</v>
+        <v>42776</v>
       </c>
       <c r="J39" s="243">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I39)</f>
-        <v>43139</v>
+        <v>43143</v>
       </c>
       <c r="L39" s="242">
         <f ca="1">_xll.qlOvernightIndexedSwapFairRate(H39,_xll.ohTrigger($P$2:$P$6))</f>
-        <v>8.9992058608894133E-3</v>
+        <v>8.1714556178820071E-3</v>
       </c>
       <c r="M39" s="219">
         <f ca="1">_xll.qlInterpolationInterpolate(BasisInterpolator,I39,,L39)</f>
-        <v>5.2110554174806447E-3</v>
+        <v>5.1257890202057029E-3</v>
       </c>
       <c r="N39" s="242">
         <f t="shared" ca="1" si="0"/>
-        <v>1.4210261278370058E-2</v>
+        <v>1.3297244638087711E-2</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.2">
@@ -14138,31 +14129,31 @@
       </c>
       <c r="G40" s="243">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I40)</f>
-        <v>42800</v>
+        <v>42802</v>
       </c>
       <c r="H40" s="205" t="str">
         <f>_xll.qlMakeDatedOIS(,I40,J40,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_003c8#0000</v>
+        <v>obj_003ac#0001</v>
       </c>
       <c r="I40" s="243">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F40&amp;"M","mf")</f>
-        <v>42802</v>
+        <v>42804</v>
       </c>
       <c r="J40" s="243">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I40)</f>
-        <v>43167</v>
+        <v>43171</v>
       </c>
       <c r="L40" s="242">
         <f ca="1">_xll.qlOvernightIndexedSwapFairRate(H40,_xll.ohTrigger($P$2:$P$6))</f>
-        <v>9.3217128395499307E-3</v>
+        <v>8.4835939551153438E-3</v>
       </c>
       <c r="M40" s="219">
         <f ca="1">_xll.qlInterpolationInterpolate(BasisInterpolator,I40,,L40)</f>
-        <v>5.2262195645714753E-3</v>
+        <v>5.1437753480876227E-3</v>
       </c>
       <c r="N40" s="242">
         <f t="shared" ca="1" si="0"/>
-        <v>1.4547932404121406E-2</v>
+        <v>1.3627369303202966E-2</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.2">
@@ -14179,31 +14170,31 @@
       </c>
       <c r="G41" s="243">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I41)</f>
-        <v>42859</v>
+        <v>42863</v>
       </c>
       <c r="H41" s="205" t="str">
         <f>_xll.qlMakeDatedOIS(,I41,J41,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_003d9#0000</v>
+        <v>obj_0038c#0001</v>
       </c>
       <c r="I41" s="243">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F41&amp;"M","mf")</f>
-        <v>42863</v>
+        <v>42865</v>
       </c>
       <c r="J41" s="243">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I41)</f>
-        <v>43228</v>
+        <v>43230</v>
       </c>
       <c r="L41" s="242">
         <f ca="1">_xll.qlOvernightIndexedSwapFairRate(H41,_xll.ohTrigger($P$2:$P$6))</f>
-        <v>1.0024456157474415E-2</v>
+        <v>9.1649247357981235E-3</v>
       </c>
       <c r="M41" s="219">
         <f ca="1">_xll.qlInterpolationInterpolate(BasisInterpolator,I41,,L41)</f>
-        <v>5.248147545765163E-3</v>
+        <v>5.1688035230410432E-3</v>
       </c>
       <c r="N41" s="242">
         <f t="shared" ca="1" si="0"/>
-        <v>1.5272603703239577E-2</v>
+        <v>1.4333728258839166E-2</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.2">
@@ -14220,31 +14211,31 @@
       </c>
       <c r="G42" s="243">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I42)</f>
-        <v>42892</v>
+        <v>42894</v>
       </c>
       <c r="H42" s="205" t="str">
         <f>_xll.qlMakeDatedOIS(,I42,J42,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_003ce#0000</v>
+        <v>obj_0039e#0001</v>
       </c>
       <c r="I42" s="243">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F42&amp;"M","mf")</f>
-        <v>42894</v>
+        <v>42898</v>
       </c>
       <c r="J42" s="243">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I42)</f>
-        <v>43259</v>
+        <v>43263</v>
       </c>
       <c r="L42" s="242">
         <f ca="1">_xll.qlOvernightIndexedSwapFairRate(H42,_xll.ohTrigger($P$2:$P$6))</f>
-        <v>1.0381496806242131E-2</v>
+        <v>9.5469233811650012E-3</v>
       </c>
       <c r="M42" s="219">
         <f ca="1">_xll.qlInterpolationInterpolate(BasisInterpolator,I42,,L42)</f>
-        <v>5.2536057073629839E-3</v>
+        <v>5.1743236487587253E-3</v>
       </c>
       <c r="N42" s="242">
         <f t="shared" ca="1" si="0"/>
-        <v>1.5635102513605115E-2</v>
+        <v>1.4721247029923726E-2</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.2">
@@ -14265,7 +14256,7 @@
       </c>
       <c r="H43" s="205" t="str">
         <f>_xll.qlMakeDatedOIS(,I43,J43,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_003c0#0000</v>
+        <v>obj_003a9#0001</v>
       </c>
       <c r="I43" s="243">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F43&amp;"M","mf")</f>
@@ -14277,15 +14268,15 @@
       </c>
       <c r="L43" s="242">
         <f ca="1">_xll.qlOvernightIndexedSwapFairRate(H43,_xll.ohTrigger($P$2:$P$6))</f>
-        <v>1.0750116996159352E-2</v>
+        <v>9.8741467016570071E-3</v>
       </c>
       <c r="M43" s="219">
         <f ca="1">_xll.qlInterpolationInterpolate(BasisInterpolator,I43,,L43)</f>
-        <v>5.2556689228628823E-3</v>
+        <v>5.1750757018983254E-3</v>
       </c>
       <c r="N43" s="242">
         <f t="shared" ca="1" si="0"/>
-        <v>1.6005785919022235E-2</v>
+        <v>1.5049222403555333E-2</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.2">
@@ -14302,31 +14293,31 @@
       </c>
       <c r="G44" s="243">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I44)</f>
-        <v>42951</v>
+        <v>42955</v>
       </c>
       <c r="H44" s="205" t="str">
         <f>_xll.qlMakeDatedOIS(,I44,J44,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_003b2#0000</v>
+        <v>obj_003a7#0001</v>
       </c>
       <c r="I44" s="243">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F44&amp;"M","mf")</f>
-        <v>42955</v>
+        <v>42957</v>
       </c>
       <c r="J44" s="243">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I44)</f>
-        <v>43320</v>
+        <v>43322</v>
       </c>
       <c r="L44" s="242">
         <f ca="1">_xll.qlOvernightIndexedSwapFairRate(H44,_xll.ohTrigger($P$2:$P$6))</f>
-        <v>1.1084333087617908E-2</v>
+        <v>1.0239075593120478E-2</v>
       </c>
       <c r="M44" s="219">
         <f ca="1">_xll.qlInterpolationInterpolate(BasisInterpolator,I44,,L44)</f>
-        <v>5.2547206229277797E-3</v>
+        <v>5.1721232908822105E-3</v>
       </c>
       <c r="N44" s="242">
         <f t="shared" ca="1" si="0"/>
-        <v>1.6339053710545687E-2</v>
+        <v>1.5411198884002688E-2</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.2">
@@ -14343,31 +14334,31 @@
       </c>
       <c r="G45" s="243">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I45)</f>
-        <v>42984</v>
+        <v>42985</v>
       </c>
       <c r="H45" s="205" t="str">
         <f>_xll.qlMakeDatedOIS(,I45,J45,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_003b3#0000</v>
+        <v>obj_0039f#0001</v>
       </c>
       <c r="I45" s="243">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F45&amp;"M","mf")</f>
-        <v>42986</v>
+        <v>42989</v>
       </c>
       <c r="J45" s="243">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I45)</f>
-        <v>43353</v>
+        <v>43354</v>
       </c>
       <c r="L45" s="242">
         <f ca="1">_xll.qlOvernightIndexedSwapFairRate(H45,_xll.ohTrigger($P$2:$P$6))</f>
-        <v>1.1453780638621488E-2</v>
+        <v>1.0617953484517592E-2</v>
       </c>
       <c r="M45" s="219">
         <f ca="1">_xll.qlInterpolationInterpolate(BasisInterpolator,I45,,L45)</f>
-        <v>5.2510754988489049E-3</v>
+        <v>5.1653671695217574E-3</v>
       </c>
       <c r="N45" s="242">
         <f t="shared" ca="1" si="0"/>
-        <v>1.6704856137470393E-2</v>
+        <v>1.578332065403935E-2</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.2">
@@ -14384,31 +14375,31 @@
       </c>
       <c r="G46" s="243">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I46)</f>
-        <v>43013</v>
+        <v>43014</v>
       </c>
       <c r="H46" s="205" t="str">
         <f>_xll.qlMakeDatedOIS(,I46,J46,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_003b0#0000</v>
+        <v>obj_003a4#0001</v>
       </c>
       <c r="I46" s="243">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F46&amp;"M","mf")</f>
-        <v>43017</v>
+        <v>43018</v>
       </c>
       <c r="J46" s="243">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I46)</f>
-        <v>43382</v>
+        <v>43383</v>
       </c>
       <c r="L46" s="242">
         <f ca="1">_xll.qlOvernightIndexedSwapFairRate(H46,_xll.ohTrigger($P$2:$P$6))</f>
-        <v>1.1799780597728743E-2</v>
+        <v>1.0962565114245036E-2</v>
       </c>
       <c r="M46" s="219">
         <f ca="1">_xll.qlInterpolationInterpolate(BasisInterpolator,I46,,L46)</f>
-        <v>5.245050197557579E-3</v>
+        <v>5.1564015582491627E-3</v>
       </c>
       <c r="N46" s="242">
         <f t="shared" ca="1" si="0"/>
-        <v>1.704483079528632E-2</v>
+        <v>1.6118966672494198E-2</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.2">
@@ -14425,31 +14416,31 @@
       </c>
       <c r="G47" s="243">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I47)</f>
-        <v>43045</v>
+        <v>43047</v>
       </c>
       <c r="H47" s="205" t="str">
         <f>_xll.qlMakeDatedOIS(,I47,J47,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_003c4#0000</v>
+        <v>obj_00394#0001</v>
       </c>
       <c r="I47" s="243">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F47&amp;"M","mf")</f>
-        <v>43047</v>
+        <v>43049</v>
       </c>
       <c r="J47" s="243">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I47)</f>
-        <v>43412</v>
+        <v>43416</v>
       </c>
       <c r="L47" s="242">
         <f ca="1">_xll.qlOvernightIndexedSwapFairRate(H47,_xll.ohTrigger($P$2:$P$6))</f>
-        <v>1.2146618252678968E-2</v>
+        <v>1.1343794663001998E-2</v>
       </c>
       <c r="M47" s="219">
         <f ca="1">_xll.qlInterpolationInterpolate(BasisInterpolator,I47,,L47)</f>
-        <v>5.237279297731802E-3</v>
+        <v>5.1442608990203099E-3</v>
       </c>
       <c r="N47" s="242">
         <f t="shared" ca="1" si="0"/>
-        <v>1.7383897550410768E-2</v>
+        <v>1.6488055562022309E-2</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.2">
@@ -14466,31 +14457,31 @@
       </c>
       <c r="G48" s="243">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I48)</f>
-        <v>43075</v>
+        <v>43076</v>
       </c>
       <c r="H48" s="205" t="str">
         <f>_xll.qlMakeDatedOIS(,I48,J48,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_003c3#0000</v>
+        <v>obj_0039c#0001</v>
       </c>
       <c r="I48" s="243">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F48&amp;"M","mf")</f>
-        <v>43077</v>
+        <v>43080</v>
       </c>
       <c r="J48" s="243">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I48)</f>
-        <v>43444</v>
+        <v>43445</v>
       </c>
       <c r="L48" s="242">
         <f ca="1">_xll.qlOvernightIndexedSwapFairRate(H48,_xll.ohTrigger($P$2:$P$6))</f>
-        <v>1.2506083338534053E-2</v>
+        <v>1.1700513175703026E-2</v>
       </c>
       <c r="M48" s="219">
         <f ca="1">_xll.qlInterpolationInterpolate(BasisInterpolator,I48,,L48)</f>
-        <v>5.2279176828221516E-3</v>
+        <v>5.1299202300787309E-3</v>
       </c>
       <c r="N48" s="242">
         <f t="shared" ca="1" si="0"/>
-        <v>1.7734001021356204E-2</v>
+        <v>1.6830433405781758E-2</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.2">
@@ -14507,31 +14498,31 @@
       </c>
       <c r="G49" s="243">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I49)</f>
-        <v>43104</v>
+        <v>43108</v>
       </c>
       <c r="H49" s="205" t="str">
         <f>_xll.qlMakeDatedOIS(,I49,J49,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_003ca#0000</v>
+        <v>obj_00393#0001</v>
       </c>
       <c r="I49" s="243">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F49&amp;"M","mf")</f>
-        <v>43108</v>
+        <v>43110</v>
       </c>
       <c r="J49" s="243">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I49)</f>
-        <v>43473</v>
+        <v>43475</v>
       </c>
       <c r="L49" s="242">
         <f ca="1">_xll.qlOvernightIndexedSwapFairRate(H49,_xll.ohTrigger($P$2:$P$6))</f>
-        <v>1.2853691368257232E-2</v>
+        <v>1.2056815278269016E-2</v>
       </c>
       <c r="M49" s="219">
         <f ca="1">_xll.qlInterpolationInterpolate(BasisInterpolator,I49,,L49)</f>
-        <v>5.2169063734734868E-3</v>
+        <v>5.1143728752339156E-3</v>
       </c>
       <c r="N49" s="242">
         <f t="shared" ca="1" si="0"/>
-        <v>1.8070597741730719E-2</v>
+        <v>1.717118815350293E-2</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.2">
@@ -14548,31 +14539,31 @@
       </c>
       <c r="G50" s="243">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I50)</f>
-        <v>43137</v>
+        <v>43139</v>
       </c>
       <c r="H50" s="205" t="str">
         <f>_xll.qlMakeDatedOIS(,I50,J50,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_003d2#0000</v>
+        <v>obj_003b2#0001</v>
       </c>
       <c r="I50" s="243">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F50&amp;"M","mf")</f>
-        <v>43139</v>
+        <v>43143</v>
       </c>
       <c r="J50" s="243">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I50)</f>
-        <v>43504</v>
+        <v>43508</v>
       </c>
       <c r="L50" s="242">
         <f ca="1">_xll.qlOvernightIndexedSwapFairRate(H50,_xll.ohTrigger($P$2:$P$6))</f>
-        <v>1.3214181693000182E-2</v>
+        <v>1.244711335235014E-2</v>
       </c>
       <c r="M50" s="219">
         <f ca="1">_xll.qlInterpolationInterpolate(BasisInterpolator,I50,,L50)</f>
-        <v>5.2048781809026015E-3</v>
+        <v>5.0958681689859241E-3</v>
       </c>
       <c r="N50" s="242">
         <f t="shared" ca="1" si="0"/>
-        <v>1.8419059873902785E-2</v>
+        <v>1.7542981521336064E-2</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.2">
@@ -14589,31 +14580,31 @@
       </c>
       <c r="G51" s="243">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I51)</f>
-        <v>43165</v>
+        <v>43167</v>
       </c>
       <c r="H51" s="205" t="str">
         <f>_xll.qlMakeDatedOIS(,I51,J51,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_003af#0000</v>
+        <v>obj_003a8#0001</v>
       </c>
       <c r="I51" s="243">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F51&amp;"M","mf")</f>
-        <v>43167</v>
+        <v>43171</v>
       </c>
       <c r="J51" s="243">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I51)</f>
-        <v>43532</v>
+        <v>43536</v>
       </c>
       <c r="L51" s="242">
         <f ca="1">_xll.qlOvernightIndexedSwapFairRate(H51,_xll.ohTrigger($P$2:$P$6))</f>
-        <v>1.3540579094885258E-2</v>
+        <v>1.2776300881824788E-2</v>
       </c>
       <c r="M51" s="219">
         <f ca="1">_xll.qlInterpolationInterpolate(BasisInterpolator,I51,,L51)</f>
-        <v>5.19342811683445E-3</v>
+        <v>5.0794076260635371E-3</v>
       </c>
       <c r="N51" s="242">
         <f t="shared" ca="1" si="0"/>
-        <v>1.8734007211719708E-2</v>
+        <v>1.7855708507888327E-2</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.2">
@@ -15391,7 +15382,7 @@
   <dimension ref="A1:P85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -15435,9 +15426,9 @@
         <f>Currency&amp;"_015_SyntheticQuotes"&amp;".xml"</f>
         <v>EUR_015_SyntheticQuotes.xml</v>
       </c>
-      <c r="D2" s="343">
+      <c r="D2" s="343" t="str">
         <f>IF(Serialize,_xll.ohObjectSave(D3:D84,SerializationPath&amp;C2,FileOverwrite,Serialize),"---")</f>
-        <v>82</v>
+        <v>---</v>
       </c>
       <c r="E2" s="283" t="str">
         <f>_xll.ohRangeRetrieveError(D2)</f>
@@ -15447,22 +15438,22 @@
       <c r="H2" s="184"/>
       <c r="I2" s="285"/>
       <c r="J2" s="286" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K2" s="185"/>
       <c r="L2" s="293" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M2" s="185"/>
       <c r="N2" s="285" t="s">
+        <v>84</v>
+      </c>
+      <c r="O2" s="297" t="s">
         <v>85</v>
-      </c>
-      <c r="O2" s="297" t="s">
-        <v>86</v>
       </c>
       <c r="P2" s="363">
         <f ca="1">_xll.ohTrigger(O3:O7)</f>
-        <v>75</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
@@ -15470,7 +15461,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="333" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C3" s="334" t="str">
         <f t="shared" ref="C3" si="0">Currency&amp;$B3&amp;"_SYNTH"&amp;Tenor1M&amp;QuoteSuffix</f>
@@ -15478,7 +15469,7 @@
       </c>
       <c r="D3" s="335" t="str">
         <f>_xll.qlSimpleQuote(C3,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>EURSND_SYNTH1M_Quote#0000</v>
+        <v>EURSND_SYNTH1M_Quote#0001</v>
       </c>
       <c r="E3" s="329" t="str">
         <f>_xll.ohRangeRetrieveError(D3)</f>
@@ -15487,14 +15478,14 @@
       <c r="F3" s="183"/>
       <c r="H3" s="184"/>
       <c r="I3" s="287" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J3" s="288">
         <f ca="1">SynthDepo!G34</f>
-        <v>2.5372129656339639E-3</v>
+        <v>2.7925199254175003E-3</v>
       </c>
       <c r="K3" s="188" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L3" s="294">
         <v>2.9146290747174021E-3</v>
@@ -15502,7 +15493,7 @@
       <c r="M3" s="185"/>
       <c r="N3" s="298">
         <f t="array" ref="N3:N84" ca="1">QuoteLive</f>
-        <v>2.5372129656339639E-3</v>
+        <v>2.7925199254175003E-3</v>
       </c>
       <c r="O3" s="299">
         <f ca="1">_xll.qlSimpleQuoteSetValue(D3,ROUND($N3,6),EvaluationDate)</f>
@@ -15516,7 +15507,7 @@
         <v>1M</v>
       </c>
       <c r="B4" s="336" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C4" s="189" t="str">
         <f t="shared" ref="C4:C7" si="1">Currency&amp;$B4&amp;"_SYNTH"&amp;Tenor1M&amp;QuoteSuffix</f>
@@ -15524,7 +15515,7 @@
       </c>
       <c r="D4" s="337" t="str">
         <f>_xll.qlSimpleQuote(C4,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>EURSWD_SYNTH1M_Quote#0000</v>
+        <v>EURSWD_SYNTH1M_Quote#0001</v>
       </c>
       <c r="E4" s="330" t="str">
         <f>_xll.ohRangeRetrieveError(D4)</f>
@@ -15533,14 +15524,14 @@
       <c r="F4" s="183"/>
       <c r="H4" s="184"/>
       <c r="I4" s="287" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J4" s="288">
         <f ca="1">SynthDepo!G35</f>
-        <v>2.2406893703087699E-3</v>
+        <v>2.3852580043920686E-3</v>
       </c>
       <c r="K4" s="188" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L4" s="294">
         <v>2.4233611268037218E-3</v>
@@ -15548,7 +15539,7 @@
       <c r="M4" s="185"/>
       <c r="N4" s="298">
         <f ca="1"/>
-        <v>2.2406893703087699E-3</v>
+        <v>2.3852580043920686E-3</v>
       </c>
       <c r="O4" s="299">
         <f ca="1">_xll.qlSimpleQuoteSetValue(D4,ROUND($N4,6),EvaluationDate)</f>
@@ -15559,7 +15550,7 @@
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="347"/>
       <c r="B5" s="336" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C5" s="189" t="str">
         <f t="shared" si="1"/>
@@ -15567,7 +15558,7 @@
       </c>
       <c r="D5" s="337" t="str">
         <f>_xll.qlSimpleQuote(C5,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>EUR2WD_SYNTH1M_Quote#0000</v>
+        <v>EUR2WD_SYNTH1M_Quote#0001</v>
       </c>
       <c r="E5" s="330" t="str">
         <f>_xll.ohRangeRetrieveError(D5)</f>
@@ -15576,14 +15567,14 @@
       <c r="F5" s="183"/>
       <c r="H5" s="184"/>
       <c r="I5" s="287" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J5" s="288">
         <f ca="1">SynthDepo!G36</f>
-        <v>2.4314118550131168E-3</v>
+        <v>2.5517857632822503E-3</v>
       </c>
       <c r="K5" s="188" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L5" s="294">
         <v>2.4516705317628863E-3</v>
@@ -15591,7 +15582,7 @@
       <c r="M5" s="185"/>
       <c r="N5" s="298">
         <f ca="1"/>
-        <v>2.4314118550131168E-3</v>
+        <v>2.5517857632822503E-3</v>
       </c>
       <c r="O5" s="299">
         <f ca="1">_xll.qlSimpleQuoteSetValue(D5,ROUND($N5,6),EvaluationDate)</f>
@@ -15602,7 +15593,7 @@
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="347"/>
       <c r="B6" s="336" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C6" s="189" t="str">
         <f t="shared" si="1"/>
@@ -15610,7 +15601,7 @@
       </c>
       <c r="D6" s="337" t="str">
         <f>_xll.qlSimpleQuote(C6,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>EUR3WD_SYNTH1M_Quote#0000</v>
+        <v>EUR3WD_SYNTH1M_Quote#0001</v>
       </c>
       <c r="E6" s="330" t="str">
         <f>_xll.ohRangeRetrieveError(D6)</f>
@@ -15619,14 +15610,14 @@
       <c r="F6" s="183"/>
       <c r="H6" s="184"/>
       <c r="I6" s="289" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J6" s="290">
         <f ca="1">SynthDepo!G37</f>
-        <v>2.392134332456811E-3</v>
+        <v>2.5821032015187042E-3</v>
       </c>
       <c r="K6" s="188" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L6" s="295">
         <v>2.3804025875864944E-3</v>
@@ -15634,7 +15625,7 @@
       <c r="M6" s="185"/>
       <c r="N6" s="300">
         <f ca="1"/>
-        <v>2.392134332456811E-3</v>
+        <v>2.5821032015187042E-3</v>
       </c>
       <c r="O6" s="301">
         <f ca="1">_xll.qlSimpleQuoteSetValue(D6,ROUND($N6,6),EvaluationDate)</f>
@@ -15645,7 +15636,7 @@
     <row r="7" spans="1:16" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="348"/>
       <c r="B7" s="344" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C7" s="284" t="str">
         <f t="shared" si="1"/>
@@ -15653,7 +15644,7 @@
       </c>
       <c r="D7" s="340" t="str">
         <f>_xll.qlSimpleQuote(C7,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>EUR1MD_SYNTH1M_Quote#0000</v>
+        <v>EUR1MD_SYNTH1M_Quote#0001</v>
       </c>
       <c r="E7" s="341" t="str">
         <f>_xll.ohRangeRetrieveError(D7)</f>
@@ -15662,14 +15653,14 @@
       <c r="F7" s="183"/>
       <c r="H7" s="307"/>
       <c r="I7" s="291" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J7" s="292">
         <f ca="1">SynthDepo!G38</f>
-        <v>2.3973489463127821E-3</v>
+        <v>2.5100000000000001E-3</v>
       </c>
       <c r="K7" s="308" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L7" s="296">
         <v>2.3385006679953737E-3</v>
@@ -15677,7 +15668,7 @@
       <c r="M7" s="307"/>
       <c r="N7" s="302">
         <f ca="1"/>
-        <v>2.3973489463127821E-3</v>
+        <v>2.5100000000000001E-3</v>
       </c>
       <c r="O7" s="303">
         <f ca="1">_xll.qlSimpleQuoteSetValue(D7,ROUND($N7,6),EvaluationDate)</f>
@@ -15690,7 +15681,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="333" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C8" s="334" t="str">
         <f t="shared" ref="C8:C14" si="2">Currency&amp;$B8&amp;"_SYNTH"&amp;Tenor3M&amp;QuoteSuffix</f>
@@ -15698,17 +15689,17 @@
       </c>
       <c r="D8" s="335" t="str">
         <f>_xll.qlSimpleQuote(C8,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>EURSND_SYNTH3M_Quote#0000</v>
+        <v>EURSND_SYNTH3M_Quote#0001</v>
       </c>
       <c r="E8" s="329"/>
       <c r="F8" s="191"/>
       <c r="H8" s="194"/>
       <c r="I8" s="309" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J8" s="310">
         <f ca="1">SynthDepo!H34</f>
-        <v>3.3620456171168395E-3</v>
+        <v>3.7320103641807151E-3</v>
       </c>
       <c r="K8" s="195"/>
       <c r="L8" s="311">
@@ -15717,7 +15708,7 @@
       <c r="M8" s="193"/>
       <c r="N8" s="312">
         <f ca="1"/>
-        <v>3.3620456171168395E-3</v>
+        <v>3.7320103641807151E-3</v>
       </c>
       <c r="O8" s="313">
         <f ca="1">_xll.qlSimpleQuoteSetValue(D8,ROUND($N8,6),EvaluationDate)</f>
@@ -15725,7 +15716,7 @@
       </c>
       <c r="P8" s="364">
         <f ca="1">_xll.ohTrigger(O8:O14)</f>
-        <v>75</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
@@ -15734,7 +15725,7 @@
         <v>3M</v>
       </c>
       <c r="B9" s="336" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C9" s="189" t="str">
         <f t="shared" si="2"/>
@@ -15742,17 +15733,17 @@
       </c>
       <c r="D9" s="337" t="str">
         <f>_xll.qlSimpleQuote(C9,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>EURSWD_SYNTH3M_Quote#0000</v>
+        <v>EURSWD_SYNTH3M_Quote#0001</v>
       </c>
       <c r="E9" s="330"/>
       <c r="F9" s="191"/>
       <c r="H9" s="194"/>
       <c r="I9" s="304" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J9" s="288">
         <f ca="1">SynthDepo!H35</f>
-        <v>3.0560035051119664E-3</v>
+        <v>3.3138763399278744E-3</v>
       </c>
       <c r="K9" s="195"/>
       <c r="L9" s="294">
@@ -15761,7 +15752,7 @@
       <c r="M9" s="193"/>
       <c r="N9" s="298">
         <f ca="1"/>
-        <v>3.0560035051119664E-3</v>
+        <v>3.3138763399278744E-3</v>
       </c>
       <c r="O9" s="299">
         <f ca="1">_xll.qlSimpleQuoteSetValue(D9,ROUND($N9,6),EvaluationDate)</f>
@@ -15772,7 +15763,7 @@
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="190"/>
       <c r="B10" s="336" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C10" s="189" t="str">
         <f t="shared" si="2"/>
@@ -15780,17 +15771,17 @@
       </c>
       <c r="D10" s="337" t="str">
         <f>_xll.qlSimpleQuote(C10,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>EUR2WD_SYNTH3M_Quote#0000</v>
+        <v>EUR2WD_SYNTH3M_Quote#0001</v>
       </c>
       <c r="E10" s="330"/>
       <c r="F10" s="191"/>
       <c r="H10" s="194"/>
       <c r="I10" s="304" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J10" s="288">
         <f ca="1">SynthDepo!H36</f>
-        <v>3.2356210536900213E-3</v>
+        <v>3.4677199783860785E-3</v>
       </c>
       <c r="K10" s="195"/>
       <c r="L10" s="294">
@@ -15799,7 +15790,7 @@
       <c r="M10" s="193"/>
       <c r="N10" s="298">
         <f ca="1"/>
-        <v>3.2356210536900213E-3</v>
+        <v>3.4677199783860785E-3</v>
       </c>
       <c r="O10" s="299">
         <f ca="1">_xll.qlSimpleQuoteSetValue(D10,ROUND($N10,6),EvaluationDate)</f>
@@ -15810,7 +15801,7 @@
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="190"/>
       <c r="B11" s="336" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C11" s="189" t="str">
         <f t="shared" si="2"/>
@@ -15818,17 +15809,17 @@
       </c>
       <c r="D11" s="337" t="str">
         <f>_xll.qlSimpleQuote(C11,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>EUR3WD_SYNTH3M_Quote#0000</v>
+        <v>EUR3WD_SYNTH3M_Quote#0001</v>
       </c>
       <c r="E11" s="330"/>
       <c r="F11" s="191"/>
       <c r="H11" s="194"/>
       <c r="I11" s="305" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J11" s="290">
         <f ca="1">SynthDepo!H37</f>
-        <v>3.1852385950074235E-3</v>
+        <v>3.4835412789859868E-3</v>
       </c>
       <c r="K11" s="195"/>
       <c r="L11" s="295">
@@ -15837,7 +15828,7 @@
       <c r="M11" s="193"/>
       <c r="N11" s="300">
         <f ca="1"/>
-        <v>3.1852385950074235E-3</v>
+        <v>3.4835412789859868E-3</v>
       </c>
       <c r="O11" s="301">
         <f ca="1">_xll.qlSimpleQuoteSetValue(D11,ROUND($N11,6),EvaluationDate)</f>
@@ -15848,7 +15839,7 @@
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="190"/>
       <c r="B12" s="336" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C12" s="189" t="str">
         <f t="shared" si="2"/>
@@ -15856,17 +15847,17 @@
       </c>
       <c r="D12" s="338" t="str">
         <f>_xll.qlSimpleQuote(C12,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>EUR1MD_SYNTH3M_Quote#0000</v>
+        <v>EUR1MD_SYNTH3M_Quote#0001</v>
       </c>
       <c r="E12" s="331"/>
       <c r="F12" s="191"/>
       <c r="H12" s="194"/>
       <c r="I12" s="304" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J12" s="288">
         <f ca="1">SynthDepo!H38</f>
-        <v>3.1761754338438765E-3</v>
+        <v>3.3933179054216004E-3</v>
       </c>
       <c r="K12" s="195"/>
       <c r="L12" s="294">
@@ -15875,7 +15866,7 @@
       <c r="M12" s="193"/>
       <c r="N12" s="298">
         <f ca="1"/>
-        <v>3.1761754338438765E-3</v>
+        <v>3.3933179054216004E-3</v>
       </c>
       <c r="O12" s="299">
         <f ca="1">_xll.qlSimpleQuoteSetValue(D12,ROUND($N12,6),EvaluationDate)</f>
@@ -15886,7 +15877,7 @@
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="190"/>
       <c r="B13" s="336" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C13" s="189" t="str">
         <f t="shared" si="2"/>
@@ -15894,17 +15885,17 @@
       </c>
       <c r="D13" s="338" t="str">
         <f>_xll.qlSimpleQuote(C13,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>EUR2MD_SYNTH3M_Quote#0000</v>
+        <v>EUR2MD_SYNTH3M_Quote#0001</v>
       </c>
       <c r="E13" s="331"/>
       <c r="F13" s="191"/>
       <c r="H13" s="194"/>
       <c r="I13" s="304" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J13" s="288">
         <f ca="1">SynthDepo!H39</f>
-        <v>3.1172841941458276E-3</v>
+        <v>3.3106701214006638E-3</v>
       </c>
       <c r="K13" s="195"/>
       <c r="L13" s="294">
@@ -15913,7 +15904,7 @@
       <c r="M13" s="193"/>
       <c r="N13" s="298">
         <f ca="1"/>
-        <v>3.1172841941458276E-3</v>
+        <v>3.3106701214006638E-3</v>
       </c>
       <c r="O13" s="299">
         <f ca="1">_xll.qlSimpleQuoteSetValue(D13,ROUND($N13,6),EvaluationDate)</f>
@@ -15924,7 +15915,7 @@
     <row r="14" spans="1:16" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="190"/>
       <c r="B14" s="339" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C14" s="284" t="str">
         <f t="shared" si="2"/>
@@ -15932,17 +15923,17 @@
       </c>
       <c r="D14" s="340" t="str">
         <f>_xll.qlSimpleQuote(C14,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>EUR3MD_SYNTH3M_Quote#0000</v>
+        <v>EUR3MD_SYNTH3M_Quote#0001</v>
       </c>
       <c r="E14" s="332"/>
       <c r="F14" s="191"/>
       <c r="H14" s="194"/>
       <c r="I14" s="306" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J14" s="292">
         <f ca="1">SynthDepo!H40</f>
-        <v>3.191414008170741E-3</v>
+        <v>3.2700000000000003E-3</v>
       </c>
       <c r="K14" s="195"/>
       <c r="L14" s="296">
@@ -15951,7 +15942,7 @@
       <c r="M14" s="193"/>
       <c r="N14" s="302">
         <f ca="1"/>
-        <v>3.191414008170741E-3</v>
+        <v>3.2700000000000003E-3</v>
       </c>
       <c r="O14" s="303">
         <f ca="1">_xll.qlSimpleQuoteSetValue(D14,ROUND($N14,6),EvaluationDate)</f>
@@ -15964,7 +15955,7 @@
         <v>6</v>
       </c>
       <c r="B15" s="349" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C15" s="334" t="str">
         <f t="shared" ref="C15:C24" si="3">Currency&amp;$B15&amp;"_SYNTH"&amp;Tenor6M&amp;QuoteSuffix</f>
@@ -15972,7 +15963,7 @@
       </c>
       <c r="D15" s="335" t="str">
         <f>_xll.qlSimpleQuote(C15,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>EURSND_SYNTH6M_Quote#0000</v>
+        <v>EURSND_SYNTH6M_Quote#0001</v>
       </c>
       <c r="E15" s="329" t="str">
         <f>_xll.ohRangeRetrieveError(D15)</f>
@@ -15981,11 +15972,11 @@
       <c r="F15" s="191"/>
       <c r="H15" s="194"/>
       <c r="I15" s="309" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J15" s="310">
         <f ca="1">SynthDepo!I34</f>
-        <v>4.7698401833291869E-3</v>
+        <v>5.0854752129963002E-3</v>
       </c>
       <c r="K15" s="195"/>
       <c r="L15" s="311">
@@ -15994,7 +15985,7 @@
       <c r="M15" s="193"/>
       <c r="N15" s="312">
         <f ca="1"/>
-        <v>4.7698401833291869E-3</v>
+        <v>5.0854752129963002E-3</v>
       </c>
       <c r="O15" s="313">
         <f ca="1">_xll.qlSimpleQuoteSetValue(D15,ROUND($N15,6),EvaluationDate)</f>
@@ -16002,7 +15993,7 @@
       </c>
       <c r="P15" s="365">
         <f ca="1">_xll.ohTrigger(O15:O24)</f>
-        <v>75</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
@@ -16011,7 +16002,7 @@
         <v>6M</v>
       </c>
       <c r="B16" s="350" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C16" s="189" t="str">
         <f t="shared" si="3"/>
@@ -16019,7 +16010,7 @@
       </c>
       <c r="D16" s="337" t="str">
         <f>_xll.qlSimpleQuote(C16,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>EURSWD_SYNTH6M_Quote#0000</v>
+        <v>EURSWD_SYNTH6M_Quote#0001</v>
       </c>
       <c r="E16" s="330" t="str">
         <f>_xll.ohRangeRetrieveError(D16)</f>
@@ -16028,11 +16019,11 @@
       <c r="F16" s="191"/>
       <c r="H16" s="194"/>
       <c r="I16" s="304" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J16" s="288">
         <f ca="1">SynthDepo!I35</f>
-        <v>4.439311321589084E-3</v>
+        <v>4.6562837224846266E-3</v>
       </c>
       <c r="K16" s="195"/>
       <c r="L16" s="294">
@@ -16041,7 +16032,7 @@
       <c r="M16" s="193"/>
       <c r="N16" s="298">
         <f ca="1"/>
-        <v>4.439311321589084E-3</v>
+        <v>4.6562837224846266E-3</v>
       </c>
       <c r="O16" s="299">
         <f ca="1">_xll.qlSimpleQuoteSetValue(D16,ROUND($N16,6),EvaluationDate)</f>
@@ -16052,7 +16043,7 @@
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="352"/>
       <c r="B17" s="350" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C17" s="189" t="str">
         <f t="shared" si="3"/>
@@ -16060,7 +16051,7 @@
       </c>
       <c r="D17" s="337" t="str">
         <f>_xll.qlSimpleQuote(C17,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>EUR2WD_SYNTH6M_Quote#0000</v>
+        <v>EUR2WD_SYNTH6M_Quote#0001</v>
       </c>
       <c r="E17" s="330" t="str">
         <f>_xll.ohRangeRetrieveError(D17)</f>
@@ -16069,11 +16060,11 @@
       <c r="F17" s="191"/>
       <c r="H17" s="192"/>
       <c r="I17" s="304" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J17" s="288">
         <f ca="1">SynthDepo!I36</f>
-        <v>4.5903609954760366E-3</v>
+        <v>4.7972269836408605E-3</v>
       </c>
       <c r="K17" s="195"/>
       <c r="L17" s="294">
@@ -16082,7 +16073,7 @@
       <c r="M17" s="193"/>
       <c r="N17" s="298">
         <f ca="1"/>
-        <v>4.5903609954760366E-3</v>
+        <v>4.7972269836408605E-3</v>
       </c>
       <c r="O17" s="299">
         <f ca="1">_xll.qlSimpleQuoteSetValue(D17,ROUND($N17,6),EvaluationDate)</f>
@@ -16093,7 +16084,7 @@
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" s="353"/>
       <c r="B18" s="350" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C18" s="189" t="str">
         <f t="shared" si="3"/>
@@ -16101,7 +16092,7 @@
       </c>
       <c r="D18" s="337" t="str">
         <f>_xll.qlSimpleQuote(C18,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>EUR3WD_SYNTH6M_Quote#0000</v>
+        <v>EUR3WD_SYNTH6M_Quote#0001</v>
       </c>
       <c r="E18" s="330" t="str">
         <f>_xll.ohRangeRetrieveError(D18)</f>
@@ -16110,11 +16101,11 @@
       <c r="F18" s="191"/>
       <c r="H18" s="192"/>
       <c r="I18" s="304" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J18" s="288">
         <f ca="1">SynthDepo!I37</f>
-        <v>4.5114106621023369E-3</v>
+        <v>4.7983049958956591E-3</v>
       </c>
       <c r="K18" s="195"/>
       <c r="L18" s="294">
@@ -16123,7 +16114,7 @@
       <c r="M18" s="193"/>
       <c r="N18" s="298">
         <f ca="1"/>
-        <v>4.5114106621023369E-3</v>
+        <v>4.7983049958956591E-3</v>
       </c>
       <c r="O18" s="299">
         <f ca="1">_xll.qlSimpleQuoteSetValue(D18,ROUND($N18,6),EvaluationDate)</f>
@@ -16134,7 +16125,7 @@
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" s="353"/>
       <c r="B19" s="350" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C19" s="189" t="str">
         <f t="shared" si="3"/>
@@ -16142,7 +16133,7 @@
       </c>
       <c r="D19" s="337" t="str">
         <f>_xll.qlSimpleQuote(C19,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>EUR1MD_SYNTH6M_Quote#0000</v>
+        <v>EUR1MD_SYNTH6M_Quote#0001</v>
       </c>
       <c r="E19" s="330" t="str">
         <f>_xll.ohRangeRetrieveError(D19)</f>
@@ -16151,11 +16142,11 @@
       <c r="F19" s="191"/>
       <c r="H19" s="192"/>
       <c r="I19" s="304" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J19" s="288">
         <f ca="1">SynthDepo!I38</f>
-        <v>4.4656173763359449E-3</v>
+        <v>4.6896525118998861E-3</v>
       </c>
       <c r="K19" s="195"/>
       <c r="L19" s="294">
@@ -16164,7 +16155,7 @@
       <c r="M19" s="193"/>
       <c r="N19" s="298">
         <f ca="1"/>
-        <v>4.4656173763359449E-3</v>
+        <v>4.6896525118998861E-3</v>
       </c>
       <c r="O19" s="299">
         <f ca="1">_xll.qlSimpleQuoteSetValue(D19,ROUND($N19,6),EvaluationDate)</f>
@@ -16175,7 +16166,7 @@
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" s="353"/>
       <c r="B20" s="350" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C20" s="189" t="str">
         <f t="shared" si="3"/>
@@ -16183,7 +16174,7 @@
       </c>
       <c r="D20" s="337" t="str">
         <f>_xll.qlSimpleQuote(C20,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>EUR2MD_SYNTH6M_Quote#0000</v>
+        <v>EUR2MD_SYNTH6M_Quote#0001</v>
       </c>
       <c r="E20" s="330" t="str">
         <f>_xll.ohRangeRetrieveError(D20)</f>
@@ -16192,11 +16183,11 @@
       <c r="F20" s="191"/>
       <c r="H20" s="192"/>
       <c r="I20" s="304" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J20" s="288">
         <f ca="1">SynthDepo!I39</f>
-        <v>4.2761301380500024E-3</v>
+        <v>4.55356030762793E-3</v>
       </c>
       <c r="K20" s="195"/>
       <c r="L20" s="294">
@@ -16205,7 +16196,7 @@
       <c r="M20" s="193"/>
       <c r="N20" s="298">
         <f ca="1"/>
-        <v>4.2761301380500024E-3</v>
+        <v>4.55356030762793E-3</v>
       </c>
       <c r="O20" s="299">
         <f ca="1">_xll.qlSimpleQuoteSetValue(D20,ROUND($N20,6),EvaluationDate)</f>
@@ -16216,7 +16207,7 @@
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" s="353"/>
       <c r="B21" s="350" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C21" s="189" t="str">
         <f t="shared" si="3"/>
@@ -16224,7 +16215,7 @@
       </c>
       <c r="D21" s="337" t="str">
         <f>_xll.qlSimpleQuote(C21,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>EUR3MD_SYNTH6M_Quote#0000</v>
+        <v>EUR3MD_SYNTH6M_Quote#0001</v>
       </c>
       <c r="E21" s="330" t="str">
         <f>_xll.ohRangeRetrieveError(D21)</f>
@@ -16233,11 +16224,11 @@
       <c r="F21" s="191"/>
       <c r="H21" s="192"/>
       <c r="I21" s="304" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J21" s="288">
         <f ca="1">SynthDepo!I40</f>
-        <v>4.2319073283546369E-3</v>
+        <v>4.4576028549331067E-3</v>
       </c>
       <c r="K21" s="195"/>
       <c r="L21" s="294">
@@ -16246,7 +16237,7 @@
       <c r="M21" s="193"/>
       <c r="N21" s="298">
         <f ca="1"/>
-        <v>4.2319073283546369E-3</v>
+        <v>4.4576028549331067E-3</v>
       </c>
       <c r="O21" s="299">
         <f ca="1">_xll.qlSimpleQuoteSetValue(D21,ROUND($N21,6),EvaluationDate)</f>
@@ -16257,7 +16248,7 @@
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" s="353"/>
       <c r="B22" s="350" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C22" s="189" t="str">
         <f t="shared" si="3"/>
@@ -16265,7 +16256,7 @@
       </c>
       <c r="D22" s="337" t="str">
         <f>_xll.qlSimpleQuote(C22,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>EUR4MD_SYNTH6M_Quote#0000</v>
+        <v>EUR4MD_SYNTH6M_Quote#0001</v>
       </c>
       <c r="E22" s="330" t="str">
         <f>_xll.ohRangeRetrieveError(D22)</f>
@@ -16274,11 +16265,11 @@
       <c r="F22" s="191"/>
       <c r="H22" s="192"/>
       <c r="I22" s="304" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J22" s="288">
         <f ca="1">SynthDepo!I41</f>
-        <v>4.2108415662658561E-3</v>
+        <v>4.3619149053915254E-3</v>
       </c>
       <c r="K22" s="195"/>
       <c r="L22" s="294">
@@ -16287,7 +16278,7 @@
       <c r="M22" s="193"/>
       <c r="N22" s="298">
         <f ca="1"/>
-        <v>4.2108415662658561E-3</v>
+        <v>4.3619149053915254E-3</v>
       </c>
       <c r="O22" s="299">
         <f ca="1">_xll.qlSimpleQuoteSetValue(D22,ROUND($N22,6),EvaluationDate)</f>
@@ -16298,7 +16289,7 @@
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" s="353"/>
       <c r="B23" s="350" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C23" s="189" t="str">
         <f t="shared" si="3"/>
@@ -16306,7 +16297,7 @@
       </c>
       <c r="D23" s="337" t="str">
         <f>_xll.qlSimpleQuote(C23,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>EUR5MD_SYNTH6M_Quote#0000</v>
+        <v>EUR5MD_SYNTH6M_Quote#0001</v>
       </c>
       <c r="E23" s="330" t="str">
         <f>_xll.ohRangeRetrieveError(D23)</f>
@@ -16315,11 +16306,11 @@
       <c r="F23" s="191"/>
       <c r="H23" s="192"/>
       <c r="I23" s="304" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J23" s="288">
         <f ca="1">SynthDepo!I42</f>
-        <v>4.2197758041782728E-3</v>
+        <v>4.3059574526954913E-3</v>
       </c>
       <c r="K23" s="195"/>
       <c r="L23" s="294">
@@ -16328,7 +16319,7 @@
       <c r="M23" s="193"/>
       <c r="N23" s="298">
         <f ca="1"/>
-        <v>4.2197758041782728E-3</v>
+        <v>4.3059574526954913E-3</v>
       </c>
       <c r="O23" s="299">
         <f ca="1">_xll.qlSimpleQuoteSetValue(D23,ROUND($N23,6),EvaluationDate)</f>
@@ -16339,7 +16330,7 @@
     <row r="24" spans="1:16" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="354"/>
       <c r="B24" s="344" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C24" s="284" t="str">
         <f t="shared" si="3"/>
@@ -16347,7 +16338,7 @@
       </c>
       <c r="D24" s="351" t="str">
         <f>_xll.qlSimpleQuote(C24,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>EUR6MD_SYNTH6M_Quote#0000</v>
+        <v>EUR6MD_SYNTH6M_Quote#0001</v>
       </c>
       <c r="E24" s="330" t="str">
         <f>_xll.ohRangeRetrieveError(D24)</f>
@@ -16356,11 +16347,11 @@
       <c r="F24" s="191"/>
       <c r="H24" s="192"/>
       <c r="I24" s="306" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J24" s="292">
         <f ca="1">SynthDepo!I43</f>
-        <v>4.2271315182885252E-3</v>
+        <v>4.2599999999999999E-3</v>
       </c>
       <c r="K24" s="195"/>
       <c r="L24" s="296">
@@ -16369,7 +16360,7 @@
       <c r="M24" s="193"/>
       <c r="N24" s="302">
         <f ca="1"/>
-        <v>4.2271315182885252E-3</v>
+        <v>4.2599999999999999E-3</v>
       </c>
       <c r="O24" s="303">
         <f ca="1">_xll.qlSimpleQuoteSetValue(D24,ROUND($N24,6),EvaluationDate)</f>
@@ -16382,7 +16373,7 @@
         <v>12</v>
       </c>
       <c r="B25" s="333" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C25" s="334" t="str">
         <f t="shared" ref="C25:C40" si="4">Currency&amp;$B25&amp;"_SYNTH"&amp;Tenor12M&amp;QuoteSuffix</f>
@@ -16390,7 +16381,7 @@
       </c>
       <c r="D25" s="335" t="str">
         <f>_xll.qlSimpleQuote(C25,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>EURSND_SYNTH1Y_Quote#0000</v>
+        <v>EURSND_SYNTH1Y_Quote#0001</v>
       </c>
       <c r="E25" s="329" t="str">
         <f>_xll.ohRangeRetrieveError(D25)</f>
@@ -16399,11 +16390,11 @@
       <c r="F25" s="200"/>
       <c r="H25" s="194"/>
       <c r="I25" s="314" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J25" s="310">
         <f ca="1">SynthDepo!J34</f>
-        <v>6.9611349604151744E-3</v>
+        <v>7.073975067342547E-3</v>
       </c>
       <c r="K25" s="195"/>
       <c r="L25" s="311">
@@ -16412,7 +16403,7 @@
       <c r="M25" s="193"/>
       <c r="N25" s="312">
         <f ca="1"/>
-        <v>6.9611349604151744E-3</v>
+        <v>7.073975067342547E-3</v>
       </c>
       <c r="O25" s="313">
         <f ca="1">_xll.qlSimpleQuoteSetValue(D25,ROUND($N25,6),EvaluationDate)</f>
@@ -16420,7 +16411,7 @@
       </c>
       <c r="P25" s="365">
         <f ca="1">_xll.ohTrigger(O25:O40)</f>
-        <v>75</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
@@ -16429,7 +16420,7 @@
         <v>1Y</v>
       </c>
       <c r="B26" s="336" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C26" s="189" t="str">
         <f t="shared" si="4"/>
@@ -16437,7 +16428,7 @@
       </c>
       <c r="D26" s="337" t="str">
         <f>_xll.qlSimpleQuote(C26,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>EURSWD_SYNTH1Y_Quote#0000</v>
+        <v>EURSWD_SYNTH1Y_Quote#0001</v>
       </c>
       <c r="E26" s="330" t="str">
         <f>_xll.ohRangeRetrieveError(D26)</f>
@@ -16446,11 +16437,11 @@
       <c r="F26" s="200"/>
       <c r="H26" s="194"/>
       <c r="I26" s="315" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J26" s="288">
         <f ca="1">SynthDepo!J35</f>
-        <v>6.621074538019224E-3</v>
+        <v>6.6425908629634007E-3</v>
       </c>
       <c r="K26" s="195"/>
       <c r="L26" s="294">
@@ -16459,7 +16450,7 @@
       <c r="M26" s="193"/>
       <c r="N26" s="298">
         <f ca="1"/>
-        <v>6.621074538019224E-3</v>
+        <v>6.6425908629634007E-3</v>
       </c>
       <c r="O26" s="299">
         <f ca="1">_xll.qlSimpleQuoteSetValue(D26,ROUND($N26,6),EvaluationDate)</f>
@@ -16470,7 +16461,7 @@
     <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" s="353"/>
       <c r="B27" s="336" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C27" s="189" t="str">
         <f t="shared" si="4"/>
@@ -16478,7 +16469,7 @@
       </c>
       <c r="D27" s="337" t="str">
         <f>_xll.qlSimpleQuote(C27,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>EUR2WD_SYNTH1Y_Quote#0000</v>
+        <v>EUR2WD_SYNTH1Y_Quote#0001</v>
       </c>
       <c r="E27" s="330" t="str">
         <f>_xll.ohRangeRetrieveError(D27)</f>
@@ -16487,11 +16478,11 @@
       <c r="F27" s="200"/>
       <c r="H27" s="192"/>
       <c r="I27" s="315" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J27" s="288">
         <f ca="1">SynthDepo!J36</f>
-        <v>6.7610040578076867E-3</v>
+        <v>6.7809759579409157E-3</v>
       </c>
       <c r="K27" s="195"/>
       <c r="L27" s="294">
@@ -16500,7 +16491,7 @@
       <c r="M27" s="193"/>
       <c r="N27" s="298">
         <f ca="1"/>
-        <v>6.7610040578076867E-3</v>
+        <v>6.7809759579409157E-3</v>
       </c>
       <c r="O27" s="299">
         <f ca="1">_xll.qlSimpleQuoteSetValue(D27,ROUND($N27,6),EvaluationDate)</f>
@@ -16511,7 +16502,7 @@
     <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" s="353"/>
       <c r="B28" s="336" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C28" s="189" t="str">
         <f t="shared" si="4"/>
@@ -16519,7 +16510,7 @@
       </c>
       <c r="D28" s="337" t="str">
         <f>_xll.qlSimpleQuote(C28,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>EUR3WD_SYNTH1Y_Quote#0000</v>
+        <v>EUR3WD_SYNTH1Y_Quote#0001</v>
       </c>
       <c r="E28" s="330" t="str">
         <f>_xll.ohRangeRetrieveError(D28)</f>
@@ -16528,11 +16519,11 @@
       <c r="F28" s="200"/>
       <c r="H28" s="192"/>
       <c r="I28" s="315" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J28" s="288">
         <f ca="1">SynthDepo!J37</f>
-        <v>6.670933570335498E-3</v>
+        <v>6.7791303517057509E-3</v>
       </c>
       <c r="K28" s="195"/>
       <c r="L28" s="294">
@@ -16541,7 +16532,7 @@
       <c r="M28" s="193"/>
       <c r="N28" s="298">
         <f ca="1"/>
-        <v>6.670933570335498E-3</v>
+        <v>6.7791303517057509E-3</v>
       </c>
       <c r="O28" s="299">
         <f ca="1">_xll.qlSimpleQuoteSetValue(D28,ROUND($N28,6),EvaluationDate)</f>
@@ -16552,7 +16543,7 @@
     <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" s="353"/>
       <c r="B29" s="336" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C29" s="189" t="str">
         <f t="shared" si="4"/>
@@ -16560,7 +16551,7 @@
       </c>
       <c r="D29" s="337" t="str">
         <f>_xll.qlSimpleQuote(C29,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>EUR1MD_SYNTH1Y_Quote#0000</v>
+        <v>EUR1MD_SYNTH1Y_Quote#0001</v>
       </c>
       <c r="E29" s="330" t="str">
         <f>_xll.ohRangeRetrieveError(D29)</f>
@@ -16569,11 +16560,11 @@
       <c r="F29" s="200"/>
       <c r="H29" s="192"/>
       <c r="I29" s="316" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J29" s="290">
         <f ca="1">SynthDepo!J38</f>
-        <v>6.6108429435853327E-3</v>
+        <v>6.6668233445975229E-3</v>
       </c>
       <c r="K29" s="195"/>
       <c r="L29" s="295">
@@ -16582,7 +16573,7 @@
       <c r="M29" s="193"/>
       <c r="N29" s="300">
         <f ca="1"/>
-        <v>6.6108429435853327E-3</v>
+        <v>6.6668233445975229E-3</v>
       </c>
       <c r="O29" s="301">
         <f ca="1">_xll.qlSimpleQuoteSetValue(D29,ROUND($N29,6),EvaluationDate)</f>
@@ -16593,7 +16584,7 @@
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" s="353"/>
       <c r="B30" s="336" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C30" s="189" t="str">
         <f t="shared" si="4"/>
@@ -16601,7 +16592,7 @@
       </c>
       <c r="D30" s="337" t="str">
         <f>_xll.qlSimpleQuote(C30,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>EUR2MD_SYNTH1Y_Quote#0000</v>
+        <v>EUR2MD_SYNTH1Y_Quote#0001</v>
       </c>
       <c r="E30" s="330" t="str">
         <f>_xll.ohRangeRetrieveError(D30)</f>
@@ -16610,11 +16601,11 @@
       <c r="F30" s="200"/>
       <c r="H30" s="192"/>
       <c r="I30" s="315" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J30" s="288">
         <f ca="1">SynthDepo!J39</f>
-        <v>6.3705207151348656E-3</v>
+        <v>6.5201330232994448E-3</v>
       </c>
       <c r="K30" s="195"/>
       <c r="L30" s="294">
@@ -16623,7 +16614,7 @@
       <c r="M30" s="193"/>
       <c r="N30" s="298">
         <f ca="1"/>
-        <v>6.3705207151348656E-3</v>
+        <v>6.5201330232994448E-3</v>
       </c>
       <c r="O30" s="299">
         <f ca="1">_xll.qlSimpleQuoteSetValue(D30,ROUND($N30,6),EvaluationDate)</f>
@@ -16634,7 +16625,7 @@
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" s="353"/>
       <c r="B31" s="336" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C31" s="189" t="str">
         <f t="shared" si="4"/>
@@ -16642,7 +16633,7 @@
       </c>
       <c r="D31" s="337" t="str">
         <f>_xll.qlSimpleQuote(C31,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>EUR3MD_SYNTH1Y_Quote#0000</v>
+        <v>EUR3MD_SYNTH1Y_Quote#0001</v>
       </c>
       <c r="E31" s="330" t="str">
         <f>_xll.ohRangeRetrieveError(D31)</f>
@@ -16651,11 +16642,11 @@
       <c r="F31" s="200"/>
       <c r="H31" s="192"/>
       <c r="I31" s="315" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J31" s="288">
         <f ca="1">SynthDepo!J40</f>
-        <v>6.2802286956029005E-3</v>
+        <v>6.4132120012672569E-3</v>
       </c>
       <c r="K31" s="195"/>
       <c r="L31" s="294">
@@ -16664,7 +16655,7 @@
       <c r="M31" s="193"/>
       <c r="N31" s="298">
         <f ca="1"/>
-        <v>6.2802286956029005E-3</v>
+        <v>6.4132120012672569E-3</v>
       </c>
       <c r="O31" s="299">
         <f ca="1">_xll.qlSimpleQuoteSetValue(D31,ROUND($N31,6),EvaluationDate)</f>
@@ -16675,7 +16666,7 @@
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32" s="353"/>
       <c r="B32" s="336" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C32" s="189" t="str">
         <f t="shared" si="4"/>
@@ -16683,7 +16674,7 @@
       </c>
       <c r="D32" s="337" t="str">
         <f>_xll.qlSimpleQuote(C32,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>EUR4MD_SYNTH1Y_Quote#0000</v>
+        <v>EUR4MD_SYNTH1Y_Quote#0001</v>
       </c>
       <c r="E32" s="330" t="str">
         <f>_xll.ohRangeRetrieveError(D32)</f>
@@ -16692,11 +16683,11 @@
       <c r="F32" s="200"/>
       <c r="H32" s="192"/>
       <c r="I32" s="315" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J32" s="288">
         <f ca="1">SynthDepo!J41</f>
-        <v>6.2099165367922376E-3</v>
+        <v>6.3058295777658176E-3</v>
       </c>
       <c r="K32" s="195"/>
       <c r="L32" s="294">
@@ -16705,7 +16696,7 @@
       <c r="M32" s="193"/>
       <c r="N32" s="298">
         <f ca="1"/>
-        <v>6.2099165367922376E-3</v>
+        <v>6.3058295777658176E-3</v>
       </c>
       <c r="O32" s="299">
         <f ca="1">_xll.qlSimpleQuoteSetValue(D32,ROUND($N32,6),EvaluationDate)</f>
@@ -16716,7 +16707,7 @@
     <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" s="353"/>
       <c r="B33" s="336" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C33" s="189" t="str">
         <f t="shared" si="4"/>
@@ -16724,7 +16715,7 @@
       </c>
       <c r="D33" s="337" t="str">
         <f>_xll.qlSimpleQuote(C33,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>EUR5MD_SYNTH1Y_Quote#0000</v>
+        <v>EUR5MD_SYNTH1Y_Quote#0001</v>
       </c>
       <c r="E33" s="330" t="str">
         <f>_xll.ohRangeRetrieveError(D33)</f>
@@ -16733,11 +16724,11 @@
       <c r="F33" s="200"/>
       <c r="H33" s="194"/>
       <c r="I33" s="315" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J33" s="288">
         <f ca="1">SynthDepo!J42</f>
-        <v>6.1696043779827731E-3</v>
+        <v>6.238908555732418E-3</v>
       </c>
       <c r="K33" s="195"/>
       <c r="L33" s="294">
@@ -16746,7 +16737,7 @@
       <c r="M33" s="193"/>
       <c r="N33" s="298">
         <f ca="1"/>
-        <v>6.1696043779827731E-3</v>
+        <v>6.238908555732418E-3</v>
       </c>
       <c r="O33" s="299">
         <f ca="1">_xll.qlSimpleQuoteSetValue(D33,ROUND($N33,6),EvaluationDate)</f>
@@ -16757,7 +16748,7 @@
     <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34" s="353"/>
       <c r="B34" s="336" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C34" s="189" t="str">
         <f t="shared" si="4"/>
@@ -16765,7 +16756,7 @@
       </c>
       <c r="D34" s="337" t="str">
         <f>_xll.qlSimpleQuote(C34,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>EUR6MD_SYNTH1Y_Quote#0000</v>
+        <v>EUR6MD_SYNTH1Y_Quote#0001</v>
       </c>
       <c r="E34" s="330" t="str">
         <f>_xll.ohRangeRetrieveError(D34)</f>
@@ -16774,11 +16765,11 @@
       <c r="F34" s="200"/>
       <c r="H34" s="194"/>
       <c r="I34" s="315" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J34" s="288">
         <f ca="1">SynthDepo!J43</f>
-        <v>6.1293022888137833E-3</v>
+        <v>6.181987533699561E-3</v>
       </c>
       <c r="K34" s="195"/>
       <c r="L34" s="294">
@@ -16787,7 +16778,7 @@
       <c r="M34" s="193"/>
       <c r="N34" s="298">
         <f ca="1"/>
-        <v>6.1293022888137833E-3</v>
+        <v>6.181987533699561E-3</v>
       </c>
       <c r="O34" s="299">
         <f ca="1">_xll.qlSimpleQuoteSetValue(D34,ROUND($N34,6),EvaluationDate)</f>
@@ -16798,7 +16789,7 @@
     <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35" s="353"/>
       <c r="B35" s="336" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C35" s="189" t="str">
         <f t="shared" si="4"/>
@@ -16806,7 +16797,7 @@
       </c>
       <c r="D35" s="337" t="str">
         <f>_xll.qlSimpleQuote(C35,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>EUR7MD_SYNTH1Y_Quote#0000</v>
+        <v>EUR7MD_SYNTH1Y_Quote#0001</v>
       </c>
       <c r="E35" s="330" t="str">
         <f>_xll.ohRangeRetrieveError(D35)</f>
@@ -16815,11 +16806,11 @@
       <c r="F35" s="200"/>
       <c r="H35" s="194"/>
       <c r="I35" s="315" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J35" s="288">
         <f ca="1">SynthDepo!J44</f>
-        <v>6.0789699907332836E-3</v>
+        <v>6.1148358109321737E-3</v>
       </c>
       <c r="K35" s="195"/>
       <c r="L35" s="294">
@@ -16828,7 +16819,7 @@
       <c r="M35" s="193"/>
       <c r="N35" s="298">
         <f ca="1"/>
-        <v>6.0789699907332836E-3</v>
+        <v>6.1148358109321737E-3</v>
       </c>
       <c r="O35" s="299">
         <f ca="1">_xll.qlSimpleQuoteSetValue(D35,ROUND($N35,6),EvaluationDate)</f>
@@ -16839,7 +16830,7 @@
     <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36" s="353"/>
       <c r="B36" s="336" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C36" s="189" t="str">
         <f t="shared" si="4"/>
@@ -16847,7 +16838,7 @@
       </c>
       <c r="D36" s="337" t="str">
         <f>_xll.qlSimpleQuote(C36,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>EUR8MD_SYNTH1Y_Quote#0000</v>
+        <v>EUR8MD_SYNTH1Y_Quote#0001</v>
       </c>
       <c r="E36" s="330" t="str">
         <f>_xll.ohRangeRetrieveError(D36)</f>
@@ -16856,11 +16847,11 @@
       <c r="F36" s="200"/>
       <c r="H36" s="194"/>
       <c r="I36" s="315" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J36" s="288">
         <f ca="1">SynthDepo!J45</f>
-        <v>6.048688040837513E-3</v>
+        <v>6.0679147888992252E-3</v>
       </c>
       <c r="K36" s="195"/>
       <c r="L36" s="294">
@@ -16869,7 +16860,7 @@
       <c r="M36" s="193"/>
       <c r="N36" s="298">
         <f ca="1"/>
-        <v>6.048688040837513E-3</v>
+        <v>6.0679147888992252E-3</v>
       </c>
       <c r="O36" s="299">
         <f ca="1">_xll.qlSimpleQuoteSetValue(D36,ROUND($N36,6),EvaluationDate)</f>
@@ -16880,7 +16871,7 @@
     <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37" s="357"/>
       <c r="B37" s="336" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C37" s="189" t="str">
         <f t="shared" si="4"/>
@@ -16888,7 +16879,7 @@
       </c>
       <c r="D37" s="337" t="str">
         <f>_xll.qlSimpleQuote(C37,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>EUR9MD_SYNTH1Y_Quote#0000</v>
+        <v>EUR9MD_SYNTH1Y_Quote#0001</v>
       </c>
       <c r="E37" s="330" t="str">
         <f>_xll.ohRangeRetrieveError(D37)</f>
@@ -16897,11 +16888,11 @@
       <c r="F37" s="200"/>
       <c r="H37" s="194"/>
       <c r="I37" s="315" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J37" s="288">
         <f ca="1">SynthDepo!J46</f>
-        <v>6.0383758820325749E-3</v>
+        <v>6.0403016646630031E-3</v>
       </c>
       <c r="K37" s="195"/>
       <c r="L37" s="294">
@@ -16910,7 +16901,7 @@
       <c r="M37" s="193"/>
       <c r="N37" s="298">
         <f ca="1"/>
-        <v>6.0383758820325749E-3</v>
+        <v>6.0403016646630031E-3</v>
       </c>
       <c r="O37" s="299">
         <f ca="1">_xll.qlSimpleQuoteSetValue(D37,ROUND($N37,6),EvaluationDate)</f>
@@ -16921,7 +16912,7 @@
     <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A38" s="358"/>
       <c r="B38" s="336" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C38" s="189" t="str">
         <f t="shared" si="4"/>
@@ -16929,7 +16920,7 @@
       </c>
       <c r="D38" s="337" t="str">
         <f>_xll.qlSimpleQuote(C38,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>EUR10MD_SYNTH1Y_Quote#0000</v>
+        <v>EUR10MD_SYNTH1Y_Quote#0001</v>
       </c>
       <c r="E38" s="330" t="str">
         <f>_xll.ohRangeRetrieveError(D38)</f>
@@ -16938,11 +16929,11 @@
       <c r="F38" s="200"/>
       <c r="H38" s="194"/>
       <c r="I38" s="315" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J38" s="288">
         <f ca="1">SynthDepo!J47</f>
-        <v>6.0180536535821812E-3</v>
+        <v>6.0136113433644509E-3</v>
       </c>
       <c r="K38" s="195"/>
       <c r="L38" s="294">
@@ -16951,7 +16942,7 @@
       <c r="M38" s="193"/>
       <c r="N38" s="298">
         <f ca="1"/>
-        <v>6.0180536535821812E-3</v>
+        <v>6.0136113433644509E-3</v>
       </c>
       <c r="O38" s="299">
         <f ca="1">_xll.qlSimpleQuoteSetValue(D38,ROUND($N38,6),EvaluationDate)</f>
@@ -16962,7 +16953,7 @@
     <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A39" s="353"/>
       <c r="B39" s="336" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C39" s="189" t="str">
         <f t="shared" si="4"/>
@@ -16970,7 +16961,7 @@
       </c>
       <c r="D39" s="337" t="str">
         <f>_xll.qlSimpleQuote(C39,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>EUR11MD_SYNTH1Y_Quote#0000</v>
+        <v>EUR11MD_SYNTH1Y_Quote#0001</v>
       </c>
       <c r="E39" s="330" t="str">
         <f>_xll.ohRangeRetrieveError(D39)</f>
@@ -16979,11 +16970,11 @@
       <c r="F39" s="200"/>
       <c r="H39" s="194"/>
       <c r="I39" s="315" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J39" s="288">
         <f ca="1">SynthDepo!J48</f>
-        <v>5.9977717036931999E-3</v>
+        <v>5.9971517228001462E-3</v>
       </c>
       <c r="K39" s="195"/>
       <c r="L39" s="294">
@@ -16992,7 +16983,7 @@
       <c r="M39" s="193"/>
       <c r="N39" s="298">
         <f ca="1"/>
-        <v>5.9977717036931999E-3</v>
+        <v>5.9971517228001462E-3</v>
       </c>
       <c r="O39" s="299">
         <f ca="1">_xll.qlSimpleQuoteSetValue(D39,ROUND($N39,6),EvaluationDate)</f>
@@ -17003,7 +16994,7 @@
     <row r="40" spans="1:16" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="359"/>
       <c r="B40" s="356" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C40" s="189" t="str">
         <f t="shared" si="4"/>
@@ -17011,7 +17002,7 @@
       </c>
       <c r="D40" s="337" t="str">
         <f>_xll.qlSimpleQuote(C40,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>EUR1YD_SYNTH1Y_Quote#0000</v>
+        <v>EUR1YD_SYNTH1Y_Quote#0001</v>
       </c>
       <c r="E40" s="330" t="str">
         <f>_xll.ohRangeRetrieveError(D40)</f>
@@ -17020,11 +17011,11 @@
       <c r="F40" s="200"/>
       <c r="H40" s="194"/>
       <c r="I40" s="360" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J40" s="292">
         <f ca="1">SynthDepo!J49</f>
-        <v>5.9974696145228398E-3</v>
+        <v>5.9899999999999997E-3</v>
       </c>
       <c r="K40" s="195"/>
       <c r="L40" s="296">
@@ -17033,7 +17024,7 @@
       <c r="M40" s="193"/>
       <c r="N40" s="302">
         <f ca="1"/>
-        <v>5.9974696145228398E-3</v>
+        <v>5.9899999999999997E-3</v>
       </c>
       <c r="O40" s="303">
         <f ca="1">_xll.qlSimpleQuoteSetValue(D40,ROUND($N40,6),EvaluationDate)</f>
@@ -17055,7 +17046,7 @@
       </c>
       <c r="D41" s="355" t="str">
         <f>_xll.qlSimpleQuote(C41,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR1x13F_SYNTH1Y_Quote#0000</v>
+        <v>EUR1x13F_SYNTH1Y_Quote#0001</v>
       </c>
       <c r="E41" s="329" t="str">
         <f>_xll.ohRangeRetrieveError(D41)</f>
@@ -17071,7 +17062,7 @@
       </c>
       <c r="J41" s="318">
         <f ca="1">SynthFra!N8</f>
-        <v>5.9477997873170121E-3</v>
+        <v>5.9160428582974997E-3</v>
       </c>
       <c r="K41" s="251"/>
       <c r="L41" s="321">
@@ -17080,7 +17071,7 @@
       <c r="M41" s="252"/>
       <c r="N41" s="323">
         <f ca="1"/>
-        <v>5.9477997873170121E-3</v>
+        <v>5.9160428582974997E-3</v>
       </c>
       <c r="O41" s="324">
         <f ca="1">_xll.qlSimpleQuoteSetValue(D41,ROUND(N41,6),EvaluationDate)</f>
@@ -17088,7 +17079,7 @@
       </c>
       <c r="P41" s="365">
         <f ca="1">_xll.ohTrigger(O41:O84)</f>
-        <v>75</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.2">
@@ -17105,7 +17096,7 @@
       </c>
       <c r="D42" s="337" t="str">
         <f>_xll.qlSimpleQuote(C42,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR2x14F_SYNTH1Y_Quote#0000</v>
+        <v>EUR2x14F_SYNTH1Y_Quote#0001</v>
       </c>
       <c r="E42" s="330" t="str">
         <f>_xll.ohRangeRetrieveError(D42)</f>
@@ -17121,7 +17112,7 @@
       </c>
       <c r="J42" s="318">
         <f ca="1">SynthFra!N9</f>
-        <v>5.939631686105758E-3</v>
+        <v>5.8788137983355939E-3</v>
       </c>
       <c r="K42" s="252"/>
       <c r="L42" s="321">
@@ -17130,7 +17121,7 @@
       <c r="M42" s="252"/>
       <c r="N42" s="323">
         <f ca="1"/>
-        <v>5.939631686105758E-3</v>
+        <v>5.8788137983355939E-3</v>
       </c>
       <c r="O42" s="324">
         <f ca="1">_xll.qlSimpleQuoteSetValue(D42,ROUND(N42,6),EvaluationDate)</f>
@@ -17152,7 +17143,7 @@
       </c>
       <c r="D43" s="337" t="str">
         <f>_xll.qlSimpleQuote(C43,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR3x15F_SYNTH1Y_Quote#0000</v>
+        <v>EUR3x15F_SYNTH1Y_Quote#0001</v>
       </c>
       <c r="E43" s="330" t="str">
         <f>_xll.ohRangeRetrieveError(D43)</f>
@@ -17168,7 +17159,7 @@
       </c>
       <c r="J43" s="318">
         <f ca="1">SynthFra!N10</f>
-        <v>5.9471154813239314E-3</v>
+        <v>5.8598696252462187E-3</v>
       </c>
       <c r="K43" s="252"/>
       <c r="L43" s="321">
@@ -17177,7 +17168,7 @@
       <c r="M43" s="252"/>
       <c r="N43" s="323">
         <f ca="1"/>
-        <v>5.9471154813239314E-3</v>
+        <v>5.8598696252462187E-3</v>
       </c>
       <c r="O43" s="324">
         <f ca="1">_xll.qlSimpleQuoteSetValue(D43,ROUND(N43,6),EvaluationDate)</f>
@@ -17199,7 +17190,7 @@
       </c>
       <c r="D44" s="337" t="str">
         <f>_xll.qlSimpleQuote(C44,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR4x16F_SYNTH1Y_Quote#0000</v>
+        <v>EUR4x16F_SYNTH1Y_Quote#0001</v>
       </c>
       <c r="E44" s="330" t="str">
         <f>_xll.ohRangeRetrieveError(D44)</f>
@@ -17215,7 +17206,7 @@
       </c>
       <c r="J44" s="318">
         <f ca="1">SynthFra!N11</f>
-        <v>5.9815484736815763E-3</v>
+        <v>5.8651503419974906E-3</v>
       </c>
       <c r="K44" s="252"/>
       <c r="L44" s="321">
@@ -17224,7 +17215,7 @@
       <c r="M44" s="252"/>
       <c r="N44" s="323">
         <f ca="1"/>
-        <v>5.9815484736815763E-3</v>
+        <v>5.8651503419974906E-3</v>
       </c>
       <c r="O44" s="324">
         <f ca="1">_xll.qlSimpleQuoteSetValue(D44,ROUND(N44,6),EvaluationDate)</f>
@@ -17246,7 +17237,7 @@
       </c>
       <c r="D45" s="337" t="str">
         <f>_xll.qlSimpleQuote(C45,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR5x17F_SYNTH1Y_Quote#0000</v>
+        <v>EUR5x17F_SYNTH1Y_Quote#0001</v>
       </c>
       <c r="E45" s="330" t="str">
         <f>_xll.ohRangeRetrieveError(D45)</f>
@@ -17262,7 +17253,7 @@
       </c>
       <c r="J45" s="318">
         <f ca="1">SynthFra!N12</f>
-        <v>6.0251243584093783E-3</v>
+        <v>5.883327640818569E-3</v>
       </c>
       <c r="K45" s="252"/>
       <c r="L45" s="321">
@@ -17271,7 +17262,7 @@
       <c r="M45" s="252"/>
       <c r="N45" s="323">
         <f ca="1"/>
-        <v>6.0251243584093783E-3</v>
+        <v>5.883327640818569E-3</v>
       </c>
       <c r="O45" s="324">
         <f ca="1">_xll.qlSimpleQuoteSetValue(D45,ROUND(N45,6),EvaluationDate)</f>
@@ -17293,7 +17284,7 @@
       </c>
       <c r="D46" s="337" t="str">
         <f>_xll.qlSimpleQuote(C46,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR6x18F_SYNTH1Y_Quote#0000</v>
+        <v>EUR6x18F_SYNTH1Y_Quote#0001</v>
       </c>
       <c r="E46" s="330" t="str">
         <f>_xll.ohRangeRetrieveError(D46)</f>
@@ -17309,7 +17300,7 @@
       </c>
       <c r="J46" s="318">
         <f ca="1">SynthFra!N13</f>
-        <v>6.0883946903893468E-3</v>
+        <v>5.9232098253105643E-3</v>
       </c>
       <c r="K46" s="252"/>
       <c r="L46" s="321">
@@ -17318,7 +17309,7 @@
       <c r="M46" s="252"/>
       <c r="N46" s="323">
         <f ca="1"/>
-        <v>6.0883946903893468E-3</v>
+        <v>5.9232098253105643E-3</v>
       </c>
       <c r="O46" s="324">
         <f ca="1">_xll.qlSimpleQuoteSetValue(D46,ROUND(N46,6),EvaluationDate)</f>
@@ -17340,7 +17331,7 @@
       </c>
       <c r="D47" s="337" t="str">
         <f>_xll.qlSimpleQuote(C47,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR7x19F_SYNTH1Y_Quote#0000</v>
+        <v>EUR7x19F_SYNTH1Y_Quote#0001</v>
       </c>
       <c r="E47" s="330" t="str">
         <f>_xll.ohRangeRetrieveError(D47)</f>
@@ -17356,7 +17347,7 @@
       </c>
       <c r="J47" s="318">
         <f ca="1">SynthFra!N14</f>
-        <v>6.1793116605520096E-3</v>
+        <v>5.9882015778317298E-3</v>
       </c>
       <c r="K47" s="252"/>
       <c r="L47" s="321">
@@ -17365,7 +17356,7 @@
       <c r="M47" s="252"/>
       <c r="N47" s="323">
         <f ca="1"/>
-        <v>6.1793116605520096E-3</v>
+        <v>5.9882015778317298E-3</v>
       </c>
       <c r="O47" s="324">
         <f ca="1">_xll.qlSimpleQuoteSetValue(D47,ROUND(N47,6),EvaluationDate)</f>
@@ -17387,7 +17378,7 @@
       </c>
       <c r="D48" s="337" t="str">
         <f>_xll.qlSimpleQuote(C48,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR8x20F_SYNTH1Y_Quote#0000</v>
+        <v>EUR8x20F_SYNTH1Y_Quote#0001</v>
       </c>
       <c r="E48" s="330" t="str">
         <f>_xll.ohRangeRetrieveError(D48)</f>
@@ -17403,7 +17394,7 @@
       </c>
       <c r="J48" s="318">
         <f ca="1">SynthFra!N15</f>
-        <v>6.2650459028121067E-3</v>
+        <v>6.0677926158807741E-3</v>
       </c>
       <c r="K48" s="252"/>
       <c r="L48" s="321">
@@ -17412,7 +17403,7 @@
       <c r="M48" s="252"/>
       <c r="N48" s="323">
         <f ca="1"/>
-        <v>6.2650459028121067E-3</v>
+        <v>6.0677926158807741E-3</v>
       </c>
       <c r="O48" s="324">
         <f ca="1">_xll.qlSimpleQuoteSetValue(D48,ROUND(N48,6),EvaluationDate)</f>
@@ -17434,7 +17425,7 @@
       </c>
       <c r="D49" s="337" t="str">
         <f>_xll.qlSimpleQuote(C49,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR9x21F_SYNTH1Y_Quote#0000</v>
+        <v>EUR9x21F_SYNTH1Y_Quote#0001</v>
       </c>
       <c r="E49" s="330" t="str">
         <f>_xll.ohRangeRetrieveError(D49)</f>
@@ -17450,7 +17441,7 @@
       </c>
       <c r="J49" s="318">
         <f ca="1">SynthFra!N16</f>
-        <v>6.3608401204830831E-3</v>
+        <v>6.162056550414745E-3</v>
       </c>
       <c r="K49" s="252"/>
       <c r="L49" s="321">
@@ -17459,7 +17450,7 @@
       <c r="M49" s="252"/>
       <c r="N49" s="323">
         <f ca="1"/>
-        <v>6.3608401204830831E-3</v>
+        <v>6.162056550414745E-3</v>
       </c>
       <c r="O49" s="324">
         <f ca="1">_xll.qlSimpleQuoteSetValue(D49,ROUND(N49,6),EvaluationDate)</f>
@@ -17481,7 +17472,7 @@
       </c>
       <c r="D50" s="337" t="str">
         <f>_xll.qlSimpleQuote(C50,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR10x22F_SYNTH1Y_Quote#0000</v>
+        <v>EUR10x22F_SYNTH1Y_Quote#0001</v>
       </c>
       <c r="E50" s="330" t="str">
         <f>_xll.ohRangeRetrieveError(D50)</f>
@@ -17497,7 +17488,7 @@
       </c>
       <c r="J50" s="318">
         <f ca="1">SynthFra!N17</f>
-        <v>6.4869694283382906E-3</v>
+        <v>6.2651377149783739E-3</v>
       </c>
       <c r="K50" s="252"/>
       <c r="L50" s="321">
@@ -17506,7 +17497,7 @@
       <c r="M50" s="252"/>
       <c r="N50" s="323">
         <f ca="1"/>
-        <v>6.4869694283382906E-3</v>
+        <v>6.2651377149783739E-3</v>
       </c>
       <c r="O50" s="324">
         <f ca="1">_xll.qlSimpleQuoteSetValue(D50,ROUND(N50,6),EvaluationDate)</f>
@@ -17528,7 +17519,7 @@
       </c>
       <c r="D51" s="337" t="str">
         <f>_xll.qlSimpleQuote(C51,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR11x23F_SYNTH1Y_Quote#0000</v>
+        <v>EUR11x23F_SYNTH1Y_Quote#0001</v>
       </c>
       <c r="E51" s="330" t="str">
         <f>_xll.ohRangeRetrieveError(D51)</f>
@@ -17544,7 +17535,7 @@
       </c>
       <c r="J51" s="318">
         <f ca="1">SynthFra!N18</f>
-        <v>6.6229243251083097E-3</v>
+        <v>6.3785424023954937E-3</v>
       </c>
       <c r="K51" s="252"/>
       <c r="L51" s="321">
@@ -17553,7 +17544,7 @@
       <c r="M51" s="252"/>
       <c r="N51" s="323">
         <f ca="1"/>
-        <v>6.6229243251083097E-3</v>
+        <v>6.3785424023954937E-3</v>
       </c>
       <c r="O51" s="324">
         <f ca="1">_xll.qlSimpleQuoteSetValue(D51,ROUND(N51,6),EvaluationDate)</f>
@@ -17575,7 +17566,7 @@
       </c>
       <c r="D52" s="337" t="str">
         <f>_xll.qlSimpleQuote(C52,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR13x25F_SYNTH1Y_Quote#0000</v>
+        <v>EUR13x25F_SYNTH1Y_Quote#0001</v>
       </c>
       <c r="E52" s="330" t="str">
         <f>_xll.ohRangeRetrieveError(D52)</f>
@@ -17591,7 +17582,7 @@
       </c>
       <c r="J52" s="318">
         <f ca="1">SynthFra!N19</f>
-        <v>6.9490216319005316E-3</v>
+        <v>6.6795659939158404E-3</v>
       </c>
       <c r="K52" s="252"/>
       <c r="L52" s="321">
@@ -17600,7 +17591,7 @@
       <c r="M52" s="252"/>
       <c r="N52" s="323">
         <f ca="1"/>
-        <v>6.9490216319005316E-3</v>
+        <v>6.6795659939158404E-3</v>
       </c>
       <c r="O52" s="324">
         <f ca="1">_xll.qlSimpleQuoteSetValue(D52,ROUND(N52,6),EvaluationDate)</f>
@@ -17622,7 +17613,7 @@
       </c>
       <c r="D53" s="337" t="str">
         <f>_xll.qlSimpleQuote(C53,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR14x26F_SYNTH1Y_Quote#0000</v>
+        <v>EUR14x26F_SYNTH1Y_Quote#0001</v>
       </c>
       <c r="E53" s="330" t="str">
         <f>_xll.ohRangeRetrieveError(D53)</f>
@@ -17638,7 +17629,7 @@
       </c>
       <c r="J53" s="318">
         <f ca="1">SynthFra!N20</f>
-        <v>7.1628810899752367E-3</v>
+        <v>6.8602753604053452E-3</v>
       </c>
       <c r="K53" s="252"/>
       <c r="L53" s="321">
@@ -17647,7 +17638,7 @@
       <c r="M53" s="252"/>
       <c r="N53" s="323">
         <f ca="1"/>
-        <v>7.1628810899752367E-3</v>
+        <v>6.8602753604053452E-3</v>
       </c>
       <c r="O53" s="324">
         <f ca="1">_xll.qlSimpleQuoteSetValue(D53,ROUND(N53,6),EvaluationDate)</f>
@@ -17669,7 +17660,7 @@
       </c>
       <c r="D54" s="337" t="str">
         <f>_xll.qlSimpleQuote(C54,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR15x27F_SYNTH1Y_Quote#0000</v>
+        <v>EUR15x27F_SYNTH1Y_Quote#0001</v>
       </c>
       <c r="E54" s="330" t="str">
         <f>_xll.ohRangeRetrieveError(D54)</f>
@@ -17685,7 +17676,7 @@
       </c>
       <c r="J54" s="318">
         <f ca="1">SynthFra!N21</f>
-        <v>7.3993318258154502E-3</v>
+        <v>7.0670914820993433E-3</v>
       </c>
       <c r="K54" s="252"/>
       <c r="L54" s="321">
@@ -17694,7 +17685,7 @@
       <c r="M54" s="252"/>
       <c r="N54" s="323">
         <f ca="1"/>
-        <v>7.3993318258154502E-3</v>
+        <v>7.0670914820993433E-3</v>
       </c>
       <c r="O54" s="324">
         <f ca="1">_xll.qlSimpleQuoteSetValue(D54,ROUND(N54,6),EvaluationDate)</f>
@@ -17716,7 +17707,7 @@
       </c>
       <c r="D55" s="337" t="str">
         <f>_xll.qlSimpleQuote(C55,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR16x28F_SYNTH1Y_Quote#0000</v>
+        <v>EUR16x28F_SYNTH1Y_Quote#0001</v>
       </c>
       <c r="E55" s="330" t="str">
         <f>_xll.ohRangeRetrieveError(D55)</f>
@@ -17732,7 +17723,7 @@
       </c>
       <c r="J55" s="318">
         <f ca="1">SynthFra!N22</f>
-        <v>7.6811215394006161E-3</v>
+        <v>7.2955573434228833E-3</v>
       </c>
       <c r="K55" s="252"/>
       <c r="L55" s="321">
@@ -17741,7 +17732,7 @@
       <c r="M55" s="252"/>
       <c r="N55" s="323">
         <f ca="1"/>
-        <v>7.6811215394006161E-3</v>
+        <v>7.2955573434228833E-3</v>
       </c>
       <c r="O55" s="324">
         <f ca="1">_xll.qlSimpleQuoteSetValue(D55,ROUND(N55,6),EvaluationDate)</f>
@@ -17763,7 +17754,7 @@
       </c>
       <c r="D56" s="337" t="str">
         <f>_xll.qlSimpleQuote(C56,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR17x29F_SYNTH1Y_Quote#0000</v>
+        <v>EUR17x29F_SYNTH1Y_Quote#0001</v>
       </c>
       <c r="E56" s="330" t="str">
         <f>_xll.ohRangeRetrieveError(D56)</f>
@@ -17779,7 +17770,7 @@
       </c>
       <c r="J56" s="318">
         <f ca="1">SynthFra!N23</f>
-        <v>7.9478918362925043E-3</v>
+        <v>7.5566256875136961E-3</v>
       </c>
       <c r="K56" s="252"/>
       <c r="L56" s="321">
@@ -17788,7 +17779,7 @@
       <c r="M56" s="252"/>
       <c r="N56" s="323">
         <f ca="1"/>
-        <v>7.9478918362925043E-3</v>
+        <v>7.5566256875136961E-3</v>
       </c>
       <c r="O56" s="324">
         <f ca="1">_xll.qlSimpleQuoteSetValue(D56,ROUND(N56,6),EvaluationDate)</f>
@@ -17810,7 +17801,7 @@
       </c>
       <c r="D57" s="337" t="str">
         <f>_xll.qlSimpleQuote(C57,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR18x30F_SYNTH1Y_Quote#0000</v>
+        <v>EUR18x30F_SYNTH1Y_Quote#0001</v>
       </c>
       <c r="E57" s="330" t="str">
         <f>_xll.ohRangeRetrieveError(D57)</f>
@@ -17826,7 +17817,7 @@
       </c>
       <c r="J57" s="318">
         <f ca="1">SynthFra!N24</f>
-        <v>8.2547041129579692E-3</v>
+        <v>7.8273715668518255E-3</v>
       </c>
       <c r="K57" s="252"/>
       <c r="L57" s="321">
@@ -17835,7 +17826,7 @@
       <c r="M57" s="252"/>
       <c r="N57" s="323">
         <f ca="1"/>
-        <v>8.2547041129579692E-3</v>
+        <v>7.8273715668518255E-3</v>
       </c>
       <c r="O57" s="324">
         <f ca="1">_xll.qlSimpleQuoteSetValue(D57,ROUND(N57,6),EvaluationDate)</f>
@@ -17857,7 +17848,7 @@
       </c>
       <c r="D58" s="337" t="str">
         <f>_xll.qlSimpleQuote(C58,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR19x31F_SYNTH1Y_Quote#0000</v>
+        <v>EUR19x31F_SYNTH1Y_Quote#0001</v>
       </c>
       <c r="E58" s="330" t="str">
         <f>_xll.ohRangeRetrieveError(D58)</f>
@@ -17873,7 +17864,7 @@
       </c>
       <c r="J58" s="318">
         <f ca="1">SynthFra!N25</f>
-        <v>8.5857783724356037E-3</v>
+        <v>8.0947747244274997E-3</v>
       </c>
       <c r="K58" s="252"/>
       <c r="L58" s="321">
@@ -17882,7 +17873,7 @@
       <c r="M58" s="252"/>
       <c r="N58" s="323">
         <f ca="1"/>
-        <v>8.5857783724356037E-3</v>
+        <v>8.0947747244274997E-3</v>
       </c>
       <c r="O58" s="324">
         <f ca="1">_xll.qlSimpleQuoteSetValue(D58,ROUND(N58,6),EvaluationDate)</f>
@@ -17904,7 +17895,7 @@
       </c>
       <c r="D59" s="337" t="str">
         <f>_xll.qlSimpleQuote(C59,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR20x32F_SYNTH1Y_Quote#0000</v>
+        <v>EUR20x32F_SYNTH1Y_Quote#0001</v>
       </c>
       <c r="E59" s="330" t="str">
         <f>_xll.ohRangeRetrieveError(D59)</f>
@@ -17920,7 +17911,7 @@
       </c>
       <c r="J59" s="318">
         <f ca="1">SynthFra!N26</f>
-        <v>8.9139632857642703E-3</v>
+        <v>8.3955708112695218E-3</v>
       </c>
       <c r="K59" s="252"/>
       <c r="L59" s="321">
@@ -17929,7 +17920,7 @@
       <c r="M59" s="252"/>
       <c r="N59" s="323">
         <f ca="1"/>
-        <v>8.9139632857642703E-3</v>
+        <v>8.3955708112695218E-3</v>
       </c>
       <c r="O59" s="324">
         <f ca="1">_xll.qlSimpleQuoteSetValue(D59,ROUND(N59,6),EvaluationDate)</f>
@@ -17951,7 +17942,7 @@
       </c>
       <c r="D60" s="337" t="str">
         <f>_xll.qlSimpleQuote(C60,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR21x33F_SYNTH1Y_Quote#0000</v>
+        <v>EUR21x33F_SYNTH1Y_Quote#0001</v>
       </c>
       <c r="E60" s="330" t="str">
         <f>_xll.ohRangeRetrieveError(D60)</f>
@@ -17967,7 +17958,7 @@
       </c>
       <c r="J60" s="318">
         <f ca="1">SynthFra!N27</f>
-        <v>9.2864469349534969E-3</v>
+        <v>8.7140169133590045E-3</v>
       </c>
       <c r="K60" s="252"/>
       <c r="L60" s="321">
@@ -17976,7 +17967,7 @@
       <c r="M60" s="252"/>
       <c r="N60" s="323">
         <f ca="1"/>
-        <v>9.2864469349534969E-3</v>
+        <v>8.7140169133590045E-3</v>
       </c>
       <c r="O60" s="324">
         <f ca="1">_xll.qlSimpleQuoteSetValue(D60,ROUND(N60,6),EvaluationDate)</f>
@@ -17998,7 +17989,7 @@
       </c>
       <c r="D61" s="337" t="str">
         <f>_xll.qlSimpleQuote(C61,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR22x34F_SYNTH1Y_Quote#0000</v>
+        <v>EUR22x34F_SYNTH1Y_Quote#0001</v>
       </c>
       <c r="E61" s="330" t="str">
         <f>_xll.ohRangeRetrieveError(D61)</f>
@@ -18014,7 +18005,7 @@
       </c>
       <c r="J61" s="318">
         <f ca="1">SynthFra!N28</f>
-        <v>9.660676199102592E-3</v>
+        <v>9.0377669457675346E-3</v>
       </c>
       <c r="K61" s="252"/>
       <c r="L61" s="321">
@@ -18023,7 +18014,7 @@
       <c r="M61" s="252"/>
       <c r="N61" s="323">
         <f ca="1"/>
-        <v>9.660676199102592E-3</v>
+        <v>9.0377669457675346E-3</v>
       </c>
       <c r="O61" s="324">
         <f ca="1">_xll.qlSimpleQuoteSetValue(D61,ROUND(N61,6),EvaluationDate)</f>
@@ -18045,7 +18036,7 @@
       </c>
       <c r="D62" s="337" t="str">
         <f>_xll.qlSimpleQuote(C62,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR23x35F_SYNTH1Y_Quote#0000</v>
+        <v>EUR23x35F_SYNTH1Y_Quote#0001</v>
       </c>
       <c r="E62" s="330" t="str">
         <f>_xll.ohRangeRetrieveError(D62)</f>
@@ -18061,7 +18052,7 @@
       </c>
       <c r="J62" s="318">
         <f ca="1">SynthFra!N29</f>
-        <v>1.00171153059382E-2</v>
+        <v>9.3569414181162887E-3</v>
       </c>
       <c r="K62" s="252"/>
       <c r="L62" s="321">
@@ -18070,7 +18061,7 @@
       <c r="M62" s="252"/>
       <c r="N62" s="323">
         <f ca="1"/>
-        <v>1.00171153059382E-2</v>
+        <v>9.3569414181162887E-3</v>
       </c>
       <c r="O62" s="324">
         <f ca="1">_xll.qlSimpleQuoteSetValue(D62,ROUND(N62,6),EvaluationDate)</f>
@@ -18092,7 +18083,7 @@
       </c>
       <c r="D63" s="337" t="str">
         <f>_xll.qlSimpleQuote(C63,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR25x37F_SYNTH1Y_Quote#0000</v>
+        <v>EUR25x37F_SYNTH1Y_Quote#0001</v>
       </c>
       <c r="E63" s="330" t="str">
         <f>_xll.ohRangeRetrieveError(D63)</f>
@@ -18108,7 +18099,7 @@
       </c>
       <c r="J63" s="318">
         <f ca="1">SynthFra!N30</f>
-        <v>1.0795051631022103E-2</v>
+        <v>1.005577027499507E-2</v>
       </c>
       <c r="K63" s="252"/>
       <c r="L63" s="321">
@@ -18117,7 +18108,7 @@
       <c r="M63" s="252"/>
       <c r="N63" s="323">
         <f ca="1"/>
-        <v>1.0795051631022103E-2</v>
+        <v>1.005577027499507E-2</v>
       </c>
       <c r="O63" s="324">
         <f ca="1">_xll.qlSimpleQuoteSetValue(D63,ROUND(N63,6),EvaluationDate)</f>
@@ -18139,7 +18130,7 @@
       </c>
       <c r="D64" s="337" t="str">
         <f>_xll.qlSimpleQuote(C64,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR26x38F_SYNTH1Y_Quote#0000</v>
+        <v>EUR26x38F_SYNTH1Y_Quote#0001</v>
       </c>
       <c r="E64" s="330" t="str">
         <f>_xll.ohRangeRetrieveError(D64)</f>
@@ -18155,7 +18146,7 @@
       </c>
       <c r="J64" s="318">
         <f ca="1">SynthFra!N31</f>
-        <v>1.1171633015510163E-2</v>
+        <v>1.0424525499207651E-2</v>
       </c>
       <c r="K64" s="252"/>
       <c r="L64" s="321">
@@ -18164,7 +18155,7 @@
       <c r="M64" s="252"/>
       <c r="N64" s="323">
         <f ca="1"/>
-        <v>1.1171633015510163E-2</v>
+        <v>1.0424525499207651E-2</v>
       </c>
       <c r="O64" s="324">
         <f ca="1">_xll.qlSimpleQuoteSetValue(D64,ROUND(N64,6),EvaluationDate)</f>
@@ -18186,7 +18177,7 @@
       </c>
       <c r="D65" s="337" t="str">
         <f>_xll.qlSimpleQuote(C65,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR27x39F_SYNTH1Y_Quote#0000</v>
+        <v>EUR27x39F_SYNTH1Y_Quote#0001</v>
       </c>
       <c r="E65" s="330" t="str">
         <f>_xll.ohRangeRetrieveError(D65)</f>
@@ -18202,7 +18193,7 @@
       </c>
       <c r="J65" s="318">
         <f ca="1">SynthFra!N32</f>
-        <v>1.1559635693454282E-2</v>
+        <v>1.07741063841712E-2</v>
       </c>
       <c r="K65" s="252"/>
       <c r="L65" s="321">
@@ -18211,7 +18202,7 @@
       <c r="M65" s="252"/>
       <c r="N65" s="323">
         <f ca="1"/>
-        <v>1.1559635693454282E-2</v>
+        <v>1.07741063841712E-2</v>
       </c>
       <c r="O65" s="324">
         <f ca="1">_xll.qlSimpleQuoteSetValue(D65,ROUND(N65,6),EvaluationDate)</f>
@@ -18233,7 +18224,7 @@
       </c>
       <c r="D66" s="337" t="str">
         <f>_xll.qlSimpleQuote(C66,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR28x40F_SYNTH1Y_Quote#0000</v>
+        <v>EUR28x40F_SYNTH1Y_Quote#0001</v>
       </c>
       <c r="E66" s="330" t="str">
         <f>_xll.ohRangeRetrieveError(D66)</f>
@@ -18249,7 +18240,7 @@
       </c>
       <c r="J66" s="318">
         <f ca="1">SynthFra!N33</f>
-        <v>1.1936707412829074E-2</v>
+        <v>1.112376965592409E-2</v>
       </c>
       <c r="K66" s="252"/>
       <c r="L66" s="321">
@@ -18258,7 +18249,7 @@
       <c r="M66" s="252"/>
       <c r="N66" s="323">
         <f ca="1"/>
-        <v>1.1936707412829074E-2</v>
+        <v>1.112376965592409E-2</v>
       </c>
       <c r="O66" s="324">
         <f ca="1">_xll.qlSimpleQuoteSetValue(D66,ROUND(N66,6),EvaluationDate)</f>
@@ -18280,7 +18271,7 @@
       </c>
       <c r="D67" s="337" t="str">
         <f>_xll.qlSimpleQuote(C67,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR29x41F_SYNTH1Y_Quote#0000</v>
+        <v>EUR29x41F_SYNTH1Y_Quote#0001</v>
       </c>
       <c r="E67" s="330" t="str">
         <f>_xll.ohRangeRetrieveError(D67)</f>
@@ -18296,7 +18287,7 @@
       </c>
       <c r="J67" s="318">
         <f ca="1">SynthFra!N34</f>
-        <v>1.2324373112607579E-2</v>
+        <v>1.1509670554348719E-2</v>
       </c>
       <c r="K67" s="252"/>
       <c r="L67" s="321">
@@ -18305,7 +18296,7 @@
       <c r="M67" s="252"/>
       <c r="N67" s="323">
         <f ca="1"/>
-        <v>1.2324373112607579E-2</v>
+        <v>1.1509670554348719E-2</v>
       </c>
       <c r="O67" s="324">
         <f ca="1">_xll.qlSimpleQuoteSetValue(D67,ROUND(N67,6),EvaluationDate)</f>
@@ -18327,7 +18318,7 @@
       </c>
       <c r="D68" s="337" t="str">
         <f>_xll.qlSimpleQuote(C68,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR30x42F_SYNTH1Y_Quote#0000</v>
+        <v>EUR30x42F_SYNTH1Y_Quote#0001</v>
       </c>
       <c r="E68" s="330" t="str">
         <f>_xll.ohRangeRetrieveError(D68)</f>
@@ -18343,7 +18334,7 @@
       </c>
       <c r="J68" s="318">
         <f ca="1">SynthFra!N35</f>
-        <v>1.2723151599675332E-2</v>
+        <v>1.1837969058591835E-2</v>
       </c>
       <c r="K68" s="252"/>
       <c r="L68" s="321">
@@ -18352,7 +18343,7 @@
       <c r="M68" s="252"/>
       <c r="N68" s="323">
         <f ca="1"/>
-        <v>1.2723151599675332E-2</v>
+        <v>1.1837969058591835E-2</v>
       </c>
       <c r="O68" s="324">
         <f ca="1">_xll.qlSimpleQuoteSetValue(D68,ROUND(N68,6),EvaluationDate)</f>
@@ -18374,7 +18365,7 @@
       </c>
       <c r="D69" s="337" t="str">
         <f>_xll.qlSimpleQuote(C69,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR31x43F_SYNTH1Y_Quote#0000</v>
+        <v>EUR31x43F_SYNTH1Y_Quote#0001</v>
       </c>
       <c r="E69" s="330" t="str">
         <f>_xll.ohRangeRetrieveError(D69)</f>
@@ -18390,7 +18381,7 @@
       </c>
       <c r="J69" s="318">
         <f ca="1">SynthFra!N36</f>
-        <v>1.3082941476638157E-2</v>
+        <v>1.220217994888665E-2</v>
       </c>
       <c r="K69" s="252"/>
       <c r="L69" s="321">
@@ -18399,7 +18390,7 @@
       <c r="M69" s="252"/>
       <c r="N69" s="323">
         <f ca="1"/>
-        <v>1.3082941476638157E-2</v>
+        <v>1.220217994888665E-2</v>
       </c>
       <c r="O69" s="324">
         <f ca="1">_xll.qlSimpleQuoteSetValue(D69,ROUND(N69,6),EvaluationDate)</f>
@@ -18421,7 +18412,7 @@
       </c>
       <c r="D70" s="337" t="str">
         <f>_xll.qlSimpleQuote(C70,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR32x44F_SYNTH1Y_Quote#0000</v>
+        <v>EUR32x44F_SYNTH1Y_Quote#0001</v>
       </c>
       <c r="E70" s="330" t="str">
         <f>_xll.ohRangeRetrieveError(D70)</f>
@@ -18437,7 +18428,7 @@
       </c>
       <c r="J70" s="318">
         <f ca="1">SynthFra!N37</f>
-        <v>1.3453156289048352E-2</v>
+        <v>1.2578744225944676E-2</v>
       </c>
       <c r="K70" s="252"/>
       <c r="L70" s="321">
@@ -18446,7 +18437,7 @@
       <c r="M70" s="252"/>
       <c r="N70" s="323">
         <f ca="1"/>
-        <v>1.3453156289048352E-2</v>
+        <v>1.2578744225944676E-2</v>
       </c>
       <c r="O70" s="324">
         <f ca="1">_xll.qlSimpleQuoteSetValue(D70,ROUND(N70,6),EvaluationDate)</f>
@@ -18468,7 +18459,7 @@
       </c>
       <c r="D71" s="337" t="str">
         <f>_xll.qlSimpleQuote(C71,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR33x45F_SYNTH1Y_Quote#0000</v>
+        <v>EUR33x45F_SYNTH1Y_Quote#0001</v>
       </c>
       <c r="E71" s="330" t="str">
         <f>_xll.ohRangeRetrieveError(D71)</f>
@@ -18484,7 +18475,7 @@
       </c>
       <c r="J71" s="318">
         <f ca="1">SynthFra!N38</f>
-        <v>1.384540729312659E-2</v>
+        <v>1.2920351648583041E-2</v>
       </c>
       <c r="K71" s="252"/>
       <c r="L71" s="321">
@@ -18493,7 +18484,7 @@
       <c r="M71" s="252"/>
       <c r="N71" s="323">
         <f ca="1"/>
-        <v>1.384540729312659E-2</v>
+        <v>1.2920351648583041E-2</v>
       </c>
       <c r="O71" s="324">
         <f ca="1">_xll.qlSimpleQuoteSetValue(D71,ROUND(N71,6),EvaluationDate)</f>
@@ -18515,7 +18506,7 @@
       </c>
       <c r="D72" s="337" t="str">
         <f>_xll.qlSimpleQuote(C72,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR34x46F_SYNTH1Y_Quote#0000</v>
+        <v>EUR34x46F_SYNTH1Y_Quote#0001</v>
       </c>
       <c r="E72" s="330" t="str">
         <f>_xll.ohRangeRetrieveError(D72)</f>
@@ -18531,7 +18522,7 @@
       </c>
       <c r="J72" s="318">
         <f ca="1">SynthFra!N39</f>
-        <v>1.4210261278370058E-2</v>
+        <v>1.3297244638087711E-2</v>
       </c>
       <c r="K72" s="252"/>
       <c r="L72" s="321">
@@ -18540,7 +18531,7 @@
       <c r="M72" s="252"/>
       <c r="N72" s="323">
         <f ca="1"/>
-        <v>1.4210261278370058E-2</v>
+        <v>1.3297244638087711E-2</v>
       </c>
       <c r="O72" s="324">
         <f ca="1">_xll.qlSimpleQuoteSetValue(D72,ROUND(N72,6),EvaluationDate)</f>
@@ -18562,7 +18553,7 @@
       </c>
       <c r="D73" s="337" t="str">
         <f>_xll.qlSimpleQuote(C73,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR35x47F_SYNTH1Y_Quote#0000</v>
+        <v>EUR35x47F_SYNTH1Y_Quote#0001</v>
       </c>
       <c r="E73" s="330" t="str">
         <f>_xll.ohRangeRetrieveError(D73)</f>
@@ -18578,7 +18569,7 @@
       </c>
       <c r="J73" s="318">
         <f ca="1">SynthFra!N40</f>
-        <v>1.4547932404121406E-2</v>
+        <v>1.3627369303202966E-2</v>
       </c>
       <c r="K73" s="252"/>
       <c r="L73" s="321">
@@ -18587,7 +18578,7 @@
       <c r="M73" s="252"/>
       <c r="N73" s="323">
         <f ca="1"/>
-        <v>1.4547932404121406E-2</v>
+        <v>1.3627369303202966E-2</v>
       </c>
       <c r="O73" s="324">
         <f ca="1">_xll.qlSimpleQuoteSetValue(D73,ROUND(N73,6),EvaluationDate)</f>
@@ -18609,7 +18600,7 @@
       </c>
       <c r="D74" s="337" t="str">
         <f>_xll.qlSimpleQuote(C74,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR37x49F_SYNTH1Y_Quote#0000</v>
+        <v>EUR37x49F_SYNTH1Y_Quote#0001</v>
       </c>
       <c r="E74" s="330" t="str">
         <f>_xll.ohRangeRetrieveError(D74)</f>
@@ -18625,7 +18616,7 @@
       </c>
       <c r="J74" s="318">
         <f ca="1">SynthFra!N41</f>
-        <v>1.5272603703239577E-2</v>
+        <v>1.4333728258839166E-2</v>
       </c>
       <c r="K74" s="252"/>
       <c r="L74" s="321">
@@ -18634,7 +18625,7 @@
       <c r="M74" s="252"/>
       <c r="N74" s="323">
         <f ca="1"/>
-        <v>1.5272603703239577E-2</v>
+        <v>1.4333728258839166E-2</v>
       </c>
       <c r="O74" s="324">
         <f ca="1">_xll.qlSimpleQuoteSetValue(D74,ROUND(N74,6),EvaluationDate)</f>
@@ -18656,7 +18647,7 @@
       </c>
       <c r="D75" s="337" t="str">
         <f>_xll.qlSimpleQuote(C75,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR38x50F_SYNTH1Y_Quote#0000</v>
+        <v>EUR38x50F_SYNTH1Y_Quote#0001</v>
       </c>
       <c r="E75" s="330" t="str">
         <f>_xll.ohRangeRetrieveError(D75)</f>
@@ -18672,7 +18663,7 @@
       </c>
       <c r="J75" s="318">
         <f ca="1">SynthFra!N42</f>
-        <v>1.5635102513605115E-2</v>
+        <v>1.4721247029923726E-2</v>
       </c>
       <c r="K75" s="252"/>
       <c r="L75" s="321">
@@ -18681,7 +18672,7 @@
       <c r="M75" s="252"/>
       <c r="N75" s="323">
         <f ca="1"/>
-        <v>1.5635102513605115E-2</v>
+        <v>1.4721247029923726E-2</v>
       </c>
       <c r="O75" s="324">
         <f ca="1">_xll.qlSimpleQuoteSetValue(D75,ROUND(N75,6),EvaluationDate)</f>
@@ -18703,7 +18694,7 @@
       </c>
       <c r="D76" s="337" t="str">
         <f>_xll.qlSimpleQuote(C76,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR39x51F_SYNTH1Y_Quote#0000</v>
+        <v>EUR39x51F_SYNTH1Y_Quote#0001</v>
       </c>
       <c r="E76" s="330" t="str">
         <f>_xll.ohRangeRetrieveError(D76)</f>
@@ -18719,7 +18710,7 @@
       </c>
       <c r="J76" s="318">
         <f ca="1">SynthFra!N43</f>
-        <v>1.6005785919022235E-2</v>
+        <v>1.5049222403555333E-2</v>
       </c>
       <c r="K76" s="252"/>
       <c r="L76" s="321">
@@ -18728,7 +18719,7 @@
       <c r="M76" s="252"/>
       <c r="N76" s="323">
         <f ca="1"/>
-        <v>1.6005785919022235E-2</v>
+        <v>1.5049222403555333E-2</v>
       </c>
       <c r="O76" s="324">
         <f ca="1">_xll.qlSimpleQuoteSetValue(D76,ROUND(N76,6),EvaluationDate)</f>
@@ -18750,7 +18741,7 @@
       </c>
       <c r="D77" s="337" t="str">
         <f>_xll.qlSimpleQuote(C77,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR40x52F_SYNTH1Y_Quote#0000</v>
+        <v>EUR40x52F_SYNTH1Y_Quote#0001</v>
       </c>
       <c r="E77" s="330" t="str">
         <f>_xll.ohRangeRetrieveError(D77)</f>
@@ -18766,7 +18757,7 @@
       </c>
       <c r="J77" s="318">
         <f ca="1">SynthFra!N44</f>
-        <v>1.6339053710545687E-2</v>
+        <v>1.5411198884002688E-2</v>
       </c>
       <c r="K77" s="252"/>
       <c r="L77" s="321">
@@ -18775,7 +18766,7 @@
       <c r="M77" s="252"/>
       <c r="N77" s="323">
         <f ca="1"/>
-        <v>1.6339053710545687E-2</v>
+        <v>1.5411198884002688E-2</v>
       </c>
       <c r="O77" s="324">
         <f ca="1">_xll.qlSimpleQuoteSetValue(D77,ROUND(N77,6),EvaluationDate)</f>
@@ -18797,7 +18788,7 @@
       </c>
       <c r="D78" s="337" t="str">
         <f>_xll.qlSimpleQuote(C78,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR41x53F_SYNTH1Y_Quote#0000</v>
+        <v>EUR41x53F_SYNTH1Y_Quote#0001</v>
       </c>
       <c r="E78" s="330" t="str">
         <f>_xll.ohRangeRetrieveError(D78)</f>
@@ -18813,7 +18804,7 @@
       </c>
       <c r="J78" s="318">
         <f ca="1">SynthFra!N45</f>
-        <v>1.6704856137470393E-2</v>
+        <v>1.578332065403935E-2</v>
       </c>
       <c r="K78" s="252"/>
       <c r="L78" s="321">
@@ -18822,7 +18813,7 @@
       <c r="M78" s="252"/>
       <c r="N78" s="323">
         <f ca="1"/>
-        <v>1.6704856137470393E-2</v>
+        <v>1.578332065403935E-2</v>
       </c>
       <c r="O78" s="324">
         <f ca="1">_xll.qlSimpleQuoteSetValue(D78,ROUND(N78,6),EvaluationDate)</f>
@@ -18844,7 +18835,7 @@
       </c>
       <c r="D79" s="337" t="str">
         <f>_xll.qlSimpleQuote(C79,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR42x54F_SYNTH1Y_Quote#0000</v>
+        <v>EUR42x54F_SYNTH1Y_Quote#0001</v>
       </c>
       <c r="E79" s="330" t="str">
         <f>_xll.ohRangeRetrieveError(D79)</f>
@@ -18860,7 +18851,7 @@
       </c>
       <c r="J79" s="318">
         <f ca="1">SynthFra!N46</f>
-        <v>1.704483079528632E-2</v>
+        <v>1.6118966672494198E-2</v>
       </c>
       <c r="K79" s="252"/>
       <c r="L79" s="321">
@@ -18869,7 +18860,7 @@
       <c r="M79" s="252"/>
       <c r="N79" s="323">
         <f ca="1"/>
-        <v>1.704483079528632E-2</v>
+        <v>1.6118966672494198E-2</v>
       </c>
       <c r="O79" s="324">
         <f ca="1">_xll.qlSimpleQuoteSetValue(D79,ROUND(N79,6),EvaluationDate)</f>
@@ -18891,7 +18882,7 @@
       </c>
       <c r="D80" s="337" t="str">
         <f>_xll.qlSimpleQuote(C80,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR43x55F_SYNTH1Y_Quote#0000</v>
+        <v>EUR43x55F_SYNTH1Y_Quote#0001</v>
       </c>
       <c r="E80" s="330" t="str">
         <f>_xll.ohRangeRetrieveError(D80)</f>
@@ -18907,7 +18898,7 @@
       </c>
       <c r="J80" s="318">
         <f ca="1">SynthFra!N47</f>
-        <v>1.7383897550410768E-2</v>
+        <v>1.6488055562022309E-2</v>
       </c>
       <c r="K80" s="252"/>
       <c r="L80" s="321">
@@ -18916,7 +18907,7 @@
       <c r="M80" s="252"/>
       <c r="N80" s="323">
         <f ca="1"/>
-        <v>1.7383897550410768E-2</v>
+        <v>1.6488055562022309E-2</v>
       </c>
       <c r="O80" s="324">
         <f ca="1">_xll.qlSimpleQuoteSetValue(D80,ROUND(N80,6),EvaluationDate)</f>
@@ -18938,7 +18929,7 @@
       </c>
       <c r="D81" s="337" t="str">
         <f>_xll.qlSimpleQuote(C81,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR44x56F_SYNTH1Y_Quote#0000</v>
+        <v>EUR44x56F_SYNTH1Y_Quote#0001</v>
       </c>
       <c r="E81" s="330" t="str">
         <f>_xll.ohRangeRetrieveError(D81)</f>
@@ -18954,7 +18945,7 @@
       </c>
       <c r="J81" s="318">
         <f ca="1">SynthFra!N48</f>
-        <v>1.7734001021356204E-2</v>
+        <v>1.6830433405781758E-2</v>
       </c>
       <c r="K81" s="252"/>
       <c r="L81" s="321">
@@ -18963,7 +18954,7 @@
       <c r="M81" s="252"/>
       <c r="N81" s="323">
         <f ca="1"/>
-        <v>1.7734001021356204E-2</v>
+        <v>1.6830433405781758E-2</v>
       </c>
       <c r="O81" s="324">
         <f ca="1">_xll.qlSimpleQuoteSetValue(D81,ROUND(N81,6),EvaluationDate)</f>
@@ -18985,7 +18976,7 @@
       </c>
       <c r="D82" s="337" t="str">
         <f>_xll.qlSimpleQuote(C82,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR45x57F_SYNTH1Y_Quote#0000</v>
+        <v>EUR45x57F_SYNTH1Y_Quote#0001</v>
       </c>
       <c r="E82" s="330" t="str">
         <f>_xll.ohRangeRetrieveError(D82)</f>
@@ -19001,7 +18992,7 @@
       </c>
       <c r="J82" s="318">
         <f ca="1">SynthFra!N49</f>
-        <v>1.8070597741730719E-2</v>
+        <v>1.717118815350293E-2</v>
       </c>
       <c r="K82" s="252"/>
       <c r="L82" s="321">
@@ -19010,7 +19001,7 @@
       <c r="M82" s="252"/>
       <c r="N82" s="323">
         <f ca="1"/>
-        <v>1.8070597741730719E-2</v>
+        <v>1.717118815350293E-2</v>
       </c>
       <c r="O82" s="324">
         <f ca="1">_xll.qlSimpleQuoteSetValue(D82,ROUND(N82,6),EvaluationDate)</f>
@@ -19032,7 +19023,7 @@
       </c>
       <c r="D83" s="337" t="str">
         <f>_xll.qlSimpleQuote(C83,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR46x58F_SYNTH1Y_Quote#0000</v>
+        <v>EUR46x58F_SYNTH1Y_Quote#0001</v>
       </c>
       <c r="E83" s="330" t="str">
         <f>_xll.ohRangeRetrieveError(D83)</f>
@@ -19048,7 +19039,7 @@
       </c>
       <c r="J83" s="318">
         <f ca="1">SynthFra!N50</f>
-        <v>1.8419059873902785E-2</v>
+        <v>1.7542981521336064E-2</v>
       </c>
       <c r="K83" s="252"/>
       <c r="L83" s="321">
@@ -19057,7 +19048,7 @@
       <c r="M83" s="252"/>
       <c r="N83" s="323">
         <f ca="1"/>
-        <v>1.8419059873902785E-2</v>
+        <v>1.7542981521336064E-2</v>
       </c>
       <c r="O83" s="324">
         <f ca="1">_xll.qlSimpleQuoteSetValue(D83,ROUND(N83,6),EvaluationDate)</f>
@@ -19079,7 +19070,7 @@
       </c>
       <c r="D84" s="351" t="str">
         <f>_xll.qlSimpleQuote(C84,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR47x59F_SYNTH1Y_Quote#0000</v>
+        <v>EUR47x59F_SYNTH1Y_Quote#0001</v>
       </c>
       <c r="E84" s="341" t="str">
         <f>_xll.ohRangeRetrieveError(D84)</f>
@@ -19095,7 +19086,7 @@
       </c>
       <c r="J84" s="320">
         <f ca="1">SynthFra!N51</f>
-        <v>1.8734007211719708E-2</v>
+        <v>1.7855708507888327E-2</v>
       </c>
       <c r="K84" s="252"/>
       <c r="L84" s="322">
@@ -19104,7 +19095,7 @@
       <c r="M84" s="252"/>
       <c r="N84" s="361">
         <f ca="1"/>
-        <v>1.8734007211719708E-2</v>
+        <v>1.7855708507888327E-2</v>
       </c>
       <c r="O84" s="362">
         <f ca="1">_xll.qlSimpleQuoteSetValue(D84,ROUND(N84,6),EvaluationDate)</f>

--- a/QuantLibXL/Data2/XLS/EUR_SynthQuotesFeed.xlsx
+++ b/QuantLibXL/Data2/XLS/EUR_SynthQuotesFeed.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-2100" yWindow="135" windowWidth="15315" windowHeight="19395" tabRatio="695" activeTab="2"/>
+    <workbookView xWindow="-2100" yWindow="135" windowWidth="15315" windowHeight="19395" tabRatio="695"/>
   </bookViews>
   <sheets>
     <sheet name="General Settings" sheetId="29" r:id="rId1"/>
@@ -2135,12 +2135,12 @@
       <sheetData sheetId="0">
         <row r="6">
           <cell r="D6">
-            <v>1151</v>
+            <v>958</v>
           </cell>
         </row>
         <row r="7">
           <cell r="D7">
-            <v>1</v>
+            <v>2</v>
           </cell>
         </row>
       </sheetData>
@@ -2214,12 +2214,12 @@
       <sheetData sheetId="7">
         <row r="6">
           <cell r="D6" t="str">
-            <v>J4</v>
+            <v>K4</v>
           </cell>
         </row>
         <row r="7">
           <cell r="D7" t="str">
-            <v>K4</v>
+            <v>M4</v>
           </cell>
         </row>
       </sheetData>
@@ -2231,19 +2231,19 @@
         </row>
         <row r="7">
           <cell r="D7" t="str">
-            <v>J4</v>
+            <v>K4</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="9">
         <row r="6">
           <cell r="D6" t="str">
-            <v>J4</v>
+            <v>K4</v>
           </cell>
         </row>
         <row r="7">
           <cell r="D7" t="str">
-            <v>K4</v>
+            <v>M4</v>
           </cell>
         </row>
       </sheetData>
@@ -2658,7 +2658,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AJ46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
@@ -2680,7 +2680,7 @@
     <row r="1" spans="1:36" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="str">
         <f>_xll.qlxlVersion(TRUE,EvaluationDate)</f>
-        <v>QuantLibXL 1.4.0 - MS VC++ 9.0 - Multithreaded Dynamic Runtime library - Release Configuration - Mar  3 2014 10:58:57</v>
+        <v>QuantLibXL 1.4.0 - MS VC++ 9.0 - Multithreaded Dynamic Runtime library - Release Configuration - Apr 29 2014 14:47:17</v>
       </c>
     </row>
     <row r="2" spans="1:36" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2973,7 +2973,7 @@
       </c>
       <c r="D19" s="16">
         <f>_xll.qlCalendarAdvance(Calendar,EvaluationDate,"2D","f")</f>
-        <v>41739</v>
+        <v>41781</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="4"/>
@@ -2985,7 +2985,7 @@
       </c>
       <c r="D20" s="17" t="str">
         <f>_xll.qlDiscountingSwapEngine(,OisCurve,,,,,EvaluationDate)</f>
-        <v>obj_0035d#0001</v>
+        <v>obj_0036c#0000</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="4"/>
@@ -3126,7 +3126,7 @@
       </c>
       <c r="D36" s="263" t="str">
         <f>_xll.qlEuribor(,IborTenor,YieldCurve,,D34)</f>
-        <v>obj_00387#0001</v>
+        <v>obj_003ab#0000</v>
       </c>
       <c r="E36" s="29"/>
       <c r="F36" s="4"/>
@@ -3149,7 +3149,7 @@
       </c>
       <c r="D38" s="264" t="str">
         <f>_xll.qlInterpolation(,BasisInterpolation,SynthFra!I2:I6,SynthFra!O2:O6)</f>
-        <v>obj_00385#0001</v>
+        <v>obj_003a9#0000</v>
       </c>
       <c r="E38" s="29"/>
       <c r="F38" s="4"/>
@@ -3172,7 +3172,7 @@
       </c>
       <c r="D40" s="270" t="str">
         <f>_xll.qlPiecewiseYieldCurve(,NDays,Calendar,_xll.ohPack(SynthFra!A3:A127),DayCounter,,,Accuracy,TraitsID,InterpolatorID)</f>
-        <v>obj_00386#0001</v>
+        <v>obj_003aa#0000</v>
       </c>
       <c r="E40" s="29"/>
       <c r="F40" s="4"/>
@@ -3200,10 +3200,10 @@
       <c r="B43" s="2"/>
       <c r="C43" s="265">
         <f>_xll.qlTermStructureReferenceDate(YieldCurve)</f>
-        <v>41739</v>
+        <v>41781</v>
       </c>
       <c r="D43" s="266">
-        <f ca="1">MAX(_xll.ohPack(SynthFra!E2:E127))</f>
+        <f>MAX(_xll.ohPack(SynthFra!E2:E127))</f>
         <v>1</v>
       </c>
       <c r="E43" s="29"/>
@@ -3213,11 +3213,11 @@
       <c r="B44" s="2"/>
       <c r="C44" s="267">
         <f>MAX(_xll.ohPack(SynthFra!D3:D127))</f>
-        <v>43565</v>
+        <v>43607</v>
       </c>
       <c r="D44" s="268">
-        <f ca="1">MIN(_xll.ohPack(SynthFra!E2:E127))</f>
-        <v>0.94668086751036251</v>
+        <f>MIN(_xll.ohPack(SynthFra!E2:E127))</f>
+        <v>0.95317888215386337</v>
       </c>
       <c r="E44" s="29"/>
       <c r="F44" s="4"/>
@@ -3330,7 +3330,9 @@
       <c r="B2" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="41"/>
+      <c r="C2" s="41">
+        <v>41779.369004629632</v>
+      </c>
       <c r="D2" s="36"/>
       <c r="E2" s="37"/>
       <c r="F2" s="37"/>
@@ -3362,7 +3364,7 @@
       </c>
       <c r="C3" s="42">
         <f>_xll.qlSettingsEvaluationDate(Trigger)</f>
-        <v>41737</v>
+        <v>41779</v>
       </c>
       <c r="D3" s="36"/>
       <c r="E3" s="37"/>
@@ -3422,8 +3424,8 @@
         <v>29</v>
       </c>
       <c r="C5" s="43">
-        <f ca="1">[1]!TriggerCounter</f>
-        <v>1151</v>
+        <f>[1]!TriggerCounter</f>
+        <v>958</v>
       </c>
       <c r="D5" s="36"/>
       <c r="E5" s="37"/>
@@ -3456,7 +3458,7 @@
       </c>
       <c r="C6" s="43">
         <f>[1]!LastFixingsTrigger</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D6" s="36"/>
       <c r="E6" s="37"/>
@@ -3488,8 +3490,8 @@
         <v>33</v>
       </c>
       <c r="C7" s="43">
-        <f ca="1">_xll.ohTrigger(Contribution!P2,Contribution!P8,Contribution!P15,Contribution!P25,Contribution!P41)</f>
-        <v>1117</v>
+        <f>_xll.ohTrigger(Contribution!P2,Contribution!P8,Contribution!P15,Contribution!P25,Contribution!P41)</f>
+        <v>0</v>
       </c>
       <c r="D7" s="36"/>
       <c r="E7" s="37"/>
@@ -8825,9 +8827,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:AJ51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D31" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
-    </sheetView>
+    <sheetView topLeftCell="D1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -8839,14 +8839,13 @@
     <col min="7" max="7" width="12.83203125" style="38" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="10.5" style="38" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.33203125" style="38"/>
-    <col min="11" max="11" width="9.33203125" style="38" customWidth="1"/>
-    <col min="12" max="12" width="10.5" style="38" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="10.5" style="38" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="2.33203125" style="38" bestFit="1" customWidth="1"/>
     <col min="14" max="17" width="10.5" style="38" customWidth="1"/>
     <col min="18" max="18" width="2.1640625" style="38" customWidth="1"/>
     <col min="19" max="19" width="3.5" style="38" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.6640625" style="38" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.5" style="38" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.33203125" style="38" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.6640625" style="38" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="5.83203125" style="38" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="3.5" style="38" bestFit="1" customWidth="1"/>
     <col min="24" max="25" width="10.5" style="38" bestFit="1" customWidth="1"/>
@@ -8912,7 +8911,7 @@
       </c>
       <c r="B2" s="53" t="str">
         <f>_xll.qlMakeDatedOIS(,E2,F2,OvernightIndex,0,,,,Trigger)</f>
-        <v>obj_0037e#0001</v>
+        <v>obj_003a1#0000</v>
       </c>
       <c r="C2" s="54" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B2,OisEngine)</f>
@@ -8924,23 +8923,23 @@
       </c>
       <c r="E2" s="56">
         <f>SettlementDate</f>
-        <v>41739</v>
+        <v>41781</v>
       </c>
       <c r="F2" s="57">
         <f>_xll.qlCalendarAdvance(Calendar,E2,A3,"mf")</f>
-        <v>41771</v>
+        <v>41813</v>
       </c>
       <c r="G2" s="58">
-        <f ca="1">_xll.qlQuoteValue($D2,AllTriggers)</f>
-        <v>2.7000000000000001E-3</v>
+        <f>_xll.qlQuoteValue($D2,AllTriggers)</f>
+        <v>2.8000000000000004E-3</v>
       </c>
       <c r="H2" s="59">
-        <f ca="1">_xll.qlOvernightIndexedSwapFairRate(B2,_xll.ohTrigger(C2,InterestRatesTrigger))</f>
-        <v>2.0999999999987691E-3</v>
+        <f>_xll.qlOvernightIndexedSwapFairRate(B2,_xll.ohTrigger(C2,InterestRatesTrigger))</f>
+        <v>1.81999999972815E-3</v>
       </c>
       <c r="I2" s="60">
-        <f ca="1">G2-H2</f>
-        <v>6.0000000000123106E-4</v>
+        <f>G2-H2</f>
+        <v>9.8000000027185044E-4</v>
       </c>
       <c r="J2" s="61" t="b">
         <v>0</v>
@@ -8982,7 +8981,7 @@
       </c>
       <c r="B3" s="65" t="str">
         <f>_xll.qlMakeDatedOIS(,E3,F3,OvernightIndex,0,,,,Trigger)</f>
-        <v>obj_00305#0003</v>
+        <v>obj_00328#0003</v>
       </c>
       <c r="C3" s="66" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B3,OisEngine)</f>
@@ -8994,40 +8993,40 @@
       </c>
       <c r="E3" s="68">
         <f>_xll.qlCalendarAdvance(Calendar,_xll.qlLastFixingQuoteReferenceDate(D3),_xll.qlInterestRateIndexFixingDays(A4)&amp;"D","f",,LastFixingsTrigger)</f>
-        <v>41739</v>
+        <v>41780</v>
       </c>
       <c r="F3" s="69">
         <f>_xll.qlInterestRateIndexMaturity(A4,E3)</f>
-        <v>41771</v>
+        <v>41813</v>
       </c>
       <c r="G3" s="70">
-        <f ca="1">_xll.qlQuoteValue(D3,AllTriggers)</f>
-        <v>2.5100000000000001E-3</v>
+        <f>_xll.qlQuoteValue(D3,AllTriggers)</f>
+        <v>2.5700000000000002E-3</v>
       </c>
       <c r="H3" s="71">
-        <f ca="1">_xll.qlOvernightIndexedSwapFairRate(B3,_xll.ohTrigger(C3,InterestRatesTrigger))</f>
-        <v>2.0999999999987691E-3</v>
+        <f>_xll.qlOvernightIndexedSwapFairRate(B3,_xll.ohTrigger(C3,InterestRatesTrigger))</f>
+        <v>1.8254643498211659E-3</v>
       </c>
       <c r="I3" s="72">
-        <f t="shared" ref="I3:I27" ca="1" si="1">G3-H3</f>
-        <v>4.1000000000123099E-4</v>
+        <f t="shared" ref="I3:I27" si="1">G3-H3</f>
+        <v>7.4453565017883433E-4</v>
       </c>
       <c r="J3" s="61" t="b">
-        <f ca="1">NOT(ISERROR(I3))</f>
+        <f>NOT(ISERROR(I3))</f>
         <v>1</v>
       </c>
       <c r="K3" s="73">
-        <f ca="1">K4</f>
-        <v>3.7896798245206622E-6</v>
+        <f>K4</f>
+        <v>-2.0233051827236627E-6</v>
       </c>
       <c r="L3" s="71">
-        <f ca="1">_xll.ohFilter($I$2:$I$3,$J$2:$J$3)-K3*_xll.ohFilter($P$2:$P$3,$J$2:$J$3)</f>
-        <v>2.8873024561656979E-4</v>
+        <f>_xll.ohFilter($I$2:$I$3,$J$2:$J$3)-K3*_xll.ohFilter($P$2:$P$3,$J$2:$J$3)</f>
+        <v>8.0725811084326787E-4</v>
       </c>
       <c r="M3" s="62"/>
       <c r="N3" s="63">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="O3" s="63">
         <f t="shared" si="0"/>
@@ -9035,18 +9034,18 @@
       </c>
       <c r="P3" s="62">
         <f>(O3^2-N3^2)/(O3-N3)</f>
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q3" s="61"/>
       <c r="R3" s="61"/>
       <c r="S3" s="61"/>
       <c r="T3" s="64">
         <f>(O3^3-N3^3)/3/(O3-N3)</f>
-        <v>341.33333333333331</v>
+        <v>331</v>
       </c>
       <c r="U3" s="64">
         <f>(O3+N3)/2</f>
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="V3" s="64">
         <v>1</v>
@@ -9059,7 +9058,7 @@
       </c>
       <c r="B4" s="65" t="str">
         <f>_xll.qlMakeDatedOIS(,E4,F4,OvernightIndex,0,,,,Trigger)</f>
-        <v>obj_00306#0003</v>
+        <v>obj_0032a#0003</v>
       </c>
       <c r="C4" s="66" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B4,OisEngine)</f>
@@ -9070,35 +9069,35 @@
       </c>
       <c r="E4" s="75">
         <f>F3</f>
-        <v>41771</v>
+        <v>41813</v>
       </c>
       <c r="F4" s="76">
         <f>F5</f>
-        <v>41800</v>
+        <v>41842</v>
       </c>
       <c r="G4" s="77">
-        <f ca="1">((1+G5*(F5-E5)/360)/(1+G3*(F3-E3)/360)-1)/(F4-E4)*360</f>
-        <v>2.4463507436920306E-3</v>
+        <f>((1+G5*(F5-E5)/360)/(1+G3*(F3-E3)/360)-1)/(F4-E4)*360</f>
+        <v>1.6185842057792436E-3</v>
       </c>
       <c r="H4" s="78">
-        <f ca="1">_xll.qlOvernightIndexedSwapFairRate(B4,_xll.ohTrigger(C4,InterestRatesTrigger))</f>
-        <v>1.8051802743950392E-3</v>
+        <f>_xll.qlOvernightIndexedSwapFairRate(B4,_xll.ohTrigger(C4,InterestRatesTrigger))</f>
+        <v>9.9949347692927641E-4</v>
       </c>
       <c r="I4" s="79">
-        <f ca="1">G4-H4</f>
-        <v>6.4117046929699139E-4</v>
+        <f>G4-H4</f>
+        <v>6.1909072884996723E-4</v>
       </c>
       <c r="J4" s="38" t="b">
-        <f ca="1">NOT(ISERROR(I4))</f>
+        <f>NOT(ISERROR(I4))</f>
         <v>1</v>
       </c>
       <c r="K4" s="78">
-        <f ca="1">(I4-_xll.ohFilter($I$2:$I$3,$J$2:$J$3))/(P4-_xll.ohFilter($P$2:$P$3,$J$2:$J$3))</f>
-        <v>3.7896798245206622E-6</v>
+        <f>(I4-_xll.ohFilter($I$2:$I$3,$J$2:$J$3))/(P4-_xll.ohFilter($P$2:$P$3,$J$2:$J$3))</f>
+        <v>-2.0233051827236627E-6</v>
       </c>
       <c r="L4" s="78">
-        <f ca="1">_xll.ohFilter($I$2:$I$3,$J$2:$J$3)-K4*_xll.ohFilter($P$2:$P$3,$J$2:$J$3)</f>
-        <v>2.8873024561656979E-4</v>
+        <f>_xll.ohFilter($I$2:$I$3,$J$2:$J$3)-K4*_xll.ohFilter($P$2:$P$3,$J$2:$J$3)</f>
+        <v>8.0725811084326787E-4</v>
       </c>
       <c r="M4" s="80"/>
       <c r="N4" s="81">
@@ -9134,15 +9133,15 @@
       </c>
       <c r="E5" s="75">
         <f>SettlementDate</f>
-        <v>41739</v>
+        <v>41781</v>
       </c>
       <c r="F5" s="76">
         <f>_xll.qlCalendarAdvance(Calendar,E5,"2M","mf")</f>
-        <v>41800</v>
+        <v>41842</v>
       </c>
       <c r="G5" s="84">
-        <f ca="1">_xll.qlQuoteValue($D5,AllTriggers)</f>
-        <v>2.48E-3</v>
+        <f>_xll.qlQuoteValue($D5,AllTriggers)</f>
+        <v>2.16E-3</v>
       </c>
       <c r="H5" s="78"/>
       <c r="I5" s="79"/>
@@ -9165,7 +9164,7 @@
       </c>
       <c r="B6" s="53" t="str">
         <f>_xll.qlMakeDatedOIS(,E6,F6,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_00376#0001</v>
+        <v>obj_0039f#0000</v>
       </c>
       <c r="C6" s="54" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B6,OisEngine)</f>
@@ -9177,23 +9176,23 @@
       </c>
       <c r="E6" s="56">
         <f>SettlementDate</f>
-        <v>41739</v>
+        <v>41781</v>
       </c>
       <c r="F6" s="57">
         <f>_xll.qlCalendarAdvance(Calendar,E6,A7,"mf")</f>
-        <v>41830</v>
+        <v>41873</v>
       </c>
       <c r="G6" s="58">
-        <f ca="1">_xll.qlQuoteValue($D6,AllTriggers)</f>
-        <v>3.4000000000000002E-3</v>
+        <f>_xll.qlQuoteValue($D6,AllTriggers)</f>
+        <v>3.3E-3</v>
       </c>
       <c r="H6" s="59">
-        <f ca="1">_xll.qlOvernightIndexedSwapFairRate(B6,_xll.ohTrigger(C6,InterestRatesTrigger))</f>
-        <v>1.8599999999999754E-3</v>
+        <f>_xll.qlOvernightIndexedSwapFairRate(B6,_xll.ohTrigger(C6,InterestRatesTrigger))</f>
+        <v>1.2400000000983122E-3</v>
       </c>
       <c r="I6" s="60">
-        <f t="shared" ca="1" si="1"/>
-        <v>1.5400000000000249E-3</v>
+        <f t="shared" si="1"/>
+        <v>2.0599999999016878E-3</v>
       </c>
       <c r="J6" s="61" t="b">
         <v>0</v>
@@ -9207,22 +9206,22 @@
       </c>
       <c r="O6" s="63">
         <f t="shared" ref="O6:O9" si="3">F6-SettlementDate</f>
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="P6" s="62">
         <f>(O6^2-N6^2)/(O6-N6)</f>
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="Q6" s="61"/>
       <c r="R6" s="61"/>
       <c r="S6" s="61"/>
       <c r="T6" s="64">
         <f t="shared" ref="T6:T27" si="4">(O6^3-N6^3)/3/(O6-N6)</f>
-        <v>2760.3333333333335</v>
+        <v>2821.333333333333</v>
       </c>
       <c r="U6" s="64">
         <f t="shared" ref="U6:U27" si="5">(O6+N6)/2</f>
-        <v>45.5</v>
+        <v>46</v>
       </c>
       <c r="V6" s="64">
         <v>1</v>
@@ -9235,7 +9234,7 @@
       </c>
       <c r="B7" s="65" t="str">
         <f>_xll.qlMakeDatedOIS(,E7,F7,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_00304#0003</v>
+        <v>obj_00327#0003</v>
       </c>
       <c r="C7" s="66" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B7,OisEngine)</f>
@@ -9247,26 +9246,26 @@
       </c>
       <c r="E7" s="68">
         <f>_xll.qlCalendarAdvance(Calendar,_xll.qlLastFixingQuoteReferenceDate(D7),_xll.qlInterestRateIndexFixingDays(A8)&amp;"D","f",,LastFixingsTrigger)</f>
-        <v>41739</v>
+        <v>41780</v>
       </c>
       <c r="F7" s="69">
         <f>_xll.qlInterestRateIndexMaturity(A8,E7)</f>
-        <v>41830</v>
+        <v>41872</v>
       </c>
       <c r="G7" s="70">
-        <f ca="1">_xll.qlQuoteValue(D7,AllTriggers)</f>
-        <v>3.2700000000000003E-3</v>
+        <f>_xll.qlQuoteValue(D7,AllTriggers)</f>
+        <v>3.1800000000000001E-3</v>
       </c>
       <c r="H7" s="71">
-        <f ca="1">_xll.qlOvernightIndexedSwapFairRate(B7,_xll.ohTrigger(C7,InterestRatesTrigger))</f>
-        <v>1.8599999999999754E-3</v>
+        <f>_xll.qlOvernightIndexedSwapFairRate(B7,_xll.ohTrigger(C7,InterestRatesTrigger))</f>
+        <v>1.2528522680846971E-3</v>
       </c>
       <c r="I7" s="72">
-        <f t="shared" ca="1" si="1"/>
-        <v>1.4100000000000249E-3</v>
+        <f t="shared" si="1"/>
+        <v>1.927147731915303E-3</v>
       </c>
       <c r="J7" s="61" t="b">
-        <f ca="1">AND(ISERROR(I8),ISERROR(I9),NOT(ISERROR(I7)))</f>
+        <f>AND(NOT(ISERROR(I7)),E10&lt;&gt;SettlementDate)</f>
         <v>1</v>
       </c>
       <c r="K7" s="88"/>
@@ -9274,7 +9273,7 @@
       <c r="M7" s="62"/>
       <c r="N7" s="63">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="O7" s="63">
         <f t="shared" si="3"/>
@@ -9282,18 +9281,18 @@
       </c>
       <c r="P7" s="62">
         <f t="shared" ref="P7:P27" si="6">(O7^2-N7^2)/(O7-N7)</f>
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q7" s="61"/>
       <c r="R7" s="61"/>
       <c r="S7" s="61"/>
       <c r="T7" s="64">
         <f t="shared" si="4"/>
-        <v>2760.3333333333335</v>
+        <v>2730.333333333333</v>
       </c>
       <c r="U7" s="64">
         <f t="shared" si="5"/>
-        <v>45.5</v>
+        <v>45</v>
       </c>
       <c r="V7" s="64">
         <v>1</v>
@@ -9326,22 +9325,22 @@
       </c>
       <c r="O8" s="63">
         <f t="shared" si="3"/>
-        <v>-41739</v>
+        <v>-41781</v>
       </c>
       <c r="P8" s="62">
         <f t="shared" si="6"/>
-        <v>-41739</v>
+        <v>-41781</v>
       </c>
       <c r="Q8" s="61"/>
       <c r="R8" s="61"/>
       <c r="S8" s="61"/>
       <c r="T8" s="64">
         <f t="shared" si="4"/>
-        <v>580714707</v>
+        <v>581883987</v>
       </c>
       <c r="U8" s="64">
         <f t="shared" si="5"/>
-        <v>-20869.5</v>
+        <v>-20890.5</v>
       </c>
       <c r="V8" s="64">
         <v>1</v>
@@ -9372,21 +9371,21 @@
         <v>0</v>
       </c>
       <c r="K9" s="71">
-        <f ca="1">AVERAGE(_xll.ohFilter(K10:K12,J10:J12))</f>
-        <v>1.9776626199524396E-6</v>
+        <f>AVERAGE(_xll.ohFilter(K10:K12,J10:J12))</f>
+        <v>-3.5824453964285539E-6</v>
       </c>
       <c r="L9" s="71">
-        <f ca="1">_xll.ohFilter($I$6:$I$9,$J$6:$J$9)-K9*_xll.ohFilter($P$6:$P$9,$J$6:$J$9)</f>
-        <v>1.2300327015843529E-3</v>
+        <f>_xll.ohFilter($I$6:$I$9,$J$6:$J$9)-K9*_xll.ohFilter($P$6:$P$9,$J$6:$J$9)</f>
+        <v>2.2495678175938729E-3</v>
       </c>
       <c r="M9" s="62"/>
       <c r="N9" s="63">
         <f t="shared" si="2"/>
-        <v>-41739</v>
+        <v>-41781</v>
       </c>
       <c r="O9" s="63">
         <f t="shared" si="3"/>
-        <v>-41739</v>
+        <v>-41781</v>
       </c>
       <c r="P9" s="62" t="e">
         <f t="shared" si="6"/>
@@ -9401,56 +9400,54 @@
       </c>
       <c r="U9" s="64">
         <f t="shared" si="5"/>
-        <v>-41739</v>
+        <v>-41781</v>
       </c>
       <c r="V9" s="64">
         <v>1</v>
       </c>
       <c r="X9" s="91">
-        <f t="array" aca="1" ref="X9:X11" ca="1">_xll.ohFilter(T6:T14,$J6:$J14)</f>
-        <v>2760.3333333333335</v>
+        <f t="array" ref="X9:X11">_xll.ohFilter(T6:T14,$J6:$J14)</f>
+        <v>2730.333333333333</v>
       </c>
       <c r="Y9" s="94">
-        <f t="array" aca="1" ref="Y9:Y11" ca="1">_xll.ohFilter(U6:U14,$J6:$J14)</f>
-        <v>45.5</v>
+        <f t="array" ref="Y9:Y11">_xll.ohFilter(U6:U14,$J6:$J14)</f>
+        <v>45</v>
       </c>
       <c r="Z9" s="97">
-        <f t="array" aca="1" ref="Z9:Z11" ca="1">_xll.ohFilter(V6:V14,$J6:$J14)</f>
+        <f t="array" ref="Z9:Z11">_xll.ohFilter(V6:V14,$J6:$J14)</f>
         <v>1</v>
       </c>
       <c r="AB9" s="100">
-        <f t="array" aca="1" ref="AB9:AB11" ca="1">MMULT(AF9:AH11,AD9:AD11)</f>
-        <v>-1.0672619131344492E-7</v>
+        <f t="array" ref="AB9:AB11">MMULT(AF9:AH11,AD9:AD11)</f>
+        <v>-1.8501361794623499E-8</v>
       </c>
       <c r="AD9" s="100">
-        <f t="array" aca="1" ref="AD9:AD11" ca="1">_xll.ohFilter(I6:I14,$J6:$J14)</f>
-        <v>1.4100000000000249E-3</v>
+        <f t="array" ref="AD9:AD11">_xll.ohFilter(I6:I14,$J6:$J14)</f>
+        <v>1.927147731915303E-3</v>
       </c>
       <c r="AF9" s="103">
-        <f t="array" aca="1" ref="AF9:AH11" ca="1">MINVERSE(X9:Z11)</f>
-        <v>2.3898234917767457E-3</v>
+        <f t="array" ref="AF9:AH11">MINVERSE(X9:Z11)</f>
+        <v>6.3775510204081595E-4</v>
       </c>
       <c r="AG9" s="104">
-        <f ca="1"/>
-        <v>-2.6156335854879346E-3</v>
+        <v>-1.2755102040816323E-3</v>
       </c>
       <c r="AH9" s="105">
-        <f ca="1"/>
-        <v>2.2581009371118869E-4</v>
+        <v>6.3775510204081638E-4</v>
       </c>
       <c r="AJ9" s="112">
-        <f t="array" aca="1" ref="AJ9:AJ11" ca="1">MMULT(X9:Z11,AB9:AB11)-AD9:AD11</f>
-        <v>4.1199682554449168E-18</v>
+        <f t="array" ref="AJ9:AJ11">MMULT(X9:Z11,AB9:AB11)-AD9:AD11</f>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A10" s="38" t="str">
-        <f>_xll.qlIMMNextCode(EvaluationDate,FALSE)</f>
-        <v>J4</v>
+        <f>_xll.qlIMMNextCode(SettlementDate-1,FALSE)</f>
+        <v>M4</v>
       </c>
       <c r="B10" s="89" t="str">
         <f>_xll.qlMakeDatedOIS(,E10,F10,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_00368#0001</v>
+        <v>obj_00391#0004</v>
       </c>
       <c r="C10" s="66" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B10,OisEngine)</f>
@@ -9458,115 +9455,106 @@
       </c>
       <c r="D10" s="74" t="str">
         <f>Currency&amp;"FUT3M"&amp;A10&amp;QuoteSuffix</f>
-        <v>EURFUT3MJ4_Quote</v>
+        <v>EURFUT3MM4_Quote</v>
       </c>
       <c r="E10" s="75">
         <f>_xll.qlIMMdate(A10)</f>
-        <v>41745</v>
+        <v>41808</v>
       </c>
       <c r="F10" s="76">
         <f>_xll.qlCalendarAdvance(Calendar,E10,"3M","mf")</f>
-        <v>41836</v>
+        <v>41900</v>
       </c>
       <c r="G10" s="84">
-        <f ca="1">1-_xll.qlQuoteValue($D10,AllTriggers)/100</f>
-        <v>3.2750000000000279E-3</v>
+        <f>1-_xll.qlQuoteValue($D10,AllTriggers)/100</f>
+        <v>2.6249999999999885E-3</v>
       </c>
       <c r="H10" s="78">
-        <f ca="1">_xll.qlOvernightIndexedSwapFairRate(B10,_xll.ohTrigger(C10,InterestRatesTrigger))</f>
-        <v>1.8230262284821125E-3</v>
+        <f>_xll.qlOvernightIndexedSwapFairRate(B10,_xll.ohTrigger(C10,InterestRatesTrigger))</f>
+        <v>8.9270409897648415E-4</v>
       </c>
       <c r="I10" s="79">
-        <f t="shared" ca="1" si="1"/>
-        <v>1.4519737715179154E-3</v>
+        <f t="shared" si="1"/>
+        <v>1.7322959010235043E-3</v>
       </c>
       <c r="J10" s="38" t="b">
-        <f ca="1">AND(NOT(ISERROR(I10)),E10&lt;&gt;$E$9,E10&lt;&gt;SettlementDate)</f>
+        <f>AND(NOT(ISERROR(I10)))</f>
         <v>1</v>
       </c>
       <c r="K10" s="78">
-        <f ca="1">(I10-_xll.ohFilter($I$6:$I$9,$J$6:$J$9))/(P10-_xll.ohFilter($P$6:$P$9,$J$6:$J$9))</f>
-        <v>3.4978142931575357E-6</v>
+        <f>(I10-_xll.ohFilter($I$6:$I$9,$J$6:$J$9))/(P10-_xll.ohFilter($P$6:$P$9,$J$6:$J$9))</f>
+        <v>-3.4794969802106918E-6</v>
       </c>
       <c r="L10" s="78">
-        <f ca="1">_xll.ohFilter($I$6:$I$9,$J$6:$J$9)-K10*_xll.ohFilter($P$6:$P$9,$J$6:$J$9)</f>
-        <v>1.0916988993226891E-3</v>
+        <f>_xll.ohFilter($I$6:$I$9,$J$6:$J$9)-K10*_xll.ohFilter($P$6:$P$9,$J$6:$J$9)</f>
+        <v>2.2403024601342653E-3</v>
       </c>
       <c r="M10" s="80"/>
       <c r="N10" s="81">
         <f t="shared" ref="N10:N18" si="7">E10-SettlementDate</f>
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="O10" s="81">
         <f t="shared" ref="O10:O18" si="8">F10-SettlementDate</f>
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="P10" s="80">
         <f t="shared" si="6"/>
-        <v>103</v>
+        <v>146</v>
       </c>
       <c r="T10" s="82">
         <f t="shared" si="4"/>
-        <v>3342.333333333333</v>
+        <v>6034.333333333333</v>
       </c>
       <c r="U10" s="82">
         <f t="shared" si="5"/>
-        <v>51.5</v>
+        <v>73</v>
       </c>
       <c r="V10" s="82">
         <v>1</v>
       </c>
       <c r="X10" s="92">
-        <f ca="1"/>
-        <v>3342.333333333333</v>
+        <v>6034.333333333333</v>
       </c>
       <c r="Y10" s="95">
-        <f ca="1"/>
-        <v>51.5</v>
+        <v>73</v>
       </c>
       <c r="Z10" s="98">
-        <f ca="1"/>
         <v>1</v>
       </c>
       <c r="AA10" s="51" t="s">
         <v>56</v>
       </c>
       <c r="AB10" s="101">
-        <f ca="1"/>
-        <v>1.7348069143719305E-5</v>
+        <v>-4.7758332686557704E-6</v>
       </c>
       <c r="AC10" s="51" t="s">
         <v>57</v>
       </c>
       <c r="AD10" s="101">
-        <f ca="1"/>
-        <v>1.4519737715179154E-3</v>
+        <v>1.7322959010235043E-3</v>
       </c>
       <c r="AF10" s="106">
-        <f ca="1"/>
-        <v>-0.39847954536901076</v>
+        <v>-0.11096938775510198</v>
       </c>
       <c r="AG10" s="107">
-        <f ca="1"/>
-        <v>0.42038312445899612</v>
+        <v>0.1862244897959183</v>
       </c>
       <c r="AH10" s="108">
-        <f ca="1"/>
-        <v>-2.1903579089985293E-2</v>
+        <v>-7.5255102040816299E-2</v>
       </c>
       <c r="AJ10" s="113">
-        <f ca="1"/>
-        <v>4.7704895589362195E-18</v>
+        <v>1.0842021724855044E-18</v>
       </c>
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A11" s="38" t="str">
         <f>_xll.qlIMMNextCode(E10,IF(_xll.qlIMMIsIMMdate(E10,TRUE),FALSE,TRUE))</f>
-        <v>M4</v>
+        <v>N4</v>
       </c>
       <c r="B11" s="89" t="str">
         <f>_xll.qlMakeDatedOIS(,E11,F11,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_00384#0001</v>
+        <v>obj_0039b#0004</v>
       </c>
       <c r="C11" s="66" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B11,OisEngine)</f>
@@ -9574,99 +9562,90 @@
       </c>
       <c r="D11" s="74" t="str">
         <f>Currency&amp;"FUT3M"&amp;A11&amp;QuoteSuffix</f>
-        <v>EURFUT3MM4_Quote</v>
+        <v>EURFUT3MN4_Quote</v>
       </c>
       <c r="E11" s="75">
         <f>_xll.qlIMMdate(A11)</f>
-        <v>41808</v>
+        <v>41836</v>
       </c>
       <c r="F11" s="76">
         <f>_xll.qlCalendarAdvance(Calendar,E11,"3M","mf")</f>
-        <v>41900</v>
+        <v>41928</v>
       </c>
       <c r="G11" s="84">
-        <f ca="1">1-_xll.qlQuoteValue($D11,AllTriggers)/100</f>
-        <v>2.9250000000000664E-3</v>
+        <f>1-_xll.qlQuoteValue($D11,AllTriggers)/100</f>
+        <v>2.3250000000000215E-3</v>
       </c>
       <c r="H11" s="78">
-        <f ca="1">_xll.qlOvernightIndexedSwapFairRate(B11,_xll.ohTrigger(C11,InterestRatesTrigger))</f>
-        <v>1.5014407514827347E-3</v>
+        <f>_xll.qlOvernightIndexedSwapFairRate(B11,_xll.ohTrigger(C11,InterestRatesTrigger))</f>
+        <v>8.1656606516228552E-4</v>
       </c>
       <c r="I11" s="79">
-        <f t="shared" ca="1" si="1"/>
-        <v>1.4235592485173317E-3</v>
+        <f t="shared" si="1"/>
+        <v>1.5084339348377359E-3</v>
       </c>
       <c r="J11" s="38" t="b">
-        <f ca="1">NOT(ISERROR(I11))</f>
+        <f>NOT(ISERROR(I11))</f>
         <v>1</v>
       </c>
       <c r="K11" s="78">
-        <f ca="1">(I11-_xll.ohFilter($I$6:$I$9,$J$6:$J$9))/(P11-_xll.ohFilter($P$6:$P$9,$J$6:$J$9))</f>
-        <v>9.754855048422149E-8</v>
+        <f>(I11-_xll.ohFilter($I$6:$I$9,$J$6:$J$9))/(P11-_xll.ohFilter($P$6:$P$9,$J$6:$J$9))</f>
+        <v>-3.7385160453354212E-6</v>
       </c>
       <c r="L11" s="78">
-        <f ca="1">_xll.ohFilter($I$6:$I$9,$J$6:$J$9)-K11*_xll.ohFilter($P$6:$P$9,$J$6:$J$9)</f>
-        <v>1.4011230819059607E-3</v>
+        <f>_xll.ohFilter($I$6:$I$9,$J$6:$J$9)-K11*_xll.ohFilter($P$6:$P$9,$J$6:$J$9)</f>
+        <v>2.2636141759954909E-3</v>
       </c>
       <c r="M11" s="80"/>
       <c r="N11" s="81">
         <f t="shared" si="7"/>
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="O11" s="81">
         <f t="shared" si="8"/>
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="P11" s="80">
         <f t="shared" si="6"/>
-        <v>230</v>
+        <v>202</v>
       </c>
       <c r="T11" s="82">
         <f t="shared" si="4"/>
-        <v>13930.333333333334</v>
+        <v>10906.333333333332</v>
       </c>
       <c r="U11" s="82">
         <f t="shared" si="5"/>
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="V11" s="82">
         <v>1</v>
       </c>
       <c r="X11" s="93">
-        <f ca="1"/>
-        <v>13930.333333333334</v>
+        <v>10906.333333333332</v>
       </c>
       <c r="Y11" s="96">
-        <f ca="1"/>
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="Z11" s="99">
-        <f ca="1"/>
         <v>1</v>
       </c>
       <c r="AB11" s="102">
-        <f ca="1"/>
-        <v>9.1526271738301326E-4</v>
+        <v>2.1925751138247331E-3</v>
       </c>
       <c r="AD11" s="102">
-        <f ca="1"/>
-        <v>1.4235592485173317E-3</v>
+        <v>1.5084339348377359E-3</v>
       </c>
       <c r="AF11" s="109">
-        <f ca="1"/>
-        <v>12.53410986915558</v>
+        <v>4.2523384353741482</v>
       </c>
       <c r="AG11" s="110">
-        <f ca="1"/>
-        <v>-11.907411589075794</v>
+        <v>-4.8975340136054406</v>
       </c>
       <c r="AH11" s="111">
-        <f ca="1"/>
-        <v>0.37330171992021299</v>
+        <v>1.6451955782312919</v>
       </c>
       <c r="AJ11" s="114">
-        <f ca="1"/>
-        <v>9.540979117872439E-18</v>
+        <v>2.1684043449710089E-18</v>
       </c>
     </row>
     <row r="12" spans="1:36" x14ac:dyDescent="0.2">
@@ -9675,7 +9654,7 @@
       </c>
       <c r="B12" s="89" t="str">
         <f>_xll.qlMakeDatedOIS(,E12,F12,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_0037a#0001</v>
+        <v>obj_0039e#0000</v>
       </c>
       <c r="C12" s="66" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B12,OisEngine)</f>
@@ -9687,35 +9666,35 @@
       </c>
       <c r="E12" s="75">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A12&amp;"M","mf")</f>
-        <v>41771</v>
+        <v>41813</v>
       </c>
       <c r="F12" s="76">
         <f>_xll.qlInterestRateIndexMaturity($A$8,E12)</f>
-        <v>41863</v>
+        <v>41905</v>
       </c>
       <c r="G12" s="84">
-        <f ca="1">_xll.qlQuoteValue(D12,AllTriggers)</f>
-        <v>3.1999999999999997E-3</v>
+        <f>_xll.qlQuoteValue(D12,AllTriggers)</f>
+        <v>2.5800000000000003E-3</v>
       </c>
       <c r="H12" s="78">
-        <f ca="1">_xll.qlOvernightIndexedSwapFairRate(B12,_xll.ohTrigger(C12,InterestRatesTrigger))</f>
-        <v>1.6380543739459633E-3</v>
+        <f>_xll.qlOvernightIndexedSwapFairRate(B12,_xll.ohTrigger(C12,InterestRatesTrigger))</f>
+        <v>8.8578759689150754E-4</v>
       </c>
       <c r="I12" s="79">
-        <f ca="1">G12-H12</f>
-        <v>1.5619456260540364E-3</v>
+        <f>G12-H12</f>
+        <v>1.6942124031084928E-3</v>
       </c>
       <c r="J12" s="38" t="b">
-        <f ca="1">AND(NOT(ISERROR(I12)),E12&lt;&gt;$E$11,E12&lt;&gt;$E$10)</f>
+        <f>AND(NOT(ISERROR(I12)),E12&lt;&gt;$E$11,E12&lt;&gt;$E$10)</f>
         <v>1</v>
       </c>
       <c r="K12" s="78">
-        <f ca="1">(I12-_xll.ohFilter($I$6:$I$9,$J$6:$J$9))/(P12-_xll.ohFilter($P$6:$P$9,$J$6:$J$9))</f>
-        <v>2.3376250162155614E-6</v>
+        <f>(I12-_xll.ohFilter($I$6:$I$9,$J$6:$J$9))/(P12-_xll.ohFilter($P$6:$P$9,$J$6:$J$9))</f>
+        <v>-3.5293231637395488E-6</v>
       </c>
       <c r="L12" s="78">
-        <f ca="1">_xll.ohFilter($I$6:$I$9,$J$6:$J$9)-K12*_xll.ohFilter($P$6:$P$9,$J$6:$J$9)</f>
-        <v>1.197276123524409E-3</v>
+        <f>_xll.ohFilter($I$6:$I$9,$J$6:$J$9)-K12*_xll.ohFilter($P$6:$P$9,$J$6:$J$9)</f>
+        <v>2.2447868166518624E-3</v>
       </c>
       <c r="M12" s="80"/>
       <c r="N12" s="81">
@@ -9751,7 +9730,7 @@
       </c>
       <c r="B13" s="89" t="str">
         <f>_xll.qlMakeDatedOIS(,E13,F13,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_00381#0001</v>
+        <v>obj_003a7#0000</v>
       </c>
       <c r="C13" s="66" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B13,OisEngine)</f>
@@ -9763,35 +9742,35 @@
       </c>
       <c r="E13" s="75">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A13&amp;"M","mf")</f>
-        <v>41800</v>
+        <v>41842</v>
       </c>
       <c r="F13" s="76">
         <f>_xll.qlInterestRateIndexMaturity($A$8,E13)</f>
-        <v>41892</v>
+        <v>41934</v>
       </c>
       <c r="G13" s="84">
-        <f ca="1">_xll.qlQuoteValue(D13,AllTriggers)</f>
-        <v>2.9600000000000004E-3</v>
+        <f>_xll.qlQuoteValue(D13,AllTriggers)</f>
+        <v>2.4499999999999999E-3</v>
       </c>
       <c r="H13" s="78">
-        <f ca="1">_xll.qlOvernightIndexedSwapFairRate(B13,_xll.ohTrigger(C13,InterestRatesTrigger))</f>
-        <v>1.5271015282670574E-3</v>
+        <f>_xll.qlOvernightIndexedSwapFairRate(B13,_xll.ohTrigger(C13,InterestRatesTrigger))</f>
+        <v>7.9785015523086539E-4</v>
       </c>
       <c r="I13" s="79">
-        <f ca="1">G13-H13</f>
-        <v>1.432898471732943E-3</v>
+        <f>G13-H13</f>
+        <v>1.6521498447691345E-3</v>
       </c>
       <c r="J13" s="38" t="b">
-        <f ca="1">AND(NOT(ISERROR(I13)),E13&lt;&gt;$E$11,E13&lt;&gt;$E$10)</f>
+        <f>AND(NOT(ISERROR(I13)),E13&lt;&gt;$E$11,E13&lt;&gt;$E$10)</f>
         <v>1</v>
       </c>
       <c r="K13" s="78">
-        <f ca="1">(I13-_xll.ohFilter($I$6:$I$9,$J$6:$J$9))/(P13-_xll.ohFilter($P$6:$P$9,$J$6:$J$9))</f>
-        <v>1.861664368529924E-7</v>
+        <f>(I13-_xll.ohFilter($I$6:$I$9,$J$6:$J$9))/(P13-_xll.ohFilter($P$6:$P$9,$J$6:$J$9))</f>
+        <v>-2.2177248963400685E-6</v>
       </c>
       <c r="L13" s="78">
-        <f ca="1">_xll.ohFilter($I$6:$I$9,$J$6:$J$9)-K13*_xll.ohFilter($P$6:$P$9,$J$6:$J$9)</f>
-        <v>1.3930588542464025E-3</v>
+        <f>_xll.ohFilter($I$6:$I$9,$J$6:$J$9)-K13*_xll.ohFilter($P$6:$P$9,$J$6:$J$9)</f>
+        <v>2.1267429725859094E-3</v>
       </c>
       <c r="M13" s="80"/>
       <c r="N13" s="81">
@@ -9827,7 +9806,7 @@
       </c>
       <c r="B14" s="89" t="str">
         <f>_xll.qlMakeDatedOIS(,E14,F14,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_00382#0001</v>
+        <v>obj_003a3#0000</v>
       </c>
       <c r="C14" s="66" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B14,OisEngine)</f>
@@ -9839,56 +9818,56 @@
       </c>
       <c r="E14" s="75">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A14&amp;"M","mf")</f>
-        <v>41830</v>
+        <v>41873</v>
       </c>
       <c r="F14" s="76">
         <f>_xll.qlInterestRateIndexMaturity($A$8,E14)</f>
-        <v>41922</v>
+        <v>41967</v>
       </c>
       <c r="G14" s="84">
-        <f ca="1">_xll.qlQuoteValue(D14,AllTriggers)</f>
-        <v>2.8900000000000002E-3</v>
+        <f>_xll.qlQuoteValue(D14,AllTriggers)</f>
+        <v>2.3E-3</v>
       </c>
       <c r="H14" s="78">
-        <f ca="1">_xll.qlOvernightIndexedSwapFairRate(B14,_xll.ohTrigger(C14,InterestRatesTrigger))</f>
-        <v>1.4416048141656067E-3</v>
+        <f>_xll.qlOvernightIndexedSwapFairRate(B14,_xll.ohTrigger(C14,InterestRatesTrigger))</f>
+        <v>7.4508304030296518E-4</v>
       </c>
       <c r="I14" s="79">
-        <f ca="1">G14-H14</f>
-        <v>1.4483951858343936E-3</v>
+        <f>G14-H14</f>
+        <v>1.5549169596970349E-3</v>
       </c>
       <c r="J14" s="38" t="b">
-        <f ca="1">AND(NOT(ISERROR(I14)),E14&lt;&gt;$E$11,E14&lt;&gt;$E$10)</f>
+        <f>AND(NOT(ISERROR(I14)),E14&lt;&gt;$E$11,E14&lt;&gt;$E$10)</f>
         <v>1</v>
       </c>
       <c r="K14" s="78">
-        <f ca="1">(I14-_xll.ohFilter($I$6:$I$9,$J$6:$J$9))/(P14-_xll.ohFilter($P$6:$P$9,$J$6:$J$9))</f>
-        <v>2.0980975865775194E-7</v>
+        <f>(I14-_xll.ohFilter($I$6:$I$9,$J$6:$J$9))/(P14-_xll.ohFilter($P$6:$P$9,$J$6:$J$9))</f>
+        <v>-1.9799509160546179E-6</v>
       </c>
       <c r="L14" s="78">
-        <f ca="1">_xll.ohFilter($I$6:$I$9,$J$6:$J$9)-K14*_xll.ohFilter($P$6:$P$9,$J$6:$J$9)</f>
-        <v>1.3909073119621695E-3</v>
+        <f>_xll.ohFilter($I$6:$I$9,$J$6:$J$9)-K14*_xll.ohFilter($P$6:$P$9,$J$6:$J$9)</f>
+        <v>2.1053433143602188E-3</v>
       </c>
       <c r="M14" s="80"/>
       <c r="N14" s="81">
         <f t="shared" si="7"/>
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O14" s="81">
         <f t="shared" si="8"/>
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="P14" s="80">
         <f t="shared" si="6"/>
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="T14" s="82">
         <f t="shared" si="4"/>
-        <v>19474.333333333336</v>
+        <v>20057.333333333332</v>
       </c>
       <c r="U14" s="82">
         <f t="shared" si="5"/>
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="V14" s="82">
         <v>1</v>
@@ -9903,7 +9882,7 @@
       </c>
       <c r="B15" s="53" t="str">
         <f>_xll.qlMakeDatedOIS(,E15,F15,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_00379#0001</v>
+        <v>obj_003a6#0000</v>
       </c>
       <c r="C15" s="54" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B15,OisEngine)</f>
@@ -9915,23 +9894,23 @@
       </c>
       <c r="E15" s="56">
         <f>SettlementDate</f>
-        <v>41739</v>
+        <v>41781</v>
       </c>
       <c r="F15" s="57">
         <f>_xll.qlCalendarAdvance(Calendar,E15,A16,"mf")</f>
-        <v>41922</v>
+        <v>41967</v>
       </c>
       <c r="G15" s="58">
-        <f ca="1">_xll.qlQuoteValue($D15,AllTriggers)</f>
+        <f>_xll.qlQuoteValue($D15,AllTriggers)</f>
         <v>4.3E-3</v>
       </c>
       <c r="H15" s="59">
-        <f ca="1">_xll.qlOvernightIndexedSwapFairRate(B15,_xll.ohTrigger(C15,InterestRatesTrigger))</f>
-        <v>1.6499999999999987E-3</v>
+        <f>_xll.qlOvernightIndexedSwapFairRate(B15,_xll.ohTrigger(C15,InterestRatesTrigger))</f>
+        <v>9.8999999999999631E-4</v>
       </c>
       <c r="I15" s="60">
-        <f t="shared" ca="1" si="1"/>
-        <v>2.6500000000000013E-3</v>
+        <f t="shared" si="1"/>
+        <v>3.3100000000000039E-3</v>
       </c>
       <c r="J15" s="61" t="b">
         <v>0</v>
@@ -9945,22 +9924,22 @@
       </c>
       <c r="O15" s="63">
         <f t="shared" si="8"/>
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="P15" s="62">
         <f t="shared" si="6"/>
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Q15" s="61"/>
       <c r="R15" s="61"/>
       <c r="S15" s="61"/>
       <c r="T15" s="64">
         <f t="shared" si="4"/>
-        <v>11163</v>
+        <v>11532</v>
       </c>
       <c r="U15" s="64">
         <f t="shared" si="5"/>
-        <v>91.5</v>
+        <v>93</v>
       </c>
       <c r="V15" s="64">
         <v>1</v>
@@ -9973,7 +9952,7 @@
       </c>
       <c r="B16" s="65" t="str">
         <f>_xll.qlMakeDatedOIS(,E16,F16,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_00302#0003</v>
+        <v>obj_00329#0003</v>
       </c>
       <c r="C16" s="66" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B16,OisEngine)</f>
@@ -9985,26 +9964,26 @@
       </c>
       <c r="E16" s="68">
         <f>_xll.qlCalendarAdvance(Calendar,_xll.qlLastFixingQuoteReferenceDate(D16),_xll.qlInterestRateIndexFixingDays(A17)&amp;"D","f",,LastFixingsTrigger)</f>
-        <v>41739</v>
+        <v>41780</v>
       </c>
       <c r="F16" s="69">
         <f>_xll.qlInterestRateIndexMaturity(A17,E16)</f>
-        <v>41922</v>
+        <v>41964</v>
       </c>
       <c r="G16" s="70">
-        <f ca="1">_xll.qlQuoteValue(D16,AllTriggers)</f>
-        <v>4.2599999999999999E-3</v>
+        <f>_xll.qlQuoteValue(D16,AllTriggers)</f>
+        <v>4.0899999999999999E-3</v>
       </c>
       <c r="H16" s="71">
-        <f ca="1">_xll.qlOvernightIndexedSwapFairRate(B16,_xll.ohTrigger(C16,InterestRatesTrigger))</f>
-        <v>1.6499999999999987E-3</v>
+        <f>_xll.qlOvernightIndexedSwapFairRate(B16,_xll.ohTrigger(C16,InterestRatesTrigger))</f>
+        <v>1.0009312282693137E-3</v>
       </c>
       <c r="I16" s="72">
-        <f t="shared" ca="1" si="1"/>
-        <v>2.6100000000000012E-3</v>
+        <f t="shared" si="1"/>
+        <v>3.0890687717306862E-3</v>
       </c>
       <c r="J16" s="61" t="b">
-        <f ca="1">AND(ISERROR(I17),ISERROR(I18),NOT(ISERROR(I16)))</f>
+        <f>AND(ISERROR(I17),ISERROR(I18),NOT(ISERROR(I16)))</f>
         <v>1</v>
       </c>
       <c r="K16" s="62"/>
@@ -10012,7 +9991,7 @@
       <c r="M16" s="62"/>
       <c r="N16" s="63">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="O16" s="63">
         <f t="shared" si="8"/>
@@ -10020,18 +9999,18 @@
       </c>
       <c r="P16" s="62">
         <f t="shared" si="6"/>
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="Q16" s="61"/>
       <c r="R16" s="61"/>
       <c r="S16" s="61"/>
       <c r="T16" s="64">
         <f t="shared" si="4"/>
-        <v>11163</v>
+        <v>11102.333333333332</v>
       </c>
       <c r="U16" s="64">
         <f t="shared" si="5"/>
-        <v>91.5</v>
+        <v>91</v>
       </c>
       <c r="V16" s="64">
         <v>1</v>
@@ -10061,11 +10040,11 @@
       <c r="M17" s="62"/>
       <c r="N17" s="63">
         <f t="shared" si="7"/>
-        <v>-41739</v>
+        <v>-41781</v>
       </c>
       <c r="O17" s="63">
         <f t="shared" si="8"/>
-        <v>-41739</v>
+        <v>-41781</v>
       </c>
       <c r="P17" s="62" t="e">
         <f t="shared" si="6"/>
@@ -10080,7 +10059,7 @@
       </c>
       <c r="U17" s="64">
         <f t="shared" si="5"/>
-        <v>-41739</v>
+        <v>-41781</v>
       </c>
       <c r="V17" s="64">
         <v>1</v>
@@ -10108,21 +10087,21 @@
         <v>0</v>
       </c>
       <c r="K18" s="71">
-        <f ca="1">AVERAGE(_xll.ohFilter(K19:K21,J19:J21))</f>
-        <v>1.3475157681380049E-7</v>
+        <f>AVERAGE(_xll.ohFilter(K19:K21,J19:J21))</f>
+        <v>-3.4543582156529943E-6</v>
       </c>
       <c r="L18" s="71">
-        <f ca="1">_xll.ohFilter($I$15:$I$18,$J$15:$J$18)-K18*_xll.ohFilter($P$15:$P$18,$J$15:$J$18)</f>
-        <v>2.5853404614430758E-3</v>
+        <f>_xll.ohFilter($I$15:$I$18,$J$15:$J$18)-K18*_xll.ohFilter($P$15:$P$18,$J$15:$J$18)</f>
+        <v>3.7177619669795312E-3</v>
       </c>
       <c r="M18" s="62"/>
       <c r="N18" s="63">
         <f t="shared" si="7"/>
-        <v>-41739</v>
+        <v>-41781</v>
       </c>
       <c r="O18" s="63">
         <f t="shared" si="8"/>
-        <v>-41739</v>
+        <v>-41781</v>
       </c>
       <c r="P18" s="62" t="e">
         <f t="shared" si="6"/>
@@ -10137,46 +10116,44 @@
       </c>
       <c r="U18" s="64">
         <f t="shared" si="5"/>
-        <v>-41739</v>
+        <v>-41781</v>
       </c>
       <c r="V18" s="64">
         <v>1</v>
       </c>
       <c r="X18" s="91">
-        <f t="array" aca="1" ref="X18:X20" ca="1">_xll.ohFilter(T15:T24,$J15:$J24)</f>
-        <v>11163</v>
+        <f t="array" ref="X18:X20">_xll.ohFilter(T15:T24,$J15:$J24)</f>
+        <v>11102.333333333332</v>
       </c>
       <c r="Y18" s="94">
-        <f t="array" aca="1" ref="Y18:Y20" ca="1">_xll.ohFilter(U15:U24,$J15:$J24)</f>
-        <v>91.5</v>
+        <f t="array" ref="Y18:Y20">_xll.ohFilter(U15:U24,$J15:$J24)</f>
+        <v>91</v>
       </c>
       <c r="Z18" s="97">
-        <f t="array" aca="1" ref="Z18:Z20" ca="1">_xll.ohFilter(V15:V24,$J15:$J24)</f>
+        <f t="array" ref="Z18:Z20">_xll.ohFilter(V15:V24,$J15:$J24)</f>
         <v>1</v>
       </c>
       <c r="AB18" s="100">
-        <f t="array" aca="1" ref="AB18:AB20" ca="1">MMULT(AF18:AH20,AD18:AD20)</f>
-        <v>-6.7614094654224197E-8</v>
+        <f t="array" ref="AB18:AB20">MMULT(AF18:AH20,AD18:AD20)</f>
+        <v>1.3270137674454168E-7</v>
       </c>
       <c r="AD18" s="100">
-        <f t="array" aca="1" ref="AD18:AD20" ca="1">_xll.ohFilter(I15:I24,$J15:$J24)</f>
-        <v>2.6100000000000012E-3</v>
+        <f t="array" ref="AD18:AD20">_xll.ohFilter(I15:I24,$J15:$J24)</f>
+        <v>3.0890687717306862E-3</v>
       </c>
       <c r="AF18" s="103">
-        <f t="array" aca="1" ref="AF18:AH20" ca="1">MINVERSE(X18:Z20)</f>
-        <v>5.2163726991525815E-4</v>
+        <f t="array" ref="AF18:AH20">MINVERSE(X18:Z20)</f>
+        <v>4.8093644030954041E-4</v>
       </c>
       <c r="AG18" s="104">
-        <f ca="1"/>
-        <v>-1.1164867882396757E-3</v>
+        <v>-1.0107816711590338E-3</v>
       </c>
       <c r="AH18" s="105">
-        <f ca="1"/>
-        <v>5.948495183244174E-4</v>
+        <v>5.2984523084949353E-4</v>
       </c>
       <c r="AJ18" s="112">
-        <f t="array" aca="1" ref="AJ18:AJ20" ca="1">MMULT(X18:Z20,AB18:AB20)-AD18:AD20</f>
-        <v>-2.1684043449710089E-18</v>
+        <f t="array" ref="AJ18:AJ20">MMULT(X18:Z20,AB18:AB20)-AD18:AD20</f>
+        <v>-4.7704895589362195E-18</v>
       </c>
     </row>
     <row r="19" spans="1:36" x14ac:dyDescent="0.2">
@@ -10185,7 +10162,7 @@
       </c>
       <c r="B19" s="89" t="str">
         <f>_xll.qlMakeDatedOIS(,E19,F19,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_00377#0001</v>
+        <v>obj_0039c#0000</v>
       </c>
       <c r="C19" s="66" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B19,OisEngine)</f>
@@ -10197,35 +10174,35 @@
       </c>
       <c r="E19" s="75">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A19&amp;"M","mf")</f>
-        <v>41771</v>
+        <v>41813</v>
       </c>
       <c r="F19" s="76">
         <f>_xll.qlInterestRateIndexMaturity($A$17,E19)</f>
-        <v>41955</v>
+        <v>41996</v>
       </c>
       <c r="G19" s="77">
-        <f ca="1">_xll.qlQuoteValue(D19,AllTriggers)</f>
-        <v>4.15E-3</v>
+        <f>_xll.qlQuoteValue(D19,AllTriggers)</f>
+        <v>3.5499999999999998E-3</v>
       </c>
       <c r="H19" s="78">
-        <f ca="1">_xll.qlOvernightIndexedSwapFairRate(B19,_xll.ohTrigger(C19,InterestRatesTrigger))</f>
-        <v>1.496949873608812E-3</v>
+        <f>_xll.qlOvernightIndexedSwapFairRate(B19,_xll.ohTrigger(C19,InterestRatesTrigger))</f>
+        <v>7.8433342171920829E-4</v>
       </c>
       <c r="I19" s="79">
-        <f t="shared" ca="1" si="1"/>
-        <v>2.653050126391188E-3</v>
+        <f t="shared" si="1"/>
+        <v>2.7656665782807913E-3</v>
       </c>
       <c r="J19" s="38" t="b">
-        <f t="shared" ref="J19:J24" ca="1" si="10">NOT(ISERROR(I19))</f>
+        <f t="shared" ref="J19:J24" si="10">NOT(ISERROR(I19))</f>
         <v>1</v>
       </c>
       <c r="K19" s="78">
-        <f ca="1">(I19-_xll.ohFilter($I$15:$I$18,$J$15:$J$18))/(P19-_xll.ohFilter($P$15:$P$18,$J$15:$J$18))</f>
-        <v>6.6230963678748898E-7</v>
+        <f>(I19-_xll.ohFilter($I$15:$I$18,$J$15:$J$18))/(P19-_xll.ohFilter($P$15:$P$18,$J$15:$J$18))</f>
+        <v>-4.9754183607676147E-6</v>
       </c>
       <c r="L19" s="78">
-        <f ca="1">_xll.ohFilter($I$15:$I$18,$J$15:$J$18)-K19*_xll.ohFilter($P$15:$P$18,$J$15:$J$18)</f>
-        <v>2.4887973364678909E-3</v>
+        <f>_xll.ohFilter($I$15:$I$18,$J$15:$J$18)-K19*_xll.ohFilter($P$15:$P$18,$J$15:$J$18)</f>
+        <v>3.9945949133903917E-3</v>
       </c>
       <c r="M19" s="80"/>
       <c r="N19" s="81">
@@ -10234,64 +10211,55 @@
       </c>
       <c r="O19" s="81">
         <f t="shared" ref="O19:O27" si="12">F19-SettlementDate</f>
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="P19" s="80">
         <f t="shared" si="6"/>
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="T19" s="82">
         <f t="shared" si="4"/>
-        <v>18197.333333333336</v>
+        <v>18043</v>
       </c>
       <c r="U19" s="82">
         <f t="shared" si="5"/>
-        <v>124</v>
+        <v>123.5</v>
       </c>
       <c r="V19" s="82">
         <v>1</v>
       </c>
       <c r="X19" s="92">
-        <f ca="1"/>
-        <v>18197.333333333336</v>
+        <v>18043</v>
       </c>
       <c r="Y19" s="95">
-        <f ca="1"/>
-        <v>124</v>
+        <v>123.5</v>
       </c>
       <c r="Z19" s="98">
-        <f ca="1"/>
         <v>1</v>
       </c>
       <c r="AA19" s="51" t="s">
         <v>56</v>
       </c>
       <c r="AB19" s="101">
-        <f ca="1"/>
-        <v>1.595908326832465E-5</v>
+        <v>-3.8290406635123429E-5</v>
       </c>
       <c r="AC19" s="51" t="s">
         <v>57</v>
       </c>
       <c r="AD19" s="101">
-        <f ca="1"/>
-        <v>2.653050126391188E-3</v>
+        <v>2.7656665782807913E-3</v>
       </c>
       <c r="AF19" s="106">
-        <f ca="1"/>
-        <v>-0.14367293648227383</v>
+        <v>-0.13347752369359236</v>
       </c>
       <c r="AG19" s="107">
-        <f ca="1"/>
-        <v>0.2724227763304809</v>
+        <v>0.24663072776280423</v>
       </c>
       <c r="AH19" s="108">
-        <f ca="1"/>
-        <v>-0.12874983984820704</v>
+        <v>-0.11315320406921189</v>
       </c>
       <c r="AJ19" s="113">
-        <f ca="1"/>
-        <v>-2.1684043449710089E-18</v>
+        <v>-5.6378512969246231E-18</v>
       </c>
     </row>
     <row r="20" spans="1:36" x14ac:dyDescent="0.2">
@@ -10300,7 +10268,7 @@
       </c>
       <c r="B20" s="89" t="str">
         <f>_xll.qlMakeDatedOIS(,E20,F20,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_00378#0001</v>
+        <v>obj_003a4#0000</v>
       </c>
       <c r="C20" s="66" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B20,OisEngine)</f>
@@ -10312,35 +10280,35 @@
       </c>
       <c r="E20" s="75">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A20&amp;"M","mf")</f>
-        <v>41800</v>
+        <v>41842</v>
       </c>
       <c r="F20" s="76">
         <f>_xll.qlInterestRateIndexMaturity($A$17,E20)</f>
-        <v>41983</v>
+        <v>42026</v>
       </c>
       <c r="G20" s="77">
-        <f ca="1">_xll.qlQuoteValue(D20,AllTriggers)</f>
-        <v>3.9900000000000005E-3</v>
+        <f>_xll.qlQuoteValue(D20,AllTriggers)</f>
+        <v>3.4599999999999995E-3</v>
       </c>
       <c r="H20" s="78">
-        <f ca="1">_xll.qlOvernightIndexedSwapFairRate(B20,_xll.ohTrigger(C20,InterestRatesTrigger))</f>
-        <v>1.4128641054656675E-3</v>
+        <f>_xll.qlOvernightIndexedSwapFairRate(B20,_xll.ohTrigger(C20,InterestRatesTrigger))</f>
+        <v>7.3743001225553986E-4</v>
       </c>
       <c r="I20" s="79">
-        <f t="shared" ca="1" si="1"/>
-        <v>2.5771358945343333E-3</v>
+        <f t="shared" si="1"/>
+        <v>2.7225699877444598E-3</v>
       </c>
       <c r="J20" s="38" t="b">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="K20" s="78">
-        <f ca="1">(I20-_xll.ohFilter($I$15:$I$18,$J$15:$J$18))/(P20-_xll.ohFilter($P$15:$P$18,$J$15:$J$18))</f>
-        <v>-2.6937791365301602E-7</v>
+        <f>(I20-_xll.ohFilter($I$15:$I$18,$J$15:$J$18))/(P20-_xll.ohFilter($P$15:$P$18,$J$15:$J$18))</f>
+        <v>-2.9556353547276329E-6</v>
       </c>
       <c r="L20" s="78">
-        <f ca="1">_xll.ohFilter($I$15:$I$18,$J$15:$J$18)-K20*_xll.ohFilter($P$15:$P$18,$J$15:$J$18)</f>
-        <v>2.6592961581985031E-3</v>
+        <f>_xll.ohFilter($I$15:$I$18,$J$15:$J$18)-K20*_xll.ohFilter($P$15:$P$18,$J$15:$J$18)</f>
+        <v>3.6269944062911155E-3</v>
       </c>
       <c r="M20" s="80"/>
       <c r="N20" s="81">
@@ -10349,58 +10317,49 @@
       </c>
       <c r="O20" s="81">
         <f t="shared" si="12"/>
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="P20" s="80">
         <f t="shared" si="6"/>
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="T20" s="82">
         <f t="shared" si="4"/>
-        <v>26047</v>
+        <v>26230.333333333332</v>
       </c>
       <c r="U20" s="82">
         <f t="shared" si="5"/>
-        <v>152.5</v>
+        <v>153</v>
       </c>
       <c r="V20" s="82">
         <v>1</v>
       </c>
       <c r="X20" s="93">
-        <f ca="1"/>
-        <v>26047</v>
+        <v>26230.333333333332</v>
       </c>
       <c r="Y20" s="96">
-        <f ca="1"/>
-        <v>152.5</v>
+        <v>153</v>
       </c>
       <c r="Z20" s="99">
-        <f ca="1"/>
         <v>1</v>
       </c>
       <c r="AB20" s="102">
-        <f ca="1"/>
-        <v>1.9045200195733983E-3</v>
+        <v>5.1002008571167639E-3</v>
       </c>
       <c r="AD20" s="102">
-        <f ca="1"/>
-        <v>2.5771358945343333E-3</v>
+        <v>2.7225699877444598E-3</v>
       </c>
       <c r="AF20" s="109">
-        <f ca="1"/>
-        <v>8.3230368440640312</v>
+        <v>7.8069379836536177</v>
       </c>
       <c r="AG20" s="110">
-        <f ca="1"/>
-        <v>-12.463342017119507</v>
+        <v>-11.221361185983874</v>
       </c>
       <c r="AH20" s="111">
-        <f ca="1"/>
-        <v>5.1403051730554745</v>
+        <v>4.4144232023302559</v>
       </c>
       <c r="AJ20" s="114">
-        <f ca="1"/>
-        <v>-3.4694469519536142E-18</v>
+        <v>-3.903127820947816E-18</v>
       </c>
     </row>
     <row r="21" spans="1:36" x14ac:dyDescent="0.2">
@@ -10409,7 +10368,7 @@
       </c>
       <c r="B21" s="89" t="str">
         <f>_xll.qlMakeDatedOIS(,E21,F21,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_00380#0001</v>
+        <v>obj_003a5#0000</v>
       </c>
       <c r="C21" s="66" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B21,OisEngine)</f>
@@ -10421,40 +10380,40 @@
       </c>
       <c r="E21" s="75">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A21&amp;"M","mf")</f>
-        <v>41830</v>
+        <v>41873</v>
       </c>
       <c r="F21" s="76">
         <f>_xll.qlInterestRateIndexMaturity($A$17,E21)</f>
-        <v>42016</v>
+        <v>42058</v>
       </c>
       <c r="G21" s="77">
-        <f ca="1">_xll.qlQuoteValue(D21,AllTriggers)</f>
-        <v>3.98E-3</v>
+        <f>_xll.qlQuoteValue(D21,AllTriggers)</f>
+        <v>3.3499999999999997E-3</v>
       </c>
       <c r="H21" s="78">
-        <f ca="1">_xll.qlOvernightIndexedSwapFairRate(B21,_xll.ohTrigger(C21,InterestRatesTrigger))</f>
-        <v>1.3679052436482168E-3</v>
+        <f>_xll.qlOvernightIndexedSwapFairRate(B21,_xll.ohTrigger(C21,InterestRatesTrigger))</f>
+        <v>7.1571914245303198E-4</v>
       </c>
       <c r="I21" s="79">
-        <f t="shared" ca="1" si="1"/>
-        <v>2.612094756351783E-3</v>
+        <f t="shared" si="1"/>
+        <v>2.6342808575469676E-3</v>
       </c>
       <c r="J21" s="38" t="b">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="K21" s="78">
-        <f ca="1">(I21-_xll.ohFilter($I$15:$I$18,$J$15:$J$18))/(P21-_xll.ohFilter($P$15:$P$18,$J$15:$J$18))</f>
-        <v>1.1323007306928543E-8</v>
+        <f>(I21-_xll.ohFilter($I$15:$I$18,$J$15:$J$18))/(P21-_xll.ohFilter($P$15:$P$18,$J$15:$J$18))</f>
+        <v>-2.4320209314637361E-6</v>
       </c>
       <c r="L21" s="78">
-        <f ca="1">_xll.ohFilter($I$15:$I$18,$J$15:$J$18)-K21*_xll.ohFilter($P$15:$P$18,$J$15:$J$18)</f>
-        <v>2.6079278896628333E-3</v>
+        <f>_xll.ohFilter($I$15:$I$18,$J$15:$J$18)-K21*_xll.ohFilter($P$15:$P$18,$J$15:$J$18)</f>
+        <v>3.5316965812570863E-3</v>
       </c>
       <c r="M21" s="80"/>
       <c r="N21" s="81">
         <f t="shared" si="11"/>
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O21" s="81">
         <f t="shared" si="12"/>
@@ -10462,15 +10421,15 @@
       </c>
       <c r="P21" s="80">
         <f t="shared" si="6"/>
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="T21" s="82">
         <f t="shared" si="4"/>
-        <v>36739</v>
+        <v>36892.333333333336</v>
       </c>
       <c r="U21" s="82">
         <f t="shared" si="5"/>
-        <v>184</v>
+        <v>184.5</v>
       </c>
       <c r="V21" s="82">
         <v>1</v>
@@ -10486,7 +10445,7 @@
       </c>
       <c r="B22" s="89" t="str">
         <f>_xll.qlMakeDatedOIS(,E22,F22,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_00383#0001</v>
+        <v>obj_0039d#0000</v>
       </c>
       <c r="C22" s="66" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B22,OisEngine)</f>
@@ -10498,35 +10457,35 @@
       </c>
       <c r="E22" s="75">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A22&amp;"M","mf")</f>
-        <v>41862</v>
+        <v>41904</v>
       </c>
       <c r="F22" s="76">
         <f>_xll.qlInterestRateIndexMaturity($A$17,E22)</f>
-        <v>42046</v>
+        <v>42086</v>
       </c>
       <c r="G22" s="77">
-        <f ca="1">_xll.qlQuoteValue(D22,AllTriggers)</f>
-        <v>3.9399999999999999E-3</v>
+        <f>_xll.qlQuoteValue(D22,AllTriggers)</f>
+        <v>3.2699999999999995E-3</v>
       </c>
       <c r="H22" s="78">
-        <f ca="1">_xll.qlOvernightIndexedSwapFairRate(B22,_xll.ohTrigger(C22,InterestRatesTrigger))</f>
-        <v>1.3411193592573745E-3</v>
+        <f>_xll.qlOvernightIndexedSwapFairRate(B22,_xll.ohTrigger(C22,InterestRatesTrigger))</f>
+        <v>6.9401776546300462E-4</v>
       </c>
       <c r="I22" s="79">
-        <f t="shared" ca="1" si="1"/>
-        <v>2.5988806407426252E-3</v>
+        <f t="shared" si="1"/>
+        <v>2.575982234536995E-3</v>
       </c>
       <c r="J22" s="38" t="b">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="K22" s="78">
-        <f ca="1">(I22-_xll.ohFilter($I$15:$I$18,$J$15:$J$18))/(P22-_xll.ohFilter($P$15:$P$18,$J$15:$J$18))</f>
-        <v>-4.501764881528741E-8</v>
+        <f>(I22-_xll.ohFilter($I$15:$I$18,$J$15:$J$18))/(P22-_xll.ohFilter($P$15:$P$18,$J$15:$J$18))</f>
+        <v>-2.0857176308686636E-6</v>
       </c>
       <c r="L22" s="78">
-        <f ca="1">_xll.ohFilter($I$15:$I$18,$J$15:$J$18)-K22*_xll.ohFilter($P$15:$P$18,$J$15:$J$18)</f>
-        <v>2.6182382297331988E-3</v>
+        <f>_xll.ohFilter($I$15:$I$18,$J$15:$J$18)-K22*_xll.ohFilter($P$15:$P$18,$J$15:$J$18)</f>
+        <v>3.4686693805487832E-3</v>
       </c>
       <c r="M22" s="80"/>
       <c r="N22" s="81">
@@ -10535,19 +10494,19 @@
       </c>
       <c r="O22" s="81">
         <f t="shared" si="12"/>
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="P22" s="80">
         <f t="shared" si="6"/>
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="T22" s="82">
         <f t="shared" si="4"/>
-        <v>49046.333333333336</v>
+        <v>48556.333333333328</v>
       </c>
       <c r="U22" s="82">
         <f t="shared" si="5"/>
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="V22" s="82">
         <v>1</v>
@@ -10563,7 +10522,7 @@
       </c>
       <c r="B23" s="89" t="str">
         <f>_xll.qlMakeDatedOIS(,E23,F23,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_0037d#0001</v>
+        <v>obj_003a0#0000</v>
       </c>
       <c r="C23" s="66" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B23,OisEngine)</f>
@@ -10575,35 +10534,35 @@
       </c>
       <c r="E23" s="75">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A23&amp;"M","mf")</f>
-        <v>41892</v>
+        <v>41934</v>
       </c>
       <c r="F23" s="76">
         <f>_xll.qlInterestRateIndexMaturity($A$17,E23)</f>
-        <v>42073</v>
+        <v>42116</v>
       </c>
       <c r="G23" s="77">
-        <f ca="1">_xll.qlQuoteValue(D23,AllTriggers)</f>
-        <v>3.9100000000000003E-3</v>
+        <f>_xll.qlQuoteValue(D23,AllTriggers)</f>
+        <v>3.2699999999999995E-3</v>
       </c>
       <c r="H23" s="78">
-        <f ca="1">_xll.qlOvernightIndexedSwapFairRate(B23,_xll.ohTrigger(C23,InterestRatesTrigger))</f>
-        <v>1.3299783171850218E-3</v>
+        <f>_xll.qlOvernightIndexedSwapFairRate(B23,_xll.ohTrigger(C23,InterestRatesTrigger))</f>
+        <v>6.8156398368266879E-4</v>
       </c>
       <c r="I23" s="79">
-        <f t="shared" ca="1" si="1"/>
-        <v>2.5800216828149782E-3</v>
+        <f t="shared" si="1"/>
+        <v>2.5884360163173307E-3</v>
       </c>
       <c r="J23" s="38" t="b">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="K23" s="78">
-        <f ca="1">(I23-_xll.ohFilter($I$15:$I$18,$J$15:$J$18))/(P23-_xll.ohFilter($P$15:$P$18,$J$15:$J$18))</f>
-        <v>-9.8612885477049304E-8</v>
+        <f>(I23-_xll.ohFilter($I$15:$I$18,$J$15:$J$18))/(P23-_xll.ohFilter($P$15:$P$18,$J$15:$J$18))</f>
+        <v>-1.636054756252796E-6</v>
       </c>
       <c r="L23" s="78">
-        <f ca="1">_xll.ohFilter($I$15:$I$18,$J$15:$J$18)-K23*_xll.ohFilter($P$15:$P$18,$J$15:$J$18)</f>
-        <v>2.6280461580423012E-3</v>
+        <f>_xll.ohFilter($I$15:$I$18,$J$15:$J$18)-K23*_xll.ohFilter($P$15:$P$18,$J$15:$J$18)</f>
+        <v>3.3868307373686951E-3</v>
       </c>
       <c r="M23" s="80"/>
       <c r="N23" s="81">
@@ -10612,19 +10571,19 @@
       </c>
       <c r="O23" s="81">
         <f t="shared" si="12"/>
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="P23" s="80">
         <f t="shared" si="6"/>
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="T23" s="82">
         <f t="shared" si="4"/>
-        <v>62022.333333333336</v>
+        <v>62296.333333333328</v>
       </c>
       <c r="U23" s="82">
         <f t="shared" si="5"/>
-        <v>243.5</v>
+        <v>244</v>
       </c>
       <c r="V23" s="82">
         <v>1</v>
@@ -10640,7 +10599,7 @@
       </c>
       <c r="B24" s="89" t="str">
         <f>_xll.qlMakeDatedOIS(,E24,F24,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_0037f#0001</v>
+        <v>obj_003a2#0000</v>
       </c>
       <c r="C24" s="66" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B24,OisEngine)</f>
@@ -10652,56 +10611,56 @@
       </c>
       <c r="E24" s="75">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A24&amp;"M","mf")</f>
-        <v>41922</v>
+        <v>41967</v>
       </c>
       <c r="F24" s="76">
         <f>_xll.qlInterestRateIndexMaturity($A$17,E24)</f>
-        <v>42104</v>
+        <v>42149</v>
       </c>
       <c r="G24" s="77">
-        <f ca="1">_xll.qlQuoteValue(D24,AllTriggers)</f>
-        <v>3.9399999999999999E-3</v>
+        <f>_xll.qlQuoteValue(D24,AllTriggers)</f>
+        <v>3.2599999999999994E-3</v>
       </c>
       <c r="H24" s="78">
-        <f ca="1">_xll.qlOvernightIndexedSwapFairRate(B24,_xll.ohTrigger(C24,InterestRatesTrigger))</f>
-        <v>1.3480451512391726E-3</v>
+        <f>_xll.qlOvernightIndexedSwapFairRate(B24,_xll.ohTrigger(C24,InterestRatesTrigger))</f>
+        <v>6.8495370680420357E-4</v>
       </c>
       <c r="I24" s="79">
-        <f t="shared" ca="1" si="1"/>
-        <v>2.5919548487608273E-3</v>
+        <f t="shared" si="1"/>
+        <v>2.5750462931957959E-3</v>
       </c>
       <c r="J24" s="38" t="b">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="K24" s="78">
-        <f ca="1">(I24-_xll.ohFilter($I$15:$I$18,$J$15:$J$18))/(P24-_xll.ohFilter($P$15:$P$18,$J$15:$J$18))</f>
-        <v>-4.94387705182847E-8</v>
+        <f>(I24-_xll.ohFilter($I$15:$I$18,$J$15:$J$18))/(P24-_xll.ohFilter($P$15:$P$18,$J$15:$J$18))</f>
+        <v>-1.381780856276587E-6</v>
       </c>
       <c r="L24" s="78">
-        <f ca="1">_xll.ohFilter($I$15:$I$18,$J$15:$J$18)-K24*_xll.ohFilter($P$15:$P$18,$J$15:$J$18)</f>
-        <v>2.6190472950048472E-3</v>
+        <f>_xll.ohFilter($I$15:$I$18,$J$15:$J$18)-K24*_xll.ohFilter($P$15:$P$18,$J$15:$J$18)</f>
+        <v>3.3405528875730252E-3</v>
       </c>
       <c r="M24" s="80"/>
       <c r="N24" s="81">
         <f t="shared" si="11"/>
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="O24" s="81">
         <f t="shared" si="12"/>
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="P24" s="80">
         <f t="shared" si="6"/>
-        <v>548</v>
+        <v>554</v>
       </c>
       <c r="T24" s="82">
         <f t="shared" si="4"/>
-        <v>77836.333333333328</v>
+        <v>79489.333333333328</v>
       </c>
       <c r="U24" s="82">
         <f t="shared" si="5"/>
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="V24" s="82">
         <v>1</v>
@@ -10713,7 +10672,7 @@
       </c>
       <c r="B25" s="53" t="str">
         <f>_xll.qlMakeDatedOIS(,E25,F25,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_0037b#0001</v>
+        <v>obj_003a8#0000</v>
       </c>
       <c r="C25" s="54" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B25,OisEngine)</f>
@@ -10725,23 +10684,23 @@
       </c>
       <c r="E25" s="56">
         <f>SettlementDate</f>
-        <v>41739</v>
+        <v>41781</v>
       </c>
       <c r="F25" s="57">
         <f>_xll.qlCalendarAdvance(Calendar,E25,A26,"mf")</f>
-        <v>42104</v>
+        <v>42146</v>
       </c>
       <c r="G25" s="58">
-        <f ca="1">_xll.qlQuoteValue($D25,AllTriggers)</f>
-        <v>6.0000000000000001E-3</v>
+        <f>_xll.qlQuoteValue($D25,AllTriggers)</f>
+        <v>6.0999999999999995E-3</v>
       </c>
       <c r="H25" s="59">
-        <f ca="1">_xll.qlOvernightIndexedSwapFairRate(B25,_xll.ohTrigger(C25,InterestRatesTrigger))</f>
-        <v>1.4999999999670119E-3</v>
+        <f>_xll.qlOvernightIndexedSwapFairRate(B25,_xll.ohTrigger(C25,InterestRatesTrigger))</f>
+        <v>8.400000000000279E-4</v>
       </c>
       <c r="I25" s="60">
-        <f t="shared" ca="1" si="1"/>
-        <v>4.500000000032988E-3</v>
+        <f t="shared" si="1"/>
+        <v>5.2599999999999713E-3</v>
       </c>
       <c r="J25" s="61" t="b">
         <v>0</v>
@@ -10783,7 +10742,7 @@
       </c>
       <c r="B26" s="89" t="str">
         <f>_xll.qlMakeDatedOIS(,E26,F26,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_00303#0003</v>
+        <v>obj_00326#0003</v>
       </c>
       <c r="C26" s="66" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B26,OisEngine)</f>
@@ -10795,59 +10754,59 @@
       </c>
       <c r="E26" s="68">
         <f>_xll.qlCalendarAdvance(Calendar,_xll.qlLastFixingQuoteReferenceDate(D26),_xll.qlInterestRateIndexFixingDays(A27)&amp;"D","f",,LastFixingsTrigger)</f>
-        <v>41739</v>
+        <v>41780</v>
       </c>
       <c r="F26" s="69">
         <f>_xll.qlInterestRateIndexMaturity(A27,E26)</f>
-        <v>42104</v>
+        <v>42145</v>
       </c>
       <c r="G26" s="70">
-        <f ca="1">_xll.qlQuoteValue(D26,AllTriggers)</f>
-        <v>5.9899999999999997E-3</v>
+        <f>_xll.qlQuoteValue(D26,AllTriggers)</f>
+        <v>5.8599999999999998E-3</v>
       </c>
       <c r="H26" s="71">
-        <f ca="1">_xll.qlOvernightIndexedSwapFairRate(B26,_xll.ohTrigger(C26,InterestRatesTrigger))</f>
-        <v>1.4999999999670119E-3</v>
+        <f>_xll.qlOvernightIndexedSwapFairRate(B26,_xll.ohTrigger(C26,InterestRatesTrigger))</f>
+        <v>8.4341765736590689E-4</v>
       </c>
       <c r="I26" s="72">
-        <f t="shared" ca="1" si="1"/>
-        <v>4.4900000000329876E-3</v>
+        <f t="shared" si="1"/>
+        <v>5.0165823426340933E-3</v>
       </c>
       <c r="J26" s="61" t="b">
-        <f ca="1">NOT(ISERROR(I26))</f>
+        <f>NOT(ISERROR(I26))</f>
         <v>1</v>
       </c>
       <c r="K26" s="73">
-        <f ca="1">K27</f>
-        <v>-2.3070073443172969E-7</v>
+        <f>K27</f>
+        <v>-1.1932686288573547E-6</v>
       </c>
       <c r="L26" s="71">
-        <f ca="1">_xll.ohFilter($I$25:$I$26,$J$25:$J$26)-K26*_xll.ohFilter($P$25:$P$26,$J$25:$J$26)</f>
-        <v>4.5742057681005689E-3</v>
+        <f>_xll.ohFilter($I$25:$I$26,$J$25:$J$26)-K26*_xll.ohFilter($P$25:$P$26,$J$25:$J$26)</f>
+        <v>5.4497388549093126E-3</v>
       </c>
       <c r="M26" s="62"/>
       <c r="N26" s="63">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="O26" s="63">
         <f t="shared" si="12"/>
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="P26" s="62">
         <f t="shared" si="6"/>
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="Q26" s="61"/>
       <c r="R26" s="61"/>
       <c r="S26" s="61"/>
       <c r="T26" s="64">
         <f t="shared" si="4"/>
-        <v>44408.333333333328</v>
+        <v>44044.333333333328</v>
       </c>
       <c r="U26" s="64">
         <f t="shared" si="5"/>
-        <v>182.5</v>
+        <v>181.5</v>
       </c>
       <c r="V26" s="64">
         <v>1</v>
@@ -10860,7 +10819,7 @@
       </c>
       <c r="B27" s="89" t="str">
         <f>_xll.qlMakeDatedOIS(,E27,F27,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_0037c#0001</v>
+        <v>obj_0039a#0000</v>
       </c>
       <c r="C27" s="66" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B27,OisEngine)</f>
@@ -10872,35 +10831,35 @@
       </c>
       <c r="E27" s="75">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,"12M","mf")</f>
-        <v>42104</v>
+        <v>42146</v>
       </c>
       <c r="F27" s="76">
         <f>_xll.qlInterestRateIndexMaturity(A27,E27)</f>
-        <v>42471</v>
+        <v>42513</v>
       </c>
       <c r="G27" s="77">
-        <f ca="1">_xll.qlQuoteValue(D27,AllTriggers)</f>
-        <v>6.5200000000000006E-3</v>
+        <f>_xll.qlQuoteValue(D27,AllTriggers)</f>
+        <v>5.3200000000000001E-3</v>
       </c>
       <c r="H27" s="78">
-        <f ca="1">_xll.qlOvernightIndexedSwapFairRate(B27,_xll.ohTrigger(C27,InterestRatesTrigger))</f>
-        <v>2.1988729375710392E-3</v>
+        <f>_xll.qlOvernightIndexedSwapFairRate(B27,_xll.ohTrigger(C27,InterestRatesTrigger))</f>
+        <v>1.1792768309472049E-3</v>
       </c>
       <c r="I27" s="79">
-        <f t="shared" ca="1" si="1"/>
-        <v>4.3211270624289614E-3</v>
+        <f t="shared" si="1"/>
+        <v>4.140723169052795E-3</v>
       </c>
       <c r="J27" s="38" t="b">
-        <f ca="1">NOT(ISERROR(I27))</f>
+        <f>NOT(ISERROR(I27))</f>
         <v>1</v>
       </c>
       <c r="K27" s="78">
-        <f ca="1">(I27-_xll.ohFilter($I$25:$I$26,$J$25:$J$26))/(P27-_xll.ohFilter($P$25:$P$26,$J$25:$J$26))</f>
-        <v>-2.3070073443172969E-7</v>
+        <f>(I27-_xll.ohFilter($I$25:$I$26,$J$25:$J$26))/(P27-_xll.ohFilter($P$25:$P$26,$J$25:$J$26))</f>
+        <v>-1.1932686288573547E-6</v>
       </c>
       <c r="L27" s="78">
-        <f ca="1">_xll.ohFilter($I$25:$I$26,$J$25:$J$26)-K27*_xll.ohFilter($P$25:$P$26,$J$25:$J$26)</f>
-        <v>4.5742057681005689E-3</v>
+        <f>_xll.ohFilter($I$25:$I$26,$J$25:$J$26)-K27*_xll.ohFilter($P$25:$P$26,$J$25:$J$26)</f>
+        <v>5.4497388549093126E-3</v>
       </c>
       <c r="M27" s="80"/>
       <c r="N27" s="81">
@@ -10994,12 +10953,12 @@
         <v>59</v>
       </c>
       <c r="T30" s="122">
-        <f ca="1">AB9</f>
-        <v>-1.0672619131344492E-7</v>
+        <f>AB9</f>
+        <v>-1.8501361794623499E-8</v>
       </c>
       <c r="U30" s="123">
-        <f ca="1">AB18</f>
-        <v>-6.7614094654224197E-8</v>
+        <f>AB18</f>
+        <v>1.3270137674454168E-7</v>
       </c>
     </row>
     <row r="31" spans="1:36" x14ac:dyDescent="0.2">
@@ -11008,51 +10967,51 @@
         <v>60</v>
       </c>
       <c r="G31" s="124">
-        <f ca="1">_xll.ohFilter(I2:I3,J2:J3)</f>
-        <v>4.1000000000123099E-4</v>
+        <f>_xll.ohFilter(I2:I3,J2:J3)</f>
+        <v>7.4453565017883433E-4</v>
       </c>
       <c r="H31" s="125">
-        <f ca="1">_xll.ohFilter(I6:I9,J6:J9)</f>
-        <v>1.4100000000000249E-3</v>
+        <f>_xll.ohFilter(I6:I9,J6:J9)</f>
+        <v>1.927147731915303E-3</v>
       </c>
       <c r="I31" s="125">
-        <f ca="1">_xll.ohFilter(I15:I18,J15:J18)</f>
-        <v>2.6100000000000012E-3</v>
+        <f>_xll.ohFilter(I15:I18,J15:J18)</f>
+        <v>3.0890687717306862E-3</v>
       </c>
       <c r="J31" s="126">
-        <f ca="1">_xll.ohFilter(I25:I26,J25:J26)</f>
-        <v>4.4900000000329876E-3</v>
+        <f>_xll.ohFilter(I25:I26,J25:J26)</f>
+        <v>5.0165823426340933E-3</v>
       </c>
       <c r="M31" s="51" t="s">
         <v>47</v>
       </c>
       <c r="N31" s="115">
-        <f ca="1">K4</f>
-        <v>3.7896798245206622E-6</v>
+        <f>K4</f>
+        <v>-2.0233051827236627E-6</v>
       </c>
       <c r="O31" s="115">
-        <f ca="1">K9</f>
-        <v>1.9776626199524396E-6</v>
+        <f>K9</f>
+        <v>-3.5824453964285539E-6</v>
       </c>
       <c r="P31" s="115">
-        <f ca="1">AVERAGE(K19:K21)</f>
-        <v>1.3475157681380049E-7</v>
+        <f>AVERAGE(K19:K21)</f>
+        <v>-3.4543582156529943E-6</v>
       </c>
       <c r="Q31" s="115">
-        <f ca="1">K26</f>
-        <v>-2.3070073443172969E-7</v>
+        <f>K26</f>
+        <v>-1.1932686288573547E-6</v>
       </c>
       <c r="R31" s="115"/>
       <c r="S31" s="127" t="s">
         <v>47</v>
       </c>
       <c r="T31" s="128">
-        <f ca="1">AB10</f>
-        <v>1.7348069143719305E-5</v>
+        <f>AB10</f>
+        <v>-4.7758332686557704E-6</v>
       </c>
       <c r="U31" s="79">
-        <f ca="1">AB19</f>
-        <v>1.595908326832465E-5</v>
+        <f>AB19</f>
+        <v>-3.8290406635123429E-5</v>
       </c>
     </row>
     <row r="32" spans="1:36" x14ac:dyDescent="0.2">
@@ -11061,51 +11020,51 @@
         <v>61</v>
       </c>
       <c r="G32" s="124">
-        <f ca="1">IF(G31&lt;H31,G31,H31)</f>
-        <v>4.1000000000123099E-4</v>
+        <f>IF(G31&lt;H31,G31,H31)</f>
+        <v>7.4453565017883433E-4</v>
       </c>
       <c r="H32" s="125">
-        <f ca="1">H31</f>
-        <v>1.4100000000000249E-3</v>
+        <f>H31</f>
+        <v>1.927147731915303E-3</v>
       </c>
       <c r="I32" s="125">
-        <f ca="1">IF(I31&lt;H31,H31,I31)</f>
-        <v>2.6100000000000012E-3</v>
+        <f>IF(I31&lt;H31,H31,I31)</f>
+        <v>3.0890687717306862E-3</v>
       </c>
       <c r="J32" s="126">
-        <f ca="1">IF(J31&lt;I31,I31,J31)</f>
-        <v>4.4900000000329876E-3</v>
+        <f>IF(J31&lt;I31,I31,J31)</f>
+        <v>5.0165823426340933E-3</v>
       </c>
       <c r="M32" s="51" t="s">
         <v>48</v>
       </c>
       <c r="N32" s="115">
-        <f ca="1">L4</f>
-        <v>2.8873024561656979E-4</v>
+        <f>L4</f>
+        <v>8.0725811084326787E-4</v>
       </c>
       <c r="O32" s="115">
-        <f ca="1">L9</f>
-        <v>1.2300327015843529E-3</v>
+        <f>L9</f>
+        <v>2.2495678175938729E-3</v>
       </c>
       <c r="P32" s="115">
-        <f ca="1">L18</f>
-        <v>2.5853404614430758E-3</v>
+        <f>L18</f>
+        <v>3.7177619669795312E-3</v>
       </c>
       <c r="Q32" s="115">
-        <f ca="1">L26</f>
-        <v>4.5742057681005689E-3</v>
+        <f>L26</f>
+        <v>5.4497388549093126E-3</v>
       </c>
       <c r="R32" s="115"/>
       <c r="S32" s="127" t="s">
         <v>48</v>
       </c>
       <c r="T32" s="128">
-        <f ca="1">AB11</f>
-        <v>9.1526271738301326E-4</v>
+        <f>AB11</f>
+        <v>2.1925751138247331E-3</v>
       </c>
       <c r="U32" s="79">
-        <f ca="1">AB20</f>
-        <v>1.9045200195733983E-3</v>
+        <f>AB20</f>
+        <v>5.1002008571167639E-3</v>
       </c>
     </row>
     <row r="33" spans="2:21" x14ac:dyDescent="0.2">
@@ -11164,7 +11123,7 @@
     <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B34" s="53" t="str">
         <f>_xll.qlMakeDatedOIS(,E34,F34,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_0036d#0001</v>
+        <v>obj_00392#0000</v>
       </c>
       <c r="C34" s="116" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B34,OisEngine)</f>
@@ -11175,69 +11134,69 @@
       </c>
       <c r="E34" s="131">
         <f t="shared" ref="E34:E49" si="13">SettlementDate</f>
-        <v>41739</v>
+        <v>41781</v>
       </c>
       <c r="F34" s="132">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D34,"Following")</f>
-        <v>41740</v>
+        <v>41782</v>
       </c>
       <c r="G34" s="133">
-        <f t="shared" ref="G34:J49" ca="1" si="14">$L34+IF(G$30,G$32,N34)</f>
-        <v>2.7925199254175003E-3</v>
+        <f t="shared" ref="G34:J49" si="14">$L34+IF(G$30,G$32,N34)</f>
+        <v>2.80523479951857E-3</v>
       </c>
       <c r="H34" s="133">
-        <f t="shared" ca="1" si="14"/>
-        <v>3.7320103641807151E-3</v>
+        <f t="shared" si="14"/>
+        <v>4.2459853660554697E-3</v>
       </c>
       <c r="I34" s="133">
-        <f t="shared" ca="1" si="14"/>
-        <v>5.0854752129963002E-3</v>
+        <f t="shared" si="14"/>
+        <v>5.7143076026219038E-3</v>
       </c>
       <c r="J34" s="133">
-        <f t="shared" ca="1" si="14"/>
-        <v>7.073975067342547E-3</v>
+        <f t="shared" si="14"/>
+        <v>7.4485455801384815E-3</v>
       </c>
       <c r="K34" s="282">
         <f t="shared" ref="K34:K49" si="15">F34-SettlementDate</f>
         <v>1</v>
       </c>
       <c r="L34" s="135">
-        <f ca="1">_xll.qlOvernightIndexedSwapFairRate(B34,_xll.ohTrigger(C34,InterestRatesTrigger))</f>
-        <v>2.49999999997641E-3</v>
+        <f>_xll.qlOvernightIndexedSwapFairRate(B34,_xll.ohTrigger(C34,InterestRatesTrigger))</f>
+        <v>1.999999993858026E-3</v>
       </c>
       <c r="N34" s="136">
-        <f ca="1">N$31*$K34+N$32</f>
-        <v>2.9251992544109044E-4</v>
+        <f>N$31*$K34+N$32</f>
+        <v>8.0523480566054419E-4</v>
       </c>
       <c r="O34" s="128">
-        <f t="shared" ref="O34:P40" ca="1" si="16">IF(O$30,T34,O$31*$K34+O$32)</f>
-        <v>1.2320103642043053E-3</v>
+        <f t="shared" ref="O34:P40" si="16">IF(O$30,T34,O$31*$K34+O$32)</f>
+        <v>2.2459853721974441E-3</v>
       </c>
       <c r="P34" s="128">
-        <f t="shared" ca="1" si="16"/>
-        <v>2.5854752130198898E-3</v>
+        <f t="shared" si="16"/>
+        <v>3.7143076087638783E-3</v>
       </c>
       <c r="Q34" s="79">
-        <f t="shared" ref="Q34:Q49" ca="1" si="17">Q$31*$K34+Q$32</f>
-        <v>4.5739750673661371E-3</v>
+        <f t="shared" ref="Q34:Q49" si="17">Q$31*$K34+Q$32</f>
+        <v>5.4485455862804556E-3</v>
       </c>
       <c r="R34" s="128"/>
       <c r="S34" s="137" t="s">
         <v>66</v>
       </c>
       <c r="T34" s="128">
-        <f t="shared" ref="T34:U40" ca="1" si="18">$K34*$K34/3*T$30+$K34/2*T$31+T$32</f>
-        <v>9.2390117655776838E-4</v>
+        <f t="shared" ref="T34:U40" si="18">$K34*$K34/3*T$30+$K34/2*T$31+T$32</f>
+        <v>2.1901810300698071E-3</v>
       </c>
       <c r="U34" s="79">
-        <f t="shared" ca="1" si="18"/>
-        <v>1.9124770231760092E-3</v>
+        <f t="shared" si="18"/>
+        <v>5.0810998875914504E-3</v>
       </c>
     </row>
     <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B35" s="89" t="str">
         <f>_xll.qlMakeDatedOIS(,E35,F35,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_00370#0001</v>
+        <v>obj_0038c#0000</v>
       </c>
       <c r="C35" s="80" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B35,OisEngine)</f>
@@ -11248,69 +11207,69 @@
       </c>
       <c r="E35" s="75">
         <f t="shared" si="13"/>
-        <v>41739</v>
+        <v>41781</v>
       </c>
       <c r="F35" s="139">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D35,"Following")</f>
-        <v>41746</v>
+        <v>41788</v>
       </c>
       <c r="G35" s="133">
-        <f t="shared" ca="1" si="14"/>
-        <v>2.3852580043920686E-3</v>
+        <f t="shared" si="14"/>
+        <v>3.0630949745236893E-3</v>
       </c>
       <c r="H35" s="133">
-        <f t="shared" ca="1" si="14"/>
-        <v>3.3138763399278744E-3</v>
+        <f t="shared" si="14"/>
+        <v>4.4944906997783605E-3</v>
       </c>
       <c r="I35" s="133">
-        <f t="shared" ca="1" si="14"/>
-        <v>4.6562837224846266E-3</v>
+        <f t="shared" si="14"/>
+        <v>5.9635814594294475E-3</v>
       </c>
       <c r="J35" s="133">
-        <f t="shared" ca="1" si="14"/>
-        <v>6.6425908629634007E-3</v>
+        <f t="shared" si="14"/>
+        <v>7.7113859744667983E-3</v>
       </c>
       <c r="K35" s="140">
         <f t="shared" si="15"/>
         <v>7</v>
       </c>
       <c r="L35" s="141">
-        <f ca="1">_xll.qlOvernightIndexedSwapFairRate(B35,_xll.ohTrigger(C35,InterestRatesTrigger))</f>
-        <v>2.0700000000038543E-3</v>
+        <f>_xll.qlOvernightIndexedSwapFairRate(B35,_xll.ohTrigger(C35,InterestRatesTrigger))</f>
+        <v>2.2699999999594872E-3</v>
       </c>
       <c r="N35" s="136">
-        <f ca="1">N$31*$K35+N$32</f>
-        <v>3.1525800438821441E-4</v>
+        <f>N$31*$K35+N$32</f>
+        <v>7.9309497456420228E-4</v>
       </c>
       <c r="O35" s="128">
-        <f t="shared" ca="1" si="16"/>
-        <v>1.24387633992402E-3</v>
+        <f t="shared" si="16"/>
+        <v>2.224490699818873E-3</v>
       </c>
       <c r="P35" s="128">
-        <f t="shared" ca="1" si="16"/>
-        <v>2.5862837224807722E-3</v>
+        <f t="shared" si="16"/>
+        <v>3.6935814594699604E-3</v>
       </c>
       <c r="Q35" s="79">
-        <f t="shared" ca="1" si="17"/>
-        <v>4.5725908629595463E-3</v>
+        <f t="shared" si="17"/>
+        <v>5.4413859745073108E-3</v>
       </c>
       <c r="R35" s="128"/>
       <c r="S35" s="142" t="s">
         <v>67</v>
       </c>
       <c r="T35" s="128">
-        <f t="shared" ca="1" si="18"/>
-        <v>9.7423776492791124E-4</v>
+        <f t="shared" si="18"/>
+        <v>2.1755575084751256E-3</v>
       </c>
       <c r="U35" s="79">
-        <f t="shared" ca="1" si="18"/>
-        <v>1.9592724474665154E-3</v>
+        <f t="shared" si="18"/>
+        <v>4.9683518897139928E-3</v>
       </c>
     </row>
     <row r="36" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B36" s="89" t="str">
         <f>_xll.qlMakeDatedOIS(,E36,F36,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_00367#0001</v>
+        <v>obj_0038d#0000</v>
       </c>
       <c r="C36" s="80" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B36,OisEngine)</f>
@@ -11321,69 +11280,69 @@
       </c>
       <c r="E36" s="75">
         <f t="shared" si="13"/>
-        <v>41739</v>
+        <v>41781</v>
       </c>
       <c r="F36" s="139">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D36,"Following")</f>
-        <v>41753</v>
+        <v>41795</v>
       </c>
       <c r="G36" s="133">
-        <f t="shared" ca="1" si="14"/>
-        <v>2.5517857632822503E-3</v>
+        <f t="shared" si="14"/>
+        <v>3.1889318382089982E-3</v>
       </c>
       <c r="H36" s="133">
-        <f t="shared" ca="1" si="14"/>
-        <v>3.4677199783860785E-3</v>
+        <f t="shared" si="14"/>
+        <v>4.6094135819677341E-3</v>
       </c>
       <c r="I36" s="133">
-        <f t="shared" ca="1" si="14"/>
-        <v>4.7972269836408605E-3</v>
+        <f t="shared" si="14"/>
+        <v>6.0794009518842507E-3</v>
       </c>
       <c r="J36" s="133">
-        <f t="shared" ca="1" si="14"/>
-        <v>6.7809759579409157E-3</v>
+        <f t="shared" si="14"/>
+        <v>7.8430330940291709E-3</v>
       </c>
       <c r="K36" s="140">
         <f t="shared" si="15"/>
         <v>14</v>
       </c>
       <c r="L36" s="141">
-        <f ca="1">_xll.qlOvernightIndexedSwapFairRate(B36,_xll.ohTrigger(C36,InterestRatesTrigger))</f>
-        <v>2.2100000001223914E-3</v>
+        <f>_xll.qlOvernightIndexedSwapFairRate(B36,_xll.ohTrigger(C36,InterestRatesTrigger))</f>
+        <v>2.4099999999238615E-3</v>
       </c>
       <c r="N36" s="136">
-        <f ca="1">N$31*$K36+N$32</f>
-        <v>3.4178576315985903E-4</v>
+        <f>N$31*$K36+N$32</f>
+        <v>7.7893183828513658E-4</v>
       </c>
       <c r="O36" s="128">
-        <f t="shared" ca="1" si="16"/>
-        <v>1.2577199782636871E-3</v>
+        <f t="shared" si="16"/>
+        <v>2.1994135820438731E-3</v>
       </c>
       <c r="P36" s="128">
-        <f t="shared" ca="1" si="16"/>
-        <v>2.5872269835184691E-3</v>
+        <f t="shared" si="16"/>
+        <v>3.6694009519603892E-3</v>
       </c>
       <c r="Q36" s="79">
-        <f t="shared" ca="1" si="17"/>
-        <v>4.5709759578185247E-3</v>
+        <f t="shared" si="17"/>
+        <v>5.4330330941053098E-3</v>
       </c>
       <c r="R36" s="128"/>
       <c r="S36" s="142" t="s">
         <v>68</v>
       </c>
       <c r="T36" s="128">
-        <f t="shared" ca="1" si="18"/>
-        <v>1.0297264235565699E-3</v>
+        <f t="shared" si="18"/>
+        <v>2.1579355253068941E-3</v>
       </c>
       <c r="U36" s="79">
-        <f t="shared" ca="1" si="18"/>
-        <v>2.0118161482675949E-3</v>
+        <f t="shared" si="18"/>
+        <v>4.840837833951543E-3</v>
       </c>
     </row>
     <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="143" t="str">
         <f>_xll.qlMakeDatedOIS(,E37,F37,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_0036f#0001</v>
+        <v>obj_00398#0000</v>
       </c>
       <c r="C37" s="144" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B37,OisEngine)</f>
@@ -11394,69 +11353,69 @@
       </c>
       <c r="E37" s="146">
         <f t="shared" si="13"/>
-        <v>41739</v>
+        <v>41781</v>
       </c>
       <c r="F37" s="147">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D37,"Following")</f>
-        <v>41761</v>
+        <v>41802</v>
       </c>
       <c r="G37" s="148">
-        <f t="shared" ca="1" si="14"/>
-        <v>2.5821032015187042E-3</v>
+        <f t="shared" si="14"/>
+        <v>2.9947687020056447E-3</v>
       </c>
       <c r="H37" s="148">
-        <f t="shared" ca="1" si="14"/>
-        <v>3.4835412789859868E-3</v>
+        <f t="shared" si="14"/>
+        <v>4.4043364642684466E-3</v>
       </c>
       <c r="I37" s="148">
-        <f t="shared" ca="1" si="14"/>
-        <v>4.7983049958956591E-3</v>
+        <f t="shared" si="14"/>
+        <v>5.8752204444503919E-3</v>
       </c>
       <c r="J37" s="148">
-        <f t="shared" ca="1" si="14"/>
-        <v>6.7791303517057509E-3</v>
+        <f t="shared" si="14"/>
+        <v>7.6546802137028823E-3</v>
       </c>
       <c r="K37" s="149">
         <f t="shared" si="15"/>
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L37" s="150">
-        <f ca="1">_xll.qlOvernightIndexedSwapFairRate(B37,_xll.ohTrigger(C37,InterestRatesTrigger))</f>
-        <v>2.20999999976268E-3</v>
+        <f>_xll.qlOvernightIndexedSwapFairRate(B37,_xll.ohTrigger(C37,InterestRatesTrigger))</f>
+        <v>2.2299999999995739E-3</v>
       </c>
       <c r="N37" s="151">
-        <f ca="1">N$31*$K37+N$32</f>
-        <v>3.7210320175602436E-4</v>
+        <f>N$31*$K37+N$32</f>
+        <v>7.6476870200607098E-4</v>
       </c>
       <c r="O37" s="152">
-        <f t="shared" ca="1" si="16"/>
-        <v>1.2735412792233066E-3</v>
+        <f t="shared" si="16"/>
+        <v>2.1743364642688731E-3</v>
       </c>
       <c r="P37" s="152">
-        <f t="shared" ca="1" si="16"/>
-        <v>2.5883049961329795E-3</v>
+        <f t="shared" si="16"/>
+        <v>3.6452204444508184E-3</v>
       </c>
       <c r="Q37" s="153">
-        <f t="shared" ca="1" si="17"/>
-        <v>4.5691303519430704E-3</v>
+        <f t="shared" si="17"/>
+        <v>5.424680213703308E-3</v>
       </c>
       <c r="R37" s="152"/>
       <c r="S37" s="154" t="s">
         <v>69</v>
       </c>
       <c r="T37" s="152">
-        <f t="shared" ca="1" si="18"/>
-        <v>1.0888729857653566E-3</v>
+        <f t="shared" si="18"/>
+        <v>2.1397091643200377E-3</v>
       </c>
       <c r="U37" s="153">
-        <f t="shared" ca="1" si="18"/>
-        <v>2.069161528254088E-3</v>
+        <f t="shared" si="18"/>
+        <v>4.7176586898294154E-3</v>
       </c>
     </row>
     <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B38" s="89" t="str">
         <f>_xll.qlMakeDatedOIS(,E38,F38,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_00372#0001</v>
+        <v>obj_00393#0000</v>
       </c>
       <c r="C38" s="80" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B38,OisEngine)</f>
@@ -11467,69 +11426,69 @@
       </c>
       <c r="E38" s="75">
         <f t="shared" si="13"/>
-        <v>41739</v>
+        <v>41781</v>
       </c>
       <c r="F38" s="139">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D38,"mf",TRUE)</f>
-        <v>41771</v>
+        <v>41813</v>
       </c>
       <c r="G38" s="155">
-        <f t="shared" ca="1" si="14"/>
-        <v>2.5100000000000001E-3</v>
+        <f t="shared" si="14"/>
+        <v>2.5625123447242607E-3</v>
       </c>
       <c r="H38" s="155">
-        <f t="shared" ca="1" si="14"/>
-        <v>3.3933179054216004E-3</v>
+        <f t="shared" si="14"/>
+        <v>3.9549295646363093E-3</v>
       </c>
       <c r="I38" s="155">
-        <f t="shared" ca="1" si="14"/>
-        <v>4.6896525118998861E-3</v>
+        <f t="shared" si="14"/>
+        <v>5.4272225038067851E-3</v>
       </c>
       <c r="J38" s="155">
-        <f t="shared" ca="1" si="14"/>
-        <v>6.6668233445975229E-3</v>
+        <f t="shared" si="14"/>
+        <v>7.2315542585140273E-3</v>
       </c>
       <c r="K38" s="134">
         <f t="shared" si="15"/>
         <v>32</v>
       </c>
       <c r="L38" s="141">
-        <f ca="1">_xll.qlOvernightIndexedSwapFairRate(B38,_xll.ohTrigger(C38,InterestRatesTrigger))</f>
-        <v>2.0999999999987691E-3</v>
+        <f>_xll.qlOvernightIndexedSwapFairRate(B38,_xll.ohTrigger(C38,InterestRatesTrigger))</f>
+        <v>1.81999999972815E-3</v>
       </c>
       <c r="N38" s="136">
-        <f ca="1">N$31*$K38+N$32</f>
-        <v>4.1000000000123099E-4</v>
+        <f>N$31*$K38+N$32</f>
+        <v>7.4251234499611064E-4</v>
       </c>
       <c r="O38" s="128">
-        <f t="shared" ca="1" si="16"/>
-        <v>1.2933179054228311E-3</v>
+        <f t="shared" si="16"/>
+        <v>2.1349295649081591E-3</v>
       </c>
       <c r="P38" s="128">
-        <f t="shared" ca="1" si="16"/>
-        <v>2.5896525119011174E-3</v>
+        <f t="shared" si="16"/>
+        <v>3.6072225040786354E-3</v>
       </c>
       <c r="Q38" s="79">
-        <f t="shared" ca="1" si="17"/>
-        <v>4.5668233445987534E-3</v>
+        <f t="shared" si="17"/>
+        <v>5.4115542587858771E-3</v>
       </c>
       <c r="R38" s="128"/>
       <c r="S38" s="142" t="s">
         <v>62</v>
       </c>
       <c r="T38" s="128">
-        <f t="shared" ca="1" si="18"/>
-        <v>1.156402617047533E-3</v>
+        <f t="shared" si="18"/>
+        <v>2.109846650033676E-3</v>
       </c>
       <c r="U38" s="79">
-        <f t="shared" ca="1" si="18"/>
-        <v>2.1367864075579508E-3</v>
+        <f t="shared" si="18"/>
+        <v>4.5328497542169261E-3</v>
       </c>
     </row>
     <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B39" s="89" t="str">
         <f>_xll.qlMakeDatedOIS(,E39,F39,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_00374#0001</v>
+        <v>obj_00399#0000</v>
       </c>
       <c r="C39" s="80" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B39,OisEngine)</f>
@@ -11540,63 +11499,63 @@
       </c>
       <c r="E39" s="75">
         <f t="shared" si="13"/>
-        <v>41739</v>
+        <v>41781</v>
       </c>
       <c r="F39" s="139">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D39,"mf",TRUE)</f>
-        <v>41800</v>
+        <v>41842</v>
       </c>
       <c r="G39" s="156"/>
       <c r="H39" s="133">
-        <f t="shared" ca="1" si="14"/>
-        <v>3.3106701214006638E-3</v>
+        <f t="shared" si="14"/>
+        <v>3.461038648434269E-3</v>
       </c>
       <c r="I39" s="133">
-        <f t="shared" ca="1" si="14"/>
-        <v>4.55356030762793E-3</v>
+        <f t="shared" si="14"/>
+        <v>4.9370461158472368E-3</v>
       </c>
       <c r="J39" s="133">
-        <f t="shared" ca="1" si="14"/>
-        <v>6.5201330232994448E-3</v>
+        <f t="shared" si="14"/>
+        <v>6.806949468571551E-3</v>
       </c>
       <c r="K39" s="140">
         <f t="shared" si="15"/>
         <v>61</v>
       </c>
       <c r="L39" s="141">
-        <f ca="1">_xll.qlOvernightIndexedSwapFairRate(B39,_xll.ohTrigger(C39,InterestRatesTrigger))</f>
-        <v>1.9599999999992119E-3</v>
+        <f>_xll.qlOvernightIndexedSwapFairRate(B39,_xll.ohTrigger(C39,InterestRatesTrigger))</f>
+        <v>1.4300000000225378E-3</v>
       </c>
       <c r="N39" s="156"/>
       <c r="O39" s="128">
-        <f t="shared" ca="1" si="16"/>
-        <v>1.3506701214014518E-3</v>
+        <f t="shared" si="16"/>
+        <v>2.0310386484117312E-3</v>
       </c>
       <c r="P39" s="128">
-        <f t="shared" ca="1" si="16"/>
-        <v>2.5935603076287176E-3</v>
+        <f t="shared" si="16"/>
+        <v>3.5070461158246986E-3</v>
       </c>
       <c r="Q39" s="79">
-        <f t="shared" ca="1" si="17"/>
-        <v>4.5601330233002333E-3</v>
+        <f t="shared" si="17"/>
+        <v>5.3769494685490136E-3</v>
       </c>
       <c r="R39" s="128"/>
       <c r="S39" s="142" t="s">
         <v>70</v>
       </c>
       <c r="T39" s="128">
-        <f t="shared" ca="1" si="18"/>
-        <v>1.3120027736406759E-3</v>
+        <f t="shared" si="18"/>
+        <v>2.0239643433848007E-3</v>
       </c>
       <c r="U39" s="79">
-        <f t="shared" ca="1" si="18"/>
-        <v>2.3074080438545107E-3</v>
+        <f t="shared" si="18"/>
+        <v>4.0969373957009791E-3</v>
       </c>
     </row>
     <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B40" s="89" t="str">
         <f>_xll.qlMakeDatedOIS(,E40,F40,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_0036b#0001</v>
+        <v>obj_00387#0000</v>
       </c>
       <c r="C40" s="80" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B40,OisEngine)</f>
@@ -11607,63 +11566,63 @@
       </c>
       <c r="E40" s="75">
         <f t="shared" si="13"/>
-        <v>41739</v>
+        <v>41781</v>
       </c>
       <c r="F40" s="139">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D40,"mf",TRUE)</f>
-        <v>41830</v>
+        <v>41873</v>
       </c>
       <c r="G40" s="157"/>
       <c r="H40" s="133">
-        <f t="shared" ca="1" si="14"/>
-        <v>3.2700000000000003E-3</v>
+        <f t="shared" si="14"/>
+        <v>3.1599828412207584E-3</v>
       </c>
       <c r="I40" s="133">
-        <f t="shared" ca="1" si="14"/>
-        <v>4.4576028549331067E-3</v>
+        <f t="shared" si="14"/>
+        <v>4.6399610112377674E-3</v>
       </c>
       <c r="J40" s="133">
-        <f t="shared" ca="1" si="14"/>
-        <v>6.4132120012672569E-3</v>
+        <f t="shared" si="14"/>
+        <v>6.5799581411527478E-3</v>
       </c>
       <c r="K40" s="140">
         <f t="shared" si="15"/>
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L40" s="141">
-        <f ca="1">_xll.qlOvernightIndexedSwapFairRate(B40,_xll.ohTrigger(C40,InterestRatesTrigger))</f>
-        <v>1.8599999999999754E-3</v>
+        <f>_xll.qlOvernightIndexedSwapFairRate(B40,_xll.ohTrigger(C40,InterestRatesTrigger))</f>
+        <v>1.2400000000983122E-3</v>
       </c>
       <c r="N40" s="157"/>
       <c r="O40" s="128">
-        <f t="shared" ca="1" si="16"/>
-        <v>1.4100000000000249E-3</v>
+        <f t="shared" si="16"/>
+        <v>1.919982841122446E-3</v>
       </c>
       <c r="P40" s="128">
-        <f t="shared" ca="1" si="16"/>
-        <v>2.5976028549331317E-3</v>
+        <f t="shared" si="16"/>
+        <v>3.3999610111394556E-3</v>
       </c>
       <c r="Q40" s="79">
-        <f t="shared" ca="1" si="17"/>
-        <v>4.5532120012672815E-3</v>
+        <f t="shared" si="17"/>
+        <v>5.339958141054436E-3</v>
       </c>
       <c r="R40" s="128"/>
       <c r="S40" s="142" t="s">
         <v>63</v>
       </c>
       <c r="T40" s="128">
-        <f t="shared" ca="1" si="18"/>
-        <v>1.4100000000000291E-3</v>
+        <f t="shared" si="18"/>
+        <v>1.9206882747233366E-3</v>
       </c>
       <c r="U40" s="79">
-        <f t="shared" ca="1" si="18"/>
-        <v>2.4440208690049599E-3</v>
+        <f t="shared" si="18"/>
+        <v>3.7132369694896864E-3</v>
       </c>
     </row>
     <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B41" s="89" t="str">
         <f>_xll.qlMakeDatedOIS(,E41,F41,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_00371#0001</v>
+        <v>obj_00390#0000</v>
       </c>
       <c r="C41" s="80" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B41,OisEngine)</f>
@@ -11674,39 +11633,39 @@
       </c>
       <c r="E41" s="75">
         <f t="shared" si="13"/>
-        <v>41739</v>
+        <v>41781</v>
       </c>
       <c r="F41" s="139">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D41,"mf",TRUE)</f>
-        <v>41862</v>
+        <v>41904</v>
       </c>
       <c r="G41" s="158"/>
       <c r="H41" s="159"/>
       <c r="I41" s="133">
-        <f t="shared" ca="1" si="14"/>
-        <v>4.3619149053915254E-3</v>
+        <f t="shared" si="14"/>
+        <v>4.4228759066472553E-3</v>
       </c>
       <c r="J41" s="133">
-        <f t="shared" ca="1" si="14"/>
-        <v>6.3058295777658176E-3</v>
+        <f t="shared" si="14"/>
+        <v>6.4329668137529002E-3</v>
       </c>
       <c r="K41" s="140">
         <f t="shared" si="15"/>
         <v>123</v>
       </c>
       <c r="L41" s="141">
-        <f ca="1">_xll.qlOvernightIndexedSwapFairRate(B41,_xll.ohTrigger(C41,InterestRatesTrigger))</f>
-        <v>1.7600000000003518E-3</v>
+        <f>_xll.qlOvernightIndexedSwapFairRate(B41,_xll.ohTrigger(C41,InterestRatesTrigger))</f>
+        <v>1.130000000193043E-3</v>
       </c>
       <c r="N41" s="158"/>
       <c r="O41" s="159"/>
       <c r="P41" s="128">
-        <f ca="1">IF(P$30,U41,P$31*$K41+P$32)</f>
-        <v>2.6019149053911734E-3</v>
+        <f>IF(P$30,U41,P$31*$K41+P$32)</f>
+        <v>3.2928759064542127E-3</v>
       </c>
       <c r="Q41" s="79">
-        <f t="shared" ca="1" si="17"/>
-        <v>4.545829577765466E-3</v>
+        <f t="shared" si="17"/>
+        <v>5.3029668135598576E-3</v>
       </c>
       <c r="R41" s="128"/>
       <c r="S41" s="142" t="s">
@@ -11714,14 +11673,14 @@
       </c>
       <c r="T41" s="159"/>
       <c r="U41" s="79">
-        <f ca="1">$K41*$K41/3*U$30+$K41/2*U$31+U$32</f>
-        <v>2.5450257612341116E-3</v>
+        <f>$K41*$K41/3*U$30+$K41/2*U$31+U$32</f>
+        <v>3.4145538919793965E-3</v>
       </c>
     </row>
     <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B42" s="89" t="str">
         <f>_xll.qlMakeDatedOIS(,E42,F42,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_00369#0001</v>
+        <v>obj_00395#0000</v>
       </c>
       <c r="C42" s="80" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B42,OisEngine)</f>
@@ -11732,39 +11691,39 @@
       </c>
       <c r="E42" s="75">
         <f t="shared" si="13"/>
-        <v>41739</v>
+        <v>41781</v>
       </c>
       <c r="F42" s="139">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D42,"mf",TRUE)</f>
-        <v>41892</v>
+        <v>41934</v>
       </c>
       <c r="G42" s="158"/>
       <c r="H42" s="160"/>
       <c r="I42" s="133">
-        <f t="shared" ca="1" si="14"/>
-        <v>4.3059574526954913E-3</v>
+        <f t="shared" si="14"/>
+        <v>4.239245160291262E-3</v>
       </c>
       <c r="J42" s="133">
-        <f t="shared" ca="1" si="14"/>
-        <v>6.238908555732418E-3</v>
+        <f t="shared" si="14"/>
+        <v>6.317168755000776E-3</v>
       </c>
       <c r="K42" s="140">
         <f t="shared" si="15"/>
         <v>153</v>
       </c>
       <c r="L42" s="141">
-        <f ca="1">_xll.qlOvernightIndexedSwapFairRate(B42,_xll.ohTrigger(C42,InterestRatesTrigger))</f>
-        <v>1.6999999999999043E-3</v>
+        <f>_xll.qlOvernightIndexedSwapFairRate(B42,_xll.ohTrigger(C42,InterestRatesTrigger))</f>
+        <v>1.050000000306639E-3</v>
       </c>
       <c r="N42" s="158"/>
       <c r="O42" s="160"/>
       <c r="P42" s="128">
-        <f ca="1">IF(P$30,U42,P$31*$K42+P$32)</f>
-        <v>2.6059574526955871E-3</v>
+        <f>IF(P$30,U42,P$31*$K42+P$32)</f>
+        <v>3.189245159984623E-3</v>
       </c>
       <c r="Q42" s="79">
-        <f t="shared" ca="1" si="17"/>
-        <v>4.5389085557325142E-3</v>
+        <f t="shared" si="17"/>
+        <v>5.2671687546941371E-3</v>
       </c>
       <c r="R42" s="128"/>
       <c r="S42" s="142" t="s">
@@ -11772,14 +11731,14 @@
       </c>
       <c r="T42" s="160"/>
       <c r="U42" s="79">
-        <f ca="1">$K42*$K42/3*U$30+$K42/2*U$31+U$32</f>
-        <v>2.5977971090133225E-3</v>
+        <f>$K42*$K42/3*U$30+$K42/2*U$31+U$32</f>
+        <v>3.2064535922674805E-3</v>
       </c>
     </row>
     <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B43" s="89" t="str">
         <f>_xll.qlMakeDatedOIS(,E43,F43,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_00362#0001</v>
+        <v>obj_00388#0000</v>
       </c>
       <c r="C43" s="80" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B43,OisEngine)</f>
@@ -11790,39 +11749,39 @@
       </c>
       <c r="E43" s="75">
         <f t="shared" si="13"/>
-        <v>41739</v>
+        <v>41781</v>
       </c>
       <c r="F43" s="139">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D43,"mf",TRUE)</f>
-        <v>41922</v>
+        <v>41967</v>
       </c>
       <c r="G43" s="158"/>
       <c r="H43" s="160"/>
       <c r="I43" s="133">
-        <f t="shared" ca="1" si="14"/>
-        <v>4.2599999999999999E-3</v>
+        <f t="shared" si="14"/>
+        <v>4.0652513388680705E-3</v>
       </c>
       <c r="J43" s="133">
-        <f t="shared" ca="1" si="14"/>
-        <v>6.181987533699561E-3</v>
+        <f t="shared" si="14"/>
+        <v>6.2177908899418407E-3</v>
       </c>
       <c r="K43" s="140">
         <f t="shared" si="15"/>
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="L43" s="141">
-        <f ca="1">_xll.qlOvernightIndexedSwapFairRate(B43,_xll.ohTrigger(C43,InterestRatesTrigger))</f>
-        <v>1.6499999999999987E-3</v>
+        <f>_xll.qlOvernightIndexedSwapFairRate(B43,_xll.ohTrigger(C43,InterestRatesTrigger))</f>
+        <v>9.8999999999999631E-4</v>
       </c>
       <c r="N43" s="158"/>
       <c r="O43" s="160"/>
       <c r="P43" s="128">
-        <f ca="1">IF(P$30,U43,P$31*$K43+P$32)</f>
-        <v>2.6100000000000012E-3</v>
+        <f>IF(P$30,U43,P$31*$K43+P$32)</f>
+        <v>3.0752513388680744E-3</v>
       </c>
       <c r="Q43" s="79">
-        <f t="shared" ca="1" si="17"/>
-        <v>4.5319875336995623E-3</v>
+        <f t="shared" si="17"/>
+        <v>5.2277908899418446E-3</v>
       </c>
       <c r="R43" s="128"/>
       <c r="S43" s="162" t="s">
@@ -11830,14 +11789,14 @@
       </c>
       <c r="T43" s="163"/>
       <c r="U43" s="153">
-        <f ca="1">$K43*$K43/3*U$30+$K43/2*U$31+U$32</f>
-        <v>2.609999999999999E-3</v>
+        <f>$K43*$K43/3*U$30+$K43/2*U$31+U$32</f>
+        <v>3.0695053166683397E-3</v>
       </c>
     </row>
     <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B44" s="89" t="str">
         <f>_xll.qlMakeDatedOIS(,E44,F44,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_0036a#0001</v>
+        <v>obj_00386#0000</v>
       </c>
       <c r="C44" s="80" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B44,OisEngine)</f>
@@ -11848,26 +11807,26 @@
       </c>
       <c r="E44" s="75">
         <f t="shared" si="13"/>
-        <v>41739</v>
+        <v>41781</v>
       </c>
       <c r="F44" s="139">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D44,"mf",TRUE)</f>
-        <v>41953</v>
+        <v>41995</v>
       </c>
       <c r="G44" s="158"/>
       <c r="H44" s="164"/>
       <c r="I44" s="159"/>
       <c r="J44" s="133">
-        <f t="shared" ca="1" si="14"/>
-        <v>6.1148358109321737E-3</v>
+        <f t="shared" si="14"/>
+        <v>6.1343793683338709E-3</v>
       </c>
       <c r="K44" s="140">
         <f t="shared" si="15"/>
         <v>214</v>
       </c>
       <c r="L44" s="141">
-        <f ca="1">_xll.qlOvernightIndexedSwapFairRate(B44,_xll.ohTrigger(C44,InterestRatesTrigger))</f>
-        <v>1.5899999999999948E-3</v>
+        <f>_xll.qlOvernightIndexedSwapFairRate(B44,_xll.ohTrigger(C44,InterestRatesTrigger))</f>
+        <v>9.4000000000003228E-4</v>
       </c>
       <c r="N44" s="165" t="s">
         <v>74</v>
@@ -11875,8 +11834,8 @@
       <c r="O44" s="166"/>
       <c r="P44" s="159"/>
       <c r="Q44" s="79">
-        <f t="shared" ca="1" si="17"/>
-        <v>4.5248358109321787E-3</v>
+        <f t="shared" si="17"/>
+        <v>5.194379368333839E-3</v>
       </c>
       <c r="R44" s="128"/>
       <c r="S44" s="128"/>
@@ -11884,7 +11843,7 @@
     <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B45" s="89" t="str">
         <f>_xll.qlMakeDatedOIS(,E45,F45,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_00360#0001</v>
+        <v>obj_0038a#0000</v>
       </c>
       <c r="C45" s="80" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B45,OisEngine)</f>
@@ -11895,26 +11854,26 @@
       </c>
       <c r="E45" s="75">
         <f t="shared" si="13"/>
-        <v>41739</v>
+        <v>41781</v>
       </c>
       <c r="F45" s="139">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D45,"mf",TRUE)</f>
-        <v>41983</v>
+        <v>42026</v>
       </c>
       <c r="G45" s="158"/>
       <c r="H45" s="164"/>
       <c r="I45" s="160"/>
       <c r="J45" s="133">
-        <f t="shared" ca="1" si="14"/>
-        <v>6.0679147888992252E-3</v>
+        <f t="shared" si="14"/>
+        <v>6.0673880408391046E-3</v>
       </c>
       <c r="K45" s="140">
         <f t="shared" si="15"/>
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="L45" s="141">
-        <f ca="1">_xll.qlOvernightIndexedSwapFairRate(B45,_xll.ohTrigger(C45,InterestRatesTrigger))</f>
-        <v>1.5499999999999982E-3</v>
+        <f>_xll.qlOvernightIndexedSwapFairRate(B45,_xll.ohTrigger(C45,InterestRatesTrigger))</f>
+        <v>9.099999999998442E-4</v>
       </c>
       <c r="N45" s="167"/>
       <c r="O45" s="168" t="s">
@@ -11922,8 +11881,8 @@
       </c>
       <c r="P45" s="169"/>
       <c r="Q45" s="79">
-        <f t="shared" ca="1" si="17"/>
-        <v>4.5179147888992268E-3</v>
+        <f t="shared" si="17"/>
+        <v>5.1573880408392605E-3</v>
       </c>
       <c r="R45" s="128"/>
       <c r="S45" s="128"/>
@@ -11931,7 +11890,7 @@
     <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B46" s="89" t="str">
         <f>_xll.qlMakeDatedOIS(,E46,F46,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_00373#0001</v>
+        <v>obj_00397#0000</v>
       </c>
       <c r="C46" s="80" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B46,OisEngine)</f>
@@ -11942,26 +11901,26 @@
       </c>
       <c r="E46" s="75">
         <f t="shared" si="13"/>
-        <v>41739</v>
+        <v>41781</v>
       </c>
       <c r="F46" s="139">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D46,"mf",TRUE)</f>
-        <v>42016</v>
+        <v>42058</v>
       </c>
       <c r="G46" s="158"/>
       <c r="H46" s="164"/>
       <c r="I46" s="160"/>
       <c r="J46" s="133">
-        <f t="shared" ca="1" si="14"/>
-        <v>6.0403016646630031E-3</v>
+        <f t="shared" si="14"/>
+        <v>6.0092034447157541E-3</v>
       </c>
       <c r="K46" s="140">
         <f t="shared" si="15"/>
         <v>277</v>
       </c>
       <c r="L46" s="141">
-        <f ca="1">_xll.qlOvernightIndexedSwapFairRate(B46,_xll.ohTrigger(C46,InterestRatesTrigger))</f>
-        <v>1.530000000000024E-3</v>
+        <f>_xll.qlOvernightIndexedSwapFairRate(B46,_xll.ohTrigger(C46,InterestRatesTrigger))</f>
+        <v>8.8999999999992904E-4</v>
       </c>
       <c r="N46" s="158"/>
       <c r="O46" s="166"/>
@@ -11969,8 +11928,8 @@
         <v>78</v>
       </c>
       <c r="Q46" s="79">
-        <f t="shared" ca="1" si="17"/>
-        <v>4.5103016646629796E-3</v>
+        <f t="shared" si="17"/>
+        <v>5.1192034447158251E-3</v>
       </c>
       <c r="R46" s="128"/>
       <c r="S46" s="128"/>
@@ -11978,7 +11937,7 @@
     <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B47" s="89" t="str">
         <f>_xll.qlMakeDatedOIS(,E47,F47,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_0036e#0001</v>
+        <v>obj_00394#0000</v>
       </c>
       <c r="C47" s="80" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B47,OisEngine)</f>
@@ -11989,33 +11948,33 @@
       </c>
       <c r="E47" s="75">
         <f t="shared" si="13"/>
-        <v>41739</v>
+        <v>41781</v>
       </c>
       <c r="F47" s="139">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D47,"mf",TRUE)</f>
-        <v>42045</v>
+        <v>42086</v>
       </c>
       <c r="G47" s="158"/>
       <c r="H47" s="164"/>
       <c r="I47" s="160"/>
       <c r="J47" s="133">
-        <f t="shared" ca="1" si="14"/>
-        <v>6.0136113433644509E-3</v>
+        <f t="shared" si="14"/>
+        <v>5.9557919231078187E-3</v>
       </c>
       <c r="K47" s="140">
         <f t="shared" si="15"/>
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="L47" s="141">
-        <f ca="1">_xll.qlOvernightIndexedSwapFairRate(B47,_xll.ohTrigger(C47,InterestRatesTrigger))</f>
-        <v>1.5099999999999916E-3</v>
+        <f>_xll.qlOvernightIndexedSwapFairRate(B47,_xll.ohTrigger(C47,InterestRatesTrigger))</f>
+        <v>8.6999999999999914E-4</v>
       </c>
       <c r="N47" s="158"/>
       <c r="O47" s="164"/>
       <c r="P47" s="160"/>
       <c r="Q47" s="79">
-        <f t="shared" ca="1" si="17"/>
-        <v>4.5036113433644595E-3</v>
+        <f t="shared" si="17"/>
+        <v>5.0857919231078194E-3</v>
       </c>
       <c r="R47" s="128"/>
       <c r="S47" s="128"/>
@@ -12023,7 +11982,7 @@
     <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B48" s="89" t="str">
         <f>_xll.qlMakeDatedOIS(,E48,F48,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_0036c#0001</v>
+        <v>obj_0038e#0000</v>
       </c>
       <c r="C48" s="80" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B48,OisEngine)</f>
@@ -12034,33 +11993,33 @@
       </c>
       <c r="E48" s="75">
         <f t="shared" si="13"/>
-        <v>41739</v>
+        <v>41781</v>
       </c>
       <c r="F48" s="139">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D48,"mf",TRUE)</f>
-        <v>42073</v>
+        <v>42116</v>
       </c>
       <c r="G48" s="158"/>
       <c r="H48" s="164"/>
       <c r="I48" s="160"/>
       <c r="J48" s="133">
-        <f t="shared" ca="1" si="14"/>
-        <v>5.9971517228001462E-3</v>
+        <f t="shared" si="14"/>
+        <v>5.8999938642422386E-3</v>
       </c>
       <c r="K48" s="140">
         <f t="shared" si="15"/>
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="L48" s="141">
-        <f ca="1">_xll.qlOvernightIndexedSwapFairRate(B48,_xll.ohTrigger(C48,InterestRatesTrigger))</f>
-        <v>1.499999999999775E-3</v>
+        <f>_xll.qlOvernightIndexedSwapFairRate(B48,_xll.ohTrigger(C48,InterestRatesTrigger))</f>
+        <v>8.5000000000014003E-4</v>
       </c>
       <c r="N48" s="158"/>
       <c r="O48" s="164"/>
       <c r="P48" s="160"/>
       <c r="Q48" s="79">
-        <f t="shared" ca="1" si="17"/>
-        <v>4.4971517228003712E-3</v>
+        <f t="shared" si="17"/>
+        <v>5.0499938642420989E-3</v>
       </c>
       <c r="R48" s="128"/>
       <c r="S48" s="128"/>
@@ -12068,7 +12027,7 @@
     <row r="49" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B49" s="143" t="str">
         <f>_xll.qlMakeDatedOIS(,E49,F49,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_00364#0001</v>
+        <v>obj_0038f#0000</v>
       </c>
       <c r="C49" s="144" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B49,OisEngine)</f>
@@ -12079,33 +12038,33 @@
       </c>
       <c r="E49" s="75">
         <f t="shared" si="13"/>
-        <v>41739</v>
+        <v>41781</v>
       </c>
       <c r="F49" s="139">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D49,"mf",TRUE)</f>
-        <v>42104</v>
+        <v>42146</v>
       </c>
       <c r="G49" s="158"/>
       <c r="H49" s="164"/>
       <c r="I49" s="160"/>
       <c r="J49" s="133">
-        <f t="shared" ca="1" si="14"/>
-        <v>5.9899999999999997E-3</v>
+        <f t="shared" si="14"/>
+        <v>5.8541958053764066E-3</v>
       </c>
       <c r="K49" s="140">
         <f t="shared" si="15"/>
         <v>365</v>
       </c>
       <c r="L49" s="141">
-        <f ca="1">_xll.qlOvernightIndexedSwapFairRate(B49,_xll.ohTrigger(C49,InterestRatesTrigger))</f>
-        <v>1.4999999999670119E-3</v>
+        <f>_xll.qlOvernightIndexedSwapFairRate(B49,_xll.ohTrigger(C49,InterestRatesTrigger))</f>
+        <v>8.400000000000279E-4</v>
       </c>
       <c r="N49" s="171"/>
       <c r="O49" s="172"/>
       <c r="P49" s="163"/>
       <c r="Q49" s="153">
-        <f t="shared" ca="1" si="17"/>
-        <v>4.4900000000329876E-3</v>
+        <f t="shared" si="17"/>
+        <v>5.0141958053763784E-3</v>
       </c>
       <c r="R49" s="128"/>
       <c r="S49" s="128"/>
@@ -12147,7 +12106,7 @@
   <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:D1"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -12205,15 +12164,15 @@
       </c>
       <c r="E2" s="275" t="str">
         <f>Contribution!$D$40</f>
-        <v>EUR1YD_SYNTH1Y_Quote#0001</v>
+        <v>EUR1YD_SYNTH1Y_Quote#0000</v>
       </c>
       <c r="F2" s="275" t="str">
         <f>_xll.qlDepositRateHelper(,E2,$F$10,)</f>
-        <v>obj_00361#0001</v>
+        <v>obj_0038b#0000</v>
       </c>
       <c r="G2" s="209">
-        <f ca="1">_xll.qlRateHelperQuoteValue(F2,InterestRatesTrigger)</f>
-        <v>5.9899999999999997E-3</v>
+        <f>_xll.qlRateHelperQuoteValue(F2,InterestRatesTrigger)</f>
+        <v>5.8539999999999998E-3</v>
       </c>
       <c r="H2" s="210" t="b">
         <v>1</v>
@@ -12225,12 +12184,12 @@
         <v>1</v>
       </c>
       <c r="K2" s="211">
-        <f ca="1">_xll.qlRateHelperEarliestDate($F2,InterestRatesTrigger)</f>
-        <v>41739</v>
+        <f>_xll.qlRateHelperEarliestDate($F2,InterestRatesTrigger)</f>
+        <v>41781</v>
       </c>
       <c r="L2" s="212">
-        <f ca="1">_xll.qlRateHelperLatestDate($F2,InterestRatesTrigger)</f>
-        <v>42104</v>
+        <f>_xll.qlRateHelperLatestDate($F2,InterestRatesTrigger)</f>
+        <v>42146</v>
       </c>
     </row>
     <row r="3" spans="2:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -12248,11 +12207,11 @@
       </c>
       <c r="F3" s="276" t="str">
         <f>_xll.qlFraRateHelper(,E3,B3&amp;"M",$F$10)</f>
-        <v>obj_00375#0001</v>
+        <v>obj_00384#0000</v>
       </c>
       <c r="G3" s="215">
-        <f ca="1">_xll.qlRateHelperQuoteValue(F3,InterestRatesTrigger)</f>
-        <v>6.5200000000000006E-3</v>
+        <f>_xll.qlRateHelperQuoteValue(F3,InterestRatesTrigger)</f>
+        <v>5.3200000000000001E-3</v>
       </c>
       <c r="H3" s="216" t="b">
         <v>1</v>
@@ -12264,12 +12223,12 @@
         <v>1</v>
       </c>
       <c r="K3" s="217">
-        <f ca="1">_xll.qlRateHelperEarliestDate($F3,InterestRatesTrigger)</f>
-        <v>42104</v>
+        <f>_xll.qlRateHelperEarliestDate($F3,InterestRatesTrigger)</f>
+        <v>42146</v>
       </c>
       <c r="L3" s="218">
-        <f ca="1">_xll.qlRateHelperLatestDate($F3,InterestRatesTrigger)</f>
-        <v>42471</v>
+        <f>_xll.qlRateHelperLatestDate($F3,InterestRatesTrigger)</f>
+        <v>42513</v>
       </c>
       <c r="M3" s="219"/>
     </row>
@@ -12288,11 +12247,11 @@
       </c>
       <c r="F4" s="277" t="str">
         <f>_xll.qlSwapRateHelper2(,E4,D4,Calendar,"annual","mf","30/360 (Bond Basis)",$F$10,0,"0D",OisCurve)</f>
-        <v>obj_00363#0001</v>
+        <v>obj_00389#0000</v>
       </c>
       <c r="G4" s="223">
-        <f ca="1">_xll.qlRateHelperQuoteValue(F4,InterestRatesTrigger)</f>
-        <v>7.5099999999999993E-3</v>
+        <f>_xll.qlRateHelperQuoteValue(F4,InterestRatesTrigger)</f>
+        <v>6.4899999999999992E-3</v>
       </c>
       <c r="H4" s="224" t="b">
         <v>1</v>
@@ -12304,12 +12263,12 @@
         <v>1</v>
       </c>
       <c r="K4" s="225">
-        <f ca="1">_xll.qlRateHelperEarliestDate($F4,InterestRatesTrigger)</f>
-        <v>41739</v>
+        <f>_xll.qlRateHelperEarliestDate($F4,InterestRatesTrigger)</f>
+        <v>41781</v>
       </c>
       <c r="L4" s="226">
-        <f ca="1">_xll.qlRateHelperLatestDate($F4,InterestRatesTrigger)</f>
-        <v>42835</v>
+        <f>_xll.qlRateHelperLatestDate($F4,InterestRatesTrigger)</f>
+        <v>42877</v>
       </c>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.2">
@@ -12327,11 +12286,11 @@
       </c>
       <c r="F5" s="278" t="str">
         <f>_xll.qlSwapRateHelper2(,E5,D5,Calendar,"annual","mf","30/360 (Bond Basis)",$F$10,0,"0D",OisCurve)</f>
-        <v>obj_00366#0001</v>
+        <v>obj_00385#0000</v>
       </c>
       <c r="G5" s="230">
-        <f ca="1">_xll.qlRateHelperQuoteValue(F5,InterestRatesTrigger)</f>
-        <v>9.1599999999999997E-3</v>
+        <f>_xll.qlRateHelperQuoteValue(F5,InterestRatesTrigger)</f>
+        <v>7.9100000000000004E-3</v>
       </c>
       <c r="H5" s="231" t="b">
         <v>1</v>
@@ -12343,12 +12302,12 @@
         <v>1</v>
       </c>
       <c r="K5" s="232">
-        <f ca="1">_xll.qlRateHelperEarliestDate($F5,InterestRatesTrigger)</f>
-        <v>41739</v>
+        <f>_xll.qlRateHelperEarliestDate($F5,InterestRatesTrigger)</f>
+        <v>41781</v>
       </c>
       <c r="L5" s="233">
-        <f ca="1">_xll.qlRateHelperLatestDate($F5,InterestRatesTrigger)</f>
-        <v>43200</v>
+        <f>_xll.qlRateHelperLatestDate($F5,InterestRatesTrigger)</f>
+        <v>43242</v>
       </c>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.2">
@@ -12366,11 +12325,11 @@
       </c>
       <c r="F6" s="275" t="str">
         <f>_xll.qlSwapRateHelper2(,E6,D6,Calendar,"annual","mf","30/360 (Bond Basis)",$F$10,0,"0D",OisCurve)</f>
-        <v>obj_00365#0001</v>
+        <v>obj_00396#0000</v>
       </c>
       <c r="G6" s="209">
-        <f ca="1">_xll.qlRateHelperQuoteValue(F6,InterestRatesTrigger)</f>
-        <v>1.098E-2</v>
+        <f>_xll.qlRateHelperQuoteValue(F6,InterestRatesTrigger)</f>
+        <v>9.6099999999999988E-3</v>
       </c>
       <c r="H6" s="210" t="b">
         <v>1</v>
@@ -12382,18 +12341,18 @@
         <v>1</v>
       </c>
       <c r="K6" s="211">
-        <f ca="1">_xll.qlRateHelperEarliestDate($F6,InterestRatesTrigger)</f>
-        <v>41739</v>
+        <f>_xll.qlRateHelperEarliestDate($F6,InterestRatesTrigger)</f>
+        <v>41781</v>
       </c>
       <c r="L6" s="212">
-        <f ca="1">_xll.qlRateHelperLatestDate($F6,InterestRatesTrigger)</f>
-        <v>43565</v>
+        <f>_xll.qlRateHelperLatestDate($F6,InterestRatesTrigger)</f>
+        <v>43607</v>
       </c>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.2">
       <c r="F10" s="205" t="str">
         <f>_xll.qlEuribor(,IborTenor,,,EvaluationDate)</f>
-        <v>obj_00356#0001</v>
+        <v>obj_00361#0000</v>
       </c>
     </row>
   </sheetData>
@@ -12480,10 +12439,10 @@
       <c r="C2" s="240"/>
       <c r="D2" s="241">
         <f>SettlementDate</f>
-        <v>41739</v>
+        <v>41781</v>
       </c>
       <c r="E2" s="242">
-        <f t="array" aca="1" ref="E2:E127" ca="1">_xll.qlPiecewiseYieldCurveData(YieldCurve,InterestRatesTrigger)</f>
+        <f t="array" ref="E2:E127">_xll.qlPiecewiseYieldCurveData(YieldCurve,InterestRatesTrigger)</f>
         <v>1</v>
       </c>
       <c r="F2" s="205">
@@ -12491,310 +12450,305 @@
       </c>
       <c r="G2" s="243">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I2)</f>
-        <v>41737</v>
+        <v>41779</v>
       </c>
       <c r="H2" s="205" t="str">
         <f>_xll.qlMakeDatedOIS(,I2,J2,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_00391#0001</v>
+        <v>obj_003bb#0000</v>
       </c>
       <c r="I2" s="243">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F2&amp;"M","mf")</f>
-        <v>41739</v>
+        <v>41781</v>
       </c>
       <c r="J2" s="243">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I2)</f>
-        <v>42104</v>
+        <v>42146</v>
       </c>
       <c r="K2" s="242">
-        <f ca="1">_xll.qlIndexFixing(IborIndex,G2,TRUE,InterestRatesTrigger)</f>
-        <v>5.9899999999998765E-3</v>
+        <f>_xll.qlIndexFixing(IborIndex,G2,TRUE,InterestRatesTrigger)</f>
+        <v>5.8540000003707649E-3</v>
       </c>
       <c r="L2" s="242">
-        <f ca="1">_xll.qlOvernightIndexedSwapFairRate(H2,Contribution!$P$25)</f>
-        <v>1.4999999999670119E-3</v>
+        <f>_xll.qlOvernightIndexedSwapFairRate(H2,Contribution!$P$25)</f>
+        <v>8.400000000000279E-4</v>
       </c>
       <c r="M2" s="219">
-        <f ca="1">ROUND(K2-L2,6)</f>
-        <v>4.4900000000000001E-3</v>
+        <f>ROUND(K2-L2,6)</f>
+        <v>5.0140000000000002E-3</v>
       </c>
       <c r="N2" s="242"/>
       <c r="O2" s="205" t="str">
         <f>_xll.qlSimpleQuote(,,,,EvaluationDate)</f>
-        <v>obj_0034b#0001</v>
+        <v>obj_00380#0000</v>
       </c>
       <c r="P2" s="242">
-        <f ca="1">_xll.qlSimpleQuoteSetValue(O2,M2)</f>
+        <f>_xll.qlSimpleQuoteSetValue(O2,M2)</f>
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="244" t="str">
         <f>RateHelpersFra!F2</f>
-        <v>obj_00361#0001</v>
+        <v>obj_0038b#0000</v>
       </c>
       <c r="B3" s="245">
-        <f ca="1">_xll.qlRateHelperRate($A3,InterestRatesTrigger)</f>
-        <v>5.9899999999999997E-3</v>
+        <f>_xll.qlRateHelperRate($A3,InterestRatesTrigger)</f>
+        <v>5.8539999999999998E-3</v>
       </c>
       <c r="C3" s="246">
         <f>_xll.qlRateHelperEarliestDate($A3)</f>
-        <v>41739</v>
+        <v>41781</v>
       </c>
       <c r="D3" s="241">
         <f>_xll.qlRateHelperLatestDate($A3)</f>
-        <v>42104</v>
+        <v>42146</v>
       </c>
       <c r="E3" s="242">
-        <f ca="1"/>
-        <v>0.99396346659668433</v>
+        <v>0.99409971444172407</v>
       </c>
       <c r="F3" s="205">
         <v>12</v>
       </c>
       <c r="G3" s="243">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I3)</f>
-        <v>42102</v>
+        <v>42144</v>
       </c>
       <c r="H3" s="205" t="str">
         <f>_xll.qlMakeDatedOIS(,I3,J3,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_003b4#0001</v>
+        <v>obj_003ac#0000</v>
       </c>
       <c r="I3" s="243">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F3&amp;"M","mf")</f>
-        <v>42104</v>
+        <v>42146</v>
       </c>
       <c r="J3" s="243">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I3)</f>
-        <v>42471</v>
+        <v>42513</v>
       </c>
       <c r="K3" s="242">
-        <f ca="1">_xll.qlIndexFixing(IborIndex,G3,TRUE,InterestRatesTrigger)</f>
-        <v>6.5199999999998931E-3</v>
+        <f>_xll.qlIndexFixing(IborIndex,G3,TRUE,InterestRatesTrigger)</f>
+        <v>5.3200000000000903E-3</v>
       </c>
       <c r="L3" s="242">
-        <f ca="1">_xll.qlOvernightIndexedSwapFairRate(H3,Contribution!$P$25)</f>
-        <v>2.1988729375710392E-3</v>
+        <f>_xll.qlOvernightIndexedSwapFairRate(H3,Contribution!$P$25)</f>
+        <v>1.1792768309472049E-3</v>
       </c>
       <c r="M3" s="219">
-        <f ca="1">ROUND(K3-L3,6)</f>
-        <v>4.3210000000000002E-3</v>
+        <f>ROUND(K3-L3,6)</f>
+        <v>4.1409999999999997E-3</v>
       </c>
       <c r="N3" s="242"/>
       <c r="O3" s="205" t="str">
         <f>_xll.qlSimpleQuote(,,,,EvaluationDate)</f>
-        <v>obj_00350#0001</v>
+        <v>obj_00378#0000</v>
       </c>
       <c r="P3" s="242">
-        <f ca="1">_xll.qlSimpleQuoteSetValue(O3,M3)</f>
+        <f>_xll.qlSimpleQuoteSetValue(O3,M3)</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="244" t="str">
         <f>RateHelpersFra!F3</f>
-        <v>obj_00375#0001</v>
+        <v>obj_00384#0000</v>
       </c>
       <c r="B4" s="245">
-        <f ca="1">_xll.qlRateHelperRate($A4,InterestRatesTrigger)</f>
-        <v>6.5200000000000006E-3</v>
+        <f>_xll.qlRateHelperRate($A4,InterestRatesTrigger)</f>
+        <v>5.3200000000000001E-3</v>
       </c>
       <c r="C4" s="246">
         <f>_xll.qlRateHelperEarliestDate($A4)</f>
-        <v>42104</v>
+        <v>42146</v>
       </c>
       <c r="D4" s="241">
         <f>_xll.qlRateHelperLatestDate($A4)</f>
-        <v>42471</v>
+        <v>42513</v>
       </c>
       <c r="E4" s="242">
-        <f ca="1"/>
-        <v>0.98740043532539545</v>
+        <v>0.98873735234115467</v>
       </c>
       <c r="F4" s="205">
         <v>24</v>
       </c>
       <c r="G4" s="243">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I4)</f>
-        <v>42467</v>
+        <v>42509</v>
       </c>
       <c r="H4" s="205" t="str">
         <f>_xll.qlMakeDatedOIS(,I4,J4,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_0038d#0001</v>
+        <v>obj_003d9#0000</v>
       </c>
       <c r="I4" s="243">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F4&amp;"M","mf")</f>
-        <v>42471</v>
+        <v>42513</v>
       </c>
       <c r="J4" s="243">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I4)</f>
-        <v>42836</v>
+        <v>42878</v>
       </c>
       <c r="K4" s="242">
-        <f ca="1">_xll.qlIndexFixing(IborIndex,G4,TRUE,InterestRatesTrigger)</f>
-        <v>9.7225916520282743E-3</v>
+        <f>_xll.qlIndexFixing(IborIndex,G4,TRUE,InterestRatesTrigger)</f>
+        <v>8.0335525200936498E-3</v>
       </c>
       <c r="L4" s="242">
-        <f ca="1">_xll.qlOvernightIndexedSwapFairRate(H4,Contribution!$P$25)</f>
-        <v>4.9691292706806516E-3</v>
+        <f>_xll.qlOvernightIndexedSwapFairRate(H4,Contribution!$P$25)</f>
+        <v>3.4298847658846771E-3</v>
       </c>
       <c r="M4" s="219">
-        <f ca="1">ROUND(K4-L4,6)</f>
-        <v>4.7530000000000003E-3</v>
+        <f>ROUND(K4-L4,6)</f>
+        <v>4.6039999999999996E-3</v>
       </c>
       <c r="N4" s="242"/>
       <c r="O4" s="205" t="str">
         <f>_xll.qlSimpleQuote(,,,,EvaluationDate)</f>
-        <v>obj_00334#0001</v>
+        <v>obj_0035f#0000</v>
       </c>
       <c r="P4" s="242">
-        <f ca="1">_xll.qlSimpleQuoteSetValue(O4,M4)</f>
+        <f>_xll.qlSimpleQuoteSetValue(O4,M4)</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="244" t="str">
         <f>RateHelpersFra!F4</f>
-        <v>obj_00363#0001</v>
+        <v>obj_00389#0000</v>
       </c>
       <c r="B5" s="245">
-        <f ca="1">_xll.qlRateHelperRate($A5,InterestRatesTrigger)</f>
-        <v>7.5099999999999993E-3</v>
+        <f>_xll.qlRateHelperRate($A5,InterestRatesTrigger)</f>
+        <v>6.4899999999999992E-3</v>
       </c>
       <c r="C5" s="246">
         <f>_xll.qlRateHelperEarliestDate($A5)</f>
-        <v>41739</v>
+        <v>41781</v>
       </c>
       <c r="D5" s="241">
         <f>_xll.qlRateHelperLatestDate($A5)</f>
-        <v>42835</v>
+        <v>42877</v>
       </c>
       <c r="E5" s="242">
-        <f ca="1"/>
-        <v>0.97779369661158588</v>
+        <v>0.98077580993630475</v>
       </c>
       <c r="F5" s="205">
         <v>36</v>
       </c>
       <c r="G5" s="243">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I5)</f>
-        <v>42831</v>
+        <v>42873</v>
       </c>
       <c r="H5" s="205" t="str">
         <f>_xll.qlMakeDatedOIS(,I5,J5,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_00395#0001</v>
+        <v>obj_003d0#0000</v>
       </c>
       <c r="I5" s="243">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F5&amp;"M","mf")</f>
-        <v>42835</v>
+        <v>42877</v>
       </c>
       <c r="J5" s="243">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I5)</f>
-        <v>43200</v>
+        <v>43242</v>
       </c>
       <c r="K5" s="242">
-        <f ca="1">_xll.qlIndexFixing(IborIndex,G5,TRUE,InterestRatesTrigger)</f>
-        <v>1.3980584723746615E-2</v>
+        <f>_xll.qlIndexFixing(IborIndex,G5,TRUE,InterestRatesTrigger)</f>
+        <v>1.2044815697343399E-2</v>
       </c>
       <c r="L5" s="242">
-        <f ca="1">_xll.qlOvernightIndexedSwapFairRate(H5,Contribution!$P$25)</f>
-        <v>8.8217783689064581E-3</v>
+        <f>_xll.qlOvernightIndexedSwapFairRate(H5,Contribution!$P$25)</f>
+        <v>7.0521460127086098E-3</v>
       </c>
       <c r="M5" s="219">
-        <f ca="1">ROUND(K5-L5,6)</f>
-        <v>5.1590000000000004E-3</v>
+        <f>ROUND(K5-L5,6)</f>
+        <v>4.993E-3</v>
       </c>
       <c r="N5" s="242"/>
       <c r="O5" s="205" t="str">
         <f>_xll.qlSimpleQuote(,,,,EvaluationDate)</f>
-        <v>obj_0033b#0001</v>
+        <v>obj_0037c#0000</v>
       </c>
       <c r="P5" s="242">
-        <f ca="1">_xll.qlSimpleQuoteSetValue(O5,M5)</f>
+        <f>_xll.qlSimpleQuoteSetValue(O5,M5)</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="244" t="str">
         <f>RateHelpersFra!F5</f>
-        <v>obj_00366#0001</v>
+        <v>obj_00385#0000</v>
       </c>
       <c r="B6" s="245">
-        <f ca="1">_xll.qlRateHelperRate($A6,InterestRatesTrigger)</f>
-        <v>9.1599999999999997E-3</v>
+        <f>_xll.qlRateHelperRate($A6,InterestRatesTrigger)</f>
+        <v>7.9100000000000004E-3</v>
       </c>
       <c r="C6" s="246">
         <f>_xll.qlRateHelperEarliestDate($A6)</f>
-        <v>41739</v>
+        <v>41781</v>
       </c>
       <c r="D6" s="241">
         <f>_xll.qlRateHelperLatestDate($A6)</f>
-        <v>43200</v>
+        <v>43242</v>
       </c>
       <c r="E6" s="242">
-        <f ca="1"/>
-        <v>0.96412742226249892</v>
+        <v>0.96894297675483176</v>
       </c>
       <c r="F6" s="205">
         <v>48</v>
       </c>
       <c r="G6" s="243">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I6)</f>
-        <v>43196</v>
+        <v>43238</v>
       </c>
       <c r="H6" s="205" t="str">
         <f>_xll.qlMakeDatedOIS(,I6,J6,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_00399#0001</v>
+        <v>obj_003d2#0000</v>
       </c>
       <c r="I6" s="243">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F6&amp;"M","mf")</f>
-        <v>43200</v>
+        <v>43242</v>
       </c>
       <c r="J6" s="243">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I6)</f>
-        <v>43565</v>
+        <v>43607</v>
       </c>
       <c r="K6" s="242">
-        <f ca="1">_xll.qlIndexFixing(IborIndex,G6,TRUE,InterestRatesTrigger)</f>
-        <v>1.8176728232266626E-2</v>
+        <f>_xll.qlIndexFixing(IborIndex,G6,TRUE,InterestRatesTrigger)</f>
+        <v>1.6311888975605229E-2</v>
       </c>
       <c r="L6" s="242">
-        <f ca="1">_xll.qlOvernightIndexedSwapFairRate(H6,Contribution!$P$25)</f>
-        <v>1.3114728575390625E-2</v>
+        <f>_xll.qlOvernightIndexedSwapFairRate(H6,Contribution!$P$25)</f>
+        <v>1.1235367965639374E-2</v>
       </c>
       <c r="M6" s="219">
-        <f ca="1">ROUND(K6-L6,6)</f>
-        <v>5.0619999999999997E-3</v>
+        <f>ROUND(K6-L6,6)</f>
+        <v>5.0769999999999999E-3</v>
       </c>
       <c r="N6" s="242"/>
       <c r="O6" s="205" t="str">
         <f>_xll.qlSimpleQuote(,,,,EvaluationDate)</f>
-        <v>obj_00355#0001</v>
+        <v>obj_0035e#0000</v>
       </c>
       <c r="P6" s="242">
-        <f ca="1">_xll.qlSimpleQuoteSetValue(O6,M6)</f>
+        <f>_xll.qlSimpleQuoteSetValue(O6,M6)</f>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="244" t="str">
         <f>RateHelpersFra!F6</f>
-        <v>obj_00365#0001</v>
+        <v>obj_00396#0000</v>
       </c>
       <c r="B7" s="245">
-        <f ca="1">_xll.qlRateHelperRate($A7,InterestRatesTrigger)</f>
-        <v>1.098E-2</v>
+        <f>_xll.qlRateHelperRate($A7,InterestRatesTrigger)</f>
+        <v>9.6099999999999988E-3</v>
       </c>
       <c r="C7" s="246">
         <f>_xll.qlRateHelperEarliestDate($A7)</f>
-        <v>41739</v>
+        <v>41781</v>
       </c>
       <c r="D7" s="241">
         <f>_xll.qlRateHelperLatestDate($A7)</f>
-        <v>43565</v>
+        <v>43607</v>
       </c>
       <c r="E7" s="242">
-        <f ca="1"/>
-        <v>0.94668086751036251</v>
+        <v>0.95317888215386337</v>
       </c>
       <c r="G7" s="243"/>
       <c r="I7" s="243"/>
@@ -12809,7 +12763,6 @@
       <c r="C8" s="246"/>
       <c r="D8" s="241"/>
       <c r="E8" s="242" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="F8" s="205">
@@ -12817,31 +12770,31 @@
       </c>
       <c r="G8" s="243">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I8)</f>
-        <v>41767</v>
+        <v>41809</v>
       </c>
       <c r="H8" s="205" t="str">
         <f>_xll.qlMakeDatedOIS(,I8,J8,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_0038b#0001</v>
+        <v>obj_003da#0000</v>
       </c>
       <c r="I8" s="243">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F8&amp;"M","mf")</f>
-        <v>41771</v>
+        <v>41813</v>
       </c>
       <c r="J8" s="243">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I8)</f>
-        <v>42136</v>
+        <v>42178</v>
       </c>
       <c r="L8" s="242">
-        <f ca="1">_xll.qlOvernightIndexedSwapFairRate(H8,_xll.ohTrigger($P$2:$P$6))</f>
-        <v>1.4541347749978128E-3</v>
+        <f>_xll.qlOvernightIndexedSwapFairRate(H8,_xll.ohTrigger($P$2:$P$6))</f>
+        <v>7.4722171974443187E-4</v>
       </c>
       <c r="M8" s="219">
-        <f ca="1">_xll.qlInterpolationInterpolate(BasisInterpolator,I8,,L8)</f>
-        <v>4.4619080832996871E-3</v>
+        <f>_xll.qlInterpolationInterpolate(BasisInterpolator,I8,,L8)</f>
+        <v>4.9064970946427417E-3</v>
       </c>
       <c r="N8" s="242">
-        <f ca="1">L8+M8</f>
-        <v>5.9160428582974997E-3</v>
+        <f>L8+M8</f>
+        <v>5.6537188143871734E-3</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
@@ -12850,7 +12803,6 @@
       <c r="C9" s="246"/>
       <c r="D9" s="241"/>
       <c r="E9" s="242" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="F9" s="205">
@@ -12858,31 +12810,31 @@
       </c>
       <c r="G9" s="243">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I9)</f>
-        <v>41796</v>
+        <v>41838</v>
       </c>
       <c r="H9" s="205" t="str">
         <f>_xll.qlMakeDatedOIS(,I9,J9,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_003ae#0001</v>
+        <v>obj_003ca#0000</v>
       </c>
       <c r="I9" s="243">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F9&amp;"M","mf")</f>
-        <v>41800</v>
+        <v>41842</v>
       </c>
       <c r="J9" s="243">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I9)</f>
-        <v>42165</v>
+        <v>42207</v>
       </c>
       <c r="L9" s="242">
-        <f ca="1">_xll.qlOvernightIndexedSwapFairRate(H9,_xll.ohTrigger($P$2:$P$6))</f>
-        <v>1.4418477453156738E-3</v>
+        <f>_xll.qlOvernightIndexedSwapFairRate(H9,_xll.ohTrigger($P$2:$P$6))</f>
+        <v>7.3028897620791349E-4</v>
       </c>
       <c r="M9" s="219">
-        <f ca="1">_xll.qlInterpolationInterpolate(BasisInterpolator,I9,,L9)</f>
-        <v>4.4369660530199197E-3</v>
+        <f>_xll.qlInterpolationInterpolate(BasisInterpolator,I9,,L9)</f>
+        <v>4.8102768183121937E-3</v>
       </c>
       <c r="N9" s="242">
-        <f t="shared" ref="N9:N51" ca="1" si="0">L9+M9</f>
-        <v>5.8788137983355939E-3</v>
+        <f t="shared" ref="N9:N51" si="0">L9+M9</f>
+        <v>5.5405657945201067E-3</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
@@ -12891,7 +12843,6 @@
       <c r="C10" s="246"/>
       <c r="D10" s="241"/>
       <c r="E10" s="242" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="F10" s="205">
@@ -12899,31 +12850,31 @@
       </c>
       <c r="G10" s="243">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I10)</f>
-        <v>41828</v>
+        <v>41871</v>
       </c>
       <c r="H10" s="205" t="str">
         <f>_xll.qlMakeDatedOIS(,I10,J10,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_003b5#0001</v>
+        <v>obj_003cf#0000</v>
       </c>
       <c r="I10" s="243">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F10&amp;"M","mf")</f>
-        <v>41830</v>
+        <v>41873</v>
       </c>
       <c r="J10" s="243">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I10)</f>
-        <v>42195</v>
+        <v>42240</v>
       </c>
       <c r="L10" s="242">
-        <f ca="1">_xll.qlOvernightIndexedSwapFairRate(H10,_xll.ohTrigger($P$2:$P$6))</f>
-        <v>1.4476836592113706E-3</v>
+        <f>_xll.qlOvernightIndexedSwapFairRate(H10,_xll.ohTrigger($P$2:$P$6))</f>
+        <v>7.2716080727010083E-4</v>
       </c>
       <c r="M10" s="219">
-        <f ca="1">_xll.qlInterpolationInterpolate(BasisInterpolator,I10,,L10)</f>
-        <v>4.4121859660348484E-3</v>
+        <f>_xll.qlInterpolationInterpolate(BasisInterpolator,I10,,L10)</f>
+        <v>4.7099394042714703E-3</v>
       </c>
       <c r="N10" s="242">
-        <f t="shared" ca="1" si="0"/>
-        <v>5.8598696252462187E-3</v>
+        <f t="shared" si="0"/>
+        <v>5.437100211541571E-3</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
@@ -12932,7 +12883,6 @@
       <c r="C11" s="246"/>
       <c r="D11" s="241"/>
       <c r="E11" s="242" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="F11" s="205">
@@ -12940,31 +12890,31 @@
       </c>
       <c r="G11" s="243">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I11)</f>
-        <v>41858</v>
+        <v>41900</v>
       </c>
       <c r="H11" s="205" t="str">
         <f>_xll.qlMakeDatedOIS(,I11,J11,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_003aa#0001</v>
+        <v>obj_003af#0000</v>
       </c>
       <c r="I11" s="243">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F11&amp;"M","mf")</f>
-        <v>41862</v>
+        <v>41904</v>
       </c>
       <c r="J11" s="243">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I11)</f>
-        <v>42227</v>
+        <v>42269</v>
       </c>
       <c r="L11" s="242">
-        <f ca="1">_xll.qlOvernightIndexedSwapFairRate(H11,_xll.ohTrigger($P$2:$P$6))</f>
-        <v>1.4776843265861613E-3</v>
+        <f>_xll.qlOvernightIndexedSwapFairRate(H11,_xll.ohTrigger($P$2:$P$6))</f>
+        <v>7.3224118103222991E-4</v>
       </c>
       <c r="M11" s="219">
-        <f ca="1">_xll.qlInterpolationInterpolate(BasisInterpolator,I11,,L11)</f>
-        <v>4.3874660154113289E-3</v>
+        <f>_xll.qlInterpolationInterpolate(BasisInterpolator,I11,,L11)</f>
+        <v>4.6134849395402773E-3</v>
       </c>
       <c r="N11" s="242">
-        <f t="shared" ca="1" si="0"/>
-        <v>5.8651503419974906E-3</v>
+        <f t="shared" si="0"/>
+        <v>5.3457261205725071E-3</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
@@ -12973,7 +12923,6 @@
       <c r="C12" s="246"/>
       <c r="D12" s="241"/>
       <c r="E12" s="242" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="F12" s="205">
@@ -12981,31 +12930,31 @@
       </c>
       <c r="G12" s="243">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I12)</f>
-        <v>41890</v>
+        <v>41932</v>
       </c>
       <c r="H12" s="205" t="str">
         <f>_xll.qlMakeDatedOIS(,I12,J12,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_00389#0001</v>
+        <v>obj_003db#0000</v>
       </c>
       <c r="I12" s="243">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F12&amp;"M","mf")</f>
-        <v>41892</v>
+        <v>41934</v>
       </c>
       <c r="J12" s="243">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I12)</f>
-        <v>42257</v>
+        <v>42299</v>
       </c>
       <c r="L12" s="242">
-        <f ca="1">_xll.qlOvernightIndexedSwapFairRate(H12,_xll.ohTrigger($P$2:$P$6))</f>
-        <v>1.5168944558000019E-3</v>
+        <f>_xll.qlOvernightIndexedSwapFairRate(H12,_xll.ohTrigger($P$2:$P$6))</f>
+        <v>7.5013768007943266E-4</v>
       </c>
       <c r="M12" s="219">
-        <f ca="1">_xll.qlInterpolationInterpolate(BasisInterpolator,I12,,L12)</f>
-        <v>4.3664331850185667E-3</v>
+        <f>_xll.qlInterpolationInterpolate(BasisInterpolator,I12,,L12)</f>
+        <v>4.5250713557292658E-3</v>
       </c>
       <c r="N12" s="242">
-        <f t="shared" ca="1" si="0"/>
-        <v>5.883327640818569E-3</v>
+        <f t="shared" si="0"/>
+        <v>5.2752090358086983E-3</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
@@ -13014,7 +12963,6 @@
       <c r="C13" s="246"/>
       <c r="D13" s="241"/>
       <c r="E13" s="242" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="F13" s="205">
@@ -13022,31 +12970,31 @@
       </c>
       <c r="G13" s="243">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I13)</f>
-        <v>41920</v>
+        <v>41963</v>
       </c>
       <c r="H13" s="205" t="str">
         <f>_xll.qlMakeDatedOIS(,I13,J13,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_003a2#0001</v>
+        <v>obj_003bd#0000</v>
       </c>
       <c r="I13" s="243">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F13&amp;"M","mf")</f>
-        <v>41922</v>
+        <v>41967</v>
       </c>
       <c r="J13" s="243">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I13)</f>
-        <v>42289</v>
+        <v>42332</v>
       </c>
       <c r="L13" s="242">
-        <f ca="1">_xll.qlOvernightIndexedSwapFairRate(H13,_xll.ohTrigger($P$2:$P$6))</f>
-        <v>1.5752167803382575E-3</v>
+        <f>_xll.qlOvernightIndexedSwapFairRate(H13,_xll.ohTrigger($P$2:$P$6))</f>
+        <v>7.792993962182892E-4</v>
       </c>
       <c r="M13" s="219">
-        <f ca="1">_xll.qlInterpolationInterpolate(BasisInterpolator,I13,,L13)</f>
-        <v>4.3479930449723068E-3</v>
+        <f>_xll.qlInterpolationInterpolate(BasisInterpolator,I13,,L13)</f>
+        <v>4.4348470674565026E-3</v>
       </c>
       <c r="N13" s="242">
-        <f t="shared" ca="1" si="0"/>
-        <v>5.9232098253105643E-3</v>
+        <f t="shared" si="0"/>
+        <v>5.2141464636747915E-3</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
@@ -13055,7 +13003,6 @@
       <c r="C14" s="246"/>
       <c r="D14" s="241"/>
       <c r="E14" s="242" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="F14" s="205">
@@ -13063,31 +13010,31 @@
       </c>
       <c r="G14" s="243">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I14)</f>
-        <v>41949</v>
+        <v>41991</v>
       </c>
       <c r="H14" s="205" t="str">
         <f>_xll.qlMakeDatedOIS(,I14,J14,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_00392#0001</v>
+        <v>obj_003be#0000</v>
       </c>
       <c r="I14" s="243">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F14&amp;"M","mf")</f>
-        <v>41953</v>
+        <v>41995</v>
       </c>
       <c r="J14" s="243">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I14)</f>
-        <v>42318</v>
+        <v>42360</v>
       </c>
       <c r="L14" s="242">
-        <f ca="1">_xll.qlOvernightIndexedSwapFairRate(H14,_xll.ohTrigger($P$2:$P$6))</f>
-        <v>1.6559995732469974E-3</v>
+        <f>_xll.qlOvernightIndexedSwapFairRate(H14,_xll.ohTrigger($P$2:$P$6))</f>
+        <v>8.2059562744216899E-4</v>
       </c>
       <c r="M14" s="219">
-        <f ca="1">_xll.qlInterpolationInterpolate(BasisInterpolator,I14,,L14)</f>
-        <v>4.3322020045847322E-3</v>
+        <f>_xll.qlInterpolationInterpolate(BasisInterpolator,I14,,L14)</f>
+        <v>4.3652068533149239E-3</v>
       </c>
       <c r="N14" s="242">
-        <f t="shared" ca="1" si="0"/>
-        <v>5.9882015778317298E-3</v>
+        <f t="shared" si="0"/>
+        <v>5.1858024807570928E-3</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
@@ -13096,7 +13043,6 @@
       <c r="C15" s="246"/>
       <c r="D15" s="241"/>
       <c r="E15" s="242" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="F15" s="205">
@@ -13104,31 +13050,31 @@
       </c>
       <c r="G15" s="243">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I15)</f>
-        <v>41981</v>
+        <v>42024</v>
       </c>
       <c r="H15" s="205" t="str">
         <f>_xll.qlMakeDatedOIS(,I15,J15,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_003b3#0001</v>
+        <v>obj_003b4#0000</v>
       </c>
       <c r="I15" s="243">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F15&amp;"M","mf")</f>
-        <v>41983</v>
+        <v>42026</v>
       </c>
       <c r="J15" s="243">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I15)</f>
-        <v>42348</v>
+        <v>42391</v>
       </c>
       <c r="L15" s="242">
-        <f ca="1">_xll.qlOvernightIndexedSwapFairRate(H15,_xll.ohTrigger($P$2:$P$6))</f>
-        <v>1.7471911890197249E-3</v>
+        <f>_xll.qlOvernightIndexedSwapFairRate(H15,_xll.ohTrigger($P$2:$P$6))</f>
+        <v>8.6839251464186672E-4</v>
       </c>
       <c r="M15" s="219">
-        <f ca="1">_xll.qlInterpolationInterpolate(BasisInterpolator,I15,,L15)</f>
-        <v>4.3206014268610494E-3</v>
+        <f>_xll.qlInterpolationInterpolate(BasisInterpolator,I15,,L15)</f>
+        <v>4.2967403931265143E-3</v>
       </c>
       <c r="N15" s="242">
-        <f t="shared" ca="1" si="0"/>
-        <v>6.0677926158807741E-3</v>
+        <f t="shared" si="0"/>
+        <v>5.1651329077683807E-3</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
@@ -13137,7 +13083,6 @@
       <c r="C16" s="246"/>
       <c r="D16" s="241"/>
       <c r="E16" s="242" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="F16" s="205">
@@ -13145,31 +13090,31 @@
       </c>
       <c r="G16" s="243">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I16)</f>
-        <v>42012</v>
+        <v>42054</v>
       </c>
       <c r="H16" s="205" t="str">
         <f>_xll.qlMakeDatedOIS(,I16,J16,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_00388#0001</v>
+        <v>obj_003d7#0000</v>
       </c>
       <c r="I16" s="243">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F16&amp;"M","mf")</f>
-        <v>42016</v>
+        <v>42058</v>
       </c>
       <c r="J16" s="243">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I16)</f>
-        <v>42381</v>
+        <v>42423</v>
       </c>
       <c r="L16" s="242">
-        <f ca="1">_xll.qlOvernightIndexedSwapFairRate(H16,_xll.ohTrigger($P$2:$P$6))</f>
-        <v>1.8494205528353585E-3</v>
+        <f>_xll.qlOvernightIndexedSwapFairRate(H16,_xll.ohTrigger($P$2:$P$6))</f>
+        <v>9.2679086615773541E-4</v>
       </c>
       <c r="M16" s="219">
-        <f ca="1">_xll.qlInterpolationInterpolate(BasisInterpolator,I16,,L16)</f>
-        <v>4.3126359975793867E-3</v>
+        <f>_xll.qlInterpolationInterpolate(BasisInterpolator,I16,,L16)</f>
+        <v>4.2369262820308997E-3</v>
       </c>
       <c r="N16" s="242">
-        <f t="shared" ca="1" si="0"/>
-        <v>6.162056550414745E-3</v>
+        <f t="shared" si="0"/>
+        <v>5.1637171481886349E-3</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
@@ -13178,7 +13123,6 @@
       <c r="C17" s="246"/>
       <c r="D17" s="241"/>
       <c r="E17" s="242" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="F17" s="205">
@@ -13186,31 +13130,31 @@
       </c>
       <c r="G17" s="243">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I17)</f>
-        <v>42041</v>
+        <v>42082</v>
       </c>
       <c r="H17" s="205" t="str">
         <f>_xll.qlMakeDatedOIS(,I17,J17,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_00397#0001</v>
+        <v>obj_003c6#0000</v>
       </c>
       <c r="I17" s="243">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F17&amp;"M","mf")</f>
-        <v>42045</v>
+        <v>42086</v>
       </c>
       <c r="J17" s="243">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I17)</f>
-        <v>42410</v>
+        <v>42452</v>
       </c>
       <c r="L17" s="242">
-        <f ca="1">_xll.qlOvernightIndexedSwapFairRate(H17,_xll.ohTrigger($P$2:$P$6))</f>
-        <v>1.9548354690287107E-3</v>
+        <f>_xll.qlOvernightIndexedSwapFairRate(H17,_xll.ohTrigger($P$2:$P$6))</f>
+        <v>9.9544300329520519E-4</v>
       </c>
       <c r="M17" s="219">
-        <f ca="1">_xll.qlInterpolationInterpolate(BasisInterpolator,I17,,L17)</f>
-        <v>4.3103022459496636E-3</v>
+        <f>_xll.qlInterpolationInterpolate(BasisInterpolator,I17,,L17)</f>
+        <v>4.1947587731034075E-3</v>
       </c>
       <c r="N17" s="242">
-        <f t="shared" ca="1" si="0"/>
-        <v>6.2651377149783739E-3</v>
+        <f t="shared" si="0"/>
+        <v>5.1902017763986123E-3</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
@@ -13219,7 +13163,6 @@
       <c r="C18" s="246"/>
       <c r="D18" s="241"/>
       <c r="E18" s="242" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="F18" s="205">
@@ -13227,31 +13170,31 @@
       </c>
       <c r="G18" s="243">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I18)</f>
-        <v>42069</v>
+        <v>42114</v>
       </c>
       <c r="H18" s="205" t="str">
         <f>_xll.qlMakeDatedOIS(,I18,J18,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_0038a#0001</v>
+        <v>obj_003d5#0000</v>
       </c>
       <c r="I18" s="243">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F18&amp;"M","mf")</f>
-        <v>42073</v>
+        <v>42116</v>
       </c>
       <c r="J18" s="243">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I18)</f>
-        <v>42439</v>
+        <v>42482</v>
       </c>
       <c r="L18" s="242">
-        <f ca="1">_xll.qlOvernightIndexedSwapFairRate(H18,_xll.ohTrigger($P$2:$P$6))</f>
-        <v>2.0659007380593505E-3</v>
+        <f>_xll.qlOvernightIndexedSwapFairRate(H18,_xll.ohTrigger($P$2:$P$6))</f>
+        <v>1.0822086970788264E-3</v>
       </c>
       <c r="M18" s="219">
-        <f ca="1">_xll.qlInterpolationInterpolate(BasisInterpolator,I18,,L18)</f>
-        <v>4.3126416643361433E-3</v>
+        <f>_xll.qlInterpolationInterpolate(BasisInterpolator,I18,,L18)</f>
+        <v>4.1612586268311713E-3</v>
       </c>
       <c r="N18" s="242">
-        <f t="shared" ca="1" si="0"/>
-        <v>6.3785424023954937E-3</v>
+        <f t="shared" si="0"/>
+        <v>5.2434673239099977E-3</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
@@ -13260,7 +13203,6 @@
       <c r="C19" s="246"/>
       <c r="D19" s="241"/>
       <c r="E19" s="242" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="F19" s="205">
@@ -13268,31 +13210,31 @@
       </c>
       <c r="G19" s="243">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I19)</f>
-        <v>42131</v>
+        <v>42173</v>
       </c>
       <c r="H19" s="205" t="str">
         <f>_xll.qlMakeDatedOIS(,I19,J19,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_00398#0001</v>
+        <v>obj_003b6#0000</v>
       </c>
       <c r="I19" s="243">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F19&amp;"M","mf")</f>
-        <v>42135</v>
+        <v>42177</v>
       </c>
       <c r="J19" s="243">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I19)</f>
-        <v>42501</v>
+        <v>42543</v>
       </c>
       <c r="L19" s="242">
-        <f ca="1">_xll.qlOvernightIndexedSwapFairRate(H19,_xll.ohTrigger($P$2:$P$6))</f>
-        <v>2.3437978559758465E-3</v>
+        <f>_xll.qlOvernightIndexedSwapFairRate(H19,_xll.ohTrigger($P$2:$P$6))</f>
+        <v>1.2893214250768836E-3</v>
       </c>
       <c r="M19" s="219">
-        <f ca="1">_xll.qlInterpolationInterpolate(BasisInterpolator,I19,,L19)</f>
-        <v>4.3357681379399939E-3</v>
+        <f>_xll.qlInterpolationInterpolate(BasisInterpolator,I19,,L19)</f>
+        <v>4.1347446201615437E-3</v>
       </c>
       <c r="N19" s="242">
-        <f t="shared" ca="1" si="0"/>
-        <v>6.6795659939158404E-3</v>
+        <f t="shared" si="0"/>
+        <v>5.4240660452384275E-3</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
@@ -13301,7 +13243,6 @@
       <c r="C20" s="246"/>
       <c r="D20" s="241"/>
       <c r="E20" s="242" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="F20" s="205">
@@ -13309,31 +13250,31 @@
       </c>
       <c r="G20" s="243">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I20)</f>
-        <v>42163</v>
+        <v>42205</v>
       </c>
       <c r="H20" s="205" t="str">
         <f>_xll.qlMakeDatedOIS(,I20,J20,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_00396#0001</v>
+        <v>obj_003c5#0000</v>
       </c>
       <c r="I20" s="243">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F20&amp;"M","mf")</f>
-        <v>42165</v>
+        <v>42207</v>
       </c>
       <c r="J20" s="243">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I20)</f>
-        <v>42531</v>
+        <v>42573</v>
       </c>
       <c r="L20" s="242">
-        <f ca="1">_xll.qlOvernightIndexedSwapFairRate(H20,_xll.ohTrigger($P$2:$P$6))</f>
-        <v>2.5044985936374916E-3</v>
+        <f>_xll.qlOvernightIndexedSwapFairRate(H20,_xll.ohTrigger($P$2:$P$6))</f>
+        <v>1.4134844648273617E-3</v>
       </c>
       <c r="M20" s="219">
-        <f ca="1">_xll.qlInterpolationInterpolate(BasisInterpolator,I20,,L20)</f>
-        <v>4.3557767667678536E-3</v>
+        <f>_xll.qlInterpolationInterpolate(BasisInterpolator,I20,,L20)</f>
+        <v>4.1418106066288289E-3</v>
       </c>
       <c r="N20" s="242">
-        <f t="shared" ca="1" si="0"/>
-        <v>6.8602753604053452E-3</v>
+        <f t="shared" si="0"/>
+        <v>5.5552950714561908E-3</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
@@ -13342,7 +13283,6 @@
       <c r="C21" s="246"/>
       <c r="D21" s="241"/>
       <c r="E21" s="242" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="F21" s="205">
@@ -13350,31 +13290,31 @@
       </c>
       <c r="G21" s="243">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I21)</f>
-        <v>42193</v>
+        <v>42236</v>
       </c>
       <c r="H21" s="205" t="str">
         <f>_xll.qlMakeDatedOIS(,I21,J21,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_003a0#0001</v>
+        <v>obj_003b9#0000</v>
       </c>
       <c r="I21" s="243">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F21&amp;"M","mf")</f>
-        <v>42195</v>
+        <v>42240</v>
       </c>
       <c r="J21" s="243">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I21)</f>
-        <v>42562</v>
+        <v>42606</v>
       </c>
       <c r="L21" s="242">
-        <f ca="1">_xll.qlOvernightIndexedSwapFairRate(H21,_xll.ohTrigger($P$2:$P$6))</f>
-        <v>2.6862388278802969E-3</v>
+        <f>_xll.qlOvernightIndexedSwapFairRate(H21,_xll.ohTrigger($P$2:$P$6))</f>
+        <v>1.5674837310659735E-3</v>
       </c>
       <c r="M21" s="219">
-        <f ca="1">_xll.qlInterpolationInterpolate(BasisInterpolator,I21,,L21)</f>
-        <v>4.3808526542190463E-3</v>
+        <f>_xll.qlInterpolationInterpolate(BasisInterpolator,I21,,L21)</f>
+        <v>4.1626907988396213E-3</v>
       </c>
       <c r="N21" s="242">
-        <f t="shared" ca="1" si="0"/>
-        <v>7.0670914820993433E-3</v>
+        <f t="shared" si="0"/>
+        <v>5.7301745299055944E-3</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
@@ -13383,7 +13323,6 @@
       <c r="C22" s="246"/>
       <c r="D22" s="241"/>
       <c r="E22" s="242" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="F22" s="205">
@@ -13391,31 +13330,31 @@
       </c>
       <c r="G22" s="243">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I22)</f>
-        <v>42222</v>
+        <v>42265</v>
       </c>
       <c r="H22" s="205" t="str">
         <f>_xll.qlMakeDatedOIS(,I22,J22,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_003b6#0001</v>
+        <v>obj_003b3#0000</v>
       </c>
       <c r="I22" s="243">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F22&amp;"M","mf")</f>
-        <v>42226</v>
+        <v>42269</v>
       </c>
       <c r="J22" s="243">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I22)</f>
-        <v>42592</v>
+        <v>42635</v>
       </c>
       <c r="L22" s="242">
-        <f ca="1">_xll.qlOvernightIndexedSwapFairRate(H22,_xll.ohTrigger($P$2:$P$6))</f>
-        <v>2.8840535106233749E-3</v>
+        <f>_xll.qlOvernightIndexedSwapFairRate(H22,_xll.ohTrigger($P$2:$P$6))</f>
+        <v>1.717559475507949E-3</v>
       </c>
       <c r="M22" s="219">
-        <f ca="1">_xll.qlInterpolationInterpolate(BasisInterpolator,I22,,L22)</f>
-        <v>4.411503832799508E-3</v>
+        <f>_xll.qlInterpolationInterpolate(BasisInterpolator,I22,,L22)</f>
+        <v>4.1908548963558896E-3</v>
       </c>
       <c r="N22" s="242">
-        <f t="shared" ca="1" si="0"/>
-        <v>7.2955573434228833E-3</v>
+        <f t="shared" si="0"/>
+        <v>5.9084143718638391E-3</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
@@ -13424,7 +13363,6 @@
       <c r="C23" s="246"/>
       <c r="D23" s="241"/>
       <c r="E23" s="242" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="F23" s="205">
@@ -13432,31 +13370,31 @@
       </c>
       <c r="G23" s="243">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I23)</f>
-        <v>42255</v>
+        <v>42297</v>
       </c>
       <c r="H23" s="205" t="str">
         <f>_xll.qlMakeDatedOIS(,I23,J23,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_003a6#0001</v>
+        <v>obj_003d3#0000</v>
       </c>
       <c r="I23" s="243">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F23&amp;"M","mf")</f>
-        <v>42257</v>
+        <v>42299</v>
       </c>
       <c r="J23" s="243">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I23)</f>
-        <v>42625</v>
+        <v>42667</v>
       </c>
       <c r="L23" s="242">
-        <f ca="1">_xll.qlOvernightIndexedSwapFairRate(H23,_xll.ohTrigger($P$2:$P$6))</f>
-        <v>3.1102536576519692E-3</v>
+        <f>_xll.qlOvernightIndexedSwapFairRate(H23,_xll.ohTrigger($P$2:$P$6))</f>
+        <v>1.8931978388604968E-3</v>
       </c>
       <c r="M23" s="219">
-        <f ca="1">_xll.qlInterpolationInterpolate(BasisInterpolator,I23,,L23)</f>
-        <v>4.4463720298617265E-3</v>
+        <f>_xll.qlInterpolationInterpolate(BasisInterpolator,I23,,L23)</f>
+        <v>4.2281547202626972E-3</v>
       </c>
       <c r="N23" s="242">
-        <f t="shared" ca="1" si="0"/>
-        <v>7.5566256875136961E-3</v>
+        <f t="shared" si="0"/>
+        <v>6.121352559123194E-3</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
@@ -13465,7 +13403,6 @@
       <c r="C24" s="246"/>
       <c r="D24" s="241"/>
       <c r="E24" s="242" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="F24" s="205">
@@ -13473,31 +13410,31 @@
       </c>
       <c r="G24" s="243">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I24)</f>
-        <v>42285</v>
+        <v>42327</v>
       </c>
       <c r="H24" s="205" t="str">
         <f>_xll.qlMakeDatedOIS(,I24,J24,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_003b8#0001</v>
+        <v>obj_003bf#0000</v>
       </c>
       <c r="I24" s="243">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F24&amp;"M","mf")</f>
-        <v>42289</v>
+        <v>42331</v>
       </c>
       <c r="J24" s="243">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I24)</f>
-        <v>42655</v>
+        <v>42697</v>
       </c>
       <c r="L24" s="242">
-        <f ca="1">_xll.qlOvernightIndexedSwapFairRate(H24,_xll.ohTrigger($P$2:$P$6))</f>
-        <v>3.3412264361960074E-3</v>
+        <f>_xll.qlOvernightIndexedSwapFairRate(H24,_xll.ohTrigger($P$2:$P$6))</f>
+        <v>2.080667474275019E-3</v>
       </c>
       <c r="M24" s="219">
-        <f ca="1">_xll.qlInterpolationInterpolate(BasisInterpolator,I24,,L24)</f>
-        <v>4.4861451306558182E-3</v>
+        <f>_xll.qlInterpolationInterpolate(BasisInterpolator,I24,,L24)</f>
+        <v>4.2754326319516291E-3</v>
       </c>
       <c r="N24" s="242">
-        <f t="shared" ca="1" si="0"/>
-        <v>7.8273715668518255E-3</v>
+        <f t="shared" si="0"/>
+        <v>6.3561001062266481E-3</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
@@ -13506,7 +13443,6 @@
       <c r="C25" s="246"/>
       <c r="D25" s="241"/>
       <c r="E25" s="242" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="F25" s="205">
@@ -13514,31 +13450,31 @@
       </c>
       <c r="G25" s="243">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I25)</f>
-        <v>42314</v>
+        <v>42356</v>
       </c>
       <c r="H25" s="205" t="str">
         <f>_xll.qlMakeDatedOIS(,I25,J25,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_003b1#0001</v>
+        <v>obj_003ba#0000</v>
       </c>
       <c r="I25" s="243">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F25&amp;"M","mf")</f>
-        <v>42318</v>
+        <v>42360</v>
       </c>
       <c r="J25" s="243">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I25)</f>
-        <v>42684</v>
+        <v>42726</v>
       </c>
       <c r="L25" s="242">
-        <f ca="1">_xll.qlOvernightIndexedSwapFairRate(H25,_xll.ohTrigger($P$2:$P$6))</f>
-        <v>3.5698205722370325E-3</v>
+        <f>_xll.qlOvernightIndexedSwapFairRate(H25,_xll.ohTrigger($P$2:$P$6))</f>
+        <v>2.268375061346813E-3</v>
       </c>
       <c r="M25" s="219">
-        <f ca="1">_xll.qlInterpolationInterpolate(BasisInterpolator,I25,,L25)</f>
-        <v>4.5249541521904671E-3</v>
+        <f>_xll.qlInterpolationInterpolate(BasisInterpolator,I25,,L25)</f>
+        <v>4.323477520014312E-3</v>
       </c>
       <c r="N25" s="242">
-        <f t="shared" ca="1" si="0"/>
-        <v>8.0947747244274997E-3</v>
+        <f t="shared" si="0"/>
+        <v>6.5918525813611246E-3</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
@@ -13547,7 +13483,6 @@
       <c r="C26" s="246"/>
       <c r="D26" s="241"/>
       <c r="E26" s="242" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="F26" s="205">
@@ -13555,31 +13490,31 @@
       </c>
       <c r="G26" s="243">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I26)</f>
-        <v>42346</v>
+        <v>42389</v>
       </c>
       <c r="H26" s="205" t="str">
         <f>_xll.qlMakeDatedOIS(,I26,J26,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_003a5#0001</v>
+        <v>obj_003b8#0000</v>
       </c>
       <c r="I26" s="243">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F26&amp;"M","mf")</f>
-        <v>42348</v>
+        <v>42391</v>
       </c>
       <c r="J26" s="243">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I26)</f>
-        <v>42716</v>
+        <v>42758</v>
       </c>
       <c r="L26" s="242">
-        <f ca="1">_xll.qlOvernightIndexedSwapFairRate(H26,_xll.ohTrigger($P$2:$P$6))</f>
-        <v>3.8282498230040435E-3</v>
+        <f>_xll.qlOvernightIndexedSwapFairRate(H26,_xll.ohTrigger($P$2:$P$6))</f>
+        <v>2.4850160466388009E-3</v>
       </c>
       <c r="M26" s="219">
-        <f ca="1">_xll.qlInterpolationInterpolate(BasisInterpolator,I26,,L26)</f>
-        <v>4.5673209882654778E-3</v>
+        <f>_xll.qlInterpolationInterpolate(BasisInterpolator,I26,,L26)</f>
+        <v>4.3787290048623827E-3</v>
       </c>
       <c r="N26" s="242">
-        <f t="shared" ca="1" si="0"/>
-        <v>8.3955708112695218E-3</v>
+        <f t="shared" si="0"/>
+        <v>6.8637450515011836E-3</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
@@ -13588,7 +13523,6 @@
       <c r="C27" s="246"/>
       <c r="D27" s="241"/>
       <c r="E27" s="242" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="F27" s="205">
@@ -13596,31 +13530,31 @@
       </c>
       <c r="G27" s="243">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I27)</f>
-        <v>42376</v>
+        <v>42418</v>
       </c>
       <c r="H27" s="205" t="str">
         <f>_xll.qlMakeDatedOIS(,I27,J27,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_0038f#0001</v>
+        <v>obj_003dc#0000</v>
       </c>
       <c r="I27" s="243">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F27&amp;"M","mf")</f>
-        <v>42380</v>
+        <v>42422</v>
       </c>
       <c r="J27" s="243">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I27)</f>
-        <v>42746</v>
+        <v>42788</v>
       </c>
       <c r="L27" s="242">
-        <f ca="1">_xll.qlOvernightIndexedSwapFairRate(H27,_xll.ohTrigger($P$2:$P$6))</f>
-        <v>4.0996294359910103E-3</v>
+        <f>_xll.qlOvernightIndexedSwapFairRate(H27,_xll.ohTrigger($P$2:$P$6))</f>
+        <v>2.7062285387156088E-3</v>
       </c>
       <c r="M27" s="219">
-        <f ca="1">_xll.qlInterpolationInterpolate(BasisInterpolator,I27,,L27)</f>
-        <v>4.6143874773679943E-3</v>
+        <f>_xll.qlInterpolationInterpolate(BasisInterpolator,I27,,L27)</f>
+        <v>4.4363950562283589E-3</v>
       </c>
       <c r="N27" s="242">
-        <f t="shared" ca="1" si="0"/>
-        <v>8.7140169133590045E-3</v>
+        <f t="shared" si="0"/>
+        <v>7.1426235949439681E-3</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
@@ -13629,7 +13563,6 @@
       <c r="C28" s="246"/>
       <c r="D28" s="241"/>
       <c r="E28" s="242" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="F28" s="205">
@@ -13637,31 +13570,31 @@
       </c>
       <c r="G28" s="243">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I28)</f>
-        <v>42408</v>
+        <v>42447</v>
       </c>
       <c r="H28" s="205" t="str">
         <f>_xll.qlMakeDatedOIS(,I28,J28,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_003a3#0001</v>
+        <v>obj_003b5#0000</v>
       </c>
       <c r="I28" s="243">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F28&amp;"M","mf")</f>
-        <v>42410</v>
+        <v>42451</v>
       </c>
       <c r="J28" s="243">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I28)</f>
-        <v>42776</v>
+        <v>42816</v>
       </c>
       <c r="L28" s="242">
-        <f ca="1">_xll.qlOvernightIndexedSwapFairRate(H28,_xll.ohTrigger($P$2:$P$6))</f>
-        <v>4.3780773844495583E-3</v>
+        <f>_xll.qlOvernightIndexedSwapFairRate(H28,_xll.ohTrigger($P$2:$P$6))</f>
+        <v>2.9236903335119468E-3</v>
       </c>
       <c r="M28" s="219">
-        <f ca="1">_xll.qlInterpolationInterpolate(BasisInterpolator,I28,,L28)</f>
-        <v>4.6596895613179763E-3</v>
+        <f>_xll.qlInterpolationInterpolate(BasisInterpolator,I28,,L28)</f>
+        <v>4.4910705801294946E-3</v>
       </c>
       <c r="N28" s="242">
-        <f t="shared" ca="1" si="0"/>
-        <v>9.0377669457675346E-3</v>
+        <f t="shared" si="0"/>
+        <v>7.4147609136414414E-3</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
@@ -13670,7 +13603,6 @@
       <c r="C29" s="246"/>
       <c r="D29" s="241"/>
       <c r="E29" s="242" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="F29" s="205">
@@ -13678,31 +13610,31 @@
       </c>
       <c r="G29" s="243">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I29)</f>
-        <v>42437</v>
+        <v>42480</v>
       </c>
       <c r="H29" s="205" t="str">
         <f>_xll.qlMakeDatedOIS(,I29,J29,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_003a1#0001</v>
+        <v>obj_003d1#0000</v>
       </c>
       <c r="I29" s="243">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F29&amp;"M","mf")</f>
-        <v>42439</v>
+        <v>42482</v>
       </c>
       <c r="J29" s="243">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I29)</f>
-        <v>42804</v>
+        <v>42849</v>
       </c>
       <c r="L29" s="242">
-        <f ca="1">_xll.qlOvernightIndexedSwapFairRate(H29,_xll.ohTrigger($P$2:$P$6))</f>
-        <v>4.6529053165576019E-3</v>
+        <f>_xll.qlOvernightIndexedSwapFairRate(H29,_xll.ohTrigger($P$2:$P$6))</f>
+        <v>3.1803907547263955E-3</v>
       </c>
       <c r="M29" s="219">
-        <f ca="1">_xll.qlInterpolationInterpolate(BasisInterpolator,I29,,L29)</f>
-        <v>4.7040361015586868E-3</v>
+        <f>_xll.qlInterpolationInterpolate(BasisInterpolator,I29,,L29)</f>
+        <v>4.5487405491844131E-3</v>
       </c>
       <c r="N29" s="242">
-        <f t="shared" ca="1" si="0"/>
-        <v>9.3569414181162887E-3</v>
+        <f t="shared" si="0"/>
+        <v>7.7291313039108082E-3</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
@@ -13711,7 +13643,6 @@
       <c r="C30" s="246"/>
       <c r="D30" s="241"/>
       <c r="E30" s="242" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="F30" s="205">
@@ -13719,31 +13650,31 @@
       </c>
       <c r="G30" s="243">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I30)</f>
-        <v>42496</v>
+        <v>42541</v>
       </c>
       <c r="H30" s="205" t="str">
         <f>_xll.qlMakeDatedOIS(,I30,J30,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_003ad#0001</v>
+        <v>obj_003ad#0000</v>
       </c>
       <c r="I30" s="243">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F30&amp;"M","mf")</f>
-        <v>42500</v>
+        <v>42543</v>
       </c>
       <c r="J30" s="243">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I30)</f>
-        <v>42865</v>
+        <v>42908</v>
       </c>
       <c r="L30" s="242">
-        <f ca="1">_xll.qlOvernightIndexedSwapFairRate(H30,_xll.ohTrigger($P$2:$P$6))</f>
-        <v>5.2588823921239144E-3</v>
+        <f>_xll.qlOvernightIndexedSwapFairRate(H30,_xll.ohTrigger($P$2:$P$6))</f>
+        <v>3.6888836535213191E-3</v>
       </c>
       <c r="M30" s="219">
-        <f ca="1">_xll.qlInterpolationInterpolate(BasisInterpolator,I30,,L30)</f>
-        <v>4.7968878828711561E-3</v>
+        <f>_xll.qlInterpolationInterpolate(BasisInterpolator,I30,,L30)</f>
+        <v>4.6539043518449832E-3</v>
       </c>
       <c r="N30" s="242">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.005577027499507E-2</v>
+        <f t="shared" si="0"/>
+        <v>8.3427880053663014E-3</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
@@ -13752,7 +13683,6 @@
       <c r="C31" s="246"/>
       <c r="D31" s="241"/>
       <c r="E31" s="242" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="F31" s="205">
@@ -13760,31 +13690,31 @@
       </c>
       <c r="G31" s="243">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I31)</f>
-        <v>42529</v>
+        <v>42571</v>
       </c>
       <c r="H31" s="205" t="str">
         <f>_xll.qlMakeDatedOIS(,I31,J31,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_00390#0001</v>
+        <v>obj_003d4#0000</v>
       </c>
       <c r="I31" s="243">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F31&amp;"M","mf")</f>
-        <v>42531</v>
+        <v>42573</v>
       </c>
       <c r="J31" s="243">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I31)</f>
-        <v>42898</v>
+        <v>42940</v>
       </c>
       <c r="L31" s="242">
-        <f ca="1">_xll.qlOvernightIndexedSwapFairRate(H31,_xll.ohTrigger($P$2:$P$6))</f>
-        <v>5.5816555655468746E-3</v>
+        <f>_xll.qlOvernightIndexedSwapFairRate(H31,_xll.ohTrigger($P$2:$P$6))</f>
+        <v>3.9659370159287576E-3</v>
       </c>
       <c r="M31" s="219">
-        <f ca="1">_xll.qlInterpolationInterpolate(BasisInterpolator,I31,,L31)</f>
-        <v>4.8428699336607768E-3</v>
+        <f>_xll.qlInterpolationInterpolate(BasisInterpolator,I31,,L31)</f>
+        <v>4.7001469089017816E-3</v>
       </c>
       <c r="N31" s="242">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.0424525499207651E-2</v>
+        <f t="shared" si="0"/>
+        <v>8.66608392483054E-3</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
@@ -13793,7 +13723,6 @@
       <c r="C32" s="246"/>
       <c r="D32" s="241"/>
       <c r="E32" s="242" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="F32" s="205">
@@ -13801,31 +13730,31 @@
       </c>
       <c r="G32" s="243">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I32)</f>
-        <v>42558</v>
+        <v>42600</v>
       </c>
       <c r="H32" s="205" t="str">
         <f>_xll.qlMakeDatedOIS(,I32,J32,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_0039d#0001</v>
+        <v>obj_003ce#0000</v>
       </c>
       <c r="I32" s="243">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F32&amp;"M","mf")</f>
-        <v>42562</v>
+        <v>42604</v>
       </c>
       <c r="J32" s="243">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I32)</f>
-        <v>42927</v>
+        <v>42969</v>
       </c>
       <c r="L32" s="242">
-        <f ca="1">_xll.qlOvernightIndexedSwapFairRate(H32,_xll.ohTrigger($P$2:$P$6))</f>
-        <v>5.8866131187178174E-3</v>
+        <f>_xll.qlOvernightIndexedSwapFairRate(H32,_xll.ohTrigger($P$2:$P$6))</f>
+        <v>4.2409878922455603E-3</v>
       </c>
       <c r="M32" s="219">
-        <f ca="1">_xll.qlInterpolationInterpolate(BasisInterpolator,I32,,L32)</f>
-        <v>4.8874932654533821E-3</v>
+        <f>_xll.qlInterpolationInterpolate(BasisInterpolator,I32,,L32)</f>
+        <v>4.7442274613367502E-3</v>
       </c>
       <c r="N32" s="242">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.07741063841712E-2</v>
+        <f t="shared" si="0"/>
+        <v>8.9852153535823105E-3</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
@@ -13834,7 +13763,6 @@
       <c r="C33" s="246"/>
       <c r="D33" s="241"/>
       <c r="E33" s="242" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="F33" s="205">
@@ -13842,31 +13770,31 @@
       </c>
       <c r="G33" s="243">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I33)</f>
-        <v>42590</v>
+        <v>42633</v>
       </c>
       <c r="H33" s="205" t="str">
         <f>_xll.qlMakeDatedOIS(,I33,J33,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_0038e#0001</v>
+        <v>obj_003d6#0000</v>
       </c>
       <c r="I33" s="243">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F33&amp;"M","mf")</f>
-        <v>42592</v>
+        <v>42635</v>
       </c>
       <c r="J33" s="243">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I33)</f>
-        <v>42957</v>
+        <v>43000</v>
       </c>
       <c r="L33" s="242">
-        <f ca="1">_xll.qlOvernightIndexedSwapFairRate(H33,_xll.ohTrigger($P$2:$P$6))</f>
-        <v>6.1947664763551827E-3</v>
+        <f>_xll.qlOvernightIndexedSwapFairRate(H33,_xll.ohTrigger($P$2:$P$6))</f>
+        <v>4.5338349390473629E-3</v>
       </c>
       <c r="M33" s="219">
-        <f ca="1">_xll.qlInterpolationInterpolate(BasisInterpolator,I33,,L33)</f>
-        <v>4.929003179568907E-3</v>
+        <f>_xll.qlInterpolationInterpolate(BasisInterpolator,I33,,L33)</f>
+        <v>4.7846913295072728E-3</v>
       </c>
       <c r="N33" s="242">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.112376965592409E-2</v>
+        <f t="shared" si="0"/>
+        <v>9.3185262685546357E-3</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
@@ -13875,7 +13803,6 @@
       <c r="C34" s="246"/>
       <c r="D34" s="241"/>
       <c r="E34" s="242" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="F34" s="205">
@@ -13883,31 +13810,31 @@
       </c>
       <c r="G34" s="243">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I34)</f>
-        <v>42621</v>
+        <v>42663</v>
       </c>
       <c r="H34" s="205" t="str">
         <f>_xll.qlMakeDatedOIS(,I34,J34,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_003ab#0001</v>
+        <v>obj_003c9#0000</v>
       </c>
       <c r="I34" s="243">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F34&amp;"M","mf")</f>
-        <v>42625</v>
+        <v>42667</v>
       </c>
       <c r="J34" s="243">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I34)</f>
-        <v>42990</v>
+        <v>43032</v>
       </c>
       <c r="L34" s="242">
-        <f ca="1">_xll.qlOvernightIndexedSwapFairRate(H34,_xll.ohTrigger($P$2:$P$6))</f>
-        <v>6.5373496000533937E-3</v>
+        <f>_xll.qlOvernightIndexedSwapFairRate(H34,_xll.ohTrigger($P$2:$P$6))</f>
+        <v>4.8442133171222139E-3</v>
       </c>
       <c r="M34" s="219">
-        <f ca="1">_xll.qlInterpolationInterpolate(BasisInterpolator,I34,,L34)</f>
-        <v>4.9723209542953265E-3</v>
+        <f>_xll.qlInterpolationInterpolate(BasisInterpolator,I34,,L34)</f>
+        <v>4.8228249413384472E-3</v>
       </c>
       <c r="N34" s="242">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.1509670554348719E-2</v>
+        <f t="shared" si="0"/>
+        <v>9.6670382584606619E-3</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.2">
@@ -13916,7 +13843,6 @@
       <c r="C35" s="246"/>
       <c r="D35" s="241"/>
       <c r="E35" s="242" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="F35" s="205">
@@ -13924,31 +13850,31 @@
       </c>
       <c r="G35" s="243">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I35)</f>
-        <v>42649</v>
+        <v>42692</v>
       </c>
       <c r="H35" s="205" t="str">
         <f>_xll.qlMakeDatedOIS(,I35,J35,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_003af#0001</v>
+        <v>obj_003c2#0000</v>
       </c>
       <c r="I35" s="243">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F35&amp;"M","mf")</f>
-        <v>42653</v>
+        <v>42696</v>
       </c>
       <c r="J35" s="243">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I35)</f>
-        <v>43018</v>
+        <v>43061</v>
       </c>
       <c r="L35" s="242">
-        <f ca="1">_xll.qlOvernightIndexedSwapFairRate(H35,_xll.ohTrigger($P$2:$P$6))</f>
-        <v>6.8311696895764435E-3</v>
+        <f>_xll.qlOvernightIndexedSwapFairRate(H35,_xll.ohTrigger($P$2:$P$6))</f>
+        <v>5.1322044714639404E-3</v>
       </c>
       <c r="M35" s="219">
-        <f ca="1">_xll.qlInterpolationInterpolate(BasisInterpolator,I35,,L35)</f>
-        <v>5.0067993690153913E-3</v>
+        <f>_xll.qlInterpolationInterpolate(BasisInterpolator,I35,,L35)</f>
+        <v>4.854329123754211E-3</v>
       </c>
       <c r="N35" s="242">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.1837969058591835E-2</v>
+        <f t="shared" si="0"/>
+        <v>9.9865335952181514E-3</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
@@ -13957,7 +13883,6 @@
       <c r="C36" s="246"/>
       <c r="D36" s="241"/>
       <c r="E36" s="242" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="F36" s="205">
@@ -13965,31 +13890,31 @@
       </c>
       <c r="G36" s="243">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I36)</f>
-        <v>42682</v>
+        <v>42724</v>
       </c>
       <c r="H36" s="205" t="str">
         <f>_xll.qlMakeDatedOIS(,I36,J36,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_003b0#0001</v>
+        <v>obj_003cb#0000</v>
       </c>
       <c r="I36" s="243">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F36&amp;"M","mf")</f>
-        <v>42684</v>
+        <v>42726</v>
       </c>
       <c r="J36" s="243">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I36)</f>
-        <v>43049</v>
+        <v>43091</v>
       </c>
       <c r="L36" s="242">
-        <f ca="1">_xll.qlOvernightIndexedSwapFairRate(H36,_xll.ohTrigger($P$2:$P$6))</f>
-        <v>7.1600254193792991E-3</v>
+        <f>_xll.qlOvernightIndexedSwapFairRate(H36,_xll.ohTrigger($P$2:$P$6))</f>
+        <v>5.4364611553408757E-3</v>
       </c>
       <c r="M36" s="219">
-        <f ca="1">_xll.qlInterpolationInterpolate(BasisInterpolator,I36,,L36)</f>
-        <v>5.0421545295073521E-3</v>
+        <f>_xll.qlInterpolationInterpolate(BasisInterpolator,I36,,L36)</f>
+        <v>4.8839978411205579E-3</v>
       </c>
       <c r="N36" s="242">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.220217994888665E-2</v>
+        <f t="shared" si="0"/>
+        <v>1.0320458996461434E-2</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.2">
@@ -13998,7 +13923,6 @@
       <c r="C37" s="246"/>
       <c r="D37" s="241"/>
       <c r="E37" s="242" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="F37" s="205">
@@ -14006,31 +13930,31 @@
       </c>
       <c r="G37" s="243">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I37)</f>
-        <v>42712</v>
+        <v>42754</v>
       </c>
       <c r="H37" s="205" t="str">
         <f>_xll.qlMakeDatedOIS(,I37,J37,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_003b7#0001</v>
+        <v>obj_003c4#0000</v>
       </c>
       <c r="I37" s="243">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F37&amp;"M","mf")</f>
-        <v>42716</v>
+        <v>42758</v>
       </c>
       <c r="J37" s="243">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I37)</f>
-        <v>43081</v>
+        <v>43123</v>
       </c>
       <c r="L37" s="242">
-        <f ca="1">_xll.qlOvernightIndexedSwapFairRate(H37,_xll.ohTrigger($P$2:$P$6))</f>
-        <v>7.5036138407518762E-3</v>
+        <f>_xll.qlOvernightIndexedSwapFairRate(H37,_xll.ohTrigger($P$2:$P$6))</f>
+        <v>5.7676762707660582E-3</v>
       </c>
       <c r="M37" s="219">
-        <f ca="1">_xll.qlInterpolationInterpolate(BasisInterpolator,I37,,L37)</f>
-        <v>5.0751303851927993E-3</v>
+        <f>_xll.qlInterpolationInterpolate(BasisInterpolator,I37,,L37)</f>
+        <v>4.9125199505125998E-3</v>
       </c>
       <c r="N37" s="242">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.2578744225944676E-2</v>
+        <f t="shared" si="0"/>
+        <v>1.0680196221278658E-2</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.2">
@@ -14039,7 +13963,6 @@
       <c r="C38" s="246"/>
       <c r="D38" s="241"/>
       <c r="E38" s="242" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="F38" s="205">
@@ -14047,31 +13970,31 @@
       </c>
       <c r="G38" s="243">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I38)</f>
-        <v>42741</v>
+        <v>42786</v>
       </c>
       <c r="H38" s="205" t="str">
         <f>_xll.qlMakeDatedOIS(,I38,J38,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_0039a#0001</v>
+        <v>obj_003b1#0000</v>
       </c>
       <c r="I38" s="243">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F38&amp;"M","mf")</f>
-        <v>42745</v>
+        <v>42788</v>
       </c>
       <c r="J38" s="243">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I38)</f>
-        <v>43110</v>
+        <v>43153</v>
       </c>
       <c r="L38" s="242">
-        <f ca="1">_xll.qlOvernightIndexedSwapFairRate(H38,_xll.ohTrigger($P$2:$P$6))</f>
-        <v>7.818793041550854E-3</v>
+        <f>_xll.qlOvernightIndexedSwapFairRate(H38,_xll.ohTrigger($P$2:$P$6))</f>
+        <v>6.0840437228933814E-3</v>
       </c>
       <c r="M38" s="219">
-        <f ca="1">_xll.qlInterpolationInterpolate(BasisInterpolator,I38,,L38)</f>
-        <v>5.1015586070321884E-3</v>
+        <f>_xll.qlInterpolationInterpolate(BasisInterpolator,I38,,L38)</f>
+        <v>4.9364728825610302E-3</v>
       </c>
       <c r="N38" s="242">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.2920351648583041E-2</v>
+        <f t="shared" si="0"/>
+        <v>1.1020516605454412E-2</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.2">
@@ -14080,7 +14003,6 @@
       <c r="C39" s="246"/>
       <c r="D39" s="241"/>
       <c r="E39" s="242" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="F39" s="205">
@@ -14088,31 +14010,31 @@
       </c>
       <c r="G39" s="243">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I39)</f>
-        <v>42774</v>
+        <v>42814</v>
       </c>
       <c r="H39" s="205" t="str">
         <f>_xll.qlMakeDatedOIS(,I39,J39,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_0039b#0001</v>
+        <v>obj_003ae#0000</v>
       </c>
       <c r="I39" s="243">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F39&amp;"M","mf")</f>
-        <v>42776</v>
+        <v>42816</v>
       </c>
       <c r="J39" s="243">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I39)</f>
-        <v>43143</v>
+        <v>43181</v>
       </c>
       <c r="L39" s="242">
-        <f ca="1">_xll.qlOvernightIndexedSwapFairRate(H39,_xll.ohTrigger($P$2:$P$6))</f>
-        <v>8.1714556178820071E-3</v>
+        <f>_xll.qlOvernightIndexedSwapFairRate(H39,_xll.ohTrigger($P$2:$P$6))</f>
+        <v>6.3840850170177703E-3</v>
       </c>
       <c r="M39" s="219">
-        <f ca="1">_xll.qlInterpolationInterpolate(BasisInterpolator,I39,,L39)</f>
-        <v>5.1257890202057029E-3</v>
+        <f>_xll.qlInterpolationInterpolate(BasisInterpolator,I39,,L39)</f>
+        <v>4.9565178492034026E-3</v>
       </c>
       <c r="N39" s="242">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.3297244638087711E-2</v>
+        <f t="shared" si="0"/>
+        <v>1.1340602866221173E-2</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.2">
@@ -14121,7 +14043,6 @@
       <c r="C40" s="246"/>
       <c r="D40" s="241"/>
       <c r="E40" s="242" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="F40" s="205">
@@ -14129,31 +14050,31 @@
       </c>
       <c r="G40" s="243">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I40)</f>
-        <v>42802</v>
+        <v>42845</v>
       </c>
       <c r="H40" s="205" t="str">
         <f>_xll.qlMakeDatedOIS(,I40,J40,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_003ac#0001</v>
+        <v>obj_003bc#0000</v>
       </c>
       <c r="I40" s="243">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F40&amp;"M","mf")</f>
-        <v>42804</v>
+        <v>42849</v>
       </c>
       <c r="J40" s="243">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I40)</f>
-        <v>43171</v>
+        <v>43214</v>
       </c>
       <c r="L40" s="242">
-        <f ca="1">_xll.qlOvernightIndexedSwapFairRate(H40,_xll.ohTrigger($P$2:$P$6))</f>
-        <v>8.4835939551153438E-3</v>
+        <f>_xll.qlOvernightIndexedSwapFairRate(H40,_xll.ohTrigger($P$2:$P$6))</f>
+        <v>6.743177865918713E-3</v>
       </c>
       <c r="M40" s="219">
-        <f ca="1">_xll.qlInterpolationInterpolate(BasisInterpolator,I40,,L40)</f>
-        <v>5.1437753480876227E-3</v>
+        <f>_xll.qlInterpolationInterpolate(BasisInterpolator,I40,,L40)</f>
+        <v>4.9774303411240367E-3</v>
       </c>
       <c r="N40" s="242">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.3627369303202966E-2</v>
+        <f t="shared" si="0"/>
+        <v>1.172060820704275E-2</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.2">
@@ -14162,7 +14083,6 @@
       <c r="C41" s="246"/>
       <c r="D41" s="241"/>
       <c r="E41" s="242" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="F41" s="205">
@@ -14170,31 +14090,31 @@
       </c>
       <c r="G41" s="243">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I41)</f>
-        <v>42863</v>
+        <v>42906</v>
       </c>
       <c r="H41" s="205" t="str">
         <f>_xll.qlMakeDatedOIS(,I41,J41,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_0038c#0001</v>
+        <v>obj_003d8#0000</v>
       </c>
       <c r="I41" s="243">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F41&amp;"M","mf")</f>
-        <v>42865</v>
+        <v>42908</v>
       </c>
       <c r="J41" s="243">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I41)</f>
-        <v>43230</v>
+        <v>43273</v>
       </c>
       <c r="L41" s="242">
-        <f ca="1">_xll.qlOvernightIndexedSwapFairRate(H41,_xll.ohTrigger($P$2:$P$6))</f>
-        <v>9.1649247357981235E-3</v>
+        <f>_xll.qlOvernightIndexedSwapFairRate(H41,_xll.ohTrigger($P$2:$P$6))</f>
+        <v>7.3983696256707298E-3</v>
       </c>
       <c r="M41" s="219">
-        <f ca="1">_xll.qlInterpolationInterpolate(BasisInterpolator,I41,,L41)</f>
-        <v>5.1688035230410432E-3</v>
+        <f>_xll.qlInterpolationInterpolate(BasisInterpolator,I41,,L41)</f>
+        <v>5.008057618928652E-3</v>
       </c>
       <c r="N41" s="242">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.4333728258839166E-2</v>
+        <f t="shared" si="0"/>
+        <v>1.2406427244599382E-2</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.2">
@@ -14203,7 +14123,6 @@
       <c r="C42" s="246"/>
       <c r="D42" s="241"/>
       <c r="E42" s="242" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="F42" s="205">
@@ -14211,31 +14130,31 @@
       </c>
       <c r="G42" s="243">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I42)</f>
-        <v>42894</v>
+        <v>42936</v>
       </c>
       <c r="H42" s="205" t="str">
         <f>_xll.qlMakeDatedOIS(,I42,J42,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_0039e#0001</v>
+        <v>obj_003b0#0000</v>
       </c>
       <c r="I42" s="243">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F42&amp;"M","mf")</f>
-        <v>42898</v>
+        <v>42940</v>
       </c>
       <c r="J42" s="243">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I42)</f>
-        <v>43263</v>
+        <v>43305</v>
       </c>
       <c r="L42" s="242">
-        <f ca="1">_xll.qlOvernightIndexedSwapFairRate(H42,_xll.ohTrigger($P$2:$P$6))</f>
-        <v>9.5469233811650012E-3</v>
+        <f>_xll.qlOvernightIndexedSwapFairRate(H42,_xll.ohTrigger($P$2:$P$6))</f>
+        <v>7.7597138899210575E-3</v>
       </c>
       <c r="M42" s="219">
-        <f ca="1">_xll.qlInterpolationInterpolate(BasisInterpolator,I42,,L42)</f>
-        <v>5.1743236487587253E-3</v>
+        <f>_xll.qlInterpolationInterpolate(BasisInterpolator,I42,,L42)</f>
+        <v>5.0213916947563072E-3</v>
       </c>
       <c r="N42" s="242">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.4721247029923726E-2</v>
+        <f t="shared" si="0"/>
+        <v>1.2781105584677365E-2</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.2">
@@ -14244,7 +14163,6 @@
       <c r="C43" s="246"/>
       <c r="D43" s="241"/>
       <c r="E43" s="242" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="F43" s="205">
@@ -14252,31 +14170,31 @@
       </c>
       <c r="G43" s="243">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I43)</f>
-        <v>42922</v>
+        <v>42965</v>
       </c>
       <c r="H43" s="205" t="str">
         <f>_xll.qlMakeDatedOIS(,I43,J43,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_003a9#0001</v>
+        <v>obj_003cc#0000</v>
       </c>
       <c r="I43" s="243">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F43&amp;"M","mf")</f>
-        <v>42926</v>
+        <v>42969</v>
       </c>
       <c r="J43" s="243">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I43)</f>
-        <v>43291</v>
+        <v>43334</v>
       </c>
       <c r="L43" s="242">
-        <f ca="1">_xll.qlOvernightIndexedSwapFairRate(H43,_xll.ohTrigger($P$2:$P$6))</f>
-        <v>9.8741467016570071E-3</v>
+        <f>_xll.qlOvernightIndexedSwapFairRate(H43,_xll.ohTrigger($P$2:$P$6))</f>
+        <v>8.0900671577821843E-3</v>
       </c>
       <c r="M43" s="219">
-        <f ca="1">_xll.qlInterpolationInterpolate(BasisInterpolator,I43,,L43)</f>
-        <v>5.1750757018983254E-3</v>
+        <f>_xll.qlInterpolationInterpolate(BasisInterpolator,I43,,L43)</f>
+        <v>5.0317152803605898E-3</v>
       </c>
       <c r="N43" s="242">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.5049222403555333E-2</v>
+        <f t="shared" si="0"/>
+        <v>1.3121782438142774E-2</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.2">
@@ -14285,7 +14203,6 @@
       <c r="C44" s="246"/>
       <c r="D44" s="241"/>
       <c r="E44" s="242" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="F44" s="205">
@@ -14293,31 +14210,31 @@
       </c>
       <c r="G44" s="243">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I44)</f>
-        <v>42955</v>
+        <v>42998</v>
       </c>
       <c r="H44" s="205" t="str">
         <f>_xll.qlMakeDatedOIS(,I44,J44,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_003a7#0001</v>
+        <v>obj_003b2#0000</v>
       </c>
       <c r="I44" s="243">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F44&amp;"M","mf")</f>
-        <v>42957</v>
+        <v>43000</v>
       </c>
       <c r="J44" s="243">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I44)</f>
-        <v>43322</v>
+        <v>43367</v>
       </c>
       <c r="L44" s="242">
-        <f ca="1">_xll.qlOvernightIndexedSwapFairRate(H44,_xll.ohTrigger($P$2:$P$6))</f>
-        <v>1.0239075593120478E-2</v>
+        <f>_xll.qlOvernightIndexedSwapFairRate(H44,_xll.ohTrigger($P$2:$P$6))</f>
+        <v>8.4574691651258319E-3</v>
       </c>
       <c r="M44" s="219">
-        <f ca="1">_xll.qlInterpolationInterpolate(BasisInterpolator,I44,,L44)</f>
-        <v>5.1721232908822105E-3</v>
+        <f>_xll.qlInterpolationInterpolate(BasisInterpolator,I44,,L44)</f>
+        <v>5.0410871959444522E-3</v>
       </c>
       <c r="N44" s="242">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.5411198884002688E-2</v>
+        <f t="shared" si="0"/>
+        <v>1.3498556361070283E-2</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.2">
@@ -14326,7 +14243,6 @@
       <c r="C45" s="246"/>
       <c r="D45" s="241"/>
       <c r="E45" s="219" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="F45" s="205">
@@ -14334,31 +14250,31 @@
       </c>
       <c r="G45" s="243">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I45)</f>
-        <v>42985</v>
+        <v>43027</v>
       </c>
       <c r="H45" s="205" t="str">
         <f>_xll.qlMakeDatedOIS(,I45,J45,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_0039f#0001</v>
+        <v>obj_003cd#0000</v>
       </c>
       <c r="I45" s="243">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F45&amp;"M","mf")</f>
-        <v>42989</v>
+        <v>43031</v>
       </c>
       <c r="J45" s="243">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I45)</f>
-        <v>43354</v>
+        <v>43396</v>
       </c>
       <c r="L45" s="242">
-        <f ca="1">_xll.qlOvernightIndexedSwapFairRate(H45,_xll.ohTrigger($P$2:$P$6))</f>
-        <v>1.0617953484517592E-2</v>
+        <f>_xll.qlOvernightIndexedSwapFairRate(H45,_xll.ohTrigger($P$2:$P$6))</f>
+        <v>8.803051299664277E-3</v>
       </c>
       <c r="M45" s="219">
-        <f ca="1">_xll.qlInterpolationInterpolate(BasisInterpolator,I45,,L45)</f>
-        <v>5.1653671695217574E-3</v>
+        <f>_xll.qlInterpolationInterpolate(BasisInterpolator,I45,,L45)</f>
+        <v>5.0489314936466223E-3</v>
       </c>
       <c r="N45" s="242">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.578332065403935E-2</v>
+        <f t="shared" si="0"/>
+        <v>1.3851982793310898E-2</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.2">
@@ -14367,7 +14283,6 @@
       <c r="C46" s="246"/>
       <c r="D46" s="241"/>
       <c r="E46" s="219" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="F46" s="205">
@@ -14375,31 +14290,31 @@
       </c>
       <c r="G46" s="243">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I46)</f>
-        <v>43014</v>
+        <v>43059</v>
       </c>
       <c r="H46" s="205" t="str">
         <f>_xll.qlMakeDatedOIS(,I46,J46,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_003a4#0001</v>
+        <v>obj_003c0#0000</v>
       </c>
       <c r="I46" s="243">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F46&amp;"M","mf")</f>
-        <v>43018</v>
+        <v>43061</v>
       </c>
       <c r="J46" s="243">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I46)</f>
-        <v>43383</v>
+        <v>43426</v>
       </c>
       <c r="L46" s="242">
-        <f ca="1">_xll.qlOvernightIndexedSwapFairRate(H46,_xll.ohTrigger($P$2:$P$6))</f>
-        <v>1.0962565114245036E-2</v>
+        <f>_xll.qlOvernightIndexedSwapFairRate(H46,_xll.ohTrigger($P$2:$P$6))</f>
+        <v>9.1501266233835511E-3</v>
       </c>
       <c r="M46" s="219">
-        <f ca="1">_xll.qlInterpolationInterpolate(BasisInterpolator,I46,,L46)</f>
-        <v>5.1564015582491627E-3</v>
+        <f>_xll.qlInterpolationInterpolate(BasisInterpolator,I46,,L46)</f>
+        <v>5.0552525700523444E-3</v>
       </c>
       <c r="N46" s="242">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.6118966672494198E-2</v>
+        <f t="shared" si="0"/>
+        <v>1.4205379193435896E-2</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.2">
@@ -14408,7 +14323,6 @@
       <c r="C47" s="246"/>
       <c r="D47" s="241"/>
       <c r="E47" s="219" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="F47" s="205">
@@ -14416,31 +14330,31 @@
       </c>
       <c r="G47" s="243">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I47)</f>
-        <v>43047</v>
+        <v>43089</v>
       </c>
       <c r="H47" s="205" t="str">
         <f>_xll.qlMakeDatedOIS(,I47,J47,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_00394#0001</v>
+        <v>obj_003c3#0000</v>
       </c>
       <c r="I47" s="243">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F47&amp;"M","mf")</f>
-        <v>43049</v>
+        <v>43091</v>
       </c>
       <c r="J47" s="243">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I47)</f>
-        <v>43416</v>
+        <v>43458</v>
       </c>
       <c r="L47" s="242">
-        <f ca="1">_xll.qlOvernightIndexedSwapFairRate(H47,_xll.ohTrigger($P$2:$P$6))</f>
-        <v>1.1343794663001998E-2</v>
+        <f>_xll.qlOvernightIndexedSwapFairRate(H47,_xll.ohTrigger($P$2:$P$6))</f>
+        <v>9.5095799890399253E-3</v>
       </c>
       <c r="M47" s="219">
-        <f ca="1">_xll.qlInterpolationInterpolate(BasisInterpolator,I47,,L47)</f>
-        <v>5.1442608990203099E-3</v>
+        <f>_xll.qlInterpolationInterpolate(BasisInterpolator,I47,,L47)</f>
+        <v>5.0605036137230212E-3</v>
       </c>
       <c r="N47" s="242">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.6488055562022309E-2</v>
+        <f t="shared" si="0"/>
+        <v>1.4570083602762946E-2</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.2">
@@ -14449,7 +14363,6 @@
       <c r="C48" s="246"/>
       <c r="D48" s="241"/>
       <c r="E48" s="219" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="F48" s="205">
@@ -14457,31 +14370,31 @@
       </c>
       <c r="G48" s="243">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I48)</f>
-        <v>43076</v>
+        <v>43118</v>
       </c>
       <c r="H48" s="205" t="str">
         <f>_xll.qlMakeDatedOIS(,I48,J48,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_0039c#0001</v>
+        <v>obj_003c7#0000</v>
       </c>
       <c r="I48" s="243">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F48&amp;"M","mf")</f>
-        <v>43080</v>
+        <v>43122</v>
       </c>
       <c r="J48" s="243">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I48)</f>
-        <v>43445</v>
+        <v>43487</v>
       </c>
       <c r="L48" s="242">
-        <f ca="1">_xll.qlOvernightIndexedSwapFairRate(H48,_xll.ohTrigger($P$2:$P$6))</f>
-        <v>1.1700513175703026E-2</v>
+        <f>_xll.qlOvernightIndexedSwapFairRate(H48,_xll.ohTrigger($P$2:$P$6))</f>
+        <v>9.8569770130189222E-3</v>
       </c>
       <c r="M48" s="219">
-        <f ca="1">_xll.qlInterpolationInterpolate(BasisInterpolator,I48,,L48)</f>
-        <v>5.1299202300787309E-3</v>
+        <f>_xll.qlInterpolationInterpolate(BasisInterpolator,I48,,L48)</f>
+        <v>5.0649939532634546E-3</v>
       </c>
       <c r="N48" s="242">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.6830433405781758E-2</v>
+        <f t="shared" si="0"/>
+        <v>1.4921970966282377E-2</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.2">
@@ -14490,7 +14403,6 @@
       <c r="C49" s="246"/>
       <c r="D49" s="241"/>
       <c r="E49" s="219" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="F49" s="205">
@@ -14498,31 +14410,31 @@
       </c>
       <c r="G49" s="243">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I49)</f>
-        <v>43108</v>
+        <v>43151</v>
       </c>
       <c r="H49" s="205" t="str">
         <f>_xll.qlMakeDatedOIS(,I49,J49,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_00393#0001</v>
+        <v>obj_003c1#0000</v>
       </c>
       <c r="I49" s="243">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F49&amp;"M","mf")</f>
-        <v>43110</v>
+        <v>43153</v>
       </c>
       <c r="J49" s="243">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I49)</f>
-        <v>43475</v>
+        <v>43518</v>
       </c>
       <c r="L49" s="242">
-        <f ca="1">_xll.qlOvernightIndexedSwapFairRate(H49,_xll.ohTrigger($P$2:$P$6))</f>
-        <v>1.2056815278269016E-2</v>
+        <f>_xll.qlOvernightIndexedSwapFairRate(H49,_xll.ohTrigger($P$2:$P$6))</f>
+        <v>1.0215521099973954E-2</v>
       </c>
       <c r="M49" s="219">
-        <f ca="1">_xll.qlInterpolationInterpolate(BasisInterpolator,I49,,L49)</f>
-        <v>5.1143728752339156E-3</v>
+        <f>_xll.qlInterpolationInterpolate(BasisInterpolator,I49,,L49)</f>
+        <v>5.0687267963336266E-3</v>
       </c>
       <c r="N49" s="242">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.717118815350293E-2</v>
+        <f t="shared" si="0"/>
+        <v>1.5284247896307581E-2</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.2">
@@ -14531,7 +14443,6 @@
       <c r="C50" s="246"/>
       <c r="D50" s="241"/>
       <c r="E50" s="219" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="F50" s="205">
@@ -14539,31 +14450,31 @@
       </c>
       <c r="G50" s="243">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I50)</f>
-        <v>43139</v>
+        <v>43179</v>
       </c>
       <c r="H50" s="205" t="str">
         <f>_xll.qlMakeDatedOIS(,I50,J50,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_003b2#0001</v>
+        <v>obj_003b7#0000</v>
       </c>
       <c r="I50" s="243">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F50&amp;"M","mf")</f>
-        <v>43143</v>
+        <v>43181</v>
       </c>
       <c r="J50" s="243">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I50)</f>
-        <v>43508</v>
+        <v>43546</v>
       </c>
       <c r="L50" s="242">
-        <f ca="1">_xll.qlOvernightIndexedSwapFairRate(H50,_xll.ohTrigger($P$2:$P$6))</f>
-        <v>1.244711335235014E-2</v>
+        <f>_xll.qlOvernightIndexedSwapFairRate(H50,_xll.ohTrigger($P$2:$P$6))</f>
+        <v>1.0538259654773121E-2</v>
       </c>
       <c r="M50" s="219">
-        <f ca="1">_xll.qlInterpolationInterpolate(BasisInterpolator,I50,,L50)</f>
-        <v>5.0958681689859241E-3</v>
+        <f>_xll.qlInterpolationInterpolate(BasisInterpolator,I50,,L50)</f>
+        <v>5.0716100832447425E-3</v>
       </c>
       <c r="N50" s="242">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.7542981521336064E-2</v>
+        <f t="shared" si="0"/>
+        <v>1.5609869738017864E-2</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.2">
@@ -14572,7 +14483,6 @@
       <c r="C51" s="246"/>
       <c r="D51" s="241"/>
       <c r="E51" s="219" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="F51" s="205">
@@ -14580,31 +14490,31 @@
       </c>
       <c r="G51" s="243">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I51)</f>
-        <v>43167</v>
+        <v>43209</v>
       </c>
       <c r="H51" s="205" t="str">
         <f>_xll.qlMakeDatedOIS(,I51,J51,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_003a8#0001</v>
+        <v>obj_003c8#0000</v>
       </c>
       <c r="I51" s="243">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F51&amp;"M","mf")</f>
-        <v>43171</v>
+        <v>43213</v>
       </c>
       <c r="J51" s="243">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I51)</f>
-        <v>43536</v>
+        <v>43578</v>
       </c>
       <c r="L51" s="242">
-        <f ca="1">_xll.qlOvernightIndexedSwapFairRate(H51,_xll.ohTrigger($P$2:$P$6))</f>
-        <v>1.2776300881824788E-2</v>
+        <f>_xll.qlOvernightIndexedSwapFairRate(H51,_xll.ohTrigger($P$2:$P$6))</f>
+        <v>1.0905183480023194E-2</v>
       </c>
       <c r="M51" s="219">
-        <f ca="1">_xll.qlInterpolationInterpolate(BasisInterpolator,I51,,L51)</f>
-        <v>5.0794076260635371E-3</v>
+        <f>_xll.qlInterpolationInterpolate(BasisInterpolator,I51,,L51)</f>
+        <v>5.0745290161370721E-3</v>
       </c>
       <c r="N51" s="242">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.7855708507888327E-2</v>
+        <f t="shared" si="0"/>
+        <v>1.5979712496160266E-2</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.2">
@@ -14613,7 +14523,6 @@
       <c r="C52" s="246"/>
       <c r="D52" s="241"/>
       <c r="E52" s="219" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -14623,7 +14532,6 @@
       <c r="C53" s="246"/>
       <c r="D53" s="241"/>
       <c r="E53" s="219" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -14633,7 +14541,6 @@
       <c r="C54" s="246"/>
       <c r="D54" s="241"/>
       <c r="E54" s="219" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -14643,7 +14550,6 @@
       <c r="C55" s="246"/>
       <c r="D55" s="241"/>
       <c r="E55" s="219" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -14653,7 +14559,6 @@
       <c r="C56" s="246"/>
       <c r="D56" s="241"/>
       <c r="E56" s="219" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -14663,7 +14568,6 @@
       <c r="C57" s="246"/>
       <c r="D57" s="241"/>
       <c r="E57" s="219" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -14673,7 +14577,6 @@
       <c r="C58" s="246"/>
       <c r="D58" s="241"/>
       <c r="E58" s="219" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -14683,7 +14586,6 @@
       <c r="C59" s="246"/>
       <c r="D59" s="241"/>
       <c r="E59" s="219" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -14693,7 +14595,6 @@
       <c r="C60" s="246"/>
       <c r="D60" s="241"/>
       <c r="E60" s="219" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -14703,7 +14604,6 @@
       <c r="C61" s="246"/>
       <c r="D61" s="241"/>
       <c r="E61" s="219" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -14713,7 +14613,6 @@
       <c r="C62" s="246"/>
       <c r="D62" s="241"/>
       <c r="E62" s="219" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -14723,7 +14622,6 @@
       <c r="C63" s="246"/>
       <c r="D63" s="241"/>
       <c r="E63" s="219" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -14733,7 +14631,6 @@
       <c r="C64" s="246"/>
       <c r="D64" s="241"/>
       <c r="E64" s="219" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -14743,7 +14640,6 @@
       <c r="C65" s="246"/>
       <c r="D65" s="241"/>
       <c r="E65" s="219" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -14753,7 +14649,6 @@
       <c r="C66" s="246"/>
       <c r="D66" s="241"/>
       <c r="E66" s="219" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -14763,7 +14658,6 @@
       <c r="C67" s="246"/>
       <c r="D67" s="241"/>
       <c r="E67" s="219" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -14773,7 +14667,6 @@
       <c r="C68" s="246"/>
       <c r="D68" s="241"/>
       <c r="E68" s="219" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -14783,7 +14676,6 @@
       <c r="C69" s="246"/>
       <c r="D69" s="241"/>
       <c r="E69" s="219" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -14793,7 +14685,6 @@
       <c r="C70" s="246"/>
       <c r="D70" s="241"/>
       <c r="E70" s="219" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -14803,7 +14694,6 @@
       <c r="C71" s="246"/>
       <c r="D71" s="241"/>
       <c r="E71" s="219" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -14813,7 +14703,6 @@
       <c r="C72" s="246"/>
       <c r="D72" s="241"/>
       <c r="E72" s="219" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -14823,7 +14712,6 @@
       <c r="C73" s="246"/>
       <c r="D73" s="241"/>
       <c r="E73" s="219" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -14833,7 +14721,6 @@
       <c r="C74" s="246"/>
       <c r="D74" s="241"/>
       <c r="E74" s="219" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -14843,7 +14730,6 @@
       <c r="C75" s="246"/>
       <c r="D75" s="241"/>
       <c r="E75" s="219" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -14853,7 +14739,6 @@
       <c r="C76" s="246"/>
       <c r="D76" s="241"/>
       <c r="E76" s="219" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -14863,7 +14748,6 @@
       <c r="C77" s="246"/>
       <c r="D77" s="241"/>
       <c r="E77" s="219" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -14873,7 +14757,6 @@
       <c r="C78" s="246"/>
       <c r="D78" s="241"/>
       <c r="E78" s="219" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -14883,7 +14766,6 @@
       <c r="C79" s="246"/>
       <c r="D79" s="241"/>
       <c r="E79" s="219" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -14893,7 +14775,6 @@
       <c r="C80" s="246"/>
       <c r="D80" s="241"/>
       <c r="E80" s="219" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -14903,7 +14784,6 @@
       <c r="C81" s="246"/>
       <c r="D81" s="241"/>
       <c r="E81" s="219" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -14913,7 +14793,6 @@
       <c r="C82" s="246"/>
       <c r="D82" s="241"/>
       <c r="E82" s="219" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -14923,7 +14802,6 @@
       <c r="C83" s="246"/>
       <c r="D83" s="241"/>
       <c r="E83" s="219" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -14933,7 +14811,6 @@
       <c r="C84" s="246"/>
       <c r="D84" s="241"/>
       <c r="E84" s="219" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -14943,7 +14820,6 @@
       <c r="C85" s="246"/>
       <c r="D85" s="241"/>
       <c r="E85" s="219" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -14953,7 +14829,6 @@
       <c r="C86" s="246"/>
       <c r="D86" s="241"/>
       <c r="E86" s="219" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -14963,7 +14838,6 @@
       <c r="C87" s="246"/>
       <c r="D87" s="241"/>
       <c r="E87" s="219" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -14973,7 +14847,6 @@
       <c r="C88" s="246"/>
       <c r="D88" s="241"/>
       <c r="E88" s="219" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -14983,7 +14856,6 @@
       <c r="C89" s="246"/>
       <c r="D89" s="241"/>
       <c r="E89" s="219" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -14993,7 +14865,6 @@
       <c r="C90" s="246"/>
       <c r="D90" s="241"/>
       <c r="E90" s="219" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -15003,7 +14874,6 @@
       <c r="C91" s="246"/>
       <c r="D91" s="241"/>
       <c r="E91" s="219" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -15013,7 +14883,6 @@
       <c r="C92" s="246"/>
       <c r="D92" s="241"/>
       <c r="E92" s="219" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -15023,7 +14892,6 @@
       <c r="C93" s="246"/>
       <c r="D93" s="241"/>
       <c r="E93" s="219" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -15033,7 +14901,6 @@
       <c r="C94" s="246"/>
       <c r="D94" s="241"/>
       <c r="E94" s="219" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -15043,7 +14910,6 @@
       <c r="C95" s="246"/>
       <c r="D95" s="241"/>
       <c r="E95" s="219" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -15053,7 +14919,6 @@
       <c r="C96" s="246"/>
       <c r="D96" s="241"/>
       <c r="E96" s="219" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -15063,7 +14928,6 @@
       <c r="C97" s="246"/>
       <c r="D97" s="241"/>
       <c r="E97" s="219" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -15073,7 +14937,6 @@
       <c r="C98" s="246"/>
       <c r="D98" s="241"/>
       <c r="E98" s="219" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -15083,7 +14946,6 @@
       <c r="C99" s="246"/>
       <c r="D99" s="241"/>
       <c r="E99" s="219" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -15093,7 +14955,6 @@
       <c r="C100" s="246"/>
       <c r="D100" s="241"/>
       <c r="E100" s="219" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -15103,7 +14964,6 @@
       <c r="C101" s="246"/>
       <c r="D101" s="241"/>
       <c r="E101" s="219" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -15113,7 +14973,6 @@
       <c r="C102" s="246"/>
       <c r="D102" s="241"/>
       <c r="E102" s="219" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -15123,7 +14982,6 @@
       <c r="C103" s="246"/>
       <c r="D103" s="241"/>
       <c r="E103" s="219" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -15133,7 +14991,6 @@
       <c r="C104" s="246"/>
       <c r="D104" s="241"/>
       <c r="E104" s="219" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -15143,7 +15000,6 @@
       <c r="C105" s="246"/>
       <c r="D105" s="241"/>
       <c r="E105" s="219" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -15153,7 +15009,6 @@
       <c r="C106" s="246"/>
       <c r="D106" s="241"/>
       <c r="E106" s="219" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -15163,7 +15018,6 @@
       <c r="C107" s="246"/>
       <c r="D107" s="241"/>
       <c r="E107" s="219" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -15173,7 +15027,6 @@
       <c r="C108" s="246"/>
       <c r="D108" s="241"/>
       <c r="E108" s="219" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -15183,7 +15036,6 @@
       <c r="C109" s="246"/>
       <c r="D109" s="241"/>
       <c r="E109" s="219" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -15193,7 +15045,6 @@
       <c r="C110" s="246"/>
       <c r="D110" s="241"/>
       <c r="E110" s="219" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -15203,7 +15054,6 @@
       <c r="C111" s="246"/>
       <c r="D111" s="241"/>
       <c r="E111" s="219" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -15213,7 +15063,6 @@
       <c r="C112" s="246"/>
       <c r="D112" s="241"/>
       <c r="E112" s="219" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -15223,7 +15072,6 @@
       <c r="C113" s="246"/>
       <c r="D113" s="241"/>
       <c r="E113" s="219" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -15233,7 +15081,6 @@
       <c r="C114" s="246"/>
       <c r="D114" s="241"/>
       <c r="E114" s="219" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -15243,7 +15090,6 @@
       <c r="C115" s="246"/>
       <c r="D115" s="241"/>
       <c r="E115" s="219" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -15253,7 +15099,6 @@
       <c r="C116" s="246"/>
       <c r="D116" s="241"/>
       <c r="E116" s="219" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -15263,7 +15108,6 @@
       <c r="C117" s="246"/>
       <c r="D117" s="241"/>
       <c r="E117" s="219" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -15273,7 +15117,6 @@
       <c r="C118" s="246"/>
       <c r="D118" s="241"/>
       <c r="E118" s="219" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -15283,7 +15126,6 @@
       <c r="C119" s="246"/>
       <c r="D119" s="241"/>
       <c r="E119" s="219" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -15293,7 +15135,6 @@
       <c r="C120" s="246"/>
       <c r="D120" s="241"/>
       <c r="E120" s="219" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -15303,7 +15144,6 @@
       <c r="C121" s="246"/>
       <c r="D121" s="241"/>
       <c r="E121" s="219" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -15313,7 +15153,6 @@
       <c r="C122" s="246"/>
       <c r="D122" s="241"/>
       <c r="E122" s="219" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -15323,7 +15162,6 @@
       <c r="C123" s="246"/>
       <c r="D123" s="241"/>
       <c r="E123" s="219" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -15333,7 +15171,6 @@
       <c r="C124" s="246"/>
       <c r="D124" s="241"/>
       <c r="E124" s="219" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -15343,7 +15180,6 @@
       <c r="C125" s="246"/>
       <c r="D125" s="241"/>
       <c r="E125" s="219" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -15353,7 +15189,6 @@
       <c r="C126" s="246"/>
       <c r="D126" s="241"/>
       <c r="E126" s="219" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -15363,7 +15198,6 @@
       <c r="C127" s="249"/>
       <c r="D127" s="250"/>
       <c r="E127" s="219" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -15452,8 +15286,8 @@
         <v>85</v>
       </c>
       <c r="P2" s="363">
-        <f ca="1">_xll.ohTrigger(O3:O7)</f>
-        <v>1117</v>
+        <f>_xll.ohTrigger(O3:O7)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
@@ -15469,7 +15303,7 @@
       </c>
       <c r="D3" s="335" t="str">
         <f>_xll.qlSimpleQuote(C3,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>EURSND_SYNTH1M_Quote#0001</v>
+        <v>EURSND_SYNTH1M_Quote#0000</v>
       </c>
       <c r="E3" s="329" t="str">
         <f>_xll.ohRangeRetrieveError(D3)</f>
@@ -15481,8 +15315,8 @@
         <v>86</v>
       </c>
       <c r="J3" s="288">
-        <f ca="1">SynthDepo!G34</f>
-        <v>2.7925199254175003E-3</v>
+        <f>SynthDepo!G34</f>
+        <v>2.80523479951857E-3</v>
       </c>
       <c r="K3" s="188" t="s">
         <v>87</v>
@@ -15492,11 +15326,11 @@
       </c>
       <c r="M3" s="185"/>
       <c r="N3" s="298">
-        <f t="array" ref="N3:N84" ca="1">QuoteLive</f>
-        <v>2.7925199254175003E-3</v>
+        <f t="array" ref="N3:N84">QuoteLive</f>
+        <v>2.80523479951857E-3</v>
       </c>
       <c r="O3" s="299">
-        <f ca="1">_xll.qlSimpleQuoteSetValue(D3,ROUND($N3,6),EvaluationDate)</f>
+        <f>_xll.qlSimpleQuoteSetValue(D3,ROUND($N3,6),EvaluationDate)</f>
         <v>0</v>
       </c>
       <c r="P3" s="186"/>
@@ -15515,7 +15349,7 @@
       </c>
       <c r="D4" s="337" t="str">
         <f>_xll.qlSimpleQuote(C4,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>EURSWD_SYNTH1M_Quote#0001</v>
+        <v>EURSWD_SYNTH1M_Quote#0000</v>
       </c>
       <c r="E4" s="330" t="str">
         <f>_xll.ohRangeRetrieveError(D4)</f>
@@ -15527,8 +15361,8 @@
         <v>88</v>
       </c>
       <c r="J4" s="288">
-        <f ca="1">SynthDepo!G35</f>
-        <v>2.3852580043920686E-3</v>
+        <f>SynthDepo!G35</f>
+        <v>3.0630949745236893E-3</v>
       </c>
       <c r="K4" s="188" t="s">
         <v>87</v>
@@ -15538,11 +15372,10 @@
       </c>
       <c r="M4" s="185"/>
       <c r="N4" s="298">
-        <f ca="1"/>
-        <v>2.3852580043920686E-3</v>
+        <v>3.0630949745236893E-3</v>
       </c>
       <c r="O4" s="299">
-        <f ca="1">_xll.qlSimpleQuoteSetValue(D4,ROUND($N4,6),EvaluationDate)</f>
+        <f>_xll.qlSimpleQuoteSetValue(D4,ROUND($N4,6),EvaluationDate)</f>
         <v>0</v>
       </c>
       <c r="P4" s="186"/>
@@ -15558,7 +15391,7 @@
       </c>
       <c r="D5" s="337" t="str">
         <f>_xll.qlSimpleQuote(C5,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>EUR2WD_SYNTH1M_Quote#0001</v>
+        <v>EUR2WD_SYNTH1M_Quote#0000</v>
       </c>
       <c r="E5" s="330" t="str">
         <f>_xll.ohRangeRetrieveError(D5)</f>
@@ -15570,8 +15403,8 @@
         <v>89</v>
       </c>
       <c r="J5" s="288">
-        <f ca="1">SynthDepo!G36</f>
-        <v>2.5517857632822503E-3</v>
+        <f>SynthDepo!G36</f>
+        <v>3.1889318382089982E-3</v>
       </c>
       <c r="K5" s="188" t="s">
         <v>87</v>
@@ -15581,11 +15414,10 @@
       </c>
       <c r="M5" s="185"/>
       <c r="N5" s="298">
-        <f ca="1"/>
-        <v>2.5517857632822503E-3</v>
+        <v>3.1889318382089982E-3</v>
       </c>
       <c r="O5" s="299">
-        <f ca="1">_xll.qlSimpleQuoteSetValue(D5,ROUND($N5,6),EvaluationDate)</f>
+        <f>_xll.qlSimpleQuoteSetValue(D5,ROUND($N5,6),EvaluationDate)</f>
         <v>0</v>
       </c>
       <c r="P5" s="186"/>
@@ -15601,7 +15433,7 @@
       </c>
       <c r="D6" s="337" t="str">
         <f>_xll.qlSimpleQuote(C6,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>EUR3WD_SYNTH1M_Quote#0001</v>
+        <v>EUR3WD_SYNTH1M_Quote#0000</v>
       </c>
       <c r="E6" s="330" t="str">
         <f>_xll.ohRangeRetrieveError(D6)</f>
@@ -15613,8 +15445,8 @@
         <v>90</v>
       </c>
       <c r="J6" s="290">
-        <f ca="1">SynthDepo!G37</f>
-        <v>2.5821032015187042E-3</v>
+        <f>SynthDepo!G37</f>
+        <v>2.9947687020056447E-3</v>
       </c>
       <c r="K6" s="188" t="s">
         <v>87</v>
@@ -15624,11 +15456,10 @@
       </c>
       <c r="M6" s="185"/>
       <c r="N6" s="300">
-        <f ca="1"/>
-        <v>2.5821032015187042E-3</v>
+        <v>2.9947687020056447E-3</v>
       </c>
       <c r="O6" s="301">
-        <f ca="1">_xll.qlSimpleQuoteSetValue(D6,ROUND($N6,6),EvaluationDate)</f>
+        <f>_xll.qlSimpleQuoteSetValue(D6,ROUND($N6,6),EvaluationDate)</f>
         <v>0</v>
       </c>
       <c r="P6" s="186"/>
@@ -15644,7 +15475,7 @@
       </c>
       <c r="D7" s="340" t="str">
         <f>_xll.qlSimpleQuote(C7,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>EUR1MD_SYNTH1M_Quote#0001</v>
+        <v>EUR1MD_SYNTH1M_Quote#0000</v>
       </c>
       <c r="E7" s="341" t="str">
         <f>_xll.ohRangeRetrieveError(D7)</f>
@@ -15656,8 +15487,8 @@
         <v>91</v>
       </c>
       <c r="J7" s="292">
-        <f ca="1">SynthDepo!G38</f>
-        <v>2.5100000000000001E-3</v>
+        <f>SynthDepo!G38</f>
+        <v>2.5625123447242607E-3</v>
       </c>
       <c r="K7" s="308" t="s">
         <v>87</v>
@@ -15667,11 +15498,10 @@
       </c>
       <c r="M7" s="307"/>
       <c r="N7" s="302">
-        <f ca="1"/>
-        <v>2.5100000000000001E-3</v>
+        <v>2.5625123447242607E-3</v>
       </c>
       <c r="O7" s="303">
-        <f ca="1">_xll.qlSimpleQuoteSetValue(D7,ROUND($N7,6),EvaluationDate)</f>
+        <f>_xll.qlSimpleQuoteSetValue(D7,ROUND($N7,6),EvaluationDate)</f>
         <v>0</v>
       </c>
       <c r="P7" s="307"/>
@@ -15689,7 +15519,7 @@
       </c>
       <c r="D8" s="335" t="str">
         <f>_xll.qlSimpleQuote(C8,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>EURSND_SYNTH3M_Quote#0001</v>
+        <v>EURSND_SYNTH3M_Quote#0000</v>
       </c>
       <c r="E8" s="329"/>
       <c r="F8" s="191"/>
@@ -15698,8 +15528,8 @@
         <v>86</v>
       </c>
       <c r="J8" s="310">
-        <f ca="1">SynthDepo!H34</f>
-        <v>3.7320103641807151E-3</v>
+        <f>SynthDepo!H34</f>
+        <v>4.2459853660554697E-3</v>
       </c>
       <c r="K8" s="195"/>
       <c r="L8" s="311">
@@ -15707,16 +15537,15 @@
       </c>
       <c r="M8" s="193"/>
       <c r="N8" s="312">
-        <f ca="1"/>
-        <v>3.7320103641807151E-3</v>
+        <v>4.2459853660554697E-3</v>
       </c>
       <c r="O8" s="313">
-        <f ca="1">_xll.qlSimpleQuoteSetValue(D8,ROUND($N8,6),EvaluationDate)</f>
+        <f>_xll.qlSimpleQuoteSetValue(D8,ROUND($N8,6),EvaluationDate)</f>
         <v>0</v>
       </c>
       <c r="P8" s="364">
-        <f ca="1">_xll.ohTrigger(O8:O14)</f>
-        <v>1117</v>
+        <f>_xll.ohTrigger(O8:O14)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
@@ -15733,7 +15562,7 @@
       </c>
       <c r="D9" s="337" t="str">
         <f>_xll.qlSimpleQuote(C9,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>EURSWD_SYNTH3M_Quote#0001</v>
+        <v>EURSWD_SYNTH3M_Quote#0000</v>
       </c>
       <c r="E9" s="330"/>
       <c r="F9" s="191"/>
@@ -15742,8 +15571,8 @@
         <v>88</v>
       </c>
       <c r="J9" s="288">
-        <f ca="1">SynthDepo!H35</f>
-        <v>3.3138763399278744E-3</v>
+        <f>SynthDepo!H35</f>
+        <v>4.4944906997783605E-3</v>
       </c>
       <c r="K9" s="195"/>
       <c r="L9" s="294">
@@ -15751,11 +15580,10 @@
       </c>
       <c r="M9" s="193"/>
       <c r="N9" s="298">
-        <f ca="1"/>
-        <v>3.3138763399278744E-3</v>
+        <v>4.4944906997783605E-3</v>
       </c>
       <c r="O9" s="299">
-        <f ca="1">_xll.qlSimpleQuoteSetValue(D9,ROUND($N9,6),EvaluationDate)</f>
+        <f>_xll.qlSimpleQuoteSetValue(D9,ROUND($N9,6),EvaluationDate)</f>
         <v>0</v>
       </c>
       <c r="P9" s="186"/>
@@ -15771,7 +15599,7 @@
       </c>
       <c r="D10" s="337" t="str">
         <f>_xll.qlSimpleQuote(C10,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>EUR2WD_SYNTH3M_Quote#0001</v>
+        <v>EUR2WD_SYNTH3M_Quote#0000</v>
       </c>
       <c r="E10" s="330"/>
       <c r="F10" s="191"/>
@@ -15780,8 +15608,8 @@
         <v>89</v>
       </c>
       <c r="J10" s="288">
-        <f ca="1">SynthDepo!H36</f>
-        <v>3.4677199783860785E-3</v>
+        <f>SynthDepo!H36</f>
+        <v>4.6094135819677341E-3</v>
       </c>
       <c r="K10" s="195"/>
       <c r="L10" s="294">
@@ -15789,11 +15617,10 @@
       </c>
       <c r="M10" s="193"/>
       <c r="N10" s="298">
-        <f ca="1"/>
-        <v>3.4677199783860785E-3</v>
+        <v>4.6094135819677341E-3</v>
       </c>
       <c r="O10" s="299">
-        <f ca="1">_xll.qlSimpleQuoteSetValue(D10,ROUND($N10,6),EvaluationDate)</f>
+        <f>_xll.qlSimpleQuoteSetValue(D10,ROUND($N10,6),EvaluationDate)</f>
         <v>0</v>
       </c>
       <c r="P10" s="186"/>
@@ -15809,7 +15636,7 @@
       </c>
       <c r="D11" s="337" t="str">
         <f>_xll.qlSimpleQuote(C11,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>EUR3WD_SYNTH3M_Quote#0001</v>
+        <v>EUR3WD_SYNTH3M_Quote#0000</v>
       </c>
       <c r="E11" s="330"/>
       <c r="F11" s="191"/>
@@ -15818,8 +15645,8 @@
         <v>90</v>
       </c>
       <c r="J11" s="290">
-        <f ca="1">SynthDepo!H37</f>
-        <v>3.4835412789859868E-3</v>
+        <f>SynthDepo!H37</f>
+        <v>4.4043364642684466E-3</v>
       </c>
       <c r="K11" s="195"/>
       <c r="L11" s="295">
@@ -15827,11 +15654,10 @@
       </c>
       <c r="M11" s="193"/>
       <c r="N11" s="300">
-        <f ca="1"/>
-        <v>3.4835412789859868E-3</v>
+        <v>4.4043364642684466E-3</v>
       </c>
       <c r="O11" s="301">
-        <f ca="1">_xll.qlSimpleQuoteSetValue(D11,ROUND($N11,6),EvaluationDate)</f>
+        <f>_xll.qlSimpleQuoteSetValue(D11,ROUND($N11,6),EvaluationDate)</f>
         <v>0</v>
       </c>
       <c r="P11" s="186"/>
@@ -15847,7 +15673,7 @@
       </c>
       <c r="D12" s="338" t="str">
         <f>_xll.qlSimpleQuote(C12,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>EUR1MD_SYNTH3M_Quote#0001</v>
+        <v>EUR1MD_SYNTH3M_Quote#0000</v>
       </c>
       <c r="E12" s="331"/>
       <c r="F12" s="191"/>
@@ -15856,8 +15682,8 @@
         <v>91</v>
       </c>
       <c r="J12" s="288">
-        <f ca="1">SynthDepo!H38</f>
-        <v>3.3933179054216004E-3</v>
+        <f>SynthDepo!H38</f>
+        <v>3.9549295646363093E-3</v>
       </c>
       <c r="K12" s="195"/>
       <c r="L12" s="294">
@@ -15865,11 +15691,10 @@
       </c>
       <c r="M12" s="193"/>
       <c r="N12" s="298">
-        <f ca="1"/>
-        <v>3.3933179054216004E-3</v>
+        <v>3.9549295646363093E-3</v>
       </c>
       <c r="O12" s="299">
-        <f ca="1">_xll.qlSimpleQuoteSetValue(D12,ROUND($N12,6),EvaluationDate)</f>
+        <f>_xll.qlSimpleQuoteSetValue(D12,ROUND($N12,6),EvaluationDate)</f>
         <v>0</v>
       </c>
       <c r="P12" s="186"/>
@@ -15885,7 +15710,7 @@
       </c>
       <c r="D13" s="338" t="str">
         <f>_xll.qlSimpleQuote(C13,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>EUR2MD_SYNTH3M_Quote#0001</v>
+        <v>EUR2MD_SYNTH3M_Quote#0000</v>
       </c>
       <c r="E13" s="331"/>
       <c r="F13" s="191"/>
@@ -15894,8 +15719,8 @@
         <v>92</v>
       </c>
       <c r="J13" s="288">
-        <f ca="1">SynthDepo!H39</f>
-        <v>3.3106701214006638E-3</v>
+        <f>SynthDepo!H39</f>
+        <v>3.461038648434269E-3</v>
       </c>
       <c r="K13" s="195"/>
       <c r="L13" s="294">
@@ -15903,11 +15728,10 @@
       </c>
       <c r="M13" s="193"/>
       <c r="N13" s="298">
-        <f ca="1"/>
-        <v>3.3106701214006638E-3</v>
+        <v>3.461038648434269E-3</v>
       </c>
       <c r="O13" s="299">
-        <f ca="1">_xll.qlSimpleQuoteSetValue(D13,ROUND($N13,6),EvaluationDate)</f>
+        <f>_xll.qlSimpleQuoteSetValue(D13,ROUND($N13,6),EvaluationDate)</f>
         <v>0</v>
       </c>
       <c r="P13" s="186"/>
@@ -15923,7 +15747,7 @@
       </c>
       <c r="D14" s="340" t="str">
         <f>_xll.qlSimpleQuote(C14,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>EUR3MD_SYNTH3M_Quote#0001</v>
+        <v>EUR3MD_SYNTH3M_Quote#0000</v>
       </c>
       <c r="E14" s="332"/>
       <c r="F14" s="191"/>
@@ -15932,8 +15756,8 @@
         <v>93</v>
       </c>
       <c r="J14" s="292">
-        <f ca="1">SynthDepo!H40</f>
-        <v>3.2700000000000003E-3</v>
+        <f>SynthDepo!H40</f>
+        <v>3.1599828412207584E-3</v>
       </c>
       <c r="K14" s="195"/>
       <c r="L14" s="296">
@@ -15941,11 +15765,10 @@
       </c>
       <c r="M14" s="193"/>
       <c r="N14" s="302">
-        <f ca="1"/>
-        <v>3.2700000000000003E-3</v>
+        <v>3.1599828412207584E-3</v>
       </c>
       <c r="O14" s="303">
-        <f ca="1">_xll.qlSimpleQuoteSetValue(D14,ROUND($N14,6),EvaluationDate)</f>
+        <f>_xll.qlSimpleQuoteSetValue(D14,ROUND($N14,6),EvaluationDate)</f>
         <v>0</v>
       </c>
       <c r="P14" s="186"/>
@@ -15963,7 +15786,7 @@
       </c>
       <c r="D15" s="335" t="str">
         <f>_xll.qlSimpleQuote(C15,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>EURSND_SYNTH6M_Quote#0001</v>
+        <v>EURSND_SYNTH6M_Quote#0000</v>
       </c>
       <c r="E15" s="329" t="str">
         <f>_xll.ohRangeRetrieveError(D15)</f>
@@ -15975,8 +15798,8 @@
         <v>86</v>
       </c>
       <c r="J15" s="310">
-        <f ca="1">SynthDepo!I34</f>
-        <v>5.0854752129963002E-3</v>
+        <f>SynthDepo!I34</f>
+        <v>5.7143076026219038E-3</v>
       </c>
       <c r="K15" s="195"/>
       <c r="L15" s="311">
@@ -15984,16 +15807,15 @@
       </c>
       <c r="M15" s="193"/>
       <c r="N15" s="312">
-        <f ca="1"/>
-        <v>5.0854752129963002E-3</v>
+        <v>5.7143076026219038E-3</v>
       </c>
       <c r="O15" s="313">
-        <f ca="1">_xll.qlSimpleQuoteSetValue(D15,ROUND($N15,6),EvaluationDate)</f>
+        <f>_xll.qlSimpleQuoteSetValue(D15,ROUND($N15,6),EvaluationDate)</f>
         <v>0</v>
       </c>
       <c r="P15" s="365">
-        <f ca="1">_xll.ohTrigger(O15:O24)</f>
-        <v>1117</v>
+        <f>_xll.ohTrigger(O15:O24)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
@@ -16010,7 +15832,7 @@
       </c>
       <c r="D16" s="337" t="str">
         <f>_xll.qlSimpleQuote(C16,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>EURSWD_SYNTH6M_Quote#0001</v>
+        <v>EURSWD_SYNTH6M_Quote#0000</v>
       </c>
       <c r="E16" s="330" t="str">
         <f>_xll.ohRangeRetrieveError(D16)</f>
@@ -16022,8 +15844,8 @@
         <v>88</v>
       </c>
       <c r="J16" s="288">
-        <f ca="1">SynthDepo!I35</f>
-        <v>4.6562837224846266E-3</v>
+        <f>SynthDepo!I35</f>
+        <v>5.9635814594294475E-3</v>
       </c>
       <c r="K16" s="195"/>
       <c r="L16" s="294">
@@ -16031,11 +15853,10 @@
       </c>
       <c r="M16" s="193"/>
       <c r="N16" s="298">
-        <f ca="1"/>
-        <v>4.6562837224846266E-3</v>
+        <v>5.9635814594294475E-3</v>
       </c>
       <c r="O16" s="299">
-        <f ca="1">_xll.qlSimpleQuoteSetValue(D16,ROUND($N16,6),EvaluationDate)</f>
+        <f>_xll.qlSimpleQuoteSetValue(D16,ROUND($N16,6),EvaluationDate)</f>
         <v>0</v>
       </c>
       <c r="P16" s="196"/>
@@ -16051,7 +15872,7 @@
       </c>
       <c r="D17" s="337" t="str">
         <f>_xll.qlSimpleQuote(C17,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>EUR2WD_SYNTH6M_Quote#0001</v>
+        <v>EUR2WD_SYNTH6M_Quote#0000</v>
       </c>
       <c r="E17" s="330" t="str">
         <f>_xll.ohRangeRetrieveError(D17)</f>
@@ -16063,8 +15884,8 @@
         <v>89</v>
       </c>
       <c r="J17" s="288">
-        <f ca="1">SynthDepo!I36</f>
-        <v>4.7972269836408605E-3</v>
+        <f>SynthDepo!I36</f>
+        <v>6.0794009518842507E-3</v>
       </c>
       <c r="K17" s="195"/>
       <c r="L17" s="294">
@@ -16072,11 +15893,10 @@
       </c>
       <c r="M17" s="193"/>
       <c r="N17" s="298">
-        <f ca="1"/>
-        <v>4.7972269836408605E-3</v>
+        <v>6.0794009518842507E-3</v>
       </c>
       <c r="O17" s="299">
-        <f ca="1">_xll.qlSimpleQuoteSetValue(D17,ROUND($N17,6),EvaluationDate)</f>
+        <f>_xll.qlSimpleQuoteSetValue(D17,ROUND($N17,6),EvaluationDate)</f>
         <v>0</v>
       </c>
       <c r="P17" s="196"/>
@@ -16092,7 +15912,7 @@
       </c>
       <c r="D18" s="337" t="str">
         <f>_xll.qlSimpleQuote(C18,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>EUR3WD_SYNTH6M_Quote#0001</v>
+        <v>EUR3WD_SYNTH6M_Quote#0000</v>
       </c>
       <c r="E18" s="330" t="str">
         <f>_xll.ohRangeRetrieveError(D18)</f>
@@ -16104,8 +15924,8 @@
         <v>90</v>
       </c>
       <c r="J18" s="288">
-        <f ca="1">SynthDepo!I37</f>
-        <v>4.7983049958956591E-3</v>
+        <f>SynthDepo!I37</f>
+        <v>5.8752204444503919E-3</v>
       </c>
       <c r="K18" s="195"/>
       <c r="L18" s="294">
@@ -16113,11 +15933,10 @@
       </c>
       <c r="M18" s="193"/>
       <c r="N18" s="298">
-        <f ca="1"/>
-        <v>4.7983049958956591E-3</v>
+        <v>5.8752204444503919E-3</v>
       </c>
       <c r="O18" s="299">
-        <f ca="1">_xll.qlSimpleQuoteSetValue(D18,ROUND($N18,6),EvaluationDate)</f>
+        <f>_xll.qlSimpleQuoteSetValue(D18,ROUND($N18,6),EvaluationDate)</f>
         <v>0</v>
       </c>
       <c r="P18" s="196"/>
@@ -16133,7 +15952,7 @@
       </c>
       <c r="D19" s="337" t="str">
         <f>_xll.qlSimpleQuote(C19,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>EUR1MD_SYNTH6M_Quote#0001</v>
+        <v>EUR1MD_SYNTH6M_Quote#0000</v>
       </c>
       <c r="E19" s="330" t="str">
         <f>_xll.ohRangeRetrieveError(D19)</f>
@@ -16145,8 +15964,8 @@
         <v>91</v>
       </c>
       <c r="J19" s="288">
-        <f ca="1">SynthDepo!I38</f>
-        <v>4.6896525118998861E-3</v>
+        <f>SynthDepo!I38</f>
+        <v>5.4272225038067851E-3</v>
       </c>
       <c r="K19" s="195"/>
       <c r="L19" s="294">
@@ -16154,11 +15973,10 @@
       </c>
       <c r="M19" s="193"/>
       <c r="N19" s="298">
-        <f ca="1"/>
-        <v>4.6896525118998861E-3</v>
+        <v>5.4272225038067851E-3</v>
       </c>
       <c r="O19" s="299">
-        <f ca="1">_xll.qlSimpleQuoteSetValue(D19,ROUND($N19,6),EvaluationDate)</f>
+        <f>_xll.qlSimpleQuoteSetValue(D19,ROUND($N19,6),EvaluationDate)</f>
         <v>0</v>
       </c>
       <c r="P19" s="196"/>
@@ -16174,7 +15992,7 @@
       </c>
       <c r="D20" s="337" t="str">
         <f>_xll.qlSimpleQuote(C20,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>EUR2MD_SYNTH6M_Quote#0001</v>
+        <v>EUR2MD_SYNTH6M_Quote#0000</v>
       </c>
       <c r="E20" s="330" t="str">
         <f>_xll.ohRangeRetrieveError(D20)</f>
@@ -16186,8 +16004,8 @@
         <v>92</v>
       </c>
       <c r="J20" s="288">
-        <f ca="1">SynthDepo!I39</f>
-        <v>4.55356030762793E-3</v>
+        <f>SynthDepo!I39</f>
+        <v>4.9370461158472368E-3</v>
       </c>
       <c r="K20" s="195"/>
       <c r="L20" s="294">
@@ -16195,11 +16013,10 @@
       </c>
       <c r="M20" s="193"/>
       <c r="N20" s="298">
-        <f ca="1"/>
-        <v>4.55356030762793E-3</v>
+        <v>4.9370461158472368E-3</v>
       </c>
       <c r="O20" s="299">
-        <f ca="1">_xll.qlSimpleQuoteSetValue(D20,ROUND($N20,6),EvaluationDate)</f>
+        <f>_xll.qlSimpleQuoteSetValue(D20,ROUND($N20,6),EvaluationDate)</f>
         <v>0</v>
       </c>
       <c r="P20" s="196"/>
@@ -16215,7 +16032,7 @@
       </c>
       <c r="D21" s="337" t="str">
         <f>_xll.qlSimpleQuote(C21,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>EUR3MD_SYNTH6M_Quote#0001</v>
+        <v>EUR3MD_SYNTH6M_Quote#0000</v>
       </c>
       <c r="E21" s="330" t="str">
         <f>_xll.ohRangeRetrieveError(D21)</f>
@@ -16227,8 +16044,8 @@
         <v>93</v>
       </c>
       <c r="J21" s="288">
-        <f ca="1">SynthDepo!I40</f>
-        <v>4.4576028549331067E-3</v>
+        <f>SynthDepo!I40</f>
+        <v>4.6399610112377674E-3</v>
       </c>
       <c r="K21" s="195"/>
       <c r="L21" s="294">
@@ -16236,11 +16053,10 @@
       </c>
       <c r="M21" s="193"/>
       <c r="N21" s="298">
-        <f ca="1"/>
-        <v>4.4576028549331067E-3</v>
+        <v>4.6399610112377674E-3</v>
       </c>
       <c r="O21" s="299">
-        <f ca="1">_xll.qlSimpleQuoteSetValue(D21,ROUND($N21,6),EvaluationDate)</f>
+        <f>_xll.qlSimpleQuoteSetValue(D21,ROUND($N21,6),EvaluationDate)</f>
         <v>0</v>
       </c>
       <c r="P21" s="196"/>
@@ -16256,7 +16072,7 @@
       </c>
       <c r="D22" s="337" t="str">
         <f>_xll.qlSimpleQuote(C22,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>EUR4MD_SYNTH6M_Quote#0001</v>
+        <v>EUR4MD_SYNTH6M_Quote#0000</v>
       </c>
       <c r="E22" s="330" t="str">
         <f>_xll.ohRangeRetrieveError(D22)</f>
@@ -16268,8 +16084,8 @@
         <v>94</v>
       </c>
       <c r="J22" s="288">
-        <f ca="1">SynthDepo!I41</f>
-        <v>4.3619149053915254E-3</v>
+        <f>SynthDepo!I41</f>
+        <v>4.4228759066472553E-3</v>
       </c>
       <c r="K22" s="195"/>
       <c r="L22" s="294">
@@ -16277,11 +16093,10 @@
       </c>
       <c r="M22" s="193"/>
       <c r="N22" s="298">
-        <f ca="1"/>
-        <v>4.3619149053915254E-3</v>
+        <v>4.4228759066472553E-3</v>
       </c>
       <c r="O22" s="299">
-        <f ca="1">_xll.qlSimpleQuoteSetValue(D22,ROUND($N22,6),EvaluationDate)</f>
+        <f>_xll.qlSimpleQuoteSetValue(D22,ROUND($N22,6),EvaluationDate)</f>
         <v>0</v>
       </c>
       <c r="P22" s="196"/>
@@ -16297,7 +16112,7 @@
       </c>
       <c r="D23" s="337" t="str">
         <f>_xll.qlSimpleQuote(C23,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>EUR5MD_SYNTH6M_Quote#0001</v>
+        <v>EUR5MD_SYNTH6M_Quote#0000</v>
       </c>
       <c r="E23" s="330" t="str">
         <f>_xll.ohRangeRetrieveError(D23)</f>
@@ -16309,8 +16124,8 @@
         <v>95</v>
       </c>
       <c r="J23" s="288">
-        <f ca="1">SynthDepo!I42</f>
-        <v>4.3059574526954913E-3</v>
+        <f>SynthDepo!I42</f>
+        <v>4.239245160291262E-3</v>
       </c>
       <c r="K23" s="195"/>
       <c r="L23" s="294">
@@ -16318,11 +16133,10 @@
       </c>
       <c r="M23" s="193"/>
       <c r="N23" s="298">
-        <f ca="1"/>
-        <v>4.3059574526954913E-3</v>
+        <v>4.239245160291262E-3</v>
       </c>
       <c r="O23" s="299">
-        <f ca="1">_xll.qlSimpleQuoteSetValue(D23,ROUND($N23,6),EvaluationDate)</f>
+        <f>_xll.qlSimpleQuoteSetValue(D23,ROUND($N23,6),EvaluationDate)</f>
         <v>0</v>
       </c>
       <c r="P23" s="196"/>
@@ -16338,7 +16152,7 @@
       </c>
       <c r="D24" s="351" t="str">
         <f>_xll.qlSimpleQuote(C24,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>EUR6MD_SYNTH6M_Quote#0001</v>
+        <v>EUR6MD_SYNTH6M_Quote#0000</v>
       </c>
       <c r="E24" s="330" t="str">
         <f>_xll.ohRangeRetrieveError(D24)</f>
@@ -16350,8 +16164,8 @@
         <v>96</v>
       </c>
       <c r="J24" s="292">
-        <f ca="1">SynthDepo!I43</f>
-        <v>4.2599999999999999E-3</v>
+        <f>SynthDepo!I43</f>
+        <v>4.0652513388680705E-3</v>
       </c>
       <c r="K24" s="195"/>
       <c r="L24" s="296">
@@ -16359,11 +16173,10 @@
       </c>
       <c r="M24" s="193"/>
       <c r="N24" s="302">
-        <f ca="1"/>
-        <v>4.2599999999999999E-3</v>
+        <v>4.0652513388680705E-3</v>
       </c>
       <c r="O24" s="303">
-        <f ca="1">_xll.qlSimpleQuoteSetValue(D24,ROUND($N24,6),EvaluationDate)</f>
+        <f>_xll.qlSimpleQuoteSetValue(D24,ROUND($N24,6),EvaluationDate)</f>
         <v>0</v>
       </c>
       <c r="P24" s="196"/>
@@ -16381,7 +16194,7 @@
       </c>
       <c r="D25" s="335" t="str">
         <f>_xll.qlSimpleQuote(C25,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>EURSND_SYNTH1Y_Quote#0001</v>
+        <v>EURSND_SYNTH1Y_Quote#0000</v>
       </c>
       <c r="E25" s="329" t="str">
         <f>_xll.ohRangeRetrieveError(D25)</f>
@@ -16393,8 +16206,8 @@
         <v>86</v>
       </c>
       <c r="J25" s="310">
-        <f ca="1">SynthDepo!J34</f>
-        <v>7.073975067342547E-3</v>
+        <f>SynthDepo!J34</f>
+        <v>7.4485455801384815E-3</v>
       </c>
       <c r="K25" s="195"/>
       <c r="L25" s="311">
@@ -16402,16 +16215,15 @@
       </c>
       <c r="M25" s="193"/>
       <c r="N25" s="312">
-        <f ca="1"/>
-        <v>7.073975067342547E-3</v>
+        <v>7.4485455801384815E-3</v>
       </c>
       <c r="O25" s="313">
-        <f ca="1">_xll.qlSimpleQuoteSetValue(D25,ROUND($N25,6),EvaluationDate)</f>
+        <f>_xll.qlSimpleQuoteSetValue(D25,ROUND($N25,6),EvaluationDate)</f>
         <v>0</v>
       </c>
       <c r="P25" s="365">
-        <f ca="1">_xll.ohTrigger(O25:O40)</f>
-        <v>1117</v>
+        <f>_xll.ohTrigger(O25:O40)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
@@ -16428,7 +16240,7 @@
       </c>
       <c r="D26" s="337" t="str">
         <f>_xll.qlSimpleQuote(C26,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>EURSWD_SYNTH1Y_Quote#0001</v>
+        <v>EURSWD_SYNTH1Y_Quote#0000</v>
       </c>
       <c r="E26" s="330" t="str">
         <f>_xll.ohRangeRetrieveError(D26)</f>
@@ -16440,8 +16252,8 @@
         <v>88</v>
       </c>
       <c r="J26" s="288">
-        <f ca="1">SynthDepo!J35</f>
-        <v>6.6425908629634007E-3</v>
+        <f>SynthDepo!J35</f>
+        <v>7.7113859744667983E-3</v>
       </c>
       <c r="K26" s="195"/>
       <c r="L26" s="294">
@@ -16449,11 +16261,10 @@
       </c>
       <c r="M26" s="193"/>
       <c r="N26" s="298">
-        <f ca="1"/>
-        <v>6.6425908629634007E-3</v>
+        <v>7.7113859744667983E-3</v>
       </c>
       <c r="O26" s="299">
-        <f ca="1">_xll.qlSimpleQuoteSetValue(D26,ROUND($N26,6),EvaluationDate)</f>
+        <f>_xll.qlSimpleQuoteSetValue(D26,ROUND($N26,6),EvaluationDate)</f>
         <v>0</v>
       </c>
       <c r="P26" s="196"/>
@@ -16469,7 +16280,7 @@
       </c>
       <c r="D27" s="337" t="str">
         <f>_xll.qlSimpleQuote(C27,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>EUR2WD_SYNTH1Y_Quote#0001</v>
+        <v>EUR2WD_SYNTH1Y_Quote#0000</v>
       </c>
       <c r="E27" s="330" t="str">
         <f>_xll.ohRangeRetrieveError(D27)</f>
@@ -16481,8 +16292,8 @@
         <v>89</v>
       </c>
       <c r="J27" s="288">
-        <f ca="1">SynthDepo!J36</f>
-        <v>6.7809759579409157E-3</v>
+        <f>SynthDepo!J36</f>
+        <v>7.8430330940291709E-3</v>
       </c>
       <c r="K27" s="195"/>
       <c r="L27" s="294">
@@ -16490,11 +16301,10 @@
       </c>
       <c r="M27" s="193"/>
       <c r="N27" s="298">
-        <f ca="1"/>
-        <v>6.7809759579409157E-3</v>
+        <v>7.8430330940291709E-3</v>
       </c>
       <c r="O27" s="299">
-        <f ca="1">_xll.qlSimpleQuoteSetValue(D27,ROUND($N27,6),EvaluationDate)</f>
+        <f>_xll.qlSimpleQuoteSetValue(D27,ROUND($N27,6),EvaluationDate)</f>
         <v>0</v>
       </c>
       <c r="P27" s="196"/>
@@ -16510,7 +16320,7 @@
       </c>
       <c r="D28" s="337" t="str">
         <f>_xll.qlSimpleQuote(C28,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>EUR3WD_SYNTH1Y_Quote#0001</v>
+        <v>EUR3WD_SYNTH1Y_Quote#0000</v>
       </c>
       <c r="E28" s="330" t="str">
         <f>_xll.ohRangeRetrieveError(D28)</f>
@@ -16522,8 +16332,8 @@
         <v>90</v>
       </c>
       <c r="J28" s="288">
-        <f ca="1">SynthDepo!J37</f>
-        <v>6.7791303517057509E-3</v>
+        <f>SynthDepo!J37</f>
+        <v>7.6546802137028823E-3</v>
       </c>
       <c r="K28" s="195"/>
       <c r="L28" s="294">
@@ -16531,11 +16341,10 @@
       </c>
       <c r="M28" s="193"/>
       <c r="N28" s="298">
-        <f ca="1"/>
-        <v>6.7791303517057509E-3</v>
+        <v>7.6546802137028823E-3</v>
       </c>
       <c r="O28" s="299">
-        <f ca="1">_xll.qlSimpleQuoteSetValue(D28,ROUND($N28,6),EvaluationDate)</f>
+        <f>_xll.qlSimpleQuoteSetValue(D28,ROUND($N28,6),EvaluationDate)</f>
         <v>0</v>
       </c>
       <c r="P28" s="196"/>
@@ -16551,7 +16360,7 @@
       </c>
       <c r="D29" s="337" t="str">
         <f>_xll.qlSimpleQuote(C29,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>EUR1MD_SYNTH1Y_Quote#0001</v>
+        <v>EUR1MD_SYNTH1Y_Quote#0000</v>
       </c>
       <c r="E29" s="330" t="str">
         <f>_xll.ohRangeRetrieveError(D29)</f>
@@ -16563,8 +16372,8 @@
         <v>91</v>
       </c>
       <c r="J29" s="290">
-        <f ca="1">SynthDepo!J38</f>
-        <v>6.6668233445975229E-3</v>
+        <f>SynthDepo!J38</f>
+        <v>7.2315542585140273E-3</v>
       </c>
       <c r="K29" s="195"/>
       <c r="L29" s="295">
@@ -16572,11 +16381,10 @@
       </c>
       <c r="M29" s="193"/>
       <c r="N29" s="300">
-        <f ca="1"/>
-        <v>6.6668233445975229E-3</v>
+        <v>7.2315542585140273E-3</v>
       </c>
       <c r="O29" s="301">
-        <f ca="1">_xll.qlSimpleQuoteSetValue(D29,ROUND($N29,6),EvaluationDate)</f>
+        <f>_xll.qlSimpleQuoteSetValue(D29,ROUND($N29,6),EvaluationDate)</f>
         <v>0</v>
       </c>
       <c r="P29" s="196"/>
@@ -16592,7 +16400,7 @@
       </c>
       <c r="D30" s="337" t="str">
         <f>_xll.qlSimpleQuote(C30,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>EUR2MD_SYNTH1Y_Quote#0001</v>
+        <v>EUR2MD_SYNTH1Y_Quote#0000</v>
       </c>
       <c r="E30" s="330" t="str">
         <f>_xll.ohRangeRetrieveError(D30)</f>
@@ -16604,8 +16412,8 @@
         <v>92</v>
       </c>
       <c r="J30" s="288">
-        <f ca="1">SynthDepo!J39</f>
-        <v>6.5201330232994448E-3</v>
+        <f>SynthDepo!J39</f>
+        <v>6.806949468571551E-3</v>
       </c>
       <c r="K30" s="195"/>
       <c r="L30" s="294">
@@ -16613,11 +16421,10 @@
       </c>
       <c r="M30" s="193"/>
       <c r="N30" s="298">
-        <f ca="1"/>
-        <v>6.5201330232994448E-3</v>
+        <v>6.806949468571551E-3</v>
       </c>
       <c r="O30" s="299">
-        <f ca="1">_xll.qlSimpleQuoteSetValue(D30,ROUND($N30,6),EvaluationDate)</f>
+        <f>_xll.qlSimpleQuoteSetValue(D30,ROUND($N30,6),EvaluationDate)</f>
         <v>0</v>
       </c>
       <c r="P30" s="365"/>
@@ -16633,7 +16440,7 @@
       </c>
       <c r="D31" s="337" t="str">
         <f>_xll.qlSimpleQuote(C31,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>EUR3MD_SYNTH1Y_Quote#0001</v>
+        <v>EUR3MD_SYNTH1Y_Quote#0000</v>
       </c>
       <c r="E31" s="330" t="str">
         <f>_xll.ohRangeRetrieveError(D31)</f>
@@ -16645,8 +16452,8 @@
         <v>93</v>
       </c>
       <c r="J31" s="288">
-        <f ca="1">SynthDepo!J40</f>
-        <v>6.4132120012672569E-3</v>
+        <f>SynthDepo!J40</f>
+        <v>6.5799581411527478E-3</v>
       </c>
       <c r="K31" s="195"/>
       <c r="L31" s="294">
@@ -16654,11 +16461,10 @@
       </c>
       <c r="M31" s="193"/>
       <c r="N31" s="298">
-        <f ca="1"/>
-        <v>6.4132120012672569E-3</v>
+        <v>6.5799581411527478E-3</v>
       </c>
       <c r="O31" s="299">
-        <f ca="1">_xll.qlSimpleQuoteSetValue(D31,ROUND($N31,6),EvaluationDate)</f>
+        <f>_xll.qlSimpleQuoteSetValue(D31,ROUND($N31,6),EvaluationDate)</f>
         <v>0</v>
       </c>
       <c r="P31" s="196"/>
@@ -16674,7 +16480,7 @@
       </c>
       <c r="D32" s="337" t="str">
         <f>_xll.qlSimpleQuote(C32,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>EUR4MD_SYNTH1Y_Quote#0001</v>
+        <v>EUR4MD_SYNTH1Y_Quote#0000</v>
       </c>
       <c r="E32" s="330" t="str">
         <f>_xll.ohRangeRetrieveError(D32)</f>
@@ -16686,8 +16492,8 @@
         <v>94</v>
       </c>
       <c r="J32" s="288">
-        <f ca="1">SynthDepo!J41</f>
-        <v>6.3058295777658176E-3</v>
+        <f>SynthDepo!J41</f>
+        <v>6.4329668137529002E-3</v>
       </c>
       <c r="K32" s="195"/>
       <c r="L32" s="294">
@@ -16695,11 +16501,10 @@
       </c>
       <c r="M32" s="193"/>
       <c r="N32" s="298">
-        <f ca="1"/>
-        <v>6.3058295777658176E-3</v>
+        <v>6.4329668137529002E-3</v>
       </c>
       <c r="O32" s="299">
-        <f ca="1">_xll.qlSimpleQuoteSetValue(D32,ROUND($N32,6),EvaluationDate)</f>
+        <f>_xll.qlSimpleQuoteSetValue(D32,ROUND($N32,6),EvaluationDate)</f>
         <v>0</v>
       </c>
       <c r="P32" s="196"/>
@@ -16715,7 +16520,7 @@
       </c>
       <c r="D33" s="337" t="str">
         <f>_xll.qlSimpleQuote(C33,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>EUR5MD_SYNTH1Y_Quote#0001</v>
+        <v>EUR5MD_SYNTH1Y_Quote#0000</v>
       </c>
       <c r="E33" s="330" t="str">
         <f>_xll.ohRangeRetrieveError(D33)</f>
@@ -16727,8 +16532,8 @@
         <v>95</v>
       </c>
       <c r="J33" s="288">
-        <f ca="1">SynthDepo!J42</f>
-        <v>6.238908555732418E-3</v>
+        <f>SynthDepo!J42</f>
+        <v>6.317168755000776E-3</v>
       </c>
       <c r="K33" s="195"/>
       <c r="L33" s="294">
@@ -16736,11 +16541,10 @@
       </c>
       <c r="M33" s="193"/>
       <c r="N33" s="298">
-        <f ca="1"/>
-        <v>6.238908555732418E-3</v>
+        <v>6.317168755000776E-3</v>
       </c>
       <c r="O33" s="299">
-        <f ca="1">_xll.qlSimpleQuoteSetValue(D33,ROUND($N33,6),EvaluationDate)</f>
+        <f>_xll.qlSimpleQuoteSetValue(D33,ROUND($N33,6),EvaluationDate)</f>
         <v>0</v>
       </c>
       <c r="P33" s="196"/>
@@ -16756,7 +16560,7 @@
       </c>
       <c r="D34" s="337" t="str">
         <f>_xll.qlSimpleQuote(C34,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>EUR6MD_SYNTH1Y_Quote#0001</v>
+        <v>EUR6MD_SYNTH1Y_Quote#0000</v>
       </c>
       <c r="E34" s="330" t="str">
         <f>_xll.ohRangeRetrieveError(D34)</f>
@@ -16768,8 +16572,8 @@
         <v>96</v>
       </c>
       <c r="J34" s="288">
-        <f ca="1">SynthDepo!J43</f>
-        <v>6.181987533699561E-3</v>
+        <f>SynthDepo!J43</f>
+        <v>6.2177908899418407E-3</v>
       </c>
       <c r="K34" s="195"/>
       <c r="L34" s="294">
@@ -16777,11 +16581,10 @@
       </c>
       <c r="M34" s="193"/>
       <c r="N34" s="298">
-        <f ca="1"/>
-        <v>6.181987533699561E-3</v>
+        <v>6.2177908899418407E-3</v>
       </c>
       <c r="O34" s="299">
-        <f ca="1">_xll.qlSimpleQuoteSetValue(D34,ROUND($N34,6),EvaluationDate)</f>
+        <f>_xll.qlSimpleQuoteSetValue(D34,ROUND($N34,6),EvaluationDate)</f>
         <v>0</v>
       </c>
       <c r="P34" s="196"/>
@@ -16797,7 +16600,7 @@
       </c>
       <c r="D35" s="337" t="str">
         <f>_xll.qlSimpleQuote(C35,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>EUR7MD_SYNTH1Y_Quote#0001</v>
+        <v>EUR7MD_SYNTH1Y_Quote#0000</v>
       </c>
       <c r="E35" s="330" t="str">
         <f>_xll.ohRangeRetrieveError(D35)</f>
@@ -16809,8 +16612,8 @@
         <v>97</v>
       </c>
       <c r="J35" s="288">
-        <f ca="1">SynthDepo!J44</f>
-        <v>6.1148358109321737E-3</v>
+        <f>SynthDepo!J44</f>
+        <v>6.1343793683338709E-3</v>
       </c>
       <c r="K35" s="195"/>
       <c r="L35" s="294">
@@ -16818,11 +16621,10 @@
       </c>
       <c r="M35" s="193"/>
       <c r="N35" s="298">
-        <f ca="1"/>
-        <v>6.1148358109321737E-3</v>
+        <v>6.1343793683338709E-3</v>
       </c>
       <c r="O35" s="299">
-        <f ca="1">_xll.qlSimpleQuoteSetValue(D35,ROUND($N35,6),EvaluationDate)</f>
+        <f>_xll.qlSimpleQuoteSetValue(D35,ROUND($N35,6),EvaluationDate)</f>
         <v>0</v>
       </c>
       <c r="P35" s="196"/>
@@ -16838,7 +16640,7 @@
       </c>
       <c r="D36" s="337" t="str">
         <f>_xll.qlSimpleQuote(C36,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>EUR8MD_SYNTH1Y_Quote#0001</v>
+        <v>EUR8MD_SYNTH1Y_Quote#0000</v>
       </c>
       <c r="E36" s="330" t="str">
         <f>_xll.ohRangeRetrieveError(D36)</f>
@@ -16850,8 +16652,8 @@
         <v>98</v>
       </c>
       <c r="J36" s="288">
-        <f ca="1">SynthDepo!J45</f>
-        <v>6.0679147888992252E-3</v>
+        <f>SynthDepo!J45</f>
+        <v>6.0673880408391046E-3</v>
       </c>
       <c r="K36" s="195"/>
       <c r="L36" s="294">
@@ -16859,11 +16661,10 @@
       </c>
       <c r="M36" s="193"/>
       <c r="N36" s="298">
-        <f ca="1"/>
-        <v>6.0679147888992252E-3</v>
+        <v>6.0673880408391046E-3</v>
       </c>
       <c r="O36" s="299">
-        <f ca="1">_xll.qlSimpleQuoteSetValue(D36,ROUND($N36,6),EvaluationDate)</f>
+        <f>_xll.qlSimpleQuoteSetValue(D36,ROUND($N36,6),EvaluationDate)</f>
         <v>0</v>
       </c>
       <c r="P36" s="196"/>
@@ -16879,7 +16680,7 @@
       </c>
       <c r="D37" s="337" t="str">
         <f>_xll.qlSimpleQuote(C37,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>EUR9MD_SYNTH1Y_Quote#0001</v>
+        <v>EUR9MD_SYNTH1Y_Quote#0000</v>
       </c>
       <c r="E37" s="330" t="str">
         <f>_xll.ohRangeRetrieveError(D37)</f>
@@ -16891,8 +16692,8 @@
         <v>99</v>
       </c>
       <c r="J37" s="288">
-        <f ca="1">SynthDepo!J46</f>
-        <v>6.0403016646630031E-3</v>
+        <f>SynthDepo!J46</f>
+        <v>6.0092034447157541E-3</v>
       </c>
       <c r="K37" s="195"/>
       <c r="L37" s="294">
@@ -16900,11 +16701,10 @@
       </c>
       <c r="M37" s="193"/>
       <c r="N37" s="298">
-        <f ca="1"/>
-        <v>6.0403016646630031E-3</v>
+        <v>6.0092034447157541E-3</v>
       </c>
       <c r="O37" s="299">
-        <f ca="1">_xll.qlSimpleQuoteSetValue(D37,ROUND($N37,6),EvaluationDate)</f>
+        <f>_xll.qlSimpleQuoteSetValue(D37,ROUND($N37,6),EvaluationDate)</f>
         <v>0</v>
       </c>
       <c r="P37" s="196"/>
@@ -16920,7 +16720,7 @@
       </c>
       <c r="D38" s="337" t="str">
         <f>_xll.qlSimpleQuote(C38,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>EUR10MD_SYNTH1Y_Quote#0001</v>
+        <v>EUR10MD_SYNTH1Y_Quote#0000</v>
       </c>
       <c r="E38" s="330" t="str">
         <f>_xll.ohRangeRetrieveError(D38)</f>
@@ -16932,8 +16732,8 @@
         <v>100</v>
       </c>
       <c r="J38" s="288">
-        <f ca="1">SynthDepo!J47</f>
-        <v>6.0136113433644509E-3</v>
+        <f>SynthDepo!J47</f>
+        <v>5.9557919231078187E-3</v>
       </c>
       <c r="K38" s="195"/>
       <c r="L38" s="294">
@@ -16941,11 +16741,10 @@
       </c>
       <c r="M38" s="193"/>
       <c r="N38" s="298">
-        <f ca="1"/>
-        <v>6.0136113433644509E-3</v>
+        <v>5.9557919231078187E-3</v>
       </c>
       <c r="O38" s="299">
-        <f ca="1">_xll.qlSimpleQuoteSetValue(D38,ROUND($N38,6),EvaluationDate)</f>
+        <f>_xll.qlSimpleQuoteSetValue(D38,ROUND($N38,6),EvaluationDate)</f>
         <v>0</v>
       </c>
       <c r="P38" s="196"/>
@@ -16961,7 +16760,7 @@
       </c>
       <c r="D39" s="337" t="str">
         <f>_xll.qlSimpleQuote(C39,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>EUR11MD_SYNTH1Y_Quote#0001</v>
+        <v>EUR11MD_SYNTH1Y_Quote#0000</v>
       </c>
       <c r="E39" s="330" t="str">
         <f>_xll.ohRangeRetrieveError(D39)</f>
@@ -16973,8 +16772,8 @@
         <v>101</v>
       </c>
       <c r="J39" s="288">
-        <f ca="1">SynthDepo!J48</f>
-        <v>5.9971517228001462E-3</v>
+        <f>SynthDepo!J48</f>
+        <v>5.8999938642422386E-3</v>
       </c>
       <c r="K39" s="195"/>
       <c r="L39" s="294">
@@ -16982,11 +16781,10 @@
       </c>
       <c r="M39" s="193"/>
       <c r="N39" s="298">
-        <f ca="1"/>
-        <v>5.9971517228001462E-3</v>
+        <v>5.8999938642422386E-3</v>
       </c>
       <c r="O39" s="299">
-        <f ca="1">_xll.qlSimpleQuoteSetValue(D39,ROUND($N39,6),EvaluationDate)</f>
+        <f>_xll.qlSimpleQuoteSetValue(D39,ROUND($N39,6),EvaluationDate)</f>
         <v>0</v>
       </c>
       <c r="P39" s="196"/>
@@ -17002,7 +16800,7 @@
       </c>
       <c r="D40" s="337" t="str">
         <f>_xll.qlSimpleQuote(C40,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>EUR1YD_SYNTH1Y_Quote#0001</v>
+        <v>EUR1YD_SYNTH1Y_Quote#0000</v>
       </c>
       <c r="E40" s="330" t="str">
         <f>_xll.ohRangeRetrieveError(D40)</f>
@@ -17014,8 +16812,8 @@
         <v>102</v>
       </c>
       <c r="J40" s="292">
-        <f ca="1">SynthDepo!J49</f>
-        <v>5.9899999999999997E-3</v>
+        <f>SynthDepo!J49</f>
+        <v>5.8541958053764066E-3</v>
       </c>
       <c r="K40" s="195"/>
       <c r="L40" s="296">
@@ -17023,11 +16821,10 @@
       </c>
       <c r="M40" s="193"/>
       <c r="N40" s="302">
-        <f ca="1"/>
-        <v>5.9899999999999997E-3</v>
+        <v>5.8541958053764066E-3</v>
       </c>
       <c r="O40" s="303">
-        <f ca="1">_xll.qlSimpleQuoteSetValue(D40,ROUND($N40,6),EvaluationDate)</f>
+        <f>_xll.qlSimpleQuoteSetValue(D40,ROUND($N40,6),EvaluationDate)</f>
         <v>0</v>
       </c>
       <c r="P40" s="365"/>
@@ -17046,7 +16843,7 @@
       </c>
       <c r="D41" s="355" t="str">
         <f>_xll.qlSimpleQuote(C41,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR1x13F_SYNTH1Y_Quote#0001</v>
+        <v>EUR1x13F_SYNTH1Y_Quote#0000</v>
       </c>
       <c r="E41" s="329" t="str">
         <f>_xll.ohRangeRetrieveError(D41)</f>
@@ -17061,8 +16858,8 @@
         <v>1x13F</v>
       </c>
       <c r="J41" s="318">
-        <f ca="1">SynthFra!N8</f>
-        <v>5.9160428582974997E-3</v>
+        <f>SynthFra!N8</f>
+        <v>5.6537188143871734E-3</v>
       </c>
       <c r="K41" s="251"/>
       <c r="L41" s="321">
@@ -17070,16 +16867,15 @@
       </c>
       <c r="M41" s="252"/>
       <c r="N41" s="323">
-        <f ca="1"/>
-        <v>5.9160428582974997E-3</v>
+        <v>5.6537188143871734E-3</v>
       </c>
       <c r="O41" s="324">
-        <f ca="1">_xll.qlSimpleQuoteSetValue(D41,ROUND(N41,6),EvaluationDate)</f>
+        <f>_xll.qlSimpleQuoteSetValue(D41,ROUND(N41,6),EvaluationDate)</f>
         <v>0</v>
       </c>
       <c r="P41" s="365">
-        <f ca="1">_xll.ohTrigger(O41:O84)</f>
-        <v>1117</v>
+        <f>_xll.ohTrigger(O41:O84)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.2">
@@ -17096,7 +16892,7 @@
       </c>
       <c r="D42" s="337" t="str">
         <f>_xll.qlSimpleQuote(C42,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR2x14F_SYNTH1Y_Quote#0001</v>
+        <v>EUR2x14F_SYNTH1Y_Quote#0000</v>
       </c>
       <c r="E42" s="330" t="str">
         <f>_xll.ohRangeRetrieveError(D42)</f>
@@ -17111,8 +16907,8 @@
         <v>2x14F</v>
       </c>
       <c r="J42" s="318">
-        <f ca="1">SynthFra!N9</f>
-        <v>5.8788137983355939E-3</v>
+        <f>SynthFra!N9</f>
+        <v>5.5405657945201067E-3</v>
       </c>
       <c r="K42" s="252"/>
       <c r="L42" s="321">
@@ -17120,11 +16916,10 @@
       </c>
       <c r="M42" s="252"/>
       <c r="N42" s="323">
-        <f ca="1"/>
-        <v>5.8788137983355939E-3</v>
+        <v>5.5405657945201067E-3</v>
       </c>
       <c r="O42" s="324">
-        <f ca="1">_xll.qlSimpleQuoteSetValue(D42,ROUND(N42,6),EvaluationDate)</f>
+        <f>_xll.qlSimpleQuoteSetValue(D42,ROUND(N42,6),EvaluationDate)</f>
         <v>0</v>
       </c>
       <c r="P42" s="196"/>
@@ -17143,7 +16938,7 @@
       </c>
       <c r="D43" s="337" t="str">
         <f>_xll.qlSimpleQuote(C43,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR3x15F_SYNTH1Y_Quote#0001</v>
+        <v>EUR3x15F_SYNTH1Y_Quote#0000</v>
       </c>
       <c r="E43" s="330" t="str">
         <f>_xll.ohRangeRetrieveError(D43)</f>
@@ -17158,8 +16953,8 @@
         <v>3x15F</v>
       </c>
       <c r="J43" s="318">
-        <f ca="1">SynthFra!N10</f>
-        <v>5.8598696252462187E-3</v>
+        <f>SynthFra!N10</f>
+        <v>5.437100211541571E-3</v>
       </c>
       <c r="K43" s="252"/>
       <c r="L43" s="321">
@@ -17167,11 +16962,10 @@
       </c>
       <c r="M43" s="252"/>
       <c r="N43" s="323">
-        <f ca="1"/>
-        <v>5.8598696252462187E-3</v>
+        <v>5.437100211541571E-3</v>
       </c>
       <c r="O43" s="324">
-        <f ca="1">_xll.qlSimpleQuoteSetValue(D43,ROUND(N43,6),EvaluationDate)</f>
+        <f>_xll.qlSimpleQuoteSetValue(D43,ROUND(N43,6),EvaluationDate)</f>
         <v>0</v>
       </c>
       <c r="P43" s="196"/>
@@ -17190,7 +16984,7 @@
       </c>
       <c r="D44" s="337" t="str">
         <f>_xll.qlSimpleQuote(C44,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR4x16F_SYNTH1Y_Quote#0001</v>
+        <v>EUR4x16F_SYNTH1Y_Quote#0000</v>
       </c>
       <c r="E44" s="330" t="str">
         <f>_xll.ohRangeRetrieveError(D44)</f>
@@ -17205,8 +16999,8 @@
         <v>4x16F</v>
       </c>
       <c r="J44" s="318">
-        <f ca="1">SynthFra!N11</f>
-        <v>5.8651503419974906E-3</v>
+        <f>SynthFra!N11</f>
+        <v>5.3457261205725071E-3</v>
       </c>
       <c r="K44" s="252"/>
       <c r="L44" s="321">
@@ -17214,11 +17008,10 @@
       </c>
       <c r="M44" s="252"/>
       <c r="N44" s="323">
-        <f ca="1"/>
-        <v>5.8651503419974906E-3</v>
+        <v>5.3457261205725071E-3</v>
       </c>
       <c r="O44" s="324">
-        <f ca="1">_xll.qlSimpleQuoteSetValue(D44,ROUND(N44,6),EvaluationDate)</f>
+        <f>_xll.qlSimpleQuoteSetValue(D44,ROUND(N44,6),EvaluationDate)</f>
         <v>0</v>
       </c>
       <c r="P44" s="196"/>
@@ -17237,7 +17030,7 @@
       </c>
       <c r="D45" s="337" t="str">
         <f>_xll.qlSimpleQuote(C45,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR5x17F_SYNTH1Y_Quote#0001</v>
+        <v>EUR5x17F_SYNTH1Y_Quote#0000</v>
       </c>
       <c r="E45" s="330" t="str">
         <f>_xll.ohRangeRetrieveError(D45)</f>
@@ -17252,8 +17045,8 @@
         <v>5x17F</v>
       </c>
       <c r="J45" s="318">
-        <f ca="1">SynthFra!N12</f>
-        <v>5.883327640818569E-3</v>
+        <f>SynthFra!N12</f>
+        <v>5.2752090358086983E-3</v>
       </c>
       <c r="K45" s="252"/>
       <c r="L45" s="321">
@@ -17261,11 +17054,10 @@
       </c>
       <c r="M45" s="252"/>
       <c r="N45" s="323">
-        <f ca="1"/>
-        <v>5.883327640818569E-3</v>
+        <v>5.2752090358086983E-3</v>
       </c>
       <c r="O45" s="324">
-        <f ca="1">_xll.qlSimpleQuoteSetValue(D45,ROUND(N45,6),EvaluationDate)</f>
+        <f>_xll.qlSimpleQuoteSetValue(D45,ROUND(N45,6),EvaluationDate)</f>
         <v>0</v>
       </c>
       <c r="P45" s="196"/>
@@ -17284,7 +17076,7 @@
       </c>
       <c r="D46" s="337" t="str">
         <f>_xll.qlSimpleQuote(C46,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR6x18F_SYNTH1Y_Quote#0001</v>
+        <v>EUR6x18F_SYNTH1Y_Quote#0000</v>
       </c>
       <c r="E46" s="330" t="str">
         <f>_xll.ohRangeRetrieveError(D46)</f>
@@ -17299,8 +17091,8 @@
         <v>6x18F</v>
       </c>
       <c r="J46" s="318">
-        <f ca="1">SynthFra!N13</f>
-        <v>5.9232098253105643E-3</v>
+        <f>SynthFra!N13</f>
+        <v>5.2141464636747915E-3</v>
       </c>
       <c r="K46" s="252"/>
       <c r="L46" s="321">
@@ -17308,11 +17100,10 @@
       </c>
       <c r="M46" s="252"/>
       <c r="N46" s="323">
-        <f ca="1"/>
-        <v>5.9232098253105643E-3</v>
+        <v>5.2141464636747915E-3</v>
       </c>
       <c r="O46" s="324">
-        <f ca="1">_xll.qlSimpleQuoteSetValue(D46,ROUND(N46,6),EvaluationDate)</f>
+        <f>_xll.qlSimpleQuoteSetValue(D46,ROUND(N46,6),EvaluationDate)</f>
         <v>0</v>
       </c>
       <c r="P46" s="196"/>
@@ -17331,7 +17122,7 @@
       </c>
       <c r="D47" s="337" t="str">
         <f>_xll.qlSimpleQuote(C47,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR7x19F_SYNTH1Y_Quote#0001</v>
+        <v>EUR7x19F_SYNTH1Y_Quote#0000</v>
       </c>
       <c r="E47" s="330" t="str">
         <f>_xll.ohRangeRetrieveError(D47)</f>
@@ -17346,8 +17137,8 @@
         <v>7x19F</v>
       </c>
       <c r="J47" s="318">
-        <f ca="1">SynthFra!N14</f>
-        <v>5.9882015778317298E-3</v>
+        <f>SynthFra!N14</f>
+        <v>5.1858024807570928E-3</v>
       </c>
       <c r="K47" s="252"/>
       <c r="L47" s="321">
@@ -17355,11 +17146,10 @@
       </c>
       <c r="M47" s="252"/>
       <c r="N47" s="323">
-        <f ca="1"/>
-        <v>5.9882015778317298E-3</v>
+        <v>5.1858024807570928E-3</v>
       </c>
       <c r="O47" s="324">
-        <f ca="1">_xll.qlSimpleQuoteSetValue(D47,ROUND(N47,6),EvaluationDate)</f>
+        <f>_xll.qlSimpleQuoteSetValue(D47,ROUND(N47,6),EvaluationDate)</f>
         <v>0</v>
       </c>
       <c r="P47" s="196"/>
@@ -17378,7 +17168,7 @@
       </c>
       <c r="D48" s="337" t="str">
         <f>_xll.qlSimpleQuote(C48,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR8x20F_SYNTH1Y_Quote#0001</v>
+        <v>EUR8x20F_SYNTH1Y_Quote#0000</v>
       </c>
       <c r="E48" s="330" t="str">
         <f>_xll.ohRangeRetrieveError(D48)</f>
@@ -17393,8 +17183,8 @@
         <v>8x20F</v>
       </c>
       <c r="J48" s="318">
-        <f ca="1">SynthFra!N15</f>
-        <v>6.0677926158807741E-3</v>
+        <f>SynthFra!N15</f>
+        <v>5.1651329077683807E-3</v>
       </c>
       <c r="K48" s="252"/>
       <c r="L48" s="321">
@@ -17402,11 +17192,10 @@
       </c>
       <c r="M48" s="252"/>
       <c r="N48" s="323">
-        <f ca="1"/>
-        <v>6.0677926158807741E-3</v>
+        <v>5.1651329077683807E-3</v>
       </c>
       <c r="O48" s="324">
-        <f ca="1">_xll.qlSimpleQuoteSetValue(D48,ROUND(N48,6),EvaluationDate)</f>
+        <f>_xll.qlSimpleQuoteSetValue(D48,ROUND(N48,6),EvaluationDate)</f>
         <v>0</v>
       </c>
       <c r="P48" s="196"/>
@@ -17425,7 +17214,7 @@
       </c>
       <c r="D49" s="337" t="str">
         <f>_xll.qlSimpleQuote(C49,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR9x21F_SYNTH1Y_Quote#0001</v>
+        <v>EUR9x21F_SYNTH1Y_Quote#0000</v>
       </c>
       <c r="E49" s="330" t="str">
         <f>_xll.ohRangeRetrieveError(D49)</f>
@@ -17440,8 +17229,8 @@
         <v>9x21F</v>
       </c>
       <c r="J49" s="318">
-        <f ca="1">SynthFra!N16</f>
-        <v>6.162056550414745E-3</v>
+        <f>SynthFra!N16</f>
+        <v>5.1637171481886349E-3</v>
       </c>
       <c r="K49" s="252"/>
       <c r="L49" s="321">
@@ -17449,11 +17238,10 @@
       </c>
       <c r="M49" s="252"/>
       <c r="N49" s="323">
-        <f ca="1"/>
-        <v>6.162056550414745E-3</v>
+        <v>5.1637171481886349E-3</v>
       </c>
       <c r="O49" s="324">
-        <f ca="1">_xll.qlSimpleQuoteSetValue(D49,ROUND(N49,6),EvaluationDate)</f>
+        <f>_xll.qlSimpleQuoteSetValue(D49,ROUND(N49,6),EvaluationDate)</f>
         <v>0</v>
       </c>
       <c r="P49" s="196"/>
@@ -17472,7 +17260,7 @@
       </c>
       <c r="D50" s="337" t="str">
         <f>_xll.qlSimpleQuote(C50,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR10x22F_SYNTH1Y_Quote#0001</v>
+        <v>EUR10x22F_SYNTH1Y_Quote#0000</v>
       </c>
       <c r="E50" s="330" t="str">
         <f>_xll.ohRangeRetrieveError(D50)</f>
@@ -17487,8 +17275,8 @@
         <v>10x22F</v>
       </c>
       <c r="J50" s="318">
-        <f ca="1">SynthFra!N17</f>
-        <v>6.2651377149783739E-3</v>
+        <f>SynthFra!N17</f>
+        <v>5.1902017763986123E-3</v>
       </c>
       <c r="K50" s="252"/>
       <c r="L50" s="321">
@@ -17496,11 +17284,10 @@
       </c>
       <c r="M50" s="252"/>
       <c r="N50" s="323">
-        <f ca="1"/>
-        <v>6.2651377149783739E-3</v>
+        <v>5.1902017763986123E-3</v>
       </c>
       <c r="O50" s="324">
-        <f ca="1">_xll.qlSimpleQuoteSetValue(D50,ROUND(N50,6),EvaluationDate)</f>
+        <f>_xll.qlSimpleQuoteSetValue(D50,ROUND(N50,6),EvaluationDate)</f>
         <v>0</v>
       </c>
       <c r="P50" s="196"/>
@@ -17519,7 +17306,7 @@
       </c>
       <c r="D51" s="337" t="str">
         <f>_xll.qlSimpleQuote(C51,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR11x23F_SYNTH1Y_Quote#0001</v>
+        <v>EUR11x23F_SYNTH1Y_Quote#0000</v>
       </c>
       <c r="E51" s="330" t="str">
         <f>_xll.ohRangeRetrieveError(D51)</f>
@@ -17534,8 +17321,8 @@
         <v>11x23F</v>
       </c>
       <c r="J51" s="318">
-        <f ca="1">SynthFra!N18</f>
-        <v>6.3785424023954937E-3</v>
+        <f>SynthFra!N18</f>
+        <v>5.2434673239099977E-3</v>
       </c>
       <c r="K51" s="252"/>
       <c r="L51" s="321">
@@ -17543,11 +17330,10 @@
       </c>
       <c r="M51" s="252"/>
       <c r="N51" s="323">
-        <f ca="1"/>
-        <v>6.3785424023954937E-3</v>
+        <v>5.2434673239099977E-3</v>
       </c>
       <c r="O51" s="324">
-        <f ca="1">_xll.qlSimpleQuoteSetValue(D51,ROUND(N51,6),EvaluationDate)</f>
+        <f>_xll.qlSimpleQuoteSetValue(D51,ROUND(N51,6),EvaluationDate)</f>
         <v>0</v>
       </c>
       <c r="P51" s="196"/>
@@ -17566,7 +17352,7 @@
       </c>
       <c r="D52" s="337" t="str">
         <f>_xll.qlSimpleQuote(C52,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR13x25F_SYNTH1Y_Quote#0001</v>
+        <v>EUR13x25F_SYNTH1Y_Quote#0000</v>
       </c>
       <c r="E52" s="330" t="str">
         <f>_xll.ohRangeRetrieveError(D52)</f>
@@ -17581,8 +17367,8 @@
         <v>13x25F</v>
       </c>
       <c r="J52" s="318">
-        <f ca="1">SynthFra!N19</f>
-        <v>6.6795659939158404E-3</v>
+        <f>SynthFra!N19</f>
+        <v>5.4240660452384275E-3</v>
       </c>
       <c r="K52" s="252"/>
       <c r="L52" s="321">
@@ -17590,11 +17376,10 @@
       </c>
       <c r="M52" s="252"/>
       <c r="N52" s="323">
-        <f ca="1"/>
-        <v>6.6795659939158404E-3</v>
+        <v>5.4240660452384275E-3</v>
       </c>
       <c r="O52" s="324">
-        <f ca="1">_xll.qlSimpleQuoteSetValue(D52,ROUND(N52,6),EvaluationDate)</f>
+        <f>_xll.qlSimpleQuoteSetValue(D52,ROUND(N52,6),EvaluationDate)</f>
         <v>0</v>
       </c>
       <c r="P52" s="196"/>
@@ -17613,7 +17398,7 @@
       </c>
       <c r="D53" s="337" t="str">
         <f>_xll.qlSimpleQuote(C53,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR14x26F_SYNTH1Y_Quote#0001</v>
+        <v>EUR14x26F_SYNTH1Y_Quote#0000</v>
       </c>
       <c r="E53" s="330" t="str">
         <f>_xll.ohRangeRetrieveError(D53)</f>
@@ -17628,8 +17413,8 @@
         <v>14x26F</v>
       </c>
       <c r="J53" s="318">
-        <f ca="1">SynthFra!N20</f>
-        <v>6.8602753604053452E-3</v>
+        <f>SynthFra!N20</f>
+        <v>5.5552950714561908E-3</v>
       </c>
       <c r="K53" s="252"/>
       <c r="L53" s="321">
@@ -17637,11 +17422,10 @@
       </c>
       <c r="M53" s="252"/>
       <c r="N53" s="323">
-        <f ca="1"/>
-        <v>6.8602753604053452E-3</v>
+        <v>5.5552950714561908E-3</v>
       </c>
       <c r="O53" s="324">
-        <f ca="1">_xll.qlSimpleQuoteSetValue(D53,ROUND(N53,6),EvaluationDate)</f>
+        <f>_xll.qlSimpleQuoteSetValue(D53,ROUND(N53,6),EvaluationDate)</f>
         <v>0</v>
       </c>
       <c r="P53" s="196"/>
@@ -17660,7 +17444,7 @@
       </c>
       <c r="D54" s="337" t="str">
         <f>_xll.qlSimpleQuote(C54,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR15x27F_SYNTH1Y_Quote#0001</v>
+        <v>EUR15x27F_SYNTH1Y_Quote#0000</v>
       </c>
       <c r="E54" s="330" t="str">
         <f>_xll.ohRangeRetrieveError(D54)</f>
@@ -17675,8 +17459,8 @@
         <v>15x27F</v>
       </c>
       <c r="J54" s="318">
-        <f ca="1">SynthFra!N21</f>
-        <v>7.0670914820993433E-3</v>
+        <f>SynthFra!N21</f>
+        <v>5.7301745299055944E-3</v>
       </c>
       <c r="K54" s="252"/>
       <c r="L54" s="321">
@@ -17684,11 +17468,10 @@
       </c>
       <c r="M54" s="252"/>
       <c r="N54" s="323">
-        <f ca="1"/>
-        <v>7.0670914820993433E-3</v>
+        <v>5.7301745299055944E-3</v>
       </c>
       <c r="O54" s="324">
-        <f ca="1">_xll.qlSimpleQuoteSetValue(D54,ROUND(N54,6),EvaluationDate)</f>
+        <f>_xll.qlSimpleQuoteSetValue(D54,ROUND(N54,6),EvaluationDate)</f>
         <v>0</v>
       </c>
       <c r="P54" s="196"/>
@@ -17707,7 +17490,7 @@
       </c>
       <c r="D55" s="337" t="str">
         <f>_xll.qlSimpleQuote(C55,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR16x28F_SYNTH1Y_Quote#0001</v>
+        <v>EUR16x28F_SYNTH1Y_Quote#0000</v>
       </c>
       <c r="E55" s="330" t="str">
         <f>_xll.ohRangeRetrieveError(D55)</f>
@@ -17722,8 +17505,8 @@
         <v>16x28F</v>
       </c>
       <c r="J55" s="318">
-        <f ca="1">SynthFra!N22</f>
-        <v>7.2955573434228833E-3</v>
+        <f>SynthFra!N22</f>
+        <v>5.9084143718638391E-3</v>
       </c>
       <c r="K55" s="252"/>
       <c r="L55" s="321">
@@ -17731,11 +17514,10 @@
       </c>
       <c r="M55" s="252"/>
       <c r="N55" s="323">
-        <f ca="1"/>
-        <v>7.2955573434228833E-3</v>
+        <v>5.9084143718638391E-3</v>
       </c>
       <c r="O55" s="324">
-        <f ca="1">_xll.qlSimpleQuoteSetValue(D55,ROUND(N55,6),EvaluationDate)</f>
+        <f>_xll.qlSimpleQuoteSetValue(D55,ROUND(N55,6),EvaluationDate)</f>
         <v>0</v>
       </c>
       <c r="P55" s="196"/>
@@ -17754,7 +17536,7 @@
       </c>
       <c r="D56" s="337" t="str">
         <f>_xll.qlSimpleQuote(C56,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR17x29F_SYNTH1Y_Quote#0001</v>
+        <v>EUR17x29F_SYNTH1Y_Quote#0000</v>
       </c>
       <c r="E56" s="330" t="str">
         <f>_xll.ohRangeRetrieveError(D56)</f>
@@ -17769,8 +17551,8 @@
         <v>17x29F</v>
       </c>
       <c r="J56" s="318">
-        <f ca="1">SynthFra!N23</f>
-        <v>7.5566256875136961E-3</v>
+        <f>SynthFra!N23</f>
+        <v>6.121352559123194E-3</v>
       </c>
       <c r="K56" s="252"/>
       <c r="L56" s="321">
@@ -17778,11 +17560,10 @@
       </c>
       <c r="M56" s="252"/>
       <c r="N56" s="323">
-        <f ca="1"/>
-        <v>7.5566256875136961E-3</v>
+        <v>6.121352559123194E-3</v>
       </c>
       <c r="O56" s="324">
-        <f ca="1">_xll.qlSimpleQuoteSetValue(D56,ROUND(N56,6),EvaluationDate)</f>
+        <f>_xll.qlSimpleQuoteSetValue(D56,ROUND(N56,6),EvaluationDate)</f>
         <v>0</v>
       </c>
       <c r="P56" s="196"/>
@@ -17801,7 +17582,7 @@
       </c>
       <c r="D57" s="337" t="str">
         <f>_xll.qlSimpleQuote(C57,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR18x30F_SYNTH1Y_Quote#0001</v>
+        <v>EUR18x30F_SYNTH1Y_Quote#0000</v>
       </c>
       <c r="E57" s="330" t="str">
         <f>_xll.ohRangeRetrieveError(D57)</f>
@@ -17816,8 +17597,8 @@
         <v>18x30F</v>
       </c>
       <c r="J57" s="318">
-        <f ca="1">SynthFra!N24</f>
-        <v>7.8273715668518255E-3</v>
+        <f>SynthFra!N24</f>
+        <v>6.3561001062266481E-3</v>
       </c>
       <c r="K57" s="252"/>
       <c r="L57" s="321">
@@ -17825,11 +17606,10 @@
       </c>
       <c r="M57" s="252"/>
       <c r="N57" s="323">
-        <f ca="1"/>
-        <v>7.8273715668518255E-3</v>
+        <v>6.3561001062266481E-3</v>
       </c>
       <c r="O57" s="324">
-        <f ca="1">_xll.qlSimpleQuoteSetValue(D57,ROUND(N57,6),EvaluationDate)</f>
+        <f>_xll.qlSimpleQuoteSetValue(D57,ROUND(N57,6),EvaluationDate)</f>
         <v>0</v>
       </c>
       <c r="P57" s="196"/>
@@ -17848,7 +17628,7 @@
       </c>
       <c r="D58" s="337" t="str">
         <f>_xll.qlSimpleQuote(C58,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR19x31F_SYNTH1Y_Quote#0001</v>
+        <v>EUR19x31F_SYNTH1Y_Quote#0000</v>
       </c>
       <c r="E58" s="330" t="str">
         <f>_xll.ohRangeRetrieveError(D58)</f>
@@ -17863,8 +17643,8 @@
         <v>19x31F</v>
       </c>
       <c r="J58" s="318">
-        <f ca="1">SynthFra!N25</f>
-        <v>8.0947747244274997E-3</v>
+        <f>SynthFra!N25</f>
+        <v>6.5918525813611246E-3</v>
       </c>
       <c r="K58" s="252"/>
       <c r="L58" s="321">
@@ -17872,11 +17652,10 @@
       </c>
       <c r="M58" s="252"/>
       <c r="N58" s="323">
-        <f ca="1"/>
-        <v>8.0947747244274997E-3</v>
+        <v>6.5918525813611246E-3</v>
       </c>
       <c r="O58" s="324">
-        <f ca="1">_xll.qlSimpleQuoteSetValue(D58,ROUND(N58,6),EvaluationDate)</f>
+        <f>_xll.qlSimpleQuoteSetValue(D58,ROUND(N58,6),EvaluationDate)</f>
         <v>0</v>
       </c>
       <c r="P58" s="196"/>
@@ -17895,7 +17674,7 @@
       </c>
       <c r="D59" s="337" t="str">
         <f>_xll.qlSimpleQuote(C59,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR20x32F_SYNTH1Y_Quote#0001</v>
+        <v>EUR20x32F_SYNTH1Y_Quote#0000</v>
       </c>
       <c r="E59" s="330" t="str">
         <f>_xll.ohRangeRetrieveError(D59)</f>
@@ -17910,8 +17689,8 @@
         <v>20x32F</v>
       </c>
       <c r="J59" s="318">
-        <f ca="1">SynthFra!N26</f>
-        <v>8.3955708112695218E-3</v>
+        <f>SynthFra!N26</f>
+        <v>6.8637450515011836E-3</v>
       </c>
       <c r="K59" s="252"/>
       <c r="L59" s="321">
@@ -17919,11 +17698,10 @@
       </c>
       <c r="M59" s="252"/>
       <c r="N59" s="323">
-        <f ca="1"/>
-        <v>8.3955708112695218E-3</v>
+        <v>6.8637450515011836E-3</v>
       </c>
       <c r="O59" s="324">
-        <f ca="1">_xll.qlSimpleQuoteSetValue(D59,ROUND(N59,6),EvaluationDate)</f>
+        <f>_xll.qlSimpleQuoteSetValue(D59,ROUND(N59,6),EvaluationDate)</f>
         <v>0</v>
       </c>
       <c r="P59" s="196"/>
@@ -17942,7 +17720,7 @@
       </c>
       <c r="D60" s="337" t="str">
         <f>_xll.qlSimpleQuote(C60,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR21x33F_SYNTH1Y_Quote#0001</v>
+        <v>EUR21x33F_SYNTH1Y_Quote#0000</v>
       </c>
       <c r="E60" s="330" t="str">
         <f>_xll.ohRangeRetrieveError(D60)</f>
@@ -17957,8 +17735,8 @@
         <v>21x33F</v>
       </c>
       <c r="J60" s="318">
-        <f ca="1">SynthFra!N27</f>
-        <v>8.7140169133590045E-3</v>
+        <f>SynthFra!N27</f>
+        <v>7.1426235949439681E-3</v>
       </c>
       <c r="K60" s="252"/>
       <c r="L60" s="321">
@@ -17966,11 +17744,10 @@
       </c>
       <c r="M60" s="252"/>
       <c r="N60" s="323">
-        <f ca="1"/>
-        <v>8.7140169133590045E-3</v>
+        <v>7.1426235949439681E-3</v>
       </c>
       <c r="O60" s="324">
-        <f ca="1">_xll.qlSimpleQuoteSetValue(D60,ROUND(N60,6),EvaluationDate)</f>
+        <f>_xll.qlSimpleQuoteSetValue(D60,ROUND(N60,6),EvaluationDate)</f>
         <v>0</v>
       </c>
       <c r="P60" s="196"/>
@@ -17989,7 +17766,7 @@
       </c>
       <c r="D61" s="337" t="str">
         <f>_xll.qlSimpleQuote(C61,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR22x34F_SYNTH1Y_Quote#0001</v>
+        <v>EUR22x34F_SYNTH1Y_Quote#0000</v>
       </c>
       <c r="E61" s="330" t="str">
         <f>_xll.ohRangeRetrieveError(D61)</f>
@@ -18004,8 +17781,8 @@
         <v>22x34F</v>
       </c>
       <c r="J61" s="318">
-        <f ca="1">SynthFra!N28</f>
-        <v>9.0377669457675346E-3</v>
+        <f>SynthFra!N28</f>
+        <v>7.4147609136414414E-3</v>
       </c>
       <c r="K61" s="252"/>
       <c r="L61" s="321">
@@ -18013,11 +17790,10 @@
       </c>
       <c r="M61" s="252"/>
       <c r="N61" s="323">
-        <f ca="1"/>
-        <v>9.0377669457675346E-3</v>
+        <v>7.4147609136414414E-3</v>
       </c>
       <c r="O61" s="324">
-        <f ca="1">_xll.qlSimpleQuoteSetValue(D61,ROUND(N61,6),EvaluationDate)</f>
+        <f>_xll.qlSimpleQuoteSetValue(D61,ROUND(N61,6),EvaluationDate)</f>
         <v>0</v>
       </c>
       <c r="P61" s="196"/>
@@ -18036,7 +17812,7 @@
       </c>
       <c r="D62" s="337" t="str">
         <f>_xll.qlSimpleQuote(C62,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR23x35F_SYNTH1Y_Quote#0001</v>
+        <v>EUR23x35F_SYNTH1Y_Quote#0000</v>
       </c>
       <c r="E62" s="330" t="str">
         <f>_xll.ohRangeRetrieveError(D62)</f>
@@ -18051,8 +17827,8 @@
         <v>23x35F</v>
       </c>
       <c r="J62" s="318">
-        <f ca="1">SynthFra!N29</f>
-        <v>9.3569414181162887E-3</v>
+        <f>SynthFra!N29</f>
+        <v>7.7291313039108082E-3</v>
       </c>
       <c r="K62" s="252"/>
       <c r="L62" s="321">
@@ -18060,11 +17836,10 @@
       </c>
       <c r="M62" s="252"/>
       <c r="N62" s="323">
-        <f ca="1"/>
-        <v>9.3569414181162887E-3</v>
+        <v>7.7291313039108082E-3</v>
       </c>
       <c r="O62" s="324">
-        <f ca="1">_xll.qlSimpleQuoteSetValue(D62,ROUND(N62,6),EvaluationDate)</f>
+        <f>_xll.qlSimpleQuoteSetValue(D62,ROUND(N62,6),EvaluationDate)</f>
         <v>0</v>
       </c>
       <c r="P62" s="196"/>
@@ -18083,7 +17858,7 @@
       </c>
       <c r="D63" s="337" t="str">
         <f>_xll.qlSimpleQuote(C63,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR25x37F_SYNTH1Y_Quote#0001</v>
+        <v>EUR25x37F_SYNTH1Y_Quote#0000</v>
       </c>
       <c r="E63" s="330" t="str">
         <f>_xll.ohRangeRetrieveError(D63)</f>
@@ -18098,8 +17873,8 @@
         <v>25x37F</v>
       </c>
       <c r="J63" s="318">
-        <f ca="1">SynthFra!N30</f>
-        <v>1.005577027499507E-2</v>
+        <f>SynthFra!N30</f>
+        <v>8.3427880053663014E-3</v>
       </c>
       <c r="K63" s="252"/>
       <c r="L63" s="321">
@@ -18107,11 +17882,10 @@
       </c>
       <c r="M63" s="252"/>
       <c r="N63" s="323">
-        <f ca="1"/>
-        <v>1.005577027499507E-2</v>
+        <v>8.3427880053663014E-3</v>
       </c>
       <c r="O63" s="324">
-        <f ca="1">_xll.qlSimpleQuoteSetValue(D63,ROUND(N63,6),EvaluationDate)</f>
+        <f>_xll.qlSimpleQuoteSetValue(D63,ROUND(N63,6),EvaluationDate)</f>
         <v>0</v>
       </c>
       <c r="P63" s="196"/>
@@ -18130,7 +17904,7 @@
       </c>
       <c r="D64" s="337" t="str">
         <f>_xll.qlSimpleQuote(C64,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR26x38F_SYNTH1Y_Quote#0001</v>
+        <v>EUR26x38F_SYNTH1Y_Quote#0000</v>
       </c>
       <c r="E64" s="330" t="str">
         <f>_xll.ohRangeRetrieveError(D64)</f>
@@ -18145,8 +17919,8 @@
         <v>26x38F</v>
       </c>
       <c r="J64" s="318">
-        <f ca="1">SynthFra!N31</f>
-        <v>1.0424525499207651E-2</v>
+        <f>SynthFra!N31</f>
+        <v>8.66608392483054E-3</v>
       </c>
       <c r="K64" s="252"/>
       <c r="L64" s="321">
@@ -18154,11 +17928,10 @@
       </c>
       <c r="M64" s="252"/>
       <c r="N64" s="323">
-        <f ca="1"/>
-        <v>1.0424525499207651E-2</v>
+        <v>8.66608392483054E-3</v>
       </c>
       <c r="O64" s="324">
-        <f ca="1">_xll.qlSimpleQuoteSetValue(D64,ROUND(N64,6),EvaluationDate)</f>
+        <f>_xll.qlSimpleQuoteSetValue(D64,ROUND(N64,6),EvaluationDate)</f>
         <v>0</v>
       </c>
       <c r="P64" s="196"/>
@@ -18177,7 +17950,7 @@
       </c>
       <c r="D65" s="337" t="str">
         <f>_xll.qlSimpleQuote(C65,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR27x39F_SYNTH1Y_Quote#0001</v>
+        <v>EUR27x39F_SYNTH1Y_Quote#0000</v>
       </c>
       <c r="E65" s="330" t="str">
         <f>_xll.ohRangeRetrieveError(D65)</f>
@@ -18192,8 +17965,8 @@
         <v>27x39F</v>
       </c>
       <c r="J65" s="318">
-        <f ca="1">SynthFra!N32</f>
-        <v>1.07741063841712E-2</v>
+        <f>SynthFra!N32</f>
+        <v>8.9852153535823105E-3</v>
       </c>
       <c r="K65" s="252"/>
       <c r="L65" s="321">
@@ -18201,11 +17974,10 @@
       </c>
       <c r="M65" s="252"/>
       <c r="N65" s="323">
-        <f ca="1"/>
-        <v>1.07741063841712E-2</v>
+        <v>8.9852153535823105E-3</v>
       </c>
       <c r="O65" s="324">
-        <f ca="1">_xll.qlSimpleQuoteSetValue(D65,ROUND(N65,6),EvaluationDate)</f>
+        <f>_xll.qlSimpleQuoteSetValue(D65,ROUND(N65,6),EvaluationDate)</f>
         <v>0</v>
       </c>
       <c r="P65" s="196"/>
@@ -18224,7 +17996,7 @@
       </c>
       <c r="D66" s="337" t="str">
         <f>_xll.qlSimpleQuote(C66,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR28x40F_SYNTH1Y_Quote#0001</v>
+        <v>EUR28x40F_SYNTH1Y_Quote#0000</v>
       </c>
       <c r="E66" s="330" t="str">
         <f>_xll.ohRangeRetrieveError(D66)</f>
@@ -18239,8 +18011,8 @@
         <v>28x40F</v>
       </c>
       <c r="J66" s="318">
-        <f ca="1">SynthFra!N33</f>
-        <v>1.112376965592409E-2</v>
+        <f>SynthFra!N33</f>
+        <v>9.3185262685546357E-3</v>
       </c>
       <c r="K66" s="252"/>
       <c r="L66" s="321">
@@ -18248,11 +18020,10 @@
       </c>
       <c r="M66" s="252"/>
       <c r="N66" s="323">
-        <f ca="1"/>
-        <v>1.112376965592409E-2</v>
+        <v>9.3185262685546357E-3</v>
       </c>
       <c r="O66" s="324">
-        <f ca="1">_xll.qlSimpleQuoteSetValue(D66,ROUND(N66,6),EvaluationDate)</f>
+        <f>_xll.qlSimpleQuoteSetValue(D66,ROUND(N66,6),EvaluationDate)</f>
         <v>0</v>
       </c>
       <c r="P66" s="196"/>
@@ -18271,7 +18042,7 @@
       </c>
       <c r="D67" s="337" t="str">
         <f>_xll.qlSimpleQuote(C67,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR29x41F_SYNTH1Y_Quote#0001</v>
+        <v>EUR29x41F_SYNTH1Y_Quote#0000</v>
       </c>
       <c r="E67" s="330" t="str">
         <f>_xll.ohRangeRetrieveError(D67)</f>
@@ -18286,8 +18057,8 @@
         <v>29x41F</v>
       </c>
       <c r="J67" s="318">
-        <f ca="1">SynthFra!N34</f>
-        <v>1.1509670554348719E-2</v>
+        <f>SynthFra!N34</f>
+        <v>9.6670382584606619E-3</v>
       </c>
       <c r="K67" s="252"/>
       <c r="L67" s="321">
@@ -18295,11 +18066,10 @@
       </c>
       <c r="M67" s="252"/>
       <c r="N67" s="323">
-        <f ca="1"/>
-        <v>1.1509670554348719E-2</v>
+        <v>9.6670382584606619E-3</v>
       </c>
       <c r="O67" s="324">
-        <f ca="1">_xll.qlSimpleQuoteSetValue(D67,ROUND(N67,6),EvaluationDate)</f>
+        <f>_xll.qlSimpleQuoteSetValue(D67,ROUND(N67,6),EvaluationDate)</f>
         <v>0</v>
       </c>
       <c r="P67" s="196"/>
@@ -18318,7 +18088,7 @@
       </c>
       <c r="D68" s="337" t="str">
         <f>_xll.qlSimpleQuote(C68,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR30x42F_SYNTH1Y_Quote#0001</v>
+        <v>EUR30x42F_SYNTH1Y_Quote#0000</v>
       </c>
       <c r="E68" s="330" t="str">
         <f>_xll.ohRangeRetrieveError(D68)</f>
@@ -18333,8 +18103,8 @@
         <v>30x42F</v>
       </c>
       <c r="J68" s="318">
-        <f ca="1">SynthFra!N35</f>
-        <v>1.1837969058591835E-2</v>
+        <f>SynthFra!N35</f>
+        <v>9.9865335952181514E-3</v>
       </c>
       <c r="K68" s="252"/>
       <c r="L68" s="321">
@@ -18342,11 +18112,10 @@
       </c>
       <c r="M68" s="252"/>
       <c r="N68" s="323">
-        <f ca="1"/>
-        <v>1.1837969058591835E-2</v>
+        <v>9.9865335952181514E-3</v>
       </c>
       <c r="O68" s="324">
-        <f ca="1">_xll.qlSimpleQuoteSetValue(D68,ROUND(N68,6),EvaluationDate)</f>
+        <f>_xll.qlSimpleQuoteSetValue(D68,ROUND(N68,6),EvaluationDate)</f>
         <v>0</v>
       </c>
       <c r="P68" s="196"/>
@@ -18365,7 +18134,7 @@
       </c>
       <c r="D69" s="337" t="str">
         <f>_xll.qlSimpleQuote(C69,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR31x43F_SYNTH1Y_Quote#0001</v>
+        <v>EUR31x43F_SYNTH1Y_Quote#0000</v>
       </c>
       <c r="E69" s="330" t="str">
         <f>_xll.ohRangeRetrieveError(D69)</f>
@@ -18380,8 +18149,8 @@
         <v>31x43F</v>
       </c>
       <c r="J69" s="318">
-        <f ca="1">SynthFra!N36</f>
-        <v>1.220217994888665E-2</v>
+        <f>SynthFra!N36</f>
+        <v>1.0320458996461434E-2</v>
       </c>
       <c r="K69" s="252"/>
       <c r="L69" s="321">
@@ -18389,11 +18158,10 @@
       </c>
       <c r="M69" s="252"/>
       <c r="N69" s="323">
-        <f ca="1"/>
-        <v>1.220217994888665E-2</v>
+        <v>1.0320458996461434E-2</v>
       </c>
       <c r="O69" s="324">
-        <f ca="1">_xll.qlSimpleQuoteSetValue(D69,ROUND(N69,6),EvaluationDate)</f>
+        <f>_xll.qlSimpleQuoteSetValue(D69,ROUND(N69,6),EvaluationDate)</f>
         <v>0</v>
       </c>
       <c r="P69" s="196"/>
@@ -18412,7 +18180,7 @@
       </c>
       <c r="D70" s="337" t="str">
         <f>_xll.qlSimpleQuote(C70,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR32x44F_SYNTH1Y_Quote#0001</v>
+        <v>EUR32x44F_SYNTH1Y_Quote#0000</v>
       </c>
       <c r="E70" s="330" t="str">
         <f>_xll.ohRangeRetrieveError(D70)</f>
@@ -18427,8 +18195,8 @@
         <v>32x44F</v>
       </c>
       <c r="J70" s="318">
-        <f ca="1">SynthFra!N37</f>
-        <v>1.2578744225944676E-2</v>
+        <f>SynthFra!N37</f>
+        <v>1.0680196221278658E-2</v>
       </c>
       <c r="K70" s="252"/>
       <c r="L70" s="321">
@@ -18436,11 +18204,10 @@
       </c>
       <c r="M70" s="252"/>
       <c r="N70" s="323">
-        <f ca="1"/>
-        <v>1.2578744225944676E-2</v>
+        <v>1.0680196221278658E-2</v>
       </c>
       <c r="O70" s="324">
-        <f ca="1">_xll.qlSimpleQuoteSetValue(D70,ROUND(N70,6),EvaluationDate)</f>
+        <f>_xll.qlSimpleQuoteSetValue(D70,ROUND(N70,6),EvaluationDate)</f>
         <v>0</v>
       </c>
       <c r="P70" s="196"/>
@@ -18459,7 +18226,7 @@
       </c>
       <c r="D71" s="337" t="str">
         <f>_xll.qlSimpleQuote(C71,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR33x45F_SYNTH1Y_Quote#0001</v>
+        <v>EUR33x45F_SYNTH1Y_Quote#0000</v>
       </c>
       <c r="E71" s="330" t="str">
         <f>_xll.ohRangeRetrieveError(D71)</f>
@@ -18474,8 +18241,8 @@
         <v>33x45F</v>
       </c>
       <c r="J71" s="318">
-        <f ca="1">SynthFra!N38</f>
-        <v>1.2920351648583041E-2</v>
+        <f>SynthFra!N38</f>
+        <v>1.1020516605454412E-2</v>
       </c>
       <c r="K71" s="252"/>
       <c r="L71" s="321">
@@ -18483,11 +18250,10 @@
       </c>
       <c r="M71" s="252"/>
       <c r="N71" s="323">
-        <f ca="1"/>
-        <v>1.2920351648583041E-2</v>
+        <v>1.1020516605454412E-2</v>
       </c>
       <c r="O71" s="324">
-        <f ca="1">_xll.qlSimpleQuoteSetValue(D71,ROUND(N71,6),EvaluationDate)</f>
+        <f>_xll.qlSimpleQuoteSetValue(D71,ROUND(N71,6),EvaluationDate)</f>
         <v>0</v>
       </c>
       <c r="P71" s="196"/>
@@ -18506,7 +18272,7 @@
       </c>
       <c r="D72" s="337" t="str">
         <f>_xll.qlSimpleQuote(C72,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR34x46F_SYNTH1Y_Quote#0001</v>
+        <v>EUR34x46F_SYNTH1Y_Quote#0000</v>
       </c>
       <c r="E72" s="330" t="str">
         <f>_xll.ohRangeRetrieveError(D72)</f>
@@ -18521,8 +18287,8 @@
         <v>34x46F</v>
       </c>
       <c r="J72" s="318">
-        <f ca="1">SynthFra!N39</f>
-        <v>1.3297244638087711E-2</v>
+        <f>SynthFra!N39</f>
+        <v>1.1340602866221173E-2</v>
       </c>
       <c r="K72" s="252"/>
       <c r="L72" s="321">
@@ -18530,11 +18296,10 @@
       </c>
       <c r="M72" s="252"/>
       <c r="N72" s="323">
-        <f ca="1"/>
-        <v>1.3297244638087711E-2</v>
+        <v>1.1340602866221173E-2</v>
       </c>
       <c r="O72" s="324">
-        <f ca="1">_xll.qlSimpleQuoteSetValue(D72,ROUND(N72,6),EvaluationDate)</f>
+        <f>_xll.qlSimpleQuoteSetValue(D72,ROUND(N72,6),EvaluationDate)</f>
         <v>0</v>
       </c>
       <c r="P72" s="196"/>
@@ -18553,7 +18318,7 @@
       </c>
       <c r="D73" s="337" t="str">
         <f>_xll.qlSimpleQuote(C73,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR35x47F_SYNTH1Y_Quote#0001</v>
+        <v>EUR35x47F_SYNTH1Y_Quote#0000</v>
       </c>
       <c r="E73" s="330" t="str">
         <f>_xll.ohRangeRetrieveError(D73)</f>
@@ -18568,8 +18333,8 @@
         <v>35x47F</v>
       </c>
       <c r="J73" s="318">
-        <f ca="1">SynthFra!N40</f>
-        <v>1.3627369303202966E-2</v>
+        <f>SynthFra!N40</f>
+        <v>1.172060820704275E-2</v>
       </c>
       <c r="K73" s="252"/>
       <c r="L73" s="321">
@@ -18577,11 +18342,10 @@
       </c>
       <c r="M73" s="252"/>
       <c r="N73" s="323">
-        <f ca="1"/>
-        <v>1.3627369303202966E-2</v>
+        <v>1.172060820704275E-2</v>
       </c>
       <c r="O73" s="324">
-        <f ca="1">_xll.qlSimpleQuoteSetValue(D73,ROUND(N73,6),EvaluationDate)</f>
+        <f>_xll.qlSimpleQuoteSetValue(D73,ROUND(N73,6),EvaluationDate)</f>
         <v>0</v>
       </c>
       <c r="P73" s="196"/>
@@ -18600,7 +18364,7 @@
       </c>
       <c r="D74" s="337" t="str">
         <f>_xll.qlSimpleQuote(C74,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR37x49F_SYNTH1Y_Quote#0001</v>
+        <v>EUR37x49F_SYNTH1Y_Quote#0000</v>
       </c>
       <c r="E74" s="330" t="str">
         <f>_xll.ohRangeRetrieveError(D74)</f>
@@ -18615,8 +18379,8 @@
         <v>37x49F</v>
       </c>
       <c r="J74" s="318">
-        <f ca="1">SynthFra!N41</f>
-        <v>1.4333728258839166E-2</v>
+        <f>SynthFra!N41</f>
+        <v>1.2406427244599382E-2</v>
       </c>
       <c r="K74" s="252"/>
       <c r="L74" s="321">
@@ -18624,11 +18388,10 @@
       </c>
       <c r="M74" s="252"/>
       <c r="N74" s="323">
-        <f ca="1"/>
-        <v>1.4333728258839166E-2</v>
+        <v>1.2406427244599382E-2</v>
       </c>
       <c r="O74" s="324">
-        <f ca="1">_xll.qlSimpleQuoteSetValue(D74,ROUND(N74,6),EvaluationDate)</f>
+        <f>_xll.qlSimpleQuoteSetValue(D74,ROUND(N74,6),EvaluationDate)</f>
         <v>0</v>
       </c>
       <c r="P74" s="196"/>
@@ -18647,7 +18410,7 @@
       </c>
       <c r="D75" s="337" t="str">
         <f>_xll.qlSimpleQuote(C75,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR38x50F_SYNTH1Y_Quote#0001</v>
+        <v>EUR38x50F_SYNTH1Y_Quote#0000</v>
       </c>
       <c r="E75" s="330" t="str">
         <f>_xll.ohRangeRetrieveError(D75)</f>
@@ -18662,8 +18425,8 @@
         <v>38x50F</v>
       </c>
       <c r="J75" s="318">
-        <f ca="1">SynthFra!N42</f>
-        <v>1.4721247029923726E-2</v>
+        <f>SynthFra!N42</f>
+        <v>1.2781105584677365E-2</v>
       </c>
       <c r="K75" s="252"/>
       <c r="L75" s="321">
@@ -18671,11 +18434,10 @@
       </c>
       <c r="M75" s="252"/>
       <c r="N75" s="323">
-        <f ca="1"/>
-        <v>1.4721247029923726E-2</v>
+        <v>1.2781105584677365E-2</v>
       </c>
       <c r="O75" s="324">
-        <f ca="1">_xll.qlSimpleQuoteSetValue(D75,ROUND(N75,6),EvaluationDate)</f>
+        <f>_xll.qlSimpleQuoteSetValue(D75,ROUND(N75,6),EvaluationDate)</f>
         <v>0</v>
       </c>
       <c r="P75" s="196"/>
@@ -18694,7 +18456,7 @@
       </c>
       <c r="D76" s="337" t="str">
         <f>_xll.qlSimpleQuote(C76,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR39x51F_SYNTH1Y_Quote#0001</v>
+        <v>EUR39x51F_SYNTH1Y_Quote#0000</v>
       </c>
       <c r="E76" s="330" t="str">
         <f>_xll.ohRangeRetrieveError(D76)</f>
@@ -18709,8 +18471,8 @@
         <v>39x51F</v>
       </c>
       <c r="J76" s="318">
-        <f ca="1">SynthFra!N43</f>
-        <v>1.5049222403555333E-2</v>
+        <f>SynthFra!N43</f>
+        <v>1.3121782438142774E-2</v>
       </c>
       <c r="K76" s="252"/>
       <c r="L76" s="321">
@@ -18718,11 +18480,10 @@
       </c>
       <c r="M76" s="252"/>
       <c r="N76" s="323">
-        <f ca="1"/>
-        <v>1.5049222403555333E-2</v>
+        <v>1.3121782438142774E-2</v>
       </c>
       <c r="O76" s="324">
-        <f ca="1">_xll.qlSimpleQuoteSetValue(D76,ROUND(N76,6),EvaluationDate)</f>
+        <f>_xll.qlSimpleQuoteSetValue(D76,ROUND(N76,6),EvaluationDate)</f>
         <v>0</v>
       </c>
       <c r="P76" s="196"/>
@@ -18741,7 +18502,7 @@
       </c>
       <c r="D77" s="337" t="str">
         <f>_xll.qlSimpleQuote(C77,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR40x52F_SYNTH1Y_Quote#0001</v>
+        <v>EUR40x52F_SYNTH1Y_Quote#0000</v>
       </c>
       <c r="E77" s="330" t="str">
         <f>_xll.ohRangeRetrieveError(D77)</f>
@@ -18756,8 +18517,8 @@
         <v>40x52F</v>
       </c>
       <c r="J77" s="318">
-        <f ca="1">SynthFra!N44</f>
-        <v>1.5411198884002688E-2</v>
+        <f>SynthFra!N44</f>
+        <v>1.3498556361070283E-2</v>
       </c>
       <c r="K77" s="252"/>
       <c r="L77" s="321">
@@ -18765,11 +18526,10 @@
       </c>
       <c r="M77" s="252"/>
       <c r="N77" s="323">
-        <f ca="1"/>
-        <v>1.5411198884002688E-2</v>
+        <v>1.3498556361070283E-2</v>
       </c>
       <c r="O77" s="324">
-        <f ca="1">_xll.qlSimpleQuoteSetValue(D77,ROUND(N77,6),EvaluationDate)</f>
+        <f>_xll.qlSimpleQuoteSetValue(D77,ROUND(N77,6),EvaluationDate)</f>
         <v>0</v>
       </c>
       <c r="P77" s="196"/>
@@ -18788,7 +18548,7 @@
       </c>
       <c r="D78" s="337" t="str">
         <f>_xll.qlSimpleQuote(C78,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR41x53F_SYNTH1Y_Quote#0001</v>
+        <v>EUR41x53F_SYNTH1Y_Quote#0000</v>
       </c>
       <c r="E78" s="330" t="str">
         <f>_xll.ohRangeRetrieveError(D78)</f>
@@ -18803,8 +18563,8 @@
         <v>41x53F</v>
       </c>
       <c r="J78" s="318">
-        <f ca="1">SynthFra!N45</f>
-        <v>1.578332065403935E-2</v>
+        <f>SynthFra!N45</f>
+        <v>1.3851982793310898E-2</v>
       </c>
       <c r="K78" s="252"/>
       <c r="L78" s="321">
@@ -18812,11 +18572,10 @@
       </c>
       <c r="M78" s="252"/>
       <c r="N78" s="323">
-        <f ca="1"/>
-        <v>1.578332065403935E-2</v>
+        <v>1.3851982793310898E-2</v>
       </c>
       <c r="O78" s="324">
-        <f ca="1">_xll.qlSimpleQuoteSetValue(D78,ROUND(N78,6),EvaluationDate)</f>
+        <f>_xll.qlSimpleQuoteSetValue(D78,ROUND(N78,6),EvaluationDate)</f>
         <v>0</v>
       </c>
       <c r="P78" s="196"/>
@@ -18835,7 +18594,7 @@
       </c>
       <c r="D79" s="337" t="str">
         <f>_xll.qlSimpleQuote(C79,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR42x54F_SYNTH1Y_Quote#0001</v>
+        <v>EUR42x54F_SYNTH1Y_Quote#0000</v>
       </c>
       <c r="E79" s="330" t="str">
         <f>_xll.ohRangeRetrieveError(D79)</f>
@@ -18850,8 +18609,8 @@
         <v>42x54F</v>
       </c>
       <c r="J79" s="318">
-        <f ca="1">SynthFra!N46</f>
-        <v>1.6118966672494198E-2</v>
+        <f>SynthFra!N46</f>
+        <v>1.4205379193435896E-2</v>
       </c>
       <c r="K79" s="252"/>
       <c r="L79" s="321">
@@ -18859,11 +18618,10 @@
       </c>
       <c r="M79" s="252"/>
       <c r="N79" s="323">
-        <f ca="1"/>
-        <v>1.6118966672494198E-2</v>
+        <v>1.4205379193435896E-2</v>
       </c>
       <c r="O79" s="324">
-        <f ca="1">_xll.qlSimpleQuoteSetValue(D79,ROUND(N79,6),EvaluationDate)</f>
+        <f>_xll.qlSimpleQuoteSetValue(D79,ROUND(N79,6),EvaluationDate)</f>
         <v>0</v>
       </c>
       <c r="P79" s="196"/>
@@ -18882,7 +18640,7 @@
       </c>
       <c r="D80" s="337" t="str">
         <f>_xll.qlSimpleQuote(C80,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR43x55F_SYNTH1Y_Quote#0001</v>
+        <v>EUR43x55F_SYNTH1Y_Quote#0000</v>
       </c>
       <c r="E80" s="330" t="str">
         <f>_xll.ohRangeRetrieveError(D80)</f>
@@ -18897,8 +18655,8 @@
         <v>43x55F</v>
       </c>
       <c r="J80" s="318">
-        <f ca="1">SynthFra!N47</f>
-        <v>1.6488055562022309E-2</v>
+        <f>SynthFra!N47</f>
+        <v>1.4570083602762946E-2</v>
       </c>
       <c r="K80" s="252"/>
       <c r="L80" s="321">
@@ -18906,11 +18664,10 @@
       </c>
       <c r="M80" s="252"/>
       <c r="N80" s="323">
-        <f ca="1"/>
-        <v>1.6488055562022309E-2</v>
+        <v>1.4570083602762946E-2</v>
       </c>
       <c r="O80" s="324">
-        <f ca="1">_xll.qlSimpleQuoteSetValue(D80,ROUND(N80,6),EvaluationDate)</f>
+        <f>_xll.qlSimpleQuoteSetValue(D80,ROUND(N80,6),EvaluationDate)</f>
         <v>0</v>
       </c>
       <c r="P80" s="196"/>
@@ -18929,7 +18686,7 @@
       </c>
       <c r="D81" s="337" t="str">
         <f>_xll.qlSimpleQuote(C81,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR44x56F_SYNTH1Y_Quote#0001</v>
+        <v>EUR44x56F_SYNTH1Y_Quote#0000</v>
       </c>
       <c r="E81" s="330" t="str">
         <f>_xll.ohRangeRetrieveError(D81)</f>
@@ -18944,8 +18701,8 @@
         <v>44x56F</v>
       </c>
       <c r="J81" s="318">
-        <f ca="1">SynthFra!N48</f>
-        <v>1.6830433405781758E-2</v>
+        <f>SynthFra!N48</f>
+        <v>1.4921970966282377E-2</v>
       </c>
       <c r="K81" s="252"/>
       <c r="L81" s="321">
@@ -18953,11 +18710,10 @@
       </c>
       <c r="M81" s="252"/>
       <c r="N81" s="323">
-        <f ca="1"/>
-        <v>1.6830433405781758E-2</v>
+        <v>1.4921970966282377E-2</v>
       </c>
       <c r="O81" s="324">
-        <f ca="1">_xll.qlSimpleQuoteSetValue(D81,ROUND(N81,6),EvaluationDate)</f>
+        <f>_xll.qlSimpleQuoteSetValue(D81,ROUND(N81,6),EvaluationDate)</f>
         <v>0</v>
       </c>
       <c r="P81" s="196"/>
@@ -18976,7 +18732,7 @@
       </c>
       <c r="D82" s="337" t="str">
         <f>_xll.qlSimpleQuote(C82,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR45x57F_SYNTH1Y_Quote#0001</v>
+        <v>EUR45x57F_SYNTH1Y_Quote#0000</v>
       </c>
       <c r="E82" s="330" t="str">
         <f>_xll.ohRangeRetrieveError(D82)</f>
@@ -18991,8 +18747,8 @@
         <v>45x57F</v>
       </c>
       <c r="J82" s="318">
-        <f ca="1">SynthFra!N49</f>
-        <v>1.717118815350293E-2</v>
+        <f>SynthFra!N49</f>
+        <v>1.5284247896307581E-2</v>
       </c>
       <c r="K82" s="252"/>
       <c r="L82" s="321">
@@ -19000,11 +18756,10 @@
       </c>
       <c r="M82" s="252"/>
       <c r="N82" s="323">
-        <f ca="1"/>
-        <v>1.717118815350293E-2</v>
+        <v>1.5284247896307581E-2</v>
       </c>
       <c r="O82" s="324">
-        <f ca="1">_xll.qlSimpleQuoteSetValue(D82,ROUND(N82,6),EvaluationDate)</f>
+        <f>_xll.qlSimpleQuoteSetValue(D82,ROUND(N82,6),EvaluationDate)</f>
         <v>0</v>
       </c>
       <c r="P82" s="196"/>
@@ -19023,7 +18778,7 @@
       </c>
       <c r="D83" s="337" t="str">
         <f>_xll.qlSimpleQuote(C83,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR46x58F_SYNTH1Y_Quote#0001</v>
+        <v>EUR46x58F_SYNTH1Y_Quote#0000</v>
       </c>
       <c r="E83" s="330" t="str">
         <f>_xll.ohRangeRetrieveError(D83)</f>
@@ -19038,8 +18793,8 @@
         <v>46x58F</v>
       </c>
       <c r="J83" s="318">
-        <f ca="1">SynthFra!N50</f>
-        <v>1.7542981521336064E-2</v>
+        <f>SynthFra!N50</f>
+        <v>1.5609869738017864E-2</v>
       </c>
       <c r="K83" s="252"/>
       <c r="L83" s="321">
@@ -19047,11 +18802,10 @@
       </c>
       <c r="M83" s="252"/>
       <c r="N83" s="323">
-        <f ca="1"/>
-        <v>1.7542981521336064E-2</v>
+        <v>1.5609869738017864E-2</v>
       </c>
       <c r="O83" s="324">
-        <f ca="1">_xll.qlSimpleQuoteSetValue(D83,ROUND(N83,6),EvaluationDate)</f>
+        <f>_xll.qlSimpleQuoteSetValue(D83,ROUND(N83,6),EvaluationDate)</f>
         <v>0</v>
       </c>
       <c r="P83" s="196"/>
@@ -19070,7 +18824,7 @@
       </c>
       <c r="D84" s="351" t="str">
         <f>_xll.qlSimpleQuote(C84,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR47x59F_SYNTH1Y_Quote#0001</v>
+        <v>EUR47x59F_SYNTH1Y_Quote#0000</v>
       </c>
       <c r="E84" s="341" t="str">
         <f>_xll.ohRangeRetrieveError(D84)</f>
@@ -19085,8 +18839,8 @@
         <v>47x59F</v>
       </c>
       <c r="J84" s="320">
-        <f ca="1">SynthFra!N51</f>
-        <v>1.7855708507888327E-2</v>
+        <f>SynthFra!N51</f>
+        <v>1.5979712496160266E-2</v>
       </c>
       <c r="K84" s="252"/>
       <c r="L84" s="322">
@@ -19094,11 +18848,10 @@
       </c>
       <c r="M84" s="252"/>
       <c r="N84" s="361">
-        <f ca="1"/>
-        <v>1.7855708507888327E-2</v>
+        <v>1.5979712496160266E-2</v>
       </c>
       <c r="O84" s="362">
-        <f ca="1">_xll.qlSimpleQuoteSetValue(D84,ROUND(N84,6),EvaluationDate)</f>
+        <f>_xll.qlSimpleQuoteSetValue(D84,ROUND(N84,6),EvaluationDate)</f>
         <v>0</v>
       </c>
       <c r="P84" s="196"/>

--- a/QuantLibXL/Data2/XLS/EUR_SynthQuotesFeed.xlsx
+++ b/QuantLibXL/Data2/XLS/EUR_SynthQuotesFeed.xlsx
@@ -2135,162 +2135,231 @@
       <sheetData sheetId="0">
         <row r="6">
           <cell r="D6">
-            <v>27</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="7">
           <cell r="D7">
-            <v>2</v>
+            <v>0</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="1">
-        <row r="6">
-          <cell r="I6" t="str">
-            <v>Eonia2#0001</v>
+        <row r="7">
+          <cell r="D7" t="str">
+            <v>EURSTD</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="2">
-        <row r="5">
-          <cell r="F5" t="str">
-            <v>EUR1E6E6M_Quote#0001</v>
+        <row r="6">
+          <cell r="D6" t="str">
+            <v>6E</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="D7" t="str">
+            <v>6E</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="3">
-        <row r="5">
-          <cell r="F5" t="str">
-            <v>EUR3E6E6M_Quote#0001</v>
+        <row r="6">
+          <cell r="D6" t="str">
+            <v>6E</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="D7" t="str">
+            <v>6E</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="4">
-        <row r="5">
-          <cell r="F5" t="str">
-            <v>EUR6E12E6M_Quote#0001</v>
+        <row r="6">
+          <cell r="D6" t="str">
+            <v>12E</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="D7" t="str">
+            <v>12E</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="5">
-        <row r="5">
-          <cell r="D5" t="str">
-            <v>EUROND_Quote#0001</v>
-          </cell>
-        </row>
         <row r="6">
           <cell r="D6" t="str">
-            <v>EURTND_Quote#0001</v>
+            <v>EURTND_Quote#0000</v>
           </cell>
         </row>
         <row r="7">
           <cell r="D7" t="str">
-            <v>EURSND_Quote#0001</v>
+            <v>EURSND_Quote#0000</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="6">
-        <row r="3">
-          <cell r="E3" t="str">
-            <v>EURT1F1_Quote#0001</v>
+        <row r="6">
+          <cell r="D6" t="str">
+            <v>EURTOM3F1_Quote</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="D7" t="str">
+            <v>EUR1x4F_Quote</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="7">
         <row r="6">
-          <cell r="F6" t="str">
-            <v>EURFUT1MM4_Quote#0001</v>
+          <cell r="D6" t="str">
+            <v>M4</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="D7" t="str">
+            <v>N4</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="8">
+        <row r="6">
+          <cell r="D6" t="str">
+            <v>Future Code</v>
+          </cell>
+        </row>
         <row r="7">
-          <cell r="F7" t="str">
-            <v>EURFUT3MM4_Quote#0001</v>
+          <cell r="D7" t="str">
+            <v>M4</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="9">
         <row r="6">
-          <cell r="F6" t="str">
-            <v>EURIMMFRA6MM4_Quote#0001</v>
+          <cell r="D6" t="str">
+            <v>M4</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="D7" t="str">
+            <v>N4</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="10">
-        <row r="5">
-          <cell r="C5" t="str">
-            <v>EURHW_Volatility_Quote#0001</v>
+        <row r="6">
+          <cell r="D6" t="str">
+            <v/>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="11">
-        <row r="5">
-          <cell r="F5" t="str">
-            <v>EUREONSW_Quote#0001</v>
+        <row r="6">
+          <cell r="D6" t="str">
+            <v>2W</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="D7" t="str">
+            <v>3W</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="12">
-        <row r="5">
-          <cell r="F5" t="str">
-            <v>EUR2X1S_Quote#0001</v>
+        <row r="6">
+          <cell r="D6" t="str">
+            <v>X1S</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="D7" t="str">
+            <v>X1S</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="13">
-        <row r="5">
-          <cell r="F5" t="str">
-            <v>EUR1S12_Quote#0001</v>
+        <row r="6">
+          <cell r="D6">
+            <v>12</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="D7">
+            <v>12</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="14">
         <row r="6">
-          <cell r="F6" t="str">
-            <v>EURAB3E1Y_Quote#0001</v>
+          <cell r="D6" t="str">
+            <v>3E</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="D7" t="str">
+            <v>3E</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="15">
         <row r="6">
-          <cell r="F6" t="str">
-            <v>EURAB6E1Y_Quote#0001</v>
+          <cell r="D6" t="str">
+            <v>6E</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="D7" t="str">
+            <v>6E</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="16">
-        <row r="3">
-          <cell r="D3" t="str">
-            <v>EURTOY_SYNTHON_Quote#0001</v>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17">
+        <row r="6">
+          <cell r="D6" t="str">
+            <v>1E</v>
           </cell>
         </row>
-      </sheetData>
-      <sheetData sheetId="17">
-        <row r="3">
-          <cell r="J3" t="str">
-            <v>EURAB1EBASIS1Y_Quote#0001</v>
+        <row r="7">
+          <cell r="D7" t="str">
+            <v>1E</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="18">
-        <row r="3">
-          <cell r="J3" t="str">
-            <v>EURAB3EBASIS1Y_Quote#0001</v>
+        <row r="6">
+          <cell r="D6" t="str">
+            <v>3E</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="D7" t="str">
+            <v>3E</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="19">
-        <row r="3">
-          <cell r="J3" t="str">
-            <v>EURAB6EBASIS1Y_Quote#0000</v>
+        <row r="6">
+          <cell r="D6" t="str">
+            <v>6E</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="D7" t="str">
+            <v>6E</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="20">
-        <row r="3">
-          <cell r="J3" t="str">
-            <v>EURAB12EBASIS1Y_Quote#0001</v>
+        <row r="6">
+          <cell r="D6" t="str">
+            <v>12E</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="D7" t="str">
+            <v>12E</v>
           </cell>
         </row>
       </sheetData>
@@ -2825,7 +2894,7 @@
         <v>26</v>
       </c>
       <c r="D11" s="366" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" s="280"/>
       <c r="F11" s="4"/>
@@ -2904,7 +2973,7 @@
       </c>
       <c r="D19" s="16">
         <f>_xll.qlCalendarAdvance(Calendar,EvaluationDate,"2D","f")</f>
-        <v>41788</v>
+        <v>41792</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="4"/>
@@ -2916,7 +2985,7 @@
       </c>
       <c r="D20" s="17" t="str">
         <f>_xll.qlDiscountingSwapEngine(,OisCurve,,,,,EvaluationDate)</f>
-        <v>obj_00364#0001</v>
+        <v>obj_0037f#0000</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="4"/>
@@ -3057,7 +3126,7 @@
       </c>
       <c r="D36" s="263" t="str">
         <f>_xll.qlEuribor(,IborTenor,YieldCurve,,D34)</f>
-        <v>obj_003ab#0001</v>
+        <v>obj_003ab#0000</v>
       </c>
       <c r="E36" s="29"/>
       <c r="F36" s="4"/>
@@ -3080,7 +3149,7 @@
       </c>
       <c r="D38" s="264" t="str">
         <f>_xll.qlInterpolation(,BasisInterpolation,SynthFra!I2:I6,SynthFra!O2:O6)</f>
-        <v>obj_003a9#0001</v>
+        <v>obj_003a9#0000</v>
       </c>
       <c r="E38" s="29"/>
       <c r="F38" s="4"/>
@@ -3103,7 +3172,7 @@
       </c>
       <c r="D40" s="270" t="str">
         <f>_xll.qlPiecewiseYieldCurve(,NDays,Calendar,_xll.ohPack(SynthFra!A3:A127),DayCounter,,,Accuracy,TraitsID,InterpolatorID)</f>
-        <v>obj_003aa#0001</v>
+        <v>obj_003aa#0000</v>
       </c>
       <c r="E40" s="29"/>
       <c r="F40" s="4"/>
@@ -3131,7 +3200,7 @@
       <c r="B43" s="2"/>
       <c r="C43" s="265">
         <f>_xll.qlTermStructureReferenceDate(YieldCurve)</f>
-        <v>41788</v>
+        <v>41792</v>
       </c>
       <c r="D43" s="266" t="e">
         <f>MAX(_xll.ohPack(SynthFra!E2:E127))</f>
@@ -3144,7 +3213,7 @@
       <c r="B44" s="2"/>
       <c r="C44" s="267">
         <f>MAX(_xll.ohPack(SynthFra!D3:D127))</f>
-        <v>43614</v>
+        <v>43619</v>
       </c>
       <c r="D44" s="268" t="e">
         <f>MIN(_xll.ohPack(SynthFra!E2:E127))</f>
@@ -3261,7 +3330,9 @@
       <c r="B2" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="41"/>
+      <c r="C2" s="41">
+        <v>41788.750057870369</v>
+      </c>
       <c r="D2" s="36"/>
       <c r="E2" s="37"/>
       <c r="F2" s="37"/>
@@ -3293,7 +3364,7 @@
       </c>
       <c r="C3" s="42">
         <f>_xll.qlSettingsEvaluationDate(Trigger)</f>
-        <v>41786</v>
+        <v>41788</v>
       </c>
       <c r="D3" s="36"/>
       <c r="E3" s="37"/>
@@ -3354,7 +3425,7 @@
       </c>
       <c r="C5" s="43">
         <f>[1]!TriggerCounter</f>
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="D5" s="36"/>
       <c r="E5" s="37"/>
@@ -3387,7 +3458,7 @@
       </c>
       <c r="C6" s="43">
         <f>[1]!LastFixingsTrigger</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D6" s="36"/>
       <c r="E6" s="37"/>
@@ -3420,7 +3491,7 @@
       </c>
       <c r="C7" s="43">
         <f>_xll.ohTrigger(Contribution!P2,Contribution!P8,Contribution!P15,Contribution!P25,Contribution!P41)</f>
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="D7" s="36"/>
       <c r="E7" s="37"/>
@@ -8756,7 +8827,9 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:AJ51"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -8840,7 +8913,7 @@
       </c>
       <c r="B2" s="53" t="str">
         <f>_xll.qlMakeDatedOIS(,E2,F2,OvernightIndex,0,,,,Trigger)</f>
-        <v>obj_0039f#0001</v>
+        <v>obj_003a3#0000</v>
       </c>
       <c r="C2" s="54" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B2,OisEngine)</f>
@@ -8852,23 +8925,23 @@
       </c>
       <c r="E2" s="56">
         <f>SettlementDate</f>
-        <v>41788</v>
+        <v>41792</v>
       </c>
       <c r="F2" s="57">
         <f>_xll.qlCalendarAdvance(Calendar,E2,A3,"mf")</f>
-        <v>41820</v>
+        <v>41822</v>
       </c>
       <c r="G2" s="58">
         <f>_xll.qlQuoteValue($D2,AllTriggers)</f>
         <v>2.8000000000000004E-3</v>
       </c>
-      <c r="H2" s="59" t="e">
+      <c r="H2" s="59">
         <f>_xll.qlOvernightIndexedSwapFairRate(B2,_xll.ohTrigger(C2,InterestRatesTrigger))</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="I2" s="60" t="e">
+        <v>1.6600000000002173E-3</v>
+      </c>
+      <c r="I2" s="60">
         <f>G2-H2</f>
-        <v>#NUM!</v>
+        <v>1.1399999999997831E-3</v>
       </c>
       <c r="J2" s="61" t="b">
         <v>0</v>
@@ -8882,22 +8955,22 @@
       </c>
       <c r="O2" s="63">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P2" s="62">
         <f>(O2^2-N2^2)/(O2-N2)</f>
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q2" s="61"/>
       <c r="R2" s="61"/>
       <c r="S2" s="61"/>
       <c r="T2" s="64">
         <f>(O2^3-N2^3)/3/(O2-N2)</f>
-        <v>341.33333333333331</v>
+        <v>300</v>
       </c>
       <c r="U2" s="64">
         <f>(O2+N2)/2</f>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="V2" s="64">
         <v>1</v>
@@ -8910,7 +8983,7 @@
       </c>
       <c r="B3" s="65" t="str">
         <f>_xll.qlMakeDatedOIS(,E3,F3,OvernightIndex,0,,,,Trigger)</f>
-        <v>obj_00328#0006</v>
+        <v>obj_00329#0001</v>
       </c>
       <c r="C3" s="66" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B3,OisEngine)</f>
@@ -8944,37 +9017,37 @@
         <f>NOT(ISERROR(I3))</f>
         <v>0</v>
       </c>
-      <c r="K3" s="73" t="e">
+      <c r="K3" s="73">
         <f>K4</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L3" s="71" t="e">
+        <v>4.3134367500351347E-6</v>
+      </c>
+      <c r="L3" s="71">
         <f>_xll.ohFilter($I$2:$I$3,$J$2:$J$3)-K3*_xll.ohFilter($P$2:$P$3,$J$2:$J$3)</f>
-        <v>#NUM!</v>
+        <v>0</v>
       </c>
       <c r="M3" s="62"/>
       <c r="N3" s="63">
         <f t="shared" si="0"/>
-        <v>-1</v>
+        <v>-5</v>
       </c>
       <c r="O3" s="63">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="P3" s="62">
         <f>(O3^2-N3^2)/(O3-N3)</f>
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="Q3" s="61"/>
       <c r="R3" s="61"/>
       <c r="S3" s="61"/>
       <c r="T3" s="64">
         <f>(O3^3-N3^3)/3/(O3-N3)</f>
-        <v>331</v>
+        <v>223</v>
       </c>
       <c r="U3" s="64">
         <f>(O3+N3)/2</f>
-        <v>15.5</v>
+        <v>11.5</v>
       </c>
       <c r="V3" s="64">
         <v>1</v>
@@ -8987,7 +9060,7 @@
       </c>
       <c r="B4" s="65" t="str">
         <f>_xll.qlMakeDatedOIS(,E4,F4,OvernightIndex,0,,,,Trigger)</f>
-        <v>obj_0032a#0006</v>
+        <v>obj_0032a#0001</v>
       </c>
       <c r="C4" s="66" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B4,OisEngine)</f>
@@ -9002,52 +9075,52 @@
       </c>
       <c r="F4" s="76">
         <f>F5</f>
-        <v>41849</v>
+        <v>41855</v>
       </c>
       <c r="G4" s="77">
         <f>((1+G5*(F5-E5)/360)/(1+G3*(F3-E3)/360)-1)/(F4-E4)*360</f>
-        <v>1.5651470840944064E-3</v>
-      </c>
-      <c r="H4" s="78" t="e">
+        <v>1.4190929559431606E-3</v>
+      </c>
+      <c r="H4" s="78">
         <f>_xll.qlOvernightIndexedSwapFairRate(B4,_xll.ohTrigger(C4,InterestRatesTrigger))</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="I4" s="79" t="e">
+        <v>1.0265702116899634E-3</v>
+      </c>
+      <c r="I4" s="79">
         <f>G4-H4</f>
-        <v>#NUM!</v>
+        <v>3.9252274425319723E-4</v>
       </c>
       <c r="J4" s="38" t="b">
         <f>NOT(ISERROR(I4))</f>
+        <v>1</v>
+      </c>
+      <c r="K4" s="78">
+        <f>(I4-_xll.ohFilter($I$2:$I$3,$J$2:$J$3))/(P4-_xll.ohFilter($P$2:$P$3,$J$2:$J$3))</f>
+        <v>4.3134367500351347E-6</v>
+      </c>
+      <c r="L4" s="78">
+        <f>_xll.ohFilter($I$2:$I$3,$J$2:$J$3)-K4*_xll.ohFilter($P$2:$P$3,$J$2:$J$3)</f>
         <v>0</v>
-      </c>
-      <c r="K4" s="78" t="e">
-        <f>(I4-_xll.ohFilter($I$2:$I$3,$J$2:$J$3))/(P4-_xll.ohFilter($P$2:$P$3,$J$2:$J$3))</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L4" s="78" t="e">
-        <f>_xll.ohFilter($I$2:$I$3,$J$2:$J$3)-K4*_xll.ohFilter($P$2:$P$3,$J$2:$J$3)</f>
-        <v>#NUM!</v>
       </c>
       <c r="M4" s="80"/>
       <c r="N4" s="81">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="O4" s="81">
         <f t="shared" si="0"/>
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P4" s="80">
         <f>(O4^2-N4^2)/(O4-N4)</f>
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="T4" s="82">
         <f>(O4^3-N4^3)/3/(O4-N4)</f>
-        <v>2232.333333333333</v>
+        <v>2172.3333333333335</v>
       </c>
       <c r="U4" s="82">
         <f>(O4+N4)/2</f>
-        <v>46.5</v>
+        <v>45.5</v>
       </c>
       <c r="V4" s="82">
         <v>1</v>
@@ -9062,11 +9135,11 @@
       </c>
       <c r="E5" s="75">
         <f>SettlementDate</f>
-        <v>41788</v>
+        <v>41792</v>
       </c>
       <c r="F5" s="76">
         <f>_xll.qlCalendarAdvance(Calendar,E5,"2M","mf")</f>
-        <v>41849</v>
+        <v>41855</v>
       </c>
       <c r="G5" s="84">
         <f>_xll.qlQuoteValue($D5,AllTriggers)</f>
@@ -9093,7 +9166,7 @@
       </c>
       <c r="B6" s="53" t="str">
         <f>_xll.qlMakeDatedOIS(,E6,F6,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_0039b#0001</v>
+        <v>obj_0039b#0000</v>
       </c>
       <c r="C6" s="54" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B6,OisEngine)</f>
@@ -9105,23 +9178,23 @@
       </c>
       <c r="E6" s="56">
         <f>SettlementDate</f>
-        <v>41788</v>
+        <v>41792</v>
       </c>
       <c r="F6" s="57">
         <f>_xll.qlCalendarAdvance(Calendar,E6,A7,"mf")</f>
-        <v>41880</v>
+        <v>41884</v>
       </c>
       <c r="G6" s="58">
         <f>_xll.qlQuoteValue($D6,AllTriggers)</f>
         <v>3.3E-3</v>
       </c>
-      <c r="H6" s="59" t="e">
+      <c r="H6" s="59">
         <f>_xll.qlOvernightIndexedSwapFairRate(B6,_xll.ohTrigger(C6,InterestRatesTrigger))</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="I6" s="60" t="e">
+        <v>1.1399999999994748E-3</v>
+      </c>
+      <c r="I6" s="60">
         <f t="shared" si="1"/>
-        <v>#NUM!</v>
+        <v>2.1600000000005252E-3</v>
       </c>
       <c r="J6" s="61" t="b">
         <v>0</v>
@@ -9163,7 +9236,7 @@
       </c>
       <c r="B7" s="65" t="str">
         <f>_xll.qlMakeDatedOIS(,E7,F7,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_00327#0006</v>
+        <v>obj_00327#0001</v>
       </c>
       <c r="C7" s="66" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B7,OisEngine)</f>
@@ -9202,26 +9275,26 @@
       <c r="M7" s="62"/>
       <c r="N7" s="63">
         <f t="shared" si="2"/>
-        <v>-1</v>
+        <v>-5</v>
       </c>
       <c r="O7" s="63">
         <f t="shared" si="3"/>
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="P7" s="62">
         <f t="shared" ref="P7:P27" si="6">(O7^2-N7^2)/(O7-N7)</f>
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="Q7" s="61"/>
       <c r="R7" s="61"/>
       <c r="S7" s="61"/>
       <c r="T7" s="64">
         <f t="shared" si="4"/>
-        <v>2730.333333333333</v>
+        <v>2386.333333333333</v>
       </c>
       <c r="U7" s="64">
         <f t="shared" si="5"/>
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="V7" s="64">
         <v>1</v>
@@ -9254,22 +9327,22 @@
       </c>
       <c r="O8" s="63">
         <f t="shared" si="3"/>
-        <v>-41788</v>
+        <v>-41792</v>
       </c>
       <c r="P8" s="62">
         <f t="shared" si="6"/>
-        <v>-41788</v>
+        <v>-41792</v>
       </c>
       <c r="Q8" s="61"/>
       <c r="R8" s="61"/>
       <c r="S8" s="61"/>
       <c r="T8" s="64">
         <f t="shared" si="4"/>
-        <v>582078981.33333325</v>
+        <v>582190421.33333337</v>
       </c>
       <c r="U8" s="64">
         <f t="shared" si="5"/>
-        <v>-20894</v>
+        <v>-20896</v>
       </c>
       <c r="V8" s="64">
         <v>1</v>
@@ -9301,7 +9374,7 @@
       </c>
       <c r="K9" s="71">
         <f>AVERAGE(_xll.ohFilter(K10:K12,J10:J12))</f>
-        <v>0</v>
+        <v>1.0871849520722539E-5</v>
       </c>
       <c r="L9" s="71">
         <f>_xll.ohFilter($I$6:$I$9,$J$6:$J$9)-K9*_xll.ohFilter($P$6:$P$9,$J$6:$J$9)</f>
@@ -9310,11 +9383,11 @@
       <c r="M9" s="62"/>
       <c r="N9" s="63">
         <f t="shared" si="2"/>
-        <v>-41788</v>
+        <v>-41792</v>
       </c>
       <c r="O9" s="63">
         <f t="shared" si="3"/>
-        <v>-41788</v>
+        <v>-41792</v>
       </c>
       <c r="P9" s="62" t="e">
         <f t="shared" si="6"/>
@@ -9329,44 +9402,44 @@
       </c>
       <c r="U9" s="64">
         <f t="shared" si="5"/>
-        <v>-41788</v>
+        <v>-41792</v>
       </c>
       <c r="V9" s="64">
         <v>1</v>
       </c>
       <c r="X9" s="91">
         <f t="array" ref="X9:X11">_xll.ohFilter(T6:T14,$J6:$J14)</f>
-        <v>0</v>
+        <v>4549.3333333333339</v>
       </c>
       <c r="Y9" s="94">
         <f t="array" ref="Y9:Y11">_xll.ohFilter(U6:U14,$J6:$J14)</f>
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="Z9" s="97">
         <f t="array" ref="Z9:Z11">_xll.ohFilter(V6:V14,$J6:$J14)</f>
-        <v>0</v>
-      </c>
-      <c r="AB9" s="100" t="e">
+        <v>1</v>
+      </c>
+      <c r="AB9" s="100">
         <f t="array" ref="AB9:AB11">MMULT(AF9:AH11,AD9:AD11)</f>
-        <v>#NUM!</v>
+        <v>-3.0299441027430839E-7</v>
       </c>
       <c r="AD9" s="100">
         <f t="array" ref="AD9:AD11">_xll.ohFilter(I6:I14,$J6:$J14)</f>
-        <v>0</v>
-      </c>
-      <c r="AF9" s="103" t="e">
+        <v>1.6602684140259426E-3</v>
+      </c>
+      <c r="AF9" s="103">
         <f t="array" ref="AF9:AH11">MINVERSE(X9:Z11)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="AG9" s="104" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="AH9" s="105" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="AJ9" s="112" t="e">
+        <v>2.5510204081632712E-3</v>
+      </c>
+      <c r="AG9" s="104">
+        <v>2.5510204081632699E-3</v>
+      </c>
+      <c r="AH9" s="105">
+        <v>-5.1020408163265415E-3</v>
+      </c>
+      <c r="AJ9" s="112">
         <f t="array" ref="AJ9:AJ11">MMULT(X9:Z11,AB9:AB11)-AD9:AD11</f>
-        <v>#NUM!</v>
+        <v>-8.0230960763927328E-18</v>
       </c>
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.2">
@@ -9376,7 +9449,7 @@
       </c>
       <c r="B10" s="89" t="str">
         <f>_xll.qlMakeDatedOIS(,E10,F10,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_00399#0001</v>
+        <v>obj_00399#0000</v>
       </c>
       <c r="C10" s="66" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B10,OisEngine)</f>
@@ -9398,82 +9471,82 @@
         <f>1-_xll.qlQuoteValue($D10,AllTriggers)/100</f>
         <v>2.5249999999999995E-3</v>
       </c>
-      <c r="H10" s="78" t="e">
+      <c r="H10" s="78">
         <f>_xll.qlOvernightIndexedSwapFairRate(B10,_xll.ohTrigger(C10,InterestRatesTrigger))</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="I10" s="79" t="e">
+        <v>8.6473158597405691E-4</v>
+      </c>
+      <c r="I10" s="79">
         <f t="shared" si="1"/>
-        <v>#NUM!</v>
+        <v>1.6602684140259426E-3</v>
       </c>
       <c r="J10" s="38" t="b">
         <f>AND(NOT(ISERROR(I10)))</f>
+        <v>1</v>
+      </c>
+      <c r="K10" s="78">
+        <f>(I10-_xll.ohFilter($I$6:$I$9,$J$6:$J$9))/(P10-_xll.ohFilter($P$6:$P$9,$J$6:$J$9))</f>
+        <v>1.3389261403435021E-5</v>
+      </c>
+      <c r="L10" s="78">
+        <f>_xll.ohFilter($I$6:$I$9,$J$6:$J$9)-K10*_xll.ohFilter($P$6:$P$9,$J$6:$J$9)</f>
         <v>0</v>
-      </c>
-      <c r="K10" s="78" t="e">
-        <f>(I10-_xll.ohFilter($I$6:$I$9,$J$6:$J$9))/(P10-_xll.ohFilter($P$6:$P$9,$J$6:$J$9))</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L10" s="78" t="e">
-        <f>_xll.ohFilter($I$6:$I$9,$J$6:$J$9)-K10*_xll.ohFilter($P$6:$P$9,$J$6:$J$9)</f>
-        <v>#NUM!</v>
       </c>
       <c r="M10" s="80"/>
       <c r="N10" s="81">
         <f t="shared" ref="N10:N18" si="7">E10-SettlementDate</f>
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="O10" s="81">
         <f t="shared" ref="O10:O18" si="8">F10-SettlementDate</f>
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="P10" s="80">
         <f t="shared" si="6"/>
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="T10" s="82">
         <f t="shared" si="4"/>
-        <v>5061.3333333333339</v>
+        <v>4549.3333333333339</v>
       </c>
       <c r="U10" s="82">
         <f t="shared" si="5"/>
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="V10" s="82">
         <v>1</v>
       </c>
       <c r="X10" s="92">
-        <v>0</v>
+        <v>8805.3333333333321</v>
       </c>
       <c r="Y10" s="95">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="Z10" s="98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA10" s="51" t="s">
         <v>56</v>
       </c>
-      <c r="AB10" s="101" t="e">
-        <v>#NUM!</v>
+      <c r="AB10" s="101">
+        <v>4.0761829879379678E-5</v>
       </c>
       <c r="AC10" s="51" t="s">
         <v>57</v>
       </c>
       <c r="AD10" s="101">
-        <v>0</v>
-      </c>
-      <c r="AF10" s="106" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="AG10" s="107" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="AH10" s="108" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="AJ10" s="113" t="e">
-        <v>#NUM!</v>
+        <v>1.512055440521122E-3</v>
+      </c>
+      <c r="AF10" s="106">
+        <v>-0.42346938775510279</v>
+      </c>
+      <c r="AG10" s="107">
+        <v>-0.35204081632653117</v>
+      </c>
+      <c r="AH10" s="108">
+        <v>0.77551020408163396</v>
+      </c>
+      <c r="AJ10" s="113">
+        <v>-1.2359904766334751E-17</v>
       </c>
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.2">
@@ -9483,7 +9556,7 @@
       </c>
       <c r="B11" s="89" t="str">
         <f>_xll.qlMakeDatedOIS(,E11,F11,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003a0#0001</v>
+        <v>obj_003a5#0000</v>
       </c>
       <c r="C11" s="66" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B11,OisEngine)</f>
@@ -9505,76 +9578,76 @@
         <f>1-_xll.qlQuoteValue($D11,AllTriggers)/100</f>
         <v>2.274999999999916E-3</v>
       </c>
-      <c r="H11" s="78" t="e">
+      <c r="H11" s="78">
         <f>_xll.qlOvernightIndexedSwapFairRate(B11,_xll.ohTrigger(C11,InterestRatesTrigger))</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="I11" s="79" t="e">
+        <v>7.6294455947879401E-4</v>
+      </c>
+      <c r="I11" s="79">
         <f t="shared" si="1"/>
-        <v>#NUM!</v>
+        <v>1.512055440521122E-3</v>
       </c>
       <c r="J11" s="38" t="b">
         <f>NOT(ISERROR(I11))</f>
+        <v>1</v>
+      </c>
+      <c r="K11" s="78">
+        <f>(I11-_xll.ohFilter($I$6:$I$9,$J$6:$J$9))/(P11-_xll.ohFilter($P$6:$P$9,$J$6:$J$9))</f>
+        <v>8.4003080028951214E-6</v>
+      </c>
+      <c r="L11" s="78">
+        <f>_xll.ohFilter($I$6:$I$9,$J$6:$J$9)-K11*_xll.ohFilter($P$6:$P$9,$J$6:$J$9)</f>
         <v>0</v>
-      </c>
-      <c r="K11" s="78" t="e">
-        <f>(I11-_xll.ohFilter($I$6:$I$9,$J$6:$J$9))/(P11-_xll.ohFilter($P$6:$P$9,$J$6:$J$9))</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L11" s="78" t="e">
-        <f>_xll.ohFilter($I$6:$I$9,$J$6:$J$9)-K11*_xll.ohFilter($P$6:$P$9,$J$6:$J$9)</f>
-        <v>#NUM!</v>
       </c>
       <c r="M11" s="80"/>
       <c r="N11" s="81">
         <f t="shared" si="7"/>
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="O11" s="81">
         <f t="shared" si="8"/>
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="P11" s="80">
         <f t="shared" si="6"/>
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="T11" s="82">
         <f t="shared" si="4"/>
-        <v>9541.3333333333321</v>
+        <v>8805.3333333333321</v>
       </c>
       <c r="U11" s="82">
         <f t="shared" si="5"/>
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="V11" s="82">
         <v>1</v>
       </c>
       <c r="X11" s="93">
-        <v>0</v>
+        <v>6481.333333333333</v>
       </c>
       <c r="Y11" s="96">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="Z11" s="99">
-        <v>0</v>
-      </c>
-      <c r="AB11" s="102" t="e">
-        <v>#NUM!</v>
+        <v>1</v>
+      </c>
+      <c r="AB11" s="102">
+        <v>5.1145753197898158E-4</v>
       </c>
       <c r="AD11" s="102">
-        <v>0</v>
-      </c>
-      <c r="AF11" s="109" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="AG11" s="110" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="AH11" s="111" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="AJ11" s="114" t="e">
-        <v>#NUM!</v>
+        <v>1.6455488316872964E-3</v>
+      </c>
+      <c r="AF11" s="109">
+        <v>15.649659863945597</v>
+      </c>
+      <c r="AG11" s="110">
+        <v>10.221088435374162</v>
+      </c>
+      <c r="AH11" s="111">
+        <v>-24.870748299319761</v>
+      </c>
+      <c r="AJ11" s="114">
+        <v>-9.9746599868666408E-18</v>
       </c>
     </row>
     <row r="12" spans="1:36" x14ac:dyDescent="0.2">
@@ -9583,7 +9656,7 @@
       </c>
       <c r="B12" s="89" t="str">
         <f>_xll.qlMakeDatedOIS(,E12,F12,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003a8#0001</v>
+        <v>obj_003a0#0000</v>
       </c>
       <c r="C12" s="66" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B12,OisEngine)</f>
@@ -9595,56 +9668,56 @@
       </c>
       <c r="E12" s="75">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A12&amp;"M","mf")</f>
-        <v>41820</v>
+        <v>41822</v>
       </c>
       <c r="F12" s="76">
         <f>_xll.qlInterestRateIndexMaturity($A$8,E12)</f>
-        <v>41912</v>
+        <v>41914</v>
       </c>
       <c r="G12" s="84">
         <f>_xll.qlQuoteValue(D12,AllTriggers)</f>
         <v>2.47E-3</v>
       </c>
-      <c r="H12" s="78" t="e">
+      <c r="H12" s="78">
         <f>_xll.qlOvernightIndexedSwapFairRate(B12,_xll.ohTrigger(C12,InterestRatesTrigger))</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="I12" s="79" t="e">
+        <v>8.2445116831270343E-4</v>
+      </c>
+      <c r="I12" s="79">
         <f>G12-H12</f>
-        <v>#NUM!</v>
+        <v>1.6455488316872964E-3</v>
       </c>
       <c r="J12" s="38" t="b">
         <f>AND(NOT(ISERROR(I12)),E12&lt;&gt;$E$11,E12&lt;&gt;$E$10)</f>
+        <v>1</v>
+      </c>
+      <c r="K12" s="78">
+        <f>(I12-_xll.ohFilter($I$6:$I$9,$J$6:$J$9))/(P12-_xll.ohFilter($P$6:$P$9,$J$6:$J$9))</f>
+        <v>1.0825979155837476E-5</v>
+      </c>
+      <c r="L12" s="78">
+        <f>_xll.ohFilter($I$6:$I$9,$J$6:$J$9)-K12*_xll.ohFilter($P$6:$P$9,$J$6:$J$9)</f>
         <v>0</v>
-      </c>
-      <c r="K12" s="78" t="e">
-        <f>(I12-_xll.ohFilter($I$6:$I$9,$J$6:$J$9))/(P12-_xll.ohFilter($P$6:$P$9,$J$6:$J$9))</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L12" s="78" t="e">
-        <f>_xll.ohFilter($I$6:$I$9,$J$6:$J$9)-K12*_xll.ohFilter($P$6:$P$9,$J$6:$J$9)</f>
-        <v>#NUM!</v>
       </c>
       <c r="M12" s="80"/>
       <c r="N12" s="81">
         <f t="shared" si="7"/>
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="O12" s="81">
         <f t="shared" si="8"/>
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="P12" s="80">
         <f t="shared" si="6"/>
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="T12" s="82">
         <f t="shared" si="4"/>
-        <v>6789.333333333333</v>
+        <v>6481.333333333333</v>
       </c>
       <c r="U12" s="82">
         <f t="shared" si="5"/>
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="V12" s="82">
         <v>1</v>
@@ -9659,7 +9732,7 @@
       </c>
       <c r="B13" s="89" t="str">
         <f>_xll.qlMakeDatedOIS(,E13,F13,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_0039a#0001</v>
+        <v>obj_003a8#0000</v>
       </c>
       <c r="C13" s="66" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B13,OisEngine)</f>
@@ -9671,56 +9744,56 @@
       </c>
       <c r="E13" s="75">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A13&amp;"M","mf")</f>
-        <v>41849</v>
+        <v>41855</v>
       </c>
       <c r="F13" s="76">
         <f>_xll.qlInterestRateIndexMaturity($A$8,E13)</f>
-        <v>41941</v>
+        <v>41947</v>
       </c>
       <c r="G13" s="84">
         <f>_xll.qlQuoteValue(D13,AllTriggers)</f>
         <v>2.2500000000000003E-3</v>
       </c>
-      <c r="H13" s="78" t="e">
+      <c r="H13" s="78">
         <f>_xll.qlOvernightIndexedSwapFairRate(B13,_xll.ohTrigger(C13,InterestRatesTrigger))</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="I13" s="79" t="e">
+        <v>6.6799364824782941E-4</v>
+      </c>
+      <c r="I13" s="79">
         <f>G13-H13</f>
-        <v>#NUM!</v>
+        <v>1.5820063517521707E-3</v>
       </c>
       <c r="J13" s="38" t="b">
         <f>AND(NOT(ISERROR(I13)),E13&lt;&gt;$E$11,E13&lt;&gt;$E$10)</f>
+        <v>1</v>
+      </c>
+      <c r="K13" s="78">
+        <f>(I13-_xll.ohFilter($I$6:$I$9,$J$6:$J$9))/(P13-_xll.ohFilter($P$6:$P$9,$J$6:$J$9))</f>
+        <v>7.2569098704228019E-6</v>
+      </c>
+      <c r="L13" s="78">
+        <f>_xll.ohFilter($I$6:$I$9,$J$6:$J$9)-K13*_xll.ohFilter($P$6:$P$9,$J$6:$J$9)</f>
         <v>0</v>
-      </c>
-      <c r="K13" s="78" t="e">
-        <f>(I13-_xll.ohFilter($I$6:$I$9,$J$6:$J$9))/(P13-_xll.ohFilter($P$6:$P$9,$J$6:$J$9))</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L13" s="78" t="e">
-        <f>_xll.ohFilter($I$6:$I$9,$J$6:$J$9)-K13*_xll.ohFilter($P$6:$P$9,$J$6:$J$9)</f>
-        <v>#NUM!</v>
       </c>
       <c r="M13" s="80"/>
       <c r="N13" s="81">
         <f t="shared" si="7"/>
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="O13" s="81">
         <f t="shared" si="8"/>
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="P13" s="80">
         <f t="shared" si="6"/>
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="T13" s="82">
         <f t="shared" si="4"/>
-        <v>12154.333333333334</v>
+        <v>12586.333333333334</v>
       </c>
       <c r="U13" s="82">
         <f t="shared" si="5"/>
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="V13" s="82">
         <v>1</v>
@@ -9735,7 +9808,7 @@
       </c>
       <c r="B14" s="89" t="str">
         <f>_xll.qlMakeDatedOIS(,E14,F14,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003a2#0001</v>
+        <v>obj_0039f#0000</v>
       </c>
       <c r="C14" s="66" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B14,OisEngine)</f>
@@ -9747,35 +9820,35 @@
       </c>
       <c r="E14" s="75">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A14&amp;"M","mf")</f>
-        <v>41880</v>
+        <v>41884</v>
       </c>
       <c r="F14" s="76">
         <f>_xll.qlInterestRateIndexMaturity($A$8,E14)</f>
-        <v>41971</v>
+        <v>41975</v>
       </c>
       <c r="G14" s="84">
         <f>_xll.qlQuoteValue(D14,AllTriggers)</f>
         <v>2.0700000000000002E-3</v>
       </c>
-      <c r="H14" s="78" t="e">
+      <c r="H14" s="78">
         <f>_xll.qlOvernightIndexedSwapFairRate(B14,_xll.ohTrigger(C14,InterestRatesTrigger))</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="I14" s="79" t="e">
+        <v>5.76755048952465E-4</v>
+      </c>
+      <c r="I14" s="79">
         <f>G14-H14</f>
-        <v>#NUM!</v>
+        <v>1.4932449510475353E-3</v>
       </c>
       <c r="J14" s="38" t="b">
         <f>AND(NOT(ISERROR(I14)),E14&lt;&gt;$E$11,E14&lt;&gt;$E$10)</f>
+        <v>1</v>
+      </c>
+      <c r="K14" s="78">
+        <f>(I14-_xll.ohFilter($I$6:$I$9,$J$6:$J$9))/(P14-_xll.ohFilter($P$6:$P$9,$J$6:$J$9))</f>
+        <v>5.4299816401728557E-6</v>
+      </c>
+      <c r="L14" s="78">
+        <f>_xll.ohFilter($I$6:$I$9,$J$6:$J$9)-K14*_xll.ohFilter($P$6:$P$9,$J$6:$J$9)</f>
         <v>0</v>
-      </c>
-      <c r="K14" s="78" t="e">
-        <f>(I14-_xll.ohFilter($I$6:$I$9,$J$6:$J$9))/(P14-_xll.ohFilter($P$6:$P$9,$J$6:$J$9))</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L14" s="78" t="e">
-        <f>_xll.ohFilter($I$6:$I$9,$J$6:$J$9)-K14*_xll.ohFilter($P$6:$P$9,$J$6:$J$9)</f>
-        <v>#NUM!</v>
       </c>
       <c r="M14" s="80"/>
       <c r="N14" s="81">
@@ -9811,7 +9884,7 @@
       </c>
       <c r="B15" s="53" t="str">
         <f>_xll.qlMakeDatedOIS(,E15,F15,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003a3#0001</v>
+        <v>obj_003a6#0000</v>
       </c>
       <c r="C15" s="54" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B15,OisEngine)</f>
@@ -9823,23 +9896,23 @@
       </c>
       <c r="E15" s="56">
         <f>SettlementDate</f>
-        <v>41788</v>
+        <v>41792</v>
       </c>
       <c r="F15" s="57">
         <f>_xll.qlCalendarAdvance(Calendar,E15,A16,"mf")</f>
-        <v>41971</v>
+        <v>41975</v>
       </c>
       <c r="G15" s="58">
         <f>_xll.qlQuoteValue($D15,AllTriggers)</f>
         <v>4.3E-3</v>
       </c>
-      <c r="H15" s="59" t="e">
+      <c r="H15" s="59">
         <f>_xll.qlOvernightIndexedSwapFairRate(B15,_xll.ohTrigger(C15,InterestRatesTrigger))</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="I15" s="60" t="e">
+        <v>8.6000000000008661E-4</v>
+      </c>
+      <c r="I15" s="60">
         <f t="shared" si="1"/>
-        <v>#NUM!</v>
+        <v>3.4399999999999136E-3</v>
       </c>
       <c r="J15" s="61" t="b">
         <v>0</v>
@@ -9881,7 +9954,7 @@
       </c>
       <c r="B16" s="65" t="str">
         <f>_xll.qlMakeDatedOIS(,E16,F16,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_00326#0006</v>
+        <v>obj_00328#0001</v>
       </c>
       <c r="C16" s="66" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B16,OisEngine)</f>
@@ -9920,26 +9993,26 @@
       <c r="M16" s="62"/>
       <c r="N16" s="63">
         <f t="shared" si="7"/>
-        <v>-1</v>
+        <v>-5</v>
       </c>
       <c r="O16" s="63">
         <f t="shared" si="8"/>
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="P16" s="62">
         <f t="shared" si="6"/>
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="Q16" s="61"/>
       <c r="R16" s="61"/>
       <c r="S16" s="61"/>
       <c r="T16" s="64">
         <f t="shared" si="4"/>
-        <v>11102.333333333332</v>
+        <v>10390.333333333332</v>
       </c>
       <c r="U16" s="64">
         <f t="shared" si="5"/>
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="V16" s="64">
         <v>1</v>
@@ -9969,11 +10042,11 @@
       <c r="M17" s="62"/>
       <c r="N17" s="63">
         <f t="shared" si="7"/>
-        <v>-41788</v>
+        <v>-41792</v>
       </c>
       <c r="O17" s="63">
         <f t="shared" si="8"/>
-        <v>-41788</v>
+        <v>-41792</v>
       </c>
       <c r="P17" s="62" t="e">
         <f t="shared" si="6"/>
@@ -9988,7 +10061,7 @@
       </c>
       <c r="U17" s="64">
         <f t="shared" si="5"/>
-        <v>-41788</v>
+        <v>-41792</v>
       </c>
       <c r="V17" s="64">
         <v>1</v>
@@ -10017,7 +10090,7 @@
       </c>
       <c r="K18" s="71">
         <f>AVERAGE(_xll.ohFilter(K19:K21,J19:J21))</f>
-        <v>0</v>
+        <v>8.7549516730329669E-6</v>
       </c>
       <c r="L18" s="71">
         <f>_xll.ohFilter($I$15:$I$18,$J$15:$J$18)-K18*_xll.ohFilter($P$15:$P$18,$J$15:$J$18)</f>
@@ -10026,11 +10099,11 @@
       <c r="M18" s="62"/>
       <c r="N18" s="63">
         <f t="shared" si="7"/>
-        <v>-41788</v>
+        <v>-41792</v>
       </c>
       <c r="O18" s="63">
         <f t="shared" si="8"/>
-        <v>-41788</v>
+        <v>-41792</v>
       </c>
       <c r="P18" s="62" t="e">
         <f t="shared" si="6"/>
@@ -10045,44 +10118,44 @@
       </c>
       <c r="U18" s="64">
         <f t="shared" si="5"/>
-        <v>-41788</v>
+        <v>-41792</v>
       </c>
       <c r="V18" s="64">
         <v>1</v>
       </c>
       <c r="X18" s="91">
         <f t="array" ref="X18:X20">_xll.ohFilter(T15:T24,$J15:$J24)</f>
-        <v>0</v>
+        <v>17705.333333333336</v>
       </c>
       <c r="Y18" s="94">
         <f t="array" ref="Y18:Y20">_xll.ohFilter(U15:U24,$J15:$J24)</f>
-        <v>0</v>
+        <v>122</v>
       </c>
       <c r="Z18" s="97">
         <f t="array" ref="Z18:Z20">_xll.ohFilter(V15:V24,$J15:$J24)</f>
-        <v>0</v>
-      </c>
-      <c r="AB18" s="100" t="e">
+        <v>1</v>
+      </c>
+      <c r="AB18" s="100">
         <f t="array" ref="AB18:AB20">MMULT(AF18:AH20,AD18:AD20)</f>
-        <v>#NUM!</v>
+        <v>-6.36770070173314E-8</v>
       </c>
       <c r="AD18" s="100">
         <f t="array" ref="AD18:AD20">_xll.ohFilter(I15:I24,$J15:$J24)</f>
-        <v>0</v>
-      </c>
-      <c r="AF18" s="103" t="e">
+        <v>2.6519374747359498E-3</v>
+      </c>
+      <c r="AF18" s="103">
         <f t="array" ref="AF18:AH20">MINVERSE(X18:Z20)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="AG18" s="104" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="AH18" s="105" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="AJ18" s="112" t="e">
+        <v>5.2994170641229511E-4</v>
+      </c>
+      <c r="AG18" s="104">
+        <v>-1.1658717541070498E-3</v>
+      </c>
+      <c r="AH18" s="105">
+        <v>6.3593004769475422E-4</v>
+      </c>
+      <c r="AJ18" s="112">
         <f t="array" ref="AJ18:AJ20">MMULT(X18:Z20,AB18:AB20)-AD18:AD20</f>
-        <v>#NUM!</v>
+        <v>8.2399365108898337E-18</v>
       </c>
     </row>
     <row r="19" spans="1:36" x14ac:dyDescent="0.2">
@@ -10091,7 +10164,7 @@
       </c>
       <c r="B19" s="89" t="str">
         <f>_xll.qlMakeDatedOIS(,E19,F19,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003a4#0001</v>
+        <v>obj_0039a#0000</v>
       </c>
       <c r="C19" s="66" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B19,OisEngine)</f>
@@ -10103,92 +10176,92 @@
       </c>
       <c r="E19" s="75">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A19&amp;"M","mf")</f>
-        <v>41820</v>
+        <v>41822</v>
       </c>
       <c r="F19" s="76">
         <f>_xll.qlInterestRateIndexMaturity($A$17,E19)</f>
-        <v>42004</v>
+        <v>42006</v>
       </c>
       <c r="G19" s="77">
         <f>_xll.qlQuoteValue(D19,AllTriggers)</f>
         <v>3.2999999999999995E-3</v>
       </c>
-      <c r="H19" s="78" t="e">
+      <c r="H19" s="78">
         <f>_xll.qlOvernightIndexedSwapFairRate(B19,_xll.ohTrigger(C19,InterestRatesTrigger))</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="I19" s="79" t="e">
+        <v>6.4806252526404963E-4</v>
+      </c>
+      <c r="I19" s="79">
         <f t="shared" si="1"/>
-        <v>#NUM!</v>
+        <v>2.6519374747359498E-3</v>
       </c>
       <c r="J19" s="38" t="b">
         <f t="shared" ref="J19:J24" si="10">NOT(ISERROR(I19))</f>
+        <v>1</v>
+      </c>
+      <c r="K19" s="78">
+        <f>(I19-_xll.ohFilter($I$15:$I$18,$J$15:$J$18))/(P19-_xll.ohFilter($P$15:$P$18,$J$15:$J$18))</f>
+        <v>1.086859620793422E-5</v>
+      </c>
+      <c r="L19" s="78">
+        <f>_xll.ohFilter($I$15:$I$18,$J$15:$J$18)-K19*_xll.ohFilter($P$15:$P$18,$J$15:$J$18)</f>
         <v>0</v>
-      </c>
-      <c r="K19" s="78" t="e">
-        <f>(I19-_xll.ohFilter($I$15:$I$18,$J$15:$J$18))/(P19-_xll.ohFilter($P$15:$P$18,$J$15:$J$18))</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L19" s="78" t="e">
-        <f>_xll.ohFilter($I$15:$I$18,$J$15:$J$18)-K19*_xll.ohFilter($P$15:$P$18,$J$15:$J$18)</f>
-        <v>#NUM!</v>
       </c>
       <c r="M19" s="80"/>
       <c r="N19" s="81">
         <f t="shared" ref="N19:N27" si="11">E19-SettlementDate</f>
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="O19" s="81">
         <f t="shared" ref="O19:O27" si="12">F19-SettlementDate</f>
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="P19" s="80">
         <f t="shared" si="6"/>
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="T19" s="82">
         <f t="shared" si="4"/>
-        <v>18197.333333333336</v>
+        <v>17705.333333333336</v>
       </c>
       <c r="U19" s="82">
         <f t="shared" si="5"/>
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="V19" s="82">
         <v>1</v>
       </c>
       <c r="X19" s="92">
-        <v>0</v>
+        <v>26846.333333333332</v>
       </c>
       <c r="Y19" s="95">
-        <v>0</v>
+        <v>155</v>
       </c>
       <c r="Z19" s="98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA19" s="51" t="s">
         <v>56</v>
       </c>
-      <c r="AB19" s="101" t="e">
-        <v>#NUM!</v>
+      <c r="AB19" s="101">
+        <v>1.7088850360433554E-5</v>
       </c>
       <c r="AC19" s="51" t="s">
         <v>57</v>
       </c>
       <c r="AD19" s="101">
-        <v>0</v>
-      </c>
-      <c r="AF19" s="106" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="AG19" s="107" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="AH19" s="108" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="AJ19" s="113" t="e">
-        <v>#NUM!</v>
+        <v>2.6337980154848332E-3</v>
+      </c>
+      <c r="AF19" s="106">
+        <v>-0.17709688297923595</v>
+      </c>
+      <c r="AG19" s="107">
+        <v>0.3532495061906829</v>
+      </c>
+      <c r="AH19" s="108">
+        <v>-0.17615262321144687</v>
+      </c>
+      <c r="AJ19" s="113">
+        <v>6.5052130349130266E-18</v>
       </c>
     </row>
     <row r="20" spans="1:36" x14ac:dyDescent="0.2">
@@ -10197,7 +10270,7 @@
       </c>
       <c r="B20" s="89" t="str">
         <f>_xll.qlMakeDatedOIS(,E20,F20,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003a5#0001</v>
+        <v>obj_003a2#0000</v>
       </c>
       <c r="C20" s="66" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B20,OisEngine)</f>
@@ -10209,86 +10282,86 @@
       </c>
       <c r="E20" s="75">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A20&amp;"M","mf")</f>
-        <v>41849</v>
+        <v>41855</v>
       </c>
       <c r="F20" s="76">
         <f>_xll.qlInterestRateIndexMaturity($A$17,E20)</f>
-        <v>42033</v>
+        <v>42039</v>
       </c>
       <c r="G20" s="77">
         <f>_xll.qlQuoteValue(D20,AllTriggers)</f>
         <v>3.1700000000000001E-3</v>
       </c>
-      <c r="H20" s="78" t="e">
+      <c r="H20" s="78">
         <f>_xll.qlOvernightIndexedSwapFairRate(B20,_xll.ohTrigger(C20,InterestRatesTrigger))</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="I20" s="79" t="e">
+        <v>5.3620198451516691E-4</v>
+      </c>
+      <c r="I20" s="79">
         <f t="shared" si="1"/>
-        <v>#NUM!</v>
+        <v>2.6337980154848332E-3</v>
       </c>
       <c r="J20" s="38" t="b">
         <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="K20" s="78">
+        <f>(I20-_xll.ohFilter($I$15:$I$18,$J$15:$J$18))/(P20-_xll.ohFilter($P$15:$P$18,$J$15:$J$18))</f>
+        <v>8.4961226305962358E-6</v>
+      </c>
+      <c r="L20" s="78">
+        <f>_xll.ohFilter($I$15:$I$18,$J$15:$J$18)-K20*_xll.ohFilter($P$15:$P$18,$J$15:$J$18)</f>
         <v>0</v>
-      </c>
-      <c r="K20" s="78" t="e">
-        <f>(I20-_xll.ohFilter($I$15:$I$18,$J$15:$J$18))/(P20-_xll.ohFilter($P$15:$P$18,$J$15:$J$18))</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L20" s="78" t="e">
-        <f>_xll.ohFilter($I$15:$I$18,$J$15:$J$18)-K20*_xll.ohFilter($P$15:$P$18,$J$15:$J$18)</f>
-        <v>#NUM!</v>
       </c>
       <c r="M20" s="80"/>
       <c r="N20" s="81">
         <f t="shared" si="11"/>
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="O20" s="81">
         <f t="shared" si="12"/>
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="P20" s="80">
         <f t="shared" si="6"/>
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="T20" s="82">
         <f t="shared" si="4"/>
-        <v>26230.333333333332</v>
+        <v>26846.333333333332</v>
       </c>
       <c r="U20" s="82">
         <f t="shared" si="5"/>
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="V20" s="82">
         <v>1</v>
       </c>
       <c r="X20" s="93">
-        <v>0</v>
+        <v>36036.333333333328</v>
       </c>
       <c r="Y20" s="96">
-        <v>0</v>
+        <v>182.5</v>
       </c>
       <c r="Z20" s="99">
-        <v>0</v>
-      </c>
-      <c r="AB20" s="102" t="e">
-        <v>#NUM!</v>
+        <v>1</v>
+      </c>
+      <c r="AB20" s="102">
+        <v>1.6945203656739231E-3</v>
       </c>
       <c r="AD20" s="102">
-        <v>0</v>
-      </c>
-      <c r="AF20" s="109" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="AG20" s="110" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="AH20" s="111" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="AJ20" s="114" t="e">
-        <v>#NUM!</v>
+        <v>2.5185497059074841E-3</v>
+      </c>
+      <c r="AF20" s="109">
+        <v>13.22302516420163</v>
+      </c>
+      <c r="AG20" s="110">
+        <v>-22.454291724879958</v>
+      </c>
+      <c r="AH20" s="111">
+        <v>10.231266560678327</v>
+      </c>
+      <c r="AJ20" s="114">
+        <v>3.0357660829594124E-18</v>
       </c>
     </row>
     <row r="21" spans="1:36" x14ac:dyDescent="0.2">
@@ -10297,7 +10370,7 @@
       </c>
       <c r="B21" s="89" t="str">
         <f>_xll.qlMakeDatedOIS(,E21,F21,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003a7#0001</v>
+        <v>obj_003a7#0000</v>
       </c>
       <c r="C21" s="66" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B21,OisEngine)</f>
@@ -10309,35 +10382,35 @@
       </c>
       <c r="E21" s="75">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A21&amp;"M","mf")</f>
-        <v>41880</v>
+        <v>41884</v>
       </c>
       <c r="F21" s="76">
         <f>_xll.qlInterestRateIndexMaturity($A$17,E21)</f>
-        <v>42062</v>
+        <v>42065</v>
       </c>
       <c r="G21" s="77">
         <f>_xll.qlQuoteValue(D21,AllTriggers)</f>
         <v>3.0400000000000006E-3</v>
       </c>
-      <c r="H21" s="78" t="e">
+      <c r="H21" s="78">
         <f>_xll.qlOvernightIndexedSwapFairRate(B21,_xll.ohTrigger(C21,InterestRatesTrigger))</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="I21" s="79" t="e">
+        <v>5.2145029409251652E-4</v>
+      </c>
+      <c r="I21" s="79">
         <f t="shared" si="1"/>
-        <v>#NUM!</v>
+        <v>2.5185497059074841E-3</v>
       </c>
       <c r="J21" s="38" t="b">
         <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="K21" s="78">
+        <f>(I21-_xll.ohFilter($I$15:$I$18,$J$15:$J$18))/(P21-_xll.ohFilter($P$15:$P$18,$J$15:$J$18))</f>
+        <v>6.9001361805684495E-6</v>
+      </c>
+      <c r="L21" s="78">
+        <f>_xll.ohFilter($I$15:$I$18,$J$15:$J$18)-K21*_xll.ohFilter($P$15:$P$18,$J$15:$J$18)</f>
         <v>0</v>
-      </c>
-      <c r="K21" s="78" t="e">
-        <f>(I21-_xll.ohFilter($I$15:$I$18,$J$15:$J$18))/(P21-_xll.ohFilter($P$15:$P$18,$J$15:$J$18))</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L21" s="78" t="e">
-        <f>_xll.ohFilter($I$15:$I$18,$J$15:$J$18)-K21*_xll.ohFilter($P$15:$P$18,$J$15:$J$18)</f>
-        <v>#NUM!</v>
       </c>
       <c r="M21" s="80"/>
       <c r="N21" s="81">
@@ -10346,19 +10419,19 @@
       </c>
       <c r="O21" s="81">
         <f t="shared" si="12"/>
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="P21" s="80">
         <f t="shared" si="6"/>
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="T21" s="82">
         <f t="shared" si="4"/>
-        <v>36249.333333333336</v>
+        <v>36036.333333333328</v>
       </c>
       <c r="U21" s="82">
         <f t="shared" si="5"/>
-        <v>183</v>
+        <v>182.5</v>
       </c>
       <c r="V21" s="82">
         <v>1</v>
@@ -10374,7 +10447,7 @@
       </c>
       <c r="B22" s="89" t="str">
         <f>_xll.qlMakeDatedOIS(,E22,F22,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003a6#0001</v>
+        <v>obj_003a4#0000</v>
       </c>
       <c r="C22" s="66" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B22,OisEngine)</f>
@@ -10386,56 +10459,56 @@
       </c>
       <c r="E22" s="75">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A22&amp;"M","mf")</f>
-        <v>41911</v>
+        <v>41914</v>
       </c>
       <c r="F22" s="76">
         <f>_xll.qlInterestRateIndexMaturity($A$17,E22)</f>
-        <v>42093</v>
+        <v>42096</v>
       </c>
       <c r="G22" s="77">
         <f>_xll.qlQuoteValue(D22,AllTriggers)</f>
         <v>2.9500000000000004E-3</v>
       </c>
-      <c r="H22" s="78" t="e">
+      <c r="H22" s="78">
         <f>_xll.qlOvernightIndexedSwapFairRate(B22,_xll.ohTrigger(C22,InterestRatesTrigger))</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="I22" s="79" t="e">
+        <v>4.6192667401639904E-4</v>
+      </c>
+      <c r="I22" s="79">
         <f t="shared" si="1"/>
-        <v>#NUM!</v>
+        <v>2.4880733259836012E-3</v>
       </c>
       <c r="J22" s="38" t="b">
         <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="K22" s="78">
+        <f>(I22-_xll.ohFilter($I$15:$I$18,$J$15:$J$18))/(P22-_xll.ohFilter($P$15:$P$18,$J$15:$J$18))</f>
+        <v>5.8405477135765287E-6</v>
+      </c>
+      <c r="L22" s="78">
+        <f>_xll.ohFilter($I$15:$I$18,$J$15:$J$18)-K22*_xll.ohFilter($P$15:$P$18,$J$15:$J$18)</f>
         <v>0</v>
-      </c>
-      <c r="K22" s="78" t="e">
-        <f>(I22-_xll.ohFilter($I$15:$I$18,$J$15:$J$18))/(P22-_xll.ohFilter($P$15:$P$18,$J$15:$J$18))</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L22" s="78" t="e">
-        <f>_xll.ohFilter($I$15:$I$18,$J$15:$J$18)-K22*_xll.ohFilter($P$15:$P$18,$J$15:$J$18)</f>
-        <v>#NUM!</v>
       </c>
       <c r="M22" s="80"/>
       <c r="N22" s="81">
         <f t="shared" si="11"/>
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O22" s="81">
         <f t="shared" si="12"/>
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="P22" s="80">
         <f t="shared" si="6"/>
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="T22" s="82">
         <f t="shared" si="4"/>
-        <v>48556.333333333328</v>
+        <v>48129.333333333328</v>
       </c>
       <c r="U22" s="82">
         <f t="shared" si="5"/>
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="V22" s="82">
         <v>1</v>
@@ -10451,7 +10524,7 @@
       </c>
       <c r="B23" s="89" t="str">
         <f>_xll.qlMakeDatedOIS(,E23,F23,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_0039d#0001</v>
+        <v>obj_0039e#0000</v>
       </c>
       <c r="C23" s="66" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B23,OisEngine)</f>
@@ -10463,56 +10536,56 @@
       </c>
       <c r="E23" s="75">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A23&amp;"M","mf")</f>
-        <v>41941</v>
+        <v>41946</v>
       </c>
       <c r="F23" s="76">
         <f>_xll.qlInterestRateIndexMaturity($A$17,E23)</f>
-        <v>42123</v>
+        <v>42128</v>
       </c>
       <c r="G23" s="77">
         <f>_xll.qlQuoteValue(D23,AllTriggers)</f>
         <v>2.9200000000000003E-3</v>
       </c>
-      <c r="H23" s="78" t="e">
+      <c r="H23" s="78">
         <f>_xll.qlOvernightIndexedSwapFairRate(B23,_xll.ohTrigger(C23,InterestRatesTrigger))</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="I23" s="79" t="e">
+        <v>4.2290686752631946E-4</v>
+      </c>
+      <c r="I23" s="79">
         <f t="shared" si="1"/>
-        <v>#NUM!</v>
+        <v>2.497093132473681E-3</v>
       </c>
       <c r="J23" s="38" t="b">
         <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="K23" s="78">
+        <f>(I23-_xll.ohFilter($I$15:$I$18,$J$15:$J$18))/(P23-_xll.ohFilter($P$15:$P$18,$J$15:$J$18))</f>
+        <v>5.0961084336197569E-6</v>
+      </c>
+      <c r="L23" s="78">
+        <f>_xll.ohFilter($I$15:$I$18,$J$15:$J$18)-K23*_xll.ohFilter($P$15:$P$18,$J$15:$J$18)</f>
         <v>0</v>
-      </c>
-      <c r="K23" s="78" t="e">
-        <f>(I23-_xll.ohFilter($I$15:$I$18,$J$15:$J$18))/(P23-_xll.ohFilter($P$15:$P$18,$J$15:$J$18))</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L23" s="78" t="e">
-        <f>_xll.ohFilter($I$15:$I$18,$J$15:$J$18)-K23*_xll.ohFilter($P$15:$P$18,$J$15:$J$18)</f>
-        <v>#NUM!</v>
       </c>
       <c r="M23" s="80"/>
       <c r="N23" s="81">
         <f t="shared" si="11"/>
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O23" s="81">
         <f t="shared" si="12"/>
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="P23" s="80">
         <f t="shared" si="6"/>
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="T23" s="82">
         <f t="shared" si="4"/>
-        <v>62296.333333333328</v>
+        <v>62785.333333333328</v>
       </c>
       <c r="U23" s="82">
         <f t="shared" si="5"/>
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="V23" s="82">
         <v>1</v>
@@ -10528,7 +10601,7 @@
       </c>
       <c r="B24" s="89" t="str">
         <f>_xll.qlMakeDatedOIS(,E24,F24,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003a1#0001</v>
+        <v>obj_0039d#0000</v>
       </c>
       <c r="C24" s="66" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B24,OisEngine)</f>
@@ -10540,35 +10613,35 @@
       </c>
       <c r="E24" s="75">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A24&amp;"M","mf")</f>
-        <v>41971</v>
+        <v>41975</v>
       </c>
       <c r="F24" s="76">
         <f>_xll.qlInterestRateIndexMaturity($A$17,E24)</f>
-        <v>42153</v>
+        <v>42157</v>
       </c>
       <c r="G24" s="77">
         <f>_xll.qlQuoteValue(D24,AllTriggers)</f>
         <v>2.9100000000000003E-3</v>
       </c>
-      <c r="H24" s="78" t="e">
+      <c r="H24" s="78">
         <f>_xll.qlOvernightIndexedSwapFairRate(B24,_xll.ohTrigger(C24,InterestRatesTrigger))</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="I24" s="79" t="e">
+        <v>4.1860820723617673E-4</v>
+      </c>
+      <c r="I24" s="79">
         <f t="shared" si="1"/>
-        <v>#NUM!</v>
+        <v>2.4913917927638237E-3</v>
       </c>
       <c r="J24" s="38" t="b">
         <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="K24" s="78">
+        <f>(I24-_xll.ohFilter($I$15:$I$18,$J$15:$J$18))/(P24-_xll.ohFilter($P$15:$P$18,$J$15:$J$18))</f>
+        <v>4.5463353882551526E-6</v>
+      </c>
+      <c r="L24" s="78">
+        <f>_xll.ohFilter($I$15:$I$18,$J$15:$J$18)-K24*_xll.ohFilter($P$15:$P$18,$J$15:$J$18)</f>
         <v>0</v>
-      </c>
-      <c r="K24" s="78" t="e">
-        <f>(I24-_xll.ohFilter($I$15:$I$18,$J$15:$J$18))/(P24-_xll.ohFilter($P$15:$P$18,$J$15:$J$18))</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L24" s="78" t="e">
-        <f>_xll.ohFilter($I$15:$I$18,$J$15:$J$18)-K24*_xll.ohFilter($P$15:$P$18,$J$15:$J$18)</f>
-        <v>#NUM!</v>
       </c>
       <c r="M24" s="80"/>
       <c r="N24" s="81">
@@ -10601,7 +10674,7 @@
       </c>
       <c r="B25" s="53" t="str">
         <f>_xll.qlMakeDatedOIS(,E25,F25,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_0039c#0001</v>
+        <v>obj_0039c#0000</v>
       </c>
       <c r="C25" s="54" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B25,OisEngine)</f>
@@ -10613,23 +10686,23 @@
       </c>
       <c r="E25" s="56">
         <f>SettlementDate</f>
-        <v>41788</v>
+        <v>41792</v>
       </c>
       <c r="F25" s="57">
         <f>_xll.qlCalendarAdvance(Calendar,E25,A26,"mf")</f>
-        <v>42153</v>
+        <v>42157</v>
       </c>
       <c r="G25" s="58">
         <f>_xll.qlQuoteValue($D25,AllTriggers)</f>
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="H25" s="59" t="e">
+      <c r="H25" s="59">
         <f>_xll.qlOvernightIndexedSwapFairRate(B25,_xll.ohTrigger(C25,InterestRatesTrigger))</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="I25" s="60" t="e">
+        <v>6.3999999999981281E-4</v>
+      </c>
+      <c r="I25" s="60">
         <f t="shared" si="1"/>
-        <v>#NUM!</v>
+        <v>5.3600000000001875E-3</v>
       </c>
       <c r="J25" s="61" t="b">
         <v>0</v>
@@ -10671,7 +10744,7 @@
       </c>
       <c r="B26" s="89" t="str">
         <f>_xll.qlMakeDatedOIS(,E26,F26,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_00329#0006</v>
+        <v>obj_00326#0001</v>
       </c>
       <c r="C26" s="66" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B26,OisEngine)</f>
@@ -10705,37 +10778,37 @@
         <f>NOT(ISERROR(I26))</f>
         <v>0</v>
       </c>
-      <c r="K26" s="73" t="e">
+      <c r="K26" s="73">
         <f>K27</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L26" s="71" t="e">
+        <v>3.7775125025676943E-6</v>
+      </c>
+      <c r="L26" s="71">
         <f>_xll.ohFilter($I$25:$I$26,$J$25:$J$26)-K26*_xll.ohFilter($P$25:$P$26,$J$25:$J$26)</f>
-        <v>#NUM!</v>
+        <v>0</v>
       </c>
       <c r="M26" s="62"/>
       <c r="N26" s="63">
         <f t="shared" si="11"/>
-        <v>-1</v>
+        <v>-5</v>
       </c>
       <c r="O26" s="63">
         <f t="shared" si="12"/>
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="P26" s="62">
         <f t="shared" si="6"/>
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="Q26" s="61"/>
       <c r="R26" s="61"/>
       <c r="S26" s="61"/>
       <c r="T26" s="64">
         <f t="shared" si="4"/>
-        <v>44044.333333333328</v>
+        <v>42608.333333333328</v>
       </c>
       <c r="U26" s="64">
         <f t="shared" si="5"/>
-        <v>181.5</v>
+        <v>177.5</v>
       </c>
       <c r="V26" s="64">
         <v>1</v>
@@ -10748,7 +10821,7 @@
       </c>
       <c r="B27" s="89" t="str">
         <f>_xll.qlMakeDatedOIS(,E27,F27,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_0039e#0001</v>
+        <v>obj_003a1#0000</v>
       </c>
       <c r="C27" s="66" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B27,OisEngine)</f>
@@ -10760,35 +10833,35 @@
       </c>
       <c r="E27" s="75">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,"12M","mf")</f>
-        <v>42153</v>
+        <v>42157</v>
       </c>
       <c r="F27" s="76">
         <f>_xll.qlInterestRateIndexMaturity(A27,E27)</f>
-        <v>42521</v>
+        <v>42523</v>
       </c>
       <c r="G27" s="77">
         <f>_xll.qlQuoteValue(D27,AllTriggers)</f>
         <v>4.9399999999999999E-3</v>
       </c>
-      <c r="H27" s="78" t="e">
+      <c r="H27" s="78">
         <f>_xll.qlOvernightIndexedSwapFairRate(B27,_xll.ohTrigger(C27,InterestRatesTrigger))</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="I27" s="79" t="e">
+        <v>7.9984629718580732E-4</v>
+      </c>
+      <c r="I27" s="79">
         <f t="shared" si="1"/>
-        <v>#NUM!</v>
+        <v>4.1401537028141928E-3</v>
       </c>
       <c r="J27" s="38" t="b">
         <f>NOT(ISERROR(I27))</f>
+        <v>1</v>
+      </c>
+      <c r="K27" s="78">
+        <f>(I27-_xll.ohFilter($I$25:$I$26,$J$25:$J$26))/(P27-_xll.ohFilter($P$25:$P$26,$J$25:$J$26))</f>
+        <v>3.7775125025676943E-6</v>
+      </c>
+      <c r="L27" s="78">
+        <f>_xll.ohFilter($I$25:$I$26,$J$25:$J$26)-K27*_xll.ohFilter($P$25:$P$26,$J$25:$J$26)</f>
         <v>0</v>
-      </c>
-      <c r="K27" s="78" t="e">
-        <f>(I27-_xll.ohFilter($I$25:$I$26,$J$25:$J$26))/(P27-_xll.ohFilter($P$25:$P$26,$J$25:$J$26))</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L27" s="78" t="e">
-        <f>_xll.ohFilter($I$25:$I$26,$J$25:$J$26)-K27*_xll.ohFilter($P$25:$P$26,$J$25:$J$26)</f>
-        <v>#NUM!</v>
       </c>
       <c r="M27" s="80"/>
       <c r="N27" s="81">
@@ -10797,19 +10870,19 @@
       </c>
       <c r="O27" s="81">
         <f t="shared" si="12"/>
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="P27" s="80">
         <f t="shared" si="6"/>
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="T27" s="82">
         <f t="shared" si="4"/>
-        <v>312686.33333333337</v>
+        <v>311467</v>
       </c>
       <c r="U27" s="82">
         <f t="shared" si="5"/>
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="V27" s="82">
         <v>1</v>
@@ -10873,21 +10946,21 @@
         <v>59</v>
       </c>
       <c r="O30" s="51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P30" s="51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S30" s="121" t="s">
         <v>59</v>
       </c>
-      <c r="T30" s="122" t="e">
+      <c r="T30" s="122">
         <f>AB9</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="U30" s="123" t="e">
+        <v>-3.0299441027430839E-7</v>
+      </c>
+      <c r="U30" s="123">
         <f>AB18</f>
-        <v>#NUM!</v>
+        <v>-6.36770070173314E-8</v>
       </c>
     </row>
     <row r="31" spans="1:36" x14ac:dyDescent="0.2">
@@ -10914,33 +10987,33 @@
       <c r="M31" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="N31" s="115" t="e">
+      <c r="N31" s="115">
         <f>K4</f>
-        <v>#NUM!</v>
+        <v>4.3134367500351347E-6</v>
       </c>
       <c r="O31" s="115">
         <f>K9</f>
-        <v>0</v>
-      </c>
-      <c r="P31" s="115" t="e">
+        <v>1.0871849520722539E-5</v>
+      </c>
+      <c r="P31" s="115">
         <f>AVERAGE(K19:K21)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="Q31" s="115" t="e">
+        <v>8.7549516730329669E-6</v>
+      </c>
+      <c r="Q31" s="115">
         <f>K26</f>
-        <v>#NUM!</v>
+        <v>3.7775125025676943E-6</v>
       </c>
       <c r="R31" s="115"/>
       <c r="S31" s="127" t="s">
         <v>47</v>
       </c>
-      <c r="T31" s="128" t="e">
+      <c r="T31" s="128">
         <f>AB10</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="U31" s="79" t="e">
+        <v>4.0761829879379678E-5</v>
+      </c>
+      <c r="U31" s="79">
         <f>AB19</f>
-        <v>#NUM!</v>
+        <v>1.7088850360433554E-5</v>
       </c>
     </row>
     <row r="32" spans="1:36" x14ac:dyDescent="0.2">
@@ -10967,9 +11040,9 @@
       <c r="M32" s="51" t="s">
         <v>48</v>
       </c>
-      <c r="N32" s="115" t="e">
+      <c r="N32" s="115">
         <f>L4</f>
-        <v>#NUM!</v>
+        <v>0</v>
       </c>
       <c r="O32" s="115">
         <f>L9</f>
@@ -10979,21 +11052,21 @@
         <f>L18</f>
         <v>0</v>
       </c>
-      <c r="Q32" s="115" t="e">
+      <c r="Q32" s="115">
         <f>L26</f>
-        <v>#NUM!</v>
+        <v>0</v>
       </c>
       <c r="R32" s="115"/>
       <c r="S32" s="127" t="s">
         <v>48</v>
       </c>
-      <c r="T32" s="128" t="e">
+      <c r="T32" s="128">
         <f>AB11</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="U32" s="79" t="e">
+        <v>5.1145753197898158E-4</v>
+      </c>
+      <c r="U32" s="79">
         <f>AB20</f>
-        <v>#NUM!</v>
+        <v>1.6945203656739231E-3</v>
       </c>
     </row>
     <row r="33" spans="2:21" x14ac:dyDescent="0.2">
@@ -11052,7 +11125,7 @@
     <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B34" s="53" t="str">
         <f>_xll.qlMakeDatedOIS(,E34,F34,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_0038d#0001</v>
+        <v>obj_0038e#0000</v>
       </c>
       <c r="C34" s="116" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B34,OisEngine)</f>
@@ -11063,69 +11136,69 @@
       </c>
       <c r="E34" s="131">
         <f t="shared" ref="E34:E49" si="13">SettlementDate</f>
-        <v>41788</v>
+        <v>41792</v>
       </c>
       <c r="F34" s="132">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D34,"Following")</f>
-        <v>41789</v>
-      </c>
-      <c r="G34" s="133" t="e">
+        <v>41793</v>
+      </c>
+      <c r="G34" s="133">
         <f t="shared" ref="G34:J49" si="14">$L34+IF(G$30,G$32,N34)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="H34" s="133" t="e">
+        <v>3.2043134342130452E-3</v>
+      </c>
+      <c r="H34" s="133">
         <f t="shared" si="14"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="I34" s="133" t="e">
+        <v>3.7317374462449236E-3</v>
+      </c>
+      <c r="I34" s="133">
         <f t="shared" si="14"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="J34" s="133" t="e">
+        <v>4.9030435626481444E-3</v>
+      </c>
+      <c r="J34" s="133">
         <f t="shared" si="14"/>
-        <v>#NUM!</v>
+        <v>3.2037775099655777E-3</v>
       </c>
       <c r="K34" s="282">
         <f t="shared" ref="K34:K49" si="15">F34-SettlementDate</f>
         <v>1</v>
       </c>
-      <c r="L34" s="135" t="e">
+      <c r="L34" s="135">
         <f>_xll.qlOvernightIndexedSwapFairRate(B34,_xll.ohTrigger(C34,InterestRatesTrigger))</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="N34" s="136" t="e">
+        <v>3.19999999746301E-3</v>
+      </c>
+      <c r="N34" s="136">
         <f>N$31*$K34+N$32</f>
-        <v>#NUM!</v>
+        <v>4.3134367500351347E-6</v>
       </c>
       <c r="O34" s="128">
         <f t="shared" ref="O34:P40" si="16">IF(O$30,T34,O$31*$K34+O$32)</f>
-        <v>0</v>
-      </c>
-      <c r="P34" s="128" t="e">
+        <v>5.3173744878191333E-4</v>
+      </c>
+      <c r="P34" s="128">
         <f t="shared" si="16"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="Q34" s="79" t="e">
+        <v>1.7030435651851342E-3</v>
+      </c>
+      <c r="Q34" s="79">
         <f t="shared" ref="Q34:Q49" si="17">Q$31*$K34+Q$32</f>
-        <v>#NUM!</v>
+        <v>3.7775125025676943E-6</v>
       </c>
       <c r="R34" s="128"/>
       <c r="S34" s="137" t="s">
         <v>66</v>
       </c>
-      <c r="T34" s="128" t="e">
+      <c r="T34" s="128">
         <f t="shared" ref="T34:U40" si="18">$K34*$K34/3*T$30+$K34/2*T$31+T$32</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="U34" s="79" t="e">
+        <v>5.3173744878191333E-4</v>
+      </c>
+      <c r="U34" s="79">
         <f t="shared" si="18"/>
-        <v>#NUM!</v>
+        <v>1.7030435651851342E-3</v>
       </c>
     </row>
     <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B35" s="89" t="str">
         <f>_xll.qlMakeDatedOIS(,E35,F35,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_00390#0001</v>
+        <v>obj_00385#0000</v>
       </c>
       <c r="C35" s="80" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B35,OisEngine)</f>
@@ -11136,69 +11209,69 @@
       </c>
       <c r="E35" s="75">
         <f t="shared" si="13"/>
-        <v>41788</v>
+        <v>41792</v>
       </c>
       <c r="F35" s="139">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D35,"Following")</f>
-        <v>41795</v>
-      </c>
-      <c r="G35" s="133" t="e">
+        <v>41799</v>
+      </c>
+      <c r="G35" s="133">
         <f t="shared" si="14"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="H35" s="133" t="e">
+        <v>2.8601940572499439E-3</v>
+      </c>
+      <c r="H35" s="133">
         <f t="shared" si="14"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="I35" s="133" t="e">
+        <v>3.4791750278553614E-3</v>
+      </c>
+      <c r="I35" s="133">
         <f t="shared" si="14"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="J35" s="133" t="e">
+        <v>4.5832912841538556E-3</v>
+      </c>
+      <c r="J35" s="133">
         <f t="shared" si="14"/>
-        <v>#NUM!</v>
+        <v>2.8564425875176715E-3</v>
       </c>
       <c r="K35" s="140">
         <f t="shared" si="15"/>
         <v>7</v>
       </c>
-      <c r="L35" s="141" t="e">
+      <c r="L35" s="141">
         <f>_xll.qlOvernightIndexedSwapFairRate(B35,_xll.ohTrigger(C35,InterestRatesTrigger))</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="N35" s="136" t="e">
+        <v>2.8299999999996978E-3</v>
+      </c>
+      <c r="N35" s="136">
         <f>N$31*$K35+N$32</f>
-        <v>#NUM!</v>
+        <v>3.0194057250245942E-5</v>
       </c>
       <c r="O35" s="128">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="P35" s="128" t="e">
+        <v>6.491750278556634E-4</v>
+      </c>
+      <c r="P35" s="128">
         <f t="shared" si="16"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="Q35" s="79" t="e">
+        <v>1.7532912841541576E-3</v>
+      </c>
+      <c r="Q35" s="79">
         <f t="shared" si="17"/>
-        <v>#NUM!</v>
+        <v>2.6442587517973859E-5</v>
       </c>
       <c r="R35" s="128"/>
       <c r="S35" s="142" t="s">
         <v>67</v>
       </c>
-      <c r="T35" s="128" t="e">
+      <c r="T35" s="128">
         <f t="shared" si="18"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="U35" s="79" t="e">
+        <v>6.491750278556634E-4</v>
+      </c>
+      <c r="U35" s="79">
         <f t="shared" si="18"/>
-        <v>#NUM!</v>
+        <v>1.7532912841541576E-3</v>
       </c>
     </row>
     <row r="36" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B36" s="89" t="str">
         <f>_xll.qlMakeDatedOIS(,E36,F36,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_00393#0001</v>
+        <v>obj_00393#0000</v>
       </c>
       <c r="C36" s="80" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B36,OisEngine)</f>
@@ -11209,69 +11282,69 @@
       </c>
       <c r="E36" s="75">
         <f t="shared" si="13"/>
-        <v>41788</v>
+        <v>41792</v>
       </c>
       <c r="F36" s="139">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D36,"Following")</f>
-        <v>41802</v>
-      </c>
-      <c r="G36" s="133" t="e">
+        <v>41806</v>
+      </c>
+      <c r="G36" s="133">
         <f t="shared" si="14"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="H36" s="133" t="e">
+        <v>2.4703881144985799E-3</v>
+      </c>
+      <c r="H36" s="133">
         <f t="shared" si="14"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="I36" s="133" t="e">
+        <v>3.1869947063281395E-3</v>
+      </c>
+      <c r="I36" s="133">
         <f t="shared" si="14"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="J36" s="133" t="e">
+        <v>4.2199820870699144E-3</v>
+      </c>
+      <c r="J36" s="133">
         <f t="shared" si="14"/>
-        <v>#NUM!</v>
+        <v>2.462885175034036E-3</v>
       </c>
       <c r="K36" s="140">
         <f t="shared" si="15"/>
         <v>14</v>
       </c>
-      <c r="L36" s="141" t="e">
+      <c r="L36" s="141">
         <f>_xll.qlOvernightIndexedSwapFairRate(B36,_xll.ohTrigger(C36,InterestRatesTrigger))</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="N36" s="136" t="e">
+        <v>2.4099999999980882E-3</v>
+      </c>
+      <c r="N36" s="136">
         <f>N$31*$K36+N$32</f>
-        <v>#NUM!</v>
+        <v>6.0388114500491884E-5</v>
       </c>
       <c r="O36" s="128">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="P36" s="128" t="e">
+        <v>7.7699470633005112E-4</v>
+      </c>
+      <c r="P36" s="128">
         <f t="shared" si="16"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="Q36" s="79" t="e">
+        <v>1.8099820870718258E-3</v>
+      </c>
+      <c r="Q36" s="79">
         <f t="shared" si="17"/>
-        <v>#NUM!</v>
+        <v>5.2885175035947717E-5</v>
       </c>
       <c r="R36" s="128"/>
       <c r="S36" s="142" t="s">
         <v>68</v>
       </c>
-      <c r="T36" s="128" t="e">
+      <c r="T36" s="128">
         <f t="shared" si="18"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="U36" s="79" t="e">
+        <v>7.7699470633005112E-4</v>
+      </c>
+      <c r="U36" s="79">
         <f t="shared" si="18"/>
-        <v>#NUM!</v>
+        <v>1.8099820870718258E-3</v>
       </c>
     </row>
     <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="143" t="str">
         <f>_xll.qlMakeDatedOIS(,E37,F37,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_00386#0001</v>
+        <v>obj_0038c#0000</v>
       </c>
       <c r="C37" s="144" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B37,OisEngine)</f>
@@ -11282,69 +11355,69 @@
       </c>
       <c r="E37" s="146">
         <f t="shared" si="13"/>
-        <v>41788</v>
+        <v>41792</v>
       </c>
       <c r="F37" s="147">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D37,"Following")</f>
-        <v>41809</v>
-      </c>
-      <c r="G37" s="148" t="e">
+        <v>41813</v>
+      </c>
+      <c r="G37" s="148">
         <f t="shared" si="14"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="H37" s="148" t="e">
+        <v>2.0605821717482272E-3</v>
+      </c>
+      <c r="H37" s="148">
         <f t="shared" si="14"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="I37" s="148" t="e">
+        <v>2.8649165673996341E-3</v>
+      </c>
+      <c r="I37" s="148">
         <f t="shared" si="14"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="J37" s="148" t="e">
+        <v>3.8345927744244173E-3</v>
+      </c>
+      <c r="J37" s="148">
         <f t="shared" si="14"/>
-        <v>#NUM!</v>
+        <v>2.049327762551411E-3</v>
       </c>
       <c r="K37" s="149">
         <f t="shared" si="15"/>
         <v>21</v>
       </c>
-      <c r="L37" s="150" t="e">
+      <c r="L37" s="150">
         <f>_xll.qlOvernightIndexedSwapFairRate(B37,_xll.ohTrigger(C37,InterestRatesTrigger))</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="N37" s="151" t="e">
+        <v>1.9699999999974894E-3</v>
+      </c>
+      <c r="N37" s="151">
         <f>N$31*$K37+N$32</f>
-        <v>#NUM!</v>
+        <v>9.0582171750737826E-5</v>
       </c>
       <c r="O37" s="152">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="P37" s="152" t="e">
+        <v>8.9491656740214485E-4</v>
+      </c>
+      <c r="P37" s="152">
         <f t="shared" si="16"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="Q37" s="153" t="e">
+        <v>1.8645927744269277E-3</v>
+      </c>
+      <c r="Q37" s="153">
         <f t="shared" si="17"/>
-        <v>#NUM!</v>
+        <v>7.9327762553921586E-5</v>
       </c>
       <c r="R37" s="152"/>
       <c r="S37" s="154" t="s">
         <v>69</v>
       </c>
-      <c r="T37" s="152" t="e">
+      <c r="T37" s="152">
         <f t="shared" si="18"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="U37" s="153" t="e">
+        <v>8.9491656740214485E-4</v>
+      </c>
+      <c r="U37" s="153">
         <f t="shared" si="18"/>
-        <v>#NUM!</v>
+        <v>1.8645927744269277E-3</v>
       </c>
     </row>
     <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B38" s="89" t="str">
         <f>_xll.qlMakeDatedOIS(,E38,F38,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_00388#0001</v>
+        <v>obj_00395#0000</v>
       </c>
       <c r="C38" s="80" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B38,OisEngine)</f>
@@ -11355,69 +11428,69 @@
       </c>
       <c r="E38" s="75">
         <f t="shared" si="13"/>
-        <v>41788</v>
+        <v>41792</v>
       </c>
       <c r="F38" s="139">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D38,"mf",TRUE)</f>
-        <v>41820</v>
-      </c>
-      <c r="G38" s="155" t="e">
+        <v>41822</v>
+      </c>
+      <c r="G38" s="155">
         <f t="shared" si="14"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="H38" s="155" t="e">
+        <v>1.7894031025012713E-3</v>
+      </c>
+      <c r="H38" s="155">
         <f t="shared" si="14"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="I38" s="155" t="e">
+        <v>2.6919866570876017E-3</v>
+      </c>
+      <c r="I38" s="155">
         <f t="shared" si="14"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="J38" s="155" t="e">
+        <v>3.5917500189754444E-3</v>
+      </c>
+      <c r="J38" s="155">
         <f t="shared" si="14"/>
-        <v>#NUM!</v>
+        <v>1.7733253750772482E-3</v>
       </c>
       <c r="K38" s="134">
         <f t="shared" si="15"/>
-        <v>32</v>
-      </c>
-      <c r="L38" s="141" t="e">
+        <v>30</v>
+      </c>
+      <c r="L38" s="141">
         <f>_xll.qlOvernightIndexedSwapFairRate(B38,_xll.ohTrigger(C38,InterestRatesTrigger))</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="N38" s="136" t="e">
+        <v>1.6600000000002173E-3</v>
+      </c>
+      <c r="N38" s="136">
         <f>N$31*$K38+N$32</f>
-        <v>#NUM!</v>
+        <v>1.2940310250105405E-4</v>
       </c>
       <c r="O38" s="128">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="P38" s="128" t="e">
+        <v>1.0319866570873842E-3</v>
+      </c>
+      <c r="P38" s="128">
         <f t="shared" si="16"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="Q38" s="79" t="e">
+        <v>1.9317500189752271E-3</v>
+      </c>
+      <c r="Q38" s="79">
         <f t="shared" si="17"/>
-        <v>#NUM!</v>
+        <v>1.1332537507703083E-4</v>
       </c>
       <c r="R38" s="128"/>
       <c r="S38" s="142" t="s">
         <v>62</v>
       </c>
-      <c r="T38" s="128" t="e">
+      <c r="T38" s="128">
         <f t="shared" si="18"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="U38" s="79" t="e">
+        <v>1.0319866570873842E-3</v>
+      </c>
+      <c r="U38" s="79">
         <f t="shared" si="18"/>
-        <v>#NUM!</v>
+        <v>1.9317500189752271E-3</v>
       </c>
     </row>
     <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B39" s="89" t="str">
         <f>_xll.qlMakeDatedOIS(,E39,F39,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_0038f#0001</v>
+        <v>obj_00384#0000</v>
       </c>
       <c r="C39" s="80" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B39,OisEngine)</f>
@@ -11428,63 +11501,63 @@
       </c>
       <c r="E39" s="75">
         <f t="shared" si="13"/>
-        <v>41788</v>
+        <v>41792</v>
       </c>
       <c r="F39" s="139">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D39,"mf",TRUE)</f>
-        <v>41849</v>
+        <v>41855</v>
       </c>
       <c r="G39" s="156"/>
-      <c r="H39" s="133" t="e">
+      <c r="H39" s="133">
         <f t="shared" si="14"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="I39" s="133" t="e">
+        <v>2.7245935683871876E-3</v>
+      </c>
+      <c r="I39" s="133">
         <f t="shared" si="14"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="J39" s="133" t="e">
+        <v>3.4785744717443067E-3</v>
+      </c>
+      <c r="J39" s="133">
         <f t="shared" si="14"/>
-        <v>#NUM!</v>
+        <v>1.567983287662421E-3</v>
       </c>
       <c r="K39" s="140">
         <f t="shared" si="15"/>
-        <v>61</v>
-      </c>
-      <c r="L39" s="141" t="e">
+        <v>63</v>
+      </c>
+      <c r="L39" s="141">
         <f>_xll.qlOvernightIndexedSwapFairRate(B39,_xll.ohTrigger(C39,InterestRatesTrigger))</f>
-        <v>#NUM!</v>
+        <v>1.3300000000006562E-3</v>
       </c>
       <c r="N39" s="156"/>
       <c r="O39" s="128">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="P39" s="128" t="e">
+        <v>1.3945935683865314E-3</v>
+      </c>
+      <c r="P39" s="128">
         <f t="shared" si="16"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="Q39" s="79" t="e">
+        <v>2.1485744717436505E-3</v>
+      </c>
+      <c r="Q39" s="79">
         <f t="shared" si="17"/>
-        <v>#NUM!</v>
+        <v>2.3798328766176473E-4</v>
       </c>
       <c r="R39" s="128"/>
       <c r="S39" s="142" t="s">
         <v>70</v>
       </c>
-      <c r="T39" s="128" t="e">
+      <c r="T39" s="128">
         <f t="shared" si="18"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="U39" s="79" t="e">
+        <v>1.3945935683865314E-3</v>
+      </c>
+      <c r="U39" s="79">
         <f t="shared" si="18"/>
-        <v>#NUM!</v>
+        <v>2.1485744717436505E-3</v>
       </c>
     </row>
     <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B40" s="89" t="str">
         <f>_xll.qlMakeDatedOIS(,E40,F40,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_0038c#0001</v>
+        <v>obj_00388#0000</v>
       </c>
       <c r="C40" s="80" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B40,OisEngine)</f>
@@ -11495,63 +11568,63 @@
       </c>
       <c r="E40" s="75">
         <f t="shared" si="13"/>
-        <v>41788</v>
+        <v>41792</v>
       </c>
       <c r="F40" s="139">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D40,"mf",TRUE)</f>
-        <v>41880</v>
+        <v>41884</v>
       </c>
       <c r="G40" s="157"/>
-      <c r="H40" s="133" t="e">
+      <c r="H40" s="133">
         <f t="shared" si="14"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="I40" s="133" t="e">
+        <v>2.6716534769093397E-3</v>
+      </c>
+      <c r="I40" s="133">
         <f t="shared" si="14"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="J40" s="133" t="e">
+        <v>3.4409534197884437E-3</v>
+      </c>
+      <c r="J40" s="133">
         <f t="shared" si="14"/>
-        <v>#NUM!</v>
+        <v>1.4875311502357026E-3</v>
       </c>
       <c r="K40" s="140">
         <f t="shared" si="15"/>
         <v>92</v>
       </c>
-      <c r="L40" s="141" t="e">
+      <c r="L40" s="141">
         <f>_xll.qlOvernightIndexedSwapFairRate(B40,_xll.ohTrigger(C40,InterestRatesTrigger))</f>
-        <v>#NUM!</v>
+        <v>1.1399999999994748E-3</v>
       </c>
       <c r="N40" s="157"/>
       <c r="O40" s="128">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="P40" s="128" t="e">
+        <v>1.5316534769098647E-3</v>
+      </c>
+      <c r="P40" s="128">
         <f t="shared" si="16"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="Q40" s="79" t="e">
+        <v>2.3009534197889689E-3</v>
+      </c>
+      <c r="Q40" s="79">
         <f t="shared" si="17"/>
-        <v>#NUM!</v>
+        <v>3.4753115023622785E-4</v>
       </c>
       <c r="R40" s="128"/>
       <c r="S40" s="142" t="s">
         <v>63</v>
       </c>
-      <c r="T40" s="128" t="e">
+      <c r="T40" s="128">
         <f t="shared" si="18"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="U40" s="79" t="e">
+        <v>1.5316534769098647E-3</v>
+      </c>
+      <c r="U40" s="79">
         <f t="shared" si="18"/>
-        <v>#NUM!</v>
+        <v>2.3009534197889689E-3</v>
       </c>
     </row>
     <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B41" s="89" t="str">
         <f>_xll.qlMakeDatedOIS(,E41,F41,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_00384#0001</v>
+        <v>obj_00397#0000</v>
       </c>
       <c r="C41" s="80" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B41,OisEngine)</f>
@@ -11562,54 +11635,54 @@
       </c>
       <c r="E41" s="75">
         <f t="shared" si="13"/>
-        <v>41788</v>
+        <v>41792</v>
       </c>
       <c r="F41" s="139">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D41,"mf",TRUE)</f>
-        <v>41911</v>
+        <v>41914</v>
       </c>
       <c r="G41" s="158"/>
       <c r="H41" s="159"/>
-      <c r="I41" s="133" t="e">
+      <c r="I41" s="133">
         <f t="shared" si="14"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="J41" s="133" t="e">
+        <v>3.4510173801779887E-3</v>
+      </c>
+      <c r="J41" s="133">
         <f t="shared" si="14"/>
-        <v>#NUM!</v>
+        <v>1.4908565253128646E-3</v>
       </c>
       <c r="K41" s="140">
         <f t="shared" si="15"/>
-        <v>123</v>
-      </c>
-      <c r="L41" s="141" t="e">
+        <v>122</v>
+      </c>
+      <c r="L41" s="141">
         <f>_xll.qlOvernightIndexedSwapFairRate(B41,_xll.ohTrigger(C41,InterestRatesTrigger))</f>
-        <v>#NUM!</v>
+        <v>1.0299999999996059E-3</v>
       </c>
       <c r="N41" s="158"/>
       <c r="O41" s="159"/>
-      <c r="P41" s="128" t="e">
+      <c r="P41" s="128">
         <f>IF(P$30,U41,P$31*$K41+P$32)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="Q41" s="79" t="e">
+        <v>2.4210173801783828E-3</v>
+      </c>
+      <c r="Q41" s="79">
         <f t="shared" si="17"/>
-        <v>#NUM!</v>
+        <v>4.6085652531325871E-4</v>
       </c>
       <c r="R41" s="128"/>
       <c r="S41" s="142" t="s">
         <v>71</v>
       </c>
       <c r="T41" s="159"/>
-      <c r="U41" s="79" t="e">
+      <c r="U41" s="79">
         <f>$K41*$K41/3*U$30+$K41/2*U$31+U$32</f>
-        <v>#NUM!</v>
+        <v>2.4210173801783828E-3</v>
       </c>
     </row>
     <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B42" s="89" t="str">
         <f>_xll.qlMakeDatedOIS(,E42,F42,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_00394#0001</v>
+        <v>obj_0038f#0000</v>
       </c>
       <c r="C42" s="80" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B42,OisEngine)</f>
@@ -11620,54 +11693,54 @@
       </c>
       <c r="E42" s="75">
         <f t="shared" si="13"/>
-        <v>41788</v>
+        <v>41792</v>
       </c>
       <c r="F42" s="139">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D42,"mf",TRUE)</f>
-        <v>41941</v>
+        <v>41946</v>
       </c>
       <c r="G42" s="158"/>
       <c r="H42" s="160"/>
-      <c r="I42" s="133" t="e">
+      <c r="I42" s="133">
         <f t="shared" si="14"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="J42" s="133" t="e">
+        <v>3.4469738772865367E-3</v>
+      </c>
+      <c r="J42" s="133">
         <f t="shared" si="14"/>
-        <v>#NUM!</v>
+        <v>1.5217369253956656E-3</v>
       </c>
       <c r="K42" s="140">
         <f t="shared" si="15"/>
-        <v>153</v>
-      </c>
-      <c r="L42" s="141" t="e">
+        <v>154</v>
+      </c>
+      <c r="L42" s="141">
         <f>_xll.qlOvernightIndexedSwapFairRate(B42,_xll.ohTrigger(C42,InterestRatesTrigger))</f>
-        <v>#NUM!</v>
+        <v>9.4000000000024066E-4</v>
       </c>
       <c r="N42" s="158"/>
       <c r="O42" s="160"/>
-      <c r="P42" s="128" t="e">
+      <c r="P42" s="128">
         <f>IF(P$30,U42,P$31*$K42+P$32)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="Q42" s="79" t="e">
+        <v>2.5069738772862961E-3</v>
+      </c>
+      <c r="Q42" s="79">
         <f t="shared" si="17"/>
-        <v>#NUM!</v>
+        <v>5.8173692539542491E-4</v>
       </c>
       <c r="R42" s="128"/>
       <c r="S42" s="142" t="s">
         <v>72</v>
       </c>
       <c r="T42" s="160"/>
-      <c r="U42" s="79" t="e">
+      <c r="U42" s="79">
         <f>$K42*$K42/3*U$30+$K42/2*U$31+U$32</f>
-        <v>#NUM!</v>
+        <v>2.5069738772862961E-3</v>
       </c>
     </row>
     <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B43" s="89" t="str">
         <f>_xll.qlMakeDatedOIS(,E43,F43,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_00385#0001</v>
+        <v>obj_00387#0000</v>
       </c>
       <c r="C43" s="80" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B43,OisEngine)</f>
@@ -11678,54 +11751,54 @@
       </c>
       <c r="E43" s="75">
         <f t="shared" si="13"/>
-        <v>41788</v>
+        <v>41792</v>
       </c>
       <c r="F43" s="139">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D43,"mf",TRUE)</f>
-        <v>41971</v>
+        <v>41975</v>
       </c>
       <c r="G43" s="158"/>
       <c r="H43" s="160"/>
-      <c r="I43" s="133" t="e">
+      <c r="I43" s="133">
         <f t="shared" si="14"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="J43" s="133" t="e">
+        <v>3.407323744319209E-3</v>
+      </c>
+      <c r="J43" s="133">
         <f t="shared" si="14"/>
-        <v>#NUM!</v>
+        <v>1.5512847879699746E-3</v>
       </c>
       <c r="K43" s="140">
         <f t="shared" si="15"/>
         <v>183</v>
       </c>
-      <c r="L43" s="141" t="e">
+      <c r="L43" s="141">
         <f>_xll.qlOvernightIndexedSwapFairRate(B43,_xll.ohTrigger(C43,InterestRatesTrigger))</f>
-        <v>#NUM!</v>
+        <v>8.6000000000008661E-4</v>
       </c>
       <c r="N43" s="158"/>
       <c r="O43" s="160"/>
-      <c r="P43" s="128" t="e">
+      <c r="P43" s="128">
         <f>IF(P$30,U43,P$31*$K43+P$32)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="Q43" s="79" t="e">
+        <v>2.5473237443191226E-3</v>
+      </c>
+      <c r="Q43" s="79">
         <f t="shared" si="17"/>
-        <v>#NUM!</v>
+        <v>6.9128478796988803E-4</v>
       </c>
       <c r="R43" s="128"/>
       <c r="S43" s="162" t="s">
         <v>64</v>
       </c>
       <c r="T43" s="163"/>
-      <c r="U43" s="153" t="e">
+      <c r="U43" s="153">
         <f>$K43*$K43/3*U$30+$K43/2*U$31+U$32</f>
-        <v>#NUM!</v>
+        <v>2.5473237443191226E-3</v>
       </c>
     </row>
     <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B44" s="89" t="str">
         <f>_xll.qlMakeDatedOIS(,E44,F44,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_00397#0001</v>
+        <v>obj_0038a#0000</v>
       </c>
       <c r="C44" s="80" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B44,OisEngine)</f>
@@ -11736,35 +11809,35 @@
       </c>
       <c r="E44" s="75">
         <f t="shared" si="13"/>
-        <v>41788</v>
+        <v>41792</v>
       </c>
       <c r="F44" s="139">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D44,"mf",TRUE)</f>
-        <v>42002</v>
+        <v>42006</v>
       </c>
       <c r="G44" s="158"/>
       <c r="H44" s="164"/>
       <c r="I44" s="159"/>
-      <c r="J44" s="133" t="e">
+      <c r="J44" s="133">
         <f t="shared" si="14"/>
-        <v>#NUM!</v>
+        <v>1.5983876755498437E-3</v>
       </c>
       <c r="K44" s="140">
         <f t="shared" si="15"/>
         <v>214</v>
       </c>
-      <c r="L44" s="141" t="e">
+      <c r="L44" s="141">
         <f>_xll.qlOvernightIndexedSwapFairRate(B44,_xll.ohTrigger(C44,InterestRatesTrigger))</f>
-        <v>#NUM!</v>
+        <v>7.9000000000035704E-4</v>
       </c>
       <c r="N44" s="165" t="s">
         <v>74</v>
       </c>
       <c r="O44" s="166"/>
       <c r="P44" s="159"/>
-      <c r="Q44" s="79" t="e">
+      <c r="Q44" s="79">
         <f t="shared" si="17"/>
-        <v>#NUM!</v>
+        <v>8.0838767554948661E-4</v>
       </c>
       <c r="R44" s="128"/>
       <c r="S44" s="128"/>
@@ -11772,7 +11845,7 @@
     <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B45" s="89" t="str">
         <f>_xll.qlMakeDatedOIS(,E45,F45,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_00392#0001</v>
+        <v>obj_00391#0000</v>
       </c>
       <c r="C45" s="80" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B45,OisEngine)</f>
@@ -11783,35 +11856,35 @@
       </c>
       <c r="E45" s="75">
         <f t="shared" si="13"/>
-        <v>41788</v>
+        <v>41792</v>
       </c>
       <c r="F45" s="139">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D45,"mf",TRUE)</f>
-        <v>42033</v>
+        <v>42037</v>
       </c>
       <c r="G45" s="158"/>
       <c r="H45" s="164"/>
       <c r="I45" s="160"/>
-      <c r="J45" s="133" t="e">
+      <c r="J45" s="133">
         <f t="shared" si="14"/>
-        <v>#NUM!</v>
+        <v>1.6654905631292021E-3</v>
       </c>
       <c r="K45" s="140">
         <f t="shared" si="15"/>
         <v>245</v>
       </c>
-      <c r="L45" s="141" t="e">
+      <c r="L45" s="141">
         <f>_xll.qlOvernightIndexedSwapFairRate(B45,_xll.ohTrigger(C45,InterestRatesTrigger))</f>
-        <v>#NUM!</v>
+        <v>7.4000000000011687E-4</v>
       </c>
       <c r="N45" s="167"/>
       <c r="O45" s="168" t="s">
         <v>76</v>
       </c>
       <c r="P45" s="169"/>
-      <c r="Q45" s="79" t="e">
+      <c r="Q45" s="79">
         <f t="shared" si="17"/>
-        <v>#NUM!</v>
+        <v>9.2549056312908509E-4</v>
       </c>
       <c r="R45" s="128"/>
       <c r="S45" s="128"/>
@@ -11819,7 +11892,7 @@
     <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B46" s="89" t="str">
         <f>_xll.qlMakeDatedOIS(,E46,F46,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_00398#0001</v>
+        <v>obj_0038b#0000</v>
       </c>
       <c r="C46" s="80" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B46,OisEngine)</f>
@@ -11830,35 +11903,35 @@
       </c>
       <c r="E46" s="75">
         <f t="shared" si="13"/>
-        <v>41788</v>
+        <v>41792</v>
       </c>
       <c r="F46" s="139">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D46,"mf",TRUE)</f>
-        <v>42062</v>
+        <v>42065</v>
       </c>
       <c r="G46" s="158"/>
       <c r="H46" s="164"/>
       <c r="I46" s="160"/>
-      <c r="J46" s="133" t="e">
+      <c r="J46" s="133">
         <f t="shared" si="14"/>
-        <v>#NUM!</v>
+        <v>1.7612609132011221E-3</v>
       </c>
       <c r="K46" s="140">
         <f t="shared" si="15"/>
-        <v>274</v>
-      </c>
-      <c r="L46" s="141" t="e">
+        <v>273</v>
+      </c>
+      <c r="L46" s="141">
         <f>_xll.qlOvernightIndexedSwapFairRate(B46,_xll.ohTrigger(C46,InterestRatesTrigger))</f>
-        <v>#NUM!</v>
+        <v>7.3000000000014156E-4</v>
       </c>
       <c r="N46" s="158"/>
       <c r="O46" s="166"/>
       <c r="P46" s="170" t="s">
         <v>78</v>
       </c>
-      <c r="Q46" s="79" t="e">
+      <c r="Q46" s="79">
         <f t="shared" si="17"/>
-        <v>#NUM!</v>
+        <v>1.0312609132009805E-3</v>
       </c>
       <c r="R46" s="128"/>
       <c r="S46" s="128"/>
@@ -11866,7 +11939,7 @@
     <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B47" s="89" t="str">
         <f>_xll.qlMakeDatedOIS(,E47,F47,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_0038a#0001</v>
+        <v>obj_0038d#0000</v>
       </c>
       <c r="C47" s="80" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B47,OisEngine)</f>
@@ -11877,33 +11950,33 @@
       </c>
       <c r="E47" s="75">
         <f t="shared" si="13"/>
-        <v>41788</v>
+        <v>41792</v>
       </c>
       <c r="F47" s="139">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D47,"mf",TRUE)</f>
-        <v>42093</v>
+        <v>42096</v>
       </c>
       <c r="G47" s="158"/>
       <c r="H47" s="164"/>
       <c r="I47" s="160"/>
-      <c r="J47" s="133" t="e">
+      <c r="J47" s="133">
         <f t="shared" si="14"/>
-        <v>#NUM!</v>
+        <v>1.8383638007805241E-3</v>
       </c>
       <c r="K47" s="140">
         <f t="shared" si="15"/>
-        <v>305</v>
-      </c>
-      <c r="L47" s="141" t="e">
+        <v>304</v>
+      </c>
+      <c r="L47" s="141">
         <f>_xll.qlOvernightIndexedSwapFairRate(B47,_xll.ohTrigger(C47,InterestRatesTrigger))</f>
-        <v>#NUM!</v>
+        <v>6.89999999999945E-4</v>
       </c>
       <c r="N47" s="158"/>
       <c r="O47" s="164"/>
       <c r="P47" s="160"/>
-      <c r="Q47" s="79" t="e">
+      <c r="Q47" s="79">
         <f t="shared" si="17"/>
-        <v>#NUM!</v>
+        <v>1.1483638007805791E-3</v>
       </c>
       <c r="R47" s="128"/>
       <c r="S47" s="128"/>
@@ -11911,7 +11984,7 @@
     <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B48" s="89" t="str">
         <f>_xll.qlMakeDatedOIS(,E48,F48,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_00396#0001</v>
+        <v>obj_00386#0000</v>
       </c>
       <c r="C48" s="80" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B48,OisEngine)</f>
@@ -11922,33 +11995,33 @@
       </c>
       <c r="E48" s="75">
         <f t="shared" si="13"/>
-        <v>41788</v>
+        <v>41792</v>
       </c>
       <c r="F48" s="139">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D48,"mf",TRUE)</f>
-        <v>42123</v>
+        <v>42128</v>
       </c>
       <c r="G48" s="158"/>
       <c r="H48" s="164"/>
       <c r="I48" s="160"/>
-      <c r="J48" s="133" t="e">
+      <c r="J48" s="133">
         <f t="shared" si="14"/>
-        <v>#NUM!</v>
+        <v>1.9292442008629295E-3</v>
       </c>
       <c r="K48" s="140">
         <f t="shared" si="15"/>
-        <v>335</v>
-      </c>
-      <c r="L48" s="141" t="e">
+        <v>336</v>
+      </c>
+      <c r="L48" s="141">
         <f>_xll.qlOvernightIndexedSwapFairRate(B48,_xll.ohTrigger(C48,InterestRatesTrigger))</f>
-        <v>#NUM!</v>
+        <v>6.6000000000018409E-4</v>
       </c>
       <c r="N48" s="158"/>
       <c r="O48" s="164"/>
       <c r="P48" s="160"/>
-      <c r="Q48" s="79" t="e">
+      <c r="Q48" s="79">
         <f t="shared" si="17"/>
-        <v>#NUM!</v>
+        <v>1.2692442008627454E-3</v>
       </c>
       <c r="R48" s="128"/>
       <c r="S48" s="128"/>
@@ -11956,7 +12029,7 @@
     <row r="49" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B49" s="143" t="str">
         <f>_xll.qlMakeDatedOIS(,E49,F49,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_0038b#0001</v>
+        <v>obj_00390#0000</v>
       </c>
       <c r="C49" s="144" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B49,OisEngine)</f>
@@ -11967,33 +12040,33 @@
       </c>
       <c r="E49" s="75">
         <f t="shared" si="13"/>
-        <v>41788</v>
+        <v>41792</v>
       </c>
       <c r="F49" s="139">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D49,"mf",TRUE)</f>
-        <v>42153</v>
+        <v>42157</v>
       </c>
       <c r="G49" s="158"/>
       <c r="H49" s="164"/>
       <c r="I49" s="160"/>
-      <c r="J49" s="133" t="e">
+      <c r="J49" s="133">
         <f t="shared" si="14"/>
-        <v>#NUM!</v>
+        <v>2.0187920634370214E-3</v>
       </c>
       <c r="K49" s="140">
         <f t="shared" si="15"/>
         <v>365</v>
       </c>
-      <c r="L49" s="141" t="e">
+      <c r="L49" s="141">
         <f>_xll.qlOvernightIndexedSwapFairRate(B49,_xll.ohTrigger(C49,InterestRatesTrigger))</f>
-        <v>#NUM!</v>
+        <v>6.3999999999981281E-4</v>
       </c>
       <c r="N49" s="171"/>
       <c r="O49" s="172"/>
       <c r="P49" s="163"/>
-      <c r="Q49" s="153" t="e">
+      <c r="Q49" s="153">
         <f t="shared" si="17"/>
-        <v>#NUM!</v>
+        <v>1.3787920634372084E-3</v>
       </c>
       <c r="R49" s="128"/>
       <c r="S49" s="128"/>
@@ -12018,7 +12091,7 @@
       <c r="S51" s="173"/>
     </row>
   </sheetData>
-  <dataValidations disablePrompts="1" count="1">
+  <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G30:J30 O30:P30">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
@@ -12093,11 +12166,11 @@
       </c>
       <c r="E2" s="275" t="str">
         <f>Contribution!$D$40</f>
-        <v>EUR1YD_SYNTH1Y_Quote#0001</v>
+        <v>EUR1YD_SYNTH1Y_Quote#0000</v>
       </c>
       <c r="F2" s="275" t="str">
         <f>_xll.qlDepositRateHelper(,E2,$F$10,)</f>
-        <v>obj_00387#0001</v>
+        <v>obj_00394#0000</v>
       </c>
       <c r="G2" s="209" t="e">
         <f>_xll.qlRateHelperQuoteValue(F2,InterestRatesTrigger)</f>
@@ -12114,11 +12187,11 @@
       </c>
       <c r="K2" s="211">
         <f>_xll.qlRateHelperEarliestDate($F2,InterestRatesTrigger)</f>
-        <v>41788</v>
+        <v>41792</v>
       </c>
       <c r="L2" s="212">
         <f>_xll.qlRateHelperLatestDate($F2,InterestRatesTrigger)</f>
-        <v>42153</v>
+        <v>42157</v>
       </c>
     </row>
     <row r="3" spans="2:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -12136,7 +12209,7 @@
       </c>
       <c r="F3" s="276" t="str">
         <f>_xll.qlFraRateHelper(,E3,B3&amp;"M",$F$10)</f>
-        <v>obj_0038e#0001</v>
+        <v>obj_00398#0000</v>
       </c>
       <c r="G3" s="215">
         <f>_xll.qlRateHelperQuoteValue(F3,InterestRatesTrigger)</f>
@@ -12153,11 +12226,11 @@
       </c>
       <c r="K3" s="217">
         <f>_xll.qlRateHelperEarliestDate($F3,InterestRatesTrigger)</f>
-        <v>42153</v>
+        <v>42157</v>
       </c>
       <c r="L3" s="218">
         <f>_xll.qlRateHelperLatestDate($F3,InterestRatesTrigger)</f>
-        <v>42521</v>
+        <v>42523</v>
       </c>
       <c r="M3" s="219"/>
     </row>
@@ -12176,7 +12249,7 @@
       </c>
       <c r="F4" s="277" t="str">
         <f>_xll.qlSwapRateHelper2(,E4,D4,Calendar,"annual","mf","30/360 (Bond Basis)",$F$10,0,"0D",OisCurve)</f>
-        <v>obj_00389#0001</v>
+        <v>obj_00392#0000</v>
       </c>
       <c r="G4" s="223">
         <f>_xll.qlRateHelperQuoteValue(F4,InterestRatesTrigger)</f>
@@ -12193,11 +12266,11 @@
       </c>
       <c r="K4" s="225">
         <f>_xll.qlRateHelperEarliestDate($F4,InterestRatesTrigger)</f>
-        <v>41788</v>
+        <v>41792</v>
       </c>
       <c r="L4" s="226">
         <f>_xll.qlRateHelperLatestDate($F4,InterestRatesTrigger)</f>
-        <v>42884</v>
+        <v>42888</v>
       </c>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.2">
@@ -12215,7 +12288,7 @@
       </c>
       <c r="F5" s="278" t="str">
         <f>_xll.qlSwapRateHelper2(,E5,D5,Calendar,"annual","mf","30/360 (Bond Basis)",$F$10,0,"0D",OisCurve)</f>
-        <v>obj_00395#0001</v>
+        <v>obj_00396#0000</v>
       </c>
       <c r="G5" s="230">
         <f>_xll.qlRateHelperQuoteValue(F5,InterestRatesTrigger)</f>
@@ -12232,11 +12305,11 @@
       </c>
       <c r="K5" s="232">
         <f>_xll.qlRateHelperEarliestDate($F5,InterestRatesTrigger)</f>
-        <v>41788</v>
+        <v>41792</v>
       </c>
       <c r="L5" s="233">
         <f>_xll.qlRateHelperLatestDate($F5,InterestRatesTrigger)</f>
-        <v>43249</v>
+        <v>43255</v>
       </c>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.2">
@@ -12254,7 +12327,7 @@
       </c>
       <c r="F6" s="275" t="str">
         <f>_xll.qlSwapRateHelper2(,E6,D6,Calendar,"annual","mf","30/360 (Bond Basis)",$F$10,0,"0D",OisCurve)</f>
-        <v>obj_00391#0001</v>
+        <v>obj_00389#0000</v>
       </c>
       <c r="G6" s="209">
         <f>_xll.qlRateHelperQuoteValue(F6,InterestRatesTrigger)</f>
@@ -12271,17 +12344,17 @@
       </c>
       <c r="K6" s="211">
         <f>_xll.qlRateHelperEarliestDate($F6,InterestRatesTrigger)</f>
-        <v>41788</v>
+        <v>41792</v>
       </c>
       <c r="L6" s="212">
         <f>_xll.qlRateHelperLatestDate($F6,InterestRatesTrigger)</f>
-        <v>43614</v>
+        <v>43619</v>
       </c>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.2">
       <c r="F10" s="205" t="str">
         <f>_xll.qlEuribor(,IborTenor,,,EvaluationDate)</f>
-        <v>obj_00363#0001</v>
+        <v>obj_00375#0000</v>
       </c>
     </row>
   </sheetData>
@@ -12368,7 +12441,7 @@
       <c r="C2" s="240"/>
       <c r="D2" s="241">
         <f>SettlementDate</f>
-        <v>41788</v>
+        <v>41792</v>
       </c>
       <c r="E2" s="242" t="e">
         <f t="array" ref="E2:E127">_xll.qlPiecewiseYieldCurveData(YieldCurve,InterestRatesTrigger)</f>
@@ -12379,27 +12452,27 @@
       </c>
       <c r="G2" s="243">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I2)</f>
-        <v>41786</v>
+        <v>41788</v>
       </c>
       <c r="H2" s="205" t="str">
         <f>_xll.qlMakeDatedOIS(,I2,J2,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_003d1#0001</v>
+        <v>obj_003bc#0000</v>
       </c>
       <c r="I2" s="243">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F2&amp;"M","mf")</f>
-        <v>41788</v>
+        <v>41792</v>
       </c>
       <c r="J2" s="243">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I2)</f>
-        <v>42153</v>
+        <v>42157</v>
       </c>
       <c r="K2" s="242" t="e">
         <f>_xll.qlIndexFixing(IborIndex,G2,TRUE,InterestRatesTrigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="L2" s="242" t="e">
+      <c r="L2" s="242">
         <f>_xll.qlOvernightIndexedSwapFairRate(H2,Contribution!$P$25)</f>
-        <v>#NUM!</v>
+        <v>6.3999999999981281E-4</v>
       </c>
       <c r="M2" s="219" t="e">
         <f>ROUND(K2-L2,6)</f>
@@ -12408,7 +12481,7 @@
       <c r="N2" s="242"/>
       <c r="O2" s="205" t="str">
         <f>_xll.qlSimpleQuote(,,,,EvaluationDate)</f>
-        <v>obj_00368#0001</v>
+        <v>obj_0036a#0000</v>
       </c>
       <c r="P2" s="242" t="e">
         <f>_xll.qlSimpleQuoteSetValue(O2,M2)</f>
@@ -12418,7 +12491,7 @@
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="244" t="str">
         <f>RateHelpersFra!F2</f>
-        <v>obj_00387#0001</v>
+        <v>obj_00394#0000</v>
       </c>
       <c r="B3" s="245" t="e">
         <f>_xll.qlRateHelperRate($A3,InterestRatesTrigger)</f>
@@ -12426,11 +12499,11 @@
       </c>
       <c r="C3" s="246">
         <f>_xll.qlRateHelperEarliestDate($A3)</f>
-        <v>41788</v>
+        <v>41792</v>
       </c>
       <c r="D3" s="241">
         <f>_xll.qlRateHelperLatestDate($A3)</f>
-        <v>42153</v>
+        <v>42157</v>
       </c>
       <c r="E3" s="242" t="e">
         <v>#NUM!</v>
@@ -12440,27 +12513,27 @@
       </c>
       <c r="G3" s="243">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I3)</f>
-        <v>42151</v>
+        <v>42153</v>
       </c>
       <c r="H3" s="205" t="str">
         <f>_xll.qlMakeDatedOIS(,I3,J3,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_003c7#0001</v>
+        <v>obj_003ba#0000</v>
       </c>
       <c r="I3" s="243">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F3&amp;"M","mf")</f>
-        <v>42153</v>
+        <v>42157</v>
       </c>
       <c r="J3" s="243">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I3)</f>
-        <v>42521</v>
+        <v>42523</v>
       </c>
       <c r="K3" s="242" t="e">
         <f>_xll.qlIndexFixing(IborIndex,G3,TRUE,InterestRatesTrigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="L3" s="242" t="e">
+      <c r="L3" s="242">
         <f>_xll.qlOvernightIndexedSwapFairRate(H3,Contribution!$P$25)</f>
-        <v>#NUM!</v>
+        <v>7.9984629718580732E-4</v>
       </c>
       <c r="M3" s="219" t="e">
         <f>ROUND(K3-L3,6)</f>
@@ -12469,7 +12542,7 @@
       <c r="N3" s="242"/>
       <c r="O3" s="205" t="str">
         <f>_xll.qlSimpleQuote(,,,,EvaluationDate)</f>
-        <v>obj_0035e#0001</v>
+        <v>obj_00358#0000</v>
       </c>
       <c r="P3" s="242" t="e">
         <f>_xll.qlSimpleQuoteSetValue(O3,M3)</f>
@@ -12479,7 +12552,7 @@
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="244" t="str">
         <f>RateHelpersFra!F3</f>
-        <v>obj_0038e#0001</v>
+        <v>obj_00398#0000</v>
       </c>
       <c r="B4" s="245">
         <f>_xll.qlRateHelperRate($A4,InterestRatesTrigger)</f>
@@ -12487,11 +12560,11 @@
       </c>
       <c r="C4" s="246">
         <f>_xll.qlRateHelperEarliestDate($A4)</f>
-        <v>42153</v>
+        <v>42157</v>
       </c>
       <c r="D4" s="241">
         <f>_xll.qlRateHelperLatestDate($A4)</f>
-        <v>42521</v>
+        <v>42523</v>
       </c>
       <c r="E4" s="242" t="e">
         <v>#NUM!</v>
@@ -12501,27 +12574,27 @@
       </c>
       <c r="G4" s="243">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I4)</f>
-        <v>42516</v>
+        <v>42521</v>
       </c>
       <c r="H4" s="205" t="str">
         <f>_xll.qlMakeDatedOIS(,I4,J4,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_003ae#0001</v>
+        <v>obj_003d9#0000</v>
       </c>
       <c r="I4" s="243">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F4&amp;"M","mf")</f>
-        <v>42520</v>
+        <v>42523</v>
       </c>
       <c r="J4" s="243">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I4)</f>
-        <v>42885</v>
+        <v>42888</v>
       </c>
       <c r="K4" s="242" t="e">
         <f>_xll.qlIndexFixing(IborIndex,G4,TRUE,InterestRatesTrigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="L4" s="242" t="e">
+      <c r="L4" s="242">
         <f>_xll.qlOvernightIndexedSwapFairRate(H4,Contribution!$P$25)</f>
-        <v>#NUM!</v>
+        <v>3.0977780774130901E-3</v>
       </c>
       <c r="M4" s="219" t="e">
         <f>ROUND(K4-L4,6)</f>
@@ -12530,7 +12603,7 @@
       <c r="N4" s="242"/>
       <c r="O4" s="205" t="str">
         <f>_xll.qlSimpleQuote(,,,,EvaluationDate)</f>
-        <v>obj_0037e#0001</v>
+        <v>obj_00362#0000</v>
       </c>
       <c r="P4" s="242" t="e">
         <f>_xll.qlSimpleQuoteSetValue(O4,M4)</f>
@@ -12540,7 +12613,7 @@
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="244" t="str">
         <f>RateHelpersFra!F4</f>
-        <v>obj_00389#0001</v>
+        <v>obj_00392#0000</v>
       </c>
       <c r="B5" s="245">
         <f>_xll.qlRateHelperRate($A5,InterestRatesTrigger)</f>
@@ -12548,11 +12621,11 @@
       </c>
       <c r="C5" s="246">
         <f>_xll.qlRateHelperEarliestDate($A5)</f>
-        <v>41788</v>
+        <v>41792</v>
       </c>
       <c r="D5" s="241">
         <f>_xll.qlRateHelperLatestDate($A5)</f>
-        <v>42884</v>
+        <v>42888</v>
       </c>
       <c r="E5" s="242" t="e">
         <v>#NUM!</v>
@@ -12562,27 +12635,27 @@
       </c>
       <c r="G5" s="243">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I5)</f>
-        <v>42880</v>
+        <v>42886</v>
       </c>
       <c r="H5" s="205" t="str">
         <f>_xll.qlMakeDatedOIS(,I5,J5,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_003c3#0001</v>
+        <v>obj_003b4#0000</v>
       </c>
       <c r="I5" s="243">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F5&amp;"M","mf")</f>
-        <v>42884</v>
+        <v>42888</v>
       </c>
       <c r="J5" s="243">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I5)</f>
-        <v>43249</v>
+        <v>43255</v>
       </c>
       <c r="K5" s="242" t="e">
         <f>_xll.qlIndexFixing(IborIndex,G5,TRUE,InterestRatesTrigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="L5" s="242" t="e">
+      <c r="L5" s="242">
         <f>_xll.qlOvernightIndexedSwapFairRate(H5,Contribution!$P$25)</f>
-        <v>#NUM!</v>
+        <v>7.0103257213268147E-3</v>
       </c>
       <c r="M5" s="219" t="e">
         <f>ROUND(K5-L5,6)</f>
@@ -12591,7 +12664,7 @@
       <c r="N5" s="242"/>
       <c r="O5" s="205" t="str">
         <f>_xll.qlSimpleQuote(,,,,EvaluationDate)</f>
-        <v>obj_0037b#0001</v>
+        <v>obj_00372#0000</v>
       </c>
       <c r="P5" s="242" t="e">
         <f>_xll.qlSimpleQuoteSetValue(O5,M5)</f>
@@ -12601,7 +12674,7 @@
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="244" t="str">
         <f>RateHelpersFra!F5</f>
-        <v>obj_00395#0001</v>
+        <v>obj_00396#0000</v>
       </c>
       <c r="B6" s="245">
         <f>_xll.qlRateHelperRate($A6,InterestRatesTrigger)</f>
@@ -12609,11 +12682,11 @@
       </c>
       <c r="C6" s="246">
         <f>_xll.qlRateHelperEarliestDate($A6)</f>
-        <v>41788</v>
+        <v>41792</v>
       </c>
       <c r="D6" s="241">
         <f>_xll.qlRateHelperLatestDate($A6)</f>
-        <v>43249</v>
+        <v>43255</v>
       </c>
       <c r="E6" s="242" t="e">
         <v>#NUM!</v>
@@ -12623,27 +12696,27 @@
       </c>
       <c r="G6" s="243">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I6)</f>
-        <v>43245</v>
+        <v>43251</v>
       </c>
       <c r="H6" s="205" t="str">
         <f>_xll.qlMakeDatedOIS(,I6,J6,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_003d9#0001</v>
+        <v>obj_003ae#0000</v>
       </c>
       <c r="I6" s="243">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F6&amp;"M","mf")</f>
-        <v>43249</v>
+        <v>43255</v>
       </c>
       <c r="J6" s="243">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I6)</f>
-        <v>43614</v>
+        <v>43620</v>
       </c>
       <c r="K6" s="242" t="e">
         <f>_xll.qlIndexFixing(IborIndex,G6,TRUE,InterestRatesTrigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="L6" s="242" t="e">
+      <c r="L6" s="242">
         <f>_xll.qlOvernightIndexedSwapFairRate(H6,Contribution!$P$25)</f>
-        <v>#NUM!</v>
+        <v>1.1291502586042106E-2</v>
       </c>
       <c r="M6" s="219" t="e">
         <f>ROUND(K6-L6,6)</f>
@@ -12652,7 +12725,7 @@
       <c r="N6" s="242"/>
       <c r="O6" s="205" t="str">
         <f>_xll.qlSimpleQuote(,,,,EvaluationDate)</f>
-        <v>obj_0037c#0001</v>
+        <v>obj_0037b#0000</v>
       </c>
       <c r="P6" s="242" t="e">
         <f>_xll.qlSimpleQuoteSetValue(O6,M6)</f>
@@ -12662,7 +12735,7 @@
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="244" t="str">
         <f>RateHelpersFra!F6</f>
-        <v>obj_00391#0001</v>
+        <v>obj_00389#0000</v>
       </c>
       <c r="B7" s="245">
         <f>_xll.qlRateHelperRate($A7,InterestRatesTrigger)</f>
@@ -12670,11 +12743,11 @@
       </c>
       <c r="C7" s="246">
         <f>_xll.qlRateHelperEarliestDate($A7)</f>
-        <v>41788</v>
+        <v>41792</v>
       </c>
       <c r="D7" s="241">
         <f>_xll.qlRateHelperLatestDate($A7)</f>
-        <v>43614</v>
+        <v>43619</v>
       </c>
       <c r="E7" s="242" t="e">
         <v>#NUM!</v>
@@ -12699,23 +12772,23 @@
       </c>
       <c r="G8" s="243">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I8)</f>
-        <v>41816</v>
+        <v>41820</v>
       </c>
       <c r="H8" s="205" t="str">
         <f>_xll.qlMakeDatedOIS(,I8,J8,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_003b3#0001</v>
+        <v>obj_003dc#0000</v>
       </c>
       <c r="I8" s="243">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F8&amp;"M","mf")</f>
-        <v>41820</v>
+        <v>41822</v>
       </c>
       <c r="J8" s="243">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I8)</f>
-        <v>42185</v>
-      </c>
-      <c r="L8" s="242" t="e">
+        <v>42187</v>
+      </c>
+      <c r="L8" s="242">
         <f>_xll.qlOvernightIndexedSwapFairRate(H8,_xll.ohTrigger($P$2:$P$6))</f>
-        <v>#NUM!</v>
+        <v>5.3484489229548482E-4</v>
       </c>
       <c r="M8" s="219" t="e">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,I8,,L8)</f>
@@ -12739,23 +12812,23 @@
       </c>
       <c r="G9" s="243">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I9)</f>
-        <v>41845</v>
+        <v>41851</v>
       </c>
       <c r="H9" s="205" t="str">
         <f>_xll.qlMakeDatedOIS(,I9,J9,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_003ba#0001</v>
+        <v>obj_003c1#0000</v>
       </c>
       <c r="I9" s="243">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F9&amp;"M","mf")</f>
-        <v>41849</v>
+        <v>41855</v>
       </c>
       <c r="J9" s="243">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I9)</f>
-        <v>42214</v>
-      </c>
-      <c r="L9" s="242" t="e">
+        <v>42220</v>
+      </c>
+      <c r="L9" s="242">
         <f>_xll.qlOvernightIndexedSwapFairRate(H9,_xll.ohTrigger($P$2:$P$6))</f>
-        <v>#NUM!</v>
+        <v>4.7598494889424404E-4</v>
       </c>
       <c r="M9" s="219" t="e">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,I9,,L9)</f>
@@ -12779,23 +12852,23 @@
       </c>
       <c r="G10" s="243">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I10)</f>
-        <v>41878</v>
+        <v>41880</v>
       </c>
       <c r="H10" s="205" t="str">
         <f>_xll.qlMakeDatedOIS(,I10,J10,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_003c8#0001</v>
+        <v>obj_003b8#0000</v>
       </c>
       <c r="I10" s="243">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F10&amp;"M","mf")</f>
-        <v>41880</v>
+        <v>41884</v>
       </c>
       <c r="J10" s="243">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I10)</f>
-        <v>42247</v>
-      </c>
-      <c r="L10" s="242" t="e">
+        <v>42249</v>
+      </c>
+      <c r="L10" s="242">
         <f>_xll.qlOvernightIndexedSwapFairRate(H10,_xll.ohTrigger($P$2:$P$6))</f>
-        <v>#NUM!</v>
+        <v>4.512974312020821E-4</v>
       </c>
       <c r="M10" s="219" t="e">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,I10,,L10)</f>
@@ -12819,23 +12892,23 @@
       </c>
       <c r="G11" s="243">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I11)</f>
-        <v>41907</v>
+        <v>41912</v>
       </c>
       <c r="H11" s="205" t="str">
         <f>_xll.qlMakeDatedOIS(,I11,J11,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_003c4#0001</v>
+        <v>obj_003cf#0000</v>
       </c>
       <c r="I11" s="243">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F11&amp;"M","mf")</f>
-        <v>41911</v>
+        <v>41914</v>
       </c>
       <c r="J11" s="243">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I11)</f>
-        <v>42276</v>
-      </c>
-      <c r="L11" s="242" t="e">
+        <v>42279</v>
+      </c>
+      <c r="L11" s="242">
         <f>_xll.qlOvernightIndexedSwapFairRate(H11,_xll.ohTrigger($P$2:$P$6))</f>
-        <v>#NUM!</v>
+        <v>4.3438454125786807E-4</v>
       </c>
       <c r="M11" s="219" t="e">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,I11,,L11)</f>
@@ -12859,23 +12932,23 @@
       </c>
       <c r="G12" s="243">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I12)</f>
-        <v>41939</v>
+        <v>41942</v>
       </c>
       <c r="H12" s="205" t="str">
         <f>_xll.qlMakeDatedOIS(,I12,J12,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_003b4#0001</v>
+        <v>obj_003d7#0000</v>
       </c>
       <c r="I12" s="243">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F12&amp;"M","mf")</f>
-        <v>41941</v>
+        <v>41946</v>
       </c>
       <c r="J12" s="243">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I12)</f>
-        <v>42306</v>
-      </c>
-      <c r="L12" s="242" t="e">
+        <v>42311</v>
+      </c>
+      <c r="L12" s="242">
         <f>_xll.qlOvernightIndexedSwapFairRate(H12,_xll.ohTrigger($P$2:$P$6))</f>
-        <v>#NUM!</v>
+        <v>4.3334088404943229E-4</v>
       </c>
       <c r="M12" s="219" t="e">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,I12,,L12)</f>
@@ -12899,23 +12972,23 @@
       </c>
       <c r="G13" s="243">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I13)</f>
-        <v>41969</v>
+        <v>41971</v>
       </c>
       <c r="H13" s="205" t="str">
         <f>_xll.qlMakeDatedOIS(,I13,J13,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_003dc#0001</v>
+        <v>obj_003bd#0000</v>
       </c>
       <c r="I13" s="243">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F13&amp;"M","mf")</f>
-        <v>41971</v>
+        <v>41975</v>
       </c>
       <c r="J13" s="243">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I13)</f>
-        <v>42338</v>
-      </c>
-      <c r="L13" s="242" t="e">
+        <v>42340</v>
+      </c>
+      <c r="L13" s="242">
         <f>_xll.qlOvernightIndexedSwapFairRate(H13,_xll.ohTrigger($P$2:$P$6))</f>
-        <v>#NUM!</v>
+        <v>4.5457844410038437E-4</v>
       </c>
       <c r="M13" s="219" t="e">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,I13,,L13)</f>
@@ -12939,23 +13012,23 @@
       </c>
       <c r="G14" s="243">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I14)</f>
-        <v>41996</v>
+        <v>42003</v>
       </c>
       <c r="H14" s="205" t="str">
         <f>_xll.qlMakeDatedOIS(,I14,J14,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_003bf#0001</v>
+        <v>obj_003c3#0000</v>
       </c>
       <c r="I14" s="243">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F14&amp;"M","mf")</f>
-        <v>42002</v>
+        <v>42006</v>
       </c>
       <c r="J14" s="243">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I14)</f>
-        <v>42367</v>
-      </c>
-      <c r="L14" s="242" t="e">
+        <v>42373</v>
+      </c>
+      <c r="L14" s="242">
         <f>_xll.qlOvernightIndexedSwapFairRate(H14,_xll.ohTrigger($P$2:$P$6))</f>
-        <v>#NUM!</v>
+        <v>4.9543745526441888E-4</v>
       </c>
       <c r="M14" s="219" t="e">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,I14,,L14)</f>
@@ -12979,23 +13052,23 @@
       </c>
       <c r="G15" s="243">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I15)</f>
-        <v>42031</v>
+        <v>42033</v>
       </c>
       <c r="H15" s="205" t="str">
         <f>_xll.qlMakeDatedOIS(,I15,J15,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_003c6#0001</v>
+        <v>obj_003ac#0000</v>
       </c>
       <c r="I15" s="243">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F15&amp;"M","mf")</f>
-        <v>42033</v>
+        <v>42037</v>
       </c>
       <c r="J15" s="243">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I15)</f>
-        <v>42398</v>
-      </c>
-      <c r="L15" s="242" t="e">
+        <v>42402</v>
+      </c>
+      <c r="L15" s="242">
         <f>_xll.qlOvernightIndexedSwapFairRate(H15,_xll.ohTrigger($P$2:$P$6))</f>
-        <v>#NUM!</v>
+        <v>5.4050059137518034E-4</v>
       </c>
       <c r="M15" s="219" t="e">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,I15,,L15)</f>
@@ -13019,23 +13092,23 @@
       </c>
       <c r="G16" s="243">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I16)</f>
-        <v>42060</v>
+        <v>42061</v>
       </c>
       <c r="H16" s="205" t="str">
         <f>_xll.qlMakeDatedOIS(,I16,J16,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_003b0#0001</v>
+        <v>obj_003d5#0000</v>
       </c>
       <c r="I16" s="243">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F16&amp;"M","mf")</f>
-        <v>42062</v>
+        <v>42065</v>
       </c>
       <c r="J16" s="243">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I16)</f>
-        <v>42429</v>
-      </c>
-      <c r="L16" s="242" t="e">
+        <v>42431</v>
+      </c>
+      <c r="L16" s="242">
         <f>_xll.qlOvernightIndexedSwapFairRate(H16,_xll.ohTrigger($P$2:$P$6))</f>
-        <v>#NUM!</v>
+        <v>5.7286262458978705E-4</v>
       </c>
       <c r="M16" s="219" t="e">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,I16,,L16)</f>
@@ -13059,23 +13132,23 @@
       </c>
       <c r="G17" s="243">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I17)</f>
-        <v>42089</v>
+        <v>42094</v>
       </c>
       <c r="H17" s="205" t="str">
         <f>_xll.qlMakeDatedOIS(,I17,J17,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_003cb#0001</v>
+        <v>obj_003d3#0000</v>
       </c>
       <c r="I17" s="243">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F17&amp;"M","mf")</f>
-        <v>42093</v>
+        <v>42096</v>
       </c>
       <c r="J17" s="243">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I17)</f>
-        <v>42459</v>
-      </c>
-      <c r="L17" s="242" t="e">
+        <v>42464</v>
+      </c>
+      <c r="L17" s="242">
         <f>_xll.qlOvernightIndexedSwapFairRate(H17,_xll.ohTrigger($P$2:$P$6))</f>
-        <v>#NUM!</v>
+        <v>6.4341487682446734E-4</v>
       </c>
       <c r="M17" s="219" t="e">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,I17,,L17)</f>
@@ -13099,23 +13172,23 @@
       </c>
       <c r="G18" s="243">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I18)</f>
-        <v>42121</v>
+        <v>42123</v>
       </c>
       <c r="H18" s="205" t="str">
         <f>_xll.qlMakeDatedOIS(,I18,J18,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_003ac#0001</v>
+        <v>obj_003d6#0000</v>
       </c>
       <c r="I18" s="243">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F18&amp;"M","mf")</f>
-        <v>42123</v>
+        <v>42128</v>
       </c>
       <c r="J18" s="243">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I18)</f>
-        <v>42489</v>
-      </c>
-      <c r="L18" s="242" t="e">
+        <v>42494</v>
+      </c>
+      <c r="L18" s="242">
         <f>_xll.qlOvernightIndexedSwapFairRate(H18,_xll.ohTrigger($P$2:$P$6))</f>
-        <v>#NUM!</v>
+        <v>7.1823451829136945E-4</v>
       </c>
       <c r="M18" s="219" t="e">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,I18,,L18)</f>
@@ -13139,23 +13212,23 @@
       </c>
       <c r="G19" s="243">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I19)</f>
-        <v>42180</v>
+        <v>42185</v>
       </c>
       <c r="H19" s="205" t="str">
         <f>_xll.qlMakeDatedOIS(,I19,J19,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_003ca#0001</v>
+        <v>obj_003bf#0000</v>
       </c>
       <c r="I19" s="243">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F19&amp;"M","mf")</f>
-        <v>42184</v>
+        <v>42187</v>
       </c>
       <c r="J19" s="243">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I19)</f>
-        <v>42550</v>
-      </c>
-      <c r="L19" s="242" t="e">
+        <v>42555</v>
+      </c>
+      <c r="L19" s="242">
         <f>_xll.qlOvernightIndexedSwapFairRate(H19,_xll.ohTrigger($P$2:$P$6))</f>
-        <v>#NUM!</v>
+        <v>9.0807503688983748E-4</v>
       </c>
       <c r="M19" s="219" t="e">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,I19,,L19)</f>
@@ -13179,23 +13252,23 @@
       </c>
       <c r="G20" s="243">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I20)</f>
-        <v>42212</v>
+        <v>42215</v>
       </c>
       <c r="H20" s="205" t="str">
         <f>_xll.qlMakeDatedOIS(,I20,J20,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_003be#0001</v>
+        <v>obj_003cc#0000</v>
       </c>
       <c r="I20" s="243">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F20&amp;"M","mf")</f>
-        <v>42214</v>
+        <v>42219</v>
       </c>
       <c r="J20" s="243">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I20)</f>
-        <v>42580</v>
-      </c>
-      <c r="L20" s="242" t="e">
+        <v>42585</v>
+      </c>
+      <c r="L20" s="242">
         <f>_xll.qlOvernightIndexedSwapFairRate(H20,_xll.ohTrigger($P$2:$P$6))</f>
-        <v>#NUM!</v>
+        <v>1.0344921355772206E-3</v>
       </c>
       <c r="M20" s="219" t="e">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,I20,,L20)</f>
@@ -13219,23 +13292,23 @@
       </c>
       <c r="G21" s="243">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I21)</f>
-        <v>42243</v>
+        <v>42247</v>
       </c>
       <c r="H21" s="205" t="str">
         <f>_xll.qlMakeDatedOIS(,I21,J21,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_003b6#0001</v>
+        <v>obj_003b0#0000</v>
       </c>
       <c r="I21" s="243">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F21&amp;"M","mf")</f>
-        <v>42247</v>
+        <v>42249</v>
       </c>
       <c r="J21" s="243">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I21)</f>
-        <v>42613</v>
-      </c>
-      <c r="L21" s="242" t="e">
+        <v>42615</v>
+      </c>
+      <c r="L21" s="242">
         <f>_xll.qlOvernightIndexedSwapFairRate(H21,_xll.ohTrigger($P$2:$P$6))</f>
-        <v>#NUM!</v>
+        <v>1.174381264652233E-3</v>
       </c>
       <c r="M21" s="219" t="e">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,I21,,L21)</f>
@@ -13259,23 +13332,23 @@
       </c>
       <c r="G22" s="243">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I22)</f>
-        <v>42272</v>
+        <v>42277</v>
       </c>
       <c r="H22" s="205" t="str">
         <f>_xll.qlMakeDatedOIS(,I22,J22,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_003d0#0001</v>
+        <v>obj_003bb#0000</v>
       </c>
       <c r="I22" s="243">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F22&amp;"M","mf")</f>
-        <v>42276</v>
+        <v>42279</v>
       </c>
       <c r="J22" s="243">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I22)</f>
-        <v>42642</v>
-      </c>
-      <c r="L22" s="242" t="e">
+        <v>42646</v>
+      </c>
+      <c r="L22" s="242">
         <f>_xll.qlOvernightIndexedSwapFairRate(H22,_xll.ohTrigger($P$2:$P$6))</f>
-        <v>#NUM!</v>
+        <v>1.3318575016247431E-3</v>
       </c>
       <c r="M22" s="219" t="e">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,I22,,L22)</f>
@@ -13299,23 +13372,23 @@
       </c>
       <c r="G23" s="243">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I23)</f>
-        <v>42304</v>
+        <v>42306</v>
       </c>
       <c r="H23" s="205" t="str">
         <f>_xll.qlMakeDatedOIS(,I23,J23,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_003c0#0001</v>
+        <v>obj_003b7#0000</v>
       </c>
       <c r="I23" s="243">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F23&amp;"M","mf")</f>
-        <v>42306</v>
+        <v>42310</v>
       </c>
       <c r="J23" s="243">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I23)</f>
-        <v>42674</v>
-      </c>
-      <c r="L23" s="242" t="e">
+        <v>42676</v>
+      </c>
+      <c r="L23" s="242">
         <f>_xll.qlOvernightIndexedSwapFairRate(H23,_xll.ohTrigger($P$2:$P$6))</f>
-        <v>#NUM!</v>
+        <v>1.5020728072554538E-3</v>
       </c>
       <c r="M23" s="219" t="e">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,I23,,L23)</f>
@@ -13339,23 +13412,23 @@
       </c>
       <c r="G24" s="243">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I24)</f>
-        <v>42334</v>
+        <v>42338</v>
       </c>
       <c r="H24" s="205" t="str">
         <f>_xll.qlMakeDatedOIS(,I24,J24,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_003b8#0001</v>
+        <v>obj_003c5#0000</v>
       </c>
       <c r="I24" s="243">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F24&amp;"M","mf")</f>
-        <v>42338</v>
+        <v>42340</v>
       </c>
       <c r="J24" s="243">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I24)</f>
-        <v>42704</v>
-      </c>
-      <c r="L24" s="242" t="e">
+        <v>42706</v>
+      </c>
+      <c r="L24" s="242">
         <f>_xll.qlOvernightIndexedSwapFairRate(H24,_xll.ohTrigger($P$2:$P$6))</f>
-        <v>#NUM!</v>
+        <v>1.6825553971503192E-3</v>
       </c>
       <c r="M24" s="219" t="e">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,I24,,L24)</f>
@@ -13379,23 +13452,23 @@
       </c>
       <c r="G25" s="243">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I25)</f>
-        <v>42362</v>
+        <v>42368</v>
       </c>
       <c r="H25" s="205" t="str">
         <f>_xll.qlMakeDatedOIS(,I25,J25,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_003d3#0001</v>
+        <v>obj_003c8#0000</v>
       </c>
       <c r="I25" s="243">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F25&amp;"M","mf")</f>
-        <v>42367</v>
+        <v>42373</v>
       </c>
       <c r="J25" s="243">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I25)</f>
-        <v>42733</v>
-      </c>
-      <c r="L25" s="242" t="e">
+        <v>42739</v>
+      </c>
+      <c r="L25" s="242">
         <f>_xll.qlOvernightIndexedSwapFairRate(H25,_xll.ohTrigger($P$2:$P$6))</f>
-        <v>#NUM!</v>
+        <v>1.8951909916080575E-3</v>
       </c>
       <c r="M25" s="219" t="e">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,I25,,L25)</f>
@@ -13419,23 +13492,23 @@
       </c>
       <c r="G26" s="243">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I26)</f>
-        <v>42396</v>
+        <v>42398</v>
       </c>
       <c r="H26" s="205" t="str">
         <f>_xll.qlMakeDatedOIS(,I26,J26,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_003d7#0001</v>
+        <v>obj_003b1#0000</v>
       </c>
       <c r="I26" s="243">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F26&amp;"M","mf")</f>
-        <v>42398</v>
+        <v>42402</v>
       </c>
       <c r="J26" s="243">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I26)</f>
-        <v>42766</v>
-      </c>
-      <c r="L26" s="242" t="e">
+        <v>42768</v>
+      </c>
+      <c r="L26" s="242">
         <f>_xll.qlOvernightIndexedSwapFairRate(H26,_xll.ohTrigger($P$2:$P$6))</f>
-        <v>#NUM!</v>
+        <v>2.096227780549533E-3</v>
       </c>
       <c r="M26" s="219" t="e">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,I26,,L26)</f>
@@ -13459,23 +13532,23 @@
       </c>
       <c r="G27" s="243">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I27)</f>
-        <v>42425</v>
+        <v>42429</v>
       </c>
       <c r="H27" s="205" t="str">
         <f>_xll.qlMakeDatedOIS(,I27,J27,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_003af#0001</v>
+        <v>obj_003d8#0000</v>
       </c>
       <c r="I27" s="243">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F27&amp;"M","mf")</f>
-        <v>42429</v>
+        <v>42431</v>
       </c>
       <c r="J27" s="243">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I27)</f>
-        <v>42794</v>
-      </c>
-      <c r="L27" s="242" t="e">
+        <v>42796</v>
+      </c>
+      <c r="L27" s="242">
         <f>_xll.qlOvernightIndexedSwapFairRate(H27,_xll.ohTrigger($P$2:$P$6))</f>
-        <v>#NUM!</v>
+        <v>2.3084204554240646E-3</v>
       </c>
       <c r="M27" s="219" t="e">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,I27,,L27)</f>
@@ -13499,23 +13572,23 @@
       </c>
       <c r="G28" s="243">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I28)</f>
-        <v>42452</v>
+        <v>42460</v>
       </c>
       <c r="H28" s="205" t="str">
         <f>_xll.qlMakeDatedOIS(,I28,J28,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_003b5#0001</v>
+        <v>obj_003d1#0000</v>
       </c>
       <c r="I28" s="243">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F28&amp;"M","mf")</f>
-        <v>42458</v>
+        <v>42464</v>
       </c>
       <c r="J28" s="243">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I28)</f>
-        <v>42823</v>
-      </c>
-      <c r="L28" s="242" t="e">
+        <v>42829</v>
+      </c>
+      <c r="L28" s="242">
         <f>_xll.qlOvernightIndexedSwapFairRate(H28,_xll.ohTrigger($P$2:$P$6))</f>
-        <v>#NUM!</v>
+        <v>2.5752735707177841E-3</v>
       </c>
       <c r="M28" s="219" t="e">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,I28,,L28)</f>
@@ -13539,23 +13612,23 @@
       </c>
       <c r="G29" s="243">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I29)</f>
-        <v>42487</v>
+        <v>42488</v>
       </c>
       <c r="H29" s="205" t="str">
         <f>_xll.qlMakeDatedOIS(,I29,J29,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_003cd#0001</v>
+        <v>obj_003b5#0000</v>
       </c>
       <c r="I29" s="243">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F29&amp;"M","mf")</f>
-        <v>42489</v>
+        <v>42492</v>
       </c>
       <c r="J29" s="243">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I29)</f>
-        <v>42853</v>
-      </c>
-      <c r="L29" s="242" t="e">
+        <v>42857</v>
+      </c>
+      <c r="L29" s="242">
         <f>_xll.qlOvernightIndexedSwapFairRate(H29,_xll.ohTrigger($P$2:$P$6))</f>
-        <v>#NUM!</v>
+        <v>2.8169241350331853E-3</v>
       </c>
       <c r="M29" s="219" t="e">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,I29,,L29)</f>
@@ -13579,23 +13652,23 @@
       </c>
       <c r="G30" s="243">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I30)</f>
-        <v>42548</v>
+        <v>42551</v>
       </c>
       <c r="H30" s="205" t="str">
         <f>_xll.qlMakeDatedOIS(,I30,J30,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_003d4#0001</v>
+        <v>obj_003b6#0000</v>
       </c>
       <c r="I30" s="243">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F30&amp;"M","mf")</f>
-        <v>42550</v>
+        <v>42555</v>
       </c>
       <c r="J30" s="243">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I30)</f>
-        <v>42915</v>
-      </c>
-      <c r="L30" s="242" t="e">
+        <v>42920</v>
+      </c>
+      <c r="L30" s="242">
         <f>_xll.qlOvernightIndexedSwapFairRate(H30,_xll.ohTrigger($P$2:$P$6))</f>
-        <v>#NUM!</v>
+        <v>3.3995235506112812E-3</v>
       </c>
       <c r="M30" s="219" t="e">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,I30,,L30)</f>
@@ -13619,23 +13692,23 @@
       </c>
       <c r="G31" s="243">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I31)</f>
-        <v>42578</v>
+        <v>42580</v>
       </c>
       <c r="H31" s="205" t="str">
         <f>_xll.qlMakeDatedOIS(,I31,J31,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_003b1#0001</v>
+        <v>obj_003d4#0000</v>
       </c>
       <c r="I31" s="243">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F31&amp;"M","mf")</f>
-        <v>42580</v>
+        <v>42584</v>
       </c>
       <c r="J31" s="243">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I31)</f>
-        <v>42947</v>
-      </c>
-      <c r="L31" s="242" t="e">
+        <v>42949</v>
+      </c>
+      <c r="L31" s="242">
         <f>_xll.qlOvernightIndexedSwapFairRate(H31,_xll.ohTrigger($P$2:$P$6))</f>
-        <v>#NUM!</v>
+        <v>3.682234147679151E-3</v>
       </c>
       <c r="M31" s="219" t="e">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,I31,,L31)</f>
@@ -13659,23 +13732,23 @@
       </c>
       <c r="G32" s="243">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I32)</f>
-        <v>42607</v>
+        <v>42613</v>
       </c>
       <c r="H32" s="205" t="str">
         <f>_xll.qlMakeDatedOIS(,I32,J32,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_003d5#0001</v>
+        <v>obj_003c7#0000</v>
       </c>
       <c r="I32" s="243">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F32&amp;"M","mf")</f>
-        <v>42611</v>
+        <v>42615</v>
       </c>
       <c r="J32" s="243">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I32)</f>
-        <v>42976</v>
-      </c>
-      <c r="L32" s="242" t="e">
+        <v>42982</v>
+      </c>
+      <c r="L32" s="242">
         <f>_xll.qlOvernightIndexedSwapFairRate(H32,_xll.ohTrigger($P$2:$P$6))</f>
-        <v>#NUM!</v>
+        <v>4.0041630279377032E-3</v>
       </c>
       <c r="M32" s="219" t="e">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,I32,,L32)</f>
@@ -13699,23 +13772,23 @@
       </c>
       <c r="G33" s="243">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I33)</f>
-        <v>42640</v>
+        <v>42642</v>
       </c>
       <c r="H33" s="205" t="str">
         <f>_xll.qlMakeDatedOIS(,I33,J33,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_003ad#0001</v>
+        <v>obj_003da#0000</v>
       </c>
       <c r="I33" s="243">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F33&amp;"M","mf")</f>
-        <v>42642</v>
+        <v>42646</v>
       </c>
       <c r="J33" s="243">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I33)</f>
-        <v>43007</v>
-      </c>
-      <c r="L33" s="242" t="e">
+        <v>43011</v>
+      </c>
+      <c r="L33" s="242">
         <f>_xll.qlOvernightIndexedSwapFairRate(H33,_xll.ohTrigger($P$2:$P$6))</f>
-        <v>#NUM!</v>
+        <v>4.3128517806654606E-3</v>
       </c>
       <c r="M33" s="219" t="e">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,I33,,L33)</f>
@@ -13739,23 +13812,23 @@
       </c>
       <c r="G34" s="243">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I34)</f>
-        <v>42670</v>
+        <v>42674</v>
       </c>
       <c r="H34" s="205" t="str">
         <f>_xll.qlMakeDatedOIS(,I34,J34,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_003c5#0001</v>
+        <v>obj_003d2#0000</v>
       </c>
       <c r="I34" s="243">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F34&amp;"M","mf")</f>
-        <v>42674</v>
+        <v>42676</v>
       </c>
       <c r="J34" s="243">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I34)</f>
-        <v>43039</v>
-      </c>
-      <c r="L34" s="242" t="e">
+        <v>43041</v>
+      </c>
+      <c r="L34" s="242">
         <f>_xll.qlOvernightIndexedSwapFairRate(H34,_xll.ohTrigger($P$2:$P$6))</f>
-        <v>#NUM!</v>
+        <v>4.6292112965692703E-3</v>
       </c>
       <c r="M34" s="219" t="e">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,I34,,L34)</f>
@@ -13779,23 +13852,23 @@
       </c>
       <c r="G35" s="243">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I35)</f>
-        <v>42699</v>
+        <v>42704</v>
       </c>
       <c r="H35" s="205" t="str">
         <f>_xll.qlMakeDatedOIS(,I35,J35,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_003d2#0001</v>
+        <v>obj_003ad#0000</v>
       </c>
       <c r="I35" s="243">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F35&amp;"M","mf")</f>
-        <v>42703</v>
+        <v>42706</v>
       </c>
       <c r="J35" s="243">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I35)</f>
-        <v>43068</v>
-      </c>
-      <c r="L35" s="242" t="e">
+        <v>43073</v>
+      </c>
+      <c r="L35" s="242">
         <f>_xll.qlOvernightIndexedSwapFairRate(H35,_xll.ohTrigger($P$2:$P$6))</f>
-        <v>#NUM!</v>
+        <v>4.963122176962609E-3</v>
       </c>
       <c r="M35" s="219" t="e">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,I35,,L35)</f>
@@ -13819,23 +13892,23 @@
       </c>
       <c r="G36" s="243">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I36)</f>
-        <v>42731</v>
+        <v>42733</v>
       </c>
       <c r="H36" s="205" t="str">
         <f>_xll.qlMakeDatedOIS(,I36,J36,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_003bc#0001</v>
+        <v>obj_003b9#0000</v>
       </c>
       <c r="I36" s="243">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F36&amp;"M","mf")</f>
-        <v>42733</v>
+        <v>42737</v>
       </c>
       <c r="J36" s="243">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I36)</f>
-        <v>43098</v>
-      </c>
-      <c r="L36" s="242" t="e">
+        <v>43102</v>
+      </c>
+      <c r="L36" s="242">
         <f>_xll.qlOvernightIndexedSwapFairRate(H36,_xll.ohTrigger($P$2:$P$6))</f>
-        <v>#NUM!</v>
+        <v>5.2909809871906563E-3</v>
       </c>
       <c r="M36" s="219" t="e">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,I36,,L36)</f>
@@ -13859,23 +13932,23 @@
       </c>
       <c r="G37" s="243">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I37)</f>
-        <v>42761</v>
+        <v>42766</v>
       </c>
       <c r="H37" s="205" t="str">
         <f>_xll.qlMakeDatedOIS(,I37,J37,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_003d8#0001</v>
+        <v>obj_003cb#0000</v>
       </c>
       <c r="I37" s="243">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F37&amp;"M","mf")</f>
-        <v>42765</v>
+        <v>42768</v>
       </c>
       <c r="J37" s="243">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I37)</f>
-        <v>43130</v>
-      </c>
-      <c r="L37" s="242" t="e">
+        <v>43133</v>
+      </c>
+      <c r="L37" s="242">
         <f>_xll.qlOvernightIndexedSwapFairRate(H37,_xll.ohTrigger($P$2:$P$6))</f>
-        <v>#NUM!</v>
+        <v>5.6351297227843376E-3</v>
       </c>
       <c r="M37" s="219" t="e">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,I37,,L37)</f>
@@ -13899,23 +13972,23 @@
       </c>
       <c r="G38" s="243">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I38)</f>
-        <v>42790</v>
+        <v>42794</v>
       </c>
       <c r="H38" s="205" t="str">
         <f>_xll.qlMakeDatedOIS(,I38,J38,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_003b9#0001</v>
+        <v>obj_003c2#0000</v>
       </c>
       <c r="I38" s="243">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F38&amp;"M","mf")</f>
-        <v>42794</v>
+        <v>42796</v>
       </c>
       <c r="J38" s="243">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I38)</f>
-        <v>43159</v>
-      </c>
-      <c r="L38" s="242" t="e">
+        <v>43161</v>
+      </c>
+      <c r="L38" s="242">
         <f>_xll.qlOvernightIndexedSwapFairRate(H38,_xll.ohTrigger($P$2:$P$6))</f>
-        <v>#NUM!</v>
+        <v>5.9495628516323552E-3</v>
       </c>
       <c r="M38" s="219" t="e">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,I38,,L38)</f>
@@ -13939,23 +14012,23 @@
       </c>
       <c r="G39" s="243">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I39)</f>
-        <v>42821</v>
+        <v>42824</v>
       </c>
       <c r="H39" s="205" t="str">
         <f>_xll.qlMakeDatedOIS(,I39,J39,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_003ce#0001</v>
+        <v>obj_003c6#0000</v>
       </c>
       <c r="I39" s="243">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F39&amp;"M","mf")</f>
-        <v>42823</v>
+        <v>42828</v>
       </c>
       <c r="J39" s="243">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I39)</f>
-        <v>43188</v>
-      </c>
-      <c r="L39" s="242" t="e">
+        <v>43193</v>
+      </c>
+      <c r="L39" s="242">
         <f>_xll.qlOvernightIndexedSwapFairRate(H39,_xll.ohTrigger($P$2:$P$6))</f>
-        <v>#NUM!</v>
+        <v>6.3122460356246652E-3</v>
       </c>
       <c r="M39" s="219" t="e">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,I39,,L39)</f>
@@ -13979,23 +14052,23 @@
       </c>
       <c r="G40" s="243">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I40)</f>
-        <v>42851</v>
+        <v>42852</v>
       </c>
       <c r="H40" s="205" t="str">
         <f>_xll.qlMakeDatedOIS(,I40,J40,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_003bb#0001</v>
+        <v>obj_003b2#0000</v>
       </c>
       <c r="I40" s="243">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F40&amp;"M","mf")</f>
-        <v>42853</v>
+        <v>42857</v>
       </c>
       <c r="J40" s="243">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I40)</f>
-        <v>43220</v>
-      </c>
-      <c r="L40" s="242" t="e">
+        <v>43222</v>
+      </c>
+      <c r="L40" s="242">
         <f>_xll.qlOvernightIndexedSwapFairRate(H40,_xll.ohTrigger($P$2:$P$6))</f>
-        <v>#NUM!</v>
+        <v>6.6432385057668174E-3</v>
       </c>
       <c r="M40" s="219" t="e">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,I40,,L40)</f>
@@ -14019,23 +14092,23 @@
       </c>
       <c r="G41" s="243">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I41)</f>
-        <v>42913</v>
+        <v>42915</v>
       </c>
       <c r="H41" s="205" t="str">
         <f>_xll.qlMakeDatedOIS(,I41,J41,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_003b2#0001</v>
+        <v>obj_003db#0000</v>
       </c>
       <c r="I41" s="243">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F41&amp;"M","mf")</f>
-        <v>42915</v>
+        <v>42919</v>
       </c>
       <c r="J41" s="243">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I41)</f>
-        <v>43280</v>
-      </c>
-      <c r="L41" s="242" t="e">
+        <v>43284</v>
+      </c>
+      <c r="L41" s="242">
         <f>_xll.qlOvernightIndexedSwapFairRate(H41,_xll.ohTrigger($P$2:$P$6))</f>
-        <v>#NUM!</v>
+        <v>7.3550546618312571E-3</v>
       </c>
       <c r="M41" s="219" t="e">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,I41,,L41)</f>
@@ -14059,23 +14132,23 @@
       </c>
       <c r="G42" s="243">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I42)</f>
-        <v>42943</v>
+        <v>42947</v>
       </c>
       <c r="H42" s="205" t="str">
         <f>_xll.qlMakeDatedOIS(,I42,J42,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_003d6#0001</v>
+        <v>obj_003ce#0000</v>
       </c>
       <c r="I42" s="243">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F42&amp;"M","mf")</f>
-        <v>42947</v>
+        <v>42949</v>
       </c>
       <c r="J42" s="243">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I42)</f>
-        <v>43312</v>
-      </c>
-      <c r="L42" s="242" t="e">
+        <v>43314</v>
+      </c>
+      <c r="L42" s="242">
         <f>_xll.qlOvernightIndexedSwapFairRate(H42,_xll.ohTrigger($P$2:$P$6))</f>
-        <v>#NUM!</v>
+        <v>7.7007943219438548E-3</v>
       </c>
       <c r="M42" s="219" t="e">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,I42,,L42)</f>
@@ -14099,23 +14172,23 @@
       </c>
       <c r="G43" s="243">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I43)</f>
-        <v>42972</v>
+        <v>42978</v>
       </c>
       <c r="H43" s="205" t="str">
         <f>_xll.qlMakeDatedOIS(,I43,J43,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_003db#0001</v>
+        <v>obj_003af#0000</v>
       </c>
       <c r="I43" s="243">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F43&amp;"M","mf")</f>
-        <v>42976</v>
+        <v>42982</v>
       </c>
       <c r="J43" s="243">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I43)</f>
-        <v>43341</v>
-      </c>
-      <c r="L43" s="242" t="e">
+        <v>43347</v>
+      </c>
+      <c r="L43" s="242">
         <f>_xll.qlOvernightIndexedSwapFairRate(H43,_xll.ohTrigger($P$2:$P$6))</f>
-        <v>#NUM!</v>
+        <v>8.0821532626311494E-3</v>
       </c>
       <c r="M43" s="219" t="e">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,I43,,L43)</f>
@@ -14139,23 +14212,23 @@
       </c>
       <c r="G44" s="243">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I44)</f>
-        <v>43005</v>
+        <v>43006</v>
       </c>
       <c r="H44" s="205" t="str">
         <f>_xll.qlMakeDatedOIS(,I44,J44,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_003c9#0001</v>
+        <v>obj_003c4#0000</v>
       </c>
       <c r="I44" s="243">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F44&amp;"M","mf")</f>
-        <v>43007</v>
+        <v>43010</v>
       </c>
       <c r="J44" s="243">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I44)</f>
-        <v>43371</v>
-      </c>
-      <c r="L44" s="242" t="e">
+        <v>43375</v>
+      </c>
+      <c r="L44" s="242">
         <f>_xll.qlOvernightIndexedSwapFairRate(H44,_xll.ohTrigger($P$2:$P$6))</f>
-        <v>#NUM!</v>
+        <v>8.4066581622499834E-3</v>
       </c>
       <c r="M44" s="219" t="e">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,I44,,L44)</f>
@@ -14179,23 +14252,23 @@
       </c>
       <c r="G45" s="243">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I45)</f>
-        <v>43034</v>
+        <v>43039</v>
       </c>
       <c r="H45" s="205" t="str">
         <f>_xll.qlMakeDatedOIS(,I45,J45,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_003c1#0001</v>
+        <v>obj_003c9#0000</v>
       </c>
       <c r="I45" s="243">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F45&amp;"M","mf")</f>
-        <v>43038</v>
+        <v>43041</v>
       </c>
       <c r="J45" s="243">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I45)</f>
-        <v>43403</v>
-      </c>
-      <c r="L45" s="242" t="e">
+        <v>43406</v>
+      </c>
+      <c r="L45" s="242">
         <f>_xll.qlOvernightIndexedSwapFairRate(H45,_xll.ohTrigger($P$2:$P$6))</f>
-        <v>#NUM!</v>
+        <v>8.7669994098839195E-3</v>
       </c>
       <c r="M45" s="219" t="e">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,I45,,L45)</f>
@@ -14219,23 +14292,23 @@
       </c>
       <c r="G46" s="243">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I46)</f>
-        <v>43066</v>
+        <v>43069</v>
       </c>
       <c r="H46" s="205" t="str">
         <f>_xll.qlMakeDatedOIS(,I46,J46,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_003cc#0001</v>
+        <v>obj_003cd#0000</v>
       </c>
       <c r="I46" s="243">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F46&amp;"M","mf")</f>
-        <v>43068</v>
+        <v>43073</v>
       </c>
       <c r="J46" s="243">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I46)</f>
-        <v>43433</v>
-      </c>
-      <c r="L46" s="242" t="e">
+        <v>43438</v>
+      </c>
+      <c r="L46" s="242">
         <f>_xll.qlOvernightIndexedSwapFairRate(H46,_xll.ohTrigger($P$2:$P$6))</f>
-        <v>#NUM!</v>
+        <v>9.1402232158806079E-3</v>
       </c>
       <c r="M46" s="219" t="e">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,I46,,L46)</f>
@@ -14259,23 +14332,23 @@
       </c>
       <c r="G47" s="243">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I47)</f>
-        <v>43096</v>
+        <v>43097</v>
       </c>
       <c r="H47" s="205" t="str">
         <f>_xll.qlMakeDatedOIS(,I47,J47,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_003da#0001</v>
+        <v>obj_003b3#0000</v>
       </c>
       <c r="I47" s="243">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F47&amp;"M","mf")</f>
-        <v>43098</v>
+        <v>43102</v>
       </c>
       <c r="J47" s="243">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I47)</f>
-        <v>43465</v>
-      </c>
-      <c r="L47" s="242" t="e">
+        <v>43467</v>
+      </c>
+      <c r="L47" s="242">
         <f>_xll.qlOvernightIndexedSwapFairRate(H47,_xll.ohTrigger($P$2:$P$6))</f>
-        <v>#NUM!</v>
+        <v>9.4796341239979758E-3</v>
       </c>
       <c r="M47" s="219" t="e">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,I47,,L47)</f>
@@ -14299,23 +14372,23 @@
       </c>
       <c r="G48" s="243">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I48)</f>
-        <v>43125</v>
+        <v>43131</v>
       </c>
       <c r="H48" s="205" t="str">
         <f>_xll.qlMakeDatedOIS(,I48,J48,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_003b7#0001</v>
+        <v>obj_003c0#0000</v>
       </c>
       <c r="I48" s="243">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F48&amp;"M","mf")</f>
-        <v>43129</v>
+        <v>43133</v>
       </c>
       <c r="J48" s="243">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I48)</f>
-        <v>43494</v>
-      </c>
-      <c r="L48" s="242" t="e">
+        <v>43500</v>
+      </c>
+      <c r="L48" s="242">
         <f>_xll.qlOvernightIndexedSwapFairRate(H48,_xll.ohTrigger($P$2:$P$6))</f>
-        <v>#NUM!</v>
+        <v>9.85589200988762E-3</v>
       </c>
       <c r="M48" s="219" t="e">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,I48,,L48)</f>
@@ -14339,23 +14412,23 @@
       </c>
       <c r="G49" s="243">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I49)</f>
-        <v>43157</v>
+        <v>43159</v>
       </c>
       <c r="H49" s="205" t="str">
         <f>_xll.qlMakeDatedOIS(,I49,J49,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_003c2#0001</v>
+        <v>obj_003be#0000</v>
       </c>
       <c r="I49" s="243">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F49&amp;"M","mf")</f>
-        <v>43159</v>
+        <v>43161</v>
       </c>
       <c r="J49" s="243">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I49)</f>
-        <v>43524</v>
-      </c>
-      <c r="L49" s="242" t="e">
+        <v>43528</v>
+      </c>
+      <c r="L49" s="242">
         <f>_xll.qlOvernightIndexedSwapFairRate(H49,_xll.ohTrigger($P$2:$P$6))</f>
-        <v>#NUM!</v>
+        <v>1.0186083932921331E-2</v>
       </c>
       <c r="M49" s="219" t="e">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,I49,,L49)</f>
@@ -14379,23 +14452,23 @@
       </c>
       <c r="G50" s="243">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I50)</f>
-        <v>43186</v>
+        <v>43187</v>
       </c>
       <c r="H50" s="205" t="str">
         <f>_xll.qlMakeDatedOIS(,I50,J50,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_003bd#0001</v>
+        <v>obj_003ca#0000</v>
       </c>
       <c r="I50" s="243">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F50&amp;"M","mf")</f>
-        <v>43188</v>
+        <v>43193</v>
       </c>
       <c r="J50" s="243">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I50)</f>
-        <v>43553</v>
-      </c>
-      <c r="L50" s="242" t="e">
+        <v>43558</v>
+      </c>
+      <c r="L50" s="242">
         <f>_xll.qlOvernightIndexedSwapFairRate(H50,_xll.ohTrigger($P$2:$P$6))</f>
-        <v>#NUM!</v>
+        <v>1.0552686706228418E-2</v>
       </c>
       <c r="M50" s="219" t="e">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,I50,,L50)</f>
@@ -14419,23 +14492,23 @@
       </c>
       <c r="G51" s="243">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I51)</f>
-        <v>43216</v>
+        <v>43217</v>
       </c>
       <c r="H51" s="205" t="str">
         <f>_xll.qlMakeDatedOIS(,I51,J51,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_003cf#0001</v>
+        <v>obj_003d0#0000</v>
       </c>
       <c r="I51" s="243">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F51&amp;"M","mf")</f>
-        <v>43220</v>
+        <v>43222</v>
       </c>
       <c r="J51" s="243">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I51)</f>
-        <v>43585</v>
-      </c>
-      <c r="L51" s="242" t="e">
+        <v>43587</v>
+      </c>
+      <c r="L51" s="242">
         <f>_xll.qlOvernightIndexedSwapFairRate(H51,_xll.ohTrigger($P$2:$P$6))</f>
-        <v>#NUM!</v>
+        <v>1.0897431099329415E-2</v>
       </c>
       <c r="M51" s="219" t="e">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,I51,,L51)</f>
@@ -15216,7 +15289,7 @@
       </c>
       <c r="P2" s="363">
         <f>_xll.ohTrigger(O3:O7)</f>
-        <v>25</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
@@ -15232,7 +15305,7 @@
       </c>
       <c r="D3" s="335" t="str">
         <f>_xll.qlSimpleQuote(C3,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>EURSND_SYNTH1M_Quote#0001</v>
+        <v>EURSND_SYNTH1M_Quote#0000</v>
       </c>
       <c r="E3" s="329" t="str">
         <f>_xll.ohRangeRetrieveError(D3)</f>
@@ -15243,9 +15316,9 @@
       <c r="I3" s="287" t="s">
         <v>86</v>
       </c>
-      <c r="J3" s="288" t="e">
+      <c r="J3" s="288">
         <f>SynthDepo!G34</f>
-        <v>#NUM!</v>
+        <v>3.2043134342130452E-3</v>
       </c>
       <c r="K3" s="188" t="s">
         <v>87</v>
@@ -15254,13 +15327,13 @@
         <v>4.2058469913620021E-3</v>
       </c>
       <c r="M3" s="185"/>
-      <c r="N3" s="298" t="e">
-        <f t="array" ref="N3:N84">QuoteLive</f>
-        <v>#NUM!</v>
+      <c r="N3" s="298">
+        <f t="array" ref="N3:N84">QuoteStatic</f>
+        <v>4.2058469913620021E-3</v>
       </c>
       <c r="O3" s="299" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D3,ROUND($N3,6),EvaluationDate)</f>
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="P3" s="186"/>
     </row>
@@ -15278,7 +15351,7 @@
       </c>
       <c r="D4" s="337" t="str">
         <f>_xll.qlSimpleQuote(C4,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>EURSWD_SYNTH1M_Quote#0001</v>
+        <v>EURSWD_SYNTH1M_Quote#0000</v>
       </c>
       <c r="E4" s="330" t="str">
         <f>_xll.ohRangeRetrieveError(D4)</f>
@@ -15289,9 +15362,9 @@
       <c r="I4" s="287" t="s">
         <v>88</v>
       </c>
-      <c r="J4" s="288" t="e">
+      <c r="J4" s="288">
         <f>SynthDepo!G35</f>
-        <v>#NUM!</v>
+        <v>2.8601940572499439E-3</v>
       </c>
       <c r="K4" s="188" t="s">
         <v>87</v>
@@ -15300,12 +15373,12 @@
         <v>3.8093415517890571E-3</v>
       </c>
       <c r="M4" s="185"/>
-      <c r="N4" s="298" t="e">
-        <v>#NUM!</v>
+      <c r="N4" s="298">
+        <v>3.8093415517890571E-3</v>
       </c>
       <c r="O4" s="299" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D4,ROUND($N4,6),EvaluationDate)</f>
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="P4" s="186"/>
     </row>
@@ -15320,7 +15393,7 @@
       </c>
       <c r="D5" s="337" t="str">
         <f>_xll.qlSimpleQuote(C5,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>EUR2WD_SYNTH1M_Quote#0001</v>
+        <v>EUR2WD_SYNTH1M_Quote#0000</v>
       </c>
       <c r="E5" s="330" t="str">
         <f>_xll.ohRangeRetrieveError(D5)</f>
@@ -15331,9 +15404,9 @@
       <c r="I5" s="287" t="s">
         <v>89</v>
       </c>
-      <c r="J5" s="288" t="e">
+      <c r="J5" s="288">
         <f>SynthDepo!G36</f>
-        <v>#NUM!</v>
+        <v>2.4703881144985799E-3</v>
       </c>
       <c r="K5" s="188" t="s">
         <v>87</v>
@@ -15342,12 +15415,12 @@
         <v>3.3584183159212954E-3</v>
       </c>
       <c r="M5" s="185"/>
-      <c r="N5" s="298" t="e">
-        <v>#NUM!</v>
+      <c r="N5" s="298">
+        <v>3.3584183159212954E-3</v>
       </c>
       <c r="O5" s="299" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D5,ROUND($N5,6),EvaluationDate)</f>
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="P5" s="186"/>
     </row>
@@ -15362,7 +15435,7 @@
       </c>
       <c r="D6" s="337" t="str">
         <f>_xll.qlSimpleQuote(C6,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>EUR3WD_SYNTH1M_Quote#0001</v>
+        <v>EUR3WD_SYNTH1M_Quote#0000</v>
       </c>
       <c r="E6" s="330" t="str">
         <f>_xll.ohRangeRetrieveError(D6)</f>
@@ -15373,9 +15446,9 @@
       <c r="I6" s="289" t="s">
         <v>90</v>
       </c>
-      <c r="J6" s="290" t="e">
+      <c r="J6" s="290">
         <f>SynthDepo!G37</f>
-        <v>#NUM!</v>
+        <v>2.0605821717482272E-3</v>
       </c>
       <c r="K6" s="188" t="s">
         <v>87</v>
@@ -15384,12 +15457,12 @@
         <v>2.8874950699445362E-3</v>
       </c>
       <c r="M6" s="185"/>
-      <c r="N6" s="300" t="e">
-        <v>#NUM!</v>
+      <c r="N6" s="300">
+        <v>2.8874950699445362E-3</v>
       </c>
       <c r="O6" s="301" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D6,ROUND($N6,6),EvaluationDate)</f>
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="P6" s="186"/>
     </row>
@@ -15404,7 +15477,7 @@
       </c>
       <c r="D7" s="340" t="str">
         <f>_xll.qlSimpleQuote(C7,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>EUR1MD_SYNTH1M_Quote#0001</v>
+        <v>EUR1MD_SYNTH1M_Quote#0000</v>
       </c>
       <c r="E7" s="341" t="str">
         <f>_xll.ohRangeRetrieveError(D7)</f>
@@ -15415,9 +15488,9 @@
       <c r="I7" s="291" t="s">
         <v>91</v>
       </c>
-      <c r="J7" s="292" t="e">
+      <c r="J7" s="292">
         <f>SynthDepo!G38</f>
-        <v>#NUM!</v>
+        <v>1.7894031025012713E-3</v>
       </c>
       <c r="K7" s="308" t="s">
         <v>87</v>
@@ -15426,12 +15499,12 @@
         <v>2.5289014236876549E-3</v>
       </c>
       <c r="M7" s="307"/>
-      <c r="N7" s="302" t="e">
-        <v>#NUM!</v>
+      <c r="N7" s="302">
+        <v>2.5289014236876549E-3</v>
       </c>
       <c r="O7" s="303" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D7,ROUND($N7,6),EvaluationDate)</f>
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="P7" s="307"/>
     </row>
@@ -15448,7 +15521,7 @@
       </c>
       <c r="D8" s="335" t="str">
         <f>_xll.qlSimpleQuote(C8,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>EURSND_SYNTH3M_Quote#0001</v>
+        <v>EURSND_SYNTH3M_Quote#0000</v>
       </c>
       <c r="E8" s="329"/>
       <c r="F8" s="191"/>
@@ -15456,25 +15529,25 @@
       <c r="I8" s="309" t="s">
         <v>86</v>
       </c>
-      <c r="J8" s="310" t="e">
+      <c r="J8" s="310">
         <f>SynthDepo!H34</f>
-        <v>#NUM!</v>
+        <v>3.7317374462449236E-3</v>
       </c>
       <c r="K8" s="195"/>
       <c r="L8" s="311">
         <v>5.7321352144352172E-3</v>
       </c>
       <c r="M8" s="193"/>
-      <c r="N8" s="312" t="e">
-        <v>#NUM!</v>
+      <c r="N8" s="312">
+        <v>5.7321352144352172E-3</v>
       </c>
       <c r="O8" s="313" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D8,ROUND($N8,6),EvaluationDate)</f>
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="P8" s="364">
         <f>_xll.ohTrigger(O8:O14)</f>
-        <v>25</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
@@ -15491,7 +15564,7 @@
       </c>
       <c r="D9" s="337" t="str">
         <f>_xll.qlSimpleQuote(C9,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>EURSWD_SYNTH3M_Quote#0001</v>
+        <v>EURSWD_SYNTH3M_Quote#0000</v>
       </c>
       <c r="E9" s="330"/>
       <c r="F9" s="191"/>
@@ -15499,21 +15572,21 @@
       <c r="I9" s="304" t="s">
         <v>88</v>
       </c>
-      <c r="J9" s="288" t="e">
+      <c r="J9" s="288">
         <f>SynthDepo!H35</f>
-        <v>#NUM!</v>
+        <v>3.4791750278553614E-3</v>
       </c>
       <c r="K9" s="195"/>
       <c r="L9" s="294">
         <v>5.3264723350881634E-3</v>
       </c>
       <c r="M9" s="193"/>
-      <c r="N9" s="298" t="e">
-        <v>#NUM!</v>
+      <c r="N9" s="298">
+        <v>5.3264723350881634E-3</v>
       </c>
       <c r="O9" s="299" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D9,ROUND($N9,6),EvaluationDate)</f>
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="P9" s="186"/>
     </row>
@@ -15528,7 +15601,7 @@
       </c>
       <c r="D10" s="337" t="str">
         <f>_xll.qlSimpleQuote(C10,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>EUR2WD_SYNTH3M_Quote#0001</v>
+        <v>EUR2WD_SYNTH3M_Quote#0000</v>
       </c>
       <c r="E10" s="330"/>
       <c r="F10" s="191"/>
@@ -15536,21 +15609,21 @@
       <c r="I10" s="304" t="s">
         <v>89</v>
       </c>
-      <c r="J10" s="288" t="e">
+      <c r="J10" s="288">
         <f>SynthDepo!H36</f>
-        <v>#NUM!</v>
+        <v>3.1869947063281395E-3</v>
       </c>
       <c r="K10" s="195"/>
       <c r="L10" s="294">
         <v>4.8648654194839427E-3</v>
       </c>
       <c r="M10" s="193"/>
-      <c r="N10" s="298" t="e">
-        <v>#NUM!</v>
+      <c r="N10" s="298">
+        <v>4.8648654194839427E-3</v>
       </c>
       <c r="O10" s="299" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D10,ROUND($N10,6),EvaluationDate)</f>
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="P10" s="186"/>
     </row>
@@ -15565,7 +15638,7 @@
       </c>
       <c r="D11" s="337" t="str">
         <f>_xll.qlSimpleQuote(C11,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>EUR3WD_SYNTH3M_Quote#0001</v>
+        <v>EUR3WD_SYNTH3M_Quote#0000</v>
       </c>
       <c r="E11" s="330"/>
       <c r="F11" s="191"/>
@@ -15573,21 +15646,21 @@
       <c r="I11" s="305" t="s">
         <v>90</v>
       </c>
-      <c r="J11" s="290" t="e">
+      <c r="J11" s="290">
         <f>SynthDepo!H37</f>
-        <v>#NUM!</v>
+        <v>2.8649165673996341E-3</v>
       </c>
       <c r="K11" s="195"/>
       <c r="L11" s="295">
         <v>4.3832584937707241E-3</v>
       </c>
       <c r="M11" s="193"/>
-      <c r="N11" s="300" t="e">
-        <v>#NUM!</v>
+      <c r="N11" s="300">
+        <v>4.3832584937707241E-3</v>
       </c>
       <c r="O11" s="301" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D11,ROUND($N11,6),EvaluationDate)</f>
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="P11" s="186"/>
     </row>
@@ -15602,7 +15675,7 @@
       </c>
       <c r="D12" s="338" t="str">
         <f>_xll.qlSimpleQuote(C12,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>EUR1MD_SYNTH3M_Quote#0001</v>
+        <v>EUR1MD_SYNTH3M_Quote#0000</v>
       </c>
       <c r="E12" s="331"/>
       <c r="F12" s="191"/>
@@ -15610,21 +15683,21 @@
       <c r="I12" s="304" t="s">
         <v>91</v>
       </c>
-      <c r="J12" s="288" t="e">
+      <c r="J12" s="288">
         <f>SynthDepo!H38</f>
-        <v>#NUM!</v>
+        <v>2.6919866570876017E-3</v>
       </c>
       <c r="K12" s="195"/>
       <c r="L12" s="294">
         <v>4.0078762079279783E-3</v>
       </c>
       <c r="M12" s="193"/>
-      <c r="N12" s="298" t="e">
-        <v>#NUM!</v>
+      <c r="N12" s="298">
+        <v>4.0078762079279783E-3</v>
       </c>
       <c r="O12" s="299" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D12,ROUND($N12,6),EvaluationDate)</f>
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="P12" s="186"/>
     </row>
@@ -15639,7 +15712,7 @@
       </c>
       <c r="D13" s="338" t="str">
         <f>_xll.qlSimpleQuote(C13,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>EUR2MD_SYNTH3M_Quote#0001</v>
+        <v>EUR2MD_SYNTH3M_Quote#0000</v>
       </c>
       <c r="E13" s="331"/>
       <c r="F13" s="191"/>
@@ -15647,21 +15720,21 @@
       <c r="I13" s="304" t="s">
         <v>92</v>
       </c>
-      <c r="J13" s="288" t="e">
+      <c r="J13" s="288">
         <f>SynthDepo!H39</f>
-        <v>#NUM!</v>
+        <v>2.7245935683871876E-3</v>
       </c>
       <c r="K13" s="195"/>
       <c r="L13" s="294">
         <v>3.5055047010388212E-3</v>
       </c>
       <c r="M13" s="193"/>
-      <c r="N13" s="298" t="e">
-        <v>#NUM!</v>
+      <c r="N13" s="298">
+        <v>3.5055047010388212E-3</v>
       </c>
       <c r="O13" s="299" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D13,ROUND($N13,6),EvaluationDate)</f>
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="P13" s="186"/>
     </row>
@@ -15676,7 +15749,7 @@
       </c>
       <c r="D14" s="340" t="str">
         <f>_xll.qlSimpleQuote(C14,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>EUR3MD_SYNTH3M_Quote#0001</v>
+        <v>EUR3MD_SYNTH3M_Quote#0000</v>
       </c>
       <c r="E14" s="332"/>
       <c r="F14" s="191"/>
@@ -15684,21 +15757,21 @@
       <c r="I14" s="306" t="s">
         <v>93</v>
       </c>
-      <c r="J14" s="292" t="e">
+      <c r="J14" s="292">
         <f>SynthDepo!H40</f>
-        <v>#NUM!</v>
+        <v>2.6716534769093397E-3</v>
       </c>
       <c r="K14" s="195"/>
       <c r="L14" s="296">
         <v>3.1312455037978216E-3</v>
       </c>
       <c r="M14" s="193"/>
-      <c r="N14" s="302" t="e">
-        <v>#NUM!</v>
+      <c r="N14" s="302">
+        <v>3.1312455037978216E-3</v>
       </c>
       <c r="O14" s="303" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D14,ROUND($N14,6),EvaluationDate)</f>
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="P14" s="186"/>
     </row>
@@ -15715,7 +15788,7 @@
       </c>
       <c r="D15" s="335" t="str">
         <f>_xll.qlSimpleQuote(C15,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>EURSND_SYNTH6M_Quote#0001</v>
+        <v>EURSND_SYNTH6M_Quote#0000</v>
       </c>
       <c r="E15" s="329" t="str">
         <f>_xll.ohRangeRetrieveError(D15)</f>
@@ -15726,25 +15799,25 @@
       <c r="I15" s="309" t="s">
         <v>86</v>
       </c>
-      <c r="J15" s="310" t="e">
+      <c r="J15" s="310">
         <f>SynthDepo!I34</f>
-        <v>#NUM!</v>
+        <v>4.9030435626481444E-3</v>
       </c>
       <c r="K15" s="195"/>
       <c r="L15" s="311">
         <v>7.3017391339207389E-3</v>
       </c>
       <c r="M15" s="193"/>
-      <c r="N15" s="312" t="e">
-        <v>#NUM!</v>
+      <c r="N15" s="312">
+        <v>7.3017391339207389E-3</v>
       </c>
       <c r="O15" s="313" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D15,ROUND($N15,6),EvaluationDate)</f>
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="P15" s="365">
         <f>_xll.ohTrigger(O15:O24)</f>
-        <v>25</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
@@ -15761,7 +15834,7 @@
       </c>
       <c r="D16" s="337" t="str">
         <f>_xll.qlSimpleQuote(C16,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>EURSWD_SYNTH6M_Quote#0001</v>
+        <v>EURSWD_SYNTH6M_Quote#0000</v>
       </c>
       <c r="E16" s="330" t="str">
         <f>_xll.ohRangeRetrieveError(D16)</f>
@@ -15772,21 +15845,21 @@
       <c r="I16" s="304" t="s">
         <v>88</v>
       </c>
-      <c r="J16" s="288" t="e">
+      <c r="J16" s="288">
         <f>SynthDepo!I35</f>
-        <v>#NUM!</v>
+        <v>4.5832912841538556E-3</v>
       </c>
       <c r="K16" s="195"/>
       <c r="L16" s="294">
         <v>6.9007626072611714E-3</v>
       </c>
       <c r="M16" s="193"/>
-      <c r="N16" s="298" t="e">
-        <v>#NUM!</v>
+      <c r="N16" s="298">
+        <v>6.9007626072611714E-3</v>
       </c>
       <c r="O16" s="299" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D16,ROUND($N16,6),EvaluationDate)</f>
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="P16" s="196"/>
     </row>
@@ -15801,7 +15874,7 @@
       </c>
       <c r="D17" s="337" t="str">
         <f>_xll.qlSimpleQuote(C17,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>EUR2WD_SYNTH6M_Quote#0001</v>
+        <v>EUR2WD_SYNTH6M_Quote#0000</v>
       </c>
       <c r="E17" s="330" t="str">
         <f>_xll.ohRangeRetrieveError(D17)</f>
@@ -15812,21 +15885,21 @@
       <c r="I17" s="304" t="s">
         <v>89</v>
       </c>
-      <c r="J17" s="288" t="e">
+      <c r="J17" s="288">
         <f>SynthDepo!I36</f>
-        <v>#NUM!</v>
+        <v>4.2199820870699144E-3</v>
       </c>
       <c r="K17" s="195"/>
       <c r="L17" s="294">
         <v>6.4446231031256851E-3</v>
       </c>
       <c r="M17" s="193"/>
-      <c r="N17" s="298" t="e">
-        <v>#NUM!</v>
+      <c r="N17" s="298">
+        <v>6.4446231031256851E-3</v>
       </c>
       <c r="O17" s="299" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D17,ROUND($N17,6),EvaluationDate)</f>
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="P17" s="196"/>
     </row>
@@ -15841,7 +15914,7 @@
       </c>
       <c r="D18" s="337" t="str">
         <f>_xll.qlSimpleQuote(C18,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>EUR3WD_SYNTH6M_Quote#0001</v>
+        <v>EUR3WD_SYNTH6M_Quote#0000</v>
       </c>
       <c r="E18" s="330" t="str">
         <f>_xll.ohRangeRetrieveError(D18)</f>
@@ -15852,21 +15925,21 @@
       <c r="I18" s="304" t="s">
         <v>90</v>
       </c>
-      <c r="J18" s="288" t="e">
+      <c r="J18" s="288">
         <f>SynthDepo!I37</f>
-        <v>#NUM!</v>
+        <v>3.8345927744244173E-3</v>
       </c>
       <c r="K18" s="195"/>
       <c r="L18" s="294">
         <v>5.9684835888812017E-3</v>
       </c>
       <c r="M18" s="193"/>
-      <c r="N18" s="298" t="e">
-        <v>#NUM!</v>
+      <c r="N18" s="298">
+        <v>5.9684835888812017E-3</v>
       </c>
       <c r="O18" s="299" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D18,ROUND($N18,6),EvaluationDate)</f>
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="P18" s="196"/>
     </row>
@@ -15881,7 +15954,7 @@
       </c>
       <c r="D19" s="337" t="str">
         <f>_xll.qlSimpleQuote(C19,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>EUR1MD_SYNTH6M_Quote#0001</v>
+        <v>EUR1MD_SYNTH6M_Quote#0000</v>
       </c>
       <c r="E19" s="330" t="str">
         <f>_xll.ohRangeRetrieveError(D19)</f>
@@ -15892,21 +15965,21 @@
       <c r="I19" s="304" t="s">
         <v>91</v>
       </c>
-      <c r="J19" s="288" t="e">
+      <c r="J19" s="288">
         <f>SynthDepo!I38</f>
-        <v>#NUM!</v>
+        <v>3.5917500189754444E-3</v>
       </c>
       <c r="K19" s="195"/>
       <c r="L19" s="294">
         <v>5.6016929496321812E-3</v>
       </c>
       <c r="M19" s="193"/>
-      <c r="N19" s="298" t="e">
-        <v>#NUM!</v>
+      <c r="N19" s="298">
+        <v>5.6016929496321812E-3</v>
       </c>
       <c r="O19" s="299" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D19,ROUND($N19,6),EvaluationDate)</f>
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="P19" s="196"/>
     </row>
@@ -15921,7 +15994,7 @@
       </c>
       <c r="D20" s="337" t="str">
         <f>_xll.qlSimpleQuote(C20,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>EUR2MD_SYNTH6M_Quote#0001</v>
+        <v>EUR2MD_SYNTH6M_Quote#0000</v>
       </c>
       <c r="E20" s="330" t="str">
         <f>_xll.ohRangeRetrieveError(D20)</f>
@@ -15932,21 +16005,21 @@
       <c r="I20" s="304" t="s">
         <v>92</v>
       </c>
-      <c r="J20" s="288" t="e">
+      <c r="J20" s="288">
         <f>SynthDepo!I39</f>
-        <v>#NUM!</v>
+        <v>3.4785744717443067E-3</v>
       </c>
       <c r="K20" s="195"/>
       <c r="L20" s="294">
         <v>5.1219721473992098E-3</v>
       </c>
       <c r="M20" s="193"/>
-      <c r="N20" s="298" t="e">
-        <v>#NUM!</v>
+      <c r="N20" s="298">
+        <v>5.1219721473992098E-3</v>
       </c>
       <c r="O20" s="299" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D20,ROUND($N20,6),EvaluationDate)</f>
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="P20" s="196"/>
     </row>
@@ -15961,7 +16034,7 @@
       </c>
       <c r="D21" s="337" t="str">
         <f>_xll.qlSimpleQuote(C21,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>EUR3MD_SYNTH6M_Quote#0001</v>
+        <v>EUR3MD_SYNTH6M_Quote#0000</v>
       </c>
       <c r="E21" s="330" t="str">
         <f>_xll.ohRangeRetrieveError(D21)</f>
@@ -15972,21 +16045,21 @@
       <c r="I21" s="304" t="s">
         <v>93</v>
       </c>
-      <c r="J21" s="288" t="e">
+      <c r="J21" s="288">
         <f>SynthDepo!I40</f>
-        <v>#NUM!</v>
+        <v>3.4409534197884437E-3</v>
       </c>
       <c r="K21" s="195"/>
       <c r="L21" s="294">
         <v>4.7719257723768905E-3</v>
       </c>
       <c r="M21" s="193"/>
-      <c r="N21" s="298" t="e">
-        <v>#NUM!</v>
+      <c r="N21" s="298">
+        <v>4.7719257723768905E-3</v>
       </c>
       <c r="O21" s="299" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D21,ROUND($N21,6),EvaluationDate)</f>
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="P21" s="196"/>
     </row>
@@ -16001,7 +16074,7 @@
       </c>
       <c r="D22" s="337" t="str">
         <f>_xll.qlSimpleQuote(C22,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>EUR4MD_SYNTH6M_Quote#0001</v>
+        <v>EUR4MD_SYNTH6M_Quote#0000</v>
       </c>
       <c r="E22" s="330" t="str">
         <f>_xll.ohRangeRetrieveError(D22)</f>
@@ -16012,21 +16085,21 @@
       <c r="I22" s="304" t="s">
         <v>94</v>
       </c>
-      <c r="J22" s="288" t="e">
+      <c r="J22" s="288">
         <f>SynthDepo!I41</f>
-        <v>#NUM!</v>
+        <v>3.4510173801779887E-3</v>
       </c>
       <c r="K22" s="195"/>
       <c r="L22" s="294">
         <v>4.5018793973897707E-3</v>
       </c>
       <c r="M22" s="193"/>
-      <c r="N22" s="298" t="e">
-        <v>#NUM!</v>
+      <c r="N22" s="298">
+        <v>4.5018793973897707E-3</v>
       </c>
       <c r="O22" s="299" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D22,ROUND($N22,6),EvaluationDate)</f>
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="P22" s="196"/>
     </row>
@@ -16041,7 +16114,7 @@
       </c>
       <c r="D23" s="337" t="str">
         <f>_xll.qlSimpleQuote(C23,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>EUR5MD_SYNTH6M_Quote#0001</v>
+        <v>EUR5MD_SYNTH6M_Quote#0000</v>
       </c>
       <c r="E23" s="330" t="str">
         <f>_xll.ohRangeRetrieveError(D23)</f>
@@ -16052,21 +16125,21 @@
       <c r="I23" s="304" t="s">
         <v>95</v>
       </c>
-      <c r="J23" s="288" t="e">
+      <c r="J23" s="288">
         <f>SynthDepo!I42</f>
-        <v>#NUM!</v>
+        <v>3.4469738772865367E-3</v>
       </c>
       <c r="K23" s="195"/>
       <c r="L23" s="294">
         <v>4.2569958087442534E-3</v>
       </c>
       <c r="M23" s="193"/>
-      <c r="N23" s="298" t="e">
-        <v>#NUM!</v>
+      <c r="N23" s="298">
+        <v>4.2569958087442534E-3</v>
       </c>
       <c r="O23" s="299" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D23,ROUND($N23,6),EvaluationDate)</f>
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="P23" s="196"/>
     </row>
@@ -16081,7 +16154,7 @@
       </c>
       <c r="D24" s="351" t="str">
         <f>_xll.qlSimpleQuote(C24,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>EUR6MD_SYNTH6M_Quote#0001</v>
+        <v>EUR6MD_SYNTH6M_Quote#0000</v>
       </c>
       <c r="E24" s="330" t="str">
         <f>_xll.ohRangeRetrieveError(D24)</f>
@@ -16092,21 +16165,21 @@
       <c r="I24" s="306" t="s">
         <v>96</v>
       </c>
-      <c r="J24" s="292" t="e">
+      <c r="J24" s="292">
         <f>SynthDepo!I43</f>
-        <v>#NUM!</v>
+        <v>3.407323744319209E-3</v>
       </c>
       <c r="K24" s="195"/>
       <c r="L24" s="296">
         <v>4.0221122202055279E-3</v>
       </c>
       <c r="M24" s="193"/>
-      <c r="N24" s="302" t="e">
-        <v>#NUM!</v>
+      <c r="N24" s="302">
+        <v>4.0221122202055279E-3</v>
       </c>
       <c r="O24" s="303" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D24,ROUND($N24,6),EvaluationDate)</f>
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="P24" s="196"/>
     </row>
@@ -16123,7 +16196,7 @@
       </c>
       <c r="D25" s="335" t="str">
         <f>_xll.qlSimpleQuote(C25,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>EURSND_SYNTH1Y_Quote#0001</v>
+        <v>EURSND_SYNTH1Y_Quote#0000</v>
       </c>
       <c r="E25" s="329" t="str">
         <f>_xll.ohRangeRetrieveError(D25)</f>
@@ -16134,25 +16207,25 @@
       <c r="I25" s="314" t="s">
         <v>86</v>
       </c>
-      <c r="J25" s="310" t="e">
+      <c r="J25" s="310">
         <f>SynthDepo!J34</f>
-        <v>#NUM!</v>
+        <v>3.2037775099655777E-3</v>
       </c>
       <c r="K25" s="195"/>
       <c r="L25" s="311">
         <v>8.7920656907341764E-3</v>
       </c>
       <c r="M25" s="193"/>
-      <c r="N25" s="312" t="e">
-        <v>#NUM!</v>
+      <c r="N25" s="312">
+        <v>8.7920656907341764E-3</v>
       </c>
       <c r="O25" s="313" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D25,ROUND($N25,6),EvaluationDate)</f>
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="P25" s="365">
         <f>_xll.ohTrigger(O25:O40)</f>
-        <v>25</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
@@ -16169,7 +16242,7 @@
       </c>
       <c r="D26" s="337" t="str">
         <f>_xll.qlSimpleQuote(C26,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>EURSWD_SYNTH1Y_Quote#0001</v>
+        <v>EURSWD_SYNTH1Y_Quote#0000</v>
       </c>
       <c r="E26" s="330" t="str">
         <f>_xll.ohRangeRetrieveError(D26)</f>
@@ -16180,21 +16253,21 @@
       <c r="I26" s="315" t="s">
         <v>88</v>
       </c>
-      <c r="J26" s="288" t="e">
+      <c r="J26" s="288">
         <f>SynthDepo!J35</f>
-        <v>#NUM!</v>
+        <v>2.8564425875176715E-3</v>
       </c>
       <c r="K26" s="195"/>
       <c r="L26" s="294">
         <v>8.4141148378606093E-3</v>
       </c>
       <c r="M26" s="193"/>
-      <c r="N26" s="298" t="e">
-        <v>#NUM!</v>
+      <c r="N26" s="298">
+        <v>8.4141148378606093E-3</v>
       </c>
       <c r="O26" s="299" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D26,ROUND($N26,6),EvaluationDate)</f>
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="P26" s="196"/>
     </row>
@@ -16209,7 +16282,7 @@
       </c>
       <c r="D27" s="337" t="str">
         <f>_xll.qlSimpleQuote(C27,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>EUR2WD_SYNTH1Y_Quote#0001</v>
+        <v>EUR2WD_SYNTH1Y_Quote#0000</v>
       </c>
       <c r="E27" s="330" t="str">
         <f>_xll.ohRangeRetrieveError(D27)</f>
@@ -16220,21 +16293,21 @@
       <c r="I27" s="315" t="s">
         <v>89</v>
       </c>
-      <c r="J27" s="288" t="e">
+      <c r="J27" s="288">
         <f>SynthDepo!J36</f>
-        <v>#NUM!</v>
+        <v>2.462885175034036E-3</v>
       </c>
       <c r="K27" s="195"/>
       <c r="L27" s="294">
         <v>7.9848386198087887E-3</v>
       </c>
       <c r="M27" s="193"/>
-      <c r="N27" s="298" t="e">
-        <v>#NUM!</v>
+      <c r="N27" s="298">
+        <v>7.9848386198087887E-3</v>
       </c>
       <c r="O27" s="299" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D27,ROUND($N27,6),EvaluationDate)</f>
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="P27" s="196"/>
     </row>
@@ -16249,7 +16322,7 @@
       </c>
       <c r="D28" s="337" t="str">
         <f>_xll.qlSimpleQuote(C28,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>EUR3WD_SYNTH1Y_Quote#0001</v>
+        <v>EUR3WD_SYNTH1Y_Quote#0000</v>
       </c>
       <c r="E28" s="330" t="str">
         <f>_xll.ohRangeRetrieveError(D28)</f>
@@ -16260,21 +16333,21 @@
       <c r="I28" s="315" t="s">
         <v>90</v>
       </c>
-      <c r="J28" s="288" t="e">
+      <c r="J28" s="288">
         <f>SynthDepo!J37</f>
-        <v>#NUM!</v>
+        <v>2.049327762551411E-3</v>
       </c>
       <c r="K28" s="195"/>
       <c r="L28" s="294">
         <v>7.5355623916479701E-3</v>
       </c>
       <c r="M28" s="193"/>
-      <c r="N28" s="298" t="e">
-        <v>#NUM!</v>
+      <c r="N28" s="298">
+        <v>7.5355623916479701E-3</v>
       </c>
       <c r="O28" s="299" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D28,ROUND($N28,6),EvaluationDate)</f>
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="P28" s="196"/>
     </row>
@@ -16289,7 +16362,7 @@
       </c>
       <c r="D29" s="337" t="str">
         <f>_xll.qlSimpleQuote(C29,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>EUR1MD_SYNTH1Y_Quote#0001</v>
+        <v>EUR1MD_SYNTH1Y_Quote#0000</v>
       </c>
       <c r="E29" s="330" t="str">
         <f>_xll.ohRangeRetrieveError(D29)</f>
@@ -16300,21 +16373,21 @@
       <c r="I29" s="316" t="s">
         <v>91</v>
       </c>
-      <c r="J29" s="290" t="e">
+      <c r="J29" s="290">
         <f>SynthDepo!J38</f>
-        <v>#NUM!</v>
+        <v>1.7733253750772482E-3</v>
       </c>
       <c r="K29" s="195"/>
       <c r="L29" s="295">
         <v>7.2109854876732816E-3</v>
       </c>
       <c r="M29" s="193"/>
-      <c r="N29" s="300" t="e">
-        <v>#NUM!</v>
+      <c r="N29" s="300">
+        <v>7.2109854876732816E-3</v>
       </c>
       <c r="O29" s="301" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D29,ROUND($N29,6),EvaluationDate)</f>
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="P29" s="196"/>
     </row>
@@ -16329,7 +16402,7 @@
       </c>
       <c r="D30" s="337" t="str">
         <f>_xll.qlSimpleQuote(C30,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>EUR2MD_SYNTH1Y_Quote#0001</v>
+        <v>EUR2MD_SYNTH1Y_Quote#0000</v>
       </c>
       <c r="E30" s="330" t="str">
         <f>_xll.ohRangeRetrieveError(D30)</f>
@@ -16340,21 +16413,21 @@
       <c r="I30" s="315" t="s">
         <v>92</v>
       </c>
-      <c r="J30" s="288" t="e">
+      <c r="J30" s="288">
         <f>SynthDepo!J39</f>
-        <v>#NUM!</v>
+        <v>1.567983287662421E-3</v>
       </c>
       <c r="K30" s="195"/>
       <c r="L30" s="294">
         <v>6.8425554420726373E-3</v>
       </c>
       <c r="M30" s="193"/>
-      <c r="N30" s="298" t="e">
-        <v>#NUM!</v>
+      <c r="N30" s="298">
+        <v>6.8425554420726373E-3</v>
       </c>
       <c r="O30" s="299" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D30,ROUND($N30,6),EvaluationDate)</f>
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="P30" s="365"/>
     </row>
@@ -16369,7 +16442,7 @@
       </c>
       <c r="D31" s="337" t="str">
         <f>_xll.qlSimpleQuote(C31,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>EUR3MD_SYNTH1Y_Quote#0001</v>
+        <v>EUR3MD_SYNTH1Y_Quote#0000</v>
       </c>
       <c r="E31" s="330" t="str">
         <f>_xll.ohRangeRetrieveError(D31)</f>
@@ -16380,21 +16453,21 @@
       <c r="I31" s="315" t="s">
         <v>93</v>
       </c>
-      <c r="J31" s="288" t="e">
+      <c r="J31" s="288">
         <f>SynthDepo!J40</f>
-        <v>#NUM!</v>
+        <v>1.4875311502357026E-3</v>
       </c>
       <c r="K31" s="195"/>
       <c r="L31" s="294">
         <v>6.61147504827798E-3</v>
       </c>
       <c r="M31" s="193"/>
-      <c r="N31" s="298" t="e">
-        <v>#NUM!</v>
+      <c r="N31" s="298">
+        <v>6.61147504827798E-3</v>
       </c>
       <c r="O31" s="299" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D31,ROUND($N31,6),EvaluationDate)</f>
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="P31" s="196"/>
     </row>
@@ -16409,7 +16482,7 @@
       </c>
       <c r="D32" s="337" t="str">
         <f>_xll.qlSimpleQuote(C32,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>EUR4MD_SYNTH1Y_Quote#0001</v>
+        <v>EUR4MD_SYNTH1Y_Quote#0000</v>
       </c>
       <c r="E32" s="330" t="str">
         <f>_xll.ohRangeRetrieveError(D32)</f>
@@ -16420,21 +16493,21 @@
       <c r="I32" s="315" t="s">
         <v>94</v>
       </c>
-      <c r="J32" s="288" t="e">
+      <c r="J32" s="288">
         <f>SynthDepo!J41</f>
-        <v>#NUM!</v>
+        <v>1.4908565253128646E-3</v>
       </c>
       <c r="K32" s="195"/>
       <c r="L32" s="294">
         <v>6.4603946545185214E-3</v>
       </c>
       <c r="M32" s="193"/>
-      <c r="N32" s="298" t="e">
-        <v>#NUM!</v>
+      <c r="N32" s="298">
+        <v>6.4603946545185214E-3</v>
       </c>
       <c r="O32" s="299" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D32,ROUND($N32,6),EvaluationDate)</f>
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="P32" s="196"/>
     </row>
@@ -16449,7 +16522,7 @@
       </c>
       <c r="D33" s="337" t="str">
         <f>_xll.qlSimpleQuote(C33,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>EUR5MD_SYNTH1Y_Quote#0001</v>
+        <v>EUR5MD_SYNTH1Y_Quote#0000</v>
       </c>
       <c r="E33" s="330" t="str">
         <f>_xll.ohRangeRetrieveError(D33)</f>
@@ -16460,21 +16533,21 @@
       <c r="I33" s="315" t="s">
         <v>95</v>
       </c>
-      <c r="J33" s="288" t="e">
+      <c r="J33" s="288">
         <f>SynthDepo!J42</f>
-        <v>#NUM!</v>
+        <v>1.5217369253956656E-3</v>
       </c>
       <c r="K33" s="195"/>
       <c r="L33" s="294">
         <v>6.330639434802999E-3</v>
       </c>
       <c r="M33" s="193"/>
-      <c r="N33" s="298" t="e">
-        <v>#NUM!</v>
+      <c r="N33" s="298">
+        <v>6.330639434802999E-3</v>
       </c>
       <c r="O33" s="299" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D33,ROUND($N33,6),EvaluationDate)</f>
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="P33" s="196"/>
     </row>
@@ -16489,7 +16562,7 @@
       </c>
       <c r="D34" s="337" t="str">
         <f>_xll.qlSimpleQuote(C34,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>EUR6MD_SYNTH1Y_Quote#0001</v>
+        <v>EUR6MD_SYNTH1Y_Quote#0000</v>
       </c>
       <c r="E34" s="330" t="str">
         <f>_xll.ohRangeRetrieveError(D34)</f>
@@ -16500,21 +16573,21 @@
       <c r="I34" s="315" t="s">
         <v>96</v>
       </c>
-      <c r="J34" s="288" t="e">
+      <c r="J34" s="288">
         <f>SynthDepo!J43</f>
-        <v>#NUM!</v>
+        <v>1.5512847879699746E-3</v>
       </c>
       <c r="K34" s="195"/>
       <c r="L34" s="294">
         <v>6.2108842151942685E-3</v>
       </c>
       <c r="M34" s="193"/>
-      <c r="N34" s="298" t="e">
-        <v>#NUM!</v>
+      <c r="N34" s="298">
+        <v>6.2108842151942685E-3</v>
       </c>
       <c r="O34" s="299" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D34,ROUND($N34,6),EvaluationDate)</f>
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="P34" s="196"/>
     </row>
@@ -16529,7 +16602,7 @@
       </c>
       <c r="D35" s="337" t="str">
         <f>_xll.qlSimpleQuote(C35,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>EUR7MD_SYNTH1Y_Quote#0001</v>
+        <v>EUR7MD_SYNTH1Y_Quote#0000</v>
       </c>
       <c r="E35" s="330" t="str">
         <f>_xll.ohRangeRetrieveError(D35)</f>
@@ -16540,21 +16613,21 @@
       <c r="I35" s="315" t="s">
         <v>97</v>
       </c>
-      <c r="J35" s="288" t="e">
+      <c r="J35" s="288">
         <f>SynthDepo!J44</f>
-        <v>#NUM!</v>
+        <v>1.5983876755498437E-3</v>
       </c>
       <c r="K35" s="195"/>
       <c r="L35" s="294">
         <v>6.0998038217446853E-3</v>
       </c>
       <c r="M35" s="193"/>
-      <c r="N35" s="298" t="e">
-        <v>#NUM!</v>
+      <c r="N35" s="298">
+        <v>6.0998038217446853E-3</v>
       </c>
       <c r="O35" s="299" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D35,ROUND($N35,6),EvaluationDate)</f>
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="P35" s="196"/>
     </row>
@@ -16569,7 +16642,7 @@
       </c>
       <c r="D36" s="337" t="str">
         <f>_xll.qlSimpleQuote(C36,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>EUR8MD_SYNTH1Y_Quote#0001</v>
+        <v>EUR8MD_SYNTH1Y_Quote#0000</v>
       </c>
       <c r="E36" s="330" t="str">
         <f>_xll.ohRangeRetrieveError(D36)</f>
@@ -16580,21 +16653,21 @@
       <c r="I36" s="315" t="s">
         <v>98</v>
       </c>
-      <c r="J36" s="288" t="e">
+      <c r="J36" s="288">
         <f>SynthDepo!J45</f>
-        <v>#NUM!</v>
+        <v>1.6654905631292021E-3</v>
       </c>
       <c r="K36" s="195"/>
       <c r="L36" s="294">
         <v>6.0087234266775298E-3</v>
       </c>
       <c r="M36" s="193"/>
-      <c r="N36" s="298" t="e">
-        <v>#NUM!</v>
+      <c r="N36" s="298">
+        <v>6.0087234266775298E-3</v>
       </c>
       <c r="O36" s="299" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D36,ROUND($N36,6),EvaluationDate)</f>
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="P36" s="196"/>
     </row>
@@ -16609,7 +16682,7 @@
       </c>
       <c r="D37" s="337" t="str">
         <f>_xll.qlSimpleQuote(C37,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>EUR9MD_SYNTH1Y_Quote#0001</v>
+        <v>EUR9MD_SYNTH1Y_Quote#0000</v>
       </c>
       <c r="E37" s="330" t="str">
         <f>_xll.ohRangeRetrieveError(D37)</f>
@@ -16620,21 +16693,21 @@
       <c r="I37" s="315" t="s">
         <v>99</v>
       </c>
-      <c r="J37" s="288" t="e">
+      <c r="J37" s="288">
         <f>SynthDepo!J46</f>
-        <v>#NUM!</v>
+        <v>1.7612609132011221E-3</v>
       </c>
       <c r="K37" s="195"/>
       <c r="L37" s="294">
         <v>5.9602933807769293E-3</v>
       </c>
       <c r="M37" s="193"/>
-      <c r="N37" s="298" t="e">
-        <v>#NUM!</v>
+      <c r="N37" s="298">
+        <v>5.9602933807769293E-3</v>
       </c>
       <c r="O37" s="299" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D37,ROUND($N37,6),EvaluationDate)</f>
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="P37" s="196"/>
     </row>
@@ -16649,7 +16722,7 @@
       </c>
       <c r="D38" s="337" t="str">
         <f>_xll.qlSimpleQuote(C38,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>EUR10MD_SYNTH1Y_Quote#0001</v>
+        <v>EUR10MD_SYNTH1Y_Quote#0000</v>
       </c>
       <c r="E38" s="330" t="str">
         <f>_xll.ohRangeRetrieveError(D38)</f>
@@ -16660,21 +16733,21 @@
       <c r="I38" s="315" t="s">
         <v>100</v>
       </c>
-      <c r="J38" s="288" t="e">
+      <c r="J38" s="288">
         <f>SynthDepo!J47</f>
-        <v>#NUM!</v>
+        <v>1.8383638007805241E-3</v>
       </c>
       <c r="K38" s="195"/>
       <c r="L38" s="294">
         <v>5.879212986883515E-3</v>
       </c>
       <c r="M38" s="193"/>
-      <c r="N38" s="298" t="e">
-        <v>#NUM!</v>
+      <c r="N38" s="298">
+        <v>5.879212986883515E-3</v>
       </c>
       <c r="O38" s="299" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D38,ROUND($N38,6),EvaluationDate)</f>
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="P38" s="196"/>
     </row>
@@ -16689,7 +16762,7 @@
       </c>
       <c r="D39" s="337" t="str">
         <f>_xll.qlSimpleQuote(C39,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>EUR11MD_SYNTH1Y_Quote#0001</v>
+        <v>EUR11MD_SYNTH1Y_Quote#0000</v>
       </c>
       <c r="E39" s="330" t="str">
         <f>_xll.ohRangeRetrieveError(D39)</f>
@@ -16700,21 +16773,21 @@
       <c r="I39" s="315" t="s">
         <v>101</v>
       </c>
-      <c r="J39" s="288" t="e">
+      <c r="J39" s="288">
         <f>SynthDepo!J48</f>
-        <v>#NUM!</v>
+        <v>1.9292442008629295E-3</v>
       </c>
       <c r="K39" s="195"/>
       <c r="L39" s="294">
         <v>5.8094577669863222E-3</v>
       </c>
       <c r="M39" s="193"/>
-      <c r="N39" s="298" t="e">
-        <v>#NUM!</v>
+      <c r="N39" s="298">
+        <v>5.8094577669863222E-3</v>
       </c>
       <c r="O39" s="299" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D39,ROUND($N39,6),EvaluationDate)</f>
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="P39" s="196"/>
     </row>
@@ -16729,7 +16802,7 @@
       </c>
       <c r="D40" s="337" t="str">
         <f>_xll.qlSimpleQuote(C40,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>EUR1YD_SYNTH1Y_Quote#0001</v>
+        <v>EUR1YD_SYNTH1Y_Quote#0000</v>
       </c>
       <c r="E40" s="330" t="str">
         <f>_xll.ohRangeRetrieveError(D40)</f>
@@ -16740,21 +16813,21 @@
       <c r="I40" s="360" t="s">
         <v>102</v>
       </c>
-      <c r="J40" s="292" t="e">
+      <c r="J40" s="292">
         <f>SynthDepo!J49</f>
-        <v>#NUM!</v>
+        <v>2.0187920634370214E-3</v>
       </c>
       <c r="K40" s="195"/>
       <c r="L40" s="296">
         <v>5.7497025470891255E-3</v>
       </c>
       <c r="M40" s="193"/>
-      <c r="N40" s="302" t="e">
-        <v>#NUM!</v>
+      <c r="N40" s="302">
+        <v>5.7497025470891255E-3</v>
       </c>
       <c r="O40" s="303" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D40,ROUND($N40,6),EvaluationDate)</f>
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="P40" s="365"/>
     </row>
@@ -16772,7 +16845,7 @@
       </c>
       <c r="D41" s="355" t="str">
         <f>_xll.qlSimpleQuote(C41,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR1x13F_SYNTH1Y_Quote#0001</v>
+        <v>EUR1x13F_SYNTH1Y_Quote#0000</v>
       </c>
       <c r="E41" s="329" t="str">
         <f>_xll.ohRangeRetrieveError(D41)</f>
@@ -16795,16 +16868,16 @@
         <v>5.5184505133642758E-3</v>
       </c>
       <c r="M41" s="252"/>
-      <c r="N41" s="323" t="e">
-        <v>#NUM!</v>
+      <c r="N41" s="323">
+        <v>5.5184505133642758E-3</v>
       </c>
       <c r="O41" s="324" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D41,ROUND(N41,6),EvaluationDate)</f>
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="P41" s="365">
         <f>_xll.ohTrigger(O41:O84)</f>
-        <v>25</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.2">
@@ -16821,7 +16894,7 @@
       </c>
       <c r="D42" s="337" t="str">
         <f>_xll.qlSimpleQuote(C42,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR2x14F_SYNTH1Y_Quote#0001</v>
+        <v>EUR2x14F_SYNTH1Y_Quote#0000</v>
       </c>
       <c r="E42" s="330" t="str">
         <f>_xll.ohRangeRetrieveError(D42)</f>
@@ -16844,12 +16917,12 @@
         <v>5.364403554391127E-3</v>
       </c>
       <c r="M42" s="252"/>
-      <c r="N42" s="323" t="e">
-        <v>#NUM!</v>
+      <c r="N42" s="323">
+        <v>5.364403554391127E-3</v>
       </c>
       <c r="O42" s="324" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D42,ROUND(N42,6),EvaluationDate)</f>
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="P42" s="196"/>
     </row>
@@ -16867,7 +16940,7 @@
       </c>
       <c r="D43" s="337" t="str">
         <f>_xll.qlSimpleQuote(C43,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR3x15F_SYNTH1Y_Quote#0001</v>
+        <v>EUR3x15F_SYNTH1Y_Quote#0000</v>
       </c>
       <c r="E43" s="330" t="str">
         <f>_xll.ohRangeRetrieveError(D43)</f>
@@ -16890,12 +16963,12 @@
         <v>5.222161246753421E-3</v>
       </c>
       <c r="M43" s="252"/>
-      <c r="N43" s="323" t="e">
-        <v>#NUM!</v>
+      <c r="N43" s="323">
+        <v>5.222161246753421E-3</v>
       </c>
       <c r="O43" s="324" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D43,ROUND(N43,6),EvaluationDate)</f>
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="P43" s="196"/>
     </row>
@@ -16913,7 +16986,7 @@
       </c>
       <c r="D44" s="337" t="str">
         <f>_xll.qlSimpleQuote(C44,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR4x16F_SYNTH1Y_Quote#0001</v>
+        <v>EUR4x16F_SYNTH1Y_Quote#0000</v>
       </c>
       <c r="E44" s="330" t="str">
         <f>_xll.ohRangeRetrieveError(D44)</f>
@@ -16936,12 +17009,12 @@
         <v>5.095727038121417E-3</v>
       </c>
       <c r="M44" s="252"/>
-      <c r="N44" s="323" t="e">
-        <v>#NUM!</v>
+      <c r="N44" s="323">
+        <v>5.095727038121417E-3</v>
       </c>
       <c r="O44" s="324" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D44,ROUND(N44,6),EvaluationDate)</f>
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="P44" s="196"/>
     </row>
@@ -16959,7 +17032,7 @@
       </c>
       <c r="D45" s="337" t="str">
         <f>_xll.qlSimpleQuote(C45,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR5x17F_SYNTH1Y_Quote#0001</v>
+        <v>EUR5x17F_SYNTH1Y_Quote#0000</v>
       </c>
       <c r="E45" s="330" t="str">
         <f>_xll.ohRangeRetrieveError(D45)</f>
@@ -16982,12 +17055,12 @@
         <v>4.9975925764323545E-3</v>
       </c>
       <c r="M45" s="252"/>
-      <c r="N45" s="323" t="e">
-        <v>#NUM!</v>
+      <c r="N45" s="323">
+        <v>4.9975925764323545E-3</v>
       </c>
       <c r="O45" s="324" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D45,ROUND(N45,6),EvaluationDate)</f>
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="P45" s="196"/>
     </row>
@@ -17005,7 +17078,7 @@
       </c>
       <c r="D46" s="337" t="str">
         <f>_xll.qlSimpleQuote(C46,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR6x18F_SYNTH1Y_Quote#0001</v>
+        <v>EUR6x18F_SYNTH1Y_Quote#0000</v>
       </c>
       <c r="E46" s="330" t="str">
         <f>_xll.ohRangeRetrieveError(D46)</f>
@@ -17028,12 +17101,12 @@
         <v>4.9270875189073313E-3</v>
       </c>
       <c r="M46" s="252"/>
-      <c r="N46" s="323" t="e">
-        <v>#NUM!</v>
+      <c r="N46" s="323">
+        <v>4.9270875189073313E-3</v>
       </c>
       <c r="O46" s="324" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D46,ROUND(N46,6),EvaluationDate)</f>
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="P46" s="196"/>
     </row>
@@ -17051,7 +17124,7 @@
       </c>
       <c r="D47" s="337" t="str">
         <f>_xll.qlSimpleQuote(C47,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR7x19F_SYNTH1Y_Quote#0001</v>
+        <v>EUR7x19F_SYNTH1Y_Quote#0000</v>
       </c>
       <c r="E47" s="330" t="str">
         <f>_xll.ohRangeRetrieveError(D47)</f>
@@ -17074,12 +17147,12 @@
         <v>4.8769445405451904E-3</v>
       </c>
       <c r="M47" s="252"/>
-      <c r="N47" s="323" t="e">
-        <v>#NUM!</v>
+      <c r="N47" s="323">
+        <v>4.8769445405451904E-3</v>
       </c>
       <c r="O47" s="324" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D47,ROUND(N47,6),EvaluationDate)</f>
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="P47" s="196"/>
     </row>
@@ -17097,7 +17170,7 @@
       </c>
       <c r="D48" s="337" t="str">
         <f>_xll.qlSimpleQuote(C48,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR8x20F_SYNTH1Y_Quote#0001</v>
+        <v>EUR8x20F_SYNTH1Y_Quote#0000</v>
       </c>
       <c r="E48" s="330" t="str">
         <f>_xll.ohRangeRetrieveError(D48)</f>
@@ -17120,12 +17193,12 @@
         <v>4.8475104335504327E-3</v>
       </c>
       <c r="M48" s="252"/>
-      <c r="N48" s="323" t="e">
-        <v>#NUM!</v>
+      <c r="N48" s="323">
+        <v>4.8475104335504327E-3</v>
       </c>
       <c r="O48" s="324" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D48,ROUND(N48,6),EvaluationDate)</f>
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="P48" s="196"/>
     </row>
@@ -17143,7 +17216,7 @@
       </c>
       <c r="D49" s="337" t="str">
         <f>_xll.qlSimpleQuote(C49,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR9x21F_SYNTH1Y_Quote#0001</v>
+        <v>EUR9x21F_SYNTH1Y_Quote#0000</v>
       </c>
       <c r="E49" s="330" t="str">
         <f>_xll.ohRangeRetrieveError(D49)</f>
@@ -17166,12 +17239,12 @@
         <v>4.8214083775303014E-3</v>
       </c>
       <c r="M49" s="252"/>
-      <c r="N49" s="323" t="e">
-        <v>#NUM!</v>
+      <c r="N49" s="323">
+        <v>4.8214083775303014E-3</v>
       </c>
       <c r="O49" s="324" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D49,ROUND(N49,6),EvaluationDate)</f>
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="P49" s="196"/>
     </row>
@@ -17189,7 +17262,7 @@
       </c>
       <c r="D50" s="337" t="str">
         <f>_xll.qlSimpleQuote(C50,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR10x22F_SYNTH1Y_Quote#0001</v>
+        <v>EUR10x22F_SYNTH1Y_Quote#0000</v>
       </c>
       <c r="E50" s="330" t="str">
         <f>_xll.ohRangeRetrieveError(D50)</f>
@@ -17212,12 +17285,12 @@
         <v>4.8358343922331225E-3</v>
       </c>
       <c r="M50" s="252"/>
-      <c r="N50" s="323" t="e">
-        <v>#NUM!</v>
+      <c r="N50" s="323">
+        <v>4.8358343922331225E-3</v>
       </c>
       <c r="O50" s="324" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D50,ROUND(N50,6),EvaluationDate)</f>
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="P50" s="196"/>
     </row>
@@ -17235,7 +17308,7 @@
       </c>
       <c r="D51" s="337" t="str">
         <f>_xll.qlSimpleQuote(C51,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR11x23F_SYNTH1Y_Quote#0001</v>
+        <v>EUR11x23F_SYNTH1Y_Quote#0000</v>
       </c>
       <c r="E51" s="330" t="str">
         <f>_xll.ohRangeRetrieveError(D51)</f>
@@ -17258,12 +17331,12 @@
         <v>4.8738620889577583E-3</v>
       </c>
       <c r="M51" s="252"/>
-      <c r="N51" s="323" t="e">
-        <v>#NUM!</v>
+      <c r="N51" s="323">
+        <v>4.8738620889577583E-3</v>
       </c>
       <c r="O51" s="324" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D51,ROUND(N51,6),EvaluationDate)</f>
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="P51" s="196"/>
     </row>
@@ -17281,7 +17354,7 @@
       </c>
       <c r="D52" s="337" t="str">
         <f>_xll.qlSimpleQuote(C52,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR13x25F_SYNTH1Y_Quote#0001</v>
+        <v>EUR13x25F_SYNTH1Y_Quote#0000</v>
       </c>
       <c r="E52" s="330" t="str">
         <f>_xll.ohRangeRetrieveError(D52)</f>
@@ -17304,12 +17377,12 @@
         <v>5.0360122946791885E-3</v>
       </c>
       <c r="M52" s="252"/>
-      <c r="N52" s="323" t="e">
-        <v>#NUM!</v>
+      <c r="N52" s="323">
+        <v>5.0360122946791885E-3</v>
       </c>
       <c r="O52" s="324" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D52,ROUND(N52,6),EvaluationDate)</f>
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="P52" s="196"/>
     </row>
@@ -17327,7 +17400,7 @@
       </c>
       <c r="D53" s="337" t="str">
         <f>_xll.qlSimpleQuote(C53,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR14x26F_SYNTH1Y_Quote#0001</v>
+        <v>EUR14x26F_SYNTH1Y_Quote#0000</v>
       </c>
       <c r="E53" s="330" t="str">
         <f>_xll.ohRangeRetrieveError(D53)</f>
@@ -17350,12 +17423,12 @@
         <v>5.1673953071292014E-3</v>
       </c>
       <c r="M53" s="252"/>
-      <c r="N53" s="323" t="e">
-        <v>#NUM!</v>
+      <c r="N53" s="323">
+        <v>5.1673953071292014E-3</v>
       </c>
       <c r="O53" s="324" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D53,ROUND(N53,6),EvaluationDate)</f>
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="P53" s="196"/>
     </row>
@@ -17373,7 +17446,7 @@
       </c>
       <c r="D54" s="337" t="str">
         <f>_xll.qlSimpleQuote(C54,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR15x27F_SYNTH1Y_Quote#0001</v>
+        <v>EUR15x27F_SYNTH1Y_Quote#0000</v>
       </c>
       <c r="E54" s="330" t="str">
         <f>_xll.ohRangeRetrieveError(D54)</f>
@@ -17396,12 +17469,12 @@
         <v>5.3457872035993278E-3</v>
       </c>
       <c r="M54" s="252"/>
-      <c r="N54" s="323" t="e">
-        <v>#NUM!</v>
+      <c r="N54" s="323">
+        <v>5.3457872035993278E-3</v>
       </c>
       <c r="O54" s="324" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D54,ROUND(N54,6),EvaluationDate)</f>
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="P54" s="196"/>
     </row>
@@ -17419,7 +17492,7 @@
       </c>
       <c r="D55" s="337" t="str">
         <f>_xll.qlSimpleQuote(C55,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR16x28F_SYNTH1Y_Quote#0001</v>
+        <v>EUR16x28F_SYNTH1Y_Quote#0000</v>
       </c>
       <c r="E55" s="330" t="str">
         <f>_xll.ohRangeRetrieveError(D55)</f>
@@ -17442,12 +17515,12 @@
         <v>5.5278496033201573E-3</v>
       </c>
       <c r="M55" s="252"/>
-      <c r="N55" s="323" t="e">
-        <v>#NUM!</v>
+      <c r="N55" s="323">
+        <v>5.5278496033201573E-3</v>
       </c>
       <c r="O55" s="324" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D55,ROUND(N55,6),EvaluationDate)</f>
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="P55" s="196"/>
     </row>
@@ -17465,7 +17538,7 @@
       </c>
       <c r="D56" s="337" t="str">
         <f>_xll.qlSimpleQuote(C56,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR17x29F_SYNTH1Y_Quote#0001</v>
+        <v>EUR17x29F_SYNTH1Y_Quote#0000</v>
       </c>
       <c r="E56" s="330" t="str">
         <f>_xll.ohRangeRetrieveError(D56)</f>
@@ -17488,12 +17561,12 @@
         <v>5.745141949555852E-3</v>
       </c>
       <c r="M56" s="252"/>
-      <c r="N56" s="323" t="e">
-        <v>#NUM!</v>
+      <c r="N56" s="323">
+        <v>5.745141949555852E-3</v>
       </c>
       <c r="O56" s="324" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D56,ROUND(N56,6),EvaluationDate)</f>
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="P56" s="196"/>
     </row>
@@ -17511,7 +17584,7 @@
       </c>
       <c r="D57" s="337" t="str">
         <f>_xll.qlSimpleQuote(C57,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR18x30F_SYNTH1Y_Quote#0001</v>
+        <v>EUR18x30F_SYNTH1Y_Quote#0000</v>
       </c>
       <c r="E57" s="330" t="str">
         <f>_xll.ohRangeRetrieveError(D57)</f>
@@ -17534,12 +17607,12 @@
         <v>5.9844482620643007E-3</v>
       </c>
       <c r="M57" s="252"/>
-      <c r="N57" s="323" t="e">
-        <v>#NUM!</v>
+      <c r="N57" s="323">
+        <v>5.9844482620643007E-3</v>
       </c>
       <c r="O57" s="324" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D57,ROUND(N57,6),EvaluationDate)</f>
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="P57" s="196"/>
     </row>
@@ -17557,7 +17630,7 @@
       </c>
       <c r="D58" s="337" t="str">
         <f>_xll.qlSimpleQuote(C58,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR19x31F_SYNTH1Y_Quote#0001</v>
+        <v>EUR19x31F_SYNTH1Y_Quote#0000</v>
       </c>
       <c r="E58" s="330" t="str">
         <f>_xll.ohRangeRetrieveError(D58)</f>
@@ -17580,12 +17653,12 @@
         <v>6.2250019959649858E-3</v>
       </c>
       <c r="M58" s="252"/>
-      <c r="N58" s="323" t="e">
-        <v>#NUM!</v>
+      <c r="N58" s="323">
+        <v>6.2250019959649858E-3</v>
       </c>
       <c r="O58" s="324" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D58,ROUND(N58,6),EvaluationDate)</f>
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="P58" s="196"/>
     </row>
@@ -17603,7 +17676,7 @@
       </c>
       <c r="D59" s="337" t="str">
         <f>_xll.qlSimpleQuote(C59,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR20x32F_SYNTH1Y_Quote#0001</v>
+        <v>EUR20x32F_SYNTH1Y_Quote#0000</v>
       </c>
       <c r="E59" s="330" t="str">
         <f>_xll.ohRangeRetrieveError(D59)</f>
@@ -17626,12 +17699,12 @@
         <v>6.5088737500289401E-3</v>
       </c>
       <c r="M59" s="252"/>
-      <c r="N59" s="323" t="e">
-        <v>#NUM!</v>
+      <c r="N59" s="323">
+        <v>6.5088737500289401E-3</v>
       </c>
       <c r="O59" s="324" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D59,ROUND(N59,6),EvaluationDate)</f>
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="P59" s="196"/>
     </row>
@@ -17649,7 +17722,7 @@
       </c>
       <c r="D60" s="337" t="str">
         <f>_xll.qlSimpleQuote(C60,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR21x33F_SYNTH1Y_Quote#0001</v>
+        <v>EUR21x33F_SYNTH1Y_Quote#0000</v>
       </c>
       <c r="E60" s="330" t="str">
         <f>_xll.ohRangeRetrieveError(D60)</f>
@@ -17672,12 +17745,12 @@
         <v>6.7909235431512314E-3</v>
       </c>
       <c r="M60" s="252"/>
-      <c r="N60" s="323" t="e">
-        <v>#NUM!</v>
+      <c r="N60" s="323">
+        <v>6.7909235431512314E-3</v>
       </c>
       <c r="O60" s="324" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D60,ROUND(N60,6),EvaluationDate)</f>
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="P60" s="196"/>
     </row>
@@ -17695,7 +17768,7 @@
       </c>
       <c r="D61" s="337" t="str">
         <f>_xll.qlSimpleQuote(C61,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR22x34F_SYNTH1Y_Quote#0001</v>
+        <v>EUR22x34F_SYNTH1Y_Quote#0000</v>
       </c>
       <c r="E61" s="330" t="str">
         <f>_xll.ohRangeRetrieveError(D61)</f>
@@ -17718,12 +17791,12 @@
         <v>7.0840930581596365E-3</v>
       </c>
       <c r="M61" s="252"/>
-      <c r="N61" s="323" t="e">
-        <v>#NUM!</v>
+      <c r="N61" s="323">
+        <v>7.0840930581596365E-3</v>
       </c>
       <c r="O61" s="324" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D61,ROUND(N61,6),EvaluationDate)</f>
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="P61" s="196"/>
     </row>
@@ -17741,7 +17814,7 @@
       </c>
       <c r="D62" s="337" t="str">
         <f>_xll.qlSimpleQuote(C62,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR23x35F_SYNTH1Y_Quote#0001</v>
+        <v>EUR23x35F_SYNTH1Y_Quote#0000</v>
       </c>
       <c r="E62" s="330" t="str">
         <f>_xll.ohRangeRetrieveError(D62)</f>
@@ -17764,12 +17837,12 @@
         <v>7.4075673049869423E-3</v>
       </c>
       <c r="M62" s="252"/>
-      <c r="N62" s="323" t="e">
-        <v>#NUM!</v>
+      <c r="N62" s="323">
+        <v>7.4075673049869423E-3</v>
       </c>
       <c r="O62" s="324" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D62,ROUND(N62,6),EvaluationDate)</f>
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="P62" s="196"/>
     </row>
@@ -17787,7 +17860,7 @@
       </c>
       <c r="D63" s="337" t="str">
         <f>_xll.qlSimpleQuote(C63,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR25x37F_SYNTH1Y_Quote#0001</v>
+        <v>EUR25x37F_SYNTH1Y_Quote#0000</v>
       </c>
       <c r="E63" s="330" t="str">
         <f>_xll.ohRangeRetrieveError(D63)</f>
@@ -17810,12 +17883,12 @@
         <v>8.0854784365909389E-3</v>
       </c>
       <c r="M63" s="252"/>
-      <c r="N63" s="323" t="e">
-        <v>#NUM!</v>
+      <c r="N63" s="323">
+        <v>8.0854784365909389E-3</v>
       </c>
       <c r="O63" s="324" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D63,ROUND(N63,6),EvaluationDate)</f>
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="P63" s="196"/>
     </row>
@@ -17833,7 +17906,7 @@
       </c>
       <c r="D64" s="337" t="str">
         <f>_xll.qlSimpleQuote(C64,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR26x38F_SYNTH1Y_Quote#0001</v>
+        <v>EUR26x38F_SYNTH1Y_Quote#0000</v>
       </c>
       <c r="E64" s="330" t="str">
         <f>_xll.ohRangeRetrieveError(D64)</f>
@@ -17856,12 +17929,12 @@
         <v>8.4351397145703486E-3</v>
       </c>
       <c r="M64" s="252"/>
-      <c r="N64" s="323" t="e">
-        <v>#NUM!</v>
+      <c r="N64" s="323">
+        <v>8.4351397145703486E-3</v>
       </c>
       <c r="O64" s="324" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D64,ROUND(N64,6),EvaluationDate)</f>
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="P64" s="196"/>
     </row>
@@ -17879,7 +17952,7 @@
       </c>
       <c r="D65" s="337" t="str">
         <f>_xll.qlSimpleQuote(C65,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR27x39F_SYNTH1Y_Quote#0001</v>
+        <v>EUR27x39F_SYNTH1Y_Quote#0000</v>
       </c>
       <c r="E65" s="330" t="str">
         <f>_xll.ohRangeRetrieveError(D65)</f>
@@ -17902,12 +17975,12 @@
         <v>8.7792388301338904E-3</v>
       </c>
       <c r="M65" s="252"/>
-      <c r="N65" s="323" t="e">
-        <v>#NUM!</v>
+      <c r="N65" s="323">
+        <v>8.7792388301338904E-3</v>
       </c>
       <c r="O65" s="324" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D65,ROUND(N65,6),EvaluationDate)</f>
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="P65" s="196"/>
     </row>
@@ -17925,7 +17998,7 @@
       </c>
       <c r="D66" s="337" t="str">
         <f>_xll.qlSimpleQuote(C66,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR28x40F_SYNTH1Y_Quote#0001</v>
+        <v>EUR28x40F_SYNTH1Y_Quote#0000</v>
       </c>
       <c r="E66" s="330" t="str">
         <f>_xll.ohRangeRetrieveError(D66)</f>
@@ -17948,12 +18021,12 @@
         <v>9.1382007613174283E-3</v>
       </c>
       <c r="M66" s="252"/>
-      <c r="N66" s="323" t="e">
-        <v>#NUM!</v>
+      <c r="N66" s="323">
+        <v>9.1382007613174283E-3</v>
       </c>
       <c r="O66" s="324" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D66,ROUND(N66,6),EvaluationDate)</f>
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="P66" s="196"/>
     </row>
@@ -17971,7 +18044,7 @@
       </c>
       <c r="D67" s="337" t="str">
         <f>_xll.qlSimpleQuote(C67,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR29x41F_SYNTH1Y_Quote#0001</v>
+        <v>EUR29x41F_SYNTH1Y_Quote#0000</v>
       </c>
       <c r="E67" s="330" t="str">
         <f>_xll.ohRangeRetrieveError(D67)</f>
@@ -17994,12 +18067,12 @@
         <v>9.5125444216335089E-3</v>
       </c>
       <c r="M67" s="252"/>
-      <c r="N67" s="323" t="e">
-        <v>#NUM!</v>
+      <c r="N67" s="323">
+        <v>9.5125444216335089E-3</v>
       </c>
       <c r="O67" s="324" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D67,ROUND(N67,6),EvaluationDate)</f>
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="P67" s="196"/>
     </row>
@@ -18017,7 +18090,7 @@
       </c>
       <c r="D68" s="337" t="str">
         <f>_xll.qlSimpleQuote(C68,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR30x42F_SYNTH1Y_Quote#0001</v>
+        <v>EUR30x42F_SYNTH1Y_Quote#0000</v>
       </c>
       <c r="E68" s="330" t="str">
         <f>_xll.ohRangeRetrieveError(D68)</f>
@@ -18040,12 +18113,12 @@
         <v>9.8546608890971287E-3</v>
       </c>
       <c r="M68" s="252"/>
-      <c r="N68" s="323" t="e">
-        <v>#NUM!</v>
+      <c r="N68" s="323">
+        <v>9.8546608890971287E-3</v>
       </c>
       <c r="O68" s="324" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D68,ROUND(N68,6),EvaluationDate)</f>
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="P68" s="196"/>
     </row>
@@ -18063,7 +18136,7 @@
       </c>
       <c r="D69" s="337" t="str">
         <f>_xll.qlSimpleQuote(C69,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR31x43F_SYNTH1Y_Quote#0001</v>
+        <v>EUR31x43F_SYNTH1Y_Quote#0000</v>
       </c>
       <c r="E69" s="330" t="str">
         <f>_xll.ohRangeRetrieveError(D69)</f>
@@ -18086,12 +18159,12 @@
         <v>1.0210978410878051E-2</v>
       </c>
       <c r="M69" s="252"/>
-      <c r="N69" s="323" t="e">
-        <v>#NUM!</v>
+      <c r="N69" s="323">
+        <v>1.0210978410878051E-2</v>
       </c>
       <c r="O69" s="324" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D69,ROUND(N69,6),EvaluationDate)</f>
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="P69" s="196"/>
     </row>
@@ -18109,7 +18182,7 @@
       </c>
       <c r="D70" s="337" t="str">
         <f>_xll.qlSimpleQuote(C70,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR32x44F_SYNTH1Y_Quote#0001</v>
+        <v>EUR32x44F_SYNTH1Y_Quote#0000</v>
       </c>
       <c r="E70" s="330" t="str">
         <f>_xll.ohRangeRetrieveError(D70)</f>
@@ -18132,12 +18205,12 @@
         <v>1.0593222229748376E-2</v>
       </c>
       <c r="M70" s="252"/>
-      <c r="N70" s="323" t="e">
-        <v>#NUM!</v>
+      <c r="N70" s="323">
+        <v>1.0593222229748376E-2</v>
       </c>
       <c r="O70" s="324" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D70,ROUND(N70,6),EvaluationDate)</f>
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="P70" s="196"/>
     </row>
@@ -18155,7 +18228,7 @@
       </c>
       <c r="D71" s="337" t="str">
         <f>_xll.qlSimpleQuote(C71,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR33x45F_SYNTH1Y_Quote#0001</v>
+        <v>EUR33x45F_SYNTH1Y_Quote#0000</v>
       </c>
       <c r="E71" s="330" t="str">
         <f>_xll.ohRangeRetrieveError(D71)</f>
@@ -18178,12 +18251,12 @@
         <v>1.0941099804224811E-2</v>
       </c>
       <c r="M71" s="252"/>
-      <c r="N71" s="323" t="e">
-        <v>#NUM!</v>
+      <c r="N71" s="323">
+        <v>1.0941099804224811E-2</v>
       </c>
       <c r="O71" s="324" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D71,ROUND(N71,6),EvaluationDate)</f>
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="P71" s="196"/>
     </row>
@@ -18201,7 +18274,7 @@
       </c>
       <c r="D72" s="337" t="str">
         <f>_xll.qlSimpleQuote(C72,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR34x46F_SYNTH1Y_Quote#0001</v>
+        <v>EUR34x46F_SYNTH1Y_Quote#0000</v>
       </c>
       <c r="E72" s="330" t="str">
         <f>_xll.ohRangeRetrieveError(D72)</f>
@@ -18224,12 +18297,12 @@
         <v>1.1289933614824757E-2</v>
       </c>
       <c r="M72" s="252"/>
-      <c r="N72" s="323" t="e">
-        <v>#NUM!</v>
+      <c r="N72" s="323">
+        <v>1.1289933614824757E-2</v>
       </c>
       <c r="O72" s="324" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D72,ROUND(N72,6),EvaluationDate)</f>
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="P72" s="196"/>
     </row>
@@ -18247,7 +18320,7 @@
       </c>
       <c r="D73" s="337" t="str">
         <f>_xll.qlSimpleQuote(C73,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR35x47F_SYNTH1Y_Quote#0001</v>
+        <v>EUR35x47F_SYNTH1Y_Quote#0000</v>
       </c>
       <c r="E73" s="330" t="str">
         <f>_xll.ohRangeRetrieveError(D73)</f>
@@ -18270,12 +18343,12 @@
         <v>1.1662910276449256E-2</v>
       </c>
       <c r="M73" s="252"/>
-      <c r="N73" s="323" t="e">
-        <v>#NUM!</v>
+      <c r="N73" s="323">
+        <v>1.1662910276449256E-2</v>
       </c>
       <c r="O73" s="324" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D73,ROUND(N73,6),EvaluationDate)</f>
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="P73" s="196"/>
     </row>
@@ -18293,7 +18366,7 @@
       </c>
       <c r="D74" s="337" t="str">
         <f>_xll.qlSimpleQuote(C74,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR37x49F_SYNTH1Y_Quote#0001</v>
+        <v>EUR37x49F_SYNTH1Y_Quote#0000</v>
       </c>
       <c r="E74" s="330" t="str">
         <f>_xll.ohRangeRetrieveError(D74)</f>
@@ -18316,12 +18389,12 @@
         <v>1.2398158364926365E-2</v>
       </c>
       <c r="M74" s="252"/>
-      <c r="N74" s="323" t="e">
-        <v>#NUM!</v>
+      <c r="N74" s="323">
+        <v>1.2398158364926365E-2</v>
       </c>
       <c r="O74" s="324" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D74,ROUND(N74,6),EvaluationDate)</f>
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="P74" s="196"/>
     </row>
@@ -18339,7 +18412,7 @@
       </c>
       <c r="D75" s="337" t="str">
         <f>_xll.qlSimpleQuote(C75,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR38x50F_SYNTH1Y_Quote#0001</v>
+        <v>EUR38x50F_SYNTH1Y_Quote#0000</v>
       </c>
       <c r="E75" s="330" t="str">
         <f>_xll.ohRangeRetrieveError(D75)</f>
@@ -18362,12 +18435,12 @@
         <v>1.2783287328303593E-2</v>
       </c>
       <c r="M75" s="252"/>
-      <c r="N75" s="323" t="e">
-        <v>#NUM!</v>
+      <c r="N75" s="323">
+        <v>1.2783287328303593E-2</v>
       </c>
       <c r="O75" s="324" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D75,ROUND(N75,6),EvaluationDate)</f>
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="P75" s="196"/>
     </row>
@@ -18385,7 +18458,7 @@
       </c>
       <c r="D76" s="337" t="str">
         <f>_xll.qlSimpleQuote(C76,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR39x51F_SYNTH1Y_Quote#0001</v>
+        <v>EUR39x51F_SYNTH1Y_Quote#0000</v>
       </c>
       <c r="E76" s="330" t="str">
         <f>_xll.ohRangeRetrieveError(D76)</f>
@@ -18408,12 +18481,12 @@
         <v>1.3132400284157388E-2</v>
       </c>
       <c r="M76" s="252"/>
-      <c r="N76" s="323" t="e">
-        <v>#NUM!</v>
+      <c r="N76" s="323">
+        <v>1.3132400284157388E-2</v>
       </c>
       <c r="O76" s="324" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D76,ROUND(N76,6),EvaluationDate)</f>
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="P76" s="196"/>
     </row>
@@ -18431,7 +18504,7 @@
       </c>
       <c r="D77" s="337" t="str">
         <f>_xll.qlSimpleQuote(C77,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR40x52F_SYNTH1Y_Quote#0001</v>
+        <v>EUR40x52F_SYNTH1Y_Quote#0000</v>
       </c>
       <c r="E77" s="330" t="str">
         <f>_xll.ohRangeRetrieveError(D77)</f>
@@ -18454,12 +18527,12 @@
         <v>1.3500093329822146E-2</v>
       </c>
       <c r="M77" s="252"/>
-      <c r="N77" s="323" t="e">
-        <v>#NUM!</v>
+      <c r="N77" s="323">
+        <v>1.3500093329822146E-2</v>
       </c>
       <c r="O77" s="324" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D77,ROUND(N77,6),EvaluationDate)</f>
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="P77" s="196"/>
     </row>
@@ -18477,7 +18550,7 @@
       </c>
       <c r="D78" s="337" t="str">
         <f>_xll.qlSimpleQuote(C78,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR41x53F_SYNTH1Y_Quote#0001</v>
+        <v>EUR41x53F_SYNTH1Y_Quote#0000</v>
       </c>
       <c r="E78" s="330" t="str">
         <f>_xll.ohRangeRetrieveError(D78)</f>
@@ -18500,12 +18573,12 @@
         <v>1.3880085019127577E-2</v>
       </c>
       <c r="M78" s="252"/>
-      <c r="N78" s="323" t="e">
-        <v>#NUM!</v>
+      <c r="N78" s="323">
+        <v>1.3880085019127577E-2</v>
       </c>
       <c r="O78" s="324" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D78,ROUND(N78,6),EvaluationDate)</f>
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="P78" s="196"/>
     </row>
@@ -18523,7 +18596,7 @@
       </c>
       <c r="D79" s="337" t="str">
         <f>_xll.qlSimpleQuote(C79,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR42x54F_SYNTH1Y_Quote#0001</v>
+        <v>EUR42x54F_SYNTH1Y_Quote#0000</v>
       </c>
       <c r="E79" s="330" t="str">
         <f>_xll.ohRangeRetrieveError(D79)</f>
@@ -18546,12 +18619,12 @@
         <v>1.424299765014219E-2</v>
       </c>
       <c r="M79" s="252"/>
-      <c r="N79" s="323" t="e">
-        <v>#NUM!</v>
+      <c r="N79" s="323">
+        <v>1.424299765014219E-2</v>
       </c>
       <c r="O79" s="324" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D79,ROUND(N79,6),EvaluationDate)</f>
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="P79" s="196"/>
     </row>
@@ -18569,7 +18642,7 @@
       </c>
       <c r="D80" s="337" t="str">
         <f>_xll.qlSimpleQuote(C80,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR43x55F_SYNTH1Y_Quote#0001</v>
+        <v>EUR43x55F_SYNTH1Y_Quote#0000</v>
       </c>
       <c r="E80" s="330" t="str">
         <f>_xll.ohRangeRetrieveError(D80)</f>
@@ -18592,12 +18665,12 @@
         <v>1.4618875823282799E-2</v>
       </c>
       <c r="M80" s="252"/>
-      <c r="N80" s="323" t="e">
-        <v>#NUM!</v>
+      <c r="N80" s="323">
+        <v>1.4618875823282799E-2</v>
       </c>
       <c r="O80" s="324" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D80,ROUND(N80,6),EvaluationDate)</f>
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="P80" s="196"/>
     </row>
@@ -18615,7 +18688,7 @@
       </c>
       <c r="D81" s="337" t="str">
         <f>_xll.qlSimpleQuote(C81,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR44x56F_SYNTH1Y_Quote#0001</v>
+        <v>EUR44x56F_SYNTH1Y_Quote#0000</v>
       </c>
       <c r="E81" s="330" t="str">
         <f>_xll.ohRangeRetrieveError(D81)</f>
@@ -18638,12 +18711,12 @@
         <v>1.4984443785392491E-2</v>
       </c>
       <c r="M81" s="252"/>
-      <c r="N81" s="323" t="e">
-        <v>#NUM!</v>
+      <c r="N81" s="323">
+        <v>1.4984443785392491E-2</v>
       </c>
       <c r="O81" s="324" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D81,ROUND(N81,6),EvaluationDate)</f>
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="P81" s="196"/>
     </row>
@@ -18661,7 +18734,7 @@
       </c>
       <c r="D82" s="337" t="str">
         <f>_xll.qlSimpleQuote(C82,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR45x57F_SYNTH1Y_Quote#0001</v>
+        <v>EUR45x57F_SYNTH1Y_Quote#0000</v>
       </c>
       <c r="E82" s="330" t="str">
         <f>_xll.ohRangeRetrieveError(D82)</f>
@@ -18684,12 +18757,12 @@
         <v>1.5351310322004475E-2</v>
       </c>
       <c r="M82" s="252"/>
-      <c r="N82" s="323" t="e">
-        <v>#NUM!</v>
+      <c r="N82" s="323">
+        <v>1.5351310322004475E-2</v>
       </c>
       <c r="O82" s="324" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D82,ROUND(N82,6),EvaluationDate)</f>
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="P82" s="196"/>
     </row>
@@ -18707,7 +18780,7 @@
       </c>
       <c r="D83" s="337" t="str">
         <f>_xll.qlSimpleQuote(C83,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR46x58F_SYNTH1Y_Quote#0001</v>
+        <v>EUR46x58F_SYNTH1Y_Quote#0000</v>
       </c>
       <c r="E83" s="330" t="str">
         <f>_xll.ohRangeRetrieveError(D83)</f>
@@ -18730,12 +18803,12 @@
         <v>1.5707643688762297E-2</v>
       </c>
       <c r="M83" s="252"/>
-      <c r="N83" s="323" t="e">
-        <v>#NUM!</v>
+      <c r="N83" s="323">
+        <v>1.5707643688762297E-2</v>
       </c>
       <c r="O83" s="324" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D83,ROUND(N83,6),EvaluationDate)</f>
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="P83" s="196"/>
     </row>
@@ -18753,7 +18826,7 @@
       </c>
       <c r="D84" s="351" t="str">
         <f>_xll.qlSimpleQuote(C84,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR47x59F_SYNTH1Y_Quote#0001</v>
+        <v>EUR47x59F_SYNTH1Y_Quote#0000</v>
       </c>
       <c r="E84" s="341" t="str">
         <f>_xll.ohRangeRetrieveError(D84)</f>
@@ -18776,12 +18849,12 @@
         <v>1.6103036991980679E-2</v>
       </c>
       <c r="M84" s="252"/>
-      <c r="N84" s="361" t="e">
-        <v>#NUM!</v>
+      <c r="N84" s="361">
+        <v>1.6103036991980679E-2</v>
       </c>
       <c r="O84" s="362" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D84,ROUND(N84,6),EvaluationDate)</f>
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="P84" s="196"/>
     </row>

--- a/QuantLibXL/Data2/XLS/EUR_SynthQuotesFeed.xlsx
+++ b/QuantLibXL/Data2/XLS/EUR_SynthQuotesFeed.xlsx
@@ -2144,7 +2144,7 @@
       <sheetData sheetId="0">
         <row r="6">
           <cell r="D6">
-            <v>15</v>
+            <v>43</v>
           </cell>
         </row>
         <row r="7">
@@ -2154,39 +2154,49 @@
         </row>
       </sheetData>
       <sheetData sheetId="1">
-        <row r="6">
-          <cell r="I6" t="str">
-            <v>Eonia2#0000</v>
+        <row r="7">
+          <cell r="D7" t="str">
+            <v>EURSTD</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="2">
-        <row r="5">
-          <cell r="F5" t="str">
-            <v>EUR1E6E6M_Quote#0000</v>
+        <row r="6">
+          <cell r="D6" t="str">
+            <v>6E</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="D7" t="str">
+            <v>6E</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="3">
-        <row r="5">
-          <cell r="F5" t="str">
-            <v>EUR3E6E6M_Quote#0000</v>
+        <row r="6">
+          <cell r="D6" t="str">
+            <v>6E</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="D7" t="str">
+            <v>6E</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="4">
-        <row r="5">
-          <cell r="F5" t="str">
-            <v>EUR6E12E6M_Quote#0000</v>
+        <row r="6">
+          <cell r="D6" t="str">
+            <v>12E</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="D7" t="str">
+            <v>12E</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="5">
-        <row r="5">
-          <cell r="D5" t="str">
-            <v>EUROND_Quote#0000</v>
-          </cell>
-        </row>
         <row r="6">
           <cell r="D6" t="str">
             <v>EURTND_Quote#0000</v>
@@ -2199,101 +2209,166 @@
         </row>
       </sheetData>
       <sheetData sheetId="6">
-        <row r="3">
-          <cell r="E3" t="str">
-            <v>EURT1F1_Quote#0000</v>
+        <row r="6">
+          <cell r="D6" t="str">
+            <v>EURTOM3F1_Quote</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="D7" t="str">
+            <v>EUR1x4F_Quote</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="7">
         <row r="6">
-          <cell r="F6" t="str">
-            <v>EURFUT1MN4_Quote#0000</v>
+          <cell r="D6" t="str">
+            <v>Q4</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="D7" t="str">
+            <v>U4</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="8">
+        <row r="6">
+          <cell r="D6" t="str">
+            <v>Future Code</v>
+          </cell>
+        </row>
         <row r="7">
-          <cell r="F7" t="str">
-            <v>EURFUT3MN4_Quote#0000</v>
+          <cell r="D7" t="str">
+            <v>Q4</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="9">
         <row r="6">
-          <cell r="F6" t="str">
-            <v>EURIMMFRA6MN4_Quote#0000</v>
+          <cell r="D6" t="str">
+            <v>Q4</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="D7" t="str">
+            <v>U4</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="10">
-        <row r="5">
-          <cell r="C5" t="str">
-            <v>EURHW_Volatility_Quote#0000</v>
+        <row r="6">
+          <cell r="D6" t="str">
+            <v/>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="11">
-        <row r="5">
-          <cell r="F5" t="str">
-            <v>EUREONSW_Quote#0000</v>
+        <row r="6">
+          <cell r="D6" t="str">
+            <v>2W</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="D7" t="str">
+            <v>3W</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="12">
-        <row r="5">
-          <cell r="F5" t="str">
-            <v>EUR2X1S_Quote#0000</v>
+        <row r="6">
+          <cell r="D6" t="str">
+            <v>X1S</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="D7" t="str">
+            <v>X1S</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="13">
-        <row r="5">
-          <cell r="F5" t="str">
-            <v>EUR1S12_Quote#0000</v>
+        <row r="6">
+          <cell r="D6">
+            <v>12</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="D7">
+            <v>12</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="14">
         <row r="6">
-          <cell r="F6" t="str">
-            <v>EURAB3E1Y_Quote#0000</v>
+          <cell r="D6" t="str">
+            <v>3E</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="D7" t="str">
+            <v>3E</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="15">
         <row r="6">
-          <cell r="F6" t="str">
-            <v>EURAB6E1Y_Quote#0000</v>
+          <cell r="D6" t="str">
+            <v>6E</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="D7" t="str">
+            <v>6E</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="16">
-        <row r="3">
-          <cell r="D3" t="str">
-            <v>EURTOY_SYNTHON_Quote#0000</v>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17">
+        <row r="6">
+          <cell r="D6" t="str">
+            <v>1E</v>
           </cell>
         </row>
-      </sheetData>
-      <sheetData sheetId="17">
-        <row r="3">
-          <cell r="J3" t="str">
-            <v>EURAB1EBASIS1Y_Quote#0000</v>
+        <row r="7">
+          <cell r="D7" t="str">
+            <v>1E</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="18">
-        <row r="3">
-          <cell r="J3" t="str">
-            <v>EURAB3EBASIS1Y_Quote#0000</v>
+        <row r="6">
+          <cell r="D6" t="str">
+            <v>3E</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="D7" t="str">
+            <v>3E</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="19" refreshError="1"/>
+      <sheetData sheetId="19">
+        <row r="6">
+          <cell r="D6" t="str">
+            <v>6E</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="D7" t="str">
+            <v>6E</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="20">
-        <row r="3">
-          <cell r="J3" t="str">
-            <v>EURAB12EBASIS1Y_Quote#0000</v>
+        <row r="6">
+          <cell r="D6" t="str">
+            <v>12E</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="D7" t="str">
+            <v>12E</v>
           </cell>
         </row>
       </sheetData>
@@ -2615,7 +2690,7 @@
     <row r="1" spans="1:36" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="str">
         <f>_xll.qlxlVersion(TRUE,EvaluationDate)</f>
-        <v>QuantLibXL 1.4.0 - MS VC++ 9.0 - Multithreaded Dynamic Runtime library - Release Configuration - Apr 29 2014 14:47:17</v>
+        <v>QuantLibXL 1.5.0 - MS VC++ 9.0 - Multithreaded Dynamic Runtime library - Release Configuration - Jun 25 2014 10:33:09</v>
       </c>
     </row>
     <row r="2" spans="1:36" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2810,7 +2885,7 @@
         <v>25</v>
       </c>
       <c r="D10" s="271">
-        <v>41809.395150462966</v>
+        <v>41851.540439814817</v>
       </c>
       <c r="E10" s="270"/>
       <c r="F10" s="4"/>
@@ -2907,7 +2982,7 @@
       </c>
       <c r="D18" s="16">
         <f>_xll.qlCalendarAdvance(Calendar,EvaluationDate,"2D","f")</f>
-        <v>41813</v>
+        <v>41855</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="4"/>
@@ -2916,7 +2991,7 @@
         <v>27</v>
       </c>
       <c r="J18" s="360">
-        <v>41809.39403935185</v>
+        <v>41851.53802083333</v>
       </c>
       <c r="K18" s="186"/>
     </row>
@@ -2927,7 +3002,7 @@
       </c>
       <c r="D19" s="17" t="str">
         <f>_xll.qlDiscountingSwapEngine(,OisCurve,,,,,EvaluationDate)</f>
-        <v>obj_0037e#0000</v>
+        <v>obj_00384#0000</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="4"/>
@@ -2937,7 +3012,7 @@
       </c>
       <c r="J19" s="360">
         <f>_xll.qlSettingsEvaluationDate(Trigger)</f>
-        <v>41809</v>
+        <v>41851</v>
       </c>
       <c r="K19" s="186"/>
     </row>
@@ -2958,7 +3033,7 @@
       </c>
       <c r="J20" s="361">
         <f>[1]!TriggerCounter</f>
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="K20" s="186"/>
     </row>
@@ -3115,7 +3190,7 @@
       </c>
       <c r="D36" s="253" t="str">
         <f>_xll.qlEuribor(,IborTenor,YieldCurve,,D34)</f>
-        <v>obj_003ce#0000</v>
+        <v>obj_003cd#0000</v>
       </c>
       <c r="E36" s="29"/>
       <c r="F36" s="4"/>
@@ -3161,7 +3236,7 @@
       </c>
       <c r="D40" s="260" t="str">
         <f>_xll.qlPiecewiseYieldCurve(,NDays,Calendar,_xll.ohPack(SynthFra!A3:A127),DayCounter,,,Accuracy,TraitsID,InterpolatorID)</f>
-        <v>obj_003cd#0000</v>
+        <v>obj_003cb#0000</v>
       </c>
       <c r="E40" s="29"/>
       <c r="F40" s="4"/>
@@ -3189,7 +3264,7 @@
       <c r="B43" s="2"/>
       <c r="C43" s="255">
         <f>_xll.qlTermStructureReferenceDate(YieldCurve)</f>
-        <v>41813</v>
+        <v>41855</v>
       </c>
       <c r="D43" s="256">
         <f>MAX(_xll.ohPack(SynthFra!E2:E127))</f>
@@ -3202,11 +3277,11 @@
       <c r="B44" s="2"/>
       <c r="C44" s="257">
         <f>MAX(_xll.ohPack(SynthFra!D3:D127))</f>
-        <v>43640</v>
+        <v>43682</v>
       </c>
       <c r="D44" s="258">
         <f>MIN(_xll.ohPack(SynthFra!E2:E127))</f>
-        <v>0.95867762935141565</v>
+        <v>0.95994587642995011</v>
       </c>
       <c r="E44" s="29"/>
       <c r="F44" s="4"/>
@@ -3354,7 +3429,7 @@
       </c>
       <c r="B2" s="43" t="str">
         <f>_xll.qlMakeDatedOIS(,E2,F2,OvernightIndex,0,,,,Trigger)</f>
-        <v>obj_003c2#0000</v>
+        <v>obj_003be#0000</v>
       </c>
       <c r="C2" s="44" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B2,OisEngine)</f>
@@ -3366,11 +3441,11 @@
       </c>
       <c r="E2" s="46">
         <f>SettlementDate</f>
-        <v>41813</v>
+        <v>41855</v>
       </c>
       <c r="F2" s="47">
         <f>_xll.qlCalendarAdvance(Calendar,E2,A3,"mf")</f>
-        <v>41843</v>
+        <v>41886</v>
       </c>
       <c r="G2" s="48">
         <f>_xll.qlQuoteValue($D2,AllTriggers)</f>
@@ -3378,11 +3453,11 @@
       </c>
       <c r="H2" s="49">
         <f>_xll.qlOvernightIndexedSwapFairRate(B2,_xll.ohTrigger(C2,InterestRatesTrigger))</f>
-        <v>3.0999999979286486E-4</v>
+        <v>6.7999999999878195E-4</v>
       </c>
       <c r="I2" s="50">
         <f>G2-H2</f>
-        <v>5.9000000020713512E-4</v>
+        <v>2.2000000000121803E-4</v>
       </c>
       <c r="J2" s="51" t="b">
         <v>0</v>
@@ -3396,22 +3471,22 @@
       </c>
       <c r="O2" s="53">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P2" s="52">
         <f>(O2^2-N2^2)/(O2-N2)</f>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Q2" s="51"/>
       <c r="R2" s="51"/>
       <c r="S2" s="51"/>
       <c r="T2" s="54">
         <f>(O2^3-N2^3)/3/(O2-N2)</f>
-        <v>300</v>
+        <v>320.33333333333337</v>
       </c>
       <c r="U2" s="54">
         <f>(O2+N2)/2</f>
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="V2" s="54">
         <v>1</v>
@@ -3424,7 +3499,7 @@
       </c>
       <c r="B3" s="55" t="str">
         <f>_xll.qlMakeDatedOIS(,E3,F3,OvernightIndex,0,,,,Trigger)</f>
-        <v>obj_00349#0004</v>
+        <v>obj_0034b#0004</v>
       </c>
       <c r="C3" s="56" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B3,OisEngine)</f>
@@ -3436,23 +3511,23 @@
       </c>
       <c r="E3" s="58">
         <f>_xll.qlCalendarAdvance(Calendar,_xll.qlLastFixingQuoteReferenceDate(D3),_xll.qlInterestRateIndexFixingDays(A4)&amp;"D","f",,LastFixingsTrigger)</f>
-        <v>41810</v>
+        <v>41855</v>
       </c>
       <c r="F3" s="59">
         <f>_xll.qlInterestRateIndexMaturity(A4,E3)</f>
-        <v>41841</v>
+        <v>41886</v>
       </c>
       <c r="G3" s="60">
         <f>_xll.qlQuoteValue(D3,AllTriggers)</f>
-        <v>1.1299999999999999E-3</v>
+        <v>9.7999999999999997E-4</v>
       </c>
       <c r="H3" s="61">
         <f>_xll.qlOvernightIndexedSwapFairRate(B3,_xll.ohTrigger(C3,InterestRatesTrigger))</f>
-        <v>3.0216401062040679E-4</v>
+        <v>6.7999999999878195E-4</v>
       </c>
       <c r="I3" s="62">
         <f t="shared" ref="I3:I27" si="1">G3-H3</f>
-        <v>8.2783598937959308E-4</v>
+        <v>3.0000000000121802E-4</v>
       </c>
       <c r="J3" s="51" t="b">
         <f>NOT(ISERROR(I3))</f>
@@ -3460,35 +3535,35 @@
       </c>
       <c r="K3" s="63">
         <f>K4</f>
-        <v>-7.1340261042026446E-6</v>
+        <v>-9.3812572122109909E-7</v>
       </c>
       <c r="L3" s="61">
         <f>_xll.ohFilter($I$2:$I$3,$J$2:$J$3)-K3*_xll.ohFilter($P$2:$P$3,$J$2:$J$3)</f>
-        <v>1.0061866419846593E-3</v>
+        <v>3.2908189735907209E-4</v>
       </c>
       <c r="M3" s="52"/>
       <c r="N3" s="53">
         <f t="shared" si="0"/>
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="O3" s="53">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="P3" s="52">
         <f>(O3^2-N3^2)/(O3-N3)</f>
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="Q3" s="51"/>
       <c r="R3" s="51"/>
       <c r="S3" s="51"/>
       <c r="T3" s="54">
         <f>(O3^3-N3^3)/3/(O3-N3)</f>
-        <v>236.33333333333331</v>
+        <v>320.33333333333337</v>
       </c>
       <c r="U3" s="54">
         <f>(O3+N3)/2</f>
-        <v>12.5</v>
+        <v>15.5</v>
       </c>
       <c r="V3" s="54">
         <v>1</v>
@@ -3501,7 +3576,7 @@
       </c>
       <c r="B4" s="55" t="str">
         <f>_xll.qlMakeDatedOIS(,E4,F4,OvernightIndex,0,,,,Trigger)</f>
-        <v>obj_0034a#0004</v>
+        <v>obj_0034c#0004</v>
       </c>
       <c r="C4" s="56" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B4,OisEngine)</f>
@@ -3512,23 +3587,23 @@
       </c>
       <c r="E4" s="65">
         <f>F3</f>
-        <v>41841</v>
+        <v>41886</v>
       </c>
       <c r="F4" s="66">
         <f>F5</f>
-        <v>41876</v>
+        <v>41918</v>
       </c>
       <c r="G4" s="67">
         <f>((1+G5*(F5-E5)/360)/(1+G3*(F3-E3)/360)-1)/(F4-E4)*360</f>
-        <v>8.1706335234090128E-4</v>
+        <v>9.7991730586888259E-4</v>
       </c>
       <c r="H4" s="68">
         <f>_xll.qlOvernightIndexedSwapFairRate(B4,_xll.ohTrigger(C4,InterestRatesTrigger))</f>
-        <v>4.6007308583868276E-4</v>
+        <v>7.3901922630459382E-4</v>
       </c>
       <c r="I4" s="69">
         <f>G4-H4</f>
-        <v>3.5699026650221852E-4</v>
+        <v>2.4089807956428877E-4</v>
       </c>
       <c r="J4" s="36" t="b">
         <f>NOT(ISERROR(I4))</f>
@@ -3536,16 +3611,16 @@
       </c>
       <c r="K4" s="68">
         <f>(I4-_xll.ohFilter($I$2:$I$3,$J$2:$J$3))/(P4-_xll.ohFilter($P$2:$P$3,$J$2:$J$3))</f>
-        <v>-7.1340261042026446E-6</v>
+        <v>-9.3812572122109909E-7</v>
       </c>
       <c r="L4" s="68">
         <f>_xll.ohFilter($I$2:$I$3,$J$2:$J$3)-K4*_xll.ohFilter($P$2:$P$3,$J$2:$J$3)</f>
-        <v>1.0061866419846593E-3</v>
+        <v>3.2908189735907209E-4</v>
       </c>
       <c r="M4" s="70"/>
       <c r="N4" s="71">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="O4" s="71">
         <f t="shared" si="0"/>
@@ -3553,15 +3628,15 @@
       </c>
       <c r="P4" s="70">
         <f>(O4^2-N4^2)/(O4-N4)</f>
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="T4" s="72">
         <f>(O4^3-N4^3)/3/(O4-N4)</f>
-        <v>2172.3333333333335</v>
+        <v>2294.3333333333335</v>
       </c>
       <c r="U4" s="72">
         <f>(O4+N4)/2</f>
-        <v>45.5</v>
+        <v>47</v>
       </c>
       <c r="V4" s="72">
         <v>1</v>
@@ -3576,15 +3651,15 @@
       </c>
       <c r="E5" s="65">
         <f>SettlementDate</f>
-        <v>41813</v>
+        <v>41855</v>
       </c>
       <c r="F5" s="66">
         <f>_xll.qlCalendarAdvance(Calendar,E5,"2M","mf")</f>
-        <v>41876</v>
+        <v>41918</v>
       </c>
       <c r="G5" s="74">
         <f>_xll.qlQuoteValue($D5,AllTriggers)</f>
-        <v>1.01E-3</v>
+        <v>9.7999999999999997E-4</v>
       </c>
       <c r="H5" s="68"/>
       <c r="I5" s="69"/>
@@ -3607,7 +3682,7 @@
       </c>
       <c r="B6" s="43" t="str">
         <f>_xll.qlMakeDatedOIS(,E6,F6,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003c1#0000</v>
+        <v>obj_003c6#0000</v>
       </c>
       <c r="C6" s="44" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B6,OisEngine)</f>
@@ -3619,23 +3694,23 @@
       </c>
       <c r="E6" s="46">
         <f>SettlementDate</f>
-        <v>41813</v>
+        <v>41855</v>
       </c>
       <c r="F6" s="47">
         <f>_xll.qlCalendarAdvance(Calendar,E6,A7,"mf")</f>
-        <v>41905</v>
+        <v>41947</v>
       </c>
       <c r="G6" s="48">
         <f>_xll.qlQuoteValue($D6,AllTriggers)</f>
-        <v>2.2000000000000001E-3</v>
+        <v>2.0999999999999999E-3</v>
       </c>
       <c r="H6" s="49">
         <f>_xll.qlOvernightIndexedSwapFairRate(B6,_xll.ohTrigger(C6,InterestRatesTrigger))</f>
-        <v>4.5999999788488187E-4</v>
+        <v>6.7999999999541854E-4</v>
       </c>
       <c r="I6" s="50">
         <f t="shared" si="1"/>
-        <v>1.7400000021151182E-3</v>
+        <v>1.4200000000045812E-3</v>
       </c>
       <c r="J6" s="51" t="b">
         <v>0</v>
@@ -3677,7 +3752,7 @@
       </c>
       <c r="B7" s="55" t="str">
         <f>_xll.qlMakeDatedOIS(,E7,F7,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_0034c#0004</v>
+        <v>obj_0034a#0004</v>
       </c>
       <c r="C7" s="56" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B7,OisEngine)</f>
@@ -3689,23 +3764,23 @@
       </c>
       <c r="E7" s="58">
         <f>_xll.qlCalendarAdvance(Calendar,_xll.qlLastFixingQuoteReferenceDate(D7),_xll.qlInterestRateIndexFixingDays(A8)&amp;"D","f",,LastFixingsTrigger)</f>
-        <v>41810</v>
+        <v>41855</v>
       </c>
       <c r="F7" s="59">
         <f>_xll.qlInterestRateIndexMaturity(A8,E7)</f>
-        <v>41904</v>
+        <v>41947</v>
       </c>
       <c r="G7" s="60">
         <f>_xll.qlQuoteValue(D7,AllTriggers)</f>
-        <v>2.16E-3</v>
+        <v>2.0899999999999998E-3</v>
       </c>
       <c r="H7" s="61">
         <f>_xll.qlOvernightIndexedSwapFairRate(B7,_xll.ohTrigger(C7,InterestRatesTrigger))</f>
-        <v>4.5343667443351466E-4</v>
+        <v>6.7999999999541854E-4</v>
       </c>
       <c r="I7" s="62">
         <f t="shared" si="1"/>
-        <v>1.7065633255664854E-3</v>
+        <v>1.4100000000045812E-3</v>
       </c>
       <c r="J7" s="51" t="b">
         <f>AND(NOT(ISERROR(I7)),E10&lt;&gt;SettlementDate)</f>
@@ -3716,26 +3791,26 @@
       <c r="M7" s="52"/>
       <c r="N7" s="53">
         <f t="shared" si="2"/>
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="O7" s="53">
         <f t="shared" si="3"/>
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="P7" s="52">
         <f t="shared" ref="P7:P27" si="6">(O7^2-N7^2)/(O7-N7)</f>
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="Q7" s="51"/>
       <c r="R7" s="51"/>
       <c r="S7" s="51"/>
       <c r="T7" s="54">
         <f t="shared" si="4"/>
-        <v>2672.3333333333335</v>
+        <v>2821.333333333333</v>
       </c>
       <c r="U7" s="54">
         <f t="shared" si="5"/>
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="V7" s="54">
         <v>1</v>
@@ -3768,22 +3843,22 @@
       </c>
       <c r="O8" s="53">
         <f t="shared" si="3"/>
-        <v>-41813</v>
+        <v>-41855</v>
       </c>
       <c r="P8" s="52">
         <f t="shared" si="6"/>
-        <v>-41813</v>
+        <v>-41855</v>
       </c>
       <c r="Q8" s="51"/>
       <c r="R8" s="51"/>
       <c r="S8" s="51"/>
       <c r="T8" s="54">
         <f t="shared" si="4"/>
-        <v>582775656.33333337</v>
+        <v>583947008.33333337</v>
       </c>
       <c r="U8" s="54">
         <f t="shared" si="5"/>
-        <v>-20906.5</v>
+        <v>-20927.5</v>
       </c>
       <c r="V8" s="54">
         <v>1</v>
@@ -3815,20 +3890,20 @@
       </c>
       <c r="K9" s="61">
         <f>AVERAGE(_xll.ohFilter(K10:K12,J10:J12))</f>
-        <v>-4.1697228584783159E-6</v>
+        <v>-6.704084717654571E-7</v>
       </c>
       <c r="L9" s="61">
         <f>_xll.ohFilter($I$6:$I$9,$J$6:$J$9)-K9*_xll.ohFilter($P$6:$P$9,$J$6:$J$9)</f>
-        <v>2.0734989371125772E-3</v>
+        <v>1.4716775794070033E-3</v>
       </c>
       <c r="M9" s="52"/>
       <c r="N9" s="53">
         <f t="shared" si="2"/>
-        <v>-41813</v>
+        <v>-41855</v>
       </c>
       <c r="O9" s="53">
         <f t="shared" si="3"/>
-        <v>-41813</v>
+        <v>-41855</v>
       </c>
       <c r="P9" s="52" t="e">
         <f t="shared" si="6"/>
@@ -3843,18 +3918,18 @@
       </c>
       <c r="U9" s="54">
         <f t="shared" si="5"/>
-        <v>-41813</v>
+        <v>-41855</v>
       </c>
       <c r="V9" s="54">
         <v>1</v>
       </c>
       <c r="X9" s="81">
         <f t="array" ref="X9:X11">_xll.ohFilter(T6:T14,$J6:$J14)</f>
-        <v>2672.3333333333335</v>
+        <v>2821.333333333333</v>
       </c>
       <c r="Y9" s="84">
         <f t="array" ref="Y9:Y11">_xll.ohFilter(U6:U14,$J6:$J14)</f>
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="Z9" s="87">
         <f t="array" ref="Z9:Z11">_xll.ohFilter(V6:V14,$J6:$J14)</f>
@@ -3862,35 +3937,35 @@
       </c>
       <c r="AB9" s="90">
         <f t="array" ref="AB9:AB11">MMULT(AF9:AH11,AD9:AD11)</f>
-        <v>1.4289347099811389E-7</v>
+        <v>1.2503929435577998E-7</v>
       </c>
       <c r="AD9" s="90">
         <f t="array" ref="AD9:AD11">_xll.ohFilter(I6:I14,$J6:$J14)</f>
-        <v>1.7065633255664854E-3</v>
+        <v>1.4100000000045812E-3</v>
       </c>
       <c r="AF9" s="93">
         <f t="array" ref="AF9:AH11">MINVERSE(X9:Z11)</f>
-        <v>4.5199783041041436E-4</v>
+        <v>1.4553344623200696E-3</v>
       </c>
       <c r="AG9" s="94">
-        <v>-6.3279696257457997E-4</v>
+        <v>-2.3020745131244729E-3</v>
       </c>
       <c r="AH9" s="95">
-        <v>1.8079913216416569E-4</v>
+        <v>8.4674005080440399E-4</v>
       </c>
       <c r="AJ9" s="102">
         <f t="array" ref="AJ9:AJ11">MMULT(X9:Z11,AB9:AB11)-AD9:AD11</f>
-        <v>8.6736173798840355E-19</v>
+        <v>-1.7347234759768071E-18</v>
       </c>
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A10" s="36" t="str">
         <f>_xll.qlIMMNextCode(SettlementDate-1,FALSE)</f>
-        <v>N4</v>
+        <v>Q4</v>
       </c>
       <c r="B10" s="79" t="str">
         <f>_xll.qlMakeDatedOIS(,E10,F10,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003bf#0000</v>
+        <v>obj_003c9#0000</v>
       </c>
       <c r="C10" s="56" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B10,OisEngine)</f>
@@ -3898,27 +3973,27 @@
       </c>
       <c r="D10" s="64" t="str">
         <f>Currency&amp;"FUT3M"&amp;A10&amp;QuoteSuffix</f>
-        <v>EURFUT3MN4_Quote</v>
+        <v>EURFUT3MQ4_Quote</v>
       </c>
       <c r="E10" s="65">
         <f>_xll.qlIMMdate(A10)</f>
-        <v>41836</v>
+        <v>41871</v>
       </c>
       <c r="F10" s="66">
         <f>_xll.qlCalendarAdvance(Calendar,E10,"3M","mf")</f>
-        <v>41928</v>
+        <v>41963</v>
       </c>
       <c r="G10" s="74">
         <f>1-_xll.qlQuoteValue($D10,AllTriggers)/100</f>
-        <v>1.9249999999999545E-3</v>
+        <v>2.074999999999938E-3</v>
       </c>
       <c r="H10" s="68">
         <f>_xll.qlOvernightIndexedSwapFairRate(B10,_xll.ohTrigger(C10,InterestRatesTrigger))</f>
-        <v>5.1957067947071712E-4</v>
+        <v>7.208317322594381E-4</v>
       </c>
       <c r="I10" s="69">
         <f t="shared" si="1"/>
-        <v>1.4054293205292374E-3</v>
+        <v>1.3541682677404999E-3</v>
       </c>
       <c r="J10" s="36" t="b">
         <f>AND(NOT(ISERROR(I10)))</f>
@@ -3926,41 +4001,41 @@
       </c>
       <c r="K10" s="68">
         <f>(I10-_xll.ohFilter($I$6:$I$9,$J$6:$J$9))/(P10-_xll.ohFilter($P$6:$P$9,$J$6:$J$9))</f>
-        <v>-6.0226801007449589E-6</v>
+        <v>-1.7447416332525405E-6</v>
       </c>
       <c r="L10" s="68">
         <f>_xll.ohFilter($I$6:$I$9,$J$6:$J$9)-K10*_xll.ohFilter($P$6:$P$9,$J$6:$J$9)</f>
-        <v>2.2365591744320417E-3</v>
+        <v>1.5705162302638148E-3</v>
       </c>
       <c r="M10" s="70"/>
       <c r="N10" s="71">
         <f t="shared" ref="N10:N18" si="7">E10-SettlementDate</f>
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="O10" s="71">
         <f t="shared" ref="O10:O18" si="8">F10-SettlementDate</f>
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="P10" s="70">
         <f t="shared" si="6"/>
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="T10" s="72">
         <f t="shared" si="4"/>
-        <v>5466.3333333333339</v>
+        <v>4549.3333333333339</v>
       </c>
       <c r="U10" s="72">
         <f t="shared" si="5"/>
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="V10" s="72">
         <v>1</v>
       </c>
       <c r="X10" s="82">
-        <v>5466.3333333333339</v>
+        <v>4549.3333333333339</v>
       </c>
       <c r="Y10" s="85">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="Z10" s="88">
         <v>1</v>
@@ -3969,25 +4044,25 @@
         <v>56</v>
       </c>
       <c r="AB10" s="91">
-        <v>-2.8015134520239114E-5</v>
+        <v>-1.6993727056929315E-5</v>
       </c>
       <c r="AC10" s="41" t="s">
         <v>57</v>
       </c>
       <c r="AD10" s="91">
-        <v>1.4054293205292374E-3</v>
+        <v>1.3541682677404999E-3</v>
       </c>
       <c r="AF10" s="96">
-        <v>-9.0515277526667923E-2</v>
+        <v>-0.2196761219305676</v>
       </c>
       <c r="AG10" s="97">
-        <v>0.11072138853733508</v>
+        <v>0.31112404741744321</v>
       </c>
       <c r="AH10" s="98">
-        <v>-2.0206111010667167E-2</v>
+        <v>-9.1447925486875664E-2</v>
       </c>
       <c r="AJ10" s="103">
-        <v>1.3010426069826053E-18</v>
+        <v>-1.5178830414797062E-18</v>
       </c>
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.2">
@@ -3997,7 +4072,7 @@
       </c>
       <c r="B11" s="79" t="str">
         <f>_xll.qlMakeDatedOIS(,E11,F11,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003cb#0000</v>
+        <v>obj_003ca#0000</v>
       </c>
       <c r="C11" s="56" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B11,OisEngine)</f>
@@ -4017,15 +4092,15 @@
       </c>
       <c r="G11" s="74">
         <f>1-_xll.qlQuoteValue($D11,AllTriggers)/100</f>
-        <v>1.8250000000000766E-3</v>
+        <v>2.074999999999938E-3</v>
       </c>
       <c r="H11" s="68">
         <f>_xll.qlOvernightIndexedSwapFairRate(B11,_xll.ohTrigger(C11,InterestRatesTrigger))</f>
-        <v>3.8206190397339261E-4</v>
+        <v>6.6912111545415324E-4</v>
       </c>
       <c r="I11" s="69">
         <f t="shared" si="1"/>
-        <v>1.4429380960266839E-3</v>
+        <v>1.4058788845457849E-3</v>
       </c>
       <c r="J11" s="36" t="b">
         <f>NOT(ISERROR(I11))</f>
@@ -4033,62 +4108,62 @@
       </c>
       <c r="K11" s="68">
         <f>(I11-_xll.ohFilter($I$6:$I$9,$J$6:$J$9))/(P11-_xll.ohFilter($P$6:$P$9,$J$6:$J$9))</f>
-        <v>-1.5064298830845796E-6</v>
+        <v>-4.7369143204555507E-8</v>
       </c>
       <c r="L11" s="68">
         <f>_xll.ohFilter($I$6:$I$9,$J$6:$J$9)-K11*_xll.ohFilter($P$6:$P$9,$J$6:$J$9)</f>
-        <v>1.8391291552779284E-3</v>
+        <v>1.4143579611794004E-3</v>
       </c>
       <c r="M11" s="70"/>
       <c r="N11" s="71">
         <f t="shared" si="7"/>
-        <v>86</v>
+        <v>44</v>
       </c>
       <c r="O11" s="71">
         <f t="shared" si="8"/>
-        <v>177</v>
+        <v>135</v>
       </c>
       <c r="P11" s="70">
         <f t="shared" si="6"/>
-        <v>263</v>
+        <v>179</v>
       </c>
       <c r="T11" s="72">
         <f t="shared" si="4"/>
-        <v>17982.333333333332</v>
+        <v>8700.3333333333339</v>
       </c>
       <c r="U11" s="72">
         <f t="shared" si="5"/>
-        <v>131.5</v>
+        <v>89.5</v>
       </c>
       <c r="V11" s="72">
         <v>1</v>
       </c>
       <c r="X11" s="83">
-        <v>17982.333333333332</v>
+        <v>8700.3333333333339</v>
       </c>
       <c r="Y11" s="86">
-        <v>131.5</v>
+        <v>89.5</v>
       </c>
       <c r="Z11" s="89">
         <v>1</v>
       </c>
       <c r="AB11" s="92">
-        <v>2.5573702587930475E-3</v>
+        <v>1.8389339154808873E-3</v>
       </c>
       <c r="AD11" s="92">
-        <v>1.4429380960266839E-3</v>
+        <v>1.4058788845457849E-3</v>
       </c>
       <c r="AF11" s="99">
-        <v>3.7747833423732917</v>
+        <v>6.9991179791137537</v>
       </c>
       <c r="AG11" s="100">
-        <v>-3.1806966793226081</v>
+        <v>-7.8167866215072088</v>
       </c>
       <c r="AH11" s="101">
-        <v>0.40591333694931664</v>
+        <v>1.8176686423934558</v>
       </c>
       <c r="AJ11" s="104">
-        <v>3.4694469519536142E-18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:36" x14ac:dyDescent="0.2">
@@ -4097,7 +4172,7 @@
       </c>
       <c r="B12" s="79" t="str">
         <f>_xll.qlMakeDatedOIS(,E12,F12,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003c9#0000</v>
+        <v>obj_003c5#0000</v>
       </c>
       <c r="C12" s="56" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B12,OisEngine)</f>
@@ -4109,23 +4184,23 @@
       </c>
       <c r="E12" s="65">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A12&amp;"M","mf")</f>
-        <v>41843</v>
+        <v>41886</v>
       </c>
       <c r="F12" s="66">
         <f>_xll.qlInterestRateIndexMaturity($A$8,E12)</f>
-        <v>41935</v>
+        <v>41977</v>
       </c>
       <c r="G12" s="74">
         <f>_xll.qlQuoteValue(D12,AllTriggers)</f>
-        <v>1.91E-3</v>
+        <v>2.0900000000000003E-3</v>
       </c>
       <c r="H12" s="68">
         <f>_xll.qlOvernightIndexedSwapFairRate(B12,_xll.ohTrigger(C12,InterestRatesTrigger))</f>
-        <v>5.2216042429626102E-4</v>
+        <v>6.9336599296461487E-4</v>
       </c>
       <c r="I12" s="69">
         <f>G12-H12</f>
-        <v>1.3878395757037391E-3</v>
+        <v>1.3966340070353854E-3</v>
       </c>
       <c r="J12" s="36" t="b">
         <f>AND(NOT(ISERROR(I12)),E12&lt;&gt;$E$11,E12&lt;&gt;$E$10)</f>
@@ -4133,16 +4208,16 @@
       </c>
       <c r="K12" s="68">
         <f>(I12-_xll.ohFilter($I$6:$I$9,$J$6:$J$9))/(P12-_xll.ohFilter($P$6:$P$9,$J$6:$J$9))</f>
-        <v>-4.9800585916054102E-6</v>
+        <v>-2.1911463883927526E-7</v>
       </c>
       <c r="L12" s="68">
         <f>_xll.ohFilter($I$6:$I$9,$J$6:$J$9)-K12*_xll.ohFilter($P$6:$P$9,$J$6:$J$9)</f>
-        <v>2.1448084816277613E-3</v>
+        <v>1.4301585467777944E-3</v>
       </c>
       <c r="M12" s="70"/>
       <c r="N12" s="71">
         <f t="shared" si="7"/>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O12" s="71">
         <f t="shared" si="8"/>
@@ -4150,15 +4225,15 @@
       </c>
       <c r="P12" s="70">
         <f t="shared" si="6"/>
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="T12" s="72">
         <f t="shared" si="4"/>
-        <v>6481.333333333333</v>
+        <v>6542.3333333333339</v>
       </c>
       <c r="U12" s="72">
         <f t="shared" si="5"/>
-        <v>76</v>
+        <v>76.5</v>
       </c>
       <c r="V12" s="72">
         <v>1</v>
@@ -4185,23 +4260,23 @@
       </c>
       <c r="E13" s="65">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A13&amp;"M","mf")</f>
-        <v>41876</v>
+        <v>41918</v>
       </c>
       <c r="F13" s="66">
         <f>_xll.qlInterestRateIndexMaturity($A$8,E13)</f>
-        <v>41968</v>
+        <v>42010</v>
       </c>
       <c r="G13" s="74">
         <f>_xll.qlQuoteValue(D13,AllTriggers)</f>
-        <v>1.8500000000000001E-3</v>
+        <v>2.0800000000000003E-3</v>
       </c>
       <c r="H13" s="68">
         <f>_xll.qlOvernightIndexedSwapFairRate(B13,_xll.ohTrigger(C13,InterestRatesTrigger))</f>
-        <v>4.7223101877836708E-4</v>
+        <v>6.7480587859808133E-4</v>
       </c>
       <c r="I13" s="69">
         <f>G13-H13</f>
-        <v>1.3777689812216329E-3</v>
+        <v>1.4051941214019189E-3</v>
       </c>
       <c r="J13" s="36" t="b">
         <f>AND(NOT(ISERROR(I13)),E13&lt;&gt;$E$11,E13&lt;&gt;$E$10)</f>
@@ -4209,11 +4284,11 @@
       </c>
       <c r="K13" s="68">
         <f>(I13-_xll.ohFilter($I$6:$I$9,$J$6:$J$9))/(P13-_xll.ohFilter($P$6:$P$9,$J$6:$J$9))</f>
-        <v>-2.5291872641911726E-6</v>
+        <v>-3.8141893671922875E-8</v>
       </c>
       <c r="L13" s="68">
         <f>_xll.ohFilter($I$6:$I$9,$J$6:$J$9)-K13*_xll.ohFilter($P$6:$P$9,$J$6:$J$9)</f>
-        <v>1.9291318048153085E-3</v>
+        <v>1.4135090542223981E-3</v>
       </c>
       <c r="M13" s="70"/>
       <c r="N13" s="71">
@@ -4249,7 +4324,7 @@
       </c>
       <c r="B14" s="79" t="str">
         <f>_xll.qlMakeDatedOIS(,E14,F14,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003c0#0000</v>
+        <v>obj_003c1#0000</v>
       </c>
       <c r="C14" s="56" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B14,OisEngine)</f>
@@ -4261,23 +4336,23 @@
       </c>
       <c r="E14" s="65">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A14&amp;"M","mf")</f>
-        <v>41905</v>
+        <v>41947</v>
       </c>
       <c r="F14" s="66">
         <f>_xll.qlInterestRateIndexMaturity($A$8,E14)</f>
-        <v>41996</v>
+        <v>42039</v>
       </c>
       <c r="G14" s="74">
         <f>_xll.qlQuoteValue(D14,AllTriggers)</f>
-        <v>1.82E-3</v>
+        <v>2.0400000000000001E-3</v>
       </c>
       <c r="H14" s="68">
         <f>_xll.qlOvernightIndexedSwapFairRate(B14,_xll.ohTrigger(C14,InterestRatesTrigger))</f>
-        <v>3.594083011459416E-4</v>
+        <v>6.5988532653117192E-4</v>
       </c>
       <c r="I14" s="69">
         <f>G14-H14</f>
-        <v>1.4605916988540584E-3</v>
+        <v>1.3801146734688282E-3</v>
       </c>
       <c r="J14" s="36" t="b">
         <f>AND(NOT(ISERROR(I14)),E14&lt;&gt;$E$11,E14&lt;&gt;$E$10)</f>
@@ -4285,11 +4360,11 @@
       </c>
       <c r="K14" s="68">
         <f>(I14-_xll.ohFilter($I$6:$I$9,$J$6:$J$9))/(P14-_xll.ohFilter($P$6:$P$9,$J$6:$J$9))</f>
-        <v>-1.3153562925798233E-6</v>
+        <v>-1.6242025291170096E-7</v>
       </c>
       <c r="L14" s="68">
         <f>_xll.ohFilter($I$6:$I$9,$J$6:$J$9)-K14*_xll.ohFilter($P$6:$P$9,$J$6:$J$9)</f>
-        <v>1.8223146793135097E-3</v>
+        <v>1.4249426632724576E-3</v>
       </c>
       <c r="M14" s="70"/>
       <c r="N14" s="71">
@@ -4298,19 +4373,19 @@
       </c>
       <c r="O14" s="71">
         <f t="shared" si="8"/>
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="P14" s="70">
         <f t="shared" si="6"/>
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="T14" s="72">
         <f t="shared" si="4"/>
-        <v>19596.333333333332</v>
+        <v>19749.333333333336</v>
       </c>
       <c r="U14" s="72">
         <f t="shared" si="5"/>
-        <v>137.5</v>
+        <v>138</v>
       </c>
       <c r="V14" s="72">
         <v>1</v>
@@ -4325,7 +4400,7 @@
       </c>
       <c r="B15" s="43" t="str">
         <f>_xll.qlMakeDatedOIS(,E15,F15,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003c4#0000</v>
+        <v>obj_003c7#0000</v>
       </c>
       <c r="C15" s="44" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B15,OisEngine)</f>
@@ -4337,11 +4412,11 @@
       </c>
       <c r="E15" s="46">
         <f>SettlementDate</f>
-        <v>41813</v>
+        <v>41855</v>
       </c>
       <c r="F15" s="47">
         <f>_xll.qlCalendarAdvance(Calendar,E15,A16,"mf")</f>
-        <v>41996</v>
+        <v>42039</v>
       </c>
       <c r="G15" s="48">
         <f>_xll.qlQuoteValue($D15,AllTriggers)</f>
@@ -4349,11 +4424,11 @@
       </c>
       <c r="H15" s="49">
         <f>_xll.qlOvernightIndexedSwapFairRate(B15,_xll.ohTrigger(C15,InterestRatesTrigger))</f>
-        <v>4.10000000000087E-4</v>
+        <v>6.6999999996607219E-4</v>
       </c>
       <c r="I15" s="50">
         <f t="shared" si="1"/>
-        <v>2.6899999999999129E-3</v>
+        <v>2.4300000000339276E-3</v>
       </c>
       <c r="J15" s="51" t="b">
         <v>0</v>
@@ -4367,22 +4442,22 @@
       </c>
       <c r="O15" s="53">
         <f t="shared" si="8"/>
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="P15" s="52">
         <f t="shared" si="6"/>
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q15" s="51"/>
       <c r="R15" s="51"/>
       <c r="S15" s="51"/>
       <c r="T15" s="54">
         <f t="shared" si="4"/>
-        <v>11163</v>
+        <v>11285.333333333332</v>
       </c>
       <c r="U15" s="54">
         <f t="shared" si="5"/>
-        <v>91.5</v>
+        <v>92</v>
       </c>
       <c r="V15" s="54">
         <v>1</v>
@@ -4395,7 +4470,7 @@
       </c>
       <c r="B16" s="55" t="str">
         <f>_xll.qlMakeDatedOIS(,E16,F16,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_0034b#0004</v>
+        <v>obj_00348#0004</v>
       </c>
       <c r="C16" s="56" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B16,OisEngine)</f>
@@ -4407,23 +4482,23 @@
       </c>
       <c r="E16" s="58">
         <f>_xll.qlCalendarAdvance(Calendar,_xll.qlLastFixingQuoteReferenceDate(D16),_xll.qlInterestRateIndexFixingDays(A17)&amp;"D","f",,LastFixingsTrigger)</f>
-        <v>41810</v>
+        <v>41855</v>
       </c>
       <c r="F16" s="59">
         <f>_xll.qlInterestRateIndexMaturity(A17,E16)</f>
-        <v>41995</v>
+        <v>42039</v>
       </c>
       <c r="G16" s="60">
         <f>_xll.qlQuoteValue(D16,AllTriggers)</f>
-        <v>3.0899999999999999E-3</v>
+        <v>3.0599999999999998E-3</v>
       </c>
       <c r="H16" s="61">
         <f>_xll.qlOvernightIndexedSwapFairRate(B16,_xll.ohTrigger(C16,InterestRatesTrigger))</f>
-        <v>4.0894455244058097E-4</v>
+        <v>6.6999999996607219E-4</v>
       </c>
       <c r="I16" s="62">
         <f t="shared" si="1"/>
-        <v>2.6810554475594191E-3</v>
+        <v>2.3900000000339275E-3</v>
       </c>
       <c r="J16" s="51" t="b">
         <f>AND(ISERROR(I17),ISERROR(I18),NOT(ISERROR(I16)))</f>
@@ -4434,26 +4509,26 @@
       <c r="M16" s="52"/>
       <c r="N16" s="53">
         <f t="shared" si="7"/>
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="O16" s="53">
         <f t="shared" si="8"/>
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="P16" s="52">
         <f t="shared" si="6"/>
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="Q16" s="51"/>
       <c r="R16" s="51"/>
       <c r="S16" s="51"/>
       <c r="T16" s="54">
         <f t="shared" si="4"/>
-        <v>10862.333333333334</v>
+        <v>11285.333333333332</v>
       </c>
       <c r="U16" s="54">
         <f t="shared" si="5"/>
-        <v>89.5</v>
+        <v>92</v>
       </c>
       <c r="V16" s="54">
         <v>1</v>
@@ -4483,11 +4558,11 @@
       <c r="M17" s="52"/>
       <c r="N17" s="53">
         <f t="shared" si="7"/>
-        <v>-41813</v>
+        <v>-41855</v>
       </c>
       <c r="O17" s="53">
         <f t="shared" si="8"/>
-        <v>-41813</v>
+        <v>-41855</v>
       </c>
       <c r="P17" s="52" t="e">
         <f t="shared" si="6"/>
@@ -4502,7 +4577,7 @@
       </c>
       <c r="U17" s="54">
         <f t="shared" si="5"/>
-        <v>-41813</v>
+        <v>-41855</v>
       </c>
       <c r="V17" s="54">
         <v>1</v>
@@ -4531,20 +4606,20 @@
       </c>
       <c r="K18" s="61">
         <f>AVERAGE(_xll.ohFilter(K19:K21,J19:J21))</f>
-        <v>-2.1738561292070568E-6</v>
+        <v>1.0472410157851154E-7</v>
       </c>
       <c r="L18" s="61">
         <f>_xll.ohFilter($I$15:$I$18,$J$15:$J$18)-K18*_xll.ohFilter($P$15:$P$18,$J$15:$J$18)</f>
-        <v>3.0701756946874825E-3</v>
+        <v>2.3707307653434814E-3</v>
       </c>
       <c r="M18" s="52"/>
       <c r="N18" s="53">
         <f t="shared" si="7"/>
-        <v>-41813</v>
+        <v>-41855</v>
       </c>
       <c r="O18" s="53">
         <f t="shared" si="8"/>
-        <v>-41813</v>
+        <v>-41855</v>
       </c>
       <c r="P18" s="52" t="e">
         <f t="shared" si="6"/>
@@ -4559,18 +4634,18 @@
       </c>
       <c r="U18" s="54">
         <f t="shared" si="5"/>
-        <v>-41813</v>
+        <v>-41855</v>
       </c>
       <c r="V18" s="54">
         <v>1</v>
       </c>
       <c r="X18" s="81">
         <f t="array" ref="X18:X20">_xll.ohFilter(T15:T24,$J15:$J24)</f>
-        <v>10862.333333333334</v>
+        <v>11285.333333333332</v>
       </c>
       <c r="Y18" s="84">
         <f t="array" ref="Y18:Y20">_xll.ohFilter(U15:U24,$J15:$J24)</f>
-        <v>89.5</v>
+        <v>92</v>
       </c>
       <c r="Z18" s="87">
         <f t="array" ref="Z18:Z20">_xll.ohFilter(V15:V24,$J15:$J24)</f>
@@ -4578,25 +4653,25 @@
       </c>
       <c r="AB18" s="90">
         <f t="array" ref="AB18:AB20">MMULT(AF18:AH20,AD18:AD20)</f>
-        <v>8.2547051728465015E-8</v>
+        <v>-1.7181403068983216E-8</v>
       </c>
       <c r="AD18" s="90">
         <f t="array" ref="AD18:AD20">_xll.ohFilter(I15:I24,$J15:$J24)</f>
-        <v>2.6810554475594191E-3</v>
+        <v>2.3900000000339275E-3</v>
       </c>
       <c r="AF18" s="93">
         <f t="array" ref="AF18:AH20">MINVERSE(X18:Z20)</f>
-        <v>4.6307015512850216E-4</v>
+        <v>5.027064904993562E-4</v>
       </c>
       <c r="AG18" s="94">
-        <v>-9.1912409578536055E-4</v>
+        <v>-9.5209562594575012E-4</v>
       </c>
       <c r="AH18" s="95">
-        <v>4.5605394065685833E-4</v>
+        <v>4.4938913544639419E-4</v>
       </c>
       <c r="AJ18" s="102">
         <f t="array" ref="AJ18:AJ20">MMULT(X18:Z20,AB18:AB20)-AD18:AD20</f>
-        <v>-2.1684043449710089E-18</v>
+        <v>-1.3010426069826053E-18</v>
       </c>
     </row>
     <row r="19" spans="1:36" x14ac:dyDescent="0.2">
@@ -4617,23 +4692,23 @@
       </c>
       <c r="E19" s="65">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A19&amp;"M","mf")</f>
-        <v>41843</v>
+        <v>41886</v>
       </c>
       <c r="F19" s="66">
         <f>_xll.qlInterestRateIndexMaturity($A$17,E19)</f>
-        <v>42027</v>
+        <v>42067</v>
       </c>
       <c r="G19" s="67">
         <f>_xll.qlQuoteValue(D19,AllTriggers)</f>
-        <v>2.8800000000000002E-3</v>
+        <v>3.1100000000000004E-3</v>
       </c>
       <c r="H19" s="68">
         <f>_xll.qlOvernightIndexedSwapFairRate(B19,_xll.ohTrigger(C19,InterestRatesTrigger))</f>
-        <v>4.1466320094477158E-4</v>
+        <v>7.0338422724093358E-4</v>
       </c>
       <c r="I19" s="69">
         <f t="shared" si="1"/>
-        <v>2.4653367990552285E-3</v>
+        <v>2.4066157727590668E-3</v>
       </c>
       <c r="J19" s="36" t="b">
         <f t="shared" ref="J19:J24" si="10">NOT(ISERROR(I19))</f>
@@ -4641,41 +4716,41 @@
       </c>
       <c r="K19" s="68">
         <f>(I19-_xll.ohFilter($I$15:$I$18,$J$15:$J$18))/(P19-_xll.ohFilter($P$15:$P$18,$J$15:$J$18))</f>
-        <v>-3.3187484385260094E-6</v>
+        <v>2.8162326652778458E-7</v>
       </c>
       <c r="L19" s="68">
         <f>_xll.ohFilter($I$15:$I$18,$J$15:$J$18)-K19*_xll.ohFilter($P$15:$P$18,$J$15:$J$18)</f>
-        <v>3.2751114180555748E-3</v>
+        <v>2.3381813189928152E-3</v>
       </c>
       <c r="M19" s="70"/>
       <c r="N19" s="71">
         <f t="shared" ref="N19:N27" si="11">E19-SettlementDate</f>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O19" s="71">
         <f t="shared" ref="O19:O27" si="12">F19-SettlementDate</f>
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="P19" s="70">
         <f t="shared" si="6"/>
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="T19" s="72">
         <f t="shared" si="4"/>
-        <v>17705.333333333336</v>
+        <v>17492.333333333336</v>
       </c>
       <c r="U19" s="72">
         <f t="shared" si="5"/>
-        <v>122</v>
+        <v>121.5</v>
       </c>
       <c r="V19" s="72">
         <v>1</v>
       </c>
       <c r="X19" s="82">
-        <v>17705.333333333336</v>
+        <v>17492.333333333336</v>
       </c>
       <c r="Y19" s="85">
-        <v>122</v>
+        <v>121.5</v>
       </c>
       <c r="Z19" s="88">
         <v>1</v>
@@ -4684,25 +4759,25 @@
         <v>56</v>
       </c>
       <c r="AB19" s="91">
-        <v>-2.4018096107140881E-5</v>
+        <v>4.1783302228582536E-6</v>
       </c>
       <c r="AC19" s="41" t="s">
         <v>57</v>
       </c>
       <c r="AD19" s="91">
-        <v>2.4653367990552285E-3</v>
+        <v>2.4066157727590668E-3</v>
       </c>
       <c r="AF19" s="96">
-        <v>-0.12827043297059509</v>
+        <v>-0.13967115886540699</v>
       </c>
       <c r="AG19" s="97">
-        <v>0.22429434422951453</v>
+        <v>0.23422567966933133</v>
       </c>
       <c r="AH19" s="98">
-        <v>-9.6023911258919445E-2</v>
+        <v>-9.4554520803924402E-2</v>
       </c>
       <c r="AJ19" s="103">
-        <v>-3.4694469519536142E-18</v>
+        <v>-1.3010426069826053E-18</v>
       </c>
     </row>
     <row r="20" spans="1:36" x14ac:dyDescent="0.2">
@@ -4711,7 +4786,7 @@
       </c>
       <c r="B20" s="79" t="str">
         <f>_xll.qlMakeDatedOIS(,E20,F20,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003c5#0000</v>
+        <v>obj_003bb#0000</v>
       </c>
       <c r="C20" s="56" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B20,OisEngine)</f>
@@ -4723,23 +4798,23 @@
       </c>
       <c r="E20" s="65">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A20&amp;"M","mf")</f>
-        <v>41876</v>
+        <v>41918</v>
       </c>
       <c r="F20" s="66">
         <f>_xll.qlInterestRateIndexMaturity($A$17,E20)</f>
-        <v>42060</v>
+        <v>42101</v>
       </c>
       <c r="G20" s="67">
         <f>_xll.qlQuoteValue(D20,AllTriggers)</f>
-        <v>2.8300000000000005E-3</v>
+        <v>3.0700000000000007E-3</v>
       </c>
       <c r="H20" s="68">
         <f>_xll.qlOvernightIndexedSwapFairRate(B20,_xll.ohTrigger(C20,InterestRatesTrigger))</f>
-        <v>4.0269777263052015E-4</v>
+        <v>6.8302988749176382E-4</v>
       </c>
       <c r="I20" s="69">
         <f t="shared" si="1"/>
-        <v>2.4273022273694801E-3</v>
+        <v>2.3869701125082366E-3</v>
       </c>
       <c r="J20" s="36" t="b">
         <f t="shared" si="10"/>
@@ -4747,11 +4822,11 @@
       </c>
       <c r="K20" s="68">
         <f>(I20-_xll.ohFilter($I$15:$I$18,$J$15:$J$18))/(P20-_xll.ohFilter($P$15:$P$18,$J$15:$J$18))</f>
-        <v>-1.9370474823659465E-6</v>
+        <v>-2.423910020552672E-8</v>
       </c>
       <c r="L20" s="68">
         <f>_xll.ohFilter($I$15:$I$18,$J$15:$J$18)-K20*_xll.ohFilter($P$15:$P$18,$J$15:$J$18)</f>
-        <v>3.0277869469029235E-3</v>
+        <v>2.3944599944717444E-3</v>
       </c>
       <c r="M20" s="70"/>
       <c r="N20" s="71">
@@ -4760,49 +4835,49 @@
       </c>
       <c r="O20" s="71">
         <f t="shared" si="12"/>
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="P20" s="70">
         <f t="shared" si="6"/>
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="T20" s="72">
         <f t="shared" si="4"/>
-        <v>26846.333333333332</v>
+        <v>26661</v>
       </c>
       <c r="U20" s="72">
         <f t="shared" si="5"/>
-        <v>155</v>
+        <v>154.5</v>
       </c>
       <c r="V20" s="72">
         <v>1</v>
       </c>
       <c r="X20" s="83">
-        <v>26846.333333333332</v>
+        <v>26661</v>
       </c>
       <c r="Y20" s="86">
-        <v>155</v>
+        <v>154.5</v>
       </c>
       <c r="Z20" s="89">
         <v>1</v>
       </c>
       <c r="AB20" s="92">
-        <v>3.9340214575900295E-3</v>
+        <v>2.1994914802987986E-3</v>
       </c>
       <c r="AD20" s="92">
-        <v>2.4273022273694801E-3</v>
+        <v>2.3869701125082366E-3</v>
       </c>
       <c r="AF20" s="99">
-        <v>7.4501813691440937</v>
+        <v>8.1765363015020416</v>
       </c>
       <c r="AG20" s="100">
-        <v>-10.090511505422368</v>
+        <v>-10.804046025572047</v>
       </c>
       <c r="AH20" s="101">
-        <v>3.6403301362782758</v>
+        <v>3.627509724070006</v>
       </c>
       <c r="AJ20" s="104">
-        <v>-6.0715321659188248E-18</v>
+        <v>4.3368086899420177E-19</v>
       </c>
     </row>
     <row r="21" spans="1:36" x14ac:dyDescent="0.2">
@@ -4811,7 +4886,7 @@
       </c>
       <c r="B21" s="79" t="str">
         <f>_xll.qlMakeDatedOIS(,E21,F21,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003c7#0000</v>
+        <v>obj_003bf#0000</v>
       </c>
       <c r="C21" s="56" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B21,OisEngine)</f>
@@ -4823,23 +4898,23 @@
       </c>
       <c r="E21" s="65">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A21&amp;"M","mf")</f>
-        <v>41905</v>
+        <v>41947</v>
       </c>
       <c r="F21" s="66">
         <f>_xll.qlInterestRateIndexMaturity($A$17,E21)</f>
-        <v>42086</v>
+        <v>42128</v>
       </c>
       <c r="G21" s="67">
         <f>_xll.qlQuoteValue(D21,AllTriggers)</f>
-        <v>2.8000000000000004E-3</v>
+        <v>3.0500000000000006E-3</v>
       </c>
       <c r="H21" s="68">
         <f>_xll.qlOvernightIndexedSwapFairRate(B21,_xll.ohTrigger(C21,InterestRatesTrigger))</f>
-        <v>3.5437823125221494E-4</v>
+        <v>6.4972134691327005E-4</v>
       </c>
       <c r="I21" s="69">
         <f t="shared" si="1"/>
-        <v>2.4456217687477853E-3</v>
+        <v>2.4002786530867306E-3</v>
       </c>
       <c r="J21" s="36" t="b">
         <f t="shared" si="10"/>
@@ -4847,11 +4922,11 @@
       </c>
       <c r="K21" s="68">
         <f>(I21-_xll.ohFilter($I$15:$I$18,$J$15:$J$18))/(P21-_xll.ohFilter($P$15:$P$18,$J$15:$J$18))</f>
-        <v>-1.2657724667292139E-6</v>
+        <v>5.6788138413276742E-8</v>
       </c>
       <c r="L21" s="68">
         <f>_xll.ohFilter($I$15:$I$18,$J$15:$J$18)-K21*_xll.ohFilter($P$15:$P$18,$J$15:$J$18)</f>
-        <v>2.9076287191039485E-3</v>
+        <v>2.3795509825658844E-3</v>
       </c>
       <c r="M21" s="70"/>
       <c r="N21" s="71">
@@ -4888,7 +4963,7 @@
       </c>
       <c r="B22" s="79" t="str">
         <f>_xll.qlMakeDatedOIS(,E22,F22,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003c8#0000</v>
+        <v>obj_003c2#0000</v>
       </c>
       <c r="C22" s="56" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B22,OisEngine)</f>
@@ -4900,23 +4975,23 @@
       </c>
       <c r="E22" s="65">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A22&amp;"M","mf")</f>
-        <v>41935</v>
+        <v>41977</v>
       </c>
       <c r="F22" s="66">
         <f>_xll.qlInterestRateIndexMaturity($A$17,E22)</f>
-        <v>42117</v>
+        <v>42159</v>
       </c>
       <c r="G22" s="67">
         <f>_xll.qlQuoteValue(D22,AllTriggers)</f>
-        <v>2.7900000000000004E-3</v>
+        <v>3.0200000000000005E-3</v>
       </c>
       <c r="H22" s="68">
         <f>_xll.qlOvernightIndexedSwapFairRate(B22,_xll.ohTrigger(C22,InterestRatesTrigger))</f>
-        <v>3.3632005767896705E-4</v>
+        <v>5.8964234162240455E-4</v>
       </c>
       <c r="I22" s="69">
         <f t="shared" si="1"/>
-        <v>2.4536799423210331E-3</v>
+        <v>2.4303576583775961E-3</v>
       </c>
       <c r="J22" s="36" t="b">
         <f t="shared" si="10"/>
@@ -4924,11 +4999,11 @@
       </c>
       <c r="K22" s="68">
         <f>(I22-_xll.ohFilter($I$15:$I$18,$J$15:$J$18))/(P22-_xll.ohFilter($P$15:$P$18,$J$15:$J$18))</f>
-        <v>-9.2054860420399194E-7</v>
+        <v>1.667671832383001E-7</v>
       </c>
       <c r="L22" s="68">
         <f>_xll.ohFilter($I$15:$I$18,$J$15:$J$18)-K22*_xll.ohFilter($P$15:$P$18,$J$15:$J$18)</f>
-        <v>2.8458336477119334E-3</v>
+        <v>2.3593148383180803E-3</v>
       </c>
       <c r="M22" s="70"/>
       <c r="N22" s="71">
@@ -4965,7 +5040,7 @@
       </c>
       <c r="B23" s="79" t="str">
         <f>_xll.qlMakeDatedOIS(,E23,F23,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003bd#0000</v>
+        <v>obj_003c0#0000</v>
       </c>
       <c r="C23" s="56" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B23,OisEngine)</f>
@@ -4977,23 +5052,23 @@
       </c>
       <c r="E23" s="65">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A23&amp;"M","mf")</f>
-        <v>41967</v>
+        <v>42009</v>
       </c>
       <c r="F23" s="66">
         <f>_xll.qlInterestRateIndexMaturity($A$17,E23)</f>
-        <v>42149</v>
+        <v>42191</v>
       </c>
       <c r="G23" s="67">
         <f>_xll.qlQuoteValue(D23,AllTriggers)</f>
-        <v>2.7700000000000003E-3</v>
+        <v>3.0000000000000005E-3</v>
       </c>
       <c r="H23" s="68">
         <f>_xll.qlOvernightIndexedSwapFairRate(B23,_xll.ohTrigger(C23,InterestRatesTrigger))</f>
-        <v>3.4762687636557123E-4</v>
+        <v>5.4214766826426455E-4</v>
       </c>
       <c r="I23" s="69">
         <f t="shared" si="1"/>
-        <v>2.4223731236344293E-3</v>
+        <v>2.4578523317357361E-3</v>
       </c>
       <c r="J23" s="36" t="b">
         <f t="shared" si="10"/>
@@ -5001,11 +5076,11 @@
       </c>
       <c r="K23" s="68">
         <f>(I23-_xll.ohFilter($I$15:$I$18,$J$15:$J$18))/(P23-_xll.ohFilter($P$15:$P$18,$J$15:$J$18))</f>
-        <v>-8.3177596117360063E-7</v>
+        <v>2.2173964608434173E-7</v>
       </c>
       <c r="L23" s="68">
         <f>_xll.ohFilter($I$15:$I$18,$J$15:$J$18)-K23*_xll.ohFilter($P$15:$P$18,$J$15:$J$18)</f>
-        <v>2.8299433446094934E-3</v>
+        <v>2.3491999051544086E-3</v>
       </c>
       <c r="M23" s="70"/>
       <c r="N23" s="71">
@@ -5042,7 +5117,7 @@
       </c>
       <c r="B24" s="79" t="str">
         <f>_xll.qlMakeDatedOIS(,E24,F24,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003ca#0000</v>
+        <v>obj_003c8#0000</v>
       </c>
       <c r="C24" s="56" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B24,OisEngine)</f>
@@ -5054,23 +5129,23 @@
       </c>
       <c r="E24" s="65">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A24&amp;"M","mf")</f>
-        <v>41996</v>
+        <v>42039</v>
       </c>
       <c r="F24" s="66">
         <f>_xll.qlInterestRateIndexMaturity($A$17,E24)</f>
-        <v>42178</v>
+        <v>42220</v>
       </c>
       <c r="G24" s="67">
         <f>_xll.qlQuoteValue(D24,AllTriggers)</f>
-        <v>2.7600000000000003E-3</v>
+        <v>3.0000000000000005E-3</v>
       </c>
       <c r="H24" s="68">
         <f>_xll.qlOvernightIndexedSwapFairRate(B24,_xll.ohTrigger(C24,InterestRatesTrigger))</f>
-        <v>3.4976226834705225E-4</v>
+        <v>5.2865874263953591E-4</v>
       </c>
       <c r="I24" s="69">
         <f t="shared" si="1"/>
-        <v>2.4102377316529483E-3</v>
+        <v>2.4713412573604647E-3</v>
       </c>
       <c r="J24" s="36" t="b">
         <f t="shared" si="10"/>
@@ -5078,16 +5153,16 @@
       </c>
       <c r="K24" s="68">
         <f>(I24-_xll.ohFilter($I$15:$I$18,$J$15:$J$18))/(P24-_xll.ohFilter($P$15:$P$18,$J$15:$J$18))</f>
-        <v>-7.3392334934002938E-7</v>
+        <v>2.228527597987321E-7</v>
       </c>
       <c r="L24" s="68">
         <f>_xll.ohFilter($I$15:$I$18,$J$15:$J$18)-K24*_xll.ohFilter($P$15:$P$18,$J$15:$J$18)</f>
-        <v>2.8124277270912845E-3</v>
+        <v>2.3489950922309607E-3</v>
       </c>
       <c r="M24" s="70"/>
       <c r="N24" s="71">
         <f t="shared" si="11"/>
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="O24" s="71">
         <f t="shared" si="12"/>
@@ -5095,15 +5170,15 @@
       </c>
       <c r="P24" s="70">
         <f t="shared" si="6"/>
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="T24" s="72">
         <f t="shared" si="4"/>
-        <v>77836.333333333328</v>
+        <v>78080.333333333343</v>
       </c>
       <c r="U24" s="72">
         <f t="shared" si="5"/>
-        <v>274</v>
+        <v>274.5</v>
       </c>
       <c r="V24" s="72">
         <v>1</v>
@@ -5115,7 +5190,7 @@
       </c>
       <c r="B25" s="43" t="str">
         <f>_xll.qlMakeDatedOIS(,E25,F25,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003c6#0000</v>
+        <v>obj_003bd#0000</v>
       </c>
       <c r="C25" s="44" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B25,OisEngine)</f>
@@ -5127,23 +5202,23 @@
       </c>
       <c r="E25" s="46">
         <f>SettlementDate</f>
-        <v>41813</v>
+        <v>41855</v>
       </c>
       <c r="F25" s="47">
         <f>_xll.qlCalendarAdvance(Calendar,E25,A26,"mf")</f>
-        <v>42178</v>
+        <v>42220</v>
       </c>
       <c r="G25" s="48">
         <f>_xll.qlQuoteValue($D25,AllTriggers)</f>
-        <v>5.0000000000000001E-3</v>
+        <v>4.8999999999999998E-3</v>
       </c>
       <c r="H25" s="49">
         <f>_xll.qlOvernightIndexedSwapFairRate(B25,_xll.ohTrigger(C25,InterestRatesTrigger))</f>
-        <v>3.7999999989922966E-4</v>
+        <v>5.9999999992508982E-4</v>
       </c>
       <c r="I25" s="50">
         <f t="shared" si="1"/>
-        <v>4.6200000001007701E-3</v>
+        <v>4.3000000000749097E-3</v>
       </c>
       <c r="J25" s="51" t="b">
         <v>0</v>
@@ -5185,7 +5260,7 @@
       </c>
       <c r="B26" s="79" t="str">
         <f>_xll.qlMakeDatedOIS(,E26,F26,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_0034d#0004</v>
+        <v>obj_00349#0004</v>
       </c>
       <c r="C26" s="56" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B26,OisEngine)</f>
@@ -5197,23 +5272,23 @@
       </c>
       <c r="E26" s="58">
         <f>_xll.qlCalendarAdvance(Calendar,_xll.qlLastFixingQuoteReferenceDate(D26),_xll.qlInterestRateIndexFixingDays(A27)&amp;"D","f",,LastFixingsTrigger)</f>
-        <v>41810</v>
+        <v>41855</v>
       </c>
       <c r="F26" s="59">
         <f>_xll.qlInterestRateIndexMaturity(A27,E26)</f>
-        <v>42177</v>
+        <v>42220</v>
       </c>
       <c r="G26" s="60">
         <f>_xll.qlQuoteValue(D26,AllTriggers)</f>
-        <v>4.8999999999999998E-3</v>
+        <v>4.8900000000000002E-3</v>
       </c>
       <c r="H26" s="61">
         <f>_xll.qlOvernightIndexedSwapFairRate(B26,_xll.ohTrigger(C26,InterestRatesTrigger))</f>
-        <v>3.7961273372047146E-4</v>
+        <v>5.9999999992508982E-4</v>
       </c>
       <c r="I26" s="62">
         <f t="shared" si="1"/>
-        <v>4.5203872662795287E-3</v>
+        <v>4.2900000000749101E-3</v>
       </c>
       <c r="J26" s="51" t="b">
         <f>NOT(ISERROR(I26))</f>
@@ -5221,35 +5296,35 @@
       </c>
       <c r="K26" s="63">
         <f>K27</f>
-        <v>-8.026989704956763E-7</v>
+        <v>2.3291058702376787E-7</v>
       </c>
       <c r="L26" s="61">
         <f>_xll.ohFilter($I$25:$I$26,$J$25:$J$26)-K26*_xll.ohFilter($P$25:$P$26,$J$25:$J$26)</f>
-        <v>4.8101615946284674E-3</v>
+        <v>4.2049876358112347E-3</v>
       </c>
       <c r="M26" s="52"/>
       <c r="N26" s="53">
         <f t="shared" si="11"/>
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="O26" s="53">
         <f t="shared" si="12"/>
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="P26" s="52">
         <f t="shared" si="6"/>
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="Q26" s="51"/>
       <c r="R26" s="51"/>
       <c r="S26" s="51"/>
       <c r="T26" s="54">
         <f t="shared" si="4"/>
-        <v>43804.333333333336</v>
+        <v>44408.333333333328</v>
       </c>
       <c r="U26" s="54">
         <f t="shared" si="5"/>
-        <v>180.5</v>
+        <v>182.5</v>
       </c>
       <c r="V26" s="54">
         <v>1</v>
@@ -5262,7 +5337,7 @@
       </c>
       <c r="B27" s="79" t="str">
         <f>_xll.qlMakeDatedOIS(,E27,F27,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003be#0000</v>
+        <v>obj_003c4#0000</v>
       </c>
       <c r="C27" s="56" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B27,OisEngine)</f>
@@ -5274,23 +5349,23 @@
       </c>
       <c r="E27" s="65">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,"12M","mf")</f>
-        <v>42178</v>
+        <v>42220</v>
       </c>
       <c r="F27" s="66">
         <f>_xll.qlInterestRateIndexMaturity(A27,E27)</f>
-        <v>42544</v>
+        <v>42586</v>
       </c>
       <c r="G27" s="67">
         <f>_xll.qlQuoteValue(D27,AllTriggers)</f>
-        <v>4.7299999999999998E-3</v>
+        <v>5.3400000000000001E-3</v>
       </c>
       <c r="H27" s="68">
         <f>_xll.qlOvernightIndexedSwapFairRate(B27,_xll.ohTrigger(C27,InterestRatesTrigger))</f>
-        <v>7.9959647703479325E-4</v>
+        <v>8.7974236081071581E-4</v>
       </c>
       <c r="I27" s="69">
         <f t="shared" si="1"/>
-        <v>3.9304035229652066E-3</v>
+        <v>4.4602576391892844E-3</v>
       </c>
       <c r="J27" s="36" t="b">
         <f>NOT(ISERROR(I27))</f>
@@ -5298,11 +5373,11 @@
       </c>
       <c r="K27" s="68">
         <f>(I27-_xll.ohFilter($I$25:$I$26,$J$25:$J$26))/(P27-_xll.ohFilter($P$25:$P$26,$J$25:$J$26))</f>
-        <v>-8.026989704956763E-7</v>
+        <v>2.3291058702376787E-7</v>
       </c>
       <c r="L27" s="68">
         <f>_xll.ohFilter($I$25:$I$26,$J$25:$J$26)-K27*_xll.ohFilter($P$25:$P$26,$J$25:$J$26)</f>
-        <v>4.8101615946284674E-3</v>
+        <v>4.2049876358112347E-3</v>
       </c>
       <c r="M27" s="70"/>
       <c r="N27" s="71">
@@ -5397,11 +5472,11 @@
       </c>
       <c r="T30" s="112">
         <f>AB9</f>
-        <v>1.4289347099811389E-7</v>
+        <v>1.2503929435577998E-7</v>
       </c>
       <c r="U30" s="113">
         <f>AB18</f>
-        <v>8.2547051728465015E-8</v>
+        <v>-1.7181403068983216E-8</v>
       </c>
     </row>
     <row r="31" spans="1:36" x14ac:dyDescent="0.2">
@@ -5411,38 +5486,38 @@
       </c>
       <c r="G31" s="114">
         <f>_xll.ohFilter(I2:I3,J2:J3)</f>
-        <v>8.2783598937959308E-4</v>
+        <v>3.0000000000121802E-4</v>
       </c>
       <c r="H31" s="115">
         <f>_xll.ohFilter(I6:I9,J6:J9)</f>
-        <v>1.7065633255664854E-3</v>
+        <v>1.4100000000045812E-3</v>
       </c>
       <c r="I31" s="115">
         <f>_xll.ohFilter(I15:I18,J15:J18)</f>
-        <v>2.6810554475594191E-3</v>
+        <v>2.3900000000339275E-3</v>
       </c>
       <c r="J31" s="116">
         <f>_xll.ohFilter(I25:I26,J25:J26)</f>
-        <v>4.5203872662795287E-3</v>
+        <v>4.2900000000749101E-3</v>
       </c>
       <c r="M31" s="41" t="s">
         <v>47</v>
       </c>
       <c r="N31" s="105">
         <f>K4</f>
-        <v>-7.1340261042026446E-6</v>
+        <v>-9.3812572122109909E-7</v>
       </c>
       <c r="O31" s="105">
         <f>K9</f>
-        <v>-4.1697228584783159E-6</v>
+        <v>-6.704084717654571E-7</v>
       </c>
       <c r="P31" s="105">
         <f>AVERAGE(K19:K21)</f>
-        <v>-2.1738561292070568E-6</v>
+        <v>1.0472410157851154E-7</v>
       </c>
       <c r="Q31" s="105">
         <f>K26</f>
-        <v>-8.026989704956763E-7</v>
+        <v>2.3291058702376787E-7</v>
       </c>
       <c r="R31" s="105"/>
       <c r="S31" s="117" t="s">
@@ -5450,11 +5525,11 @@
       </c>
       <c r="T31" s="118">
         <f>AB10</f>
-        <v>-2.8015134520239114E-5</v>
+        <v>-1.6993727056929315E-5</v>
       </c>
       <c r="U31" s="69">
         <f>AB19</f>
-        <v>-2.4018096107140881E-5</v>
+        <v>4.1783302228582536E-6</v>
       </c>
     </row>
     <row r="32" spans="1:36" x14ac:dyDescent="0.2">
@@ -5464,38 +5539,38 @@
       </c>
       <c r="G32" s="114">
         <f>IF(G31&lt;H31,G31,H31)</f>
-        <v>8.2783598937959308E-4</v>
+        <v>3.0000000000121802E-4</v>
       </c>
       <c r="H32" s="115">
         <f>H31</f>
-        <v>1.7065633255664854E-3</v>
+        <v>1.4100000000045812E-3</v>
       </c>
       <c r="I32" s="115">
         <f>IF(I31&lt;H31,H31,I31)</f>
-        <v>2.6810554475594191E-3</v>
+        <v>2.3900000000339275E-3</v>
       </c>
       <c r="J32" s="116">
         <f>IF(J31&lt;I31,I31,J31)</f>
-        <v>4.5203872662795287E-3</v>
+        <v>4.2900000000749101E-3</v>
       </c>
       <c r="M32" s="41" t="s">
         <v>48</v>
       </c>
       <c r="N32" s="105">
         <f>L4</f>
-        <v>1.0061866419846593E-3</v>
+        <v>3.2908189735907209E-4</v>
       </c>
       <c r="O32" s="105">
         <f>L9</f>
-        <v>2.0734989371125772E-3</v>
+        <v>1.4716775794070033E-3</v>
       </c>
       <c r="P32" s="105">
         <f>L18</f>
-        <v>3.0701756946874825E-3</v>
+        <v>2.3707307653434814E-3</v>
       </c>
       <c r="Q32" s="105">
         <f>L26</f>
-        <v>4.8101615946284674E-3</v>
+        <v>4.2049876358112347E-3</v>
       </c>
       <c r="R32" s="105"/>
       <c r="S32" s="117" t="s">
@@ -5503,11 +5578,11 @@
       </c>
       <c r="T32" s="118">
         <f>AB11</f>
-        <v>2.5573702587930475E-3</v>
+        <v>1.8389339154808873E-3</v>
       </c>
       <c r="U32" s="69">
         <f>AB20</f>
-        <v>3.9340214575900295E-3</v>
+        <v>2.1994914802987986E-3</v>
       </c>
     </row>
     <row r="33" spans="2:21" x14ac:dyDescent="0.2">
@@ -5566,7 +5641,7 @@
     <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B34" s="43" t="str">
         <f>_xll.qlMakeDatedOIS(,E34,F34,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003bb#0000</v>
+        <v>obj_003a9#0000</v>
       </c>
       <c r="C34" s="106" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B34,OisEngine)</f>
@@ -5577,27 +5652,27 @@
       </c>
       <c r="E34" s="121">
         <f t="shared" ref="E34:E49" si="13">SettlementDate</f>
-        <v>41813</v>
+        <v>41855</v>
       </c>
       <c r="F34" s="122">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D34,"Following")</f>
-        <v>41814</v>
+        <v>41856</v>
       </c>
       <c r="G34" s="123">
         <f t="shared" ref="G34:J49" si="14">$L34+IF(G$30,G$32,N34)</f>
-        <v>1.2990526139239887E-3</v>
+        <v>8.2814371604559829E-4</v>
       </c>
       <c r="H34" s="123">
         <f t="shared" si="14"/>
-        <v>2.8434103207334591E-3</v>
+        <v>2.330478676124955E-3</v>
       </c>
       <c r="I34" s="123">
         <f t="shared" si="14"/>
-        <v>4.2220399232639006E-3</v>
+        <v>2.701574862683619E-3</v>
       </c>
       <c r="J34" s="123">
         <f t="shared" si="14"/>
-        <v>5.1093588937015039E-3</v>
+        <v>4.7052204908060056E-3</v>
       </c>
       <c r="K34" s="272">
         <f t="shared" ref="K34:K49" si="15">F34-SettlementDate</f>
@@ -5605,23 +5680,23 @@
       </c>
       <c r="L34" s="125">
         <f>_xll.qlOvernightIndexedSwapFairRate(B34,_xll.ohTrigger(C34,InterestRatesTrigger))</f>
-        <v>2.9999999804353195E-4</v>
+        <v>4.9999994440774731E-4</v>
       </c>
       <c r="N34" s="126">
         <f>N$31*$K34+N$32</f>
-        <v>9.9905261588045672E-4</v>
+        <v>3.2814377163785098E-4</v>
       </c>
       <c r="O34" s="118">
         <f t="shared" ref="O34:P40" si="16">IF(O$30,T34,O$31*$K34+O$32)</f>
-        <v>2.5434103226899272E-3</v>
+        <v>1.8304787317172078E-3</v>
       </c>
       <c r="P34" s="118">
         <f t="shared" si="16"/>
-        <v>3.9220399252203686E-3</v>
+        <v>2.2015749182758716E-3</v>
       </c>
       <c r="Q34" s="69">
         <f t="shared" ref="Q34:Q49" si="17">Q$31*$K34+Q$32</f>
-        <v>4.809358895657972E-3</v>
+        <v>4.2052205463982582E-3</v>
       </c>
       <c r="R34" s="118"/>
       <c r="S34" s="127" t="s">
@@ -5629,17 +5704,17 @@
       </c>
       <c r="T34" s="118">
         <f t="shared" ref="T34:U40" si="18">$K34*$K34/3*T$30+$K34/2*T$31+T$32</f>
-        <v>2.5434103226899272E-3</v>
+        <v>1.8304787317172078E-3</v>
       </c>
       <c r="U34" s="69">
         <f t="shared" si="18"/>
-        <v>3.9220399252203686E-3</v>
+        <v>2.2015749182758716E-3</v>
       </c>
     </row>
     <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B35" s="79" t="str">
         <f>_xll.qlMakeDatedOIS(,E35,F35,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003b1#0000</v>
+        <v>obj_003b4#0000</v>
       </c>
       <c r="C35" s="70" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B35,OisEngine)</f>
@@ -5650,27 +5725,27 @@
       </c>
       <c r="E35" s="65">
         <f t="shared" si="13"/>
-        <v>41813</v>
+        <v>41855</v>
       </c>
       <c r="F35" s="129">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D35,"Following")</f>
-        <v>41820</v>
+        <v>41862</v>
       </c>
       <c r="G35" s="123">
         <f t="shared" si="14"/>
-        <v>1.1762484592441206E-3</v>
+        <v>7.0251500905790299E-4</v>
       </c>
       <c r="H35" s="123">
         <f t="shared" si="14"/>
-        <v>2.6816512146540595E-3</v>
+        <v>2.1614981710034909E-3</v>
       </c>
       <c r="I35" s="123">
         <f t="shared" si="14"/>
-        <v>4.0713063897154815E-3</v>
+        <v>2.5938349982427208E-3</v>
       </c>
       <c r="J35" s="123">
         <f t="shared" si="14"/>
-        <v>5.0245427018238776E-3</v>
+        <v>4.5866180016677794E-3</v>
       </c>
       <c r="K35" s="130">
         <f t="shared" si="15"/>
@@ -5678,23 +5753,23 @@
       </c>
       <c r="L35" s="131">
         <f>_xll.qlOvernightIndexedSwapFairRate(B35,_xll.ohTrigger(C35,InterestRatesTrigger))</f>
-        <v>2.1999999998887989E-4</v>
+        <v>3.7999999174737856E-4</v>
       </c>
       <c r="N35" s="126">
         <f>N$31*$K35+N$32</f>
-        <v>9.5624845925524075E-4</v>
+        <v>3.2251501731052438E-4</v>
       </c>
       <c r="O35" s="118">
         <f t="shared" si="16"/>
-        <v>2.4616512146651798E-3</v>
+        <v>1.7814981792561124E-3</v>
       </c>
       <c r="P35" s="118">
         <f t="shared" si="16"/>
-        <v>3.8513063897266013E-3</v>
+        <v>2.2138350064953424E-3</v>
       </c>
       <c r="Q35" s="69">
         <f t="shared" si="17"/>
-        <v>4.8045427018349974E-3</v>
+        <v>4.2066180099204009E-3</v>
       </c>
       <c r="R35" s="118"/>
       <c r="S35" s="132" t="s">
@@ -5702,17 +5777,17 @@
       </c>
       <c r="T35" s="118">
         <f t="shared" si="18"/>
-        <v>2.4616512146651798E-3</v>
+        <v>1.7814981792561124E-3</v>
       </c>
       <c r="U35" s="69">
         <f t="shared" si="18"/>
-        <v>3.8513063897266013E-3</v>
+        <v>2.2138350064953424E-3</v>
       </c>
     </row>
     <row r="36" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B36" s="79" t="str">
         <f>_xll.qlMakeDatedOIS(,E36,F36,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003aa#0000</v>
+        <v>obj_003ac#0000</v>
       </c>
       <c r="C36" s="70" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B36,OisEngine)</f>
@@ -5723,27 +5798,27 @@
       </c>
       <c r="E36" s="65">
         <f t="shared" si="13"/>
-        <v>41813</v>
+        <v>41855</v>
       </c>
       <c r="F36" s="129">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D36,"Following")</f>
-        <v>41827</v>
+        <v>41869</v>
       </c>
       <c r="G36" s="123">
         <f t="shared" si="14"/>
-        <v>1.1863102747473662E-3</v>
+        <v>7.7594811285251828E-4</v>
       </c>
       <c r="H36" s="123">
         <f t="shared" si="14"/>
-        <v>2.6506000221447946E-3</v>
+        <v>2.1881470355708346E-3</v>
       </c>
       <c r="I36" s="123">
         <f t="shared" si="14"/>
-        <v>4.0512878571078471E-3</v>
+        <v>2.6876172491155075E-3</v>
       </c>
       <c r="J36" s="123">
         <f t="shared" si="14"/>
-        <v>5.0789238072630723E-3</v>
+        <v>4.6682483596201087E-3</v>
       </c>
       <c r="K36" s="130">
         <f t="shared" si="15"/>
@@ -5751,23 +5826,23 @@
       </c>
       <c r="L36" s="131">
         <f>_xll.qlOvernightIndexedSwapFairRate(B36,_xll.ohTrigger(C36,InterestRatesTrigger))</f>
-        <v>2.7999999822154412E-4</v>
+        <v>4.5999997559054156E-4</v>
       </c>
       <c r="N36" s="126">
         <f>N$31*$K36+N$32</f>
-        <v>9.0631027652582222E-4</v>
+        <v>3.1594813726197672E-4</v>
       </c>
       <c r="O36" s="118">
         <f t="shared" si="16"/>
-        <v>2.3706000239232506E-3</v>
+        <v>1.7281470599802931E-3</v>
       </c>
       <c r="P36" s="118">
         <f t="shared" si="16"/>
-        <v>3.7712878588863031E-3</v>
+        <v>2.227617273524966E-3</v>
       </c>
       <c r="Q36" s="69">
         <f t="shared" si="17"/>
-        <v>4.7989238090415283E-3</v>
+        <v>4.2082483840295672E-3</v>
       </c>
       <c r="R36" s="118"/>
       <c r="S36" s="132" t="s">
@@ -5775,17 +5850,17 @@
       </c>
       <c r="T36" s="118">
         <f t="shared" si="18"/>
-        <v>2.3706000239232506E-3</v>
+        <v>1.7281470599802931E-3</v>
       </c>
       <c r="U36" s="69">
         <f t="shared" si="18"/>
-        <v>3.7712878588863031E-3</v>
+        <v>2.227617273524966E-3</v>
       </c>
     </row>
     <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="133" t="str">
         <f>_xll.qlMakeDatedOIS(,E37,F37,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003ab#0000</v>
+        <v>obj_003b7#0000</v>
       </c>
       <c r="C37" s="134" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B37,OisEngine)</f>
@@ -5796,27 +5871,27 @@
       </c>
       <c r="E37" s="136">
         <f t="shared" si="13"/>
-        <v>41813</v>
+        <v>41855</v>
       </c>
       <c r="F37" s="137">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D37,"Following")</f>
-        <v>41834</v>
+        <v>41876</v>
       </c>
       <c r="G37" s="138">
         <f t="shared" si="14"/>
-        <v>1.1363720928420505E-3</v>
+        <v>8.0938125721099488E-4</v>
       </c>
       <c r="H37" s="138">
         <f t="shared" si="14"/>
-        <v>2.5642166856129065E-3</v>
+        <v>2.1788805576509951E-3</v>
       </c>
       <c r="I37" s="138">
         <f t="shared" si="14"/>
-        <v>3.9739658641147809E-3</v>
+        <v>2.7408382813852356E-3</v>
       </c>
       <c r="J37" s="138">
         <f t="shared" si="14"/>
-        <v>5.0733049152937052E-3</v>
+        <v>4.7098787581362992E-3</v>
       </c>
       <c r="K37" s="139">
         <f t="shared" si="15"/>
@@ -5824,23 +5899,23 @@
       </c>
       <c r="L37" s="140">
         <f>_xll.qlOvernightIndexedSwapFairRate(B37,_xll.ohTrigger(C37,InterestRatesTrigger))</f>
-        <v>2.7999999904564684E-4</v>
+        <v>4.9999999999756587E-4</v>
       </c>
       <c r="N37" s="141">
         <f>N$31*$K37+N$32</f>
-        <v>8.563720937964038E-4</v>
+        <v>3.0938125721342901E-4</v>
       </c>
       <c r="O37" s="142">
         <f t="shared" si="16"/>
-        <v>2.2842166865672596E-3</v>
+        <v>1.6788805576534293E-3</v>
       </c>
       <c r="P37" s="142">
         <f t="shared" si="16"/>
-        <v>3.6939658650691344E-3</v>
+        <v>2.2408382813876699E-3</v>
       </c>
       <c r="Q37" s="143">
         <f t="shared" si="17"/>
-        <v>4.7933049162480583E-3</v>
+        <v>4.2098787581387334E-3</v>
       </c>
       <c r="R37" s="142"/>
       <c r="S37" s="144" t="s">
@@ -5848,17 +5923,17 @@
       </c>
       <c r="T37" s="142">
         <f t="shared" si="18"/>
-        <v>2.2842166865672596E-3</v>
+        <v>1.6788805576534293E-3</v>
       </c>
       <c r="U37" s="143">
         <f t="shared" si="18"/>
-        <v>3.6939658650691344E-3</v>
+        <v>2.2408382813876699E-3</v>
       </c>
     </row>
     <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B38" s="79" t="str">
         <f>_xll.qlMakeDatedOIS(,E38,F38,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003b9#0000</v>
+        <v>obj_003a8#0000</v>
       </c>
       <c r="C38" s="70" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B38,OisEngine)</f>
@@ -5869,51 +5944,51 @@
       </c>
       <c r="E38" s="65">
         <f t="shared" si="13"/>
-        <v>41813</v>
+        <v>41855</v>
       </c>
       <c r="F38" s="129">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D38,"mf",TRUE)</f>
-        <v>41843</v>
+        <v>41886</v>
       </c>
       <c r="G38" s="145">
         <f t="shared" si="14"/>
-        <v>1.1021658586514449E-3</v>
+        <v>9.7999999999999997E-4</v>
       </c>
       <c r="H38" s="145">
         <f t="shared" si="14"/>
-        <v>2.4900112820817597E-3</v>
+        <v>2.2955854000558996E-3</v>
       </c>
       <c r="I38" s="145">
         <f t="shared" si="14"/>
-        <v>3.908514131294321E-3</v>
+        <v>2.9387518226354522E-3</v>
       </c>
       <c r="J38" s="145">
         <f t="shared" si="14"/>
-        <v>5.0960806253064622E-3</v>
+        <v>4.8922078640077533E-3</v>
       </c>
       <c r="K38" s="124">
         <f t="shared" si="15"/>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L38" s="131">
         <f>_xll.qlOvernightIndexedSwapFairRate(B38,_xll.ohTrigger(C38,InterestRatesTrigger))</f>
-        <v>3.0999999979286486E-4</v>
+        <v>6.7999999999878195E-4</v>
       </c>
       <c r="N38" s="126">
         <f>N$31*$K38+N$32</f>
-        <v>7.9216585885858001E-4</v>
+        <v>3.0000000000121802E-4</v>
       </c>
       <c r="O38" s="118">
         <f t="shared" si="16"/>
-        <v>2.1800112822888949E-3</v>
+        <v>1.6155854000571178E-3</v>
       </c>
       <c r="P38" s="118">
         <f t="shared" si="16"/>
-        <v>3.5985141315014557E-3</v>
+        <v>2.2587518226366704E-3</v>
       </c>
       <c r="Q38" s="69">
         <f t="shared" si="17"/>
-        <v>4.7860806255135974E-3</v>
+        <v>4.2122078640089711E-3</v>
       </c>
       <c r="R38" s="118"/>
       <c r="S38" s="132" t="s">
@@ -5921,11 +5996,11 @@
       </c>
       <c r="T38" s="118">
         <f t="shared" si="18"/>
-        <v>2.1800112822888949E-3</v>
+        <v>1.6155854000571178E-3</v>
       </c>
       <c r="U38" s="69">
         <f t="shared" si="18"/>
-        <v>3.5985141315014557E-3</v>
+        <v>2.2587518226366704E-3</v>
       </c>
     </row>
     <row r="39" spans="2:21" x14ac:dyDescent="0.2">
@@ -5942,24 +6017,24 @@
       </c>
       <c r="E39" s="65">
         <f t="shared" si="13"/>
-        <v>41813</v>
+        <v>41855</v>
       </c>
       <c r="F39" s="129">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D39,"mf",TRUE)</f>
-        <v>41876</v>
+        <v>41918</v>
       </c>
       <c r="G39" s="146"/>
       <c r="H39" s="123">
         <f t="shared" si="14"/>
-        <v>2.2539415818788868E-3</v>
+        <v>2.1790584996117029E-3</v>
       </c>
       <c r="I39" s="123">
         <f t="shared" si="14"/>
-        <v>3.6766611779947174E-3</v>
+        <v>3.0183778860499609E-3</v>
       </c>
       <c r="J39" s="123">
         <f t="shared" si="14"/>
-        <v>5.149591557830107E-3</v>
+        <v>4.9296610027851238E-3</v>
       </c>
       <c r="K39" s="130">
         <f t="shared" si="15"/>
@@ -5967,20 +6042,20 @@
       </c>
       <c r="L39" s="131">
         <f>_xll.qlOvernightIndexedSwapFairRate(B39,_xll.ohTrigger(C39,InterestRatesTrigger))</f>
-        <v>3.8999999834286674E-4</v>
+        <v>7.099999999913921E-4</v>
       </c>
       <c r="N39" s="146"/>
       <c r="O39" s="118">
         <f t="shared" si="16"/>
-        <v>1.8639415835360201E-3</v>
+        <v>1.4690584996203109E-3</v>
       </c>
       <c r="P39" s="118">
         <f t="shared" si="16"/>
-        <v>3.2866611796518509E-3</v>
+        <v>2.3083778860585689E-3</v>
       </c>
       <c r="Q39" s="69">
         <f t="shared" si="17"/>
-        <v>4.75959155948724E-3</v>
+        <v>4.2196610027937318E-3</v>
       </c>
       <c r="R39" s="118"/>
       <c r="S39" s="132" t="s">
@@ -5988,17 +6063,17 @@
       </c>
       <c r="T39" s="118">
         <f t="shared" si="18"/>
-        <v>1.8639415835360201E-3</v>
+        <v>1.4690584996203109E-3</v>
       </c>
       <c r="U39" s="69">
         <f t="shared" si="18"/>
-        <v>3.2866611796518509E-3</v>
+        <v>2.3083778860585689E-3</v>
       </c>
     </row>
     <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B40" s="79" t="str">
         <f>_xll.qlMakeDatedOIS(,E40,F40,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003a8#0000</v>
+        <v>obj_003a6#0000</v>
       </c>
       <c r="C40" s="70" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B40,OisEngine)</f>
@@ -6009,24 +6084,24 @@
       </c>
       <c r="E40" s="65">
         <f t="shared" si="13"/>
-        <v>41813</v>
+        <v>41855</v>
       </c>
       <c r="F40" s="129">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D40,"mf",TRUE)</f>
-        <v>41905</v>
+        <v>41947</v>
       </c>
       <c r="G40" s="147"/>
       <c r="H40" s="123">
         <f t="shared" si="14"/>
-        <v>2.1318241815896088E-3</v>
+        <v>2.0899999999999981E-3</v>
       </c>
       <c r="I40" s="123">
         <f t="shared" si="14"/>
-        <v>3.5220817831563404E-3</v>
+        <v>3.0232202053537389E-3</v>
       </c>
       <c r="J40" s="123">
         <f t="shared" si="14"/>
-        <v>5.1963132872277469E-3</v>
+        <v>4.9064154098128398E-3</v>
       </c>
       <c r="K40" s="130">
         <f t="shared" si="15"/>
@@ -6034,20 +6109,20 @@
       </c>
       <c r="L40" s="131">
         <f>_xll.qlOvernightIndexedSwapFairRate(B40,_xll.ohTrigger(C40,InterestRatesTrigger))</f>
-        <v>4.5999999788488187E-4</v>
+        <v>6.7999999999541854E-4</v>
       </c>
       <c r="N40" s="147"/>
       <c r="O40" s="118">
         <f t="shared" si="16"/>
-        <v>1.6718241837047269E-3</v>
+        <v>1.4100000000045795E-3</v>
       </c>
       <c r="P40" s="118">
         <f t="shared" si="16"/>
-        <v>3.0620817852714585E-3</v>
+        <v>2.3432202053583202E-3</v>
       </c>
       <c r="Q40" s="69">
         <f t="shared" si="17"/>
-        <v>4.7363132893428654E-3</v>
+        <v>4.2264154098174212E-3</v>
       </c>
       <c r="R40" s="118"/>
       <c r="S40" s="132" t="s">
@@ -6055,17 +6130,17 @@
       </c>
       <c r="T40" s="118">
         <f t="shared" si="18"/>
-        <v>1.6718241837047269E-3</v>
+        <v>1.4100000000045795E-3</v>
       </c>
       <c r="U40" s="69">
         <f t="shared" si="18"/>
-        <v>3.0620817852714585E-3</v>
+        <v>2.3432202053583202E-3</v>
       </c>
     </row>
     <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B41" s="79" t="str">
         <f>_xll.qlMakeDatedOIS(,E41,F41,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003b8#0000</v>
+        <v>obj_003ba#0000</v>
       </c>
       <c r="C41" s="70" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B41,OisEngine)</f>
@@ -6076,21 +6151,21 @@
       </c>
       <c r="E41" s="65">
         <f t="shared" si="13"/>
-        <v>41813</v>
+        <v>41855</v>
       </c>
       <c r="F41" s="129">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D41,"mf",TRUE)</f>
-        <v>41935</v>
+        <v>41977</v>
       </c>
       <c r="G41" s="148"/>
       <c r="H41" s="149"/>
       <c r="I41" s="123">
         <f t="shared" si="14"/>
-        <v>3.3484610346119787E-3</v>
+        <v>3.0591269561245273E-3</v>
       </c>
       <c r="J41" s="123">
         <f t="shared" si="14"/>
-        <v>5.182232320476713E-3</v>
+        <v>4.9234027274190914E-3</v>
       </c>
       <c r="K41" s="130">
         <f t="shared" si="15"/>
@@ -6098,17 +6173,17 @@
       </c>
       <c r="L41" s="131">
         <f>_xll.qlOvernightIndexedSwapFairRate(B41,_xll.ohTrigger(C41,InterestRatesTrigger))</f>
-        <v>4.7000000024871867E-4</v>
+        <v>6.899999999909574E-4</v>
       </c>
       <c r="N41" s="148"/>
       <c r="O41" s="149"/>
       <c r="P41" s="118">
         <f>IF(P$30,U41,P$31*$K41+P$32)</f>
-        <v>2.8784610343632602E-3</v>
+        <v>2.3691269561335699E-3</v>
       </c>
       <c r="Q41" s="69">
         <f t="shared" si="17"/>
-        <v>4.7122323202279945E-3</v>
+        <v>4.233402727428134E-3</v>
       </c>
       <c r="R41" s="118"/>
       <c r="S41" s="132" t="s">
@@ -6117,13 +6192,13 @@
       <c r="T41" s="149"/>
       <c r="U41" s="69">
         <f>$K41*$K41/3*U$30+$K41/2*U$31+U$32</f>
-        <v>2.8784610343632602E-3</v>
+        <v>2.3691269561335699E-3</v>
       </c>
     </row>
     <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B42" s="79" t="str">
         <f>_xll.qlMakeDatedOIS(,E42,F42,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003b2#0000</v>
+        <v>obj_003b1#0000</v>
       </c>
       <c r="C42" s="70" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B42,OisEngine)</f>
@@ -6134,21 +6209,21 @@
       </c>
       <c r="E42" s="65">
         <f t="shared" si="13"/>
-        <v>41813</v>
+        <v>41855</v>
       </c>
       <c r="F42" s="129">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D42,"mf",TRUE)</f>
-        <v>41967</v>
+        <v>42009</v>
       </c>
       <c r="G42" s="148"/>
       <c r="H42" s="150"/>
       <c r="I42" s="123">
         <f t="shared" si="14"/>
-        <v>3.1771900169376868E-3</v>
+        <v>3.0753981890402392E-3</v>
       </c>
       <c r="J42" s="123">
         <f t="shared" si="14"/>
-        <v>5.1265459531722127E-3</v>
+        <v>4.9308558661889188E-3</v>
       </c>
       <c r="K42" s="130">
         <f t="shared" si="15"/>
@@ -6156,17 +6231,17 @@
       </c>
       <c r="L42" s="131">
         <f>_xll.qlOvernightIndexedSwapFairRate(B42,_xll.ohTrigger(C42,InterestRatesTrigger))</f>
-        <v>4.400000000000796E-4</v>
+        <v>6.899999999760237E-4</v>
       </c>
       <c r="N42" s="148"/>
       <c r="O42" s="150"/>
       <c r="P42" s="118">
         <f>IF(P$30,U42,P$31*$K42+P$32)</f>
-        <v>2.7371900169376072E-3</v>
+        <v>2.3853981890642156E-3</v>
       </c>
       <c r="Q42" s="69">
         <f t="shared" si="17"/>
-        <v>4.6865459531721335E-3</v>
+        <v>4.2408558662128948E-3</v>
       </c>
       <c r="R42" s="118"/>
       <c r="S42" s="132" t="s">
@@ -6175,13 +6250,13 @@
       <c r="T42" s="150"/>
       <c r="U42" s="69">
         <f>$K42*$K42/3*U$30+$K42/2*U$31+U$32</f>
-        <v>2.7371900169376072E-3</v>
+        <v>2.3853981890642156E-3</v>
       </c>
     </row>
     <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B43" s="79" t="str">
         <f>_xll.qlMakeDatedOIS(,E43,F43,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003a7#0000</v>
+        <v>obj_003b8#0000</v>
       </c>
       <c r="C43" s="70" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B43,OisEngine)</f>
@@ -6192,39 +6267,39 @@
       </c>
       <c r="E43" s="65">
         <f t="shared" si="13"/>
-        <v>41813</v>
+        <v>41855</v>
       </c>
       <c r="F43" s="129">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D43,"mf",TRUE)</f>
-        <v>41996</v>
+        <v>42039</v>
       </c>
       <c r="G43" s="148"/>
       <c r="H43" s="150"/>
       <c r="I43" s="123">
         <f t="shared" si="14"/>
-        <v>3.0678384022315808E-3</v>
+        <v>3.0599999999999985E-3</v>
       </c>
       <c r="J43" s="123">
         <f t="shared" si="14"/>
-        <v>5.0732676830278463E-3</v>
+        <v>4.9178431837896795E-3</v>
       </c>
       <c r="K43" s="130">
         <f t="shared" si="15"/>
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L43" s="131">
         <f>_xll.qlOvernightIndexedSwapFairRate(B43,_xll.ohTrigger(C43,InterestRatesTrigger))</f>
-        <v>4.10000000000087E-4</v>
+        <v>6.6999999996607219E-4</v>
       </c>
       <c r="N43" s="148"/>
       <c r="O43" s="150"/>
       <c r="P43" s="118">
         <f>IF(P$30,U43,P$31*$K43+P$32)</f>
-        <v>2.6578384022314938E-3</v>
+        <v>2.3900000000339262E-3</v>
       </c>
       <c r="Q43" s="69">
         <f t="shared" si="17"/>
-        <v>4.6632676830277589E-3</v>
+        <v>4.2478431838236077E-3</v>
       </c>
       <c r="R43" s="118"/>
       <c r="S43" s="152" t="s">
@@ -6233,13 +6308,13 @@
       <c r="T43" s="153"/>
       <c r="U43" s="143">
         <f>$K43*$K43/3*U$30+$K43/2*U$31+U$32</f>
-        <v>2.6578384022314938E-3</v>
+        <v>2.3900000000339262E-3</v>
       </c>
     </row>
     <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B44" s="79" t="str">
         <f>_xll.qlMakeDatedOIS(,E44,F44,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003a9#0000</v>
+        <v>obj_003aa#0000</v>
       </c>
       <c r="C44" s="70" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B44,OisEngine)</f>
@@ -6250,26 +6325,26 @@
       </c>
       <c r="E44" s="65">
         <f t="shared" si="13"/>
-        <v>41813</v>
+        <v>41855</v>
       </c>
       <c r="F44" s="129">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D44,"mf",TRUE)</f>
-        <v>42027</v>
+        <v>42067</v>
       </c>
       <c r="G44" s="148"/>
       <c r="H44" s="154"/>
       <c r="I44" s="149"/>
       <c r="J44" s="123">
         <f t="shared" si="14"/>
-        <v>5.0383840149423979E-3</v>
+        <v>4.9543646802007596E-3</v>
       </c>
       <c r="K44" s="130">
         <f t="shared" si="15"/>
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="L44" s="131">
         <f>_xll.qlOvernightIndexedSwapFairRate(B44,_xll.ohTrigger(C44,InterestRatesTrigger))</f>
-        <v>4.0000000000000577E-4</v>
+        <v>6.9999999994048608E-4</v>
       </c>
       <c r="N44" s="155" t="s">
         <v>74</v>
@@ -6278,7 +6353,7 @@
       <c r="P44" s="149"/>
       <c r="Q44" s="69">
         <f t="shared" si="17"/>
-        <v>4.6383840149423925E-3</v>
+        <v>4.2543646802602735E-3</v>
       </c>
       <c r="R44" s="118"/>
       <c r="S44" s="118"/>
@@ -6286,7 +6361,7 @@
     <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B45" s="79" t="str">
         <f>_xll.qlMakeDatedOIS(,E45,F45,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003b3#0000</v>
+        <v>obj_003ae#0000</v>
       </c>
       <c r="C45" s="70" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B45,OisEngine)</f>
@@ -6297,26 +6372,26 @@
       </c>
       <c r="E45" s="65">
         <f t="shared" si="13"/>
-        <v>41813</v>
+        <v>41855</v>
       </c>
       <c r="F45" s="129">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D45,"mf",TRUE)</f>
-        <v>42058</v>
+        <v>42101</v>
       </c>
       <c r="G45" s="148"/>
       <c r="H45" s="154"/>
       <c r="I45" s="150"/>
       <c r="J45" s="123">
         <f t="shared" si="14"/>
-        <v>5.0135003466961862E-3</v>
+        <v>4.952283640110489E-3</v>
       </c>
       <c r="K45" s="130">
         <f t="shared" si="15"/>
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="L45" s="131">
         <f>_xll.qlOvernightIndexedSwapFairRate(B45,_xll.ohTrigger(C45,InterestRatesTrigger))</f>
-        <v>3.9999999983915939E-4</v>
+        <v>6.8999999989140747E-4</v>
       </c>
       <c r="N45" s="157"/>
       <c r="O45" s="158" t="s">
@@ -6325,7 +6400,7 @@
       <c r="P45" s="159"/>
       <c r="Q45" s="69">
         <f t="shared" si="17"/>
-        <v>4.613500346857027E-3</v>
+        <v>4.2622836402190813E-3</v>
       </c>
       <c r="R45" s="118"/>
       <c r="S45" s="118"/>
@@ -6333,7 +6408,7 @@
     <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B46" s="79" t="str">
         <f>_xll.qlMakeDatedOIS(,E46,F46,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003af#0000</v>
+        <v>obj_003b9#0000</v>
       </c>
       <c r="C46" s="70" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B46,OisEngine)</f>
@@ -6344,18 +6419,18 @@
       </c>
       <c r="E46" s="65">
         <f t="shared" si="13"/>
-        <v>41813</v>
+        <v>41855</v>
       </c>
       <c r="F46" s="129">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D46,"mf",TRUE)</f>
-        <v>42086</v>
+        <v>42128</v>
       </c>
       <c r="G46" s="148"/>
       <c r="H46" s="154"/>
       <c r="I46" s="150"/>
       <c r="J46" s="123">
         <f t="shared" si="14"/>
-        <v>4.9810247755534866E-3</v>
+        <v>4.9285722260019836E-3</v>
       </c>
       <c r="K46" s="130">
         <f t="shared" si="15"/>
@@ -6363,7 +6438,7 @@
       </c>
       <c r="L46" s="131">
         <f>_xll.qlOvernightIndexedSwapFairRate(B46,_xll.ohTrigger(C46,InterestRatesTrigger))</f>
-        <v>3.8999999987033841E-4</v>
+        <v>6.5999999993325976E-4</v>
       </c>
       <c r="N46" s="148"/>
       <c r="O46" s="156"/>
@@ -6372,7 +6447,7 @@
       </c>
       <c r="Q46" s="69">
         <f t="shared" si="17"/>
-        <v>4.5910247756831479E-3</v>
+        <v>4.2685722260687236E-3</v>
       </c>
       <c r="R46" s="118"/>
       <c r="S46" s="118"/>
@@ -6380,7 +6455,7 @@
     <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B47" s="79" t="str">
         <f>_xll.qlMakeDatedOIS(,E47,F47,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003b0#0000</v>
+        <v>obj_003ad#0000</v>
       </c>
       <c r="C47" s="70" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B47,OisEngine)</f>
@@ -6391,18 +6466,18 @@
       </c>
       <c r="E47" s="65">
         <f t="shared" si="13"/>
-        <v>41813</v>
+        <v>41855</v>
       </c>
       <c r="F47" s="129">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D47,"mf",TRUE)</f>
-        <v>42117</v>
+        <v>42159</v>
       </c>
       <c r="G47" s="148"/>
       <c r="H47" s="154"/>
       <c r="I47" s="150"/>
       <c r="J47" s="123">
         <f t="shared" si="14"/>
-        <v>4.9561411074682312E-3</v>
+        <v>4.9057924541891264E-3</v>
       </c>
       <c r="K47" s="130">
         <f t="shared" si="15"/>
@@ -6410,14 +6485,14 @@
       </c>
       <c r="L47" s="131">
         <f>_xll.qlOvernightIndexedSwapFairRate(B47,_xll.ohTrigger(C47,InterestRatesTrigger))</f>
-        <v>3.8999999987045014E-4</v>
+        <v>6.2999999992266616E-4</v>
       </c>
       <c r="N47" s="148"/>
       <c r="O47" s="154"/>
       <c r="P47" s="150"/>
       <c r="Q47" s="69">
         <f t="shared" si="17"/>
-        <v>4.5661411075977815E-3</v>
+        <v>4.27579245426646E-3</v>
       </c>
       <c r="R47" s="118"/>
       <c r="S47" s="118"/>
@@ -6425,7 +6500,7 @@
     <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B48" s="79" t="str">
         <f>_xll.qlMakeDatedOIS(,E48,F48,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003b7#0000</v>
+        <v>obj_003b3#0000</v>
       </c>
       <c r="C48" s="70" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B48,OisEngine)</f>
@@ -6436,18 +6511,18 @@
       </c>
       <c r="E48" s="65">
         <f t="shared" si="13"/>
-        <v>41813</v>
+        <v>41855</v>
       </c>
       <c r="F48" s="129">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D48,"mf",TRUE)</f>
-        <v>42149</v>
+        <v>42191</v>
       </c>
       <c r="G48" s="148"/>
       <c r="H48" s="154"/>
       <c r="I48" s="150"/>
       <c r="J48" s="123">
         <f t="shared" si="14"/>
-        <v>4.9304547404206223E-3</v>
+        <v>4.8932455929732825E-3</v>
       </c>
       <c r="K48" s="130">
         <f t="shared" si="15"/>
@@ -6455,14 +6530,14 @@
       </c>
       <c r="L48" s="131">
         <f>_xll.qlOvernightIndexedSwapFairRate(B48,_xll.ohTrigger(C48,InterestRatesTrigger))</f>
-        <v>3.8999999987870168E-4</v>
+        <v>6.0999999992206178E-4</v>
       </c>
       <c r="N48" s="148"/>
       <c r="O48" s="154"/>
       <c r="P48" s="150"/>
       <c r="Q48" s="69">
         <f t="shared" si="17"/>
-        <v>4.5404547405419205E-3</v>
+        <v>4.2832455930512207E-3</v>
       </c>
       <c r="R48" s="118"/>
       <c r="S48" s="118"/>
@@ -6470,7 +6545,7 @@
     <row r="49" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B49" s="133" t="str">
         <f>_xll.qlMakeDatedOIS(,E49,F49,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003ba#0000</v>
+        <v>obj_003af#0000</v>
       </c>
       <c r="C49" s="134" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B49,OisEngine)</f>
@@ -6481,18 +6556,18 @@
       </c>
       <c r="E49" s="65">
         <f t="shared" si="13"/>
-        <v>41813</v>
+        <v>41855</v>
       </c>
       <c r="F49" s="129">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D49,"mf",TRUE)</f>
-        <v>42178</v>
+        <v>42220</v>
       </c>
       <c r="G49" s="148"/>
       <c r="H49" s="154"/>
       <c r="I49" s="150"/>
       <c r="J49" s="123">
         <f t="shared" si="14"/>
-        <v>4.897176470296776E-3</v>
+        <v>4.8900000000000002E-3</v>
       </c>
       <c r="K49" s="130">
         <f t="shared" si="15"/>
@@ -6500,14 +6575,14 @@
       </c>
       <c r="L49" s="131">
         <f>_xll.qlOvernightIndexedSwapFairRate(B49,_xll.ohTrigger(C49,InterestRatesTrigger))</f>
-        <v>3.7999999989922966E-4</v>
+        <v>5.9999999992508982E-4</v>
       </c>
       <c r="N49" s="161"/>
       <c r="O49" s="162"/>
       <c r="P49" s="153"/>
       <c r="Q49" s="143">
         <f t="shared" si="17"/>
-        <v>4.5171764703975459E-3</v>
+        <v>4.2900000000749101E-3</v>
       </c>
       <c r="R49" s="118"/>
       <c r="S49" s="118"/>
@@ -6611,11 +6686,11 @@
       </c>
       <c r="F2" s="265" t="str">
         <f>_xll.qlDepositRateHelper(,E2,$F$10,)</f>
-        <v>obj_003ac#0000</v>
+        <v>obj_003a7#0000</v>
       </c>
       <c r="G2" s="199">
         <f>_xll.qlRateHelperQuoteValue(F2,InterestRatesTrigger)</f>
-        <v>4.8970000000000003E-3</v>
+        <v>4.8900000000000002E-3</v>
       </c>
       <c r="H2" s="200" t="b">
         <v>1</v>
@@ -6628,11 +6703,11 @@
       </c>
       <c r="K2" s="201">
         <f>_xll.qlRateHelperEarliestDate($F2,InterestRatesTrigger)</f>
-        <v>41813</v>
+        <v>41855</v>
       </c>
       <c r="L2" s="202">
         <f>_xll.qlRateHelperLatestDate($F2,InterestRatesTrigger)</f>
-        <v>42178</v>
+        <v>42220</v>
       </c>
     </row>
     <row r="3" spans="2:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -6650,11 +6725,11 @@
       </c>
       <c r="F3" s="266" t="str">
         <f>_xll.qlFraRateHelper(,E3,B3&amp;"M",$F$10)</f>
-        <v>obj_003ad#0000</v>
+        <v>obj_003b0#0000</v>
       </c>
       <c r="G3" s="205">
         <f>_xll.qlRateHelperQuoteValue(F3,InterestRatesTrigger)</f>
-        <v>4.7299999999999998E-3</v>
+        <v>5.3400000000000001E-3</v>
       </c>
       <c r="H3" s="206" t="b">
         <v>1</v>
@@ -6667,11 +6742,11 @@
       </c>
       <c r="K3" s="207">
         <f>_xll.qlRateHelperEarliestDate($F3,InterestRatesTrigger)</f>
-        <v>42178</v>
+        <v>42220</v>
       </c>
       <c r="L3" s="208">
         <f>_xll.qlRateHelperLatestDate($F3,InterestRatesTrigger)</f>
-        <v>42544</v>
+        <v>42586</v>
       </c>
       <c r="M3" s="209"/>
     </row>
@@ -6694,7 +6769,7 @@
       </c>
       <c r="G4" s="213">
         <f>_xll.qlRateHelperQuoteValue(F4,InterestRatesTrigger)</f>
-        <v>5.5100000000000001E-3</v>
+        <v>5.8000000000000005E-3</v>
       </c>
       <c r="H4" s="214" t="b">
         <v>1</v>
@@ -6707,11 +6782,11 @@
       </c>
       <c r="K4" s="215">
         <f>_xll.qlRateHelperEarliestDate($F4,InterestRatesTrigger)</f>
-        <v>41813</v>
+        <v>41855</v>
       </c>
       <c r="L4" s="216">
         <f>_xll.qlRateHelperLatestDate($F4,InterestRatesTrigger)</f>
-        <v>42909</v>
+        <v>42951</v>
       </c>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.2">
@@ -6729,11 +6804,11 @@
       </c>
       <c r="F5" s="268" t="str">
         <f>_xll.qlSwapRateHelper2(,E5,D5,Calendar,"annual","mf","30/360 (Bond Basis)",$F$10,0,"0D",OisCurve)</f>
-        <v>obj_003b4#0000</v>
+        <v>obj_003b2#0000</v>
       </c>
       <c r="G5" s="220">
         <f>_xll.qlRateHelperQuoteValue(F5,InterestRatesTrigger)</f>
-        <v>6.8000000000000005E-3</v>
+        <v>6.8700000000000002E-3</v>
       </c>
       <c r="H5" s="221" t="b">
         <v>1</v>
@@ -6746,11 +6821,11 @@
       </c>
       <c r="K5" s="222">
         <f>_xll.qlRateHelperEarliestDate($F5,InterestRatesTrigger)</f>
-        <v>41813</v>
+        <v>41855</v>
       </c>
       <c r="L5" s="223">
         <f>_xll.qlRateHelperLatestDate($F5,InterestRatesTrigger)</f>
-        <v>43276</v>
+        <v>43318</v>
       </c>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.2">
@@ -6768,11 +6843,11 @@
       </c>
       <c r="F6" s="265" t="str">
         <f>_xll.qlSwapRateHelper2(,E6,D6,Calendar,"annual","mf","30/360 (Bond Basis)",$F$10,0,"0D",OisCurve)</f>
-        <v>obj_003ae#0000</v>
+        <v>obj_003ab#0000</v>
       </c>
       <c r="G6" s="199">
         <f>_xll.qlRateHelperQuoteValue(F6,InterestRatesTrigger)</f>
-        <v>8.4499999999999992E-3</v>
+        <v>8.1899999999999994E-3</v>
       </c>
       <c r="H6" s="200" t="b">
         <v>1</v>
@@ -6785,17 +6860,17 @@
       </c>
       <c r="K6" s="201">
         <f>_xll.qlRateHelperEarliestDate($F6,InterestRatesTrigger)</f>
-        <v>41813</v>
+        <v>41855</v>
       </c>
       <c r="L6" s="202">
         <f>_xll.qlRateHelperLatestDate($F6,InterestRatesTrigger)</f>
-        <v>43640</v>
+        <v>43682</v>
       </c>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.2">
       <c r="F10" s="195" t="str">
         <f>_xll.qlEuribor(,IborTenor,,,EvaluationDate)</f>
-        <v>obj_0037c#0000</v>
+        <v>obj_00379#0000</v>
       </c>
     </row>
   </sheetData>
@@ -6882,7 +6957,7 @@
       <c r="C2" s="230"/>
       <c r="D2" s="231">
         <f>SettlementDate</f>
-        <v>41813</v>
+        <v>41855</v>
       </c>
       <c r="E2" s="232">
         <f t="array" ref="E2:E127">_xll.qlPiecewiseYieldCurveData(YieldCurve,InterestRatesTrigger)</f>
@@ -6893,31 +6968,31 @@
       </c>
       <c r="G2" s="233">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I2)</f>
-        <v>41809</v>
+        <v>41851</v>
       </c>
       <c r="H2" s="195" t="str">
         <f>_xll.qlMakeDatedOIS(,I2,J2,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_003d1#0000</v>
+        <v>obj_003fc#0000</v>
       </c>
       <c r="I2" s="233">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F2&amp;"M","mf")</f>
-        <v>41813</v>
+        <v>41855</v>
       </c>
       <c r="J2" s="233">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I2)</f>
-        <v>42178</v>
+        <v>42220</v>
       </c>
       <c r="K2" s="232">
         <f>_xll.qlIndexFixing(IborIndex,G2,TRUE,InterestRatesTrigger)</f>
-        <v>4.8970000000001452E-3</v>
+        <v>4.8900000000002258E-3</v>
       </c>
       <c r="L2" s="232">
         <f>_xll.qlOvernightIndexedSwapFairRate(H2,Contribution!$P$25)</f>
-        <v>3.7999999989922966E-4</v>
+        <v>5.9999999992508982E-4</v>
       </c>
       <c r="M2" s="209">
         <f>ROUND(K2-L2,6)</f>
-        <v>4.5170000000000002E-3</v>
+        <v>4.2900000000000004E-3</v>
       </c>
       <c r="N2" s="232"/>
       <c r="O2" s="195" t="str">
@@ -6932,58 +7007,58 @@
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="234" t="str">
         <f>RateHelpersFra!F2</f>
-        <v>obj_003ac#0000</v>
+        <v>obj_003a7#0000</v>
       </c>
       <c r="B3" s="235">
         <f>_xll.qlRateHelperRate($A3,InterestRatesTrigger)</f>
-        <v>4.8970000000000003E-3</v>
+        <v>4.8900000000000002E-3</v>
       </c>
       <c r="C3" s="236">
         <f>_xll.qlRateHelperEarliestDate($A3)</f>
-        <v>41813</v>
+        <v>41855</v>
       </c>
       <c r="D3" s="231">
         <f>_xll.qlRateHelperLatestDate($A3)</f>
-        <v>42178</v>
+        <v>42220</v>
       </c>
       <c r="E3" s="232">
-        <v>0.99505951568435602</v>
+        <v>0.9950665430020077</v>
       </c>
       <c r="F3" s="195">
         <v>12</v>
       </c>
       <c r="G3" s="233">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I3)</f>
-        <v>42174</v>
+        <v>42216</v>
       </c>
       <c r="H3" s="195" t="str">
         <f>_xll.qlMakeDatedOIS(,I3,J3,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_003d8#0000</v>
+        <v>obj_003d0#0000</v>
       </c>
       <c r="I3" s="233">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F3&amp;"M","mf")</f>
-        <v>42178</v>
+        <v>42220</v>
       </c>
       <c r="J3" s="233">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I3)</f>
-        <v>42544</v>
+        <v>42586</v>
       </c>
       <c r="K3" s="232">
         <f>_xll.qlIndexFixing(IborIndex,G3,TRUE,InterestRatesTrigger)</f>
-        <v>4.7300000000000397E-3</v>
+        <v>5.3399999999999082E-3</v>
       </c>
       <c r="L3" s="232">
         <f>_xll.qlOvernightIndexedSwapFairRate(H3,Contribution!$P$25)</f>
-        <v>7.9959647703479325E-4</v>
+        <v>8.7974236081071581E-4</v>
       </c>
       <c r="M3" s="209">
         <f>ROUND(K3-L3,6)</f>
-        <v>3.9300000000000003E-3</v>
+        <v>4.4600000000000004E-3</v>
       </c>
       <c r="N3" s="232"/>
       <c r="O3" s="195" t="str">
         <f>_xll.qlSimpleQuote(,,,,EvaluationDate)</f>
-        <v>obj_0037a#0000</v>
+        <v>obj_00398#0000</v>
       </c>
       <c r="P3" s="232">
         <f>_xll.qlSimpleQuoteSetValue(O3,M3)</f>
@@ -6993,58 +7068,58 @@
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="234" t="str">
         <f>RateHelpersFra!F3</f>
-        <v>obj_003ad#0000</v>
+        <v>obj_003b0#0000</v>
       </c>
       <c r="B4" s="235">
         <f>_xll.qlRateHelperRate($A4,InterestRatesTrigger)</f>
-        <v>4.7299999999999998E-3</v>
+        <v>5.3400000000000001E-3</v>
       </c>
       <c r="C4" s="236">
         <f>_xll.qlRateHelperEarliestDate($A4)</f>
-        <v>42178</v>
+        <v>42220</v>
       </c>
       <c r="D4" s="231">
         <f>_xll.qlRateHelperLatestDate($A4)</f>
-        <v>42544</v>
+        <v>42586</v>
       </c>
       <c r="E4" s="232">
-        <v>0.99029734082190024</v>
+        <v>0.98969349700675802</v>
       </c>
       <c r="F4" s="195">
         <v>24</v>
       </c>
       <c r="G4" s="233">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I4)</f>
-        <v>42542</v>
+        <v>42584</v>
       </c>
       <c r="H4" s="195" t="str">
         <f>_xll.qlMakeDatedOIS(,I4,J4,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_003db#0000</v>
+        <v>obj_003e6#0000</v>
       </c>
       <c r="I4" s="233">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F4&amp;"M","mf")</f>
-        <v>42544</v>
+        <v>42586</v>
       </c>
       <c r="J4" s="233">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I4)</f>
-        <v>42909</v>
+        <v>42951</v>
       </c>
       <c r="K4" s="232">
         <f>_xll.qlIndexFixing(IborIndex,G4,TRUE,InterestRatesTrigger)</f>
-        <v>6.6672882402740294E-3</v>
+        <v>6.9206998476178862E-3</v>
       </c>
       <c r="L4" s="232">
         <f>_xll.qlOvernightIndexedSwapFairRate(H4,Contribution!$P$25)</f>
-        <v>2.6059270061355912E-3</v>
+        <v>2.4247936044702735E-3</v>
       </c>
       <c r="M4" s="209">
         <f>ROUND(K4-L4,6)</f>
-        <v>4.0610000000000004E-3</v>
+        <v>4.496E-3</v>
       </c>
       <c r="N4" s="232"/>
       <c r="O4" s="195" t="str">
         <f>_xll.qlSimpleQuote(,,,,EvaluationDate)</f>
-        <v>obj_00394#0000</v>
+        <v>obj_0037c#0000</v>
       </c>
       <c r="P4" s="232">
         <f>_xll.qlSimpleQuoteSetValue(O4,M4)</f>
@@ -7058,54 +7133,54 @@
       </c>
       <c r="B5" s="235">
         <f>_xll.qlRateHelperRate($A5,InterestRatesTrigger)</f>
-        <v>5.5100000000000001E-3</v>
+        <v>5.8000000000000005E-3</v>
       </c>
       <c r="C5" s="236">
         <f>_xll.qlRateHelperEarliestDate($A5)</f>
-        <v>41813</v>
+        <v>41855</v>
       </c>
       <c r="D5" s="231">
         <f>_xll.qlRateHelperLatestDate($A5)</f>
-        <v>42909</v>
+        <v>42951</v>
       </c>
       <c r="E5" s="232">
-        <v>0.98364798914201101</v>
+        <v>0.98279738399960481</v>
       </c>
       <c r="F5" s="195">
         <v>36</v>
       </c>
       <c r="G5" s="233">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I5)</f>
-        <v>42907</v>
+        <v>42949</v>
       </c>
       <c r="H5" s="195" t="str">
         <f>_xll.qlMakeDatedOIS(,I5,J5,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_003d2#0000</v>
+        <v>obj_003e9#0000</v>
       </c>
       <c r="I5" s="233">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F5&amp;"M","mf")</f>
-        <v>42909</v>
+        <v>42951</v>
       </c>
       <c r="J5" s="233">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I5)</f>
-        <v>43276</v>
+        <v>43318</v>
       </c>
       <c r="K5" s="232">
         <f>_xll.qlIndexFixing(IborIndex,G5,TRUE,InterestRatesTrigger)</f>
-        <v>1.0534342939464961E-2</v>
+        <v>9.947317562209422E-3</v>
       </c>
       <c r="L5" s="232">
         <f>_xll.qlOvernightIndexedSwapFairRate(H5,Contribution!$P$25)</f>
-        <v>5.9524112808185493E-3</v>
+        <v>4.9867859252516666E-3</v>
       </c>
       <c r="M5" s="209">
         <f>ROUND(K5-L5,6)</f>
-        <v>4.5820000000000001E-3</v>
+        <v>4.9610000000000001E-3</v>
       </c>
       <c r="N5" s="232"/>
       <c r="O5" s="195" t="str">
         <f>_xll.qlSimpleQuote(,,,,EvaluationDate)</f>
-        <v>obj_0039d#0000</v>
+        <v>obj_00382#0000</v>
       </c>
       <c r="P5" s="232">
         <f>_xll.qlSimpleQuoteSetValue(O5,M5)</f>
@@ -7115,58 +7190,58 @@
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="234" t="str">
         <f>RateHelpersFra!F5</f>
-        <v>obj_003b4#0000</v>
+        <v>obj_003b2#0000</v>
       </c>
       <c r="B6" s="235">
         <f>_xll.qlRateHelperRate($A6,InterestRatesTrigger)</f>
-        <v>6.8000000000000005E-3</v>
+        <v>6.8700000000000002E-3</v>
       </c>
       <c r="C6" s="236">
         <f>_xll.qlRateHelperEarliestDate($A6)</f>
-        <v>41813</v>
+        <v>41855</v>
       </c>
       <c r="D6" s="231">
         <f>_xll.qlRateHelperLatestDate($A6)</f>
-        <v>43276</v>
+        <v>43318</v>
       </c>
       <c r="E6" s="232">
-        <v>0.9731966576050054</v>
+        <v>0.97293114453479246</v>
       </c>
       <c r="F6" s="195">
         <v>48</v>
       </c>
       <c r="G6" s="233">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I6)</f>
-        <v>43272</v>
+        <v>43314</v>
       </c>
       <c r="H6" s="195" t="str">
         <f>_xll.qlMakeDatedOIS(,I6,J6,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_003d0#0000</v>
+        <v>obj_003e1#0000</v>
       </c>
       <c r="I6" s="233">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F6&amp;"M","mf")</f>
-        <v>43276</v>
+        <v>43318</v>
       </c>
       <c r="J6" s="233">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I6)</f>
-        <v>43641</v>
+        <v>43683</v>
       </c>
       <c r="K6" s="232">
         <f>_xll.qlIndexFixing(IborIndex,G6,TRUE,InterestRatesTrigger)</f>
-        <v>1.4981330859504488E-2</v>
+        <v>1.3380676113824817E-2</v>
       </c>
       <c r="L6" s="232">
         <f>_xll.qlOvernightIndexedSwapFairRate(H6,Contribution!$P$25)</f>
-        <v>1.0268066201661983E-2</v>
+        <v>8.3142774738503723E-3</v>
       </c>
       <c r="M6" s="209">
         <f>ROUND(K6-L6,6)</f>
-        <v>4.7130000000000002E-3</v>
+        <v>5.0660000000000002E-3</v>
       </c>
       <c r="N6" s="232"/>
       <c r="O6" s="195" t="str">
         <f>_xll.qlSimpleQuote(,,,,EvaluationDate)</f>
-        <v>obj_0039e#0000</v>
+        <v>obj_00388#0000</v>
       </c>
       <c r="P6" s="232">
         <f>_xll.qlSimpleQuoteSetValue(O6,M6)</f>
@@ -7176,22 +7251,22 @@
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="234" t="str">
         <f>RateHelpersFra!F6</f>
-        <v>obj_003ae#0000</v>
+        <v>obj_003ab#0000</v>
       </c>
       <c r="B7" s="235">
         <f>_xll.qlRateHelperRate($A7,InterestRatesTrigger)</f>
-        <v>8.4499999999999992E-3</v>
+        <v>8.1899999999999994E-3</v>
       </c>
       <c r="C7" s="236">
         <f>_xll.qlRateHelperEarliestDate($A7)</f>
-        <v>41813</v>
+        <v>41855</v>
       </c>
       <c r="D7" s="231">
         <f>_xll.qlRateHelperLatestDate($A7)</f>
-        <v>43640</v>
+        <v>43682</v>
       </c>
       <c r="E7" s="232">
-        <v>0.95867762935141565</v>
+        <v>0.95994587642995011</v>
       </c>
       <c r="G7" s="233"/>
       <c r="I7" s="233"/>
@@ -7213,31 +7288,31 @@
       </c>
       <c r="G8" s="233">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I8)</f>
-        <v>41841</v>
+        <v>41884</v>
       </c>
       <c r="H8" s="195" t="str">
         <f>_xll.qlMakeDatedOIS(,I8,J8,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_003cf#0000</v>
+        <v>obj_003e2#0000</v>
       </c>
       <c r="I8" s="233">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F8&amp;"M","mf")</f>
-        <v>41843</v>
+        <v>41886</v>
       </c>
       <c r="J8" s="233">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I8)</f>
-        <v>42208</v>
+        <v>42251</v>
       </c>
       <c r="L8" s="232">
         <f>_xll.qlOvernightIndexedSwapFairRate(H8,_xll.ohTrigger($P$2:$P$6))</f>
-        <v>3.8472252959671982E-4</v>
+        <v>5.8319572738044353E-4</v>
       </c>
       <c r="M8" s="209">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,I8,,L8)</f>
-        <v>4.4559234959839151E-3</v>
+        <v>4.3105888941423571E-3</v>
       </c>
       <c r="N8" s="232">
         <f>L8+M8</f>
-        <v>4.8406460255806345E-3</v>
+        <v>4.8937846215228002E-3</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
@@ -7253,31 +7328,31 @@
       </c>
       <c r="G9" s="233">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I9)</f>
-        <v>41872</v>
+        <v>41914</v>
       </c>
       <c r="H9" s="195" t="str">
         <f>_xll.qlMakeDatedOIS(,I9,J9,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_003fb#0000</v>
+        <v>obj_003df#0000</v>
       </c>
       <c r="I9" s="233">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F9&amp;"M","mf")</f>
-        <v>41876</v>
+        <v>41918</v>
       </c>
       <c r="J9" s="233">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I9)</f>
-        <v>42241</v>
+        <v>42283</v>
       </c>
       <c r="L9" s="232">
         <f>_xll.qlOvernightIndexedSwapFairRate(H9,_xll.ohTrigger($P$2:$P$6))</f>
-        <v>3.8806336601343507E-4</v>
+        <v>5.6139729479532134E-4</v>
       </c>
       <c r="M9" s="209">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,I9,,L9)</f>
-        <v>4.3893642242966852E-3</v>
+        <v>4.3315576780520665E-3</v>
       </c>
       <c r="N9" s="232">
         <f t="shared" ref="N9:N51" si="0">L9+M9</f>
-        <v>4.7774275903101201E-3</v>
+        <v>4.8929549728473874E-3</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
@@ -7293,31 +7368,31 @@
       </c>
       <c r="G10" s="233">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I10)</f>
-        <v>41901</v>
+        <v>41943</v>
       </c>
       <c r="H10" s="195" t="str">
         <f>_xll.qlMakeDatedOIS(,I10,J10,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_003e6#0000</v>
+        <v>obj_003f5#0000</v>
       </c>
       <c r="I10" s="233">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F10&amp;"M","mf")</f>
-        <v>41905</v>
+        <v>41947</v>
       </c>
       <c r="J10" s="233">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I10)</f>
-        <v>42270</v>
+        <v>42312</v>
       </c>
       <c r="L10" s="232">
         <f>_xll.qlOvernightIndexedSwapFairRate(H10,_xll.ohTrigger($P$2:$P$6))</f>
-        <v>3.8488046901847997E-4</v>
+        <v>5.5477231971961247E-4</v>
       </c>
       <c r="M10" s="209">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,I10,,L10)</f>
-        <v>4.331947777860925E-3</v>
+        <v>4.3500670664468775E-3</v>
       </c>
       <c r="N10" s="232">
         <f t="shared" si="0"/>
-        <v>4.7168282468794051E-3</v>
+        <v>4.9048393861664897E-3</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
@@ -7333,31 +7408,31 @@
       </c>
       <c r="G11" s="233">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I11)</f>
-        <v>41933</v>
+        <v>41975</v>
       </c>
       <c r="H11" s="195" t="str">
         <f>_xll.qlMakeDatedOIS(,I11,J11,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_003ed#0000</v>
+        <v>obj_003de#0000</v>
       </c>
       <c r="I11" s="233">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F11&amp;"M","mf")</f>
-        <v>41935</v>
+        <v>41977</v>
       </c>
       <c r="J11" s="233">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I11)</f>
-        <v>42300</v>
+        <v>42342</v>
       </c>
       <c r="L11" s="232">
         <f>_xll.qlOvernightIndexedSwapFairRate(H11,_xll.ohTrigger($P$2:$P$6))</f>
-        <v>3.9291265915406492E-4</v>
+        <v>5.4487020110172461E-4</v>
       </c>
       <c r="M11" s="209">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,I11,,L11)</f>
-        <v>4.2741360337790781E-3</v>
+        <v>4.3684792432872365E-3</v>
       </c>
       <c r="N11" s="232">
         <f t="shared" si="0"/>
-        <v>4.6670486929331432E-3</v>
+        <v>4.9133494443889614E-3</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
@@ -7373,31 +7448,31 @@
       </c>
       <c r="G12" s="233">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I12)</f>
-        <v>41963</v>
+        <v>42004</v>
       </c>
       <c r="H12" s="195" t="str">
         <f>_xll.qlMakeDatedOIS(,I12,J12,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_003ef#0000</v>
+        <v>obj_003d4#0000</v>
       </c>
       <c r="I12" s="233">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F12&amp;"M","mf")</f>
-        <v>41967</v>
+        <v>42009</v>
       </c>
       <c r="J12" s="233">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I12)</f>
-        <v>42332</v>
+        <v>42374</v>
       </c>
       <c r="L12" s="232">
         <f>_xll.qlOvernightIndexedSwapFairRate(H12,_xll.ohTrigger($P$2:$P$6))</f>
-        <v>4.200328074260501E-4</v>
+        <v>5.4515858353242693E-4</v>
       </c>
       <c r="M12" s="209">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,I12,,L12)</f>
-        <v>4.2148298396216585E-3</v>
+        <v>4.3870236839336973E-3</v>
       </c>
       <c r="N12" s="232">
         <f t="shared" si="0"/>
-        <v>4.6348626470477088E-3</v>
+        <v>4.9321822674661241E-3</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
@@ -7413,31 +7488,31 @@
       </c>
       <c r="G13" s="233">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I13)</f>
-        <v>41992</v>
+        <v>42037</v>
       </c>
       <c r="H13" s="195" t="str">
         <f>_xll.qlMakeDatedOIS(,I13,J13,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_003d3#0000</v>
+        <v>obj_003f2#0000</v>
       </c>
       <c r="I13" s="233">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F13&amp;"M","mf")</f>
-        <v>41996</v>
+        <v>42039</v>
       </c>
       <c r="J13" s="233">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I13)</f>
-        <v>42361</v>
+        <v>42404</v>
       </c>
       <c r="L13" s="232">
         <f>_xll.qlOvernightIndexedSwapFairRate(H13,_xll.ohTrigger($P$2:$P$6))</f>
-        <v>4.5507143903380885E-4</v>
+        <v>5.6470294938176563E-4</v>
       </c>
       <c r="M13" s="209">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,I13,,L13)</f>
-        <v>4.1637078293962461E-3</v>
+        <v>4.4031256423718778E-3</v>
       </c>
       <c r="N13" s="232">
         <f t="shared" si="0"/>
-        <v>4.618779268430055E-3</v>
+        <v>4.9678285917536431E-3</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
@@ -7453,31 +7528,31 @@
       </c>
       <c r="G14" s="233">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I14)</f>
-        <v>42025</v>
+        <v>42065</v>
       </c>
       <c r="H14" s="195" t="str">
         <f>_xll.qlMakeDatedOIS(,I14,J14,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_003fa#0000</v>
+        <v>obj_003f8#0000</v>
       </c>
       <c r="I14" s="233">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F14&amp;"M","mf")</f>
-        <v>42027</v>
+        <v>42067</v>
       </c>
       <c r="J14" s="233">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I14)</f>
-        <v>42394</v>
+        <v>42433</v>
       </c>
       <c r="L14" s="232">
         <f>_xll.qlOvernightIndexedSwapFairRate(H14,_xll.ohTrigger($P$2:$P$6))</f>
-        <v>4.9301082327784097E-4</v>
+        <v>5.6768791027765456E-4</v>
       </c>
       <c r="M14" s="209">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,I14,,L14)</f>
-        <v>4.1123724325042386E-3</v>
+        <v>4.4168142798438814E-3</v>
       </c>
       <c r="N14" s="232">
         <f t="shared" si="0"/>
-        <v>4.6053832557820798E-3</v>
+        <v>4.9845021901215357E-3</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
@@ -7493,31 +7568,31 @@
       </c>
       <c r="G15" s="233">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I15)</f>
-        <v>42054</v>
+        <v>42095</v>
       </c>
       <c r="H15" s="195" t="str">
         <f>_xll.qlMakeDatedOIS(,I15,J15,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_003e3#0000</v>
+        <v>obj_003d5#0000</v>
       </c>
       <c r="I15" s="233">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F15&amp;"M","mf")</f>
-        <v>42058</v>
+        <v>42101</v>
       </c>
       <c r="J15" s="233">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I15)</f>
-        <v>42423</v>
+        <v>42467</v>
       </c>
       <c r="L15" s="232">
         <f>_xll.qlOvernightIndexedSwapFairRate(H15,_xll.ohTrigger($P$2:$P$6))</f>
-        <v>5.3032678745355854E-4</v>
+        <v>6.0558330704620512E-4</v>
       </c>
       <c r="M15" s="209">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,I15,,L15)</f>
-        <v>4.0650249836967876E-3</v>
+        <v>4.4314061063038517E-3</v>
       </c>
       <c r="N15" s="232">
         <f t="shared" si="0"/>
-        <v>4.595351771150346E-3</v>
+        <v>5.0369894133500568E-3</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
@@ -7533,31 +7608,31 @@
       </c>
       <c r="G16" s="233">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I16)</f>
-        <v>42082</v>
+        <v>42123</v>
       </c>
       <c r="H16" s="195" t="str">
         <f>_xll.qlMakeDatedOIS(,I16,J16,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_003d6#0000</v>
+        <v>obj_003dc#0000</v>
       </c>
       <c r="I16" s="233">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F16&amp;"M","mf")</f>
-        <v>42086</v>
+        <v>42128</v>
       </c>
       <c r="J16" s="233">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I16)</f>
-        <v>42452</v>
+        <v>42494</v>
       </c>
       <c r="L16" s="232">
         <f>_xll.qlOvernightIndexedSwapFairRate(H16,_xll.ohTrigger($P$2:$P$6))</f>
-        <v>5.8212747171250293E-4</v>
+        <v>6.6004034680117825E-4</v>
       </c>
       <c r="M16" s="209">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,I16,,L16)</f>
-        <v>4.026167794913064E-3</v>
+        <v>4.4411877207726647E-3</v>
       </c>
       <c r="N16" s="232">
         <f t="shared" si="0"/>
-        <v>4.6082952666255672E-3</v>
+        <v>5.1012280675738434E-3</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
@@ -7573,31 +7648,31 @@
       </c>
       <c r="G17" s="233">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I17)</f>
-        <v>42115</v>
+        <v>42157</v>
       </c>
       <c r="H17" s="195" t="str">
         <f>_xll.qlMakeDatedOIS(,I17,J17,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_003fe#0000</v>
+        <v>obj_003f4#0000</v>
       </c>
       <c r="I17" s="233">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F17&amp;"M","mf")</f>
-        <v>42117</v>
+        <v>42159</v>
       </c>
       <c r="J17" s="233">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I17)</f>
-        <v>42485</v>
+        <v>42527</v>
       </c>
       <c r="L17" s="232">
         <f>_xll.qlOvernightIndexedSwapFairRate(H17,_xll.ohTrigger($P$2:$P$6))</f>
-        <v>6.4345585133151551E-4</v>
+        <v>7.3330413497549687E-4</v>
       </c>
       <c r="M17" s="209">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,I17,,L17)</f>
-        <v>3.9880063326416552E-3</v>
+        <v>4.4501987377632357E-3</v>
       </c>
       <c r="N17" s="232">
         <f t="shared" si="0"/>
-        <v>4.6314621839731712E-3</v>
+        <v>5.1835028727387324E-3</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
@@ -7613,31 +7688,31 @@
       </c>
       <c r="G18" s="233">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I18)</f>
-        <v>42145</v>
+        <v>42187</v>
       </c>
       <c r="H18" s="195" t="str">
         <f>_xll.qlMakeDatedOIS(,I18,J18,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_003e1#0000</v>
+        <v>obj_003ec#0000</v>
       </c>
       <c r="I18" s="233">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F18&amp;"M","mf")</f>
-        <v>42149</v>
+        <v>42191</v>
       </c>
       <c r="J18" s="233">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I18)</f>
-        <v>42515</v>
+        <v>42557</v>
       </c>
       <c r="L18" s="232">
         <f>_xll.qlOvernightIndexedSwapFairRate(H18,_xll.ohTrigger($P$2:$P$6))</f>
-        <v>7.1293163160248123E-4</v>
+        <v>8.0679246797474714E-4</v>
       </c>
       <c r="M18" s="209">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,I18,,L18)</f>
-        <v>3.9545625598744359E-3</v>
+        <v>4.4567394031170705E-3</v>
       </c>
       <c r="N18" s="232">
         <f t="shared" si="0"/>
-        <v>4.6674941914769171E-3</v>
+        <v>5.2635318710918177E-3</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
@@ -7653,31 +7728,31 @@
       </c>
       <c r="G19" s="233">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I19)</f>
-        <v>42206</v>
+        <v>42249</v>
       </c>
       <c r="H19" s="195" t="str">
         <f>_xll.qlMakeDatedOIS(,I19,J19,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_003eb#0000</v>
+        <v>obj_003d1#0000</v>
       </c>
       <c r="I19" s="233">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F19&amp;"M","mf")</f>
-        <v>42208</v>
+        <v>42251</v>
       </c>
       <c r="J19" s="233">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I19)</f>
-        <v>42576</v>
+        <v>42618</v>
       </c>
       <c r="L19" s="232">
         <f>_xll.qlOvernightIndexedSwapFairRate(H19,_xll.ohTrigger($P$2:$P$6))</f>
-        <v>8.96635218434701E-4</v>
+        <v>9.7049303312948907E-4</v>
       </c>
       <c r="M19" s="209">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,I19,,L19)</f>
-        <v>3.9107345177362409E-3</v>
+        <v>4.4617375572690117E-3</v>
       </c>
       <c r="N19" s="232">
         <f t="shared" si="0"/>
-        <v>4.8073697361709416E-3</v>
+        <v>5.4322305903985006E-3</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
@@ -7693,31 +7768,31 @@
       </c>
       <c r="G20" s="233">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I20)</f>
-        <v>42236</v>
+        <v>42278</v>
       </c>
       <c r="H20" s="195" t="str">
         <f>_xll.qlMakeDatedOIS(,I20,J20,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_003e5#0000</v>
+        <v>obj_003d9#0000</v>
       </c>
       <c r="I20" s="233">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F20&amp;"M","mf")</f>
-        <v>42240</v>
+        <v>42282</v>
       </c>
       <c r="J20" s="233">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I20)</f>
-        <v>42606</v>
+        <v>42648</v>
       </c>
       <c r="L20" s="232">
         <f>_xll.qlOvernightIndexedSwapFairRate(H20,_xll.ohTrigger($P$2:$P$6))</f>
-        <v>9.9540371570082495E-4</v>
+        <v>1.0691512645746271E-3</v>
       </c>
       <c r="M20" s="209">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,I20,,L20)</f>
-        <v>3.8969467098230203E-3</v>
+        <v>4.4630006881353993E-3</v>
       </c>
       <c r="N20" s="232">
         <f t="shared" si="0"/>
-        <v>4.8923504255238455E-3</v>
+        <v>5.5321519527100262E-3</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
@@ -7733,31 +7808,31 @@
       </c>
       <c r="G21" s="233">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I21)</f>
-        <v>42268</v>
+        <v>42310</v>
       </c>
       <c r="H21" s="195" t="str">
         <f>_xll.qlMakeDatedOIS(,I21,J21,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_003ec#0000</v>
+        <v>obj_003ce#0000</v>
       </c>
       <c r="I21" s="233">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F21&amp;"M","mf")</f>
-        <v>42270</v>
+        <v>42312</v>
       </c>
       <c r="J21" s="233">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I21)</f>
-        <v>42636</v>
+        <v>42678</v>
       </c>
       <c r="L21" s="232">
         <f>_xll.qlOvernightIndexedSwapFairRate(H21,_xll.ohTrigger($P$2:$P$6))</f>
-        <v>1.100113009393973E-3</v>
+        <v>1.1750149441667774E-3</v>
       </c>
       <c r="M21" s="209">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,I21,,L21)</f>
-        <v>3.8901170058177159E-3</v>
+        <v>4.463978006389686E-3</v>
       </c>
       <c r="N21" s="232">
         <f t="shared" si="0"/>
-        <v>4.9902300152116887E-3</v>
+        <v>5.6389929505564632E-3</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
@@ -7773,31 +7848,31 @@
       </c>
       <c r="G22" s="233">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I22)</f>
-        <v>42298</v>
+        <v>42340</v>
       </c>
       <c r="H22" s="195" t="str">
         <f>_xll.qlMakeDatedOIS(,I22,J22,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_003f5#0000</v>
+        <v>obj_003eb#0000</v>
       </c>
       <c r="I22" s="233">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F22&amp;"M","mf")</f>
-        <v>42300</v>
+        <v>42342</v>
       </c>
       <c r="J22" s="233">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I22)</f>
-        <v>42667</v>
+        <v>42709</v>
       </c>
       <c r="L22" s="232">
         <f>_xll.qlOvernightIndexedSwapFairRate(H22,_xll.ohTrigger($P$2:$P$6))</f>
-        <v>1.2200688605513964E-3</v>
+        <v>1.2896549237124228E-3</v>
       </c>
       <c r="M22" s="209">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,I22,,L22)</f>
-        <v>3.8889518045365063E-3</v>
+        <v>4.4649153292470574E-3</v>
       </c>
       <c r="N22" s="232">
         <f t="shared" si="0"/>
-        <v>5.1090206650879029E-3</v>
+        <v>5.7545702529594803E-3</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
@@ -7813,31 +7888,31 @@
       </c>
       <c r="G23" s="233">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I23)</f>
-        <v>42327</v>
+        <v>42368</v>
       </c>
       <c r="H23" s="195" t="str">
         <f>_xll.qlMakeDatedOIS(,I23,J23,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_003f0#0000</v>
+        <v>obj_003d8#0000</v>
       </c>
       <c r="I23" s="233">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F23&amp;"M","mf")</f>
-        <v>42331</v>
+        <v>42373</v>
       </c>
       <c r="J23" s="233">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I23)</f>
-        <v>42697</v>
+        <v>42739</v>
       </c>
       <c r="L23" s="232">
         <f>_xll.qlOvernightIndexedSwapFairRate(H23,_xll.ohTrigger($P$2:$P$6))</f>
-        <v>1.352628538835334E-3</v>
+        <v>1.4097323418373485E-3</v>
       </c>
       <c r="M23" s="209">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,I23,,L23)</f>
-        <v>3.8934542266524006E-3</v>
+        <v>4.4660530967637838E-3</v>
       </c>
       <c r="N23" s="232">
         <f t="shared" si="0"/>
-        <v>5.2460827654877348E-3</v>
+        <v>5.8757854386011325E-3</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
@@ -7853,31 +7928,31 @@
       </c>
       <c r="G24" s="233">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I24)</f>
-        <v>42359</v>
+        <v>42402</v>
       </c>
       <c r="H24" s="195" t="str">
         <f>_xll.qlMakeDatedOIS(,I24,J24,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_003fd#0000</v>
+        <v>obj_003f7#0000</v>
       </c>
       <c r="I24" s="233">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F24&amp;"M","mf")</f>
-        <v>42361</v>
+        <v>42404</v>
       </c>
       <c r="J24" s="233">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I24)</f>
-        <v>42727</v>
+        <v>42772</v>
       </c>
       <c r="L24" s="232">
         <f>_xll.qlOvernightIndexedSwapFairRate(H24,_xll.ohTrigger($P$2:$P$6))</f>
-        <v>1.495749974434641E-3</v>
+        <v>1.5415585174337273E-3</v>
       </c>
       <c r="M24" s="209">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,I24,,L24)</f>
-        <v>3.9030972661903925E-3</v>
+        <v>4.4675798782910564E-3</v>
       </c>
       <c r="N24" s="232">
         <f t="shared" si="0"/>
-        <v>5.3988472406250338E-3</v>
+        <v>6.0091383957247835E-3</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
@@ -7893,31 +7968,31 @@
       </c>
       <c r="G25" s="233">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I25)</f>
-        <v>42390</v>
+        <v>42431</v>
       </c>
       <c r="H25" s="195" t="str">
         <f>_xll.qlMakeDatedOIS(,I25,J25,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_003dd#0000</v>
+        <v>obj_003f9#0000</v>
       </c>
       <c r="I25" s="233">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F25&amp;"M","mf")</f>
-        <v>42394</v>
+        <v>42433</v>
       </c>
       <c r="J25" s="233">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I25)</f>
-        <v>42760</v>
+        <v>42800</v>
       </c>
       <c r="L25" s="232">
         <f>_xll.qlOvernightIndexedSwapFairRate(H25,_xll.ohTrigger($P$2:$P$6))</f>
-        <v>1.6664959882866021E-3</v>
+        <v>1.6623580260372378E-3</v>
       </c>
       <c r="M25" s="209">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,I25,,L25)</f>
-        <v>3.9194321207613181E-3</v>
+        <v>4.4695546866697199E-3</v>
       </c>
       <c r="N25" s="232">
         <f t="shared" si="0"/>
-        <v>5.5859281090479204E-3</v>
+        <v>6.1319127127069575E-3</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
@@ -7933,31 +8008,31 @@
       </c>
       <c r="G26" s="233">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I26)</f>
-        <v>42419</v>
+        <v>42460</v>
       </c>
       <c r="H26" s="195" t="str">
         <f>_xll.qlMakeDatedOIS(,I26,J26,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_003ea#0000</v>
+        <v>obj_003f0#0000</v>
       </c>
       <c r="I26" s="233">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F26&amp;"M","mf")</f>
-        <v>42423</v>
+        <v>42464</v>
       </c>
       <c r="J26" s="233">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I26)</f>
-        <v>42789</v>
+        <v>42829</v>
       </c>
       <c r="L26" s="232">
         <f>_xll.qlOvernightIndexedSwapFairRate(H26,_xll.ohTrigger($P$2:$P$6))</f>
-        <v>1.8277340344831795E-3</v>
+        <v>1.7948005088966529E-3</v>
       </c>
       <c r="M26" s="209">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,I26,,L26)</f>
-        <v>3.9385054222559916E-3</v>
+        <v>4.472457664623529E-3</v>
       </c>
       <c r="N26" s="232">
         <f t="shared" si="0"/>
-        <v>5.7662394567391711E-3</v>
+        <v>6.2672581735201821E-3</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
@@ -7973,31 +8048,31 @@
       </c>
       <c r="G27" s="233">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I27)</f>
-        <v>42450</v>
+        <v>42492</v>
       </c>
       <c r="H27" s="195" t="str">
         <f>_xll.qlMakeDatedOIS(,I27,J27,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_003f6#0000</v>
+        <v>obj_003fe#0000</v>
       </c>
       <c r="I27" s="233">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F27&amp;"M","mf")</f>
-        <v>42452</v>
+        <v>42494</v>
       </c>
       <c r="J27" s="233">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I27)</f>
-        <v>42817</v>
+        <v>42859</v>
       </c>
       <c r="L27" s="232">
         <f>_xll.qlOvernightIndexedSwapFairRate(H27,_xll.ohTrigger($P$2:$P$6))</f>
-        <v>1.99580614672325E-3</v>
+        <v>1.9358122655366962E-3</v>
       </c>
       <c r="M27" s="209">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,I27,,L27)</f>
-        <v>3.9617753400945192E-3</v>
+        <v>4.4762483584816441E-3</v>
       </c>
       <c r="N27" s="232">
         <f t="shared" si="0"/>
-        <v>5.9575814868177692E-3</v>
+        <v>6.4120606240183403E-3</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
@@ -8013,31 +8088,31 @@
       </c>
       <c r="G28" s="233">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I28)</f>
-        <v>42481</v>
+        <v>42523</v>
       </c>
       <c r="H28" s="195" t="str">
         <f>_xll.qlMakeDatedOIS(,I28,J28,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_003f1#0000</v>
+        <v>obj_003e4#0000</v>
       </c>
       <c r="I28" s="233">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F28&amp;"M","mf")</f>
-        <v>42485</v>
+        <v>42527</v>
       </c>
       <c r="J28" s="233">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I28)</f>
-        <v>42850</v>
+        <v>42892</v>
       </c>
       <c r="L28" s="232">
         <f>_xll.qlOvernightIndexedSwapFairRate(H28,_xll.ohTrigger($P$2:$P$6))</f>
-        <v>2.2029940510765039E-3</v>
+        <v>2.1019409195897217E-3</v>
       </c>
       <c r="M28" s="209">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,I28,,L28)</f>
-        <v>3.9930952587327369E-3</v>
+        <v>4.4817728838207364E-3</v>
       </c>
       <c r="N28" s="232">
         <f t="shared" si="0"/>
-        <v>6.1960893098092409E-3</v>
+        <v>6.5837138034104577E-3</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
@@ -8053,31 +8128,31 @@
       </c>
       <c r="G29" s="233">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I29)</f>
-        <v>42509</v>
+        <v>42551</v>
       </c>
       <c r="H29" s="195" t="str">
         <f>_xll.qlMakeDatedOIS(,I29,J29,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_003f9#0000</v>
+        <v>obj_003e8#0000</v>
       </c>
       <c r="I29" s="233">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F29&amp;"M","mf")</f>
-        <v>42513</v>
+        <v>42555</v>
       </c>
       <c r="J29" s="233">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I29)</f>
-        <v>42878</v>
+        <v>42920</v>
       </c>
       <c r="L29" s="232">
         <f>_xll.qlOvernightIndexedSwapFairRate(H29,_xll.ohTrigger($P$2:$P$6))</f>
-        <v>2.3890081904913408E-3</v>
+        <v>2.2513849785750157E-3</v>
       </c>
       <c r="M29" s="209">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,I29,,L29)</f>
-        <v>4.0234921305162558E-3</v>
+        <v>4.4877641405724972E-3</v>
       </c>
       <c r="N29" s="232">
         <f t="shared" si="0"/>
-        <v>6.412500321007597E-3</v>
+        <v>6.7391491191475129E-3</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
@@ -8093,31 +8168,31 @@
       </c>
       <c r="G30" s="233">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I30)</f>
-        <v>42572</v>
+        <v>42614</v>
       </c>
       <c r="H30" s="195" t="str">
         <f>_xll.qlMakeDatedOIS(,I30,J30,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_003d9#0000</v>
+        <v>obj_003da#0000</v>
       </c>
       <c r="I30" s="233">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F30&amp;"M","mf")</f>
-        <v>42576</v>
+        <v>42618</v>
       </c>
       <c r="J30" s="233">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I30)</f>
-        <v>42941</v>
+        <v>42983</v>
       </c>
       <c r="L30" s="232">
         <f>_xll.qlOvernightIndexedSwapFairRate(H30,_xll.ohTrigger($P$2:$P$6))</f>
-        <v>2.8419093213438687E-3</v>
+        <v>2.6115238729569885E-3</v>
       </c>
       <c r="M30" s="209">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,I30,,L30)</f>
-        <v>4.1036123781007811E-3</v>
+        <v>4.5117582652706295E-3</v>
       </c>
       <c r="N30" s="232">
         <f t="shared" si="0"/>
-        <v>6.9455216994446494E-3</v>
+        <v>7.1232821382276185E-3</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
@@ -8133,31 +8208,31 @@
       </c>
       <c r="G31" s="233">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I31)</f>
-        <v>42601</v>
+        <v>42643</v>
       </c>
       <c r="H31" s="195" t="str">
         <f>_xll.qlMakeDatedOIS(,I31,J31,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_003e8#0000</v>
+        <v>obj_003fb#0000</v>
       </c>
       <c r="I31" s="233">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F31&amp;"M","mf")</f>
-        <v>42605</v>
+        <v>42647</v>
       </c>
       <c r="J31" s="233">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I31)</f>
-        <v>42970</v>
+        <v>43012</v>
       </c>
       <c r="L31" s="232">
         <f>_xll.qlOvernightIndexedSwapFairRate(H31,_xll.ohTrigger($P$2:$P$6))</f>
-        <v>3.06611358619182E-3</v>
+        <v>2.7872591922223798E-3</v>
       </c>
       <c r="M31" s="209">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,I31,,L31)</f>
-        <v>4.1450303585462128E-3</v>
+        <v>4.5358201583888804E-3</v>
       </c>
       <c r="N31" s="232">
         <f t="shared" si="0"/>
-        <v>7.2111439447380323E-3</v>
+        <v>7.3230793506112602E-3</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
@@ -8173,31 +8248,31 @@
       </c>
       <c r="G32" s="233">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I32)</f>
-        <v>42634</v>
+        <v>42676</v>
       </c>
       <c r="H32" s="195" t="str">
         <f>_xll.qlMakeDatedOIS(,I32,J32,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_003f4#0000</v>
+        <v>obj_003e0#0000</v>
       </c>
       <c r="I32" s="233">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F32&amp;"M","mf")</f>
-        <v>42636</v>
+        <v>42678</v>
       </c>
       <c r="J32" s="233">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I32)</f>
-        <v>43003</v>
+        <v>43045</v>
       </c>
       <c r="L32" s="232">
         <f>_xll.qlOvernightIndexedSwapFairRate(H32,_xll.ohTrigger($P$2:$P$6))</f>
-        <v>3.3253172799378294E-3</v>
+        <v>2.9887060234770079E-3</v>
       </c>
       <c r="M32" s="209">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,I32,,L32)</f>
-        <v>4.1915200763198088E-3</v>
+        <v>4.5700343808848017E-3</v>
       </c>
       <c r="N32" s="232">
         <f t="shared" si="0"/>
-        <v>7.5168373562576381E-3</v>
+        <v>7.5587404043618092E-3</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
@@ -8213,31 +8288,31 @@
       </c>
       <c r="G33" s="233">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I33)</f>
-        <v>42663</v>
+        <v>42705</v>
       </c>
       <c r="H33" s="195" t="str">
         <f>_xll.qlMakeDatedOIS(,I33,J33,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_003e9#0000</v>
+        <v>obj_003e5#0000</v>
       </c>
       <c r="I33" s="233">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F33&amp;"M","mf")</f>
-        <v>42667</v>
+        <v>42709</v>
       </c>
       <c r="J33" s="233">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I33)</f>
-        <v>43032</v>
+        <v>43074</v>
       </c>
       <c r="L33" s="232">
         <f>_xll.qlOvernightIndexedSwapFairRate(H33,_xll.ohTrigger($P$2:$P$6))</f>
-        <v>3.5771756530023186E-3</v>
+        <v>3.1832862943291843E-3</v>
       </c>
       <c r="M33" s="209">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,I33,,L33)</f>
-        <v>4.2395535951823332E-3</v>
+        <v>4.6111937752941765E-3</v>
       </c>
       <c r="N33" s="232">
         <f t="shared" si="0"/>
-        <v>7.8167292481846513E-3</v>
+        <v>7.7944800696233604E-3</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
@@ -8253,31 +8328,31 @@
       </c>
       <c r="G34" s="233">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I34)</f>
-        <v>42695</v>
+        <v>42737</v>
       </c>
       <c r="H34" s="195" t="str">
         <f>_xll.qlMakeDatedOIS(,I34,J34,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_003ee#0000</v>
+        <v>obj_003ed#0000</v>
       </c>
       <c r="I34" s="233">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F34&amp;"M","mf")</f>
-        <v>42697</v>
+        <v>42739</v>
       </c>
       <c r="J34" s="233">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I34)</f>
-        <v>43062</v>
+        <v>43104</v>
       </c>
       <c r="L34" s="232">
         <f>_xll.qlOvernightIndexedSwapFairRate(H34,_xll.ohTrigger($P$2:$P$6))</f>
-        <v>3.8393758206701606E-3</v>
+        <v>3.3846352758441665E-3</v>
       </c>
       <c r="M34" s="209">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,I34,,L34)</f>
-        <v>4.2867900615960004E-3</v>
+        <v>4.6558758425456013E-3</v>
       </c>
       <c r="N34" s="232">
         <f t="shared" si="0"/>
-        <v>8.1261658822661606E-3</v>
+        <v>8.0405111183897669E-3</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.2">
@@ -8293,7 +8368,7 @@
       </c>
       <c r="G35" s="233">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I35)</f>
-        <v>42725</v>
+        <v>42768</v>
       </c>
       <c r="H35" s="195" t="str">
         <f>_xll.qlMakeDatedOIS(,I35,J35,OvernightIndex,0,"Act/360",0)</f>
@@ -8301,23 +8376,23 @@
       </c>
       <c r="I35" s="233">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F35&amp;"M","mf")</f>
-        <v>42727</v>
+        <v>42772</v>
       </c>
       <c r="J35" s="233">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I35)</f>
-        <v>43096</v>
+        <v>43137</v>
       </c>
       <c r="L35" s="232">
         <f>_xll.qlOvernightIndexedSwapFairRate(H35,_xll.ohTrigger($P$2:$P$6))</f>
-        <v>4.1306335614239957E-3</v>
+        <v>3.6132751331859666E-3</v>
       </c>
       <c r="M35" s="209">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,I35,,L35)</f>
-        <v>4.3340685539050936E-3</v>
+        <v>4.7084908326948402E-3</v>
       </c>
       <c r="N35" s="232">
         <f t="shared" si="0"/>
-        <v>8.4647021153290893E-3</v>
+        <v>8.3217659658808077E-3</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
@@ -8333,31 +8408,31 @@
       </c>
       <c r="G36" s="233">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I36)</f>
-        <v>42754</v>
+        <v>42796</v>
       </c>
       <c r="H36" s="195" t="str">
         <f>_xll.qlMakeDatedOIS(,I36,J36,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_003d7#0000</v>
+        <v>obj_003f6#0000</v>
       </c>
       <c r="I36" s="233">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F36&amp;"M","mf")</f>
-        <v>42758</v>
+        <v>42800</v>
       </c>
       <c r="J36" s="233">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I36)</f>
-        <v>43123</v>
+        <v>43165</v>
       </c>
       <c r="L36" s="232">
         <f>_xll.qlOvernightIndexedSwapFairRate(H36,_xll.ohTrigger($P$2:$P$6))</f>
-        <v>4.4009580670664747E-3</v>
+        <v>3.8130511579522056E-3</v>
       </c>
       <c r="M36" s="209">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,I36,,L36)</f>
-        <v>4.3822338006020579E-3</v>
+        <v>4.7543533222937423E-3</v>
       </c>
       <c r="N36" s="232">
         <f t="shared" si="0"/>
-        <v>8.7831918676685335E-3</v>
+        <v>8.5674044802459479E-3</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.2">
@@ -8373,31 +8448,31 @@
       </c>
       <c r="G37" s="233">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I37)</f>
-        <v>42787</v>
+        <v>42825</v>
       </c>
       <c r="H37" s="195" t="str">
         <f>_xll.qlMakeDatedOIS(,I37,J37,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_003f3#0000</v>
+        <v>obj_003cf#0000</v>
       </c>
       <c r="I37" s="233">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F37&amp;"M","mf")</f>
-        <v>42789</v>
+        <v>42829</v>
       </c>
       <c r="J37" s="233">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I37)</f>
-        <v>43154</v>
+        <v>43194</v>
       </c>
       <c r="L37" s="232">
         <f>_xll.qlOvernightIndexedSwapFairRate(H37,_xll.ohTrigger($P$2:$P$6))</f>
-        <v>4.700330120883855E-3</v>
+        <v>4.0254584375903069E-3</v>
       </c>
       <c r="M37" s="209">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,I37,,L37)</f>
-        <v>4.4289449948445468E-3</v>
+        <v>4.8014766848079931E-3</v>
       </c>
       <c r="N37" s="232">
         <f t="shared" si="0"/>
-        <v>9.1292751157284018E-3</v>
+        <v>8.8269351223983009E-3</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.2">
@@ -8413,31 +8488,31 @@
       </c>
       <c r="G38" s="233">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I38)</f>
-        <v>42815</v>
+        <v>42857</v>
       </c>
       <c r="H38" s="195" t="str">
         <f>_xll.qlMakeDatedOIS(,I38,J38,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_003fc#0000</v>
+        <v>obj_003f1#0000</v>
       </c>
       <c r="I38" s="233">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F38&amp;"M","mf")</f>
-        <v>42817</v>
+        <v>42859</v>
       </c>
       <c r="J38" s="233">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I38)</f>
-        <v>43182</v>
+        <v>43224</v>
       </c>
       <c r="L38" s="232">
         <f>_xll.qlOvernightIndexedSwapFairRate(H38,_xll.ohTrigger($P$2:$P$6))</f>
-        <v>4.9784651985772732E-3</v>
+        <v>4.2509760861744912E-3</v>
       </c>
       <c r="M38" s="209">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,I38,,L38)</f>
-        <v>4.4692523423885576E-3</v>
+        <v>4.8482093149734232E-3</v>
       </c>
       <c r="N38" s="232">
         <f t="shared" si="0"/>
-        <v>9.4477175409658307E-3</v>
+        <v>9.0991854011479145E-3</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.2">
@@ -8453,31 +8528,31 @@
       </c>
       <c r="G39" s="233">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I39)</f>
-        <v>42845</v>
+        <v>42887</v>
       </c>
       <c r="H39" s="195" t="str">
         <f>_xll.qlMakeDatedOIS(,I39,J39,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_003f2#0000</v>
+        <v>obj_003ef#0000</v>
       </c>
       <c r="I39" s="233">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F39&amp;"M","mf")</f>
-        <v>42849</v>
+        <v>42891</v>
       </c>
       <c r="J39" s="233">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I39)</f>
-        <v>43214</v>
+        <v>43256</v>
       </c>
       <c r="L39" s="232">
         <f>_xll.qlOvernightIndexedSwapFairRate(H39,_xll.ohTrigger($P$2:$P$6))</f>
-        <v>5.3050038613014303E-3</v>
+        <v>4.4978971764945636E-3</v>
       </c>
       <c r="M39" s="209">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,I39,,L39)</f>
-        <v>4.5123843406986762E-3</v>
+        <v>4.89390820342609E-3</v>
       </c>
       <c r="N39" s="232">
         <f t="shared" si="0"/>
-        <v>9.8173882020001074E-3</v>
+        <v>9.3918053799206536E-3</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.2">
@@ -8493,31 +8568,31 @@
       </c>
       <c r="G40" s="233">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I40)</f>
-        <v>42874</v>
+        <v>42916</v>
       </c>
       <c r="H40" s="195" t="str">
         <f>_xll.qlMakeDatedOIS(,I40,J40,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_003ff#0000</v>
+        <v>obj_003d7#0000</v>
       </c>
       <c r="I40" s="233">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F40&amp;"M","mf")</f>
-        <v>42878</v>
+        <v>42920</v>
       </c>
       <c r="J40" s="233">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I40)</f>
-        <v>43243</v>
+        <v>43285</v>
       </c>
       <c r="L40" s="232">
         <f>_xll.qlOvernightIndexedSwapFairRate(H40,_xll.ohTrigger($P$2:$P$6))</f>
-        <v>5.6086298138008838E-3</v>
+        <v>4.7272442048062573E-3</v>
       </c>
       <c r="M40" s="209">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,I40,,L40)</f>
-        <v>4.5480989276604029E-3</v>
+        <v>4.9299381404880006E-3</v>
       </c>
       <c r="N40" s="232">
         <f t="shared" si="0"/>
-        <v>1.0156728741461287E-2</v>
+        <v>9.6571823452942587E-3</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.2">
@@ -8533,31 +8608,31 @@
       </c>
       <c r="G41" s="233">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I41)</f>
-        <v>42936</v>
+        <v>42978</v>
       </c>
       <c r="H41" s="195" t="str">
         <f>_xll.qlMakeDatedOIS(,I41,J41,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_003d4#0000</v>
+        <v>obj_003f3#0000</v>
       </c>
       <c r="I41" s="233">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F41&amp;"M","mf")</f>
-        <v>42940</v>
+        <v>42982</v>
       </c>
       <c r="J41" s="233">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I41)</f>
-        <v>43305</v>
+        <v>43347</v>
       </c>
       <c r="L41" s="232">
         <f>_xll.qlOvernightIndexedSwapFairRate(H41,_xll.ohTrigger($P$2:$P$6))</f>
-        <v>6.2810076972025829E-3</v>
+        <v>5.2348847201581575E-3</v>
       </c>
       <c r="M41" s="209">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,I41,,L41)</f>
-        <v>4.6109362266408827E-3</v>
+        <v>4.9854233999111043E-3</v>
       </c>
       <c r="N41" s="232">
         <f t="shared" si="0"/>
-        <v>1.0891943923843465E-2</v>
+        <v>1.0220308120069261E-2</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.2">
@@ -8573,31 +8648,31 @@
       </c>
       <c r="G42" s="233">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I42)</f>
-        <v>42968</v>
+        <v>43010</v>
       </c>
       <c r="H42" s="195" t="str">
         <f>_xll.qlMakeDatedOIS(,I42,J42,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_003dc#0000</v>
+        <v>obj_003ee#0000</v>
       </c>
       <c r="I42" s="233">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F42&amp;"M","mf")</f>
-        <v>42970</v>
+        <v>43012</v>
       </c>
       <c r="J42" s="233">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I42)</f>
-        <v>43335</v>
+        <v>43377</v>
       </c>
       <c r="L42" s="232">
         <f>_xll.qlOvernightIndexedSwapFairRate(H42,_xll.ohTrigger($P$2:$P$6))</f>
-        <v>6.6167918873702106E-3</v>
+        <v>5.4886287170362123E-3</v>
       </c>
       <c r="M42" s="209">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,I42,,L42)</f>
-        <v>4.6344326164203444E-3</v>
+        <v>5.0051367154564956E-3</v>
       </c>
       <c r="N42" s="232">
         <f t="shared" si="0"/>
-        <v>1.1251224503790555E-2</v>
+        <v>1.0493765432492707E-2</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.2">
@@ -8613,31 +8688,31 @@
       </c>
       <c r="G43" s="233">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I43)</f>
-        <v>42999</v>
+        <v>43041</v>
       </c>
       <c r="H43" s="195" t="str">
         <f>_xll.qlMakeDatedOIS(,I43,J43,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_003e2#0000</v>
+        <v>obj_003dd#0000</v>
       </c>
       <c r="I43" s="233">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F43&amp;"M","mf")</f>
-        <v>43003</v>
+        <v>43045</v>
       </c>
       <c r="J43" s="233">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I43)</f>
-        <v>43368</v>
+        <v>43410</v>
       </c>
       <c r="L43" s="232">
         <f>_xll.qlOvernightIndexedSwapFairRate(H43,_xll.ohTrigger($P$2:$P$6))</f>
-        <v>6.993011069266657E-3</v>
+        <v>5.7734565494211212E-3</v>
       </c>
       <c r="M43" s="209">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,I43,,L43)</f>
-        <v>4.6556360154470173E-3</v>
+        <v>5.022780568751147E-3</v>
       </c>
       <c r="N43" s="232">
         <f t="shared" si="0"/>
-        <v>1.1648647084713675E-2</v>
+        <v>1.0796237118172267E-2</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.2">
@@ -8653,31 +8728,31 @@
       </c>
       <c r="G44" s="233">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I44)</f>
-        <v>43027</v>
+        <v>43069</v>
       </c>
       <c r="H44" s="195" t="str">
         <f>_xll.qlMakeDatedOIS(,I44,J44,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_003f8#0000</v>
+        <v>obj_003ea#0000</v>
       </c>
       <c r="I44" s="233">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F44&amp;"M","mf")</f>
-        <v>43031</v>
+        <v>43073</v>
       </c>
       <c r="J44" s="233">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I44)</f>
-        <v>43396</v>
+        <v>43438</v>
       </c>
       <c r="L44" s="232">
         <f>_xll.qlOvernightIndexedSwapFairRate(H44,_xll.ohTrigger($P$2:$P$6))</f>
-        <v>7.3172373565750645E-3</v>
+        <v>6.0195710570475191E-3</v>
       </c>
       <c r="M44" s="209">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,I44,,L44)</f>
-        <v>4.6701919617384482E-3</v>
+        <v>5.0347615584417369E-3</v>
       </c>
       <c r="N44" s="232">
         <f t="shared" si="0"/>
-        <v>1.1987429318313512E-2</v>
+        <v>1.1054332615489257E-2</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.2">
@@ -8693,31 +8768,31 @@
       </c>
       <c r="G45" s="233">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I45)</f>
-        <v>43060</v>
+        <v>43102</v>
       </c>
       <c r="H45" s="195" t="str">
         <f>_xll.qlMakeDatedOIS(,I45,J45,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_003f7#0000</v>
+        <v>obj_003e3#0000</v>
       </c>
       <c r="I45" s="233">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F45&amp;"M","mf")</f>
-        <v>43062</v>
+        <v>43104</v>
       </c>
       <c r="J45" s="233">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I45)</f>
-        <v>43427</v>
+        <v>43469</v>
       </c>
       <c r="L45" s="232">
         <f>_xll.qlOvernightIndexedSwapFairRate(H45,_xll.ohTrigger($P$2:$P$6))</f>
-        <v>7.6808917767991975E-3</v>
+        <v>6.296543201140997E-3</v>
       </c>
       <c r="M45" s="209">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,I45,,L45)</f>
-        <v>4.6830399913460911E-3</v>
+        <v>5.0451823153077465E-3</v>
       </c>
       <c r="N45" s="232">
         <f t="shared" si="0"/>
-        <v>1.2363931768145289E-2</v>
+        <v>1.1341725516448744E-2</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.2">
@@ -8733,31 +8808,31 @@
       </c>
       <c r="G46" s="233">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I46)</f>
-        <v>43090</v>
+        <v>43132</v>
       </c>
       <c r="H46" s="195" t="str">
         <f>_xll.qlMakeDatedOIS(,I46,J46,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_003d5#0000</v>
+        <v>obj_003d3#0000</v>
       </c>
       <c r="I46" s="233">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F46&amp;"M","mf")</f>
-        <v>43096</v>
+        <v>43136</v>
       </c>
       <c r="J46" s="233">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I46)</f>
-        <v>43461</v>
+        <v>43501</v>
       </c>
       <c r="L46" s="232">
         <f>_xll.qlOvernightIndexedSwapFairRate(H46,_xll.ohTrigger($P$2:$P$6))</f>
-        <v>8.0845790293491634E-3</v>
+        <v>6.5871036117383609E-3</v>
       </c>
       <c r="M46" s="209">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,I46,,L46)</f>
-        <v>4.6936848523593542E-3</v>
+        <v>5.0531942425929323E-3</v>
       </c>
       <c r="N46" s="232">
         <f t="shared" si="0"/>
-        <v>1.2778263881708517E-2</v>
+        <v>1.1640297854331294E-2</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.2">
@@ -8773,31 +8848,31 @@
       </c>
       <c r="G47" s="233">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I47)</f>
-        <v>43119</v>
+        <v>43160</v>
       </c>
       <c r="H47" s="195" t="str">
         <f>_xll.qlMakeDatedOIS(,I47,J47,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_003df#0000</v>
+        <v>obj_003db#0000</v>
       </c>
       <c r="I47" s="233">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F47&amp;"M","mf")</f>
-        <v>43123</v>
+        <v>43164</v>
       </c>
       <c r="J47" s="233">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I47)</f>
-        <v>43488</v>
+        <v>43529</v>
       </c>
       <c r="L47" s="232">
         <f>_xll.qlOvernightIndexedSwapFairRate(H47,_xll.ohTrigger($P$2:$P$6))</f>
-        <v>8.4081517488634946E-3</v>
+        <v>6.8449772971989654E-3</v>
       </c>
       <c r="M47" s="209">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,I47,,L47)</f>
-        <v>4.6999394070567418E-3</v>
+        <v>5.0582419375927142E-3</v>
       </c>
       <c r="N47" s="232">
         <f t="shared" si="0"/>
-        <v>1.3108091155920237E-2</v>
+        <v>1.1903219234791679E-2</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.2">
@@ -8813,31 +8888,31 @@
       </c>
       <c r="G48" s="233">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I48)</f>
-        <v>43152</v>
+        <v>43188</v>
       </c>
       <c r="H48" s="195" t="str">
         <f>_xll.qlMakeDatedOIS(,I48,J48,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_003e4#0000</v>
+        <v>obj_003d6#0000</v>
       </c>
       <c r="I48" s="233">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F48&amp;"M","mf")</f>
-        <v>43154</v>
+        <v>43194</v>
       </c>
       <c r="J48" s="233">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I48)</f>
-        <v>43521</v>
+        <v>43559</v>
       </c>
       <c r="L48" s="232">
         <f>_xll.qlOvernightIndexedSwapFairRate(H48,_xll.ohTrigger($P$2:$P$6))</f>
-        <v>8.7946704963870088E-3</v>
+        <v>7.1247826846524767E-3</v>
       </c>
       <c r="M48" s="209">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,I48,,L48)</f>
-        <v>4.7051239694282697E-3</v>
+        <v>5.0619499893821401E-3</v>
       </c>
       <c r="N48" s="232">
         <f t="shared" si="0"/>
-        <v>1.3499794465815278E-2</v>
+        <v>1.2186732674034617E-2</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.2">
@@ -8853,31 +8928,31 @@
       </c>
       <c r="G49" s="233">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I49)</f>
-        <v>43180</v>
+        <v>43222</v>
       </c>
       <c r="H49" s="195" t="str">
         <f>_xll.qlMakeDatedOIS(,I49,J49,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_003e0#0000</v>
+        <v>obj_003fd#0000</v>
       </c>
       <c r="I49" s="233">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F49&amp;"M","mf")</f>
-        <v>43182</v>
+        <v>43224</v>
       </c>
       <c r="J49" s="233">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I49)</f>
-        <v>43549</v>
+        <v>43591</v>
       </c>
       <c r="L49" s="232">
         <f>_xll.qlOvernightIndexedSwapFairRate(H49,_xll.ohTrigger($P$2:$P$6))</f>
-        <v>9.1344182772663297E-3</v>
+        <v>7.4177996355053758E-3</v>
       </c>
       <c r="M49" s="209">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,I49,,L49)</f>
-        <v>4.7083190673766796E-3</v>
+        <v>5.0642356909285603E-3</v>
       </c>
       <c r="N49" s="232">
         <f t="shared" si="0"/>
-        <v>1.3842737344643009E-2</v>
+        <v>1.2482035326433936E-2</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.2">
@@ -8893,31 +8968,31 @@
       </c>
       <c r="G50" s="233">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I50)</f>
-        <v>43209</v>
+        <v>43251</v>
       </c>
       <c r="H50" s="195" t="str">
         <f>_xll.qlMakeDatedOIS(,I50,J50,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_003da#0000</v>
+        <v>obj_003d2#0000</v>
       </c>
       <c r="I50" s="233">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F50&amp;"M","mf")</f>
-        <v>43213</v>
+        <v>43255</v>
       </c>
       <c r="J50" s="233">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I50)</f>
-        <v>43578</v>
+        <v>43620</v>
       </c>
       <c r="L50" s="232">
         <f>_xll.qlOvernightIndexedSwapFairRate(H50,_xll.ohTrigger($P$2:$P$6))</f>
-        <v>9.4994794163897386E-3</v>
+        <v>7.703865075803484E-3</v>
       </c>
       <c r="M50" s="209">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,I50,,L50)</f>
-        <v>4.7106111043822242E-3</v>
+        <v>5.0654688554193361E-3</v>
       </c>
       <c r="N50" s="232">
         <f t="shared" si="0"/>
-        <v>1.4210090520771962E-2</v>
+        <v>1.276933393122282E-2</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.2">
@@ -8933,31 +9008,31 @@
       </c>
       <c r="G51" s="233">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,I51)</f>
-        <v>43241</v>
+        <v>43283</v>
       </c>
       <c r="H51" s="195" t="str">
         <f>_xll.qlMakeDatedOIS(,I51,J51,OvernightIndex,0,"Act/360",0)</f>
-        <v>obj_003de#0000</v>
+        <v>obj_003fa#0000</v>
       </c>
       <c r="I51" s="233">
         <f>_xll.qlCalendarAdvance(Calendar,$D$2,F51&amp;"M","mf")</f>
-        <v>43243</v>
+        <v>43285</v>
       </c>
       <c r="J51" s="233">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,I51)</f>
-        <v>43608</v>
+        <v>43650</v>
       </c>
       <c r="L51" s="232">
         <f>_xll.qlOvernightIndexedSwapFairRate(H51,_xll.ohTrigger($P$2:$P$6))</f>
-        <v>9.8654759955930718E-3</v>
+        <v>7.9931182738331771E-3</v>
       </c>
       <c r="M51" s="209">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,I51,,L51)</f>
-        <v>4.7119806239994061E-3</v>
+        <v>5.0659236633801034E-3</v>
       </c>
       <c r="N51" s="232">
         <f t="shared" si="0"/>
-        <v>1.4577456619592477E-2</v>
+        <v>1.305904193721328E-2</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.2">
@@ -9728,7 +9803,7 @@
       </c>
       <c r="P2" s="353">
         <f>_xll.ohTrigger(O3:O7)</f>
-        <v>18</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
@@ -9757,18 +9832,18 @@
       </c>
       <c r="J3" s="278">
         <f>SynthDepo!G34</f>
-        <v>1.2990526139239887E-3</v>
+        <v>8.2814371604559829E-4</v>
       </c>
       <c r="K3" s="178" t="s">
         <v>87</v>
       </c>
       <c r="L3" s="284">
-        <v>1.2990526139239887E-3</v>
+        <v>8.2814371604559829E-4</v>
       </c>
       <c r="M3" s="175"/>
       <c r="N3" s="288">
         <f t="array" ref="N3:N84">QuoteLive</f>
-        <v>1.2990526139239887E-3</v>
+        <v>8.2814371604559829E-4</v>
       </c>
       <c r="O3" s="289">
         <f>_xll.qlSimpleQuoteSetValue(D3,ROUND($N3,6),EvaluationDate)</f>
@@ -9803,17 +9878,17 @@
       </c>
       <c r="J4" s="278">
         <f>SynthDepo!G35</f>
-        <v>1.1762484592441206E-3</v>
+        <v>7.0251500905790299E-4</v>
       </c>
       <c r="K4" s="178" t="s">
         <v>87</v>
       </c>
       <c r="L4" s="284">
-        <v>1.1762484592441206E-3</v>
+        <v>7.0251500905790299E-4</v>
       </c>
       <c r="M4" s="175"/>
       <c r="N4" s="288">
-        <v>1.1762484592441206E-3</v>
+        <v>7.0251500905790299E-4</v>
       </c>
       <c r="O4" s="289">
         <f>_xll.qlSimpleQuoteSetValue(D4,ROUND($N4,6),EvaluationDate)</f>
@@ -9845,17 +9920,17 @@
       </c>
       <c r="J5" s="278">
         <f>SynthDepo!G36</f>
-        <v>1.1863102747473662E-3</v>
+        <v>7.7594811285251828E-4</v>
       </c>
       <c r="K5" s="178" t="s">
         <v>87</v>
       </c>
       <c r="L5" s="284">
-        <v>1.1863102747473662E-3</v>
+        <v>7.7594811285251828E-4</v>
       </c>
       <c r="M5" s="175"/>
       <c r="N5" s="288">
-        <v>1.1863102747473662E-3</v>
+        <v>7.7594811285251828E-4</v>
       </c>
       <c r="O5" s="289">
         <f>_xll.qlSimpleQuoteSetValue(D5,ROUND($N5,6),EvaluationDate)</f>
@@ -9887,17 +9962,17 @@
       </c>
       <c r="J6" s="280">
         <f>SynthDepo!G37</f>
-        <v>1.1363720928420505E-3</v>
+        <v>8.0938125721099488E-4</v>
       </c>
       <c r="K6" s="178" t="s">
         <v>87</v>
       </c>
       <c r="L6" s="285">
-        <v>1.1363720928420505E-3</v>
+        <v>8.0938125721099488E-4</v>
       </c>
       <c r="M6" s="175"/>
       <c r="N6" s="290">
-        <v>1.1363720928420505E-3</v>
+        <v>8.0938125721099488E-4</v>
       </c>
       <c r="O6" s="291">
         <f>_xll.qlSimpleQuoteSetValue(D6,ROUND($N6,6),EvaluationDate)</f>
@@ -9929,17 +10004,17 @@
       </c>
       <c r="J7" s="282">
         <f>SynthDepo!G38</f>
-        <v>1.1021658586514449E-3</v>
+        <v>9.7999999999999997E-4</v>
       </c>
       <c r="K7" s="298" t="s">
         <v>87</v>
       </c>
       <c r="L7" s="286">
-        <v>1.1021658586514449E-3</v>
+        <v>9.7999999999999997E-4</v>
       </c>
       <c r="M7" s="297"/>
       <c r="N7" s="292">
-        <v>1.1021658586514449E-3</v>
+        <v>9.7999999999999997E-4</v>
       </c>
       <c r="O7" s="293">
         <f>_xll.qlSimpleQuoteSetValue(D7,ROUND($N7,6),EvaluationDate)</f>
@@ -9970,15 +10045,15 @@
       </c>
       <c r="J8" s="300">
         <f>SynthDepo!H34</f>
-        <v>2.8434103207334591E-3</v>
+        <v>2.330478676124955E-3</v>
       </c>
       <c r="K8" s="185"/>
       <c r="L8" s="301">
-        <v>2.8434103207334591E-3</v>
+        <v>2.330478676124955E-3</v>
       </c>
       <c r="M8" s="183"/>
       <c r="N8" s="302">
-        <v>2.8434103207334591E-3</v>
+        <v>2.330478676124955E-3</v>
       </c>
       <c r="O8" s="303">
         <f>_xll.qlSimpleQuoteSetValue(D8,ROUND($N8,6),EvaluationDate)</f>
@@ -9986,7 +10061,7 @@
       </c>
       <c r="P8" s="354">
         <f>_xll.ohTrigger(O8:O14)</f>
-        <v>18</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
@@ -10013,15 +10088,15 @@
       </c>
       <c r="J9" s="278">
         <f>SynthDepo!H35</f>
-        <v>2.6816512146540595E-3</v>
+        <v>2.1614981710034909E-3</v>
       </c>
       <c r="K9" s="185"/>
       <c r="L9" s="284">
-        <v>2.6816512146540595E-3</v>
+        <v>2.1614981710034909E-3</v>
       </c>
       <c r="M9" s="183"/>
       <c r="N9" s="288">
-        <v>2.6816512146540595E-3</v>
+        <v>2.1614981710034909E-3</v>
       </c>
       <c r="O9" s="289">
         <f>_xll.qlSimpleQuoteSetValue(D9,ROUND($N9,6),EvaluationDate)</f>
@@ -10050,15 +10125,15 @@
       </c>
       <c r="J10" s="278">
         <f>SynthDepo!H36</f>
-        <v>2.6506000221447946E-3</v>
+        <v>2.1881470355708346E-3</v>
       </c>
       <c r="K10" s="185"/>
       <c r="L10" s="284">
-        <v>2.6506000221447946E-3</v>
+        <v>2.1881470355708346E-3</v>
       </c>
       <c r="M10" s="183"/>
       <c r="N10" s="288">
-        <v>2.6506000221447946E-3</v>
+        <v>2.1881470355708346E-3</v>
       </c>
       <c r="O10" s="289">
         <f>_xll.qlSimpleQuoteSetValue(D10,ROUND($N10,6),EvaluationDate)</f>
@@ -10087,15 +10162,15 @@
       </c>
       <c r="J11" s="280">
         <f>SynthDepo!H37</f>
-        <v>2.5642166856129065E-3</v>
+        <v>2.1788805576509951E-3</v>
       </c>
       <c r="K11" s="185"/>
       <c r="L11" s="285">
-        <v>2.5642166856129065E-3</v>
+        <v>2.1788805576509951E-3</v>
       </c>
       <c r="M11" s="183"/>
       <c r="N11" s="290">
-        <v>2.5642166856129065E-3</v>
+        <v>2.1788805576509951E-3</v>
       </c>
       <c r="O11" s="291">
         <f>_xll.qlSimpleQuoteSetValue(D11,ROUND($N11,6),EvaluationDate)</f>
@@ -10124,15 +10199,15 @@
       </c>
       <c r="J12" s="278">
         <f>SynthDepo!H38</f>
-        <v>2.4900112820817597E-3</v>
+        <v>2.2955854000558996E-3</v>
       </c>
       <c r="K12" s="185"/>
       <c r="L12" s="284">
-        <v>2.4900112820817597E-3</v>
+        <v>2.2955854000558996E-3</v>
       </c>
       <c r="M12" s="183"/>
       <c r="N12" s="288">
-        <v>2.4900112820817597E-3</v>
+        <v>2.2955854000558996E-3</v>
       </c>
       <c r="O12" s="289">
         <f>_xll.qlSimpleQuoteSetValue(D12,ROUND($N12,6),EvaluationDate)</f>
@@ -10161,15 +10236,15 @@
       </c>
       <c r="J13" s="278">
         <f>SynthDepo!H39</f>
-        <v>2.2539415818788868E-3</v>
+        <v>2.1790584996117029E-3</v>
       </c>
       <c r="K13" s="185"/>
       <c r="L13" s="284">
-        <v>2.2539415818788868E-3</v>
+        <v>2.1790584996117029E-3</v>
       </c>
       <c r="M13" s="183"/>
       <c r="N13" s="288">
-        <v>2.2539415818788868E-3</v>
+        <v>2.1790584996117029E-3</v>
       </c>
       <c r="O13" s="289">
         <f>_xll.qlSimpleQuoteSetValue(D13,ROUND($N13,6),EvaluationDate)</f>
@@ -10198,15 +10273,15 @@
       </c>
       <c r="J14" s="282">
         <f>SynthDepo!H40</f>
-        <v>2.1318241815896088E-3</v>
+        <v>2.0899999999999981E-3</v>
       </c>
       <c r="K14" s="185"/>
       <c r="L14" s="286">
-        <v>2.1318241815896088E-3</v>
+        <v>2.0899999999999981E-3</v>
       </c>
       <c r="M14" s="183"/>
       <c r="N14" s="292">
-        <v>2.1318241815896088E-3</v>
+        <v>2.0899999999999981E-3</v>
       </c>
       <c r="O14" s="293">
         <f>_xll.qlSimpleQuoteSetValue(D14,ROUND($N14,6),EvaluationDate)</f>
@@ -10240,15 +10315,15 @@
       </c>
       <c r="J15" s="300">
         <f>SynthDepo!I34</f>
-        <v>4.2220399232639006E-3</v>
+        <v>2.701574862683619E-3</v>
       </c>
       <c r="K15" s="185"/>
       <c r="L15" s="301">
-        <v>4.2220399232639006E-3</v>
+        <v>2.701574862683619E-3</v>
       </c>
       <c r="M15" s="183"/>
       <c r="N15" s="302">
-        <v>4.2220399232639006E-3</v>
+        <v>2.701574862683619E-3</v>
       </c>
       <c r="O15" s="303">
         <f>_xll.qlSimpleQuoteSetValue(D15,ROUND($N15,6),EvaluationDate)</f>
@@ -10256,7 +10331,7 @@
       </c>
       <c r="P15" s="355">
         <f>_xll.ohTrigger(O15:O24)</f>
-        <v>18</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
@@ -10286,15 +10361,15 @@
       </c>
       <c r="J16" s="278">
         <f>SynthDepo!I35</f>
-        <v>4.0713063897154815E-3</v>
+        <v>2.5938349982427208E-3</v>
       </c>
       <c r="K16" s="185"/>
       <c r="L16" s="284">
-        <v>4.0713063897154815E-3</v>
+        <v>2.5938349982427208E-3</v>
       </c>
       <c r="M16" s="183"/>
       <c r="N16" s="288">
-        <v>4.0713063897154815E-3</v>
+        <v>2.5938349982427208E-3</v>
       </c>
       <c r="O16" s="289">
         <f>_xll.qlSimpleQuoteSetValue(D16,ROUND($N16,6),EvaluationDate)</f>
@@ -10326,15 +10401,15 @@
       </c>
       <c r="J17" s="278">
         <f>SynthDepo!I36</f>
-        <v>4.0512878571078471E-3</v>
+        <v>2.6876172491155075E-3</v>
       </c>
       <c r="K17" s="185"/>
       <c r="L17" s="284">
-        <v>4.0512878571078471E-3</v>
+        <v>2.6876172491155075E-3</v>
       </c>
       <c r="M17" s="183"/>
       <c r="N17" s="288">
-        <v>4.0512878571078471E-3</v>
+        <v>2.6876172491155075E-3</v>
       </c>
       <c r="O17" s="289">
         <f>_xll.qlSimpleQuoteSetValue(D17,ROUND($N17,6),EvaluationDate)</f>
@@ -10366,15 +10441,15 @@
       </c>
       <c r="J18" s="278">
         <f>SynthDepo!I37</f>
-        <v>3.9739658641147809E-3</v>
+        <v>2.7408382813852356E-3</v>
       </c>
       <c r="K18" s="185"/>
       <c r="L18" s="284">
-        <v>3.9739658641147809E-3</v>
+        <v>2.7408382813852356E-3</v>
       </c>
       <c r="M18" s="183"/>
       <c r="N18" s="288">
-        <v>3.9739658641147809E-3</v>
+        <v>2.7408382813852356E-3</v>
       </c>
       <c r="O18" s="289">
         <f>_xll.qlSimpleQuoteSetValue(D18,ROUND($N18,6),EvaluationDate)</f>
@@ -10406,15 +10481,15 @@
       </c>
       <c r="J19" s="278">
         <f>SynthDepo!I38</f>
-        <v>3.908514131294321E-3</v>
+        <v>2.9387518226354522E-3</v>
       </c>
       <c r="K19" s="185"/>
       <c r="L19" s="284">
-        <v>3.908514131294321E-3</v>
+        <v>2.9387518226354522E-3</v>
       </c>
       <c r="M19" s="183"/>
       <c r="N19" s="288">
-        <v>3.908514131294321E-3</v>
+        <v>2.9387518226354522E-3</v>
       </c>
       <c r="O19" s="289">
         <f>_xll.qlSimpleQuoteSetValue(D19,ROUND($N19,6),EvaluationDate)</f>
@@ -10446,15 +10521,15 @@
       </c>
       <c r="J20" s="278">
         <f>SynthDepo!I39</f>
-        <v>3.6766611779947174E-3</v>
+        <v>3.0183778860499609E-3</v>
       </c>
       <c r="K20" s="185"/>
       <c r="L20" s="284">
-        <v>3.6766611779947174E-3</v>
+        <v>3.0183778860499609E-3</v>
       </c>
       <c r="M20" s="183"/>
       <c r="N20" s="288">
-        <v>3.6766611779947174E-3</v>
+        <v>3.0183778860499609E-3</v>
       </c>
       <c r="O20" s="289">
         <f>_xll.qlSimpleQuoteSetValue(D20,ROUND($N20,6),EvaluationDate)</f>
@@ -10486,15 +10561,15 @@
       </c>
       <c r="J21" s="278">
         <f>SynthDepo!I40</f>
-        <v>3.5220817831563404E-3</v>
+        <v>3.0232202053537389E-3</v>
       </c>
       <c r="K21" s="185"/>
       <c r="L21" s="284">
-        <v>3.5220817831563404E-3</v>
+        <v>3.0232202053537389E-3</v>
       </c>
       <c r="M21" s="183"/>
       <c r="N21" s="288">
-        <v>3.5220817831563404E-3</v>
+        <v>3.0232202053537389E-3</v>
       </c>
       <c r="O21" s="289">
         <f>_xll.qlSimpleQuoteSetValue(D21,ROUND($N21,6),EvaluationDate)</f>
@@ -10526,15 +10601,15 @@
       </c>
       <c r="J22" s="278">
         <f>SynthDepo!I41</f>
-        <v>3.3484610346119787E-3</v>
+        <v>3.0591269561245273E-3</v>
       </c>
       <c r="K22" s="185"/>
       <c r="L22" s="284">
-        <v>3.3484610346119787E-3</v>
+        <v>3.0591269561245273E-3</v>
       </c>
       <c r="M22" s="183"/>
       <c r="N22" s="288">
-        <v>3.3484610346119787E-3</v>
+        <v>3.0591269561245273E-3</v>
       </c>
       <c r="O22" s="289">
         <f>_xll.qlSimpleQuoteSetValue(D22,ROUND($N22,6),EvaluationDate)</f>
@@ -10566,15 +10641,15 @@
       </c>
       <c r="J23" s="278">
         <f>SynthDepo!I42</f>
-        <v>3.1771900169376868E-3</v>
+        <v>3.0753981890402392E-3</v>
       </c>
       <c r="K23" s="185"/>
       <c r="L23" s="284">
-        <v>3.1771900169376868E-3</v>
+        <v>3.0753981890402392E-3</v>
       </c>
       <c r="M23" s="183"/>
       <c r="N23" s="288">
-        <v>3.1771900169376868E-3</v>
+        <v>3.0753981890402392E-3</v>
       </c>
       <c r="O23" s="289">
         <f>_xll.qlSimpleQuoteSetValue(D23,ROUND($N23,6),EvaluationDate)</f>
@@ -10606,15 +10681,15 @@
       </c>
       <c r="J24" s="282">
         <f>SynthDepo!I43</f>
-        <v>3.0678384022315808E-3</v>
+        <v>3.0599999999999985E-3</v>
       </c>
       <c r="K24" s="185"/>
       <c r="L24" s="286">
-        <v>3.0678384022315808E-3</v>
+        <v>3.0599999999999985E-3</v>
       </c>
       <c r="M24" s="183"/>
       <c r="N24" s="292">
-        <v>3.0678384022315808E-3</v>
+        <v>3.0599999999999985E-3</v>
       </c>
       <c r="O24" s="293">
         <f>_xll.qlSimpleQuoteSetValue(D24,ROUND($N24,6),EvaluationDate)</f>
@@ -10648,15 +10723,15 @@
       </c>
       <c r="J25" s="300">
         <f>SynthDepo!J34</f>
-        <v>5.1093588937015039E-3</v>
+        <v>4.7052204908060056E-3</v>
       </c>
       <c r="K25" s="185"/>
       <c r="L25" s="301">
-        <v>5.1093588937015039E-3</v>
+        <v>4.7052204908060056E-3</v>
       </c>
       <c r="M25" s="183"/>
       <c r="N25" s="302">
-        <v>5.1093588937015039E-3</v>
+        <v>4.7052204908060056E-3</v>
       </c>
       <c r="O25" s="303">
         <f>_xll.qlSimpleQuoteSetValue(D25,ROUND($N25,6),EvaluationDate)</f>
@@ -10664,7 +10739,7 @@
       </c>
       <c r="P25" s="355">
         <f>_xll.ohTrigger(O25:O40)</f>
-        <v>18</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
@@ -10694,15 +10769,15 @@
       </c>
       <c r="J26" s="278">
         <f>SynthDepo!J35</f>
-        <v>5.0245427018238776E-3</v>
+        <v>4.5866180016677794E-3</v>
       </c>
       <c r="K26" s="185"/>
       <c r="L26" s="284">
-        <v>5.0245427018238776E-3</v>
+        <v>4.5866180016677794E-3</v>
       </c>
       <c r="M26" s="183"/>
       <c r="N26" s="288">
-        <v>5.0245427018238776E-3</v>
+        <v>4.5866180016677794E-3</v>
       </c>
       <c r="O26" s="289">
         <f>_xll.qlSimpleQuoteSetValue(D26,ROUND($N26,6),EvaluationDate)</f>
@@ -10734,15 +10809,15 @@
       </c>
       <c r="J27" s="278">
         <f>SynthDepo!J36</f>
-        <v>5.0789238072630723E-3</v>
+        <v>4.6682483596201087E-3</v>
       </c>
       <c r="K27" s="185"/>
       <c r="L27" s="284">
-        <v>5.0789238072630723E-3</v>
+        <v>4.6682483596201087E-3</v>
       </c>
       <c r="M27" s="183"/>
       <c r="N27" s="288">
-        <v>5.0789238072630723E-3</v>
+        <v>4.6682483596201087E-3</v>
       </c>
       <c r="O27" s="289">
         <f>_xll.qlSimpleQuoteSetValue(D27,ROUND($N27,6),EvaluationDate)</f>
@@ -10774,15 +10849,15 @@
       </c>
       <c r="J28" s="278">
         <f>SynthDepo!J37</f>
-        <v>5.0733049152937052E-3</v>
+        <v>4.7098787581362992E-3</v>
       </c>
       <c r="K28" s="185"/>
       <c r="L28" s="284">
-        <v>5.0733049152937052E-3</v>
+        <v>4.7098787581362992E-3</v>
       </c>
       <c r="M28" s="183"/>
       <c r="N28" s="288">
-        <v>5.0733049152937052E-3</v>
+        <v>4.7098787581362992E-3</v>
       </c>
       <c r="O28" s="289">
         <f>_xll.qlSimpleQuoteSetValue(D28,ROUND($N28,6),EvaluationDate)</f>
@@ -10814,15 +10889,15 @@
       </c>
       <c r="J29" s="280">
         <f>SynthDepo!J38</f>
-        <v>5.0960806253064622E-3</v>
+        <v>4.8922078640077533E-3</v>
       </c>
       <c r="K29" s="185"/>
       <c r="L29" s="285">
-        <v>5.0960806253064622E-3</v>
+        <v>4.8922078640077533E-3</v>
       </c>
       <c r="M29" s="183"/>
       <c r="N29" s="290">
-        <v>5.0960806253064622E-3</v>
+        <v>4.8922078640077533E-3</v>
       </c>
       <c r="O29" s="291">
         <f>_xll.qlSimpleQuoteSetValue(D29,ROUND($N29,6),EvaluationDate)</f>
@@ -10854,15 +10929,15 @@
       </c>
       <c r="J30" s="278">
         <f>SynthDepo!J39</f>
-        <v>5.149591557830107E-3</v>
+        <v>4.9296610027851238E-3</v>
       </c>
       <c r="K30" s="185"/>
       <c r="L30" s="284">
-        <v>5.149591557830107E-3</v>
+        <v>4.9296610027851238E-3</v>
       </c>
       <c r="M30" s="183"/>
       <c r="N30" s="288">
-        <v>5.149591557830107E-3</v>
+        <v>4.9296610027851238E-3</v>
       </c>
       <c r="O30" s="289">
         <f>_xll.qlSimpleQuoteSetValue(D30,ROUND($N30,6),EvaluationDate)</f>
@@ -10894,15 +10969,15 @@
       </c>
       <c r="J31" s="278">
         <f>SynthDepo!J40</f>
-        <v>5.1963132872277469E-3</v>
+        <v>4.9064154098128398E-3</v>
       </c>
       <c r="K31" s="185"/>
       <c r="L31" s="284">
-        <v>5.1963132872277469E-3</v>
+        <v>4.9064154098128398E-3</v>
       </c>
       <c r="M31" s="183"/>
       <c r="N31" s="288">
-        <v>5.1963132872277469E-3</v>
+        <v>4.9064154098128398E-3</v>
       </c>
       <c r="O31" s="289">
         <f>_xll.qlSimpleQuoteSetValue(D31,ROUND($N31,6),EvaluationDate)</f>
@@ -10934,15 +11009,15 @@
       </c>
       <c r="J32" s="278">
         <f>SynthDepo!J41</f>
-        <v>5.182232320476713E-3</v>
+        <v>4.9234027274190914E-3</v>
       </c>
       <c r="K32" s="185"/>
       <c r="L32" s="284">
-        <v>5.182232320476713E-3</v>
+        <v>4.9234027274190914E-3</v>
       </c>
       <c r="M32" s="183"/>
       <c r="N32" s="288">
-        <v>5.182232320476713E-3</v>
+        <v>4.9234027274190914E-3</v>
       </c>
       <c r="O32" s="289">
         <f>_xll.qlSimpleQuoteSetValue(D32,ROUND($N32,6),EvaluationDate)</f>
@@ -10974,15 +11049,15 @@
       </c>
       <c r="J33" s="278">
         <f>SynthDepo!J42</f>
-        <v>5.1265459531722127E-3</v>
+        <v>4.9308558661889188E-3</v>
       </c>
       <c r="K33" s="185"/>
       <c r="L33" s="284">
-        <v>5.1265459531722127E-3</v>
+        <v>4.9308558661889188E-3</v>
       </c>
       <c r="M33" s="183"/>
       <c r="N33" s="288">
-        <v>5.1265459531722127E-3</v>
+        <v>4.9308558661889188E-3</v>
       </c>
       <c r="O33" s="289">
         <f>_xll.qlSimpleQuoteSetValue(D33,ROUND($N33,6),EvaluationDate)</f>
@@ -11014,15 +11089,15 @@
       </c>
       <c r="J34" s="278">
         <f>SynthDepo!J43</f>
-        <v>5.0732676830278463E-3</v>
+        <v>4.9178431837896795E-3</v>
       </c>
       <c r="K34" s="185"/>
       <c r="L34" s="284">
-        <v>5.0732676830278463E-3</v>
+        <v>4.9178431837896795E-3</v>
       </c>
       <c r="M34" s="183"/>
       <c r="N34" s="288">
-        <v>5.0732676830278463E-3</v>
+        <v>4.9178431837896795E-3</v>
       </c>
       <c r="O34" s="289">
         <f>_xll.qlSimpleQuoteSetValue(D34,ROUND($N34,6),EvaluationDate)</f>
@@ -11054,15 +11129,15 @@
       </c>
       <c r="J35" s="278">
         <f>SynthDepo!J44</f>
-        <v>5.0383840149423979E-3</v>
+        <v>4.9543646802007596E-3</v>
       </c>
       <c r="K35" s="185"/>
       <c r="L35" s="284">
-        <v>5.0383840149423979E-3</v>
+        <v>4.9543646802007596E-3</v>
       </c>
       <c r="M35" s="183"/>
       <c r="N35" s="288">
-        <v>5.0383840149423979E-3</v>
+        <v>4.9543646802007596E-3</v>
       </c>
       <c r="O35" s="289">
         <f>_xll.qlSimpleQuoteSetValue(D35,ROUND($N35,6),EvaluationDate)</f>
@@ -11094,15 +11169,15 @@
       </c>
       <c r="J36" s="278">
         <f>SynthDepo!J45</f>
-        <v>5.0135003466961862E-3</v>
+        <v>4.952283640110489E-3</v>
       </c>
       <c r="K36" s="185"/>
       <c r="L36" s="284">
-        <v>5.0135003466961862E-3</v>
+        <v>4.952283640110489E-3</v>
       </c>
       <c r="M36" s="183"/>
       <c r="N36" s="288">
-        <v>5.0135003466961862E-3</v>
+        <v>4.952283640110489E-3</v>
       </c>
       <c r="O36" s="289">
         <f>_xll.qlSimpleQuoteSetValue(D36,ROUND($N36,6),EvaluationDate)</f>
@@ -11134,15 +11209,15 @@
       </c>
       <c r="J37" s="278">
         <f>SynthDepo!J46</f>
-        <v>4.9810247755534866E-3</v>
+        <v>4.9285722260019836E-3</v>
       </c>
       <c r="K37" s="185"/>
       <c r="L37" s="284">
-        <v>4.9810247755534866E-3</v>
+        <v>4.9285722260019836E-3</v>
       </c>
       <c r="M37" s="183"/>
       <c r="N37" s="288">
-        <v>4.9810247755534866E-3</v>
+        <v>4.9285722260019836E-3</v>
       </c>
       <c r="O37" s="289">
         <f>_xll.qlSimpleQuoteSetValue(D37,ROUND($N37,6),EvaluationDate)</f>
@@ -11174,15 +11249,15 @@
       </c>
       <c r="J38" s="278">
         <f>SynthDepo!J47</f>
-        <v>4.9561411074682312E-3</v>
+        <v>4.9057924541891264E-3</v>
       </c>
       <c r="K38" s="185"/>
       <c r="L38" s="284">
-        <v>4.9561411074682312E-3</v>
+        <v>4.9057924541891264E-3</v>
       </c>
       <c r="M38" s="183"/>
       <c r="N38" s="288">
-        <v>4.9561411074682312E-3</v>
+        <v>4.9057924541891264E-3</v>
       </c>
       <c r="O38" s="289">
         <f>_xll.qlSimpleQuoteSetValue(D38,ROUND($N38,6),EvaluationDate)</f>
@@ -11214,15 +11289,15 @@
       </c>
       <c r="J39" s="278">
         <f>SynthDepo!J48</f>
-        <v>4.9304547404206223E-3</v>
+        <v>4.8932455929732825E-3</v>
       </c>
       <c r="K39" s="185"/>
       <c r="L39" s="284">
-        <v>4.9304547404206223E-3</v>
+        <v>4.8932455929732825E-3</v>
       </c>
       <c r="M39" s="183"/>
       <c r="N39" s="288">
-        <v>4.9304547404206223E-3</v>
+        <v>4.8932455929732825E-3</v>
       </c>
       <c r="O39" s="289">
         <f>_xll.qlSimpleQuoteSetValue(D39,ROUND($N39,6),EvaluationDate)</f>
@@ -11254,15 +11329,15 @@
       </c>
       <c r="J40" s="282">
         <f>SynthDepo!J49</f>
-        <v>4.897176470296776E-3</v>
+        <v>4.8900000000000002E-3</v>
       </c>
       <c r="K40" s="185"/>
       <c r="L40" s="286">
-        <v>4.897176470296776E-3</v>
+        <v>4.8900000000000002E-3</v>
       </c>
       <c r="M40" s="183"/>
       <c r="N40" s="292">
-        <v>4.897176470296776E-3</v>
+        <v>4.8900000000000002E-3</v>
       </c>
       <c r="O40" s="293">
         <f>_xll.qlSimpleQuoteSetValue(D40,ROUND($N40,6),EvaluationDate)</f>
@@ -11300,15 +11375,15 @@
       </c>
       <c r="J41" s="308">
         <f>SynthFra!N8</f>
-        <v>4.8406460255806345E-3</v>
+        <v>4.8937846215228002E-3</v>
       </c>
       <c r="K41" s="241"/>
       <c r="L41" s="311">
-        <v>4.8406460255806345E-3</v>
+        <v>4.8937846215228002E-3</v>
       </c>
       <c r="M41" s="242"/>
       <c r="N41" s="313">
-        <v>4.8406460255806345E-3</v>
+        <v>4.8937846215228002E-3</v>
       </c>
       <c r="O41" s="314">
         <f>_xll.qlSimpleQuoteSetValue(D41,ROUND(N41,6),EvaluationDate)</f>
@@ -11316,7 +11391,7 @@
       </c>
       <c r="P41" s="355">
         <f>_xll.ohTrigger(O41:O84)</f>
-        <v>18</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.2">
@@ -11349,15 +11424,15 @@
       </c>
       <c r="J42" s="308">
         <f>SynthFra!N9</f>
-        <v>4.7774275903101201E-3</v>
+        <v>4.8929549728473874E-3</v>
       </c>
       <c r="K42" s="242"/>
       <c r="L42" s="311">
-        <v>4.7774275903101201E-3</v>
+        <v>4.8929549728473874E-3</v>
       </c>
       <c r="M42" s="242"/>
       <c r="N42" s="313">
-        <v>4.7774275903101201E-3</v>
+        <v>4.8929549728473874E-3</v>
       </c>
       <c r="O42" s="314">
         <f>_xll.qlSimpleQuoteSetValue(D42,ROUND(N42,6),EvaluationDate)</f>
@@ -11395,15 +11470,15 @@
       </c>
       <c r="J43" s="308">
         <f>SynthFra!N10</f>
-        <v>4.7168282468794051E-3</v>
+        <v>4.9048393861664897E-3</v>
       </c>
       <c r="K43" s="242"/>
       <c r="L43" s="311">
-        <v>4.7168282468794051E-3</v>
+        <v>4.9048393861664897E-3</v>
       </c>
       <c r="M43" s="242"/>
       <c r="N43" s="313">
-        <v>4.7168282468794051E-3</v>
+        <v>4.9048393861664897E-3</v>
       </c>
       <c r="O43" s="314">
         <f>_xll.qlSimpleQuoteSetValue(D43,ROUND(N43,6),EvaluationDate)</f>
@@ -11441,15 +11516,15 @@
       </c>
       <c r="J44" s="308">
         <f>SynthFra!N11</f>
-        <v>4.6670486929331432E-3</v>
+        <v>4.9133494443889614E-3</v>
       </c>
       <c r="K44" s="242"/>
       <c r="L44" s="311">
-        <v>4.6670486929331432E-3</v>
+        <v>4.9133494443889614E-3</v>
       </c>
       <c r="M44" s="242"/>
       <c r="N44" s="313">
-        <v>4.6670486929331432E-3</v>
+        <v>4.9133494443889614E-3</v>
       </c>
       <c r="O44" s="314">
         <f>_xll.qlSimpleQuoteSetValue(D44,ROUND(N44,6),EvaluationDate)</f>
@@ -11487,15 +11562,15 @@
       </c>
       <c r="J45" s="308">
         <f>SynthFra!N12</f>
-        <v>4.6348626470477088E-3</v>
+        <v>4.9321822674661241E-3</v>
       </c>
       <c r="K45" s="242"/>
       <c r="L45" s="311">
-        <v>4.6348626470477088E-3</v>
+        <v>4.9321822674661241E-3</v>
       </c>
       <c r="M45" s="242"/>
       <c r="N45" s="313">
-        <v>4.6348626470477088E-3</v>
+        <v>4.9321822674661241E-3</v>
       </c>
       <c r="O45" s="314">
         <f>_xll.qlSimpleQuoteSetValue(D45,ROUND(N45,6),EvaluationDate)</f>
@@ -11533,15 +11608,15 @@
       </c>
       <c r="J46" s="308">
         <f>SynthFra!N13</f>
-        <v>4.618779268430055E-3</v>
+        <v>4.9678285917536431E-3</v>
       </c>
       <c r="K46" s="242"/>
       <c r="L46" s="311">
-        <v>4.618779268430055E-3</v>
+        <v>4.9678285917536431E-3</v>
       </c>
       <c r="M46" s="242"/>
       <c r="N46" s="313">
-        <v>4.618779268430055E-3</v>
+        <v>4.9678285917536431E-3</v>
       </c>
       <c r="O46" s="314">
         <f>_xll.qlSimpleQuoteSetValue(D46,ROUND(N46,6),EvaluationDate)</f>
@@ -11579,15 +11654,15 @@
       </c>
       <c r="J47" s="308">
         <f>SynthFra!N14</f>
-        <v>4.6053832557820798E-3</v>
+        <v>4.9845021901215357E-3</v>
       </c>
       <c r="K47" s="242"/>
       <c r="L47" s="311">
-        <v>4.6053832557820798E-3</v>
+        <v>4.9845021901215357E-3</v>
       </c>
       <c r="M47" s="242"/>
       <c r="N47" s="313">
-        <v>4.6053832557820798E-3</v>
+        <v>4.9845021901215357E-3</v>
       </c>
       <c r="O47" s="314">
         <f>_xll.qlSimpleQuoteSetValue(D47,ROUND(N47,6),EvaluationDate)</f>
@@ -11625,15 +11700,15 @@
       </c>
       <c r="J48" s="308">
         <f>SynthFra!N15</f>
-        <v>4.595351771150346E-3</v>
+        <v>5.0369894133500568E-3</v>
       </c>
       <c r="K48" s="242"/>
       <c r="L48" s="311">
-        <v>4.595351771150346E-3</v>
+        <v>5.0369894133500568E-3</v>
       </c>
       <c r="M48" s="242"/>
       <c r="N48" s="313">
-        <v>4.595351771150346E-3</v>
+        <v>5.0369894133500568E-3</v>
       </c>
       <c r="O48" s="314">
         <f>_xll.qlSimpleQuoteSetValue(D48,ROUND(N48,6),EvaluationDate)</f>
@@ -11671,15 +11746,15 @@
       </c>
       <c r="J49" s="308">
         <f>SynthFra!N16</f>
-        <v>4.6082952666255672E-3</v>
+        <v>5.1012280675738434E-3</v>
       </c>
       <c r="K49" s="242"/>
       <c r="L49" s="311">
-        <v>4.6082952666255672E-3</v>
+        <v>5.1012280675738434E-3</v>
       </c>
       <c r="M49" s="242"/>
       <c r="N49" s="313">
-        <v>4.6082952666255672E-3</v>
+        <v>5.1012280675738434E-3</v>
       </c>
       <c r="O49" s="314">
         <f>_xll.qlSimpleQuoteSetValue(D49,ROUND(N49,6),EvaluationDate)</f>
@@ -11717,15 +11792,15 @@
       </c>
       <c r="J50" s="308">
         <f>SynthFra!N17</f>
-        <v>4.6314621839731712E-3</v>
+        <v>5.1835028727387324E-3</v>
       </c>
       <c r="K50" s="242"/>
       <c r="L50" s="311">
-        <v>4.6314621839731712E-3</v>
+        <v>5.1835028727387324E-3</v>
       </c>
       <c r="M50" s="242"/>
       <c r="N50" s="313">
-        <v>4.6314621839731712E-3</v>
+        <v>5.1835028727387324E-3</v>
       </c>
       <c r="O50" s="314">
         <f>_xll.qlSimpleQuoteSetValue(D50,ROUND(N50,6),EvaluationDate)</f>
@@ -11763,15 +11838,15 @@
       </c>
       <c r="J51" s="308">
         <f>SynthFra!N18</f>
-        <v>4.6674941914769171E-3</v>
+        <v>5.2635318710918177E-3</v>
       </c>
       <c r="K51" s="242"/>
       <c r="L51" s="311">
-        <v>4.6674941914769171E-3</v>
+        <v>5.2635318710918177E-3</v>
       </c>
       <c r="M51" s="242"/>
       <c r="N51" s="313">
-        <v>4.6674941914769171E-3</v>
+        <v>5.2635318710918177E-3</v>
       </c>
       <c r="O51" s="314">
         <f>_xll.qlSimpleQuoteSetValue(D51,ROUND(N51,6),EvaluationDate)</f>
@@ -11809,15 +11884,15 @@
       </c>
       <c r="J52" s="308">
         <f>SynthFra!N19</f>
-        <v>4.8073697361709416E-3</v>
+        <v>5.4322305903985006E-3</v>
       </c>
       <c r="K52" s="242"/>
       <c r="L52" s="311">
-        <v>4.8073697361709416E-3</v>
+        <v>5.4322305903985006E-3</v>
       </c>
       <c r="M52" s="242"/>
       <c r="N52" s="313">
-        <v>4.8073697361709416E-3</v>
+        <v>5.4322305903985006E-3</v>
       </c>
       <c r="O52" s="314">
         <f>_xll.qlSimpleQuoteSetValue(D52,ROUND(N52,6),EvaluationDate)</f>
@@ -11855,15 +11930,15 @@
       </c>
       <c r="J53" s="308">
         <f>SynthFra!N20</f>
-        <v>4.8923504255238455E-3</v>
+        <v>5.5321519527100262E-3</v>
       </c>
       <c r="K53" s="242"/>
       <c r="L53" s="311">
-        <v>4.8923504255238455E-3</v>
+        <v>5.5321519527100262E-3</v>
       </c>
       <c r="M53" s="242"/>
       <c r="N53" s="313">
-        <v>4.8923504255238455E-3</v>
+        <v>5.5321519527100262E-3</v>
       </c>
       <c r="O53" s="314">
         <f>_xll.qlSimpleQuoteSetValue(D53,ROUND(N53,6),EvaluationDate)</f>
@@ -11901,15 +11976,15 @@
       </c>
       <c r="J54" s="308">
         <f>SynthFra!N21</f>
-        <v>4.9902300152116887E-3</v>
+        <v>5.6389929505564632E-3</v>
       </c>
       <c r="K54" s="242"/>
       <c r="L54" s="311">
-        <v>4.9902300152116887E-3</v>
+        <v>5.6389929505564632E-3</v>
       </c>
       <c r="M54" s="242"/>
       <c r="N54" s="313">
-        <v>4.9902300152116887E-3</v>
+        <v>5.6389929505564632E-3</v>
       </c>
       <c r="O54" s="314">
         <f>_xll.qlSimpleQuoteSetValue(D54,ROUND(N54,6),EvaluationDate)</f>
@@ -11947,15 +12022,15 @@
       </c>
       <c r="J55" s="308">
         <f>SynthFra!N22</f>
-        <v>5.1090206650879029E-3</v>
+        <v>5.7545702529594803E-3</v>
       </c>
       <c r="K55" s="242"/>
       <c r="L55" s="311">
-        <v>5.1090206650879029E-3</v>
+        <v>5.7545702529594803E-3</v>
       </c>
       <c r="M55" s="242"/>
       <c r="N55" s="313">
-        <v>5.1090206650879029E-3</v>
+        <v>5.7545702529594803E-3</v>
       </c>
       <c r="O55" s="314">
         <f>_xll.qlSimpleQuoteSetValue(D55,ROUND(N55,6),EvaluationDate)</f>
@@ -11993,15 +12068,15 @@
       </c>
       <c r="J56" s="308">
         <f>SynthFra!N23</f>
-        <v>5.2460827654877348E-3</v>
+        <v>5.8757854386011325E-3</v>
       </c>
       <c r="K56" s="242"/>
       <c r="L56" s="311">
-        <v>5.2460827654877348E-3</v>
+        <v>5.8757854386011325E-3</v>
       </c>
       <c r="M56" s="242"/>
       <c r="N56" s="313">
-        <v>5.2460827654877348E-3</v>
+        <v>5.8757854386011325E-3</v>
       </c>
       <c r="O56" s="314">
         <f>_xll.qlSimpleQuoteSetValue(D56,ROUND(N56,6),EvaluationDate)</f>
@@ -12039,15 +12114,15 @@
       </c>
       <c r="J57" s="308">
         <f>SynthFra!N24</f>
-        <v>5.3988472406250338E-3</v>
+        <v>6.0091383957247835E-3</v>
       </c>
       <c r="K57" s="242"/>
       <c r="L57" s="311">
-        <v>5.3988472406250338E-3</v>
+        <v>6.0091383957247835E-3</v>
       </c>
       <c r="M57" s="242"/>
       <c r="N57" s="313">
-        <v>5.3988472406250338E-3</v>
+        <v>6.0091383957247835E-3</v>
       </c>
       <c r="O57" s="314">
         <f>_xll.qlSimpleQuoteSetValue(D57,ROUND(N57,6),EvaluationDate)</f>
@@ -12085,15 +12160,15 @@
       </c>
       <c r="J58" s="308">
         <f>SynthFra!N25</f>
-        <v>5.5859281090479204E-3</v>
+        <v>6.1319127127069575E-3</v>
       </c>
       <c r="K58" s="242"/>
       <c r="L58" s="311">
-        <v>5.5859281090479204E-3</v>
+        <v>6.1319127127069575E-3</v>
       </c>
       <c r="M58" s="242"/>
       <c r="N58" s="313">
-        <v>5.5859281090479204E-3</v>
+        <v>6.1319127127069575E-3</v>
       </c>
       <c r="O58" s="314">
         <f>_xll.qlSimpleQuoteSetValue(D58,ROUND(N58,6),EvaluationDate)</f>
@@ -12131,15 +12206,15 @@
       </c>
       <c r="J59" s="308">
         <f>SynthFra!N26</f>
-        <v>5.7662394567391711E-3</v>
+        <v>6.2672581735201821E-3</v>
       </c>
       <c r="K59" s="242"/>
       <c r="L59" s="311">
-        <v>5.7662394567391711E-3</v>
+        <v>6.2672581735201821E-3</v>
       </c>
       <c r="M59" s="242"/>
       <c r="N59" s="313">
-        <v>5.7662394567391711E-3</v>
+        <v>6.2672581735201821E-3</v>
       </c>
       <c r="O59" s="314">
         <f>_xll.qlSimpleQuoteSetValue(D59,ROUND(N59,6),EvaluationDate)</f>
@@ -12177,15 +12252,15 @@
       </c>
       <c r="J60" s="308">
         <f>SynthFra!N27</f>
-        <v>5.9575814868177692E-3</v>
+        <v>6.4120606240183403E-3</v>
       </c>
       <c r="K60" s="242"/>
       <c r="L60" s="311">
-        <v>5.9575814868177692E-3</v>
+        <v>6.4120606240183403E-3</v>
       </c>
       <c r="M60" s="242"/>
       <c r="N60" s="313">
-        <v>5.9575814868177692E-3</v>
+        <v>6.4120606240183403E-3</v>
       </c>
       <c r="O60" s="314">
         <f>_xll.qlSimpleQuoteSetValue(D60,ROUND(N60,6),EvaluationDate)</f>
@@ -12223,15 +12298,15 @@
       </c>
       <c r="J61" s="308">
         <f>SynthFra!N28</f>
-        <v>6.1960893098092409E-3</v>
+        <v>6.5837138034104577E-3</v>
       </c>
       <c r="K61" s="242"/>
       <c r="L61" s="311">
-        <v>6.1960893098092409E-3</v>
+        <v>6.5837138034104577E-3</v>
       </c>
       <c r="M61" s="242"/>
       <c r="N61" s="313">
-        <v>6.1960893098092409E-3</v>
+        <v>6.5837138034104577E-3</v>
       </c>
       <c r="O61" s="314">
         <f>_xll.qlSimpleQuoteSetValue(D61,ROUND(N61,6),EvaluationDate)</f>
@@ -12269,19 +12344,19 @@
       </c>
       <c r="J62" s="308">
         <f>SynthFra!N29</f>
-        <v>6.412500321007597E-3</v>
+        <v>6.7391491191475129E-3</v>
       </c>
       <c r="K62" s="242"/>
       <c r="L62" s="311">
-        <v>6.412500321007597E-3</v>
+        <v>6.7391491191475129E-3</v>
       </c>
       <c r="M62" s="242"/>
       <c r="N62" s="313">
-        <v>6.412500321007597E-3</v>
+        <v>6.7391491191475129E-3</v>
       </c>
       <c r="O62" s="314">
         <f>_xll.qlSimpleQuoteSetValue(D62,ROUND(N62,6),EvaluationDate)</f>
-        <v>1.0000000000001327E-6</v>
+        <v>0</v>
       </c>
       <c r="P62" s="186"/>
     </row>
@@ -12315,15 +12390,15 @@
       </c>
       <c r="J63" s="308">
         <f>SynthFra!N30</f>
-        <v>6.9455216994446494E-3</v>
+        <v>7.1232821382276185E-3</v>
       </c>
       <c r="K63" s="242"/>
       <c r="L63" s="311">
-        <v>6.9455216994446494E-3</v>
+        <v>7.1232821382276185E-3</v>
       </c>
       <c r="M63" s="242"/>
       <c r="N63" s="313">
-        <v>6.9455216994446494E-3</v>
+        <v>7.1232821382276185E-3</v>
       </c>
       <c r="O63" s="314">
         <f>_xll.qlSimpleQuoteSetValue(D63,ROUND(N63,6),EvaluationDate)</f>
@@ -12361,15 +12436,15 @@
       </c>
       <c r="J64" s="308">
         <f>SynthFra!N31</f>
-        <v>7.2111439447380323E-3</v>
+        <v>7.3230793506112602E-3</v>
       </c>
       <c r="K64" s="242"/>
       <c r="L64" s="311">
-        <v>7.2111439447380323E-3</v>
+        <v>7.3230793506112602E-3</v>
       </c>
       <c r="M64" s="242"/>
       <c r="N64" s="313">
-        <v>7.2111439447380323E-3</v>
+        <v>7.3230793506112602E-3</v>
       </c>
       <c r="O64" s="314">
         <f>_xll.qlSimpleQuoteSetValue(D64,ROUND(N64,6),EvaluationDate)</f>
@@ -12407,15 +12482,15 @@
       </c>
       <c r="J65" s="308">
         <f>SynthFra!N32</f>
-        <v>7.5168373562576381E-3</v>
+        <v>7.5587404043618092E-3</v>
       </c>
       <c r="K65" s="242"/>
       <c r="L65" s="311">
-        <v>7.5168373562576381E-3</v>
+        <v>7.5587404043618092E-3</v>
       </c>
       <c r="M65" s="242"/>
       <c r="N65" s="313">
-        <v>7.5168373562576381E-3</v>
+        <v>7.5587404043618092E-3</v>
       </c>
       <c r="O65" s="314">
         <f>_xll.qlSimpleQuoteSetValue(D65,ROUND(N65,6),EvaluationDate)</f>
@@ -12453,15 +12528,15 @@
       </c>
       <c r="J66" s="308">
         <f>SynthFra!N33</f>
-        <v>7.8167292481846513E-3</v>
+        <v>7.7944800696233604E-3</v>
       </c>
       <c r="K66" s="242"/>
       <c r="L66" s="311">
-        <v>7.8167292481846513E-3</v>
+        <v>7.7944800696233604E-3</v>
       </c>
       <c r="M66" s="242"/>
       <c r="N66" s="313">
-        <v>7.8167292481846513E-3</v>
+        <v>7.7944800696233604E-3</v>
       </c>
       <c r="O66" s="314">
         <f>_xll.qlSimpleQuoteSetValue(D66,ROUND(N66,6),EvaluationDate)</f>
@@ -12499,15 +12574,15 @@
       </c>
       <c r="J67" s="308">
         <f>SynthFra!N34</f>
-        <v>8.1261658822661606E-3</v>
+        <v>8.0405111183897669E-3</v>
       </c>
       <c r="K67" s="242"/>
       <c r="L67" s="311">
-        <v>8.1261658822661606E-3</v>
+        <v>8.0405111183897669E-3</v>
       </c>
       <c r="M67" s="242"/>
       <c r="N67" s="313">
-        <v>8.1261658822661606E-3</v>
+        <v>8.0405111183897669E-3</v>
       </c>
       <c r="O67" s="314">
         <f>_xll.qlSimpleQuoteSetValue(D67,ROUND(N67,6),EvaluationDate)</f>
@@ -12545,15 +12620,15 @@
       </c>
       <c r="J68" s="308">
         <f>SynthFra!N35</f>
-        <v>8.4647021153290893E-3</v>
+        <v>8.3217659658808077E-3</v>
       </c>
       <c r="K68" s="242"/>
       <c r="L68" s="311">
-        <v>8.4647021153290893E-3</v>
+        <v>8.3217659658808077E-3</v>
       </c>
       <c r="M68" s="242"/>
       <c r="N68" s="313">
-        <v>8.4647021153290893E-3</v>
+        <v>8.3217659658808077E-3</v>
       </c>
       <c r="O68" s="314">
         <f>_xll.qlSimpleQuoteSetValue(D68,ROUND(N68,6),EvaluationDate)</f>
@@ -12591,15 +12666,15 @@
       </c>
       <c r="J69" s="308">
         <f>SynthFra!N36</f>
-        <v>8.7831918676685335E-3</v>
+        <v>8.5674044802459479E-3</v>
       </c>
       <c r="K69" s="242"/>
       <c r="L69" s="311">
-        <v>8.7831918676685335E-3</v>
+        <v>8.5674044802459479E-3</v>
       </c>
       <c r="M69" s="242"/>
       <c r="N69" s="313">
-        <v>8.7831918676685335E-3</v>
+        <v>8.5674044802459479E-3</v>
       </c>
       <c r="O69" s="314">
         <f>_xll.qlSimpleQuoteSetValue(D69,ROUND(N69,6),EvaluationDate)</f>
@@ -12637,15 +12712,15 @@
       </c>
       <c r="J70" s="308">
         <f>SynthFra!N37</f>
-        <v>9.1292751157284018E-3</v>
+        <v>8.8269351223983009E-3</v>
       </c>
       <c r="K70" s="242"/>
       <c r="L70" s="311">
-        <v>9.1292751157284018E-3</v>
+        <v>8.8269351223983009E-3</v>
       </c>
       <c r="M70" s="242"/>
       <c r="N70" s="313">
-        <v>9.1292751157284018E-3</v>
+        <v>8.8269351223983009E-3</v>
       </c>
       <c r="O70" s="314">
         <f>_xll.qlSimpleQuoteSetValue(D70,ROUND(N70,6),EvaluationDate)</f>
@@ -12683,15 +12758,15 @@
       </c>
       <c r="J71" s="308">
         <f>SynthFra!N38</f>
-        <v>9.4477175409658307E-3</v>
+        <v>9.0991854011479145E-3</v>
       </c>
       <c r="K71" s="242"/>
       <c r="L71" s="311">
-        <v>9.4477175409658307E-3</v>
+        <v>9.0991854011479145E-3</v>
       </c>
       <c r="M71" s="242"/>
       <c r="N71" s="313">
-        <v>9.4477175409658307E-3</v>
+        <v>9.0991854011479145E-3</v>
       </c>
       <c r="O71" s="314">
         <f>_xll.qlSimpleQuoteSetValue(D71,ROUND(N71,6),EvaluationDate)</f>
@@ -12729,19 +12804,19 @@
       </c>
       <c r="J72" s="308">
         <f>SynthFra!N39</f>
-        <v>9.8173882020001074E-3</v>
+        <v>9.3918053799206536E-3</v>
       </c>
       <c r="K72" s="242"/>
       <c r="L72" s="311">
-        <v>9.8173882020001074E-3</v>
+        <v>9.3918053799206536E-3</v>
       </c>
       <c r="M72" s="242"/>
       <c r="N72" s="313">
-        <v>9.8173882020001074E-3</v>
+        <v>9.3918053799206536E-3</v>
       </c>
       <c r="O72" s="314">
         <f>_xll.qlSimpleQuoteSetValue(D72,ROUND(N72,6),EvaluationDate)</f>
-        <v>-1.0000000000010001E-6</v>
+        <v>0</v>
       </c>
       <c r="P72" s="186"/>
     </row>
@@ -12775,15 +12850,15 @@
       </c>
       <c r="J73" s="308">
         <f>SynthFra!N40</f>
-        <v>1.0156728741461287E-2</v>
+        <v>9.6571823452942587E-3</v>
       </c>
       <c r="K73" s="242"/>
       <c r="L73" s="311">
-        <v>1.0156728741461287E-2</v>
+        <v>9.6571823452942587E-3</v>
       </c>
       <c r="M73" s="242"/>
       <c r="N73" s="313">
-        <v>1.0156728741461287E-2</v>
+        <v>9.6571823452942587E-3</v>
       </c>
       <c r="O73" s="314">
         <f>_xll.qlSimpleQuoteSetValue(D73,ROUND(N73,6),EvaluationDate)</f>
@@ -12821,15 +12896,15 @@
       </c>
       <c r="J74" s="308">
         <f>SynthFra!N41</f>
-        <v>1.0891943923843465E-2</v>
+        <v>1.0220308120069261E-2</v>
       </c>
       <c r="K74" s="242"/>
       <c r="L74" s="311">
-        <v>1.0891943923843465E-2</v>
+        <v>1.0220308120069261E-2</v>
       </c>
       <c r="M74" s="242"/>
       <c r="N74" s="313">
-        <v>1.0891943923843465E-2</v>
+        <v>1.0220308120069261E-2</v>
       </c>
       <c r="O74" s="314">
         <f>_xll.qlSimpleQuoteSetValue(D74,ROUND(N74,6),EvaluationDate)</f>
@@ -12867,15 +12942,15 @@
       </c>
       <c r="J75" s="308">
         <f>SynthFra!N42</f>
-        <v>1.1251224503790555E-2</v>
+        <v>1.0493765432492707E-2</v>
       </c>
       <c r="K75" s="242"/>
       <c r="L75" s="311">
-        <v>1.1251224503790555E-2</v>
+        <v>1.0493765432492707E-2</v>
       </c>
       <c r="M75" s="242"/>
       <c r="N75" s="313">
-        <v>1.1251224503790555E-2</v>
+        <v>1.0493765432492707E-2</v>
       </c>
       <c r="O75" s="314">
         <f>_xll.qlSimpleQuoteSetValue(D75,ROUND(N75,6),EvaluationDate)</f>
@@ -12913,19 +12988,19 @@
       </c>
       <c r="J76" s="308">
         <f>SynthFra!N43</f>
-        <v>1.1648647084713675E-2</v>
+        <v>1.0796237118172267E-2</v>
       </c>
       <c r="K76" s="242"/>
       <c r="L76" s="311">
-        <v>1.1648647084713675E-2</v>
+        <v>1.0796237118172267E-2</v>
       </c>
       <c r="M76" s="242"/>
       <c r="N76" s="313">
-        <v>1.1648647084713675E-2</v>
+        <v>1.0796237118172267E-2</v>
       </c>
       <c r="O76" s="314">
         <f>_xll.qlSimpleQuoteSetValue(D76,ROUND(N76,6),EvaluationDate)</f>
-        <v>9.9999999999926537E-7</v>
+        <v>0</v>
       </c>
       <c r="P76" s="186"/>
     </row>
@@ -12959,15 +13034,15 @@
       </c>
       <c r="J77" s="308">
         <f>SynthFra!N44</f>
-        <v>1.1987429318313512E-2</v>
+        <v>1.1054332615489257E-2</v>
       </c>
       <c r="K77" s="242"/>
       <c r="L77" s="311">
-        <v>1.1987429318313512E-2</v>
+        <v>1.1054332615489255E-2</v>
       </c>
       <c r="M77" s="242"/>
       <c r="N77" s="313">
-        <v>1.1987429318313512E-2</v>
+        <v>1.1054332615489257E-2</v>
       </c>
       <c r="O77" s="314">
         <f>_xll.qlSimpleQuoteSetValue(D77,ROUND(N77,6),EvaluationDate)</f>
@@ -13005,19 +13080,19 @@
       </c>
       <c r="J78" s="308">
         <f>SynthFra!N45</f>
-        <v>1.2363931768145289E-2</v>
+        <v>1.1341725516448744E-2</v>
       </c>
       <c r="K78" s="242"/>
       <c r="L78" s="311">
-        <v>1.2363931768145289E-2</v>
+        <v>1.1341725516448744E-2</v>
       </c>
       <c r="M78" s="242"/>
       <c r="N78" s="313">
-        <v>1.2363931768145289E-2</v>
+        <v>1.1341725516448744E-2</v>
       </c>
       <c r="O78" s="314">
         <f>_xll.qlSimpleQuoteSetValue(D78,ROUND(N78,6),EvaluationDate)</f>
-        <v>9.9999999999926537E-7</v>
+        <v>0</v>
       </c>
       <c r="P78" s="186"/>
     </row>
@@ -13051,15 +13126,15 @@
       </c>
       <c r="J79" s="308">
         <f>SynthFra!N46</f>
-        <v>1.2778263881708517E-2</v>
+        <v>1.1640297854331294E-2</v>
       </c>
       <c r="K79" s="242"/>
       <c r="L79" s="311">
-        <v>1.2778263881708517E-2</v>
+        <v>1.1640297854331294E-2</v>
       </c>
       <c r="M79" s="242"/>
       <c r="N79" s="313">
-        <v>1.2778263881708517E-2</v>
+        <v>1.1640297854331294E-2</v>
       </c>
       <c r="O79" s="314">
         <f>_xll.qlSimpleQuoteSetValue(D79,ROUND(N79,6),EvaluationDate)</f>
@@ -13097,19 +13172,19 @@
       </c>
       <c r="J80" s="308">
         <f>SynthFra!N47</f>
-        <v>1.3108091155920237E-2</v>
+        <v>1.1903219234791679E-2</v>
       </c>
       <c r="K80" s="242"/>
       <c r="L80" s="311">
-        <v>1.3108091155920237E-2</v>
+        <v>1.1903219234791679E-2</v>
       </c>
       <c r="M80" s="242"/>
       <c r="N80" s="313">
-        <v>1.3108091155920237E-2</v>
+        <v>1.1903219234791679E-2</v>
       </c>
       <c r="O80" s="314">
         <f>_xll.qlSimpleQuoteSetValue(D80,ROUND(N80,6),EvaluationDate)</f>
-        <v>9.9999999999926537E-7</v>
+        <v>0</v>
       </c>
       <c r="P80" s="186"/>
     </row>
@@ -13143,19 +13218,19 @@
       </c>
       <c r="J81" s="308">
         <f>SynthFra!N48</f>
-        <v>1.3499794465815278E-2</v>
+        <v>1.2186732674034617E-2</v>
       </c>
       <c r="K81" s="242"/>
       <c r="L81" s="311">
-        <v>1.3499794465815278E-2</v>
+        <v>1.2186732674034617E-2</v>
       </c>
       <c r="M81" s="242"/>
       <c r="N81" s="313">
-        <v>1.3499794465815278E-2</v>
+        <v>1.2186732674034617E-2</v>
       </c>
       <c r="O81" s="314">
         <f>_xll.qlSimpleQuoteSetValue(D81,ROUND(N81,6),EvaluationDate)</f>
-        <v>9.9999999999926537E-7</v>
+        <v>0</v>
       </c>
       <c r="P81" s="186"/>
     </row>
@@ -13189,19 +13264,19 @@
       </c>
       <c r="J82" s="308">
         <f>SynthFra!N49</f>
-        <v>1.3842737344643009E-2</v>
+        <v>1.2482035326433936E-2</v>
       </c>
       <c r="K82" s="242"/>
       <c r="L82" s="311">
-        <v>1.3842737344643009E-2</v>
+        <v>1.2482035326433936E-2</v>
       </c>
       <c r="M82" s="242"/>
       <c r="N82" s="313">
-        <v>1.3842737344643009E-2</v>
+        <v>1.2482035326433936E-2</v>
       </c>
       <c r="O82" s="314">
         <f>_xll.qlSimpleQuoteSetValue(D82,ROUND(N82,6),EvaluationDate)</f>
-        <v>9.9999999999926537E-7</v>
+        <v>0</v>
       </c>
       <c r="P82" s="186"/>
     </row>
@@ -13235,15 +13310,15 @@
       </c>
       <c r="J83" s="308">
         <f>SynthFra!N50</f>
-        <v>1.4210090520771962E-2</v>
+        <v>1.276933393122282E-2</v>
       </c>
       <c r="K83" s="242"/>
       <c r="L83" s="311">
-        <v>1.4210090520771962E-2</v>
+        <v>1.276933393122282E-2</v>
       </c>
       <c r="M83" s="242"/>
       <c r="N83" s="313">
-        <v>1.4210090520771962E-2</v>
+        <v>1.276933393122282E-2</v>
       </c>
       <c r="O83" s="314">
         <f>_xll.qlSimpleQuoteSetValue(D83,ROUND(N83,6),EvaluationDate)</f>
@@ -13281,15 +13356,15 @@
       </c>
       <c r="J84" s="310">
         <f>SynthFra!N51</f>
-        <v>1.4577456619592477E-2</v>
+        <v>1.305904193721328E-2</v>
       </c>
       <c r="K84" s="242"/>
       <c r="L84" s="312">
-        <v>1.4577456619592477E-2</v>
+        <v>1.305904193721328E-2</v>
       </c>
       <c r="M84" s="242"/>
       <c r="N84" s="351">
-        <v>1.4577456619592477E-2</v>
+        <v>1.305904193721328E-2</v>
       </c>
       <c r="O84" s="352">
         <f>_xll.qlSimpleQuoteSetValue(D84,ROUND(N84,6),EvaluationDate)</f>
